--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R871598d7a32f4414"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R91ea97cf5fb24cee"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R91ea97cf5fb24cee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rc2d2909663cd49d3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rc2d2909663cd49d3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Ra8a9c934f857494f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Ra8a9c934f857494f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R1a83454639e94fc0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R1a83454639e94fc0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rd2e5a16c01734c70"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rd2e5a16c01734c70"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rad7ef41494ec4ce1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rad7ef41494ec4ce1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R054992ec298647dc"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -2685,24 +2685,24 @@
     <x:row r="77">
       <x:c r="A77" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003930</x:t>
+          <x:t>FDEC240003737</x:t>
         </x:is>
       </x:c>
       <x:c r="B77" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C77" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="D77" s="1" t="n">
         <x:v>45909.9166666667</x:v>
       </x:c>
       <x:c r="E77" s="2" t="n">
-        <x:v>45993.9583333333</x:v>
+        <x:v>46009.9583333333</x:v>
       </x:c>
       <x:c r="F77" t="inlineStr">
         <x:is>
@@ -2711,14 +2711,19 @@
       </x:c>
       <x:c r="G77" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>LA TORRE CIUDAD DEL CONDUCTOR, SL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H77" t="inlineStr">
+        <x:is>
+          <x:t>PARLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="78">
       <x:c r="A78" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004370</x:t>
+          <x:t>FDEC240003930</x:t>
         </x:is>
       </x:c>
       <x:c r="B78" t="inlineStr">
@@ -2735,7 +2740,7 @@
         <x:v>45909.9166666667</x:v>
       </x:c>
       <x:c r="E78" s="2" t="n">
-        <x:v>45992.9583333333</x:v>
+        <x:v>45993.9583333333</x:v>
       </x:c>
       <x:c r="F78" t="inlineStr">
         <x:is>
@@ -2744,31 +2749,31 @@
       </x:c>
       <x:c r="G78" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="79">
       <x:c r="A79" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004451</x:t>
+          <x:t>FDEC240004370</x:t>
         </x:is>
       </x:c>
       <x:c r="B79" t="inlineStr">
         <x:is>
-          <x:t>AGAU0108</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C79" t="inlineStr">
         <x:is>
-          <x:t>AGRICULTURA ECOLÓGICA</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D79" s="1" t="n">
         <x:v>45909.9166666667</x:v>
       </x:c>
       <x:c r="E79" s="2" t="n">
-        <x:v>46013.9583333333</x:v>
+        <x:v>45992.9583333333</x:v>
       </x:c>
       <x:c r="F79" t="inlineStr">
         <x:is>
@@ -2777,31 +2782,31 @@
       </x:c>
       <x:c r="G79" t="inlineStr">
         <x:is>
-          <x:t>ARACOVE</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="80">
       <x:c r="A80" t="inlineStr">
         <x:is>
-          <x:t>23/8353</x:t>
+          <x:t>FDEC240004451</x:t>
         </x:is>
       </x:c>
       <x:c r="B80" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>AGAU0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C80" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>AGRICULTURA ECOLÓGICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D80" s="1" t="n">
-        <x:v>45908.9166666667</x:v>
+        <x:v>45909.9166666667</x:v>
       </x:c>
       <x:c r="E80" s="2" t="n">
-        <x:v>46065.9583333333</x:v>
+        <x:v>46013.9583333333</x:v>
       </x:c>
       <x:c r="F80" t="inlineStr">
         <x:is>
@@ -2810,31 +2815,31 @@
       </x:c>
       <x:c r="G80" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>ARACOVE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="81">
       <x:c r="A81" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003587</x:t>
+          <x:t>23/8353</x:t>
         </x:is>
       </x:c>
       <x:c r="B81" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C81" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D81" s="1" t="n">
         <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E81" s="2" t="n">
-        <x:v>45999.9583333333</x:v>
+        <x:v>46065.9583333333</x:v>
       </x:c>
       <x:c r="F81" t="inlineStr">
         <x:is>
@@ -2843,31 +2848,31 @@
       </x:c>
       <x:c r="G81" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="82">
       <x:c r="A82" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003589</x:t>
+          <x:t>FDEC240003587</x:t>
         </x:is>
       </x:c>
       <x:c r="B82" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C82" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D82" s="1" t="n">
         <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E82" s="2" t="n">
-        <x:v>45992.9583333333</x:v>
+        <x:v>45999.9583333333</x:v>
       </x:c>
       <x:c r="F82" t="inlineStr">
         <x:is>
@@ -2883,24 +2888,24 @@
     <x:row r="83">
       <x:c r="A83" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003933</x:t>
+          <x:t>FDEC240003589</x:t>
         </x:is>
       </x:c>
       <x:c r="B83" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C83" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D83" s="1" t="n">
         <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E83" s="2" t="n">
-        <x:v>45987.9583333333</x:v>
+        <x:v>45992.9583333333</x:v>
       </x:c>
       <x:c r="F83" t="inlineStr">
         <x:is>
@@ -2909,31 +2914,31 @@
       </x:c>
       <x:c r="G83" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="84">
       <x:c r="A84" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004057</x:t>
+          <x:t>FDEC240003933</x:t>
         </x:is>
       </x:c>
       <x:c r="B84" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C84" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D84" s="1" t="n">
         <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E84" s="2" t="n">
-        <x:v>45984.9583333333</x:v>
+        <x:v>45987.9583333333</x:v>
       </x:c>
       <x:c r="F84" t="inlineStr">
         <x:is>
@@ -2942,31 +2947,31 @@
       </x:c>
       <x:c r="G84" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="85">
       <x:c r="A85" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009106</x:t>
+          <x:t>FDEC240004057</x:t>
         </x:is>
       </x:c>
       <x:c r="B85" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C85" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D85" s="1" t="n">
         <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E85" s="2" t="n">
-        <x:v>45995.9583333333</x:v>
+        <x:v>45984.9583333333</x:v>
       </x:c>
       <x:c r="F85" t="inlineStr">
         <x:is>
@@ -2975,31 +2980,31 @@
       </x:c>
       <x:c r="G85" t="inlineStr">
         <x:is>
-          <x:t>ENTE PUBLICO EMPRESARIAL ALCALA DESARROLLO</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="86">
       <x:c r="A86" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003553</x:t>
+          <x:t>FDAC240009106</x:t>
         </x:is>
       </x:c>
       <x:c r="B86" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C86" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D86" s="1" t="n">
-        <x:v>45907.9166666667</x:v>
+        <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E86" s="2" t="n">
-        <x:v>46002.9583333333</x:v>
+        <x:v>45995.9583333333</x:v>
       </x:c>
       <x:c r="F86" t="inlineStr">
         <x:is>
@@ -3008,36 +3013,31 @@
       </x:c>
       <x:c r="G86" t="inlineStr">
         <x:is>
-          <x:t>MARSDIGITAL, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H86" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ENTE PUBLICO EMPRESARIAL ALCALA DESARROLLO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="87">
       <x:c r="A87" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003575</x:t>
+          <x:t>FDEC240003738</x:t>
         </x:is>
       </x:c>
       <x:c r="B87" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>TMVL0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C87" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>PINTURA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D87" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E87" s="2" t="n">
-        <x:v>46016.9583333333</x:v>
+        <x:v>46013.9583333333</x:v>
       </x:c>
       <x:c r="F87" t="inlineStr">
         <x:is>
@@ -3046,31 +3046,36 @@
       </x:c>
       <x:c r="G87" t="inlineStr">
         <x:is>
-          <x:t>MONTIGUELDO S.L.</x:t>
+          <x:t>LA TORRE CIUDAD DEL CONDUCTOR, SL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H87" t="inlineStr">
+        <x:is>
+          <x:t>PARLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="88">
       <x:c r="A88" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003577</x:t>
+          <x:t>FDEC240003553</x:t>
         </x:is>
       </x:c>
       <x:c r="B88" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C88" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="D88" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E88" s="2" t="n">
-        <x:v>46016.9583333333</x:v>
+        <x:v>46002.9583333333</x:v>
       </x:c>
       <x:c r="F88" t="inlineStr">
         <x:is>
@@ -3079,31 +3084,36 @@
       </x:c>
       <x:c r="G88" t="inlineStr">
         <x:is>
-          <x:t>MONTIGUELDO S.L.</x:t>
+          <x:t>MARSDIGITAL, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H88" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="89">
       <x:c r="A89" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004273</x:t>
+          <x:t>FDEC240003575</x:t>
         </x:is>
       </x:c>
       <x:c r="B89" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C89" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D89" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E89" s="2" t="n">
-        <x:v>45993.9583333333</x:v>
+        <x:v>46016.9583333333</x:v>
       </x:c>
       <x:c r="F89" t="inlineStr">
         <x:is>
@@ -3112,36 +3122,31 @@
       </x:c>
       <x:c r="G89" t="inlineStr">
         <x:is>
-          <x:t>EVOLUTION TRAINING SL</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H89" t="inlineStr">
-        <x:is>
-          <x:t>Coslada</x:t>
+          <x:t>MONTIGUELDO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="90">
       <x:c r="A90" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004369</x:t>
+          <x:t>FDEC240003577</x:t>
         </x:is>
       </x:c>
       <x:c r="B90" t="inlineStr">
         <x:is>
-          <x:t>EOCO0208</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C90" t="inlineStr">
         <x:is>
-          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="D90" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E90" s="2" t="n">
-        <x:v>46013.9583333333</x:v>
+        <x:v>46016.9583333333</x:v>
       </x:c>
       <x:c r="F90" t="inlineStr">
         <x:is>
@@ -3150,31 +3155,31 @@
       </x:c>
       <x:c r="G90" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>MONTIGUELDO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="91">
       <x:c r="A91" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004371</x:t>
+          <x:t>FDEC240004273</x:t>
         </x:is>
       </x:c>
       <x:c r="B91" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C91" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D91" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E91" s="2" t="n">
-        <x:v>45988.9583333333</x:v>
+        <x:v>45993.9583333333</x:v>
       </x:c>
       <x:c r="F91" t="inlineStr">
         <x:is>
@@ -3183,24 +3188,29 @@
       </x:c>
       <x:c r="G91" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>EVOLUTION TRAINING SL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H91" t="inlineStr">
+        <x:is>
+          <x:t>Coslada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="92">
       <x:c r="A92" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004458</x:t>
+          <x:t>FDEC240004369</x:t>
         </x:is>
       </x:c>
       <x:c r="B92" t="inlineStr">
         <x:is>
-          <x:t>AFDA0211</x:t>
+          <x:t>EOCO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C92" t="inlineStr">
         <x:is>
-          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA</x:t>
+          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D92" s="1" t="n">
@@ -3216,31 +3226,31 @@
       </x:c>
       <x:c r="G92" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="93">
       <x:c r="A93" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009076</x:t>
+          <x:t>FDEC240004371</x:t>
         </x:is>
       </x:c>
       <x:c r="B93" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C93" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D93" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E93" s="2" t="n">
-        <x:v>45981.9583333333</x:v>
+        <x:v>45988.9583333333</x:v>
       </x:c>
       <x:c r="F93" t="inlineStr">
         <x:is>
@@ -3249,36 +3259,31 @@
       </x:c>
       <x:c r="G93" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H93" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="94">
       <x:c r="A94" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003965</x:t>
+          <x:t>FDEC240004458</x:t>
         </x:is>
       </x:c>
       <x:c r="B94" t="inlineStr">
         <x:is>
-          <x:t>SEAG0109</x:t>
+          <x:t>AFDA0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C94" t="inlineStr">
         <x:is>
-          <x:t>INTERPRETACIÓN Y EDUCACIÓN AMBIENTAL</x:t>
+          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="D94" s="1" t="n">
-        <x:v>45905.9166666667</x:v>
+        <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E94" s="2" t="n">
-        <x:v>46014.9583333333</x:v>
+        <x:v>46013.9583333333</x:v>
       </x:c>
       <x:c r="F94" t="inlineStr">
         <x:is>
@@ -3287,64 +3292,69 @@
       </x:c>
       <x:c r="G94" t="inlineStr">
         <x:is>
-          <x:t>AULA 3 INFORMATICA,SERVICIOS DE FORMACION S.L.</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="95">
       <x:c r="A95" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003423</x:t>
+          <x:t>FDAC240009076</x:t>
         </x:is>
       </x:c>
       <x:c r="B95" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C95" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="D95" s="1" t="n">
-        <x:v>45903.9166666667</x:v>
+        <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E95" s="2" t="n">
-        <x:v>45986.9583333333</x:v>
+        <x:v>45981.9583333333</x:v>
       </x:c>
       <x:c r="F95" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G95" t="inlineStr">
         <x:is>
-          <x:t>GESTION DE CONOCIMIENTO SA</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H95" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="96">
       <x:c r="A96" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004546</x:t>
+          <x:t>FDEC240003965</x:t>
         </x:is>
       </x:c>
       <x:c r="B96" t="inlineStr">
         <x:is>
-          <x:t>QUIL0108</x:t>
+          <x:t>SEAG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C96" t="inlineStr">
         <x:is>
-          <x:t>ANÁLISIS QUÍMICO</x:t>
+          <x:t>INTERPRETACIÓN Y EDUCACIÓN AMBIENTAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D96" s="1" t="n">
-        <x:v>45903.9166666667</x:v>
+        <x:v>45905.9166666667</x:v>
       </x:c>
       <x:c r="E96" s="2" t="n">
-        <x:v>45953.9166666667</x:v>
+        <x:v>46014.9583333333</x:v>
       </x:c>
       <x:c r="F96" t="inlineStr">
         <x:is>
@@ -3353,69 +3363,64 @@
       </x:c>
       <x:c r="G96" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO MENESIANO EN AV BRASILIA 11 INST  HH DE LA  INSTR CRISTIANA DE MADRID</x:t>
+          <x:t>AULA 3 INFORMATICA,SERVICIOS DE FORMACION S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="97">
       <x:c r="A97" t="inlineStr">
         <x:is>
-          <x:t>24/980</x:t>
+          <x:t>FDEC240003423</x:t>
         </x:is>
       </x:c>
       <x:c r="B97" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C97" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D97" s="1" t="n">
-        <x:v>45903</x:v>
+        <x:v>45903.9166666667</x:v>
       </x:c>
       <x:c r="E97" s="2" t="n">
-        <x:v>46037</x:v>
+        <x:v>45986.9583333333</x:v>
       </x:c>
       <x:c r="F97" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G97" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN TECNOLOGÍAS DEL FRÍO Y LA CLIMATIZACIÓN (C.R.N. MORATALAZ)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H97" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>GESTION DE CONOCIMIENTO SA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="98">
       <x:c r="A98" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003765</x:t>
+          <x:t>FDEC240004546</x:t>
         </x:is>
       </x:c>
       <x:c r="B98" t="inlineStr">
         <x:is>
-          <x:t>ELEM0111</x:t>
+          <x:t>QUIL0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C98" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
+          <x:t>ANÁLISIS QUÍMICO</x:t>
         </x:is>
       </x:c>
       <x:c r="D98" s="1" t="n">
-        <x:v>45902.9166666667</x:v>
+        <x:v>45903.9166666667</x:v>
       </x:c>
       <x:c r="E98" s="2" t="n">
-        <x:v>45974.9583333333</x:v>
+        <x:v>45953.9166666667</x:v>
       </x:c>
       <x:c r="F98" t="inlineStr">
         <x:is>
@@ -3424,36 +3429,31 @@
       </x:c>
       <x:c r="G98" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H98" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>COLEGIO MENESIANO EN AV BRASILIA 11 INST  HH DE LA  INSTR CRISTIANA DE MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="99">
       <x:c r="A99" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009074</x:t>
+          <x:t>24/980</x:t>
         </x:is>
       </x:c>
       <x:c r="B99" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C99" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D99" s="1" t="n">
-        <x:v>45902.9166666667</x:v>
+        <x:v>45903</x:v>
       </x:c>
       <x:c r="E99" s="2" t="n">
-        <x:v>45994.9583333333</x:v>
+        <x:v>46037</x:v>
       </x:c>
       <x:c r="F99" t="inlineStr">
         <x:is>
@@ -3462,36 +3462,36 @@
       </x:c>
       <x:c r="G99" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
+          <x:t>C.F.P.E EN TECNOLOGÍAS DEL FRÍO Y LA CLIMATIZACIÓN (C.R.N. MORATALAZ)</x:t>
         </x:is>
       </x:c>
       <x:c r="H99" t="inlineStr">
         <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="100">
       <x:c r="A100" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009131</x:t>
+          <x:t>FDEC240003765</x:t>
         </x:is>
       </x:c>
       <x:c r="B100" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>ELEM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C100" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D100" s="1" t="n">
         <x:v>45902.9166666667</x:v>
       </x:c>
       <x:c r="E100" s="2" t="n">
-        <x:v>45971.9583333333</x:v>
+        <x:v>45974.9583333333</x:v>
       </x:c>
       <x:c r="F100" t="inlineStr">
         <x:is>
@@ -3500,31 +3500,36 @@
       </x:c>
       <x:c r="G100" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H100" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="101">
       <x:c r="A101" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004282</x:t>
+          <x:t>FDAC240009074</x:t>
         </x:is>
       </x:c>
       <x:c r="B101" t="inlineStr">
         <x:is>
-          <x:t>SANP0108</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C101" t="inlineStr">
         <x:is>
-          <x:t>TANATOPRAXIA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D101" s="1" t="n">
         <x:v>45902.9166666667</x:v>
       </x:c>
       <x:c r="E101" s="2" t="n">
-        <x:v>45987.9583333333</x:v>
+        <x:v>45994.9583333333</x:v>
       </x:c>
       <x:c r="F101" t="inlineStr">
         <x:is>
@@ -3533,31 +3538,36 @@
       </x:c>
       <x:c r="G101" t="inlineStr">
         <x:is>
-          <x:t>UNION FUNERAL SERVICIOS INTEGRALES, S.L.</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H101" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="102">
       <x:c r="A102" t="inlineStr">
         <x:is>
-          <x:t>24/982</x:t>
+          <x:t>FDAC240009131</x:t>
         </x:is>
       </x:c>
       <x:c r="B102" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C102" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="D102" s="1" t="n">
-        <x:v>45902</x:v>
+        <x:v>45902.9166666667</x:v>
       </x:c>
       <x:c r="E102" s="2" t="n">
-        <x:v>46036</x:v>
+        <x:v>45971.9583333333</x:v>
       </x:c>
       <x:c r="F102" t="inlineStr">
         <x:is>
@@ -3566,36 +3576,31 @@
       </x:c>
       <x:c r="G102" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN TECNOLOGÍAS DEL FRÍO Y LA CLIMATIZACIÓN (C.R.N. MORATALAZ)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H102" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="103">
       <x:c r="A103" t="inlineStr">
         <x:is>
-          <x:t>23/8227</x:t>
+          <x:t>FDEC240004282</x:t>
         </x:is>
       </x:c>
       <x:c r="B103" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>SANP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C103" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>TANATOPRAXIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D103" s="1" t="n">
-        <x:v>45901.9166666667</x:v>
+        <x:v>45902.9166666667</x:v>
       </x:c>
       <x:c r="E103" s="2" t="n">
-        <x:v>45981.9583333333</x:v>
+        <x:v>45987.9583333333</x:v>
       </x:c>
       <x:c r="F103" t="inlineStr">
         <x:is>
@@ -3604,31 +3609,31 @@
       </x:c>
       <x:c r="G103" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>UNION FUNERAL SERVICIOS INTEGRALES, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="104">
       <x:c r="A104" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003583</x:t>
+          <x:t>24/982</x:t>
         </x:is>
       </x:c>
       <x:c r="B104" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C104" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D104" s="1" t="n">
-        <x:v>45901.9166666667</x:v>
+        <x:v>45902</x:v>
       </x:c>
       <x:c r="E104" s="2" t="n">
-        <x:v>45992.9583333333</x:v>
+        <x:v>46036</x:v>
       </x:c>
       <x:c r="F104" t="inlineStr">
         <x:is>
@@ -3637,31 +3642,36 @@
       </x:c>
       <x:c r="G104" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>C.F.P.E EN TECNOLOGÍAS DEL FRÍO Y LA CLIMATIZACIÓN (C.R.N. MORATALAZ)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H104" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="105">
       <x:c r="A105" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003767</x:t>
+          <x:t>23/8227</x:t>
         </x:is>
       </x:c>
       <x:c r="B105" t="inlineStr">
         <x:is>
-          <x:t>ELEM0311</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C105" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DE AUTOMATIZACIÓN INDUSTRIAL</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D105" s="1" t="n">
         <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E105" s="2" t="n">
-        <x:v>45979.9583333333</x:v>
+        <x:v>45981.9583333333</x:v>
       </x:c>
       <x:c r="F105" t="inlineStr">
         <x:is>
@@ -3670,36 +3680,31 @@
       </x:c>
       <x:c r="G105" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H105" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="106">
       <x:c r="A106" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003866</x:t>
+          <x:t>FDEC240003583</x:t>
         </x:is>
       </x:c>
       <x:c r="B106" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C106" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D106" s="1" t="n">
         <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E106" s="2" t="n">
-        <x:v>46020.9583333333</x:v>
+        <x:v>45992.9583333333</x:v>
       </x:c>
       <x:c r="F106" t="inlineStr">
         <x:is>
@@ -3708,36 +3713,31 @@
       </x:c>
       <x:c r="G106" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H106" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="107">
       <x:c r="A107" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003867</x:t>
+          <x:t>FDEC240003767</x:t>
         </x:is>
       </x:c>
       <x:c r="B107" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>ELEM0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C107" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DE AUTOMATIZACIÓN INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D107" s="1" t="n">
         <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E107" s="2" t="n">
-        <x:v>46020.9583333333</x:v>
+        <x:v>45979.9583333333</x:v>
       </x:c>
       <x:c r="F107" t="inlineStr">
         <x:is>
@@ -3746,29 +3746,29 @@
       </x:c>
       <x:c r="G107" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
         </x:is>
       </x:c>
       <x:c r="H107" t="inlineStr">
         <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="108">
       <x:c r="A108" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003868</x:t>
+          <x:t>FDEC240003866</x:t>
         </x:is>
       </x:c>
       <x:c r="B108" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C108" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D108" s="1" t="n">
@@ -3796,24 +3796,24 @@
     <x:row r="109">
       <x:c r="A109" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009084</x:t>
+          <x:t>FDEC240003867</x:t>
         </x:is>
       </x:c>
       <x:c r="B109" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C109" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D109" s="1" t="n">
         <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E109" s="2" t="n">
-        <x:v>45995.9583333333</x:v>
+        <x:v>46020.9583333333</x:v>
       </x:c>
       <x:c r="F109" t="inlineStr">
         <x:is>
@@ -3822,7 +3822,7 @@
       </x:c>
       <x:c r="G109" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H109" t="inlineStr">
@@ -3834,24 +3834,24 @@
     <x:row r="110">
       <x:c r="A110" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009085</x:t>
+          <x:t>FDEC240003868</x:t>
         </x:is>
       </x:c>
       <x:c r="B110" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C110" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D110" s="1" t="n">
         <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E110" s="2" t="n">
-        <x:v>45995.9583333333</x:v>
+        <x:v>46020.9583333333</x:v>
       </x:c>
       <x:c r="F110" t="inlineStr">
         <x:is>
@@ -3860,7 +3860,7 @@
       </x:c>
       <x:c r="G110" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H110" t="inlineStr">
@@ -3872,24 +3872,24 @@
     <x:row r="111">
       <x:c r="A111" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003737</x:t>
+          <x:t>FDAC240009084</x:t>
         </x:is>
       </x:c>
       <x:c r="B111" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C111" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D111" s="1" t="n">
-        <x:v>45900.9166666667</x:v>
+        <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E111" s="2" t="n">
-        <x:v>46013.9583333333</x:v>
+        <x:v>45995.9583333333</x:v>
       </x:c>
       <x:c r="F111" t="inlineStr">
         <x:is>
@@ -3898,36 +3898,36 @@
       </x:c>
       <x:c r="G111" t="inlineStr">
         <x:is>
-          <x:t>LA TORRE CIUDAD DEL CONDUCTOR, SL</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="H111" t="inlineStr">
         <x:is>
-          <x:t>PARLA</x:t>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="112">
       <x:c r="A112" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003738</x:t>
+          <x:t>FDAC240009085</x:t>
         </x:is>
       </x:c>
       <x:c r="B112" t="inlineStr">
         <x:is>
-          <x:t>TMVL0509</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C112" t="inlineStr">
         <x:is>
-          <x:t>PINTURA DE VEHÍCULOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D112" s="1" t="n">
-        <x:v>45900.9166666667</x:v>
+        <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E112" s="2" t="n">
-        <x:v>46019.9583333333</x:v>
+        <x:v>45995.9583333333</x:v>
       </x:c>
       <x:c r="F112" t="inlineStr">
         <x:is>
@@ -3936,12 +3936,12 @@
       </x:c>
       <x:c r="G112" t="inlineStr">
         <x:is>
-          <x:t>LA TORRE CIUDAD DEL CONDUCTOR, SL</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="H112" t="inlineStr">
         <x:is>
-          <x:t>PARLA</x:t>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R054992ec298647dc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R5893c02ce3fe4563"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R5893c02ce3fe4563"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R672bd769062d4ee7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R672bd769062d4ee7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R45431b83d04e423f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R45431b83d04e423f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Raee7ffd255d6485d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R192ed0e16dc64284"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R3b362f7add404a4a"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -555,24 +555,24 @@
     <x:row r="16">
       <x:c r="A16" t="inlineStr">
         <x:is>
-          <x:t>24/1185</x:t>
+          <x:t>23/8329</x:t>
         </x:is>
       </x:c>
       <x:c r="B16" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>EOCJ0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C16" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCION</x:t>
+          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>45986</x:v>
+        <x:v>45986.9583333333</x:v>
       </x:c>
       <x:c r="E16" s="2" t="n">
-        <x:v>46098</x:v>
+        <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="F16" t="inlineStr">
         <x:is>
@@ -581,36 +581,31 @@
       </x:c>
       <x:c r="G16" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H16" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>ADARA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="A17" t="inlineStr">
         <x:is>
-          <x:t>24/929</x:t>
+          <x:t>24/1185</x:t>
         </x:is>
       </x:c>
       <x:c r="B17" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C17" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCION</x:t>
         </x:is>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>45985</x:v>
+        <x:v>45986</x:v>
       </x:c>
       <x:c r="E17" s="2" t="n">
-        <x:v>46122</x:v>
+        <x:v>46098</x:v>
       </x:c>
       <x:c r="F17" t="inlineStr">
         <x:is>
@@ -619,36 +614,36 @@
       </x:c>
       <x:c r="G17" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H17" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18" t="inlineStr">
         <x:is>
-          <x:t>23/8050</x:t>
+          <x:t>24/929</x:t>
         </x:is>
       </x:c>
       <x:c r="B18" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C18" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>45984.9583333333</x:v>
+        <x:v>45985</x:v>
       </x:c>
       <x:c r="E18" s="2" t="n">
-        <x:v>46051.9583333333</x:v>
+        <x:v>46122</x:v>
       </x:c>
       <x:c r="F18" t="inlineStr">
         <x:is>
@@ -657,31 +652,36 @@
       </x:c>
       <x:c r="G18" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H18" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19" t="inlineStr">
         <x:is>
-          <x:t>24/1164</x:t>
+          <x:t>23/8050</x:t>
         </x:is>
       </x:c>
       <x:c r="B19" t="inlineStr">
         <x:is>
-          <x:t>IMAI0108</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C19" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA </x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>45973</x:v>
+        <x:v>45984.9583333333</x:v>
       </x:c>
       <x:c r="E19" s="2" t="n">
-        <x:v>46079</x:v>
+        <x:v>46051.9583333333</x:v>
       </x:c>
       <x:c r="F19" t="inlineStr">
         <x:is>
@@ -690,36 +690,31 @@
       </x:c>
       <x:c r="G19" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H19" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" t="inlineStr">
         <x:is>
-          <x:t>24/1170</x:t>
+          <x:t>24/1164</x:t>
         </x:is>
       </x:c>
       <x:c r="B20" t="inlineStr">
         <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>IMAI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C20" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA </x:t>
         </x:is>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>45973</x:v>
       </x:c>
       <x:c r="E20" s="2" t="n">
-        <x:v>46059</x:v>
+        <x:v>46079</x:v>
       </x:c>
       <x:c r="F20" t="inlineStr">
         <x:is>
@@ -740,24 +735,24 @@
     <x:row r="21">
       <x:c r="A21" t="inlineStr">
         <x:is>
-          <x:t>24/1143</x:t>
+          <x:t>24/1170</x:t>
         </x:is>
       </x:c>
       <x:c r="B21" t="inlineStr">
         <x:is>
-          <x:t>TMVG0409</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C21" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>45958</x:v>
+        <x:v>45973</x:v>
       </x:c>
       <x:c r="E21" s="2" t="n">
-        <x:v>46099</x:v>
+        <x:v>46059</x:v>
       </x:c>
       <x:c r="F21" t="inlineStr">
         <x:is>
@@ -778,24 +773,24 @@
     <x:row r="22">
       <x:c r="A22" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004582</x:t>
+          <x:t>24/1143</x:t>
         </x:is>
       </x:c>
       <x:c r="B22" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>TMVG0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C22" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
         </x:is>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>45952.9166666667</x:v>
+        <x:v>45958</x:v>
       </x:c>
       <x:c r="E22" s="2" t="n">
-        <x:v>46098.9583333333</x:v>
+        <x:v>46099</x:v>
       </x:c>
       <x:c r="F22" t="inlineStr">
         <x:is>
@@ -804,26 +799,36 @@
       </x:c>
       <x:c r="G22" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H22" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="inlineStr">
         <x:is>
-          <x:t>24/1161</x:t>
+          <x:t>FDEC240004582</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B23" t="inlineStr">
+        <x:is>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C23" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE, PUESTA EN SERVICIO, MANTENIMIENTO, INSPECCIÓN Y REVISIÓN DE INSTALACIONES RECEPTORAS Y APARATOS DE GAS </x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>45951</x:v>
+        <x:v>45952.9166666667</x:v>
       </x:c>
       <x:c r="E23" s="2" t="n">
-        <x:v>46098</x:v>
+        <x:v>46098.9583333333</x:v>
       </x:c>
       <x:c r="F23" t="inlineStr">
         <x:is>
@@ -832,36 +837,26 @@
       </x:c>
       <x:c r="G23" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H23" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="inlineStr">
         <x:is>
-          <x:t>24/1174</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B24" t="inlineStr">
-        <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>24/1161</x:t>
         </x:is>
       </x:c>
       <x:c r="C24" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>MONTAJE, PUESTA EN SERVICIO, MANTENIMIENTO, INSPECCIÓN Y REVISIÓN DE INSTALACIONES RECEPTORAS Y APARATOS DE GAS </x:t>
         </x:is>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>45951</x:v>
       </x:c>
       <x:c r="E24" s="2" t="n">
-        <x:v>46078</x:v>
+        <x:v>46098</x:v>
       </x:c>
       <x:c r="F24" t="inlineStr">
         <x:is>
@@ -882,24 +877,24 @@
     <x:row r="25">
       <x:c r="A25" t="inlineStr">
         <x:is>
-          <x:t>24/911</x:t>
+          <x:t>24/1174</x:t>
         </x:is>
       </x:c>
       <x:c r="B25" t="inlineStr">
         <x:is>
-          <x:t>TMVL0509</x:t>
+          <x:t>AGAO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C25" t="inlineStr">
         <x:is>
-          <x:t>PINTURA DE VEHÍCULOS</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
         </x:is>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>45945</x:v>
+        <x:v>45951</x:v>
       </x:c>
       <x:c r="E25" s="2" t="n">
-        <x:v>46080</x:v>
+        <x:v>46078</x:v>
       </x:c>
       <x:c r="F25" t="inlineStr">
         <x:is>
@@ -908,36 +903,36 @@
       </x:c>
       <x:c r="G25" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H25" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26" t="inlineStr">
         <x:is>
-          <x:t>24/931</x:t>
+          <x:t>24/911</x:t>
         </x:is>
       </x:c>
       <x:c r="B26" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>TMVL0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C26" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>PINTURA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>45945</x:v>
       </x:c>
       <x:c r="E26" s="2" t="n">
-        <x:v>46099</x:v>
+        <x:v>46080</x:v>
       </x:c>
       <x:c r="F26" t="inlineStr">
         <x:is>
@@ -958,24 +953,24 @@
     <x:row r="27">
       <x:c r="A27" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003590</x:t>
+          <x:t>24/931</x:t>
         </x:is>
       </x:c>
       <x:c r="B27" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C27" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>45944.9166666667</x:v>
+        <x:v>45945</x:v>
       </x:c>
       <x:c r="E27" s="2" t="n">
-        <x:v>45999.9583333333</x:v>
+        <x:v>46099</x:v>
       </x:c>
       <x:c r="F27" t="inlineStr">
         <x:is>
@@ -984,31 +979,36 @@
       </x:c>
       <x:c r="G27" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H27" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004464</x:t>
+          <x:t>FDEC240003590</x:t>
         </x:is>
       </x:c>
       <x:c r="B28" t="inlineStr">
         <x:is>
-          <x:t>AFDA0511</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C28" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E28" s="2" t="n">
-        <x:v>45990.9583333333</x:v>
+        <x:v>45999.9583333333</x:v>
       </x:c>
       <x:c r="F28" t="inlineStr">
         <x:is>
@@ -1017,31 +1017,31 @@
       </x:c>
       <x:c r="G28" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c r="A29" t="inlineStr">
         <x:is>
-          <x:t>24/924</x:t>
+          <x:t>FDEC240004464</x:t>
         </x:is>
       </x:c>
       <x:c r="B29" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0108</x:t>
+          <x:t>AFDA0511</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO Y MONTAJE MECÁNICO DE EQUIPO INDUSTRIAL</x:t>
+          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>45944</x:v>
+        <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E29" s="2" t="n">
-        <x:v>46080</x:v>
+        <x:v>45990.9583333333</x:v>
       </x:c>
       <x:c r="F29" t="inlineStr">
         <x:is>
@@ -1050,36 +1050,31 @@
       </x:c>
       <x:c r="G29" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H29" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="inlineStr">
         <x:is>
-          <x:t>23/8329</x:t>
+          <x:t>24/924</x:t>
         </x:is>
       </x:c>
       <x:c r="B30" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0211</x:t>
+          <x:t>IMAQ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C30" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
+          <x:t>MANTENIMIENTO Y MONTAJE MECÁNICO DE EQUIPO INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>45943.9166666667</x:v>
+        <x:v>45944</x:v>
       </x:c>
       <x:c r="E30" s="2" t="n">
-        <x:v>46049.9583333333</x:v>
+        <x:v>46080</x:v>
       </x:c>
       <x:c r="F30" t="inlineStr">
         <x:is>
@@ -1088,7 +1083,12 @@
       </x:c>
       <x:c r="G30" t="inlineStr">
         <x:is>
-          <x:t>ADARA FORMACION, S.L.</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H30" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -2664,7 +2664,7 @@
         <x:v>45909.9166666667</x:v>
       </x:c>
       <x:c r="E76" s="2" t="n">
-        <x:v>46009.9583333333</x:v>
+        <x:v>45999.9583333333</x:v>
       </x:c>
       <x:c r="F76" t="inlineStr">
         <x:is>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R2b7b6462b4034730"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R494e38bf3e924af7"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -2277,22 +2277,25 @@
     <x:row r="65">
       <x:c r="A65" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003416</x:t>
+          <x:t>FDEC240004617</x:t>
         </x:is>
       </x:c>
       <x:c r="B65" t="inlineStr">
         <x:is>
-          <x:t>QUIA0108</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C65" t="inlineStr">
         <x:is>
-          <x:t>ENSAYOS FÍSICOS Y FISICOQUÍMICOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D65" s="1" t="n">
         <x:v>45914.9166666667</x:v>
       </x:c>
+      <x:c r="E65" s="2" t="n">
+        <x:v>46021.9583333333</x:v>
+      </x:c>
       <x:c r="F65" t="inlineStr">
         <x:is>
           <x:t>Presencial</x:t>
@@ -2300,32 +2303,29 @@
       </x:c>
       <x:c r="G65" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION AGRARIA S.A.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="66">
       <x:c r="A66" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003458</x:t>
+          <x:t>FDEC240003416</x:t>
         </x:is>
       </x:c>
       <x:c r="B66" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>QUIA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C66" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>ENSAYOS FÍSICOS Y FISICOQUÍMICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D66" s="1" t="n">
         <x:v>45914.9166666667</x:v>
       </x:c>
-      <x:c r="E66" s="2" t="n">
-        <x:v>46009.9583333333</x:v>
-      </x:c>
       <x:c r="F66" t="inlineStr">
         <x:is>
           <x:t>Presencial</x:t>
@@ -2333,24 +2333,24 @@
       </x:c>
       <x:c r="G66" t="inlineStr">
         <x:is>
-          <x:t>MERINERO S.A.</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION AGRARIA S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="67">
       <x:c r="A67" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003461</x:t>
+          <x:t>FDEC240003458</x:t>
         </x:is>
       </x:c>
       <x:c r="B67" t="inlineStr">
         <x:is>
-          <x:t>SEAG0109</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C67" t="inlineStr">
         <x:is>
-          <x:t>INTERPRETACIÓN Y EDUCACIÓN AMBIENTAL</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D67" s="1" t="n">
@@ -2373,17 +2373,17 @@
     <x:row r="68">
       <x:c r="A68" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003462</x:t>
+          <x:t>FDEC240003461</x:t>
         </x:is>
       </x:c>
       <x:c r="B68" t="inlineStr">
         <x:is>
-          <x:t>SEAG0211</x:t>
+          <x:t>SEAG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C68" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN AMBIENTAL</x:t>
+          <x:t>INTERPRETACIÓN Y EDUCACIÓN AMBIENTAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D68" s="1" t="n">
@@ -2406,24 +2406,24 @@
     <x:row r="69">
       <x:c r="A69" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004368</x:t>
+          <x:t>FDEC240003462</x:t>
         </x:is>
       </x:c>
       <x:c r="B69" t="inlineStr">
         <x:is>
-          <x:t>EOCO0208</x:t>
+          <x:t>SEAG0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C69" t="inlineStr">
         <x:is>
-          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
+          <x:t>GESTIÓN AMBIENTAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D69" s="1" t="n">
         <x:v>45914.9166666667</x:v>
       </x:c>
       <x:c r="E69" s="2" t="n">
-        <x:v>46013.9583333333</x:v>
+        <x:v>46009.9583333333</x:v>
       </x:c>
       <x:c r="F69" t="inlineStr">
         <x:is>
@@ -2432,24 +2432,24 @@
       </x:c>
       <x:c r="G69" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>MERINERO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="70">
       <x:c r="A70" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004448</x:t>
+          <x:t>FDEC240004368</x:t>
         </x:is>
       </x:c>
       <x:c r="B70" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0109</x:t>
+          <x:t>EOCO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C70" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y MANTENIMIENTO DE ÁRBOLES Y PALMERAS ORNAMENTALES</x:t>
+          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D70" s="1" t="n">
@@ -2465,31 +2465,31 @@
       </x:c>
       <x:c r="G70" t="inlineStr">
         <x:is>
-          <x:t>ARACOVE</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="71">
       <x:c r="A71" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009000</x:t>
+          <x:t>FDEC240004448</x:t>
         </x:is>
       </x:c>
       <x:c r="B71" t="inlineStr">
         <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>AGAJ0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C71" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>GESTIÓN Y MANTENIMIENTO DE ÁRBOLES Y PALMERAS ORNAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D71" s="1" t="n">
         <x:v>45914.9166666667</x:v>
       </x:c>
       <x:c r="E71" s="2" t="n">
-        <x:v>45999.9583333333</x:v>
+        <x:v>46013.9583333333</x:v>
       </x:c>
       <x:c r="F71" t="inlineStr">
         <x:is>
@@ -2498,31 +2498,31 @@
       </x:c>
       <x:c r="G71" t="inlineStr">
         <x:is>
-          <x:t>AYTO. NAVALCARNERO</x:t>
+          <x:t>ARACOVE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="72">
       <x:c r="A72" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009145</x:t>
+          <x:t>FDAC240009000</x:t>
         </x:is>
       </x:c>
       <x:c r="B72" t="inlineStr">
         <x:is>
-          <x:t>SSCE04_1</x:t>
+          <x:t>AGAO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C72" t="inlineStr">
         <x:is>
-          <x:t>INGLÉS B2</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
         </x:is>
       </x:c>
       <x:c r="D72" s="1" t="n">
         <x:v>45914.9166666667</x:v>
       </x:c>
       <x:c r="E72" s="2" t="n">
-        <x:v>45979.9583333333</x:v>
+        <x:v>45999.9583333333</x:v>
       </x:c>
       <x:c r="F72" t="inlineStr">
         <x:is>
@@ -2531,31 +2531,31 @@
       </x:c>
       <x:c r="G72" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
+          <x:t>AYTO. NAVALCARNERO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="73">
       <x:c r="A73" t="inlineStr">
         <x:is>
-          <x:t>24/1075</x:t>
+          <x:t>FDAC240009145</x:t>
         </x:is>
       </x:c>
       <x:c r="B73" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCE04_1</x:t>
         </x:is>
       </x:c>
       <x:c r="C73" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>INGLÉS B2</x:t>
         </x:is>
       </x:c>
       <x:c r="D73" s="1" t="n">
-        <x:v>45911</x:v>
+        <x:v>45914.9166666667</x:v>
       </x:c>
       <x:c r="E73" s="2" t="n">
-        <x:v>46031</x:v>
+        <x:v>45979.9583333333</x:v>
       </x:c>
       <x:c r="F73" t="inlineStr">
         <x:is>
@@ -2564,36 +2564,31 @@
       </x:c>
       <x:c r="G73" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN TECNOLOGÍAS DEL FRÍO Y LA CLIMATIZACIÓN (C.R.N. MORATALAZ)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H73" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="74">
       <x:c r="A74" t="inlineStr">
         <x:is>
-          <x:t>24/983</x:t>
+          <x:t>24/1075</x:t>
         </x:is>
       </x:c>
       <x:c r="B74" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C74" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D74" s="1" t="n">
         <x:v>45911</x:v>
       </x:c>
       <x:c r="E74" s="2" t="n">
-        <x:v>45939</x:v>
+        <x:v>46031</x:v>
       </x:c>
       <x:c r="F74" t="inlineStr">
         <x:is>
@@ -2614,24 +2609,24 @@
     <x:row r="75">
       <x:c r="A75" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004115</x:t>
+          <x:t>24/983</x:t>
         </x:is>
       </x:c>
       <x:c r="B75" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0211</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C75" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D75" s="1" t="n">
-        <x:v>45910.9166666667</x:v>
+        <x:v>45911</x:v>
       </x:c>
       <x:c r="E75" s="2" t="n">
-        <x:v>45988.9583333333</x:v>
+        <x:v>45939</x:v>
       </x:c>
       <x:c r="F75" t="inlineStr">
         <x:is>
@@ -2640,31 +2635,36 @@
       </x:c>
       <x:c r="G75" t="inlineStr">
         <x:is>
-          <x:t>ADARA FORMACION, S.L.</x:t>
+          <x:t>C.F.P.E EN TECNOLOGÍAS DEL FRÍO Y LA CLIMATIZACIÓN (C.R.N. MORATALAZ)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H75" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="76">
       <x:c r="A76" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004450</x:t>
+          <x:t>FDEC240004115</x:t>
         </x:is>
       </x:c>
       <x:c r="B76" t="inlineStr">
         <x:is>
-          <x:t>AGAO0308M</x:t>
+          <x:t>EOCJ0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C76" t="inlineStr">
         <x:is>
-          <x:t>JARDINERÍA Y RESTAURACIÓN DEL PAISAJE</x:t>
+          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D76" s="1" t="n">
         <x:v>45910.9166666667</x:v>
       </x:c>
       <x:c r="E76" s="2" t="n">
-        <x:v>46020.9583333333</x:v>
+        <x:v>45988.9583333333</x:v>
       </x:c>
       <x:c r="F76" t="inlineStr">
         <x:is>
@@ -2673,31 +2673,31 @@
       </x:c>
       <x:c r="G76" t="inlineStr">
         <x:is>
-          <x:t>ARACOVE</x:t>
+          <x:t>ADARA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="77">
       <x:c r="A77" t="inlineStr">
         <x:is>
-          <x:t>23/8344</x:t>
+          <x:t>FDEC240004450</x:t>
         </x:is>
       </x:c>
       <x:c r="B77" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>AGAO0308M</x:t>
         </x:is>
       </x:c>
       <x:c r="C77" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>JARDINERÍA Y RESTAURACIÓN DEL PAISAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="D77" s="1" t="n">
-        <x:v>45909.9166666667</x:v>
+        <x:v>45910.9166666667</x:v>
       </x:c>
       <x:c r="E77" s="2" t="n">
-        <x:v>46008.9583333333</x:v>
+        <x:v>46020.9583333333</x:v>
       </x:c>
       <x:c r="F77" t="inlineStr">
         <x:is>
@@ -2706,31 +2706,31 @@
       </x:c>
       <x:c r="G77" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>ARACOVE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="78">
       <x:c r="A78" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003737</x:t>
+          <x:t>23/8344</x:t>
         </x:is>
       </x:c>
       <x:c r="B78" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C78" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D78" s="1" t="n">
         <x:v>45909.9166666667</x:v>
       </x:c>
       <x:c r="E78" s="2" t="n">
-        <x:v>45999.9583333333</x:v>
+        <x:v>46008.9583333333</x:v>
       </x:c>
       <x:c r="F78" t="inlineStr">
         <x:is>
@@ -2739,36 +2739,31 @@
       </x:c>
       <x:c r="G78" t="inlineStr">
         <x:is>
-          <x:t>LA TORRE CIUDAD DEL CONDUCTOR, SL</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H78" t="inlineStr">
-        <x:is>
-          <x:t>PARLA</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="79">
       <x:c r="A79" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003930</x:t>
+          <x:t>FDEC240003737</x:t>
         </x:is>
       </x:c>
       <x:c r="B79" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C79" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="D79" s="1" t="n">
         <x:v>45909.9166666667</x:v>
       </x:c>
       <x:c r="E79" s="2" t="n">
-        <x:v>45993.9583333333</x:v>
+        <x:v>45999.9583333333</x:v>
       </x:c>
       <x:c r="F79" t="inlineStr">
         <x:is>
@@ -2777,14 +2772,19 @@
       </x:c>
       <x:c r="G79" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>LA TORRE CIUDAD DEL CONDUCTOR, SL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H79" t="inlineStr">
+        <x:is>
+          <x:t>PARLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="80">
       <x:c r="A80" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004370</x:t>
+          <x:t>FDEC240003930</x:t>
         </x:is>
       </x:c>
       <x:c r="B80" t="inlineStr">
@@ -2801,7 +2801,7 @@
         <x:v>45909.9166666667</x:v>
       </x:c>
       <x:c r="E80" s="2" t="n">
-        <x:v>45992.9583333333</x:v>
+        <x:v>45993.9583333333</x:v>
       </x:c>
       <x:c r="F80" t="inlineStr">
         <x:is>
@@ -2810,31 +2810,31 @@
       </x:c>
       <x:c r="G80" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="81">
       <x:c r="A81" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004451</x:t>
+          <x:t>FDEC240004370</x:t>
         </x:is>
       </x:c>
       <x:c r="B81" t="inlineStr">
         <x:is>
-          <x:t>AGAU0108</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C81" t="inlineStr">
         <x:is>
-          <x:t>AGRICULTURA ECOLÓGICA</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D81" s="1" t="n">
         <x:v>45909.9166666667</x:v>
       </x:c>
       <x:c r="E81" s="2" t="n">
-        <x:v>46013.9583333333</x:v>
+        <x:v>45992.9583333333</x:v>
       </x:c>
       <x:c r="F81" t="inlineStr">
         <x:is>
@@ -2843,31 +2843,31 @@
       </x:c>
       <x:c r="G81" t="inlineStr">
         <x:is>
-          <x:t>ARACOVE</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="82">
       <x:c r="A82" t="inlineStr">
         <x:is>
-          <x:t>23/8353</x:t>
+          <x:t>FDEC240004451</x:t>
         </x:is>
       </x:c>
       <x:c r="B82" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>AGAU0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C82" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>AGRICULTURA ECOLÓGICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D82" s="1" t="n">
-        <x:v>45908.9166666667</x:v>
+        <x:v>45909.9166666667</x:v>
       </x:c>
       <x:c r="E82" s="2" t="n">
-        <x:v>46065.9583333333</x:v>
+        <x:v>46013.9583333333</x:v>
       </x:c>
       <x:c r="F82" t="inlineStr">
         <x:is>
@@ -2876,31 +2876,31 @@
       </x:c>
       <x:c r="G82" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>ARACOVE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="83">
       <x:c r="A83" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003587</x:t>
+          <x:t>23/8353</x:t>
         </x:is>
       </x:c>
       <x:c r="B83" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C83" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D83" s="1" t="n">
         <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E83" s="2" t="n">
-        <x:v>45999.9583333333</x:v>
+        <x:v>46065.9583333333</x:v>
       </x:c>
       <x:c r="F83" t="inlineStr">
         <x:is>
@@ -2909,31 +2909,31 @@
       </x:c>
       <x:c r="G83" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="84">
       <x:c r="A84" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003589</x:t>
+          <x:t>FDEC240003587</x:t>
         </x:is>
       </x:c>
       <x:c r="B84" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C84" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D84" s="1" t="n">
         <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E84" s="2" t="n">
-        <x:v>45992.9583333333</x:v>
+        <x:v>45999.9583333333</x:v>
       </x:c>
       <x:c r="F84" t="inlineStr">
         <x:is>
@@ -2949,24 +2949,24 @@
     <x:row r="85">
       <x:c r="A85" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003933</x:t>
+          <x:t>FDEC240003589</x:t>
         </x:is>
       </x:c>
       <x:c r="B85" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C85" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D85" s="1" t="n">
         <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E85" s="2" t="n">
-        <x:v>45987.9583333333</x:v>
+        <x:v>45992.9583333333</x:v>
       </x:c>
       <x:c r="F85" t="inlineStr">
         <x:is>
@@ -2975,31 +2975,31 @@
       </x:c>
       <x:c r="G85" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="86">
       <x:c r="A86" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004057</x:t>
+          <x:t>FDEC240003933</x:t>
         </x:is>
       </x:c>
       <x:c r="B86" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C86" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D86" s="1" t="n">
         <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E86" s="2" t="n">
-        <x:v>45984.9583333333</x:v>
+        <x:v>45987.9583333333</x:v>
       </x:c>
       <x:c r="F86" t="inlineStr">
         <x:is>
@@ -3008,31 +3008,31 @@
       </x:c>
       <x:c r="G86" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="87">
       <x:c r="A87" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009106</x:t>
+          <x:t>FDEC240004057</x:t>
         </x:is>
       </x:c>
       <x:c r="B87" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C87" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D87" s="1" t="n">
         <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E87" s="2" t="n">
-        <x:v>45995.9583333333</x:v>
+        <x:v>45984.9583333333</x:v>
       </x:c>
       <x:c r="F87" t="inlineStr">
         <x:is>
@@ -3041,31 +3041,31 @@
       </x:c>
       <x:c r="G87" t="inlineStr">
         <x:is>
-          <x:t>ENTE PUBLICO EMPRESARIAL ALCALA DESARROLLO</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="88">
       <x:c r="A88" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003477</x:t>
+          <x:t>FDEC240004184</x:t>
         </x:is>
       </x:c>
       <x:c r="B88" t="inlineStr">
         <x:is>
-          <x:t>ARTU0212</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C88" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA DIRECCIÓN TÉCNICA DE ESPECTÁCULOS EN VIVO Y EVENTOS</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D88" s="1" t="n">
-        <x:v>45907.9166666667</x:v>
+        <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E88" s="2" t="n">
-        <x:v>46013.9583333333</x:v>
+        <x:v>46002.9583333333</x:v>
       </x:c>
       <x:c r="F88" t="inlineStr">
         <x:is>
@@ -3074,36 +3074,31 @@
       </x:c>
       <x:c r="G88" t="inlineStr">
         <x:is>
-          <x:t>JANA PRODUCCIONES, S.A.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H88" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="89">
       <x:c r="A89" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003738</x:t>
+          <x:t>FDEC240004185</x:t>
         </x:is>
       </x:c>
       <x:c r="B89" t="inlineStr">
         <x:is>
-          <x:t>TMVL0509</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C89" t="inlineStr">
         <x:is>
-          <x:t>PINTURA DE VEHÍCULOS</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D89" s="1" t="n">
-        <x:v>45907.9166666667</x:v>
+        <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E89" s="2" t="n">
-        <x:v>46013.9583333333</x:v>
+        <x:v>46002.9583333333</x:v>
       </x:c>
       <x:c r="F89" t="inlineStr">
         <x:is>
@@ -3112,36 +3107,31 @@
       </x:c>
       <x:c r="G89" t="inlineStr">
         <x:is>
-          <x:t>LA TORRE CIUDAD DEL CONDUCTOR, SL</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H89" t="inlineStr">
-        <x:is>
-          <x:t>PARLA</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="90">
       <x:c r="A90" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003553</x:t>
+          <x:t>FDAC240009106</x:t>
         </x:is>
       </x:c>
       <x:c r="B90" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C90" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D90" s="1" t="n">
-        <x:v>45907.9166666667</x:v>
+        <x:v>45908.9166666667</x:v>
       </x:c>
       <x:c r="E90" s="2" t="n">
-        <x:v>46002.9583333333</x:v>
+        <x:v>45995.9583333333</x:v>
       </x:c>
       <x:c r="F90" t="inlineStr">
         <x:is>
@@ -3150,36 +3140,31 @@
       </x:c>
       <x:c r="G90" t="inlineStr">
         <x:is>
-          <x:t>MARSDIGITAL, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H90" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ENTE PUBLICO EMPRESARIAL ALCALA DESARROLLO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="91">
       <x:c r="A91" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003575</x:t>
+          <x:t>FDEC240003477</x:t>
         </x:is>
       </x:c>
       <x:c r="B91" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>ARTU0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C91" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>ASISTENCIA A LA DIRECCIÓN TÉCNICA DE ESPECTÁCULOS EN VIVO Y EVENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D91" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E91" s="2" t="n">
-        <x:v>46016.9583333333</x:v>
+        <x:v>46013.9583333333</x:v>
       </x:c>
       <x:c r="F91" t="inlineStr">
         <x:is>
@@ -3188,31 +3173,36 @@
       </x:c>
       <x:c r="G91" t="inlineStr">
         <x:is>
-          <x:t>MONTIGUELDO S.L.</x:t>
+          <x:t>JANA PRODUCCIONES, S.A.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H91" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="92">
       <x:c r="A92" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003577</x:t>
+          <x:t>FDEC240003738</x:t>
         </x:is>
       </x:c>
       <x:c r="B92" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>TMVL0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C92" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>PINTURA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D92" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E92" s="2" t="n">
-        <x:v>46016.9583333333</x:v>
+        <x:v>46013.9583333333</x:v>
       </x:c>
       <x:c r="F92" t="inlineStr">
         <x:is>
@@ -3221,31 +3211,36 @@
       </x:c>
       <x:c r="G92" t="inlineStr">
         <x:is>
-          <x:t>MONTIGUELDO S.L.</x:t>
+          <x:t>LA TORRE CIUDAD DEL CONDUCTOR, SL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H92" t="inlineStr">
+        <x:is>
+          <x:t>PARLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="93">
       <x:c r="A93" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004273</x:t>
+          <x:t>FDEC240003553</x:t>
         </x:is>
       </x:c>
       <x:c r="B93" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C93" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="D93" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E93" s="2" t="n">
-        <x:v>45993.9583333333</x:v>
+        <x:v>46002.9583333333</x:v>
       </x:c>
       <x:c r="F93" t="inlineStr">
         <x:is>
@@ -3254,36 +3249,36 @@
       </x:c>
       <x:c r="G93" t="inlineStr">
         <x:is>
-          <x:t>EVOLUTION TRAINING SL</x:t>
+          <x:t>MARSDIGITAL, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H93" t="inlineStr">
         <x:is>
-          <x:t>Coslada</x:t>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="94">
       <x:c r="A94" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004369</x:t>
+          <x:t>FDEC240003575</x:t>
         </x:is>
       </x:c>
       <x:c r="B94" t="inlineStr">
         <x:is>
-          <x:t>EOCO0208</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C94" t="inlineStr">
         <x:is>
-          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D94" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E94" s="2" t="n">
-        <x:v>46013.9583333333</x:v>
+        <x:v>46016.9583333333</x:v>
       </x:c>
       <x:c r="F94" t="inlineStr">
         <x:is>
@@ -3292,31 +3287,31 @@
       </x:c>
       <x:c r="G94" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>MONTIGUELDO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="95">
       <x:c r="A95" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004371</x:t>
+          <x:t>FDEC240003577</x:t>
         </x:is>
       </x:c>
       <x:c r="B95" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C95" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="D95" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E95" s="2" t="n">
-        <x:v>45988.9583333333</x:v>
+        <x:v>46016.9583333333</x:v>
       </x:c>
       <x:c r="F95" t="inlineStr">
         <x:is>
@@ -3325,31 +3320,31 @@
       </x:c>
       <x:c r="G95" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>MONTIGUELDO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="96">
       <x:c r="A96" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004458</x:t>
+          <x:t>FDEC240004273</x:t>
         </x:is>
       </x:c>
       <x:c r="B96" t="inlineStr">
         <x:is>
-          <x:t>AFDA0211</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C96" t="inlineStr">
         <x:is>
-          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D96" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E96" s="2" t="n">
-        <x:v>46013.9583333333</x:v>
+        <x:v>45993.9583333333</x:v>
       </x:c>
       <x:c r="F96" t="inlineStr">
         <x:is>
@@ -3358,31 +3353,36 @@
       </x:c>
       <x:c r="G96" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>EVOLUTION TRAINING SL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H96" t="inlineStr">
+        <x:is>
+          <x:t>Coslada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="97">
       <x:c r="A97" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009076</x:t>
+          <x:t>FDEC240004369</x:t>
         </x:is>
       </x:c>
       <x:c r="B97" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>EOCO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C97" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D97" s="1" t="n">
         <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E97" s="2" t="n">
-        <x:v>45981.9583333333</x:v>
+        <x:v>46013.9583333333</x:v>
       </x:c>
       <x:c r="F97" t="inlineStr">
         <x:is>
@@ -3391,36 +3391,31 @@
       </x:c>
       <x:c r="G97" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H97" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="98">
       <x:c r="A98" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003965</x:t>
+          <x:t>FDEC240004371</x:t>
         </x:is>
       </x:c>
       <x:c r="B98" t="inlineStr">
         <x:is>
-          <x:t>SEAG0109</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C98" t="inlineStr">
         <x:is>
-          <x:t>INTERPRETACIÓN Y EDUCACIÓN AMBIENTAL</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D98" s="1" t="n">
-        <x:v>45905.9166666667</x:v>
+        <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E98" s="2" t="n">
-        <x:v>46014.9583333333</x:v>
+        <x:v>45988.9583333333</x:v>
       </x:c>
       <x:c r="F98" t="inlineStr">
         <x:is>
@@ -3429,64 +3424,64 @@
       </x:c>
       <x:c r="G98" t="inlineStr">
         <x:is>
-          <x:t>AULA 3 INFORMATICA,SERVICIOS DE FORMACION S.L.</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="99">
       <x:c r="A99" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003423</x:t>
+          <x:t>FDEC240004458</x:t>
         </x:is>
       </x:c>
       <x:c r="B99" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>AFDA0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C99" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="D99" s="1" t="n">
-        <x:v>45903.9166666667</x:v>
+        <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E99" s="2" t="n">
-        <x:v>45986.9583333333</x:v>
+        <x:v>46013.9583333333</x:v>
       </x:c>
       <x:c r="F99" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G99" t="inlineStr">
         <x:is>
-          <x:t>GESTION DE CONOCIMIENTO SA</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="100">
       <x:c r="A100" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004546</x:t>
+          <x:t>FDAC240009076</x:t>
         </x:is>
       </x:c>
       <x:c r="B100" t="inlineStr">
         <x:is>
-          <x:t>QUIL0108</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C100" t="inlineStr">
         <x:is>
-          <x:t>ANÁLISIS QUÍMICO</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="D100" s="1" t="n">
-        <x:v>45903.9166666667</x:v>
+        <x:v>45907.9166666667</x:v>
       </x:c>
       <x:c r="E100" s="2" t="n">
-        <x:v>45953.9166666667</x:v>
+        <x:v>45981.9583333333</x:v>
       </x:c>
       <x:c r="F100" t="inlineStr">
         <x:is>
@@ -3495,31 +3490,36 @@
       </x:c>
       <x:c r="G100" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO MENESIANO EN AV BRASILIA 11 INST  HH DE LA  INSTR CRISTIANA DE MADRID</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H100" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="101">
       <x:c r="A101" t="inlineStr">
         <x:is>
-          <x:t>24/980</x:t>
+          <x:t>FDEC240003965</x:t>
         </x:is>
       </x:c>
       <x:c r="B101" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>SEAG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C101" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>INTERPRETACIÓN Y EDUCACIÓN AMBIENTAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D101" s="1" t="n">
-        <x:v>45903</x:v>
+        <x:v>45905.9166666667</x:v>
       </x:c>
       <x:c r="E101" s="2" t="n">
-        <x:v>46037</x:v>
+        <x:v>46014.9583333333</x:v>
       </x:c>
       <x:c r="F101" t="inlineStr">
         <x:is>
@@ -3528,74 +3528,64 @@
       </x:c>
       <x:c r="G101" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN TECNOLOGÍAS DEL FRÍO Y LA CLIMATIZACIÓN (C.R.N. MORATALAZ)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H101" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>AULA 3 INFORMATICA,SERVICIOS DE FORMACION S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="102">
       <x:c r="A102" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003765</x:t>
+          <x:t>FDEC240003423</x:t>
         </x:is>
       </x:c>
       <x:c r="B102" t="inlineStr">
         <x:is>
-          <x:t>ELEM0111</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C102" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D102" s="1" t="n">
-        <x:v>45902.9166666667</x:v>
+        <x:v>45903.9166666667</x:v>
       </x:c>
       <x:c r="E102" s="2" t="n">
-        <x:v>45974.9583333333</x:v>
+        <x:v>45986.9583333333</x:v>
       </x:c>
       <x:c r="F102" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G102" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H102" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>GESTION DE CONOCIMIENTO SA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="103">
       <x:c r="A103" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009074</x:t>
+          <x:t>FDEC240004546</x:t>
         </x:is>
       </x:c>
       <x:c r="B103" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>QUIL0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C103" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>ANÁLISIS QUÍMICO</x:t>
         </x:is>
       </x:c>
       <x:c r="D103" s="1" t="n">
-        <x:v>45902.9166666667</x:v>
+        <x:v>45903.9166666667</x:v>
       </x:c>
       <x:c r="E103" s="2" t="n">
-        <x:v>45994.9583333333</x:v>
+        <x:v>45953.9166666667</x:v>
       </x:c>
       <x:c r="F103" t="inlineStr">
         <x:is>
@@ -3604,36 +3594,31 @@
       </x:c>
       <x:c r="G103" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H103" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>COLEGIO MENESIANO EN AV BRASILIA 11 INST  HH DE LA  INSTR CRISTIANA DE MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="104">
       <x:c r="A104" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009131</x:t>
+          <x:t>24/980</x:t>
         </x:is>
       </x:c>
       <x:c r="B104" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C104" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D104" s="1" t="n">
-        <x:v>45902.9166666667</x:v>
+        <x:v>45903</x:v>
       </x:c>
       <x:c r="E104" s="2" t="n">
-        <x:v>45971.9583333333</x:v>
+        <x:v>46037</x:v>
       </x:c>
       <x:c r="F104" t="inlineStr">
         <x:is>
@@ -3642,31 +3627,36 @@
       </x:c>
       <x:c r="G104" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
+          <x:t>C.F.P.E EN TECNOLOGÍAS DEL FRÍO Y LA CLIMATIZACIÓN (C.R.N. MORATALAZ)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H104" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="105">
       <x:c r="A105" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004282</x:t>
+          <x:t>FDEC240003765</x:t>
         </x:is>
       </x:c>
       <x:c r="B105" t="inlineStr">
         <x:is>
-          <x:t>SANP0108</x:t>
+          <x:t>ELEM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C105" t="inlineStr">
         <x:is>
-          <x:t>TANATOPRAXIA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D105" s="1" t="n">
         <x:v>45902.9166666667</x:v>
       </x:c>
       <x:c r="E105" s="2" t="n">
-        <x:v>45987.9583333333</x:v>
+        <x:v>45974.9583333333</x:v>
       </x:c>
       <x:c r="F105" t="inlineStr">
         <x:is>
@@ -3675,31 +3665,36 @@
       </x:c>
       <x:c r="G105" t="inlineStr">
         <x:is>
-          <x:t>UNION FUNERAL SERVICIOS INTEGRALES, S.L.</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H105" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="106">
       <x:c r="A106" t="inlineStr">
         <x:is>
-          <x:t>24/982</x:t>
+          <x:t>FDAC240009074</x:t>
         </x:is>
       </x:c>
       <x:c r="B106" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C106" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D106" s="1" t="n">
-        <x:v>45902</x:v>
+        <x:v>45902.9166666667</x:v>
       </x:c>
       <x:c r="E106" s="2" t="n">
-        <x:v>46036</x:v>
+        <x:v>45994.9583333333</x:v>
       </x:c>
       <x:c r="F106" t="inlineStr">
         <x:is>
@@ -3708,36 +3703,36 @@
       </x:c>
       <x:c r="G106" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN TECNOLOGÍAS DEL FRÍO Y LA CLIMATIZACIÓN (C.R.N. MORATALAZ)</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="H106" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="107">
       <x:c r="A107" t="inlineStr">
         <x:is>
-          <x:t>23/8227</x:t>
+          <x:t>FDAC240009131</x:t>
         </x:is>
       </x:c>
       <x:c r="B107" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C107" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="D107" s="1" t="n">
-        <x:v>45901.9166666667</x:v>
+        <x:v>45902.9166666667</x:v>
       </x:c>
       <x:c r="E107" s="2" t="n">
-        <x:v>45981.9583333333</x:v>
+        <x:v>45971.9583333333</x:v>
       </x:c>
       <x:c r="F107" t="inlineStr">
         <x:is>
@@ -3746,31 +3741,31 @@
       </x:c>
       <x:c r="G107" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="108">
       <x:c r="A108" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003365</x:t>
+          <x:t>FDEC240004282</x:t>
         </x:is>
       </x:c>
       <x:c r="B108" t="inlineStr">
         <x:is>
-          <x:t>HOTR0409</x:t>
+          <x:t>SANP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C108" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE PROCESOS DE SERVICIO EN RESTAURACIÓN</x:t>
+          <x:t>TANATOPRAXIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D108" s="1" t="n">
-        <x:v>45901.9166666667</x:v>
+        <x:v>45902.9166666667</x:v>
       </x:c>
       <x:c r="E108" s="2" t="n">
-        <x:v>46007.9583333333</x:v>
+        <x:v>45987.9583333333</x:v>
       </x:c>
       <x:c r="F108" t="inlineStr">
         <x:is>
@@ -3779,31 +3774,31 @@
       </x:c>
       <x:c r="G108" t="inlineStr">
         <x:is>
-          <x:t>IGNACIO RUIZ OSTA</x:t>
+          <x:t>UNION FUNERAL SERVICIOS INTEGRALES, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="109">
       <x:c r="A109" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003583</x:t>
+          <x:t>24/982</x:t>
         </x:is>
       </x:c>
       <x:c r="B109" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C109" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D109" s="1" t="n">
-        <x:v>45901.9166666667</x:v>
+        <x:v>45902</x:v>
       </x:c>
       <x:c r="E109" s="2" t="n">
-        <x:v>45992.9583333333</x:v>
+        <x:v>46036</x:v>
       </x:c>
       <x:c r="F109" t="inlineStr">
         <x:is>
@@ -3812,31 +3807,36 @@
       </x:c>
       <x:c r="G109" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>C.F.P.E EN TECNOLOGÍAS DEL FRÍO Y LA CLIMATIZACIÓN (C.R.N. MORATALAZ)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H109" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="110">
       <x:c r="A110" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003767</x:t>
+          <x:t>23/8227</x:t>
         </x:is>
       </x:c>
       <x:c r="B110" t="inlineStr">
         <x:is>
-          <x:t>ELEM0311</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C110" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DE AUTOMATIZACIÓN INDUSTRIAL</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D110" s="1" t="n">
         <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E110" s="2" t="n">
-        <x:v>45979.9583333333</x:v>
+        <x:v>45981.9583333333</x:v>
       </x:c>
       <x:c r="F110" t="inlineStr">
         <x:is>
@@ -3845,36 +3845,31 @@
       </x:c>
       <x:c r="G110" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H110" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="111">
       <x:c r="A111" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003866</x:t>
+          <x:t>FDEC240003365</x:t>
         </x:is>
       </x:c>
       <x:c r="B111" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>HOTR0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C111" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>GESTIÓN DE PROCESOS DE SERVICIO EN RESTAURACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D111" s="1" t="n">
         <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E111" s="2" t="n">
-        <x:v>46020.9583333333</x:v>
+        <x:v>46007.9583333333</x:v>
       </x:c>
       <x:c r="F111" t="inlineStr">
         <x:is>
@@ -3883,36 +3878,31 @@
       </x:c>
       <x:c r="G111" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H111" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>IGNACIO RUIZ OSTA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="112">
       <x:c r="A112" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003867</x:t>
+          <x:t>FDEC240003583</x:t>
         </x:is>
       </x:c>
       <x:c r="B112" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C112" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D112" s="1" t="n">
         <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E112" s="2" t="n">
-        <x:v>46020.9583333333</x:v>
+        <x:v>45992.9583333333</x:v>
       </x:c>
       <x:c r="F112" t="inlineStr">
         <x:is>
@@ -3921,36 +3911,31 @@
       </x:c>
       <x:c r="G112" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H112" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="113">
       <x:c r="A113" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003868</x:t>
+          <x:t>FDEC240003767</x:t>
         </x:is>
       </x:c>
       <x:c r="B113" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>ELEM0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C113" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DE AUTOMATIZACIÓN INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D113" s="1" t="n">
         <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E113" s="2" t="n">
-        <x:v>46020.9583333333</x:v>
+        <x:v>45979.9583333333</x:v>
       </x:c>
       <x:c r="F113" t="inlineStr">
         <x:is>
@@ -3959,36 +3944,36 @@
       </x:c>
       <x:c r="G113" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
         </x:is>
       </x:c>
       <x:c r="H113" t="inlineStr">
         <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="114">
       <x:c r="A114" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009084</x:t>
+          <x:t>FDEC240003866</x:t>
         </x:is>
       </x:c>
       <x:c r="B114" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C114" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D114" s="1" t="n">
         <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E114" s="2" t="n">
-        <x:v>45995.9583333333</x:v>
+        <x:v>46020.9583333333</x:v>
       </x:c>
       <x:c r="F114" t="inlineStr">
         <x:is>
@@ -3997,7 +3982,7 @@
       </x:c>
       <x:c r="G114" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H114" t="inlineStr">
@@ -4009,24 +3994,24 @@
     <x:row r="115">
       <x:c r="A115" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009085</x:t>
+          <x:t>FDEC240003867</x:t>
         </x:is>
       </x:c>
       <x:c r="B115" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C115" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D115" s="1" t="n">
         <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E115" s="2" t="n">
-        <x:v>45995.9583333333</x:v>
+        <x:v>46020.9583333333</x:v>
       </x:c>
       <x:c r="F115" t="inlineStr">
         <x:is>
@@ -4035,7 +4020,7 @@
       </x:c>
       <x:c r="G115" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H115" t="inlineStr">
@@ -4047,24 +4032,24 @@
     <x:row r="116">
       <x:c r="A116" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004594</x:t>
+          <x:t>FDEC240003868</x:t>
         </x:is>
       </x:c>
       <x:c r="B116" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C116" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D116" s="1" t="n">
-        <x:v>45900.9166666667</x:v>
+        <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E116" s="2" t="n">
-        <x:v>46079.9583333333</x:v>
+        <x:v>46020.9583333333</x:v>
       </x:c>
       <x:c r="F116" t="inlineStr">
         <x:is>
@@ -4073,31 +4058,36 @@
       </x:c>
       <x:c r="G116" t="inlineStr">
         <x:is>
-          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H116" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="117">
       <x:c r="A117" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003356</x:t>
+          <x:t>FDAC240009084</x:t>
         </x:is>
       </x:c>
       <x:c r="B117" t="inlineStr">
         <x:is>
-          <x:t>AFDA0310</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C117" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D117" s="1" t="n">
-        <x:v>45900.9166666667</x:v>
+        <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E117" s="2" t="n">
-        <x:v>45971.9583333333</x:v>
+        <x:v>45995.9583333333</x:v>
       </x:c>
       <x:c r="F117" t="inlineStr">
         <x:is>
@@ -4106,31 +4096,36 @@
       </x:c>
       <x:c r="G117" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H117" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="118">
       <x:c r="A118" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003449</x:t>
+          <x:t>FDAC240009085</x:t>
         </x:is>
       </x:c>
       <x:c r="B118" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C118" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D118" s="1" t="n">
-        <x:v>45900.9166666667</x:v>
+        <x:v>45901.9166666667</x:v>
       </x:c>
       <x:c r="E118" s="2" t="n">
-        <x:v>45966.9583333333</x:v>
+        <x:v>45995.9583333333</x:v>
       </x:c>
       <x:c r="F118" t="inlineStr">
         <x:is>
@@ -4139,31 +4134,36 @@
       </x:c>
       <x:c r="G118" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H118" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="119">
       <x:c r="A119" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003451</x:t>
+          <x:t>FDEC240004594</x:t>
         </x:is>
       </x:c>
       <x:c r="B119" t="inlineStr">
         <x:is>
-          <x:t>SSCB0211</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C119" t="inlineStr">
         <x:is>
-          <x:t>DIRECCIÓN Y COORDINACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D119" s="1" t="n">
         <x:v>45900.9166666667</x:v>
       </x:c>
       <x:c r="E119" s="2" t="n">
-        <x:v>45939.9166666667</x:v>
+        <x:v>46079.9583333333</x:v>
       </x:c>
       <x:c r="F119" t="inlineStr">
         <x:is>
@@ -4172,31 +4172,31 @@
       </x:c>
       <x:c r="G119" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="120">
       <x:c r="A120" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004108</x:t>
+          <x:t>FDEC240003356</x:t>
         </x:is>
       </x:c>
       <x:c r="B120" t="inlineStr">
         <x:is>
-          <x:t>SSCB0109</x:t>
+          <x:t>AFDA0310</x:t>
         </x:is>
       </x:c>
       <x:c r="C120" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN COMUNITARIA</x:t>
+          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D120" s="1" t="n">
         <x:v>45900.9166666667</x:v>
       </x:c>
       <x:c r="E120" s="2" t="n">
-        <x:v>46016.9583333333</x:v>
+        <x:v>45971.9583333333</x:v>
       </x:c>
       <x:c r="F120" t="inlineStr">
         <x:is>
@@ -4205,64 +4205,64 @@
       </x:c>
       <x:c r="G120" t="inlineStr">
         <x:is>
-          <x:t>CONECTANDO LOCAL, S.L.</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="121">
       <x:c r="A121" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004119</x:t>
+          <x:t>FDEC240003449</x:t>
         </x:is>
       </x:c>
       <x:c r="B121" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C121" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D121" s="1" t="n">
         <x:v>45900.9166666667</x:v>
       </x:c>
       <x:c r="E121" s="2" t="n">
-        <x:v>45974.9583333333</x:v>
+        <x:v>45966.9583333333</x:v>
       </x:c>
       <x:c r="F121" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G121" t="inlineStr">
         <x:is>
-          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="122">
       <x:c r="A122" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004184</x:t>
+          <x:t>FDEC240003451</x:t>
         </x:is>
       </x:c>
       <x:c r="B122" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>SSCB0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C122" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>DIRECCIÓN Y COORDINACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D122" s="1" t="n">
         <x:v>45900.9166666667</x:v>
       </x:c>
       <x:c r="E122" s="2" t="n">
-        <x:v>46002.9583333333</x:v>
+        <x:v>45939.9166666667</x:v>
       </x:c>
       <x:c r="F122" t="inlineStr">
         <x:is>
@@ -4271,31 +4271,31 @@
       </x:c>
       <x:c r="G122" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="123">
       <x:c r="A123" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004185</x:t>
+          <x:t>FDEC240004108</x:t>
         </x:is>
       </x:c>
       <x:c r="B123" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>SSCB0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C123" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>DINAMIZACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D123" s="1" t="n">
         <x:v>45900.9166666667</x:v>
       </x:c>
       <x:c r="E123" s="2" t="n">
-        <x:v>46002.9583333333</x:v>
+        <x:v>46016.9583333333</x:v>
       </x:c>
       <x:c r="F123" t="inlineStr">
         <x:is>
@@ -4304,40 +4304,40 @@
       </x:c>
       <x:c r="G123" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>CONECTANDO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="124">
       <x:c r="A124" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004187</x:t>
+          <x:t>FDEC240004119</x:t>
         </x:is>
       </x:c>
       <x:c r="B124" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C124" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="D124" s="1" t="n">
         <x:v>45900.9166666667</x:v>
       </x:c>
       <x:c r="E124" s="2" t="n">
-        <x:v>46016.9583333333</x:v>
+        <x:v>45974.9583333333</x:v>
       </x:c>
       <x:c r="F124" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G124" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R494e38bf3e924af7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R51a62eca7139434b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rd21a0f562b6145e9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4897f84e6b3244f5"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -2855,24 +2855,24 @@
     <x:row r="82">
       <x:c r="A82" t="inlineStr">
         <x:is>
-          <x:t>23/8344</x:t>
+          <x:t>FDEC240003737</x:t>
         </x:is>
       </x:c>
       <x:c r="B82" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C82" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="D82" s="1" t="n">
-        <x:v>45909.9166666667</x:v>
+        <x:v>45909.9583333333</x:v>
       </x:c>
       <x:c r="E82" s="2" t="n">
-        <x:v>46008.9583333333</x:v>
+        <x:v>45992.9583333333</x:v>
       </x:c>
       <x:c r="F82" t="inlineStr">
         <x:is>
@@ -2881,31 +2881,36 @@
       </x:c>
       <x:c r="G82" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>LA TORRE CIUDAD DEL CONDUCTOR, SL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H82" t="inlineStr">
+        <x:is>
+          <x:t>PARLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="83">
       <x:c r="A83" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003737</x:t>
+          <x:t>23/8344</x:t>
         </x:is>
       </x:c>
       <x:c r="B83" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C83" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D83" s="1" t="n">
         <x:v>45909.9166666667</x:v>
       </x:c>
       <x:c r="E83" s="2" t="n">
-        <x:v>45999.9583333333</x:v>
+        <x:v>46008.9583333333</x:v>
       </x:c>
       <x:c r="F83" t="inlineStr">
         <x:is>
@@ -2914,12 +2919,7 @@
       </x:c>
       <x:c r="G83" t="inlineStr">
         <x:is>
-          <x:t>LA TORRE CIUDAD DEL CONDUCTOR, SL</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H83" t="inlineStr">
-        <x:is>
-          <x:t>PARLA</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -3256,24 +3256,24 @@
     <x:row r="94">
       <x:c r="A94" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003477</x:t>
+          <x:t>FDEC240003738</x:t>
         </x:is>
       </x:c>
       <x:c r="B94" t="inlineStr">
         <x:is>
-          <x:t>ARTU0212</x:t>
+          <x:t>TMVL0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C94" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA DIRECCIÓN TÉCNICA DE ESPECTÁCULOS EN VIVO Y EVENTOS</x:t>
+          <x:t>PINTURA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D94" s="1" t="n">
-        <x:v>45907.9166666667</x:v>
+        <x:v>45907.9583333333</x:v>
       </x:c>
       <x:c r="E94" s="2" t="n">
-        <x:v>46013.9583333333</x:v>
+        <x:v>46002.9583333333</x:v>
       </x:c>
       <x:c r="F94" t="inlineStr">
         <x:is>
@@ -3282,29 +3282,29 @@
       </x:c>
       <x:c r="G94" t="inlineStr">
         <x:is>
-          <x:t>JANA PRODUCCIONES, S.A.</x:t>
+          <x:t>LA TORRE CIUDAD DEL CONDUCTOR, SL</x:t>
         </x:is>
       </x:c>
       <x:c r="H94" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>PARLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="95">
       <x:c r="A95" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003738</x:t>
+          <x:t>FDEC240003477</x:t>
         </x:is>
       </x:c>
       <x:c r="B95" t="inlineStr">
         <x:is>
-          <x:t>TMVL0509</x:t>
+          <x:t>ARTU0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C95" t="inlineStr">
         <x:is>
-          <x:t>PINTURA DE VEHÍCULOS</x:t>
+          <x:t>ASISTENCIA A LA DIRECCIÓN TÉCNICA DE ESPECTÁCULOS EN VIVO Y EVENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D95" s="1" t="n">
@@ -3320,12 +3320,12 @@
       </x:c>
       <x:c r="G95" t="inlineStr">
         <x:is>
-          <x:t>LA TORRE CIUDAD DEL CONDUCTOR, SL</x:t>
+          <x:t>JANA PRODUCCIONES, S.A.</x:t>
         </x:is>
       </x:c>
       <x:c r="H95" t="inlineStr">
         <x:is>
-          <x:t>PARLA</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R7916316e5b054407"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rade8fa34631e4a0a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Re3d5f46fa2d540b0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4ef6fe50679f4a15"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R8e781f389f334968"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Re80439f8a52544c9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rebbd574aec304141"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rc4fdccbc3e1f4354"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -253,24 +253,24 @@
     <x:row r="7">
       <x:c r="A7" t="inlineStr">
         <x:is>
-          <x:t>23/8355</x:t>
+          <x:t>23/8100</x:t>
         </x:is>
       </x:c>
       <x:c r="B7" t="inlineStr">
         <x:is>
-          <x:t>COMT0112</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C7" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTIÓN DEL PEQUEÑO COMERCIO</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>46049.9583333333</x:v>
+        <x:v>46043.9583333333</x:v>
       </x:c>
       <x:c r="E7" s="2" t="n">
-        <x:v>46169.9166666667</x:v>
+        <x:v>46196.9166666667</x:v>
       </x:c>
       <x:c r="F7" t="inlineStr">
         <x:is>
@@ -279,31 +279,31 @@
       </x:c>
       <x:c r="G7" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ENSEÑANZA OCUPACIONAL, S.L.</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="inlineStr">
         <x:is>
-          <x:t>23/8100</x:t>
+          <x:t>23/8101</x:t>
         </x:is>
       </x:c>
       <x:c r="B8" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C8" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>46043.9583333333</x:v>
+        <x:v>46041.9583333333</x:v>
       </x:c>
       <x:c r="E8" s="2" t="n">
-        <x:v>46196.9166666667</x:v>
+        <x:v>46127.9166666667</x:v>
       </x:c>
       <x:c r="F8" t="inlineStr">
         <x:is>
@@ -319,24 +319,24 @@
     <x:row r="9">
       <x:c r="A9" t="inlineStr">
         <x:is>
-          <x:t>23/8101</x:t>
+          <x:t>23/8099</x:t>
         </x:is>
       </x:c>
       <x:c r="B9" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C9" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>46041.9583333333</x:v>
+        <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E9" s="2" t="n">
-        <x:v>46127.9166666667</x:v>
+        <x:v>46169.9166666667</x:v>
       </x:c>
       <x:c r="F9" t="inlineStr">
         <x:is>
@@ -352,24 +352,24 @@
     <x:row r="10">
       <x:c r="A10" t="inlineStr">
         <x:is>
-          <x:t>23/8099</x:t>
+          <x:t>FCCC240008590</x:t>
         </x:is>
       </x:c>
       <x:c r="B10" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>ENAE0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C10" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E10" s="2" t="n">
-        <x:v>46169.9166666667</x:v>
+        <x:v>46141.9166666667</x:v>
       </x:c>
       <x:c r="F10" t="inlineStr">
         <x:is>
@@ -378,31 +378,36 @@
       </x:c>
       <x:c r="G10" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H10" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008590</x:t>
+          <x:t>23/8102</x:t>
         </x:is>
       </x:c>
       <x:c r="B11" t="inlineStr">
         <x:is>
-          <x:t>ENAE0208</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C11" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>46036.9583333333</x:v>
+        <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E11" s="2" t="n">
-        <x:v>46141.9166666667</x:v>
+        <x:v>46145.9166666667</x:v>
       </x:c>
       <x:c r="F11" t="inlineStr">
         <x:is>
@@ -411,36 +416,31 @@
       </x:c>
       <x:c r="G11" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H11" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="A12" t="inlineStr">
         <x:is>
-          <x:t>23/8102</x:t>
+          <x:t>23/8158</x:t>
         </x:is>
       </x:c>
       <x:c r="B12" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C12" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>46034.9583333333</x:v>
+        <x:v>46028.9583333333</x:v>
       </x:c>
       <x:c r="E12" s="2" t="n">
-        <x:v>46145.9166666667</x:v>
+        <x:v>46121.9166666667</x:v>
       </x:c>
       <x:c r="F12" t="inlineStr">
         <x:is>
@@ -449,31 +449,31 @@
       </x:c>
       <x:c r="G12" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="inlineStr">
         <x:is>
-          <x:t>23/8158</x:t>
+          <x:t>23/8157</x:t>
         </x:is>
       </x:c>
       <x:c r="B13" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C13" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>46028.9583333333</x:v>
+        <x:v>46026.9583333333</x:v>
       </x:c>
       <x:c r="E13" s="2" t="n">
-        <x:v>46121.9166666667</x:v>
+        <x:v>46135.9166666667</x:v>
       </x:c>
       <x:c r="F13" t="inlineStr">
         <x:is>
@@ -489,24 +489,24 @@
     <x:row r="14">
       <x:c r="A14" t="inlineStr">
         <x:is>
-          <x:t>23/8157</x:t>
+          <x:t>23/8329</x:t>
         </x:is>
       </x:c>
       <x:c r="B14" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>EOCJ0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C14" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>46026.9583333333</x:v>
+        <x:v>45986.9583333333</x:v>
       </x:c>
       <x:c r="E14" s="2" t="n">
-        <x:v>46135.9166666667</x:v>
+        <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="F14" t="inlineStr">
         <x:is>
@@ -515,31 +515,31 @@
       </x:c>
       <x:c r="G14" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>ADARA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="A15" t="inlineStr">
         <x:is>
-          <x:t>23/8329</x:t>
+          <x:t>24/1185</x:t>
         </x:is>
       </x:c>
       <x:c r="B15" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0211</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C15" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCION</x:t>
         </x:is>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>45986.9583333333</x:v>
+        <x:v>45986</x:v>
       </x:c>
       <x:c r="E15" s="2" t="n">
-        <x:v>46068.9583333333</x:v>
+        <x:v>46098</x:v>
       </x:c>
       <x:c r="F15" t="inlineStr">
         <x:is>
@@ -548,31 +548,36 @@
       </x:c>
       <x:c r="G15" t="inlineStr">
         <x:is>
-          <x:t>ADARA FORMACION, S.L.</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H15" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" t="inlineStr">
         <x:is>
-          <x:t>24/1185</x:t>
+          <x:t>24/929</x:t>
         </x:is>
       </x:c>
       <x:c r="B16" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C16" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCION</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>45986</x:v>
+        <x:v>45985</x:v>
       </x:c>
       <x:c r="E16" s="2" t="n">
-        <x:v>46098</x:v>
+        <x:v>46122</x:v>
       </x:c>
       <x:c r="F16" t="inlineStr">
         <x:is>
@@ -581,36 +586,36 @@
       </x:c>
       <x:c r="G16" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H16" t="inlineStr">
         <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="A17" t="inlineStr">
         <x:is>
-          <x:t>24/929</x:t>
+          <x:t>23/8050</x:t>
         </x:is>
       </x:c>
       <x:c r="B17" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C17" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>45985</x:v>
+        <x:v>45984.9583333333</x:v>
       </x:c>
       <x:c r="E17" s="2" t="n">
-        <x:v>46122</x:v>
+        <x:v>46051.9583333333</x:v>
       </x:c>
       <x:c r="F17" t="inlineStr">
         <x:is>
@@ -619,36 +624,31 @@
       </x:c>
       <x:c r="G17" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H17" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18" t="inlineStr">
         <x:is>
-          <x:t>23/8050</x:t>
+          <x:t>24/1164</x:t>
         </x:is>
       </x:c>
       <x:c r="B18" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>IMAI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C18" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA </x:t>
         </x:is>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>45984.9583333333</x:v>
+        <x:v>45973</x:v>
       </x:c>
       <x:c r="E18" s="2" t="n">
-        <x:v>46051.9583333333</x:v>
+        <x:v>46079</x:v>
       </x:c>
       <x:c r="F18" t="inlineStr">
         <x:is>
@@ -657,31 +657,36 @@
       </x:c>
       <x:c r="G18" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H18" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19" t="inlineStr">
         <x:is>
-          <x:t>24/1164</x:t>
+          <x:t>24/1170</x:t>
         </x:is>
       </x:c>
       <x:c r="B19" t="inlineStr">
         <x:is>
-          <x:t>IMAI0108</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C19" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA </x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>45973</x:v>
       </x:c>
       <x:c r="E19" s="2" t="n">
-        <x:v>46079</x:v>
+        <x:v>46059</x:v>
       </x:c>
       <x:c r="F19" t="inlineStr">
         <x:is>
@@ -702,24 +707,19 @@
     <x:row r="20">
       <x:c r="A20" t="inlineStr">
         <x:is>
-          <x:t>24/1170</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B20" t="inlineStr">
-        <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>FCCC240008547</x:t>
         </x:is>
       </x:c>
       <x:c r="C20" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>45973</x:v>
+        <x:v>45971.9583333333</x:v>
       </x:c>
       <x:c r="E20" s="2" t="n">
-        <x:v>46059</x:v>
+        <x:v>46106.9583333333</x:v>
       </x:c>
       <x:c r="F20" t="inlineStr">
         <x:is>
@@ -728,31 +728,36 @@
       </x:c>
       <x:c r="G20" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+          <x:t>DETUATUFORMACION S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H20" t="inlineStr">
         <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="A21" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008547</x:t>
+          <x:t>FDEC240004186</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B21" t="inlineStr">
+        <x:is>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C21" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>45971.9583333333</x:v>
+        <x:v>45963.9583333333</x:v>
       </x:c>
       <x:c r="E21" s="2" t="n">
-        <x:v>46106.9583333333</x:v>
+        <x:v>46093.9583333333</x:v>
       </x:c>
       <x:c r="F21" t="inlineStr">
         <x:is>
@@ -761,36 +766,31 @@
       </x:c>
       <x:c r="G21" t="inlineStr">
         <x:is>
-          <x:t>DETUATUFORMACION S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H21" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004186</x:t>
+          <x:t>24/1143</x:t>
         </x:is>
       </x:c>
       <x:c r="B22" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>TMVG0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C22" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
         </x:is>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>45963.9583333333</x:v>
+        <x:v>45958</x:v>
       </x:c>
       <x:c r="E22" s="2" t="n">
-        <x:v>46093.9583333333</x:v>
+        <x:v>46099</x:v>
       </x:c>
       <x:c r="F22" t="inlineStr">
         <x:is>
@@ -799,31 +799,36 @@
       </x:c>
       <x:c r="G22" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H22" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="inlineStr">
         <x:is>
-          <x:t>24/1143</x:t>
+          <x:t>FDEC240004582</x:t>
         </x:is>
       </x:c>
       <x:c r="B23" t="inlineStr">
         <x:is>
-          <x:t>TMVG0409</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C23" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>45958</x:v>
+        <x:v>45952.9166666667</x:v>
       </x:c>
       <x:c r="E23" s="2" t="n">
-        <x:v>46099</x:v>
+        <x:v>46098.9583333333</x:v>
       </x:c>
       <x:c r="F23" t="inlineStr">
         <x:is>
@@ -832,36 +837,26 @@
       </x:c>
       <x:c r="G23" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H23" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004582</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B24" t="inlineStr">
-        <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>24/1161</x:t>
         </x:is>
       </x:c>
       <x:c r="C24" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>MONTAJE, PUESTA EN SERVICIO, MANTENIMIENTO, INSPECCIÓN Y REVISIÓN DE INSTALACIONES RECEPTORAS Y APARATOS DE GAS </x:t>
         </x:is>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>45952.9166666667</x:v>
+        <x:v>45951</x:v>
       </x:c>
       <x:c r="E24" s="2" t="n">
-        <x:v>46098.9583333333</x:v>
+        <x:v>46098</x:v>
       </x:c>
       <x:c r="F24" t="inlineStr">
         <x:is>
@@ -870,26 +865,36 @@
       </x:c>
       <x:c r="G24" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H24" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="A25" t="inlineStr">
         <x:is>
-          <x:t>24/1161</x:t>
+          <x:t>24/1174</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B25" t="inlineStr">
+        <x:is>
+          <x:t>AGAO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C25" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE, PUESTA EN SERVICIO, MANTENIMIENTO, INSPECCIÓN Y REVISIÓN DE INSTALACIONES RECEPTORAS Y APARATOS DE GAS </x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
         </x:is>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>45951</x:v>
       </x:c>
       <x:c r="E25" s="2" t="n">
-        <x:v>46098</x:v>
+        <x:v>46078</x:v>
       </x:c>
       <x:c r="F25" t="inlineStr">
         <x:is>
@@ -910,24 +915,24 @@
     <x:row r="26">
       <x:c r="A26" t="inlineStr">
         <x:is>
-          <x:t>24/1174</x:t>
+          <x:t>24/911</x:t>
         </x:is>
       </x:c>
       <x:c r="B26" t="inlineStr">
         <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>TMVL0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C26" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>PINTURA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>45951</x:v>
+        <x:v>45945</x:v>
       </x:c>
       <x:c r="E26" s="2" t="n">
-        <x:v>46078</x:v>
+        <x:v>46080</x:v>
       </x:c>
       <x:c r="F26" t="inlineStr">
         <x:is>
@@ -936,36 +941,36 @@
       </x:c>
       <x:c r="G26" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H26" t="inlineStr">
         <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="inlineStr">
         <x:is>
-          <x:t>24/911</x:t>
+          <x:t>24/931</x:t>
         </x:is>
       </x:c>
       <x:c r="B27" t="inlineStr">
         <x:is>
-          <x:t>TMVL0509</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C27" t="inlineStr">
         <x:is>
-          <x:t>PINTURA DE VEHÍCULOS</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>45945</x:v>
       </x:c>
       <x:c r="E27" s="2" t="n">
-        <x:v>46080</x:v>
+        <x:v>46099</x:v>
       </x:c>
       <x:c r="F27" t="inlineStr">
         <x:is>
@@ -986,24 +991,24 @@
     <x:row r="28">
       <x:c r="A28" t="inlineStr">
         <x:is>
-          <x:t>24/931</x:t>
+          <x:t>23/8353</x:t>
         </x:is>
       </x:c>
       <x:c r="B28" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C28" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>45945</x:v>
+        <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E28" s="2" t="n">
-        <x:v>46099</x:v>
+        <x:v>46103.9583333333</x:v>
       </x:c>
       <x:c r="F28" t="inlineStr">
         <x:is>
@@ -1012,36 +1017,31 @@
       </x:c>
       <x:c r="G28" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H28" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c r="A29" t="inlineStr">
         <x:is>
-          <x:t>23/8353</x:t>
+          <x:t>FDEC240003590</x:t>
         </x:is>
       </x:c>
       <x:c r="B29" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E29" s="2" t="n">
-        <x:v>46103.9583333333</x:v>
+        <x:v>45999.9583333333</x:v>
       </x:c>
       <x:c r="F29" t="inlineStr">
         <x:is>
@@ -1050,31 +1050,31 @@
       </x:c>
       <x:c r="G29" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003590</x:t>
+          <x:t>FDEC240003866</x:t>
         </x:is>
       </x:c>
       <x:c r="B30" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C30" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E30" s="2" t="n">
-        <x:v>45999.9583333333</x:v>
+        <x:v>46053.9583333333</x:v>
       </x:c>
       <x:c r="F30" t="inlineStr">
         <x:is>
@@ -1083,31 +1083,36 @@
       </x:c>
       <x:c r="G30" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H30" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003866</x:t>
+          <x:t>FDEC240004464</x:t>
         </x:is>
       </x:c>
       <x:c r="B31" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>AFDA0511</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E31" s="2" t="n">
-        <x:v>46053.9583333333</x:v>
+        <x:v>45990.9583333333</x:v>
       </x:c>
       <x:c r="F31" t="inlineStr">
         <x:is>
@@ -1116,36 +1121,31 @@
       </x:c>
       <x:c r="G31" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H31" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004464</x:t>
+          <x:t>FDEC240004545</x:t>
         </x:is>
       </x:c>
       <x:c r="B32" t="inlineStr">
         <x:is>
-          <x:t>AFDA0511</x:t>
+          <x:t>QUIA0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
+          <x:t>ENSAYOS MICROBIOLÓGICOS Y BIOTECNOLÓGICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E32" s="2" t="n">
-        <x:v>45990.9583333333</x:v>
+        <x:v>46069.9583333333</x:v>
       </x:c>
       <x:c r="F32" t="inlineStr">
         <x:is>
@@ -1154,31 +1154,31 @@
       </x:c>
       <x:c r="G32" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>COLEGIO MENESIANO EN AV BRASILIA 11 INST  HH DE LA  INSTR CRISTIANA DE MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004545</x:t>
+          <x:t>24/924</x:t>
         </x:is>
       </x:c>
       <x:c r="B33" t="inlineStr">
         <x:is>
-          <x:t>QUIA0208</x:t>
+          <x:t>IMAQ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C33" t="inlineStr">
         <x:is>
-          <x:t>ENSAYOS MICROBIOLÓGICOS Y BIOTECNOLÓGICOS</x:t>
+          <x:t>MANTENIMIENTO Y MONTAJE MECÁNICO DE EQUIPO INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>45944.9166666667</x:v>
+        <x:v>45944</x:v>
       </x:c>
       <x:c r="E33" s="2" t="n">
-        <x:v>46069.9583333333</x:v>
+        <x:v>46080</x:v>
       </x:c>
       <x:c r="F33" t="inlineStr">
         <x:is>
@@ -1187,31 +1187,36 @@
       </x:c>
       <x:c r="G33" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO MENESIANO EN AV BRASILIA 11 INST  HH DE LA  INSTR CRISTIANA DE MADRID</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H33" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="A34" t="inlineStr">
         <x:is>
-          <x:t>24/924</x:t>
+          <x:t>FDEC240004382</x:t>
         </x:is>
       </x:c>
       <x:c r="B34" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0108</x:t>
+          <x:t>ARTB0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C34" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO Y MONTAJE MECÁNICO DE EQUIPO INDUSTRIAL</x:t>
+          <x:t>REPOSICIÓN, MONTAJE Y MANTENIMIENTO DE ELEMENTOS DE RELOJERÍA FINA</x:t>
         </x:is>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>45944</x:v>
+        <x:v>45942.9166666667</x:v>
       </x:c>
       <x:c r="E34" s="2" t="n">
-        <x:v>46080</x:v>
+        <x:v>46020.9583333333</x:v>
       </x:c>
       <x:c r="F34" t="inlineStr">
         <x:is>
@@ -1220,36 +1225,31 @@
       </x:c>
       <x:c r="G34" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H34" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>I.C.C. S.ELOY ARTIF. PLAT. MADRID. GREMIO JOY.PLATEROS Y RELOJEROS DE MADRID.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004382</x:t>
+          <x:t>24/1125</x:t>
         </x:is>
       </x:c>
       <x:c r="B35" t="inlineStr">
         <x:is>
-          <x:t>ARTB0112</x:t>
+          <x:t>EOCJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C35" t="inlineStr">
         <x:is>
-          <x:t>REPOSICIÓN, MONTAJE Y MANTENIMIENTO DE ELEMENTOS DE RELOJERÍA FINA</x:t>
+          <x:t>INSTALACIÓN DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>45942.9166666667</x:v>
+        <x:v>45940</x:v>
       </x:c>
       <x:c r="E35" s="2" t="n">
-        <x:v>46020.9583333333</x:v>
+        <x:v>46092</x:v>
       </x:c>
       <x:c r="F35" t="inlineStr">
         <x:is>
@@ -1258,31 +1258,36 @@
       </x:c>
       <x:c r="G35" t="inlineStr">
         <x:is>
-          <x:t>I.C.C. S.ELOY ARTIF. PLAT. MADRID. GREMIO JOY.PLATEROS Y RELOJEROS DE MADRID.</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H35" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="inlineStr">
         <x:is>
-          <x:t>24/1125</x:t>
+          <x:t>24/897</x:t>
         </x:is>
       </x:c>
       <x:c r="B36" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0110</x:t>
+          <x:t>FMEH0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C36" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
+          <x:t>MECANIZADO POR ARRANQUE DE VIRUTA</x:t>
         </x:is>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>45940</x:v>
+        <x:v>45939</x:v>
       </x:c>
       <x:c r="E36" s="2" t="n">
-        <x:v>46092</x:v>
+        <x:v>46084</x:v>
       </x:c>
       <x:c r="F36" t="inlineStr">
         <x:is>
@@ -1291,36 +1296,36 @@
       </x:c>
       <x:c r="G36" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H36" t="inlineStr">
         <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="inlineStr">
         <x:is>
-          <x:t>24/897</x:t>
+          <x:t>24/917</x:t>
         </x:is>
       </x:c>
       <x:c r="B37" t="inlineStr">
         <x:is>
-          <x:t>FMEH0109</x:t>
+          <x:t>ELEQ0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C37" t="inlineStr">
         <x:is>
-          <x:t>MECANIZADO POR ARRANQUE DE VIRUTA</x:t>
+          <x:t>MANTENIMIENTO DE EQUIPOS ELECTRÓNICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>45939</x:v>
+        <x:v>45938</x:v>
       </x:c>
       <x:c r="E37" s="2" t="n">
-        <x:v>46084</x:v>
+        <x:v>46094</x:v>
       </x:c>
       <x:c r="F37" t="inlineStr">
         <x:is>
@@ -1341,24 +1346,24 @@
     <x:row r="38">
       <x:c r="A38" t="inlineStr">
         <x:is>
-          <x:t>24/917</x:t>
+          <x:t>FDEC240004257</x:t>
         </x:is>
       </x:c>
       <x:c r="B38" t="inlineStr">
         <x:is>
-          <x:t>ELEQ0311</x:t>
+          <x:t>FMEC0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C38" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE EQUIPOS ELECTRÓNICOS</x:t>
+          <x:t>DISEÑO DE CALDERERÍA Y ESTRUCTURAS METÁLICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>45938</x:v>
+        <x:v>45937.9166666667</x:v>
       </x:c>
       <x:c r="E38" s="2" t="n">
-        <x:v>46094</x:v>
+        <x:v>46100.9583333333</x:v>
       </x:c>
       <x:c r="F38" t="inlineStr">
         <x:is>
@@ -1367,36 +1372,31 @@
       </x:c>
       <x:c r="G38" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
+          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H38" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>Alcala de Henares</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="39">
       <x:c r="A39" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004257</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B39" t="inlineStr">
-        <x:is>
-          <x:t>FMEC0208</x:t>
+          <x:t>24/962</x:t>
         </x:is>
       </x:c>
       <x:c r="C39" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE CALDERERÍA Y ESTRUCTURAS METÁLICAS</x:t>
+          <x:t>SOLDADURA POR ARCO BAJO GAS CON ELECTRODO NO CONSUMIBLE, SOLDEO TIG</x:t>
         </x:is>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>45937.9166666667</x:v>
+        <x:v>45937</x:v>
       </x:c>
       <x:c r="E39" s="2" t="n">
-        <x:v>46100.9583333333</x:v>
+        <x:v>46056</x:v>
       </x:c>
       <x:c r="F39" t="inlineStr">
         <x:is>
@@ -1405,31 +1405,36 @@
       </x:c>
       <x:c r="G39" t="inlineStr">
         <x:is>
-          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H39" t="inlineStr">
         <x:is>
-          <x:t>Alcala de Henares</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="40">
       <x:c r="A40" t="inlineStr">
         <x:is>
-          <x:t>24/962</x:t>
+          <x:t>FDEC240003358</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B40" t="inlineStr">
+        <x:is>
+          <x:t>ELEM0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C40" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA POR ARCO BAJO GAS CON ELECTRODO NO CONSUMIBLE, SOLDEO TIG</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE SISTEMAS DE AUTOMATIZACIÓN INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>45937</x:v>
+        <x:v>45936.9166666667</x:v>
       </x:c>
       <x:c r="E40" s="2" t="n">
-        <x:v>46056</x:v>
+        <x:v>45977.9583333333</x:v>
       </x:c>
       <x:c r="F40" t="inlineStr">
         <x:is>
@@ -1438,36 +1443,31 @@
       </x:c>
       <x:c r="G40" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H40" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="A41" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003358</x:t>
+          <x:t>FDEC240004187</x:t>
         </x:is>
       </x:c>
       <x:c r="B41" t="inlineStr">
         <x:is>
-          <x:t>ELEM0110</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C41" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE SISTEMAS DE AUTOMATIZACIÓN INDUSTRIAL</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>45936.9166666667</x:v>
       </x:c>
       <x:c r="E41" s="2" t="n">
-        <x:v>45977.9583333333</x:v>
+        <x:v>46091.9583333333</x:v>
       </x:c>
       <x:c r="F41" t="inlineStr">
         <x:is>
@@ -1476,31 +1476,26 @@
       </x:c>
       <x:c r="G41" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004187</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B42" t="inlineStr">
-        <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>24/1104</x:t>
         </x:is>
       </x:c>
       <x:c r="C42" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>CERTIFICACIÓN ENERGÉTICA DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>45936.9166666667</x:v>
+        <x:v>45936</x:v>
       </x:c>
       <x:c r="E42" s="2" t="n">
-        <x:v>46091.9583333333</x:v>
+        <x:v>46006</x:v>
       </x:c>
       <x:c r="F42" t="inlineStr">
         <x:is>
@@ -1509,26 +1504,36 @@
       </x:c>
       <x:c r="G42" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H42" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="A43" t="inlineStr">
         <x:is>
-          <x:t>24/1104</x:t>
+          <x:t>FDEC240003356</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B43" t="inlineStr">
+        <x:is>
+          <x:t>AFDA0310</x:t>
         </x:is>
       </x:c>
       <x:c r="C43" t="inlineStr">
         <x:is>
-          <x:t>CERTIFICACIÓN ENERGÉTICA DE EDIFICIOS</x:t>
+          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>45936</x:v>
+        <x:v>45932.9166666667</x:v>
       </x:c>
       <x:c r="E43" s="2" t="n">
-        <x:v>46006</x:v>
+        <x:v>45971.9583333333</x:v>
       </x:c>
       <x:c r="F43" t="inlineStr">
         <x:is>
@@ -1537,36 +1542,31 @@
       </x:c>
       <x:c r="G43" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H43" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="44">
       <x:c r="A44" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003356</x:t>
+          <x:t>FDEC240004016</x:t>
         </x:is>
       </x:c>
       <x:c r="B44" t="inlineStr">
         <x:is>
-          <x:t>AFDA0310</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C44" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>45932.9166666667</x:v>
+        <x:v>45931.9166666667</x:v>
       </x:c>
       <x:c r="E44" s="2" t="n">
-        <x:v>45971.9583333333</x:v>
+        <x:v>45972.9583333333</x:v>
       </x:c>
       <x:c r="F44" t="inlineStr">
         <x:is>
@@ -1575,31 +1575,31 @@
       </x:c>
       <x:c r="G44" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>AUTOESCUELA GALA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="45">
       <x:c r="A45" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004016</x:t>
+          <x:t>24/1184</x:t>
         </x:is>
       </x:c>
       <x:c r="B45" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C45" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>ORGANIZACIÓN Y GESTION DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="D45" s="1" t="n">
-        <x:v>45931.9166666667</x:v>
+        <x:v>45931</x:v>
       </x:c>
       <x:c r="E45" s="2" t="n">
-        <x:v>45972.9583333333</x:v>
+        <x:v>45672</x:v>
       </x:c>
       <x:c r="F45" t="inlineStr">
         <x:is>
@@ -1608,31 +1608,36 @@
       </x:c>
       <x:c r="G45" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA GALA S.L.</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H45" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="46">
       <x:c r="A46" t="inlineStr">
         <x:is>
-          <x:t>24/1184</x:t>
+          <x:t>23/8056</x:t>
         </x:is>
       </x:c>
       <x:c r="B46" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C46" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTION DE ALMACENES</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D46" s="1" t="n">
-        <x:v>45931</x:v>
+        <x:v>45930.9166666667</x:v>
       </x:c>
       <x:c r="E46" s="2" t="n">
-        <x:v>45672</x:v>
+        <x:v>46065.9583333333</x:v>
       </x:c>
       <x:c r="F46" t="inlineStr">
         <x:is>
@@ -1641,36 +1646,31 @@
       </x:c>
       <x:c r="G46" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H46" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>MERINERO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="47">
       <x:c r="A47" t="inlineStr">
         <x:is>
-          <x:t>23/8056</x:t>
+          <x:t>FDEC240004580</x:t>
         </x:is>
       </x:c>
       <x:c r="B47" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C47" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D47" s="1" t="n">
         <x:v>45930.9166666667</x:v>
       </x:c>
       <x:c r="E47" s="2" t="n">
-        <x:v>46065.9583333333</x:v>
+        <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="F47" t="inlineStr">
         <x:is>
@@ -1679,31 +1679,31 @@
       </x:c>
       <x:c r="G47" t="inlineStr">
         <x:is>
-          <x:t>MERINERO S.A.</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="48">
       <x:c r="A48" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004580</x:t>
+          <x:t>FDEC240003868</x:t>
         </x:is>
       </x:c>
       <x:c r="B48" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C48" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D48" s="1" t="n">
         <x:v>45930.9166666667</x:v>
       </x:c>
       <x:c r="E48" s="2" t="n">
-        <x:v>46083.9583333333</x:v>
+        <x:v>46052.9583333333</x:v>
       </x:c>
       <x:c r="F48" t="inlineStr">
         <x:is>
@@ -1712,31 +1712,36 @@
       </x:c>
       <x:c r="G48" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H48" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="49">
       <x:c r="A49" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003868</x:t>
+          <x:t>23/8365</x:t>
         </x:is>
       </x:c>
       <x:c r="B49" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C49" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D49" s="1" t="n">
-        <x:v>45930.9166666667</x:v>
+        <x:v>45929.9166666667</x:v>
       </x:c>
       <x:c r="E49" s="2" t="n">
-        <x:v>46052.9583333333</x:v>
+        <x:v>46075.9583333333</x:v>
       </x:c>
       <x:c r="F49" t="inlineStr">
         <x:is>
@@ -1745,12 +1750,7 @@
       </x:c>
       <x:c r="G49" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H49" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -11876,17 +11876,17 @@
     <x:row r="411">
       <x:c r="A411" t="inlineStr">
         <x:is>
-          <x:t>23/8356</x:t>
+          <x:t>23/8355</x:t>
         </x:is>
       </x:c>
       <x:c r="B411" t="inlineStr">
         <x:is>
-          <x:t>SEAG0109</x:t>
+          <x:t>COMT0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C411" t="inlineStr">
         <x:is>
-          <x:t>INTERPRETACIÓN Y EDUCACIÓN AMBIENTAL</x:t>
+          <x:t>ACTIVIDADES DE GESTIÓN DEL PEQUEÑO COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F411" t="inlineStr">
@@ -11896,24 +11896,24 @@
       </x:c>
       <x:c r="G411" t="inlineStr">
         <x:is>
-          <x:t>HAZERTA, Soluciones Globales para el Empleo, S.L.</x:t>
+          <x:t>CENTRO DE ENSEÑANZA OCUPACIONAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="412">
       <x:c r="A412" t="inlineStr">
         <x:is>
-          <x:t>23/8357</x:t>
+          <x:t>23/8356</x:t>
         </x:is>
       </x:c>
       <x:c r="B412" t="inlineStr">
         <x:is>
-          <x:t>SEAG0211</x:t>
+          <x:t>SEAG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C412" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN AMBIENTAL</x:t>
+          <x:t>INTERPRETACIÓN Y EDUCACIÓN AMBIENTAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F412" t="inlineStr">
@@ -11930,17 +11930,17 @@
     <x:row r="413">
       <x:c r="A413" t="inlineStr">
         <x:is>
-          <x:t>23/8359</x:t>
+          <x:t>23/8357</x:t>
         </x:is>
       </x:c>
       <x:c r="B413" t="inlineStr">
         <x:is>
-          <x:t>ELEM0311</x:t>
+          <x:t>SEAG0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C413" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DE AUTOMATIZACIÓN INDUSTRIAL</x:t>
+          <x:t>GESTIÓN AMBIENTAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F413" t="inlineStr">
@@ -11950,14 +11950,14 @@
       </x:c>
       <x:c r="G413" t="inlineStr">
         <x:is>
-          <x:t>FORMACION INNOVACION Y EMPLEO, S.L.</x:t>
+          <x:t>HAZERTA, Soluciones Globales para el Empleo, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="414">
       <x:c r="A414" t="inlineStr">
         <x:is>
-          <x:t>23/8360</x:t>
+          <x:t>23/8359</x:t>
         </x:is>
       </x:c>
       <x:c r="B414" t="inlineStr">
@@ -11984,17 +11984,17 @@
     <x:row r="415">
       <x:c r="A415" t="inlineStr">
         <x:is>
-          <x:t>23/8365</x:t>
+          <x:t>23/8360</x:t>
         </x:is>
       </x:c>
       <x:c r="B415" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>ELEM0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C415" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DE AUTOMATIZACIÓN INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F415" t="inlineStr">
@@ -12004,7 +12004,7 @@
       </x:c>
       <x:c r="G415" t="inlineStr">
         <x:is>
-          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
+          <x:t>FORMACION INNOVACION Y EMPLEO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R7766a9f4f876439e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rab4468c8ffd0492a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R2a084815014645c0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Reca47453368748de"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rf100bcafe77447fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R818eb38af71d4d29"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -111,19 +111,24 @@
     <x:row r="3">
       <x:c r="A3" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008548</x:t>
+          <x:t>23/8241</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B3" t="inlineStr">
+        <x:is>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C3" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>46068.9583333333</x:v>
+        <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E3" s="2" t="n">
-        <x:v>46159.9166666667</x:v>
+        <x:v>46189.9166666667</x:v>
       </x:c>
       <x:c r="F3" t="inlineStr">
         <x:is>
@@ -132,33 +137,28 @@
       </x:c>
       <x:c r="G3" t="inlineStr">
         <x:is>
-          <x:t>DETUATUFORMACION S.L.</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H3" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="A4" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008592</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B4" t="inlineStr">
-        <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>FCCC240008548</x:t>
         </x:is>
       </x:c>
       <x:c r="C4" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>46062.9583333333</x:v>
+        <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E4" s="2" t="n">
         <x:v>46159.9166666667</x:v>
@@ -170,19 +170,19 @@
       </x:c>
       <x:c r="G4" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
+          <x:t>DETUATUFORMACION S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H4" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008593</x:t>
+          <x:t>FCCC240008592</x:t>
         </x:is>
       </x:c>
       <x:c r="B5" t="inlineStr">
@@ -220,24 +220,24 @@
     <x:row r="6">
       <x:c r="A6" t="inlineStr">
         <x:is>
-          <x:t>23/8009</x:t>
+          <x:t>FCCC240008593</x:t>
         </x:is>
       </x:c>
       <x:c r="B6" t="inlineStr">
         <x:is>
-          <x:t>HOTT0112</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C6" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN A PASAJEROS EN TRANSPORTE FERROVIARIO</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>46054.9583333333</x:v>
+        <x:v>46062.9583333333</x:v>
       </x:c>
       <x:c r="E6" s="2" t="n">
-        <x:v>46336.9583333333</x:v>
+        <x:v>46159.9166666667</x:v>
       </x:c>
       <x:c r="F6" t="inlineStr">
         <x:is>
@@ -246,31 +246,36 @@
       </x:c>
       <x:c r="G6" t="inlineStr">
         <x:is>
-          <x:t>BAI FORMACIÓN SA</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H6" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" t="inlineStr">
         <x:is>
-          <x:t>23/8100</x:t>
+          <x:t>23/8009</x:t>
         </x:is>
       </x:c>
       <x:c r="B7" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>HOTT0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C7" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>ATENCIÓN A PASAJEROS EN TRANSPORTE FERROVIARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>46043.9583333333</x:v>
+        <x:v>46054.9583333333</x:v>
       </x:c>
       <x:c r="E7" s="2" t="n">
-        <x:v>46196.9166666667</x:v>
+        <x:v>46336.9583333333</x:v>
       </x:c>
       <x:c r="F7" t="inlineStr">
         <x:is>
@@ -279,31 +284,31 @@
       </x:c>
       <x:c r="G7" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>BAI FORMACIÓN SA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="inlineStr">
         <x:is>
-          <x:t>23/8101</x:t>
+          <x:t>23/8242</x:t>
         </x:is>
       </x:c>
       <x:c r="B8" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C8" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>46041.9583333333</x:v>
+        <x:v>46047.9583333333</x:v>
       </x:c>
       <x:c r="E8" s="2" t="n">
-        <x:v>46127.9166666667</x:v>
+        <x:v>46170.9166666667</x:v>
       </x:c>
       <x:c r="F8" t="inlineStr">
         <x:is>
@@ -312,31 +317,36 @@
       </x:c>
       <x:c r="G8" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H8" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="inlineStr">
         <x:is>
-          <x:t>23/8099</x:t>
+          <x:t>23/8100</x:t>
         </x:is>
       </x:c>
       <x:c r="B9" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C9" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>46036.9583333333</x:v>
+        <x:v>46043.9583333333</x:v>
       </x:c>
       <x:c r="E9" s="2" t="n">
-        <x:v>46169.9166666667</x:v>
+        <x:v>46196.9166666667</x:v>
       </x:c>
       <x:c r="F9" t="inlineStr">
         <x:is>
@@ -352,24 +362,24 @@
     <x:row r="10">
       <x:c r="A10" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008590</x:t>
+          <x:t>23/8101</x:t>
         </x:is>
       </x:c>
       <x:c r="B10" t="inlineStr">
         <x:is>
-          <x:t>ENAE0208</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C10" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>46036.9583333333</x:v>
+        <x:v>46041.9583333333</x:v>
       </x:c>
       <x:c r="E10" s="2" t="n">
-        <x:v>46141.9166666667</x:v>
+        <x:v>46127.9166666667</x:v>
       </x:c>
       <x:c r="F10" t="inlineStr">
         <x:is>
@@ -378,36 +388,31 @@
       </x:c>
       <x:c r="G10" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H10" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="inlineStr">
         <x:is>
-          <x:t>23/8102</x:t>
+          <x:t>23/8099</x:t>
         </x:is>
       </x:c>
       <x:c r="B11" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C11" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>46034.9583333333</x:v>
+        <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E11" s="2" t="n">
-        <x:v>46145.9166666667</x:v>
+        <x:v>46169.9166666667</x:v>
       </x:c>
       <x:c r="F11" t="inlineStr">
         <x:is>
@@ -423,24 +428,24 @@
     <x:row r="12">
       <x:c r="A12" t="inlineStr">
         <x:is>
-          <x:t>23/8158</x:t>
+          <x:t>FCCC240008590</x:t>
         </x:is>
       </x:c>
       <x:c r="B12" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>ENAE0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C12" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>46028.9583333333</x:v>
+        <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E12" s="2" t="n">
-        <x:v>46121.9166666667</x:v>
+        <x:v>46141.9166666667</x:v>
       </x:c>
       <x:c r="F12" t="inlineStr">
         <x:is>
@@ -449,31 +454,36 @@
       </x:c>
       <x:c r="G12" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H12" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="inlineStr">
         <x:is>
-          <x:t>23/8157</x:t>
+          <x:t>23/8102</x:t>
         </x:is>
       </x:c>
       <x:c r="B13" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C13" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>46026.9583333333</x:v>
+        <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E13" s="2" t="n">
-        <x:v>46135.9166666667</x:v>
+        <x:v>46145.9166666667</x:v>
       </x:c>
       <x:c r="F13" t="inlineStr">
         <x:is>
@@ -482,31 +492,31 @@
       </x:c>
       <x:c r="G13" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="A14" t="inlineStr">
         <x:is>
-          <x:t>23/8329</x:t>
+          <x:t>23/8158</x:t>
         </x:is>
       </x:c>
       <x:c r="B14" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0211</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C14" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>45986.9583333333</x:v>
+        <x:v>46028.9583333333</x:v>
       </x:c>
       <x:c r="E14" s="2" t="n">
-        <x:v>46068.9583333333</x:v>
+        <x:v>46121.9166666667</x:v>
       </x:c>
       <x:c r="F14" t="inlineStr">
         <x:is>
@@ -515,31 +525,31 @@
       </x:c>
       <x:c r="G14" t="inlineStr">
         <x:is>
-          <x:t>ADARA FORMACION, S.L.</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="A15" t="inlineStr">
         <x:is>
-          <x:t>24/1185</x:t>
+          <x:t>23/8157</x:t>
         </x:is>
       </x:c>
       <x:c r="B15" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C15" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCION</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>45986</x:v>
+        <x:v>46026.9583333333</x:v>
       </x:c>
       <x:c r="E15" s="2" t="n">
-        <x:v>46098</x:v>
+        <x:v>46135.9166666667</x:v>
       </x:c>
       <x:c r="F15" t="inlineStr">
         <x:is>
@@ -548,36 +558,31 @@
       </x:c>
       <x:c r="G15" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H15" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" t="inlineStr">
         <x:is>
-          <x:t>24/929</x:t>
+          <x:t>23/8329</x:t>
         </x:is>
       </x:c>
       <x:c r="B16" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>EOCJ0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C16" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>45985</x:v>
+        <x:v>45986.9583333333</x:v>
       </x:c>
       <x:c r="E16" s="2" t="n">
-        <x:v>46122</x:v>
+        <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="F16" t="inlineStr">
         <x:is>
@@ -586,36 +591,31 @@
       </x:c>
       <x:c r="G16" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H16" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>ADARA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="A17" t="inlineStr">
         <x:is>
-          <x:t>23/8050</x:t>
+          <x:t>24/1185</x:t>
         </x:is>
       </x:c>
       <x:c r="B17" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C17" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCION</x:t>
         </x:is>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>45984.9583333333</x:v>
+        <x:v>45986</x:v>
       </x:c>
       <x:c r="E17" s="2" t="n">
-        <x:v>46051.9583333333</x:v>
+        <x:v>46098</x:v>
       </x:c>
       <x:c r="F17" t="inlineStr">
         <x:is>
@@ -624,31 +624,36 @@
       </x:c>
       <x:c r="G17" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H17" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18" t="inlineStr">
         <x:is>
-          <x:t>24/1164</x:t>
+          <x:t>24/929</x:t>
         </x:is>
       </x:c>
       <x:c r="B18" t="inlineStr">
         <x:is>
-          <x:t>IMAI0108</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C18" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA </x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>45973</x:v>
+        <x:v>45985</x:v>
       </x:c>
       <x:c r="E18" s="2" t="n">
-        <x:v>46079</x:v>
+        <x:v>46122</x:v>
       </x:c>
       <x:c r="F18" t="inlineStr">
         <x:is>
@@ -657,36 +662,36 @@
       </x:c>
       <x:c r="G18" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H18" t="inlineStr">
         <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19" t="inlineStr">
         <x:is>
-          <x:t>24/1170</x:t>
+          <x:t>23/8050</x:t>
         </x:is>
       </x:c>
       <x:c r="B19" t="inlineStr">
         <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C19" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>45973</x:v>
+        <x:v>45984.9583333333</x:v>
       </x:c>
       <x:c r="E19" s="2" t="n">
-        <x:v>46059</x:v>
+        <x:v>46051.9583333333</x:v>
       </x:c>
       <x:c r="F19" t="inlineStr">
         <x:is>
@@ -695,31 +700,31 @@
       </x:c>
       <x:c r="G19" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H19" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008547</x:t>
+          <x:t>24/1164</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B20" t="inlineStr">
+        <x:is>
+          <x:t>IMAI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C20" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA </x:t>
         </x:is>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>45971.9583333333</x:v>
+        <x:v>45973</x:v>
       </x:c>
       <x:c r="E20" s="2" t="n">
-        <x:v>46106.9583333333</x:v>
+        <x:v>46079</x:v>
       </x:c>
       <x:c r="F20" t="inlineStr">
         <x:is>
@@ -728,36 +733,36 @@
       </x:c>
       <x:c r="G20" t="inlineStr">
         <x:is>
-          <x:t>DETUATUFORMACION S.L.</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H20" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="A21" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003355</x:t>
+          <x:t>24/1170</x:t>
         </x:is>
       </x:c>
       <x:c r="B21" t="inlineStr">
         <x:is>
-          <x:t>AFDA0111</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C21" t="inlineStr">
         <x:is>
-          <x:t>FITNESS ACUÁTICO E HIDROCINESIA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>45963.9583333333</x:v>
+        <x:v>45973</x:v>
       </x:c>
       <x:c r="E21" s="2" t="n">
-        <x:v>45972.9583333333</x:v>
+        <x:v>46059</x:v>
       </x:c>
       <x:c r="F21" t="inlineStr">
         <x:is>
@@ -766,31 +771,31 @@
       </x:c>
       <x:c r="G21" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H21" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004186</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B22" t="inlineStr">
-        <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>FCCC240008547</x:t>
         </x:is>
       </x:c>
       <x:c r="C22" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>45963.9583333333</x:v>
+        <x:v>45971.9583333333</x:v>
       </x:c>
       <x:c r="E22" s="2" t="n">
-        <x:v>46093.9583333333</x:v>
+        <x:v>46106.9583333333</x:v>
       </x:c>
       <x:c r="F22" t="inlineStr">
         <x:is>
@@ -799,31 +804,36 @@
       </x:c>
       <x:c r="G22" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>DETUATUFORMACION S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H22" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="inlineStr">
         <x:is>
-          <x:t>24/1143</x:t>
+          <x:t>FDEC240003355</x:t>
         </x:is>
       </x:c>
       <x:c r="B23" t="inlineStr">
         <x:is>
-          <x:t>TMVG0409</x:t>
+          <x:t>AFDA0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C23" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
+          <x:t>FITNESS ACUÁTICO E HIDROCINESIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>45958</x:v>
+        <x:v>45963.9583333333</x:v>
       </x:c>
       <x:c r="E23" s="2" t="n">
-        <x:v>46099</x:v>
+        <x:v>45972.9583333333</x:v>
       </x:c>
       <x:c r="F23" t="inlineStr">
         <x:is>
@@ -832,36 +842,31 @@
       </x:c>
       <x:c r="G23" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H23" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004582</x:t>
+          <x:t>FDEC240004186</x:t>
         </x:is>
       </x:c>
       <x:c r="B24" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C24" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>45952.9166666667</x:v>
+        <x:v>45963.9583333333</x:v>
       </x:c>
       <x:c r="E24" s="2" t="n">
-        <x:v>46098.9583333333</x:v>
+        <x:v>46093.9583333333</x:v>
       </x:c>
       <x:c r="F24" t="inlineStr">
         <x:is>
@@ -870,26 +875,31 @@
       </x:c>
       <x:c r="G24" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="A25" t="inlineStr">
         <x:is>
-          <x:t>24/1161</x:t>
+          <x:t>24/1143</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B25" t="inlineStr">
+        <x:is>
+          <x:t>TMVG0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C25" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE, PUESTA EN SERVICIO, MANTENIMIENTO, INSPECCIÓN Y REVISIÓN DE INSTALACIONES RECEPTORAS Y APARATOS DE GAS </x:t>
+          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
         </x:is>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>45951</x:v>
+        <x:v>45958</x:v>
       </x:c>
       <x:c r="E25" s="2" t="n">
-        <x:v>46098</x:v>
+        <x:v>46099</x:v>
       </x:c>
       <x:c r="F25" t="inlineStr">
         <x:is>
@@ -910,24 +920,24 @@
     <x:row r="26">
       <x:c r="A26" t="inlineStr">
         <x:is>
-          <x:t>24/1174</x:t>
+          <x:t>FDEC240004582</x:t>
         </x:is>
       </x:c>
       <x:c r="B26" t="inlineStr">
         <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C26" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>45951</x:v>
+        <x:v>45952.9166666667</x:v>
       </x:c>
       <x:c r="E26" s="2" t="n">
-        <x:v>46078</x:v>
+        <x:v>46098.9583333333</x:v>
       </x:c>
       <x:c r="F26" t="inlineStr">
         <x:is>
@@ -936,36 +946,26 @@
       </x:c>
       <x:c r="G26" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H26" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004370</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B27" t="inlineStr">
-        <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>24/1161</x:t>
         </x:is>
       </x:c>
       <x:c r="C27" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>MONTAJE, PUESTA EN SERVICIO, MANTENIMIENTO, INSPECCIÓN Y REVISIÓN DE INSTALACIONES RECEPTORAS Y APARATOS DE GAS </x:t>
         </x:is>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>45950.9166666667</x:v>
+        <x:v>45951</x:v>
       </x:c>
       <x:c r="E27" s="2" t="n">
-        <x:v>46069.9583333333</x:v>
+        <x:v>46098</x:v>
       </x:c>
       <x:c r="F27" t="inlineStr">
         <x:is>
@@ -974,31 +974,36 @@
       </x:c>
       <x:c r="G27" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H27" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004371</x:t>
+          <x:t>24/1174</x:t>
         </x:is>
       </x:c>
       <x:c r="B28" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>AGAO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C28" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
         </x:is>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>45950.9166666667</x:v>
+        <x:v>45951</x:v>
       </x:c>
       <x:c r="E28" s="2" t="n">
-        <x:v>46069.9583333333</x:v>
+        <x:v>46078</x:v>
       </x:c>
       <x:c r="F28" t="inlineStr">
         <x:is>
@@ -1007,31 +1012,36 @@
       </x:c>
       <x:c r="G28" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H28" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c r="A29" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003868</x:t>
+          <x:t>FDEC240004370</x:t>
         </x:is>
       </x:c>
       <x:c r="B29" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>45949.9166666667</x:v>
+        <x:v>45950.9166666667</x:v>
       </x:c>
       <x:c r="E29" s="2" t="n">
-        <x:v>46079.9583333333</x:v>
+        <x:v>46069.9583333333</x:v>
       </x:c>
       <x:c r="F29" t="inlineStr">
         <x:is>
@@ -1040,36 +1050,31 @@
       </x:c>
       <x:c r="G29" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H29" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004368</x:t>
+          <x:t>FDEC240004371</x:t>
         </x:is>
       </x:c>
       <x:c r="B30" t="inlineStr">
         <x:is>
-          <x:t>EOCO0208</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C30" t="inlineStr">
         <x:is>
-          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>45949.9166666667</x:v>
+        <x:v>45950.9166666667</x:v>
       </x:c>
       <x:c r="E30" s="2" t="n">
-        <x:v>46078.9583333333</x:v>
+        <x:v>46069.9583333333</x:v>
       </x:c>
       <x:c r="F30" t="inlineStr">
         <x:is>
@@ -1085,24 +1090,24 @@
     <x:row r="31">
       <x:c r="A31" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004369</x:t>
+          <x:t>FDEC240003868</x:t>
         </x:is>
       </x:c>
       <x:c r="B31" t="inlineStr">
         <x:is>
-          <x:t>EOCO0208</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" t="inlineStr">
         <x:is>
-          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>45949.9166666667</x:v>
       </x:c>
       <x:c r="E31" s="2" t="n">
-        <x:v>46078.9583333333</x:v>
+        <x:v>46079.9583333333</x:v>
       </x:c>
       <x:c r="F31" t="inlineStr">
         <x:is>
@@ -1111,31 +1116,36 @@
       </x:c>
       <x:c r="G31" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H31" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003356</x:t>
+          <x:t>FDEC240004368</x:t>
         </x:is>
       </x:c>
       <x:c r="B32" t="inlineStr">
         <x:is>
-          <x:t>AFDA0310</x:t>
+          <x:t>EOCO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
+          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>45946.9166666667</x:v>
+        <x:v>45949.9166666667</x:v>
       </x:c>
       <x:c r="E32" s="2" t="n">
-        <x:v>45977.9583333333</x:v>
+        <x:v>46078.9583333333</x:v>
       </x:c>
       <x:c r="F32" t="inlineStr">
         <x:is>
@@ -1144,31 +1154,31 @@
       </x:c>
       <x:c r="G32" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="inlineStr">
         <x:is>
-          <x:t>24/911</x:t>
+          <x:t>FDEC240004369</x:t>
         </x:is>
       </x:c>
       <x:c r="B33" t="inlineStr">
         <x:is>
-          <x:t>TMVL0509</x:t>
+          <x:t>EOCO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C33" t="inlineStr">
         <x:is>
-          <x:t>PINTURA DE VEHÍCULOS</x:t>
+          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>45945</x:v>
+        <x:v>45949.9166666667</x:v>
       </x:c>
       <x:c r="E33" s="2" t="n">
-        <x:v>46080</x:v>
+        <x:v>46078.9583333333</x:v>
       </x:c>
       <x:c r="F33" t="inlineStr">
         <x:is>
@@ -1177,36 +1187,31 @@
       </x:c>
       <x:c r="G33" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H33" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="A34" t="inlineStr">
         <x:is>
-          <x:t>24/931</x:t>
+          <x:t>FDEC240003356</x:t>
         </x:is>
       </x:c>
       <x:c r="B34" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>AFDA0310</x:t>
         </x:is>
       </x:c>
       <x:c r="C34" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>45945</x:v>
+        <x:v>45946.9166666667</x:v>
       </x:c>
       <x:c r="E34" s="2" t="n">
-        <x:v>46099</x:v>
+        <x:v>45977.9583333333</x:v>
       </x:c>
       <x:c r="F34" t="inlineStr">
         <x:is>
@@ -1215,36 +1220,31 @@
       </x:c>
       <x:c r="G34" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H34" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="inlineStr">
         <x:is>
-          <x:t>23/8353</x:t>
+          <x:t>FDEC240004315</x:t>
         </x:is>
       </x:c>
       <x:c r="B35" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C35" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>45944.9166666667</x:v>
+        <x:v>45945.9166666667</x:v>
       </x:c>
       <x:c r="E35" s="2" t="n">
-        <x:v>46103.9583333333</x:v>
+        <x:v>45987.9583333333</x:v>
       </x:c>
       <x:c r="F35" t="inlineStr">
         <x:is>
@@ -1253,31 +1253,31 @@
       </x:c>
       <x:c r="G35" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>FORMACION PARA EL DESARROLLO E INSERCION SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003590</x:t>
+          <x:t>24/911</x:t>
         </x:is>
       </x:c>
       <x:c r="B36" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>TMVL0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C36" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>PINTURA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>45944.9166666667</x:v>
+        <x:v>45945</x:v>
       </x:c>
       <x:c r="E36" s="2" t="n">
-        <x:v>45999.9583333333</x:v>
+        <x:v>46080</x:v>
       </x:c>
       <x:c r="F36" t="inlineStr">
         <x:is>
@@ -1286,31 +1286,36 @@
       </x:c>
       <x:c r="G36" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H36" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003866</x:t>
+          <x:t>24/931</x:t>
         </x:is>
       </x:c>
       <x:c r="B37" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C37" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>45944.9166666667</x:v>
+        <x:v>45945</x:v>
       </x:c>
       <x:c r="E37" s="2" t="n">
-        <x:v>46053.9583333333</x:v>
+        <x:v>46099</x:v>
       </x:c>
       <x:c r="F37" t="inlineStr">
         <x:is>
@@ -1319,19 +1324,19 @@
       </x:c>
       <x:c r="G37" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H37" t="inlineStr">
         <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="38">
       <x:c r="A38" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004187</x:t>
+          <x:t>23/8353</x:t>
         </x:is>
       </x:c>
       <x:c r="B38" t="inlineStr">
@@ -1348,7 +1353,7 @@
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E38" s="2" t="n">
-        <x:v>46099.9583333333</x:v>
+        <x:v>46103.9583333333</x:v>
       </x:c>
       <x:c r="F38" t="inlineStr">
         <x:is>
@@ -1364,24 +1369,24 @@
     <x:row r="39">
       <x:c r="A39" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004464</x:t>
+          <x:t>FDEC240003590</x:t>
         </x:is>
       </x:c>
       <x:c r="B39" t="inlineStr">
         <x:is>
-          <x:t>AFDA0511</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C39" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E39" s="2" t="n">
-        <x:v>45990.9583333333</x:v>
+        <x:v>45999.9583333333</x:v>
       </x:c>
       <x:c r="F39" t="inlineStr">
         <x:is>
@@ -1390,31 +1395,31 @@
       </x:c>
       <x:c r="G39" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="40">
       <x:c r="A40" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004545</x:t>
+          <x:t>FDEC240003866</x:t>
         </x:is>
       </x:c>
       <x:c r="B40" t="inlineStr">
         <x:is>
-          <x:t>QUIA0208</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C40" t="inlineStr">
         <x:is>
-          <x:t>ENSAYOS MICROBIOLÓGICOS Y BIOTECNOLÓGICOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E40" s="2" t="n">
-        <x:v>46069.9583333333</x:v>
+        <x:v>46053.9583333333</x:v>
       </x:c>
       <x:c r="F40" t="inlineStr">
         <x:is>
@@ -1423,31 +1428,36 @@
       </x:c>
       <x:c r="G40" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO MENESIANO EN AV BRASILIA 11 INST  HH DE LA  INSTR CRISTIANA DE MADRID</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H40" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="A41" t="inlineStr">
         <x:is>
-          <x:t>24/924</x:t>
+          <x:t>FDEC240004187</x:t>
         </x:is>
       </x:c>
       <x:c r="B41" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0108</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C41" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO Y MONTAJE MECÁNICO DE EQUIPO INDUSTRIAL</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>45944</x:v>
+        <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E41" s="2" t="n">
-        <x:v>46080</x:v>
+        <x:v>46099.9583333333</x:v>
       </x:c>
       <x:c r="F41" t="inlineStr">
         <x:is>
@@ -1456,36 +1466,31 @@
       </x:c>
       <x:c r="G41" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H41" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004382</x:t>
+          <x:t>FDEC240004464</x:t>
         </x:is>
       </x:c>
       <x:c r="B42" t="inlineStr">
         <x:is>
-          <x:t>ARTB0112</x:t>
+          <x:t>AFDA0511</x:t>
         </x:is>
       </x:c>
       <x:c r="C42" t="inlineStr">
         <x:is>
-          <x:t>REPOSICIÓN, MONTAJE Y MANTENIMIENTO DE ELEMENTOS DE RELOJERÍA FINA</x:t>
+          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D42" s="1" t="n">
-        <x:v>45942.9166666667</x:v>
+        <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E42" s="2" t="n">
-        <x:v>46020.9583333333</x:v>
+        <x:v>45990.9583333333</x:v>
       </x:c>
       <x:c r="F42" t="inlineStr">
         <x:is>
@@ -1494,31 +1499,31 @@
       </x:c>
       <x:c r="G42" t="inlineStr">
         <x:is>
-          <x:t>I.C.C. S.ELOY ARTIF. PLAT. MADRID. GREMIO JOY.PLATEROS Y RELOJEROS DE MADRID.</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="A43" t="inlineStr">
         <x:is>
-          <x:t>24/1125</x:t>
+          <x:t>FDEC240004545</x:t>
         </x:is>
       </x:c>
       <x:c r="B43" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0110</x:t>
+          <x:t>QUIA0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C43" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
+          <x:t>ENSAYOS MICROBIOLÓGICOS Y BIOTECNOLÓGICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>45940</x:v>
+        <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E43" s="2" t="n">
-        <x:v>46092</x:v>
+        <x:v>46069.9583333333</x:v>
       </x:c>
       <x:c r="F43" t="inlineStr">
         <x:is>
@@ -1527,30 +1532,31 @@
       </x:c>
       <x:c r="G43" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H43" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>COLEGIO MENESIANO EN AV BRASILIA 11 INST  HH DE LA  INSTR CRISTIANA DE MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="44">
       <x:c r="A44" t="inlineStr">
         <x:is>
-          <x:t>22/1707</x:t>
+          <x:t>24/924</x:t>
         </x:is>
       </x:c>
       <x:c r="B44" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>IMAQ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C44" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
-        </x:is>
+          <x:t>MANTENIMIENTO Y MONTAJE MECÁNICO DE EQUIPO INDUSTRIAL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D44" s="1" t="n">
+        <x:v>45944</x:v>
+      </x:c>
+      <x:c r="E44" s="2" t="n">
+        <x:v>46080</x:v>
       </x:c>
       <x:c r="F44" t="inlineStr">
         <x:is>
@@ -1559,30 +1565,36 @@
       </x:c>
       <x:c r="G44" t="inlineStr">
         <x:is>
-          <x:t>MFD FORMACION SAG SOLAR</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H44" t="inlineStr">
         <x:is>
-          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="45">
       <x:c r="A45" t="inlineStr">
         <x:is>
-          <x:t>22/1708</x:t>
+          <x:t>FDEC240004382</x:t>
         </x:is>
       </x:c>
       <x:c r="B45" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>ARTB0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C45" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
-        </x:is>
+          <x:t>REPOSICIÓN, MONTAJE Y MANTENIMIENTO DE ELEMENTOS DE RELOJERÍA FINA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D45" s="1" t="n">
+        <x:v>45942.9166666667</x:v>
+      </x:c>
+      <x:c r="E45" s="2" t="n">
+        <x:v>46020.9583333333</x:v>
       </x:c>
       <x:c r="F45" t="inlineStr">
         <x:is>
@@ -1591,29 +1603,24 @@
       </x:c>
       <x:c r="G45" t="inlineStr">
         <x:is>
-          <x:t>MFD FORMACION SAG SOLAR</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H45" t="inlineStr">
-        <x:is>
-          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
+          <x:t>I.C.C. S.ELOY ARTIF. PLAT. MADRID. GREMIO JOY.PLATEROS Y RELOJEROS DE MADRID.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="46">
       <x:c r="A46" t="inlineStr">
         <x:is>
-          <x:t>22/1709</x:t>
+          <x:t>22/1707</x:t>
         </x:is>
       </x:c>
       <x:c r="B46" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C46" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F46" t="inlineStr">
@@ -1623,29 +1630,29 @@
       </x:c>
       <x:c r="G46" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION ASISPA</x:t>
+          <x:t>MFD FORMACION SAG SOLAR</x:t>
         </x:is>
       </x:c>
       <x:c r="H46" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="47">
       <x:c r="A47" t="inlineStr">
         <x:is>
-          <x:t>22/1710</x:t>
+          <x:t>22/1708</x:t>
         </x:is>
       </x:c>
       <x:c r="B47" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C47" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F47" t="inlineStr">
@@ -1655,29 +1662,29 @@
       </x:c>
       <x:c r="G47" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION ASISPA</x:t>
+          <x:t>MFD FORMACION SAG SOLAR</x:t>
         </x:is>
       </x:c>
       <x:c r="H47" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="48">
       <x:c r="A48" t="inlineStr">
         <x:is>
-          <x:t>22/1714</x:t>
+          <x:t>22/1709</x:t>
         </x:is>
       </x:c>
       <x:c r="B48" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C48" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F48" t="inlineStr">
@@ -1699,17 +1706,17 @@
     <x:row r="49">
       <x:c r="A49" t="inlineStr">
         <x:is>
-          <x:t>22/1715</x:t>
+          <x:t>22/1710</x:t>
         </x:is>
       </x:c>
       <x:c r="B49" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C49" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F49" t="inlineStr">
@@ -1731,17 +1738,17 @@
     <x:row r="50">
       <x:c r="A50" t="inlineStr">
         <x:is>
-          <x:t>22/1718</x:t>
+          <x:t>22/1714</x:t>
         </x:is>
       </x:c>
       <x:c r="B50" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C50" t="inlineStr">
         <x:is>
-          <x:t>FABRICAS DE ALBAÑILERIA</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F50" t="inlineStr">
@@ -1751,29 +1758,29 @@
       </x:c>
       <x:c r="G50" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
+          <x:t>CENTRO DE FORMACION ASISPA</x:t>
         </x:is>
       </x:c>
       <x:c r="H50" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="51">
       <x:c r="A51" t="inlineStr">
         <x:is>
-          <x:t>22/1719</x:t>
+          <x:t>22/1715</x:t>
         </x:is>
       </x:c>
       <x:c r="B51" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0110</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C51" t="inlineStr">
         <x:is>
-          <x:t>INSTALACION DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F51" t="inlineStr">
@@ -1783,29 +1790,29 @@
       </x:c>
       <x:c r="G51" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
+          <x:t>CENTRO DE FORMACION ASISPA</x:t>
         </x:is>
       </x:c>
       <x:c r="H51" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="52">
       <x:c r="A52" t="inlineStr">
         <x:is>
-          <x:t>22/1725</x:t>
+          <x:t>22/1718</x:t>
         </x:is>
       </x:c>
       <x:c r="B52" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C52" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>FABRICAS DE ALBAÑILERIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F52" t="inlineStr">
@@ -1815,29 +1822,29 @@
       </x:c>
       <x:c r="G52" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
         </x:is>
       </x:c>
       <x:c r="H52" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="53">
       <x:c r="A53" t="inlineStr">
         <x:is>
-          <x:t>22/1726</x:t>
+          <x:t>22/1719</x:t>
         </x:is>
       </x:c>
       <x:c r="B53" t="inlineStr">
         <x:is>
-          <x:t>ARGI0209</x:t>
+          <x:t>EOCJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C53" t="inlineStr">
         <x:is>
-          <x:t>IMPRESIÓN DIGITAL</x:t>
+          <x:t>INSTALACION DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F53" t="inlineStr">
@@ -1847,29 +1854,29 @@
       </x:c>
       <x:c r="G53" t="inlineStr">
         <x:is>
-          <x:t>INST.POLITECN.SALESIANOS</x:t>
+          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
         </x:is>
       </x:c>
       <x:c r="H53" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="54">
       <x:c r="A54" t="inlineStr">
         <x:is>
-          <x:t>22/1727</x:t>
+          <x:t>22/1725</x:t>
         </x:is>
       </x:c>
       <x:c r="B54" t="inlineStr">
         <x:is>
-          <x:t>ARGI0209</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C54" t="inlineStr">
         <x:is>
-          <x:t>IMPRESIÓN DIGITAL</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F54" t="inlineStr">
@@ -1879,7 +1886,7 @@
       </x:c>
       <x:c r="G54" t="inlineStr">
         <x:is>
-          <x:t>INST.POLITECN.SALESIANOS</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H54" t="inlineStr">
@@ -1891,17 +1898,17 @@
     <x:row r="55">
       <x:c r="A55" t="inlineStr">
         <x:is>
-          <x:t>22/1729</x:t>
+          <x:t>22/1726</x:t>
         </x:is>
       </x:c>
       <x:c r="B55" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>ARGI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C55" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELVACIÓN Y TRANSPORTE</x:t>
+          <x:t>IMPRESIÓN DIGITAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F55" t="inlineStr">
@@ -1923,17 +1930,17 @@
     <x:row r="56">
       <x:c r="A56" t="inlineStr">
         <x:is>
-          <x:t>22/1750</x:t>
+          <x:t>22/1727</x:t>
         </x:is>
       </x:c>
       <x:c r="B56" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ARGI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C56" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>IMPRESIÓN DIGITAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F56" t="inlineStr">
@@ -1943,29 +1950,29 @@
       </x:c>
       <x:c r="G56" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
+          <x:t>INST.POLITECN.SALESIANOS</x:t>
         </x:is>
       </x:c>
       <x:c r="H56" t="inlineStr">
         <x:is>
-          <x:t>BOADILLA DEL MONTE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="57">
       <x:c r="A57" t="inlineStr">
         <x:is>
-          <x:t>22/1751</x:t>
+          <x:t>22/1729</x:t>
         </x:is>
       </x:c>
       <x:c r="B57" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C57" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F57" t="inlineStr">
@@ -1975,19 +1982,19 @@
       </x:c>
       <x:c r="G57" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
+          <x:t>INST.POLITECN.SALESIANOS</x:t>
         </x:is>
       </x:c>
       <x:c r="H57" t="inlineStr">
         <x:is>
-          <x:t>BOADILLA DEL MONTE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="58">
       <x:c r="A58" t="inlineStr">
         <x:is>
-          <x:t>22/1752</x:t>
+          <x:t>22/1750</x:t>
         </x:is>
       </x:c>
       <x:c r="B58" t="inlineStr">
@@ -2019,17 +2026,17 @@
     <x:row r="59">
       <x:c r="A59" t="inlineStr">
         <x:is>
-          <x:t>22/1755</x:t>
+          <x:t>22/1751</x:t>
         </x:is>
       </x:c>
       <x:c r="B59" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C59" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F59" t="inlineStr">
@@ -2039,29 +2046,29 @@
       </x:c>
       <x:c r="G59" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL</x:t>
+          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="H59" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>BOADILLA DEL MONTE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="60">
       <x:c r="A60" t="inlineStr">
         <x:is>
-          <x:t>22/1756</x:t>
+          <x:t>22/1752</x:t>
         </x:is>
       </x:c>
       <x:c r="B60" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C60" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F60" t="inlineStr">
@@ -2071,29 +2078,29 @@
       </x:c>
       <x:c r="G60" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL</x:t>
+          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="H60" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>BOADILLA DEL MONTE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="61">
       <x:c r="A61" t="inlineStr">
         <x:is>
-          <x:t>22/1759</x:t>
+          <x:t>22/1755</x:t>
         </x:is>
       </x:c>
       <x:c r="B61" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C61" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F61" t="inlineStr">
@@ -2103,7 +2110,7 @@
       </x:c>
       <x:c r="G61" t="inlineStr">
         <x:is>
-          <x:t>NRED</x:t>
+          <x:t>FORMACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="H61" t="inlineStr">
@@ -2115,17 +2122,17 @@
     <x:row r="62">
       <x:c r="A62" t="inlineStr">
         <x:is>
-          <x:t>22/1760</x:t>
+          <x:t>22/1756</x:t>
         </x:is>
       </x:c>
       <x:c r="B62" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C62" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F62" t="inlineStr">
@@ -2135,7 +2142,7 @@
       </x:c>
       <x:c r="G62" t="inlineStr">
         <x:is>
-          <x:t>NRED</x:t>
+          <x:t>FORMACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="H62" t="inlineStr">
@@ -2147,7 +2154,7 @@
     <x:row r="63">
       <x:c r="A63" t="inlineStr">
         <x:is>
-          <x:t>22/1761</x:t>
+          <x:t>22/1759</x:t>
         </x:is>
       </x:c>
       <x:c r="B63" t="inlineStr">
@@ -2179,7 +2186,7 @@
     <x:row r="64">
       <x:c r="A64" t="inlineStr">
         <x:is>
-          <x:t>22/1762</x:t>
+          <x:t>22/1760</x:t>
         </x:is>
       </x:c>
       <x:c r="B64" t="inlineStr">
@@ -2211,17 +2218,17 @@
     <x:row r="65">
       <x:c r="A65" t="inlineStr">
         <x:is>
-          <x:t>22/1764</x:t>
+          <x:t>22/1761</x:t>
         </x:is>
       </x:c>
       <x:c r="B65" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C65" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F65" t="inlineStr">
@@ -2231,14 +2238,19 @@
       </x:c>
       <x:c r="G65" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA LARA S.L.</x:t>
+          <x:t>NRED</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H65" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="66">
       <x:c r="A66" t="inlineStr">
         <x:is>
-          <x:t>22/1765</x:t>
+          <x:t>22/1762</x:t>
         </x:is>
       </x:c>
       <x:c r="B66" t="inlineStr">
@@ -2258,7 +2270,7 @@
       </x:c>
       <x:c r="G66" t="inlineStr">
         <x:is>
-          <x:t>FEMXA FORMACION</x:t>
+          <x:t>NRED</x:t>
         </x:is>
       </x:c>
       <x:c r="H66" t="inlineStr">
@@ -2270,17 +2282,17 @@
     <x:row r="67">
       <x:c r="A67" t="inlineStr">
         <x:is>
-          <x:t>22/1766</x:t>
+          <x:t>22/1764</x:t>
         </x:is>
       </x:c>
       <x:c r="B67" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C67" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F67" t="inlineStr">
@@ -2290,29 +2302,24 @@
       </x:c>
       <x:c r="G67" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ACTIVA FORMACION, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H67" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>AUTOESCUELA LARA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="68">
       <x:c r="A68" t="inlineStr">
         <x:is>
-          <x:t>22/1775</x:t>
+          <x:t>22/1765</x:t>
         </x:is>
       </x:c>
       <x:c r="B68" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C68" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F68" t="inlineStr">
@@ -2322,7 +2329,7 @@
       </x:c>
       <x:c r="G68" t="inlineStr">
         <x:is>
-          <x:t>PROYECTA EMPLEO</x:t>
+          <x:t>FEMXA FORMACION</x:t>
         </x:is>
       </x:c>
       <x:c r="H68" t="inlineStr">
@@ -2334,17 +2341,17 @@
     <x:row r="69">
       <x:c r="A69" t="inlineStr">
         <x:is>
-          <x:t>22/1777</x:t>
+          <x:t>22/1766</x:t>
         </x:is>
       </x:c>
       <x:c r="B69" t="inlineStr">
         <x:is>
-          <x:t>COMM0112</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C69" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE MARKETING Y COMUNICACIÓN</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F69" t="inlineStr">
@@ -2354,29 +2361,29 @@
       </x:c>
       <x:c r="G69" t="inlineStr">
         <x:is>
-          <x:t>CENES</x:t>
+          <x:t>CENTRO DE ESTUDIOS ACTIVA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H69" t="inlineStr">
         <x:is>
-          <x:t>GETAFE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="70">
       <x:c r="A70" t="inlineStr">
         <x:is>
-          <x:t>22/1781</x:t>
+          <x:t>22/1775</x:t>
         </x:is>
       </x:c>
       <x:c r="B70" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C70" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACION Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F70" t="inlineStr">
@@ -2386,29 +2393,29 @@
       </x:c>
       <x:c r="G70" t="inlineStr">
         <x:is>
-          <x:t>AULA TRES INFORMATICA</x:t>
+          <x:t>PROYECTA EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="H70" t="inlineStr">
         <x:is>
-          <x:t>TRES CANTOS</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="71">
       <x:c r="A71" t="inlineStr">
         <x:is>
-          <x:t>22/1783</x:t>
+          <x:t>22/1777</x:t>
         </x:is>
       </x:c>
       <x:c r="B71" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>COMM0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C71" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
+          <x:t>GESTIÓN DE MARKETING Y COMUNICACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F71" t="inlineStr">
@@ -2418,29 +2425,29 @@
       </x:c>
       <x:c r="G71" t="inlineStr">
         <x:is>
-          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
+          <x:t>CENES</x:t>
         </x:is>
       </x:c>
       <x:c r="H71" t="inlineStr">
         <x:is>
-          <x:t>RIVAS-VACIAMADRID</x:t>
+          <x:t>GETAFE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="72">
       <x:c r="A72" t="inlineStr">
         <x:is>
-          <x:t>22/1785</x:t>
+          <x:t>22/1781</x:t>
         </x:is>
       </x:c>
       <x:c r="B72" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C72" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>OPERACIONES DE GRABACION Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F72" t="inlineStr">
@@ -2450,29 +2457,29 @@
       </x:c>
       <x:c r="G72" t="inlineStr">
         <x:is>
-          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
+          <x:t>AULA TRES INFORMATICA</x:t>
         </x:is>
       </x:c>
       <x:c r="H72" t="inlineStr">
         <x:is>
-          <x:t>RIVAS-VACIAMADRID</x:t>
+          <x:t>TRES CANTOS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="73">
       <x:c r="A73" t="inlineStr">
         <x:is>
-          <x:t>22/1786</x:t>
+          <x:t>22/1783</x:t>
         </x:is>
       </x:c>
       <x:c r="B73" t="inlineStr">
         <x:is>
-          <x:t>ADGG0308</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C73" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTION EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F73" t="inlineStr">
@@ -2494,7 +2501,7 @@
     <x:row r="74">
       <x:c r="A74" t="inlineStr">
         <x:is>
-          <x:t>22/1788</x:t>
+          <x:t>22/1785</x:t>
         </x:is>
       </x:c>
       <x:c r="B74" t="inlineStr">
@@ -2514,29 +2521,29 @@
       </x:c>
       <x:c r="G74" t="inlineStr">
         <x:is>
-          <x:t>GALA CTM-2</x:t>
+          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H74" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>RIVAS-VACIAMADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="75">
       <x:c r="A75" t="inlineStr">
         <x:is>
-          <x:t>22/1789</x:t>
+          <x:t>22/1786</x:t>
         </x:is>
       </x:c>
       <x:c r="B75" t="inlineStr">
         <x:is>
-          <x:t>IFCT0309</x:t>
+          <x:t>ADGG0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C75" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTION EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F75" t="inlineStr">
@@ -2546,29 +2553,29 @@
       </x:c>
       <x:c r="G75" t="inlineStr">
         <x:is>
-          <x:t>PLATO SUR</x:t>
+          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H75" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>RIVAS-VACIAMADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="76">
       <x:c r="A76" t="inlineStr">
         <x:is>
-          <x:t>22/1792</x:t>
+          <x:t>22/1788</x:t>
         </x:is>
       </x:c>
       <x:c r="B76" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C76" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTIÓN ADMINISTRATIVA</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F76" t="inlineStr">
@@ -2578,7 +2585,7 @@
       </x:c>
       <x:c r="G76" t="inlineStr">
         <x:is>
-          <x:t>KIWORKS CUATRO CAMINOS</x:t>
+          <x:t>GALA CTM-2</x:t>
         </x:is>
       </x:c>
       <x:c r="H76" t="inlineStr">
@@ -2590,17 +2597,17 @@
     <x:row r="77">
       <x:c r="A77" t="inlineStr">
         <x:is>
-          <x:t>22/2238</x:t>
+          <x:t>22/1789</x:t>
         </x:is>
       </x:c>
       <x:c r="B77" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>IFCT0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C77" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F77" t="inlineStr">
@@ -2610,24 +2617,29 @@
       </x:c>
       <x:c r="G77" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>PLATO SUR</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H77" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="78">
       <x:c r="A78" t="inlineStr">
         <x:is>
-          <x:t>22/2239</x:t>
+          <x:t>22/1792</x:t>
         </x:is>
       </x:c>
       <x:c r="B78" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C78" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>ACTIVIDADES DE GESTIÓN ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F78" t="inlineStr">
@@ -2637,24 +2649,29 @@
       </x:c>
       <x:c r="G78" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>KIWORKS CUATRO CAMINOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H78" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="79">
       <x:c r="A79" t="inlineStr">
         <x:is>
-          <x:t>22/2242</x:t>
+          <x:t>22/2238</x:t>
         </x:is>
       </x:c>
       <x:c r="B79" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C79" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F79" t="inlineStr">
@@ -2664,24 +2681,24 @@
       </x:c>
       <x:c r="G79" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="80">
       <x:c r="A80" t="inlineStr">
         <x:is>
-          <x:t>22/2243</x:t>
+          <x:t>22/2239</x:t>
         </x:is>
       </x:c>
       <x:c r="B80" t="inlineStr">
         <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C80" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F80" t="inlineStr">
@@ -2691,24 +2708,24 @@
       </x:c>
       <x:c r="G80" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="81">
       <x:c r="A81" t="inlineStr">
         <x:is>
-          <x:t>22/2244</x:t>
+          <x:t>22/2242</x:t>
         </x:is>
       </x:c>
       <x:c r="B81" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C81" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F81" t="inlineStr">
@@ -2725,17 +2742,17 @@
     <x:row r="82">
       <x:c r="A82" t="inlineStr">
         <x:is>
-          <x:t>22/2245</x:t>
+          <x:t>22/2243</x:t>
         </x:is>
       </x:c>
       <x:c r="B82" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C82" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F82" t="inlineStr">
@@ -2752,17 +2769,17 @@
     <x:row r="83">
       <x:c r="A83" t="inlineStr">
         <x:is>
-          <x:t>22/3933</x:t>
+          <x:t>22/2244</x:t>
         </x:is>
       </x:c>
       <x:c r="B83" t="inlineStr">
         <x:is>
-          <x:t>COMT0210</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C83" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN ADMINISTRATIVA Y FINANCIERA DEL COMERCIO INTERNACIONAL</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F83" t="inlineStr">
@@ -2772,24 +2789,24 @@
       </x:c>
       <x:c r="G83" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="84">
       <x:c r="A84" t="inlineStr">
         <x:is>
-          <x:t>22/5155</x:t>
+          <x:t>22/2245</x:t>
         </x:is>
       </x:c>
       <x:c r="B84" t="inlineStr">
         <x:is>
-          <x:t>EOCE0109</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C84" t="inlineStr">
         <x:is>
-          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F84" t="inlineStr">
@@ -2799,24 +2816,24 @@
       </x:c>
       <x:c r="G84" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="85">
       <x:c r="A85" t="inlineStr">
         <x:is>
-          <x:t>22/5157</x:t>
+          <x:t>22/3933</x:t>
         </x:is>
       </x:c>
       <x:c r="B85" t="inlineStr">
         <x:is>
-          <x:t>FMEC0210</x:t>
+          <x:t>COMT0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C85" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
+          <x:t>GESTIÓN ADMINISTRATIVA Y FINANCIERA DEL COMERCIO INTERNACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F85" t="inlineStr">
@@ -2826,24 +2843,24 @@
       </x:c>
       <x:c r="G85" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="86">
       <x:c r="A86" t="inlineStr">
         <x:is>
-          <x:t>22/5159</x:t>
+          <x:t>22/5155</x:t>
         </x:is>
       </x:c>
       <x:c r="B86" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>EOCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C86" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F86" t="inlineStr">
@@ -2860,17 +2877,17 @@
     <x:row r="87">
       <x:c r="A87" t="inlineStr">
         <x:is>
-          <x:t>22/5163</x:t>
+          <x:t>22/5157</x:t>
         </x:is>
       </x:c>
       <x:c r="B87" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>FMEC0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C87" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
         </x:is>
       </x:c>
       <x:c r="F87" t="inlineStr">
@@ -2887,17 +2904,17 @@
     <x:row r="88">
       <x:c r="A88" t="inlineStr">
         <x:is>
-          <x:t>22/5164</x:t>
+          <x:t>22/5159</x:t>
         </x:is>
       </x:c>
       <x:c r="B88" t="inlineStr">
         <x:is>
-          <x:t>ELEE0209</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C88" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE REDES ELÉCTRICAS DE ALTA TENSIÓN DE SEGUNDA Y TERCERA CATEGORÍA Y CENTROS DE TRANSFORMACIÓN</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F88" t="inlineStr">
@@ -2914,17 +2931,17 @@
     <x:row r="89">
       <x:c r="A89" t="inlineStr">
         <x:is>
-          <x:t>22/5167</x:t>
+          <x:t>22/5163</x:t>
         </x:is>
       </x:c>
       <x:c r="B89" t="inlineStr">
         <x:is>
-          <x:t>EOCB0209</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C89" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ACABADOS RÍGIDOS Y URBANIZACIÓN</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F89" t="inlineStr">
@@ -2941,17 +2958,17 @@
     <x:row r="90">
       <x:c r="A90" t="inlineStr">
         <x:is>
-          <x:t>22/5169</x:t>
+          <x:t>22/5164</x:t>
         </x:is>
       </x:c>
       <x:c r="B90" t="inlineStr">
         <x:is>
-          <x:t>EOCE0109</x:t>
+          <x:t>ELEE0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C90" t="inlineStr">
         <x:is>
-          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE REDES ELÉCTRICAS DE ALTA TENSIÓN DE SEGUNDA Y TERCERA CATEGORÍA Y CENTROS DE TRANSFORMACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F90" t="inlineStr">
@@ -2968,17 +2985,17 @@
     <x:row r="91">
       <x:c r="A91" t="inlineStr">
         <x:is>
-          <x:t>22/5170</x:t>
+          <x:t>22/5167</x:t>
         </x:is>
       </x:c>
       <x:c r="B91" t="inlineStr">
         <x:is>
-          <x:t>FMEC0210</x:t>
+          <x:t>EOCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C91" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ACABADOS RÍGIDOS Y URBANIZACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F91" t="inlineStr">
@@ -2995,17 +3012,17 @@
     <x:row r="92">
       <x:c r="A92" t="inlineStr">
         <x:is>
-          <x:t>22/5171</x:t>
+          <x:t>22/5169</x:t>
         </x:is>
       </x:c>
       <x:c r="B92" t="inlineStr">
         <x:is>
-          <x:t>MAMD0309</x:t>
+          <x:t>EOCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C92" t="inlineStr">
         <x:is>
-          <x:t>PROYECTOS DE CARPINTERÍA Y MUEBLE</x:t>
+          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F92" t="inlineStr">
@@ -3022,17 +3039,17 @@
     <x:row r="93">
       <x:c r="A93" t="inlineStr">
         <x:is>
-          <x:t>22/5172</x:t>
+          <x:t>22/5170</x:t>
         </x:is>
       </x:c>
       <x:c r="B93" t="inlineStr">
         <x:is>
-          <x:t>MAMR0408</x:t>
+          <x:t>FMEC0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C93" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE MUEBLES</x:t>
+          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
         </x:is>
       </x:c>
       <x:c r="F93" t="inlineStr">
@@ -3049,17 +3066,17 @@
     <x:row r="94">
       <x:c r="A94" t="inlineStr">
         <x:is>
-          <x:t>22/5173</x:t>
+          <x:t>22/5171</x:t>
         </x:is>
       </x:c>
       <x:c r="B94" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>MAMD0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C94" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>PROYECTOS DE CARPINTERÍA Y MUEBLE</x:t>
         </x:is>
       </x:c>
       <x:c r="F94" t="inlineStr">
@@ -3076,17 +3093,17 @@
     <x:row r="95">
       <x:c r="A95" t="inlineStr">
         <x:is>
-          <x:t>22/5174</x:t>
+          <x:t>22/5172</x:t>
         </x:is>
       </x:c>
       <x:c r="B95" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>MAMR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C95" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>INSTALACIÓN DE MUEBLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F95" t="inlineStr">
@@ -3103,17 +3120,17 @@
     <x:row r="96">
       <x:c r="A96" t="inlineStr">
         <x:is>
-          <x:t>22/5176</x:t>
+          <x:t>22/5173</x:t>
         </x:is>
       </x:c>
       <x:c r="B96" t="inlineStr">
         <x:is>
-          <x:t>SEAG0211</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C96" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN AMBIENTAL</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F96" t="inlineStr">
@@ -3130,17 +3147,17 @@
     <x:row r="97">
       <x:c r="A97" t="inlineStr">
         <x:is>
-          <x:t>22/5180</x:t>
+          <x:t>22/5174</x:t>
         </x:is>
       </x:c>
       <x:c r="B97" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C97" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F97" t="inlineStr">
@@ -3150,24 +3167,24 @@
       </x:c>
       <x:c r="G97" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="98">
       <x:c r="A98" t="inlineStr">
         <x:is>
-          <x:t>22/5182</x:t>
+          <x:t>22/5176</x:t>
         </x:is>
       </x:c>
       <x:c r="B98" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>SEAG0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C98" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>GESTIÓN AMBIENTAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F98" t="inlineStr">
@@ -3177,24 +3194,24 @@
       </x:c>
       <x:c r="G98" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="99">
       <x:c r="A99" t="inlineStr">
         <x:is>
-          <x:t>22/5183</x:t>
+          <x:t>22/5180</x:t>
         </x:is>
       </x:c>
       <x:c r="B99" t="inlineStr">
         <x:is>
-          <x:t>HOTA0208</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C99" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE PISOS Y LIMPIEZA EN ALOJAMIENTOS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F99" t="inlineStr">
@@ -3211,17 +3228,17 @@
     <x:row r="100">
       <x:c r="A100" t="inlineStr">
         <x:is>
-          <x:t>22/5185</x:t>
+          <x:t>22/5182</x:t>
         </x:is>
       </x:c>
       <x:c r="B100" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C100" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F100" t="inlineStr">
@@ -3238,17 +3255,17 @@
     <x:row r="101">
       <x:c r="A101" t="inlineStr">
         <x:is>
-          <x:t>22/5188</x:t>
+          <x:t>22/5183</x:t>
         </x:is>
       </x:c>
       <x:c r="B101" t="inlineStr">
         <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>HOTA0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C101" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>GESTIÓN DE PISOS Y LIMPIEZA EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F101" t="inlineStr">
@@ -3265,17 +3282,17 @@
     <x:row r="102">
       <x:c r="A102" t="inlineStr">
         <x:is>
-          <x:t>22/5189</x:t>
+          <x:t>22/5185</x:t>
         </x:is>
       </x:c>
       <x:c r="B102" t="inlineStr">
         <x:is>
-          <x:t>AGAO0308M</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C102" t="inlineStr">
         <x:is>
-          <x:t>JARDINERÍA Y RESTAURACIÓN DEL PAISAJE</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F102" t="inlineStr">
@@ -3292,17 +3309,17 @@
     <x:row r="103">
       <x:c r="A103" t="inlineStr">
         <x:is>
-          <x:t>22/5193</x:t>
+          <x:t>22/5188</x:t>
         </x:is>
       </x:c>
       <x:c r="B103" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>AGAO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C103" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
         </x:is>
       </x:c>
       <x:c r="F103" t="inlineStr">
@@ -3319,17 +3336,17 @@
     <x:row r="104">
       <x:c r="A104" t="inlineStr">
         <x:is>
-          <x:t>22/5196</x:t>
+          <x:t>22/5189</x:t>
         </x:is>
       </x:c>
       <x:c r="B104" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>AGAO0308M</x:t>
         </x:is>
       </x:c>
       <x:c r="C104" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>JARDINERÍA Y RESTAURACIÓN DEL PAISAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F104" t="inlineStr">
@@ -3346,17 +3363,17 @@
     <x:row r="105">
       <x:c r="A105" t="inlineStr">
         <x:is>
-          <x:t>22/5199</x:t>
+          <x:t>22/5193</x:t>
         </x:is>
       </x:c>
       <x:c r="B105" t="inlineStr">
         <x:is>
-          <x:t>HOTR0408</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C105" t="inlineStr">
         <x:is>
-          <x:t>COCINA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F105" t="inlineStr">
@@ -3373,17 +3390,17 @@
     <x:row r="106">
       <x:c r="A106" t="inlineStr">
         <x:is>
-          <x:t>22/5200</x:t>
+          <x:t>22/5196</x:t>
         </x:is>
       </x:c>
       <x:c r="B106" t="inlineStr">
         <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C106" t="inlineStr">
         <x:is>
-          <x:t>REPOSTERÍA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F106" t="inlineStr">
@@ -3400,17 +3417,17 @@
     <x:row r="107">
       <x:c r="A107" t="inlineStr">
         <x:is>
-          <x:t>22/5219</x:t>
+          <x:t>22/5199</x:t>
         </x:is>
       </x:c>
       <x:c r="B107" t="inlineStr">
         <x:is>
-          <x:t>AFDA0411</x:t>
+          <x:t>HOTR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C107" t="inlineStr">
         <x:is>
-          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA PARA PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F107" t="inlineStr">
@@ -3420,24 +3437,24 @@
       </x:c>
       <x:c r="G107" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="108">
       <x:c r="A108" t="inlineStr">
         <x:is>
-          <x:t>22/5304</x:t>
+          <x:t>22/5200</x:t>
         </x:is>
       </x:c>
       <x:c r="B108" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C108" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>REPOSTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F108" t="inlineStr">
@@ -3447,19 +3464,24 @@
       </x:c>
       <x:c r="G108" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="109">
       <x:c r="A109" t="inlineStr">
         <x:is>
-          <x:t>4294-27</x:t>
+          <x:t>22/5219</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B109" t="inlineStr">
+        <x:is>
+          <x:t>AFDA0411</x:t>
         </x:is>
       </x:c>
       <x:c r="C109" t="inlineStr">
         <x:is>
-          <x:t>MF0710-PRODUCTOS DE REPOSTERÍA</x:t>
+          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA PARA PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F109" t="inlineStr">
@@ -3469,24 +3491,24 @@
       </x:c>
       <x:c r="G109" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="110">
       <x:c r="A110" t="inlineStr">
         <x:is>
-          <x:t>4294-28</x:t>
+          <x:t>22/5304</x:t>
         </x:is>
       </x:c>
       <x:c r="B110" t="inlineStr">
         <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C110" t="inlineStr">
         <x:is>
-          <x:t>MF0711-SEGURIDAD E HIGIENE Y PROTECCIÓN AMBIENTAL EN HOSTELERÍA</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="F110" t="inlineStr">
@@ -3496,24 +3518,19 @@
       </x:c>
       <x:c r="G110" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="111">
       <x:c r="A111" t="inlineStr">
         <x:is>
-          <x:t>4294-29</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B111" t="inlineStr">
-        <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>4294-27</x:t>
         </x:is>
       </x:c>
       <x:c r="C111" t="inlineStr">
         <x:is>
-          <x:t>MF8229-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF0710-PRODUCTOS DE REPOSTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F111" t="inlineStr">
@@ -3530,17 +3547,17 @@
     <x:row r="112">
       <x:c r="A112" t="inlineStr">
         <x:is>
-          <x:t>4294-30</x:t>
+          <x:t>4294-28</x:t>
         </x:is>
       </x:c>
       <x:c r="B112" t="inlineStr">
         <x:is>
-          <x:t>HOTR0408</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C112" t="inlineStr">
         <x:is>
-          <x:t>MF0259-OFERTAS GASTRONÓMICAS SENCILLAS Y SISTEMAS DE APROVISIONAMIENTO</x:t>
+          <x:t>MF0711-SEGURIDAD E HIGIENE Y PROTECCIÓN AMBIENTAL EN HOSTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F112" t="inlineStr">
@@ -3557,17 +3574,17 @@
     <x:row r="113">
       <x:c r="A113" t="inlineStr">
         <x:is>
-          <x:t>4507-24</x:t>
+          <x:t>4294-29</x:t>
         </x:is>
       </x:c>
       <x:c r="B113" t="inlineStr">
         <x:is>
-          <x:t>ADGG0108</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C113" t="inlineStr">
         <x:is>
-          <x:t>MF8076-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF8229-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F113" t="inlineStr">
@@ -3577,24 +3594,24 @@
       </x:c>
       <x:c r="G113" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="114">
       <x:c r="A114" t="inlineStr">
         <x:is>
-          <x:t>4507-40</x:t>
+          <x:t>4294-30</x:t>
         </x:is>
       </x:c>
       <x:c r="B114" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>HOTR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C114" t="inlineStr">
         <x:is>
-          <x:t>MF8462-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF0259-OFERTAS GASTRONÓMICAS SENCILLAS Y SISTEMAS DE APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F114" t="inlineStr">
@@ -3604,24 +3621,24 @@
       </x:c>
       <x:c r="G114" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="115">
       <x:c r="A115" t="inlineStr">
         <x:is>
-          <x:t>5343-49</x:t>
+          <x:t>4507-24</x:t>
         </x:is>
       </x:c>
       <x:c r="B115" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>ADGG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C115" t="inlineStr">
         <x:is>
-          <x:t>MF1444 IMPARTICIÓN Y TUTORIZACIÓN DE ACCIONES FORMATI  VAS PARA EL EMPLEO</x:t>
+          <x:t>MF8076-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F115" t="inlineStr">
@@ -3631,24 +3648,24 @@
       </x:c>
       <x:c r="G115" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="116">
       <x:c r="A116" t="inlineStr">
         <x:is>
-          <x:t>22/1720</x:t>
+          <x:t>4507-40</x:t>
         </x:is>
       </x:c>
       <x:c r="B116" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C116" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MF8462-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F116" t="inlineStr">
@@ -3658,29 +3675,24 @@
       </x:c>
       <x:c r="G116" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H116" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="117">
       <x:c r="A117" t="inlineStr">
         <x:is>
-          <x:t>22/1723</x:t>
+          <x:t>5343-49</x:t>
         </x:is>
       </x:c>
       <x:c r="B117" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C117" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MF1444 IMPARTICIÓN Y TUTORIZACIÓN DE ACCIONES FORMATI  VAS PARA EL EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="F117" t="inlineStr">
@@ -3690,29 +3702,24 @@
       </x:c>
       <x:c r="G117" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H117" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="118">
       <x:c r="A118" t="inlineStr">
         <x:is>
-          <x:t>22/1716</x:t>
+          <x:t>22/1720</x:t>
         </x:is>
       </x:c>
       <x:c r="B118" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C118" t="inlineStr">
         <x:is>
-          <x:t>INSERCION LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F118" t="inlineStr">
@@ -3722,7 +3729,7 @@
       </x:c>
       <x:c r="G118" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Hada (Edificio de Empresas)</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H118" t="inlineStr">
@@ -3734,7 +3741,7 @@
     <x:row r="119">
       <x:c r="A119" t="inlineStr">
         <x:is>
-          <x:t>22/1721</x:t>
+          <x:t>22/1723</x:t>
         </x:is>
       </x:c>
       <x:c r="B119" t="inlineStr">
@@ -3766,17 +3773,17 @@
     <x:row r="120">
       <x:c r="A120" t="inlineStr">
         <x:is>
-          <x:t>22/1722</x:t>
+          <x:t>22/1716</x:t>
         </x:is>
       </x:c>
       <x:c r="B120" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C120" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>INSERCION LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F120" t="inlineStr">
@@ -3786,7 +3793,7 @@
       </x:c>
       <x:c r="G120" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+          <x:t>Centro Formación IME_Hada (Edificio de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H120" t="inlineStr">
@@ -3798,7 +3805,7 @@
     <x:row r="121">
       <x:c r="A121" t="inlineStr">
         <x:is>
-          <x:t>22/1724</x:t>
+          <x:t>22/1721</x:t>
         </x:is>
       </x:c>
       <x:c r="B121" t="inlineStr">
@@ -3830,17 +3837,17 @@
     <x:row r="122">
       <x:c r="A122" t="inlineStr">
         <x:is>
-          <x:t>22/1794</x:t>
+          <x:t>22/1722</x:t>
         </x:is>
       </x:c>
       <x:c r="B122" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C122" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F122" t="inlineStr">
@@ -3850,24 +3857,29 @@
       </x:c>
       <x:c r="G122" t="inlineStr">
         <x:is>
-          <x:t>Alquiler y Venta Rápida S.L.</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H122" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="123">
       <x:c r="A123" t="inlineStr">
         <x:is>
-          <x:t>23/8000</x:t>
+          <x:t>22/1724</x:t>
         </x:is>
       </x:c>
       <x:c r="B123" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C123" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F123" t="inlineStr">
@@ -3877,24 +3889,29 @@
       </x:c>
       <x:c r="G123" t="inlineStr">
         <x:is>
-          <x:t>IGNACIO RUIZ OSTA</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H123" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="124">
       <x:c r="A124" t="inlineStr">
         <x:is>
-          <x:t>23/8001</x:t>
+          <x:t>22/1794</x:t>
         </x:is>
       </x:c>
       <x:c r="B124" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C124" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F124" t="inlineStr">
@@ -3904,24 +3921,24 @@
       </x:c>
       <x:c r="G124" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>Alquiler y Venta Rápida S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="125">
       <x:c r="A125" t="inlineStr">
         <x:is>
-          <x:t>23/8002</x:t>
+          <x:t>23/8000</x:t>
         </x:is>
       </x:c>
       <x:c r="B125" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C125" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F125" t="inlineStr">
@@ -3931,24 +3948,24 @@
       </x:c>
       <x:c r="G125" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>IGNACIO RUIZ OSTA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="126">
       <x:c r="A126" t="inlineStr">
         <x:is>
-          <x:t>23/8003</x:t>
+          <x:t>23/8001</x:t>
         </x:is>
       </x:c>
       <x:c r="B126" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C126" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F126" t="inlineStr">
@@ -3965,17 +3982,17 @@
     <x:row r="127">
       <x:c r="A127" t="inlineStr">
         <x:is>
-          <x:t>23/8004</x:t>
+          <x:t>23/8002</x:t>
         </x:is>
       </x:c>
       <x:c r="B127" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C127" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F127" t="inlineStr">
@@ -3992,17 +4009,17 @@
     <x:row r="128">
       <x:c r="A128" t="inlineStr">
         <x:is>
-          <x:t>23/8007</x:t>
+          <x:t>23/8003</x:t>
         </x:is>
       </x:c>
       <x:c r="B128" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C128" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F128" t="inlineStr">
@@ -4019,17 +4036,17 @@
     <x:row r="129">
       <x:c r="A129" t="inlineStr">
         <x:is>
-          <x:t>23/8008</x:t>
+          <x:t>23/8004</x:t>
         </x:is>
       </x:c>
       <x:c r="B129" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C129" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="F129" t="inlineStr">
@@ -4046,17 +4063,17 @@
     <x:row r="130">
       <x:c r="A130" t="inlineStr">
         <x:is>
-          <x:t>23/8010</x:t>
+          <x:t>23/8007</x:t>
         </x:is>
       </x:c>
       <x:c r="B130" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C130" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F130" t="inlineStr">
@@ -4066,24 +4083,24 @@
       </x:c>
       <x:c r="G130" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="131">
       <x:c r="A131" t="inlineStr">
         <x:is>
-          <x:t>23/8011</x:t>
+          <x:t>23/8008</x:t>
         </x:is>
       </x:c>
       <x:c r="B131" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C131" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F131" t="inlineStr">
@@ -4093,24 +4110,24 @@
       </x:c>
       <x:c r="G131" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="132">
       <x:c r="A132" t="inlineStr">
         <x:is>
-          <x:t>23/8012</x:t>
+          <x:t>23/8010</x:t>
         </x:is>
       </x:c>
       <x:c r="B132" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C132" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F132" t="inlineStr">
@@ -4127,17 +4144,17 @@
     <x:row r="133">
       <x:c r="A133" t="inlineStr">
         <x:is>
-          <x:t>23/8013</x:t>
+          <x:t>23/8011</x:t>
         </x:is>
       </x:c>
       <x:c r="B133" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C133" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F133" t="inlineStr">
@@ -4154,17 +4171,17 @@
     <x:row r="134">
       <x:c r="A134" t="inlineStr">
         <x:is>
-          <x:t>23/8014</x:t>
+          <x:t>23/8012</x:t>
         </x:is>
       </x:c>
       <x:c r="B134" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C134" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F134" t="inlineStr">
@@ -4181,17 +4198,17 @@
     <x:row r="135">
       <x:c r="A135" t="inlineStr">
         <x:is>
-          <x:t>23/8015</x:t>
+          <x:t>23/8013</x:t>
         </x:is>
       </x:c>
       <x:c r="B135" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C135" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F135" t="inlineStr">
@@ -4208,17 +4225,17 @@
     <x:row r="136">
       <x:c r="A136" t="inlineStr">
         <x:is>
-          <x:t>23/8016</x:t>
+          <x:t>23/8014</x:t>
         </x:is>
       </x:c>
       <x:c r="B136" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C136" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F136" t="inlineStr">
@@ -4235,17 +4252,17 @@
     <x:row r="137">
       <x:c r="A137" t="inlineStr">
         <x:is>
-          <x:t>23/8017</x:t>
+          <x:t>23/8015</x:t>
         </x:is>
       </x:c>
       <x:c r="B137" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C137" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F137" t="inlineStr">
@@ -4262,17 +4279,17 @@
     <x:row r="138">
       <x:c r="A138" t="inlineStr">
         <x:is>
-          <x:t>23/8018</x:t>
+          <x:t>23/8016</x:t>
         </x:is>
       </x:c>
       <x:c r="B138" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C138" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F138" t="inlineStr">
@@ -4282,29 +4299,24 @@
       </x:c>
       <x:c r="G138" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H138" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="139">
       <x:c r="A139" t="inlineStr">
         <x:is>
-          <x:t>23/8019</x:t>
+          <x:t>23/8017</x:t>
         </x:is>
       </x:c>
       <x:c r="B139" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C139" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F139" t="inlineStr">
@@ -4314,29 +4326,24 @@
       </x:c>
       <x:c r="G139" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H139" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="140">
       <x:c r="A140" t="inlineStr">
         <x:is>
-          <x:t>23/8020</x:t>
+          <x:t>23/8018</x:t>
         </x:is>
       </x:c>
       <x:c r="B140" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C140" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F140" t="inlineStr">
@@ -4358,17 +4365,17 @@
     <x:row r="141">
       <x:c r="A141" t="inlineStr">
         <x:is>
-          <x:t>23/8021</x:t>
+          <x:t>23/8019</x:t>
         </x:is>
       </x:c>
       <x:c r="B141" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C141" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F141" t="inlineStr">
@@ -4390,17 +4397,17 @@
     <x:row r="142">
       <x:c r="A142" t="inlineStr">
         <x:is>
-          <x:t>23/8023</x:t>
+          <x:t>23/8020</x:t>
         </x:is>
       </x:c>
       <x:c r="B142" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C142" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F142" t="inlineStr">
@@ -4422,17 +4429,17 @@
     <x:row r="143">
       <x:c r="A143" t="inlineStr">
         <x:is>
-          <x:t>23/8024</x:t>
+          <x:t>23/8021</x:t>
         </x:is>
       </x:c>
       <x:c r="B143" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C143" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F143" t="inlineStr">
@@ -4454,17 +4461,17 @@
     <x:row r="144">
       <x:c r="A144" t="inlineStr">
         <x:is>
-          <x:t>23/8025</x:t>
+          <x:t>23/8023</x:t>
         </x:is>
       </x:c>
       <x:c r="B144" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C144" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F144" t="inlineStr">
@@ -4486,7 +4493,7 @@
     <x:row r="145">
       <x:c r="A145" t="inlineStr">
         <x:is>
-          <x:t>23/8026</x:t>
+          <x:t>23/8024</x:t>
         </x:is>
       </x:c>
       <x:c r="B145" t="inlineStr">
@@ -4518,17 +4525,17 @@
     <x:row r="146">
       <x:c r="A146" t="inlineStr">
         <x:is>
-          <x:t>23/8027</x:t>
+          <x:t>23/8025</x:t>
         </x:is>
       </x:c>
       <x:c r="B146" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C146" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F146" t="inlineStr">
@@ -4538,24 +4545,29 @@
       </x:c>
       <x:c r="G146" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
+          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H146" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="147">
       <x:c r="A147" t="inlineStr">
         <x:is>
-          <x:t>23/8028</x:t>
+          <x:t>23/8026</x:t>
         </x:is>
       </x:c>
       <x:c r="B147" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C147" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F147" t="inlineStr">
@@ -4565,24 +4577,29 @@
       </x:c>
       <x:c r="G147" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
+          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H147" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="148">
       <x:c r="A148" t="inlineStr">
         <x:is>
-          <x:t>23/8029</x:t>
+          <x:t>23/8027</x:t>
         </x:is>
       </x:c>
       <x:c r="B148" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C148" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F148" t="inlineStr">
@@ -4599,17 +4616,17 @@
     <x:row r="149">
       <x:c r="A149" t="inlineStr">
         <x:is>
-          <x:t>23/8030</x:t>
+          <x:t>23/8028</x:t>
         </x:is>
       </x:c>
       <x:c r="B149" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C149" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F149" t="inlineStr">
@@ -4626,17 +4643,17 @@
     <x:row r="150">
       <x:c r="A150" t="inlineStr">
         <x:is>
-          <x:t>23/8031</x:t>
+          <x:t>23/8029</x:t>
         </x:is>
       </x:c>
       <x:c r="B150" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C150" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F150" t="inlineStr">
@@ -4653,17 +4670,17 @@
     <x:row r="151">
       <x:c r="A151" t="inlineStr">
         <x:is>
-          <x:t>23/8032</x:t>
+          <x:t>23/8030</x:t>
         </x:is>
       </x:c>
       <x:c r="B151" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C151" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F151" t="inlineStr">
@@ -4680,7 +4697,7 @@
     <x:row r="152">
       <x:c r="A152" t="inlineStr">
         <x:is>
-          <x:t>23/8033</x:t>
+          <x:t>23/8031</x:t>
         </x:is>
       </x:c>
       <x:c r="B152" t="inlineStr">
@@ -4707,17 +4724,17 @@
     <x:row r="153">
       <x:c r="A153" t="inlineStr">
         <x:is>
-          <x:t>23/8034</x:t>
+          <x:t>23/8032</x:t>
         </x:is>
       </x:c>
       <x:c r="B153" t="inlineStr">
         <x:is>
-          <x:t>ELEE0108</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C153" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F153" t="inlineStr">
@@ -4727,24 +4744,24 @@
       </x:c>
       <x:c r="G153" t="inlineStr">
         <x:is>
-          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
+          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="154">
       <x:c r="A154" t="inlineStr">
         <x:is>
-          <x:t>23/8035</x:t>
+          <x:t>23/8033</x:t>
         </x:is>
       </x:c>
       <x:c r="B154" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C154" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F154" t="inlineStr">
@@ -4754,14 +4771,14 @@
       </x:c>
       <x:c r="G154" t="inlineStr">
         <x:is>
-          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
+          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="155">
       <x:c r="A155" t="inlineStr">
         <x:is>
-          <x:t>23/8036</x:t>
+          <x:t>23/8034</x:t>
         </x:is>
       </x:c>
       <x:c r="B155" t="inlineStr">
@@ -4788,7 +4805,7 @@
     <x:row r="156">
       <x:c r="A156" t="inlineStr">
         <x:is>
-          <x:t>23/8037</x:t>
+          <x:t>23/8035</x:t>
         </x:is>
       </x:c>
       <x:c r="B156" t="inlineStr">
@@ -4815,17 +4832,17 @@
     <x:row r="157">
       <x:c r="A157" t="inlineStr">
         <x:is>
-          <x:t>23/8038</x:t>
+          <x:t>23/8036</x:t>
         </x:is>
       </x:c>
       <x:c r="B157" t="inlineStr">
         <x:is>
-          <x:t>QUIA0108</x:t>
+          <x:t>ELEE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C157" t="inlineStr">
         <x:is>
-          <x:t>ENSAYOS FÍSICOS Y FISICOQUÍMICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F157" t="inlineStr">
@@ -4835,24 +4852,24 @@
       </x:c>
       <x:c r="G157" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION AGRARIA S.A.</x:t>
+          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="158">
       <x:c r="A158" t="inlineStr">
         <x:is>
-          <x:t>23/8039</x:t>
+          <x:t>23/8037</x:t>
         </x:is>
       </x:c>
       <x:c r="B158" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C158" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F158" t="inlineStr">
@@ -4862,24 +4879,24 @@
       </x:c>
       <x:c r="G158" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="159">
       <x:c r="A159" t="inlineStr">
         <x:is>
-          <x:t>23/8040</x:t>
+          <x:t>23/8038</x:t>
         </x:is>
       </x:c>
       <x:c r="B159" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>QUIA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C159" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ENSAYOS FÍSICOS Y FISICOQUÍMICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F159" t="inlineStr">
@@ -4889,24 +4906,24 @@
       </x:c>
       <x:c r="G159" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION AGRARIA S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="160">
       <x:c r="A160" t="inlineStr">
         <x:is>
-          <x:t>23/8041</x:t>
+          <x:t>23/8039</x:t>
         </x:is>
       </x:c>
       <x:c r="B160" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C160" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F160" t="inlineStr">
@@ -4923,17 +4940,17 @@
     <x:row r="161">
       <x:c r="A161" t="inlineStr">
         <x:is>
-          <x:t>23/8044</x:t>
+          <x:t>23/8040</x:t>
         </x:is>
       </x:c>
       <x:c r="B161" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C161" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F161" t="inlineStr">
@@ -4950,17 +4967,17 @@
     <x:row r="162">
       <x:c r="A162" t="inlineStr">
         <x:is>
-          <x:t>23/8045</x:t>
+          <x:t>23/8041</x:t>
         </x:is>
       </x:c>
       <x:c r="B162" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C162" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F162" t="inlineStr">
@@ -4977,7 +4994,7 @@
     <x:row r="163">
       <x:c r="A163" t="inlineStr">
         <x:is>
-          <x:t>23/8046</x:t>
+          <x:t>23/8044</x:t>
         </x:is>
       </x:c>
       <x:c r="B163" t="inlineStr">
@@ -5004,17 +5021,17 @@
     <x:row r="164">
       <x:c r="A164" t="inlineStr">
         <x:is>
-          <x:t>23/8047</x:t>
+          <x:t>23/8045</x:t>
         </x:is>
       </x:c>
       <x:c r="B164" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C164" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F164" t="inlineStr">
@@ -5024,24 +5041,24 @@
       </x:c>
       <x:c r="G164" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="165">
       <x:c r="A165" t="inlineStr">
         <x:is>
-          <x:t>23/8048</x:t>
+          <x:t>23/8046</x:t>
         </x:is>
       </x:c>
       <x:c r="B165" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C165" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F165" t="inlineStr">
@@ -5051,24 +5068,24 @@
       </x:c>
       <x:c r="G165" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="166">
       <x:c r="A166" t="inlineStr">
         <x:is>
-          <x:t>23/8049</x:t>
+          <x:t>23/8047</x:t>
         </x:is>
       </x:c>
       <x:c r="B166" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C166" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F166" t="inlineStr">
@@ -5085,17 +5102,17 @@
     <x:row r="167">
       <x:c r="A167" t="inlineStr">
         <x:is>
-          <x:t>23/8051</x:t>
+          <x:t>23/8048</x:t>
         </x:is>
       </x:c>
       <x:c r="B167" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C167" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F167" t="inlineStr">
@@ -5112,17 +5129,17 @@
     <x:row r="168">
       <x:c r="A168" t="inlineStr">
         <x:is>
-          <x:t>23/8052</x:t>
+          <x:t>23/8049</x:t>
         </x:is>
       </x:c>
       <x:c r="B168" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C168" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F168" t="inlineStr">
@@ -5139,17 +5156,17 @@
     <x:row r="169">
       <x:c r="A169" t="inlineStr">
         <x:is>
-          <x:t>23/8053</x:t>
+          <x:t>23/8051</x:t>
         </x:is>
       </x:c>
       <x:c r="B169" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C169" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F169" t="inlineStr">
@@ -5166,17 +5183,17 @@
     <x:row r="170">
       <x:c r="A170" t="inlineStr">
         <x:is>
-          <x:t>23/8054</x:t>
+          <x:t>23/8052</x:t>
         </x:is>
       </x:c>
       <x:c r="B170" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C170" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F170" t="inlineStr">
@@ -5193,17 +5210,17 @@
     <x:row r="171">
       <x:c r="A171" t="inlineStr">
         <x:is>
-          <x:t>23/8058</x:t>
+          <x:t>23/8053</x:t>
         </x:is>
       </x:c>
       <x:c r="B171" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C171" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F171" t="inlineStr">
@@ -5213,24 +5230,24 @@
       </x:c>
       <x:c r="G171" t="inlineStr">
         <x:is>
-          <x:t>MERINERO S.A.</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="172">
       <x:c r="A172" t="inlineStr">
         <x:is>
-          <x:t>23/8059</x:t>
+          <x:t>23/8054</x:t>
         </x:is>
       </x:c>
       <x:c r="B172" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C172" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F172" t="inlineStr">
@@ -5240,24 +5257,24 @@
       </x:c>
       <x:c r="G172" t="inlineStr">
         <x:is>
-          <x:t>GRUPO FIDSOFT S.A</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="173">
       <x:c r="A173" t="inlineStr">
         <x:is>
-          <x:t>23/8061</x:t>
+          <x:t>23/8058</x:t>
         </x:is>
       </x:c>
       <x:c r="B173" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C173" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F173" t="inlineStr">
@@ -5267,24 +5284,24 @@
       </x:c>
       <x:c r="G173" t="inlineStr">
         <x:is>
-          <x:t>GRUPO FIDSOFT S.A</x:t>
+          <x:t>MERINERO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="174">
       <x:c r="A174" t="inlineStr">
         <x:is>
-          <x:t>23/8062</x:t>
+          <x:t>23/8059</x:t>
         </x:is>
       </x:c>
       <x:c r="B174" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C174" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F174" t="inlineStr">
@@ -5301,17 +5318,17 @@
     <x:row r="175">
       <x:c r="A175" t="inlineStr">
         <x:is>
-          <x:t>23/8063</x:t>
+          <x:t>23/8061</x:t>
         </x:is>
       </x:c>
       <x:c r="B175" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C175" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F175" t="inlineStr">
@@ -5328,17 +5345,17 @@
     <x:row r="176">
       <x:c r="A176" t="inlineStr">
         <x:is>
-          <x:t>23/8064</x:t>
+          <x:t>23/8062</x:t>
         </x:is>
       </x:c>
       <x:c r="B176" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C176" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F176" t="inlineStr">
@@ -5355,17 +5372,17 @@
     <x:row r="177">
       <x:c r="A177" t="inlineStr">
         <x:is>
-          <x:t>23/8065</x:t>
+          <x:t>23/8063</x:t>
         </x:is>
       </x:c>
       <x:c r="B177" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C177" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F177" t="inlineStr">
@@ -5382,17 +5399,17 @@
     <x:row r="178">
       <x:c r="A178" t="inlineStr">
         <x:is>
-          <x:t>23/8066</x:t>
+          <x:t>23/8064</x:t>
         </x:is>
       </x:c>
       <x:c r="B178" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C178" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F178" t="inlineStr">
@@ -5402,24 +5419,24 @@
       </x:c>
       <x:c r="G178" t="inlineStr">
         <x:is>
-          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
+          <x:t>GRUPO FIDSOFT S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="179">
       <x:c r="A179" t="inlineStr">
         <x:is>
-          <x:t>23/8067</x:t>
+          <x:t>23/8065</x:t>
         </x:is>
       </x:c>
       <x:c r="B179" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C179" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F179" t="inlineStr">
@@ -5429,14 +5446,14 @@
       </x:c>
       <x:c r="G179" t="inlineStr">
         <x:is>
-          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
+          <x:t>GRUPO FIDSOFT S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="180">
       <x:c r="A180" t="inlineStr">
         <x:is>
-          <x:t>23/8068</x:t>
+          <x:t>23/8066</x:t>
         </x:is>
       </x:c>
       <x:c r="B180" t="inlineStr">
@@ -5463,17 +5480,17 @@
     <x:row r="181">
       <x:c r="A181" t="inlineStr">
         <x:is>
-          <x:t>23/8069</x:t>
+          <x:t>23/8067</x:t>
         </x:is>
       </x:c>
       <x:c r="B181" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C181" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F181" t="inlineStr">
@@ -5490,17 +5507,17 @@
     <x:row r="182">
       <x:c r="A182" t="inlineStr">
         <x:is>
-          <x:t>23/8070</x:t>
+          <x:t>23/8068</x:t>
         </x:is>
       </x:c>
       <x:c r="B182" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C182" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F182" t="inlineStr">
@@ -5517,17 +5534,17 @@
     <x:row r="183">
       <x:c r="A183" t="inlineStr">
         <x:is>
-          <x:t>23/8071</x:t>
+          <x:t>23/8069</x:t>
         </x:is>
       </x:c>
       <x:c r="B183" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C183" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F183" t="inlineStr">
@@ -5544,17 +5561,17 @@
     <x:row r="184">
       <x:c r="A184" t="inlineStr">
         <x:is>
-          <x:t>23/8072</x:t>
+          <x:t>23/8070</x:t>
         </x:is>
       </x:c>
       <x:c r="B184" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C184" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F184" t="inlineStr">
@@ -5571,17 +5588,17 @@
     <x:row r="185">
       <x:c r="A185" t="inlineStr">
         <x:is>
-          <x:t>23/8073</x:t>
+          <x:t>23/8071</x:t>
         </x:is>
       </x:c>
       <x:c r="B185" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C185" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F185" t="inlineStr">
@@ -5598,17 +5615,17 @@
     <x:row r="186">
       <x:c r="A186" t="inlineStr">
         <x:is>
-          <x:t>23/8076</x:t>
+          <x:t>23/8072</x:t>
         </x:is>
       </x:c>
       <x:c r="B186" t="inlineStr">
         <x:is>
-          <x:t>AFDA0511</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C186" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F186" t="inlineStr">
@@ -5618,24 +5635,24 @@
       </x:c>
       <x:c r="G186" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
+          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="187">
       <x:c r="A187" t="inlineStr">
         <x:is>
-          <x:t>23/8077</x:t>
+          <x:t>23/8073</x:t>
         </x:is>
       </x:c>
       <x:c r="B187" t="inlineStr">
         <x:is>
-          <x:t>AFDP0209</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C187" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F187" t="inlineStr">
@@ -5645,24 +5662,24 @@
       </x:c>
       <x:c r="G187" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
+          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="188">
       <x:c r="A188" t="inlineStr">
         <x:is>
-          <x:t>23/8078</x:t>
+          <x:t>23/8076</x:t>
         </x:is>
       </x:c>
       <x:c r="B188" t="inlineStr">
         <x:is>
-          <x:t>AFDP0209</x:t>
+          <x:t>AFDA0511</x:t>
         </x:is>
       </x:c>
       <x:c r="C188" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
+          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F188" t="inlineStr">
@@ -5679,17 +5696,17 @@
     <x:row r="189">
       <x:c r="A189" t="inlineStr">
         <x:is>
-          <x:t>23/8079</x:t>
+          <x:t>23/8077</x:t>
         </x:is>
       </x:c>
       <x:c r="B189" t="inlineStr">
         <x:is>
-          <x:t>IMSV0208</x:t>
+          <x:t>AFDP0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C189" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
+          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F189" t="inlineStr">
@@ -5706,17 +5723,17 @@
     <x:row r="190">
       <x:c r="A190" t="inlineStr">
         <x:is>
-          <x:t>23/8080</x:t>
+          <x:t>23/8078</x:t>
         </x:is>
       </x:c>
       <x:c r="B190" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>AFDP0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C190" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F190" t="inlineStr">
@@ -5733,17 +5750,17 @@
     <x:row r="191">
       <x:c r="A191" t="inlineStr">
         <x:is>
-          <x:t>23/8081</x:t>
+          <x:t>23/8079</x:t>
         </x:is>
       </x:c>
       <x:c r="B191" t="inlineStr">
         <x:is>
-          <x:t>AFDA0210</x:t>
+          <x:t>IMSV0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C191" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F191" t="inlineStr">
@@ -5760,17 +5777,17 @@
     <x:row r="192">
       <x:c r="A192" t="inlineStr">
         <x:is>
-          <x:t>23/8082</x:t>
+          <x:t>23/8080</x:t>
         </x:is>
       </x:c>
       <x:c r="B192" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C192" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F192" t="inlineStr">
@@ -5780,24 +5797,24 @@
       </x:c>
       <x:c r="G192" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPA SL</x:t>
+          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="193">
       <x:c r="A193" t="inlineStr">
         <x:is>
-          <x:t>23/8083</x:t>
+          <x:t>23/8081</x:t>
         </x:is>
       </x:c>
       <x:c r="B193" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>AFDA0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C193" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F193" t="inlineStr">
@@ -5807,24 +5824,24 @@
       </x:c>
       <x:c r="G193" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPA SL</x:t>
+          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="194">
       <x:c r="A194" t="inlineStr">
         <x:is>
-          <x:t>23/8084</x:t>
+          <x:t>23/8082</x:t>
         </x:is>
       </x:c>
       <x:c r="B194" t="inlineStr">
         <x:is>
-          <x:t>SEAD0212</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C194" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F194" t="inlineStr">
@@ -5841,7 +5858,7 @@
     <x:row r="195">
       <x:c r="A195" t="inlineStr">
         <x:is>
-          <x:t>23/8085</x:t>
+          <x:t>23/8083</x:t>
         </x:is>
       </x:c>
       <x:c r="B195" t="inlineStr">
@@ -5868,7 +5885,7 @@
     <x:row r="196">
       <x:c r="A196" t="inlineStr">
         <x:is>
-          <x:t>23/8086</x:t>
+          <x:t>23/8084</x:t>
         </x:is>
       </x:c>
       <x:c r="B196" t="inlineStr">
@@ -5895,7 +5912,7 @@
     <x:row r="197">
       <x:c r="A197" t="inlineStr">
         <x:is>
-          <x:t>23/8087</x:t>
+          <x:t>23/8085</x:t>
         </x:is>
       </x:c>
       <x:c r="B197" t="inlineStr">
@@ -5922,17 +5939,17 @@
     <x:row r="198">
       <x:c r="A198" t="inlineStr">
         <x:is>
-          <x:t>23/8090</x:t>
+          <x:t>23/8086</x:t>
         </x:is>
       </x:c>
       <x:c r="B198" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>SEAD0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C198" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F198" t="inlineStr">
@@ -5942,24 +5959,24 @@
       </x:c>
       <x:c r="G198" t="inlineStr">
         <x:is>
-          <x:t>ALBORAN FORMACION, S.L.</x:t>
+          <x:t>INSTITUTO EUROPA SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="199">
       <x:c r="A199" t="inlineStr">
         <x:is>
-          <x:t>23/8092</x:t>
+          <x:t>23/8087</x:t>
         </x:is>
       </x:c>
       <x:c r="B199" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C199" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F199" t="inlineStr">
@@ -5969,24 +5986,24 @@
       </x:c>
       <x:c r="G199" t="inlineStr">
         <x:is>
-          <x:t>ALBORAN FORMACION, S.L.</x:t>
+          <x:t>INSTITUTO EUROPA SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="200">
       <x:c r="A200" t="inlineStr">
         <x:is>
-          <x:t>23/8093</x:t>
+          <x:t>23/8090</x:t>
         </x:is>
       </x:c>
       <x:c r="B200" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C200" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F200" t="inlineStr">
@@ -6003,17 +6020,17 @@
     <x:row r="201">
       <x:c r="A201" t="inlineStr">
         <x:is>
-          <x:t>23/8094</x:t>
+          <x:t>23/8092</x:t>
         </x:is>
       </x:c>
       <x:c r="B201" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C201" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F201" t="inlineStr">
@@ -6030,17 +6047,17 @@
     <x:row r="202">
       <x:c r="A202" t="inlineStr">
         <x:is>
-          <x:t>23/8104</x:t>
+          <x:t>23/8093</x:t>
         </x:is>
       </x:c>
       <x:c r="B202" t="inlineStr">
         <x:is>
-          <x:t>AFDA0210</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C202" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F202" t="inlineStr">
@@ -6050,24 +6067,24 @@
       </x:c>
       <x:c r="G202" t="inlineStr">
         <x:is>
-          <x:t>DATA CONTROL FORMACION, SL</x:t>
+          <x:t>ALBORAN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="203">
       <x:c r="A203" t="inlineStr">
         <x:is>
-          <x:t>23/8105</x:t>
+          <x:t>23/8094</x:t>
         </x:is>
       </x:c>
       <x:c r="B203" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C203" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F203" t="inlineStr">
@@ -6077,24 +6094,24 @@
       </x:c>
       <x:c r="G203" t="inlineStr">
         <x:is>
-          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
+          <x:t>ALBORAN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="204">
       <x:c r="A204" t="inlineStr">
         <x:is>
-          <x:t>23/8106</x:t>
+          <x:t>23/8104</x:t>
         </x:is>
       </x:c>
       <x:c r="B204" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>AFDA0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C204" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F204" t="inlineStr">
@@ -6104,24 +6121,24 @@
       </x:c>
       <x:c r="G204" t="inlineStr">
         <x:is>
-          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
+          <x:t>DATA CONTROL FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="205">
       <x:c r="A205" t="inlineStr">
         <x:is>
-          <x:t>23/8107</x:t>
+          <x:t>23/8105</x:t>
         </x:is>
       </x:c>
       <x:c r="B205" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C205" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F205" t="inlineStr">
@@ -6138,17 +6155,17 @@
     <x:row r="206">
       <x:c r="A206" t="inlineStr">
         <x:is>
-          <x:t>23/8108</x:t>
+          <x:t>23/8106</x:t>
         </x:is>
       </x:c>
       <x:c r="B206" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C206" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F206" t="inlineStr">
@@ -6165,17 +6182,17 @@
     <x:row r="207">
       <x:c r="A207" t="inlineStr">
         <x:is>
-          <x:t>23/8109</x:t>
+          <x:t>23/8107</x:t>
         </x:is>
       </x:c>
       <x:c r="B207" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C207" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F207" t="inlineStr">
@@ -6192,17 +6209,17 @@
     <x:row r="208">
       <x:c r="A208" t="inlineStr">
         <x:is>
-          <x:t>23/8110</x:t>
+          <x:t>23/8108</x:t>
         </x:is>
       </x:c>
       <x:c r="B208" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C208" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F208" t="inlineStr">
@@ -6219,17 +6236,17 @@
     <x:row r="209">
       <x:c r="A209" t="inlineStr">
         <x:is>
-          <x:t>23/8111</x:t>
+          <x:t>23/8109</x:t>
         </x:is>
       </x:c>
       <x:c r="B209" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C209" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F209" t="inlineStr">
@@ -6246,17 +6263,17 @@
     <x:row r="210">
       <x:c r="A210" t="inlineStr">
         <x:is>
-          <x:t>23/8112</x:t>
+          <x:t>23/8110</x:t>
         </x:is>
       </x:c>
       <x:c r="B210" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C210" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F210" t="inlineStr">
@@ -6273,7 +6290,7 @@
     <x:row r="211">
       <x:c r="A211" t="inlineStr">
         <x:is>
-          <x:t>23/8113</x:t>
+          <x:t>23/8111</x:t>
         </x:is>
       </x:c>
       <x:c r="B211" t="inlineStr">
@@ -6293,24 +6310,24 @@
       </x:c>
       <x:c r="G211" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
+          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="212">
       <x:c r="A212" t="inlineStr">
         <x:is>
-          <x:t>23/8114</x:t>
+          <x:t>23/8112</x:t>
         </x:is>
       </x:c>
       <x:c r="B212" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C212" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F212" t="inlineStr">
@@ -6320,24 +6337,24 @@
       </x:c>
       <x:c r="G212" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
+          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="213">
       <x:c r="A213" t="inlineStr">
         <x:is>
-          <x:t>23/8115</x:t>
+          <x:t>23/8113</x:t>
         </x:is>
       </x:c>
       <x:c r="B213" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C213" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F213" t="inlineStr">
@@ -6354,17 +6371,17 @@
     <x:row r="214">
       <x:c r="A214" t="inlineStr">
         <x:is>
-          <x:t>23/8116</x:t>
+          <x:t>23/8114</x:t>
         </x:is>
       </x:c>
       <x:c r="B214" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C214" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F214" t="inlineStr">
@@ -6381,17 +6398,17 @@
     <x:row r="215">
       <x:c r="A215" t="inlineStr">
         <x:is>
-          <x:t>23/8117</x:t>
+          <x:t>23/8115</x:t>
         </x:is>
       </x:c>
       <x:c r="B215" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C215" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F215" t="inlineStr">
@@ -6408,17 +6425,17 @@
     <x:row r="216">
       <x:c r="A216" t="inlineStr">
         <x:is>
-          <x:t>23/8118</x:t>
+          <x:t>23/8116</x:t>
         </x:is>
       </x:c>
       <x:c r="B216" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C216" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F216" t="inlineStr">
@@ -6435,7 +6452,7 @@
     <x:row r="217">
       <x:c r="A217" t="inlineStr">
         <x:is>
-          <x:t>23/8119</x:t>
+          <x:t>23/8117</x:t>
         </x:is>
       </x:c>
       <x:c r="B217" t="inlineStr">
@@ -6462,17 +6479,17 @@
     <x:row r="218">
       <x:c r="A218" t="inlineStr">
         <x:is>
-          <x:t>23/8120</x:t>
+          <x:t>23/8118</x:t>
         </x:is>
       </x:c>
       <x:c r="B218" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C218" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F218" t="inlineStr">
@@ -6489,17 +6506,17 @@
     <x:row r="219">
       <x:c r="A219" t="inlineStr">
         <x:is>
-          <x:t>23/8124</x:t>
+          <x:t>23/8119</x:t>
         </x:is>
       </x:c>
       <x:c r="B219" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C219" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F219" t="inlineStr">
@@ -6509,24 +6526,24 @@
       </x:c>
       <x:c r="G219" t="inlineStr">
         <x:is>
-          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
+          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="220">
       <x:c r="A220" t="inlineStr">
         <x:is>
-          <x:t>23/8125</x:t>
+          <x:t>23/8120</x:t>
         </x:is>
       </x:c>
       <x:c r="B220" t="inlineStr">
         <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C220" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F220" t="inlineStr">
@@ -6536,24 +6553,24 @@
       </x:c>
       <x:c r="G220" t="inlineStr">
         <x:is>
-          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
+          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="221">
       <x:c r="A221" t="inlineStr">
         <x:is>
-          <x:t>23/8126</x:t>
+          <x:t>23/8124</x:t>
         </x:is>
       </x:c>
       <x:c r="B221" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C221" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F221" t="inlineStr">
@@ -6570,17 +6587,17 @@
     <x:row r="222">
       <x:c r="A222" t="inlineStr">
         <x:is>
-          <x:t>23/8127</x:t>
+          <x:t>23/8125</x:t>
         </x:is>
       </x:c>
       <x:c r="B222" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C222" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F222" t="inlineStr">
@@ -6597,17 +6614,17 @@
     <x:row r="223">
       <x:c r="A223" t="inlineStr">
         <x:is>
-          <x:t>23/8128</x:t>
+          <x:t>23/8126</x:t>
         </x:is>
       </x:c>
       <x:c r="B223" t="inlineStr">
         <x:is>
-          <x:t>IFCT0409</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C223" t="inlineStr">
         <x:is>
-          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS EN SISTEMAS DOMÓTICOS /INMÓTICOS, DE CONTROL DE ACCESOS Y PRESENCIA Y DE VIDEOVIGILANCIA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F223" t="inlineStr">
@@ -6624,17 +6641,17 @@
     <x:row r="224">
       <x:c r="A224" t="inlineStr">
         <x:is>
-          <x:t>23/8129</x:t>
+          <x:t>23/8127</x:t>
         </x:is>
       </x:c>
       <x:c r="B224" t="inlineStr">
         <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C224" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F224" t="inlineStr">
@@ -6651,17 +6668,17 @@
     <x:row r="225">
       <x:c r="A225" t="inlineStr">
         <x:is>
-          <x:t>23/8130</x:t>
+          <x:t>23/8128</x:t>
         </x:is>
       </x:c>
       <x:c r="B225" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>IFCT0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C225" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS EN SISTEMAS DOMÓTICOS /INMÓTICOS, DE CONTROL DE ACCESOS Y PRESENCIA Y DE VIDEOVIGILANCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F225" t="inlineStr">
@@ -6678,17 +6695,17 @@
     <x:row r="226">
       <x:c r="A226" t="inlineStr">
         <x:is>
-          <x:t>23/8131</x:t>
+          <x:t>23/8129</x:t>
         </x:is>
       </x:c>
       <x:c r="B226" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C226" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F226" t="inlineStr">
@@ -6705,17 +6722,17 @@
     <x:row r="227">
       <x:c r="A227" t="inlineStr">
         <x:is>
-          <x:t>23/8132</x:t>
+          <x:t>23/8130</x:t>
         </x:is>
       </x:c>
       <x:c r="B227" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C227" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F227" t="inlineStr">
@@ -6725,24 +6742,24 @@
       </x:c>
       <x:c r="G227" t="inlineStr">
         <x:is>
-          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
+          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="228">
       <x:c r="A228" t="inlineStr">
         <x:is>
-          <x:t>23/8133</x:t>
+          <x:t>23/8131</x:t>
         </x:is>
       </x:c>
       <x:c r="B228" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C228" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F228" t="inlineStr">
@@ -6752,24 +6769,24 @@
       </x:c>
       <x:c r="G228" t="inlineStr">
         <x:is>
-          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
+          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="229">
       <x:c r="A229" t="inlineStr">
         <x:is>
-          <x:t>23/8134</x:t>
+          <x:t>23/8132</x:t>
         </x:is>
       </x:c>
       <x:c r="B229" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C229" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F229" t="inlineStr">
@@ -6786,17 +6803,17 @@
     <x:row r="230">
       <x:c r="A230" t="inlineStr">
         <x:is>
-          <x:t>23/8135</x:t>
+          <x:t>23/8133</x:t>
         </x:is>
       </x:c>
       <x:c r="B230" t="inlineStr">
         <x:is>
-          <x:t>SSCB0110</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C230" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN, PROGRAMACIÓN Y DESARROLLO DE ACCIONES CULTURALES</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F230" t="inlineStr">
@@ -6813,17 +6830,17 @@
     <x:row r="231">
       <x:c r="A231" t="inlineStr">
         <x:is>
-          <x:t>23/8136</x:t>
+          <x:t>23/8134</x:t>
         </x:is>
       </x:c>
       <x:c r="B231" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C231" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F231" t="inlineStr">
@@ -6840,17 +6857,17 @@
     <x:row r="232">
       <x:c r="A232" t="inlineStr">
         <x:is>
-          <x:t>23/8137</x:t>
+          <x:t>23/8135</x:t>
         </x:is>
       </x:c>
       <x:c r="B232" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>SSCB0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C232" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>DINAMIZACIÓN, PROGRAMACIÓN Y DESARROLLO DE ACCIONES CULTURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F232" t="inlineStr">
@@ -6860,24 +6877,24 @@
       </x:c>
       <x:c r="G232" t="inlineStr">
         <x:is>
-          <x:t>GRADO INFORMATICA Y GESTION SL</x:t>
+          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="233">
       <x:c r="A233" t="inlineStr">
         <x:is>
-          <x:t>23/8138</x:t>
+          <x:t>23/8136</x:t>
         </x:is>
       </x:c>
       <x:c r="B233" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C233" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F233" t="inlineStr">
@@ -6887,24 +6904,24 @@
       </x:c>
       <x:c r="G233" t="inlineStr">
         <x:is>
-          <x:t>NASCOR FORMACION SLU</x:t>
+          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="234">
       <x:c r="A234" t="inlineStr">
         <x:is>
-          <x:t>23/8139</x:t>
+          <x:t>23/8137</x:t>
         </x:is>
       </x:c>
       <x:c r="B234" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C234" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F234" t="inlineStr">
@@ -6914,24 +6931,24 @@
       </x:c>
       <x:c r="G234" t="inlineStr">
         <x:is>
-          <x:t>NASCOR FORMACION SLU</x:t>
+          <x:t>GRADO INFORMATICA Y GESTION SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="235">
       <x:c r="A235" t="inlineStr">
         <x:is>
-          <x:t>23/8140</x:t>
+          <x:t>23/8138</x:t>
         </x:is>
       </x:c>
       <x:c r="B235" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C235" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F235" t="inlineStr">
@@ -6948,17 +6965,17 @@
     <x:row r="236">
       <x:c r="A236" t="inlineStr">
         <x:is>
-          <x:t>23/8141</x:t>
+          <x:t>23/8139</x:t>
         </x:is>
       </x:c>
       <x:c r="B236" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C236" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F236" t="inlineStr">
@@ -6975,17 +6992,17 @@
     <x:row r="237">
       <x:c r="A237" t="inlineStr">
         <x:is>
-          <x:t>23/8142</x:t>
+          <x:t>23/8140</x:t>
         </x:is>
       </x:c>
       <x:c r="B237" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C237" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F237" t="inlineStr">
@@ -7002,17 +7019,17 @@
     <x:row r="238">
       <x:c r="A238" t="inlineStr">
         <x:is>
-          <x:t>23/8143</x:t>
+          <x:t>23/8141</x:t>
         </x:is>
       </x:c>
       <x:c r="B238" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C238" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F238" t="inlineStr">
@@ -7029,17 +7046,17 @@
     <x:row r="239">
       <x:c r="A239" t="inlineStr">
         <x:is>
-          <x:t>23/8144</x:t>
+          <x:t>23/8142</x:t>
         </x:is>
       </x:c>
       <x:c r="B239" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C239" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F239" t="inlineStr">
@@ -7056,17 +7073,17 @@
     <x:row r="240">
       <x:c r="A240" t="inlineStr">
         <x:is>
-          <x:t>23/8145</x:t>
+          <x:t>23/8143</x:t>
         </x:is>
       </x:c>
       <x:c r="B240" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C240" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F240" t="inlineStr">
@@ -7083,17 +7100,17 @@
     <x:row r="241">
       <x:c r="A241" t="inlineStr">
         <x:is>
-          <x:t>23/8148</x:t>
+          <x:t>23/8144</x:t>
         </x:is>
       </x:c>
       <x:c r="B241" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C241" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F241" t="inlineStr">
@@ -7103,29 +7120,24 @@
       </x:c>
       <x:c r="G241" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION AMBIENTAL DE ASTURIAS, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H241" t="inlineStr">
-        <x:is>
-          <x:t>Getafe</x:t>
+          <x:t>NASCOR FORMACION SLU</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="242">
       <x:c r="A242" t="inlineStr">
         <x:is>
-          <x:t>23/8150</x:t>
+          <x:t>23/8145</x:t>
         </x:is>
       </x:c>
       <x:c r="B242" t="inlineStr">
         <x:is>
-          <x:t>TMVO0212</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C242" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A PASAJEROS, TRIPULACIONES, AERONAVES Y MERCANCÍAS EN AEROPUERTOS</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F242" t="inlineStr">
@@ -7135,29 +7147,24 @@
       </x:c>
       <x:c r="G242" t="inlineStr">
         <x:is>
-          <x:t>PROYECTAEMPLEO S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H242" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>NASCOR FORMACION SLU</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="243">
       <x:c r="A243" t="inlineStr">
         <x:is>
-          <x:t>23/8151</x:t>
+          <x:t>23/8148</x:t>
         </x:is>
       </x:c>
       <x:c r="B243" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C243" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F243" t="inlineStr">
@@ -7167,24 +7174,29 @@
       </x:c>
       <x:c r="G243" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>CENTRO DE FORMACION AMBIENTAL DE ASTURIAS, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H243" t="inlineStr">
+        <x:is>
+          <x:t>Getafe</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="244">
       <x:c r="A244" t="inlineStr">
         <x:is>
-          <x:t>23/8152</x:t>
+          <x:t>23/8150</x:t>
         </x:is>
       </x:c>
       <x:c r="B244" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>TMVO0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C244" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ASISTENCIA A PASAJEROS, TRIPULACIONES, AERONAVES Y MERCANCÍAS EN AEROPUERTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F244" t="inlineStr">
@@ -7194,24 +7206,29 @@
       </x:c>
       <x:c r="G244" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>PROYECTAEMPLEO S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H244" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="245">
       <x:c r="A245" t="inlineStr">
         <x:is>
-          <x:t>23/8153</x:t>
+          <x:t>23/8151</x:t>
         </x:is>
       </x:c>
       <x:c r="B245" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C245" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F245" t="inlineStr">
@@ -7228,17 +7245,17 @@
     <x:row r="246">
       <x:c r="A246" t="inlineStr">
         <x:is>
-          <x:t>23/8155</x:t>
+          <x:t>23/8152</x:t>
         </x:is>
       </x:c>
       <x:c r="B246" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C246" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F246" t="inlineStr">
@@ -7255,17 +7272,17 @@
     <x:row r="247">
       <x:c r="A247" t="inlineStr">
         <x:is>
-          <x:t>23/8156</x:t>
+          <x:t>23/8153</x:t>
         </x:is>
       </x:c>
       <x:c r="B247" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C247" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F247" t="inlineStr">
@@ -7282,17 +7299,17 @@
     <x:row r="248">
       <x:c r="A248" t="inlineStr">
         <x:is>
-          <x:t>23/8159</x:t>
+          <x:t>23/8155</x:t>
         </x:is>
       </x:c>
       <x:c r="B248" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C248" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F248" t="inlineStr">
@@ -7302,24 +7319,24 @@
       </x:c>
       <x:c r="G248" t="inlineStr">
         <x:is>
-          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="249">
       <x:c r="A249" t="inlineStr">
         <x:is>
-          <x:t>23/8160</x:t>
+          <x:t>23/8156</x:t>
         </x:is>
       </x:c>
       <x:c r="B249" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C249" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F249" t="inlineStr">
@@ -7329,24 +7346,24 @@
       </x:c>
       <x:c r="G249" t="inlineStr">
         <x:is>
-          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="250">
       <x:c r="A250" t="inlineStr">
         <x:is>
-          <x:t>23/8161</x:t>
+          <x:t>23/8159</x:t>
         </x:is>
       </x:c>
       <x:c r="B250" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C250" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F250" t="inlineStr">
@@ -7363,17 +7380,17 @@
     <x:row r="251">
       <x:c r="A251" t="inlineStr">
         <x:is>
-          <x:t>23/8162</x:t>
+          <x:t>23/8160</x:t>
         </x:is>
       </x:c>
       <x:c r="B251" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C251" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F251" t="inlineStr">
@@ -7390,17 +7407,17 @@
     <x:row r="252">
       <x:c r="A252" t="inlineStr">
         <x:is>
-          <x:t>23/8163</x:t>
+          <x:t>23/8161</x:t>
         </x:is>
       </x:c>
       <x:c r="B252" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C252" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F252" t="inlineStr">
@@ -7417,17 +7434,17 @@
     <x:row r="253">
       <x:c r="A253" t="inlineStr">
         <x:is>
-          <x:t>23/8164</x:t>
+          <x:t>23/8162</x:t>
         </x:is>
       </x:c>
       <x:c r="B253" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C253" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F253" t="inlineStr">
@@ -7444,17 +7461,17 @@
     <x:row r="254">
       <x:c r="A254" t="inlineStr">
         <x:is>
-          <x:t>23/8165</x:t>
+          <x:t>23/8163</x:t>
         </x:is>
       </x:c>
       <x:c r="B254" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C254" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F254" t="inlineStr">
@@ -7471,17 +7488,17 @@
     <x:row r="255">
       <x:c r="A255" t="inlineStr">
         <x:is>
-          <x:t>23/8166</x:t>
+          <x:t>23/8164</x:t>
         </x:is>
       </x:c>
       <x:c r="B255" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C255" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F255" t="inlineStr">
@@ -7498,17 +7515,17 @@
     <x:row r="256">
       <x:c r="A256" t="inlineStr">
         <x:is>
-          <x:t>23/8167</x:t>
+          <x:t>23/8165</x:t>
         </x:is>
       </x:c>
       <x:c r="B256" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C256" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F256" t="inlineStr">
@@ -7518,24 +7535,24 @@
       </x:c>
       <x:c r="G256" t="inlineStr">
         <x:is>
-          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
+          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="257">
       <x:c r="A257" t="inlineStr">
         <x:is>
-          <x:t>23/8168</x:t>
+          <x:t>23/8166</x:t>
         </x:is>
       </x:c>
       <x:c r="B257" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C257" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F257" t="inlineStr">
@@ -7545,24 +7562,24 @@
       </x:c>
       <x:c r="G257" t="inlineStr">
         <x:is>
-          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
+          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="258">
       <x:c r="A258" t="inlineStr">
         <x:is>
-          <x:t>23/8169</x:t>
+          <x:t>23/8167</x:t>
         </x:is>
       </x:c>
       <x:c r="B258" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C258" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F258" t="inlineStr">
@@ -7579,17 +7596,17 @@
     <x:row r="259">
       <x:c r="A259" t="inlineStr">
         <x:is>
-          <x:t>23/8170</x:t>
+          <x:t>23/8168</x:t>
         </x:is>
       </x:c>
       <x:c r="B259" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C259" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F259" t="inlineStr">
@@ -7599,24 +7616,24 @@
       </x:c>
       <x:c r="G259" t="inlineStr">
         <x:is>
-          <x:t>EDITORIAL TÉCNICA CIENTIFICA PRENSA HISPANOAMERICANA S.L</x:t>
+          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="260">
       <x:c r="A260" t="inlineStr">
         <x:is>
-          <x:t>23/8171</x:t>
+          <x:t>23/8169</x:t>
         </x:is>
       </x:c>
       <x:c r="B260" t="inlineStr">
         <x:is>
-          <x:t>TMVG0109</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C260" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F260" t="inlineStr">
@@ -7626,24 +7643,24 @@
       </x:c>
       <x:c r="G260" t="inlineStr">
         <x:is>
-          <x:t>CARS MAROBE S.L.</x:t>
+          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="261">
       <x:c r="A261" t="inlineStr">
         <x:is>
-          <x:t>23/8172</x:t>
+          <x:t>23/8170</x:t>
         </x:is>
       </x:c>
       <x:c r="B261" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C261" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F261" t="inlineStr">
@@ -7653,14 +7670,14 @@
       </x:c>
       <x:c r="G261" t="inlineStr">
         <x:is>
-          <x:t>CARS MAROBE S.L.</x:t>
+          <x:t>EDITORIAL TÉCNICA CIENTIFICA PRENSA HISPANOAMERICANA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="262">
       <x:c r="A262" t="inlineStr">
         <x:is>
-          <x:t>23/8173</x:t>
+          <x:t>23/8171</x:t>
         </x:is>
       </x:c>
       <x:c r="B262" t="inlineStr">
@@ -7687,17 +7704,17 @@
     <x:row r="263">
       <x:c r="A263" t="inlineStr">
         <x:is>
-          <x:t>23/8174</x:t>
+          <x:t>23/8172</x:t>
         </x:is>
       </x:c>
       <x:c r="B263" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C263" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="F263" t="inlineStr">
@@ -7707,24 +7724,24 @@
       </x:c>
       <x:c r="G263" t="inlineStr">
         <x:is>
-          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
+          <x:t>CARS MAROBE S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="264">
       <x:c r="A264" t="inlineStr">
         <x:is>
-          <x:t>23/8175</x:t>
+          <x:t>23/8173</x:t>
         </x:is>
       </x:c>
       <x:c r="B264" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>TMVG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C264" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F264" t="inlineStr">
@@ -7734,24 +7751,24 @@
       </x:c>
       <x:c r="G264" t="inlineStr">
         <x:is>
-          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
+          <x:t>CARS MAROBE S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="265">
       <x:c r="A265" t="inlineStr">
         <x:is>
-          <x:t>23/8176</x:t>
+          <x:t>23/8174</x:t>
         </x:is>
       </x:c>
       <x:c r="B265" t="inlineStr">
         <x:is>
-          <x:t>IFCT0309</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C265" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F265" t="inlineStr">
@@ -7768,7 +7785,7 @@
     <x:row r="266">
       <x:c r="A266" t="inlineStr">
         <x:is>
-          <x:t>23/8177</x:t>
+          <x:t>23/8175</x:t>
         </x:is>
       </x:c>
       <x:c r="B266" t="inlineStr">
@@ -7795,17 +7812,17 @@
     <x:row r="267">
       <x:c r="A267" t="inlineStr">
         <x:is>
-          <x:t>23/8178</x:t>
+          <x:t>23/8176</x:t>
         </x:is>
       </x:c>
       <x:c r="B267" t="inlineStr">
         <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>IFCT0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C267" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F267" t="inlineStr">
@@ -7815,29 +7832,24 @@
       </x:c>
       <x:c r="G267" t="inlineStr">
         <x:is>
-          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H267" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="268">
       <x:c r="A268" t="inlineStr">
         <x:is>
-          <x:t>23/8179</x:t>
+          <x:t>23/8177</x:t>
         </x:is>
       </x:c>
       <x:c r="B268" t="inlineStr">
         <x:is>
-          <x:t>IMSV0208</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C268" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F268" t="inlineStr">
@@ -7847,29 +7859,24 @@
       </x:c>
       <x:c r="G268" t="inlineStr">
         <x:is>
-          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H268" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="269">
       <x:c r="A269" t="inlineStr">
         <x:is>
-          <x:t>23/8180</x:t>
+          <x:t>23/8178</x:t>
         </x:is>
       </x:c>
       <x:c r="B269" t="inlineStr">
         <x:is>
-          <x:t>IMSV0408</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C269" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA DIRECCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F269" t="inlineStr">
@@ -7891,17 +7898,17 @@
     <x:row r="270">
       <x:c r="A270" t="inlineStr">
         <x:is>
-          <x:t>23/8182</x:t>
+          <x:t>23/8179</x:t>
         </x:is>
       </x:c>
       <x:c r="B270" t="inlineStr">
         <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>IMSV0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C270" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F270" t="inlineStr">
@@ -7923,17 +7930,17 @@
     <x:row r="271">
       <x:c r="A271" t="inlineStr">
         <x:is>
-          <x:t>23/8183</x:t>
+          <x:t>23/8180</x:t>
         </x:is>
       </x:c>
       <x:c r="B271" t="inlineStr">
         <x:is>
-          <x:t>IMSV0109</x:t>
+          <x:t>IMSV0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C271" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA DIRECCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F271" t="inlineStr">
@@ -7955,17 +7962,17 @@
     <x:row r="272">
       <x:c r="A272" t="inlineStr">
         <x:is>
-          <x:t>23/8185</x:t>
+          <x:t>23/8182</x:t>
         </x:is>
       </x:c>
       <x:c r="B272" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C272" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F272" t="inlineStr">
@@ -7975,24 +7982,29 @@
       </x:c>
       <x:c r="G272" t="inlineStr">
         <x:is>
-          <x:t>MOSFRIN S.L.</x:t>
+          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H272" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="273">
       <x:c r="A273" t="inlineStr">
         <x:is>
-          <x:t>23/8186</x:t>
+          <x:t>23/8183</x:t>
         </x:is>
       </x:c>
       <x:c r="B273" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>IMSV0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C273" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F273" t="inlineStr">
@@ -8002,24 +8014,29 @@
       </x:c>
       <x:c r="G273" t="inlineStr">
         <x:is>
-          <x:t>MOSFRIN S.L.</x:t>
+          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H273" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="274">
       <x:c r="A274" t="inlineStr">
         <x:is>
-          <x:t>23/8187</x:t>
+          <x:t>23/8185</x:t>
         </x:is>
       </x:c>
       <x:c r="B274" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C274" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F274" t="inlineStr">
@@ -8036,17 +8053,17 @@
     <x:row r="275">
       <x:c r="A275" t="inlineStr">
         <x:is>
-          <x:t>23/8188</x:t>
+          <x:t>23/8186</x:t>
         </x:is>
       </x:c>
       <x:c r="B275" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C275" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F275" t="inlineStr">
@@ -8063,17 +8080,17 @@
     <x:row r="276">
       <x:c r="A276" t="inlineStr">
         <x:is>
-          <x:t>23/8189</x:t>
+          <x:t>23/8187</x:t>
         </x:is>
       </x:c>
       <x:c r="B276" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C276" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F276" t="inlineStr">
@@ -8090,7 +8107,7 @@
     <x:row r="277">
       <x:c r="A277" t="inlineStr">
         <x:is>
-          <x:t>23/8190</x:t>
+          <x:t>23/8188</x:t>
         </x:is>
       </x:c>
       <x:c r="B277" t="inlineStr">
@@ -8117,17 +8134,17 @@
     <x:row r="278">
       <x:c r="A278" t="inlineStr">
         <x:is>
-          <x:t>23/8191</x:t>
+          <x:t>23/8189</x:t>
         </x:is>
       </x:c>
       <x:c r="B278" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C278" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F278" t="inlineStr">
@@ -8144,17 +8161,17 @@
     <x:row r="279">
       <x:c r="A279" t="inlineStr">
         <x:is>
-          <x:t>23/8192</x:t>
+          <x:t>23/8190</x:t>
         </x:is>
       </x:c>
       <x:c r="B279" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C279" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F279" t="inlineStr">
@@ -8164,29 +8181,24 @@
       </x:c>
       <x:c r="G279" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H279" t="inlineStr">
-        <x:is>
-          <x:t>Alcorcón</x:t>
+          <x:t>MOSFRIN S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="280">
       <x:c r="A280" t="inlineStr">
         <x:is>
-          <x:t>23/8193</x:t>
+          <x:t>23/8191</x:t>
         </x:is>
       </x:c>
       <x:c r="B280" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0110</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C280" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F280" t="inlineStr">
@@ -8196,29 +8208,24 @@
       </x:c>
       <x:c r="G280" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H280" t="inlineStr">
-        <x:is>
-          <x:t>Alcorcón</x:t>
+          <x:t>MOSFRIN S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="281">
       <x:c r="A281" t="inlineStr">
         <x:is>
-          <x:t>23/8194</x:t>
+          <x:t>23/8192</x:t>
         </x:is>
       </x:c>
       <x:c r="B281" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C281" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F281" t="inlineStr">
@@ -8240,17 +8247,17 @@
     <x:row r="282">
       <x:c r="A282" t="inlineStr">
         <x:is>
-          <x:t>23/8195</x:t>
+          <x:t>23/8193</x:t>
         </x:is>
       </x:c>
       <x:c r="B282" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>AGAJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C282" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F282" t="inlineStr">
@@ -8272,17 +8279,17 @@
     <x:row r="283">
       <x:c r="A283" t="inlineStr">
         <x:is>
-          <x:t>23/8196</x:t>
+          <x:t>23/8194</x:t>
         </x:is>
       </x:c>
       <x:c r="B283" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0110</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C283" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F283" t="inlineStr">
@@ -8304,17 +8311,17 @@
     <x:row r="284">
       <x:c r="A284" t="inlineStr">
         <x:is>
-          <x:t>23/8197</x:t>
+          <x:t>23/8195</x:t>
         </x:is>
       </x:c>
       <x:c r="B284" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C284" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F284" t="inlineStr">
@@ -8336,17 +8343,17 @@
     <x:row r="285">
       <x:c r="A285" t="inlineStr">
         <x:is>
-          <x:t>23/8198</x:t>
+          <x:t>23/8196</x:t>
         </x:is>
       </x:c>
       <x:c r="B285" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0108</x:t>
+          <x:t>AGAJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C285" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE PELUQUERÍA</x:t>
+          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F285" t="inlineStr">
@@ -8368,7 +8375,7 @@
     <x:row r="286">
       <x:c r="A286" t="inlineStr">
         <x:is>
-          <x:t>23/8199</x:t>
+          <x:t>23/8197</x:t>
         </x:is>
       </x:c>
       <x:c r="B286" t="inlineStr">
@@ -8400,17 +8407,17 @@
     <x:row r="287">
       <x:c r="A287" t="inlineStr">
         <x:is>
-          <x:t>23/8200</x:t>
+          <x:t>23/8198</x:t>
         </x:is>
       </x:c>
       <x:c r="B287" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>IMPQ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C287" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>SERVICIOS AUXILIARES DE PELUQUERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F287" t="inlineStr">
@@ -8432,17 +8439,17 @@
     <x:row r="288">
       <x:c r="A288" t="inlineStr">
         <x:is>
-          <x:t>23/8201</x:t>
+          <x:t>23/8199</x:t>
         </x:is>
       </x:c>
       <x:c r="B288" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C288" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F288" t="inlineStr">
@@ -8452,24 +8459,29 @@
       </x:c>
       <x:c r="G288" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H288" t="inlineStr">
+        <x:is>
+          <x:t>Alcorcón</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="289">
       <x:c r="A289" t="inlineStr">
         <x:is>
-          <x:t>23/8202</x:t>
+          <x:t>23/8200</x:t>
         </x:is>
       </x:c>
       <x:c r="B289" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C289" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F289" t="inlineStr">
@@ -8479,24 +8491,29 @@
       </x:c>
       <x:c r="G289" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H289" t="inlineStr">
+        <x:is>
+          <x:t>Alcorcón</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="290">
       <x:c r="A290" t="inlineStr">
         <x:is>
-          <x:t>23/8203</x:t>
+          <x:t>23/8201</x:t>
         </x:is>
       </x:c>
       <x:c r="B290" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C290" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F290" t="inlineStr">
@@ -8513,7 +8530,7 @@
     <x:row r="291">
       <x:c r="A291" t="inlineStr">
         <x:is>
-          <x:t>23/8204</x:t>
+          <x:t>23/8202</x:t>
         </x:is>
       </x:c>
       <x:c r="B291" t="inlineStr">
@@ -8540,17 +8557,17 @@
     <x:row r="292">
       <x:c r="A292" t="inlineStr">
         <x:is>
-          <x:t>23/8205</x:t>
+          <x:t>23/8203</x:t>
         </x:is>
       </x:c>
       <x:c r="B292" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C292" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F292" t="inlineStr">
@@ -8567,17 +8584,17 @@
     <x:row r="293">
       <x:c r="A293" t="inlineStr">
         <x:is>
-          <x:t>23/8206</x:t>
+          <x:t>23/8204</x:t>
         </x:is>
       </x:c>
       <x:c r="B293" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C293" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F293" t="inlineStr">
@@ -8594,17 +8611,17 @@
     <x:row r="294">
       <x:c r="A294" t="inlineStr">
         <x:is>
-          <x:t>23/8207</x:t>
+          <x:t>23/8205</x:t>
         </x:is>
       </x:c>
       <x:c r="B294" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C294" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F294" t="inlineStr">
@@ -8621,17 +8638,17 @@
     <x:row r="295">
       <x:c r="A295" t="inlineStr">
         <x:is>
-          <x:t>23/8208</x:t>
+          <x:t>23/8206</x:t>
         </x:is>
       </x:c>
       <x:c r="B295" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C295" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F295" t="inlineStr">
@@ -8648,17 +8665,17 @@
     <x:row r="296">
       <x:c r="A296" t="inlineStr">
         <x:is>
-          <x:t>23/8209</x:t>
+          <x:t>23/8207</x:t>
         </x:is>
       </x:c>
       <x:c r="B296" t="inlineStr">
         <x:is>
-          <x:t>ELEE0108</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C296" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F296" t="inlineStr">
@@ -8668,24 +8685,24 @@
       </x:c>
       <x:c r="G296" t="inlineStr">
         <x:is>
-          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="297">
       <x:c r="A297" t="inlineStr">
         <x:is>
-          <x:t>23/8210</x:t>
+          <x:t>23/8208</x:t>
         </x:is>
       </x:c>
       <x:c r="B297" t="inlineStr">
         <x:is>
-          <x:t>ENAE0111</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C297" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F297" t="inlineStr">
@@ -8695,24 +8712,24 @@
       </x:c>
       <x:c r="G297" t="inlineStr">
         <x:is>
-          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="298">
       <x:c r="A298" t="inlineStr">
         <x:is>
-          <x:t>23/8211</x:t>
+          <x:t>23/8209</x:t>
         </x:is>
       </x:c>
       <x:c r="B298" t="inlineStr">
         <x:is>
-          <x:t>ENAE0208</x:t>
+          <x:t>ELEE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C298" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F298" t="inlineStr">
@@ -8729,17 +8746,17 @@
     <x:row r="299">
       <x:c r="A299" t="inlineStr">
         <x:is>
-          <x:t>23/8212</x:t>
+          <x:t>23/8210</x:t>
         </x:is>
       </x:c>
       <x:c r="B299" t="inlineStr">
         <x:is>
-          <x:t>ELEM0111</x:t>
+          <x:t>ENAE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C299" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
+          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F299" t="inlineStr">
@@ -8756,17 +8773,17 @@
     <x:row r="300">
       <x:c r="A300" t="inlineStr">
         <x:is>
-          <x:t>23/8213</x:t>
+          <x:t>23/8211</x:t>
         </x:is>
       </x:c>
       <x:c r="B300" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>ENAE0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C300" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F300" t="inlineStr">
@@ -8776,24 +8793,24 @@
       </x:c>
       <x:c r="G300" t="inlineStr">
         <x:is>
-          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
+          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="301">
       <x:c r="A301" t="inlineStr">
         <x:is>
-          <x:t>23/8214</x:t>
+          <x:t>23/8212</x:t>
         </x:is>
       </x:c>
       <x:c r="B301" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>ELEM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C301" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F301" t="inlineStr">
@@ -8803,24 +8820,24 @@
       </x:c>
       <x:c r="G301" t="inlineStr">
         <x:is>
-          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
+          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="302">
       <x:c r="A302" t="inlineStr">
         <x:is>
-          <x:t>23/8215</x:t>
+          <x:t>23/8213</x:t>
         </x:is>
       </x:c>
       <x:c r="B302" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C302" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F302" t="inlineStr">
@@ -8837,17 +8854,17 @@
     <x:row r="303">
       <x:c r="A303" t="inlineStr">
         <x:is>
-          <x:t>23/8216</x:t>
+          <x:t>23/8214</x:t>
         </x:is>
       </x:c>
       <x:c r="B303" t="inlineStr">
         <x:is>
-          <x:t>IMAI0108</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C303" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F303" t="inlineStr">
@@ -8864,17 +8881,17 @@
     <x:row r="304">
       <x:c r="A304" t="inlineStr">
         <x:is>
-          <x:t>23/8217</x:t>
+          <x:t>23/8215</x:t>
         </x:is>
       </x:c>
       <x:c r="B304" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C304" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F304" t="inlineStr">
@@ -8891,17 +8908,17 @@
     <x:row r="305">
       <x:c r="A305" t="inlineStr">
         <x:is>
-          <x:t>23/8218</x:t>
+          <x:t>23/8216</x:t>
         </x:is>
       </x:c>
       <x:c r="B305" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>IMAI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C305" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F305" t="inlineStr">
@@ -8918,7 +8935,7 @@
     <x:row r="306">
       <x:c r="A306" t="inlineStr">
         <x:is>
-          <x:t>23/8219</x:t>
+          <x:t>23/8217</x:t>
         </x:is>
       </x:c>
       <x:c r="B306" t="inlineStr">
@@ -8945,17 +8962,17 @@
     <x:row r="307">
       <x:c r="A307" t="inlineStr">
         <x:is>
-          <x:t>23/8220</x:t>
+          <x:t>23/8218</x:t>
         </x:is>
       </x:c>
       <x:c r="B307" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C307" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F307" t="inlineStr">
@@ -8972,17 +8989,17 @@
     <x:row r="308">
       <x:c r="A308" t="inlineStr">
         <x:is>
-          <x:t>23/8221</x:t>
+          <x:t>23/8219</x:t>
         </x:is>
       </x:c>
       <x:c r="B308" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C308" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F308" t="inlineStr">
@@ -8992,24 +9009,24 @@
       </x:c>
       <x:c r="G308" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="309">
       <x:c r="A309" t="inlineStr">
         <x:is>
-          <x:t>23/8223</x:t>
+          <x:t>23/8220</x:t>
         </x:is>
       </x:c>
       <x:c r="B309" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C309" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F309" t="inlineStr">
@@ -9019,24 +9036,24 @@
       </x:c>
       <x:c r="G309" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="310">
       <x:c r="A310" t="inlineStr">
         <x:is>
-          <x:t>23/8224</x:t>
+          <x:t>23/8221</x:t>
         </x:is>
       </x:c>
       <x:c r="B310" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C310" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F310" t="inlineStr">
@@ -9053,17 +9070,17 @@
     <x:row r="311">
       <x:c r="A311" t="inlineStr">
         <x:is>
-          <x:t>23/8225</x:t>
+          <x:t>23/8223</x:t>
         </x:is>
       </x:c>
       <x:c r="B311" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C311" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F311" t="inlineStr">
@@ -9080,17 +9097,17 @@
     <x:row r="312">
       <x:c r="A312" t="inlineStr">
         <x:is>
-          <x:t>23/8226</x:t>
+          <x:t>23/8224</x:t>
         </x:is>
       </x:c>
       <x:c r="B312" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C312" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F312" t="inlineStr">
@@ -9107,17 +9124,17 @@
     <x:row r="313">
       <x:c r="A313" t="inlineStr">
         <x:is>
-          <x:t>23/8228</x:t>
+          <x:t>23/8225</x:t>
         </x:is>
       </x:c>
       <x:c r="B313" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C313" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F313" t="inlineStr">
@@ -9134,17 +9151,17 @@
     <x:row r="314">
       <x:c r="A314" t="inlineStr">
         <x:is>
-          <x:t>23/8229</x:t>
+          <x:t>23/8226</x:t>
         </x:is>
       </x:c>
       <x:c r="B314" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C314" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F314" t="inlineStr">
@@ -9154,24 +9171,24 @@
       </x:c>
       <x:c r="G314" t="inlineStr">
         <x:is>
-          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="315">
       <x:c r="A315" t="inlineStr">
         <x:is>
-          <x:t>23/8230</x:t>
+          <x:t>23/8228</x:t>
         </x:is>
       </x:c>
       <x:c r="B315" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C315" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F315" t="inlineStr">
@@ -9181,24 +9198,24 @@
       </x:c>
       <x:c r="G315" t="inlineStr">
         <x:is>
-          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="316">
       <x:c r="A316" t="inlineStr">
         <x:is>
-          <x:t>23/8231</x:t>
+          <x:t>23/8229</x:t>
         </x:is>
       </x:c>
       <x:c r="B316" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C316" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F316" t="inlineStr">
@@ -9215,17 +9232,17 @@
     <x:row r="317">
       <x:c r="A317" t="inlineStr">
         <x:is>
-          <x:t>23/8232</x:t>
+          <x:t>23/8230</x:t>
         </x:is>
       </x:c>
       <x:c r="B317" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C317" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F317" t="inlineStr">
@@ -9242,17 +9259,17 @@
     <x:row r="318">
       <x:c r="A318" t="inlineStr">
         <x:is>
-          <x:t>23/8233</x:t>
+          <x:t>23/8231</x:t>
         </x:is>
       </x:c>
       <x:c r="B318" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C318" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F318" t="inlineStr">
@@ -9269,17 +9286,17 @@
     <x:row r="319">
       <x:c r="A319" t="inlineStr">
         <x:is>
-          <x:t>23/8234</x:t>
+          <x:t>23/8232</x:t>
         </x:is>
       </x:c>
       <x:c r="B319" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C319" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F319" t="inlineStr">
@@ -9296,17 +9313,17 @@
     <x:row r="320">
       <x:c r="A320" t="inlineStr">
         <x:is>
-          <x:t>23/8235</x:t>
+          <x:t>23/8233</x:t>
         </x:is>
       </x:c>
       <x:c r="B320" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C320" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F320" t="inlineStr">
@@ -9323,17 +9340,17 @@
     <x:row r="321">
       <x:c r="A321" t="inlineStr">
         <x:is>
-          <x:t>23/8241</x:t>
+          <x:t>23/8234</x:t>
         </x:is>
       </x:c>
       <x:c r="B321" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C321" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F321" t="inlineStr">
@@ -9343,29 +9360,24 @@
       </x:c>
       <x:c r="G321" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H321" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="322">
       <x:c r="A322" t="inlineStr">
         <x:is>
-          <x:t>23/8242</x:t>
+          <x:t>23/8235</x:t>
         </x:is>
       </x:c>
       <x:c r="B322" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C322" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F322" t="inlineStr">
@@ -9375,12 +9387,7 @@
       </x:c>
       <x:c r="G322" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H322" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R818eb38af71d4d29"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4e67bb2afdd24670"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4e67bb2afdd24670"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R9c0c62c109da40aa"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R8b80abbb1f94497c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R8bc944ab5b0c4a66"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -920,24 +920,24 @@
     <x:row r="26">
       <x:c r="A26" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004582</x:t>
+          <x:t>FDEC240004566</x:t>
         </x:is>
       </x:c>
       <x:c r="B26" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>COMT0411</x:t>
         </x:is>
       </x:c>
       <x:c r="C26" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>GESTIÓN COMERCIAL DE VENTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>45952.9166666667</x:v>
+        <x:v>45956.9583333333</x:v>
       </x:c>
       <x:c r="E26" s="2" t="n">
-        <x:v>46098.9583333333</x:v>
+        <x:v>46111.9166666667</x:v>
       </x:c>
       <x:c r="F26" t="inlineStr">
         <x:is>
@@ -946,26 +946,31 @@
       </x:c>
       <x:c r="G26" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>ACCION LABORAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="inlineStr">
         <x:is>
-          <x:t>24/1161</x:t>
+          <x:t>FDEC240004582</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B27" t="inlineStr">
+        <x:is>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C27" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE, PUESTA EN SERVICIO, MANTENIMIENTO, INSPECCIÓN Y REVISIÓN DE INSTALACIONES RECEPTORAS Y APARATOS DE GAS </x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>45951</x:v>
+        <x:v>45952.9166666667</x:v>
       </x:c>
       <x:c r="E27" s="2" t="n">
-        <x:v>46098</x:v>
+        <x:v>46098.9583333333</x:v>
       </x:c>
       <x:c r="F27" t="inlineStr">
         <x:is>
@@ -974,36 +979,26 @@
       </x:c>
       <x:c r="G27" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H27" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="inlineStr">
         <x:is>
-          <x:t>24/1174</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B28" t="inlineStr">
-        <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>24/1161</x:t>
         </x:is>
       </x:c>
       <x:c r="C28" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>MONTAJE, PUESTA EN SERVICIO, MANTENIMIENTO, INSPECCIÓN Y REVISIÓN DE INSTALACIONES RECEPTORAS Y APARATOS DE GAS </x:t>
         </x:is>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>45951</x:v>
       </x:c>
       <x:c r="E28" s="2" t="n">
-        <x:v>46078</x:v>
+        <x:v>46098</x:v>
       </x:c>
       <x:c r="F28" t="inlineStr">
         <x:is>
@@ -1024,24 +1019,24 @@
     <x:row r="29">
       <x:c r="A29" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004370</x:t>
+          <x:t>24/1174</x:t>
         </x:is>
       </x:c>
       <x:c r="B29" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>AGAO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
         </x:is>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>45950.9166666667</x:v>
+        <x:v>45951</x:v>
       </x:c>
       <x:c r="E29" s="2" t="n">
-        <x:v>46069.9583333333</x:v>
+        <x:v>46078</x:v>
       </x:c>
       <x:c r="F29" t="inlineStr">
         <x:is>
@@ -1050,14 +1045,19 @@
       </x:c>
       <x:c r="G29" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H29" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004371</x:t>
+          <x:t>FDEC240004370</x:t>
         </x:is>
       </x:c>
       <x:c r="B30" t="inlineStr">
@@ -1090,24 +1090,24 @@
     <x:row r="31">
       <x:c r="A31" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003868</x:t>
+          <x:t>FDEC240004371</x:t>
         </x:is>
       </x:c>
       <x:c r="B31" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>45949.9166666667</x:v>
+        <x:v>45950.9166666667</x:v>
       </x:c>
       <x:c r="E31" s="2" t="n">
-        <x:v>46079.9583333333</x:v>
+        <x:v>46069.9583333333</x:v>
       </x:c>
       <x:c r="F31" t="inlineStr">
         <x:is>
@@ -1116,36 +1116,31 @@
       </x:c>
       <x:c r="G31" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H31" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004368</x:t>
+          <x:t>FDEC240003868</x:t>
         </x:is>
       </x:c>
       <x:c r="B32" t="inlineStr">
         <x:is>
-          <x:t>EOCO0208</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" t="inlineStr">
         <x:is>
-          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>45949.9166666667</x:v>
       </x:c>
       <x:c r="E32" s="2" t="n">
-        <x:v>46078.9583333333</x:v>
+        <x:v>46079.9583333333</x:v>
       </x:c>
       <x:c r="F32" t="inlineStr">
         <x:is>
@@ -1154,14 +1149,19 @@
       </x:c>
       <x:c r="G32" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H32" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004369</x:t>
+          <x:t>FDEC240004368</x:t>
         </x:is>
       </x:c>
       <x:c r="B33" t="inlineStr">
@@ -1194,24 +1194,24 @@
     <x:row r="34">
       <x:c r="A34" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003356</x:t>
+          <x:t>FDEC240004369</x:t>
         </x:is>
       </x:c>
       <x:c r="B34" t="inlineStr">
         <x:is>
-          <x:t>AFDA0310</x:t>
+          <x:t>EOCO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C34" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
+          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>45946.9166666667</x:v>
+        <x:v>45949.9166666667</x:v>
       </x:c>
       <x:c r="E34" s="2" t="n">
-        <x:v>45977.9583333333</x:v>
+        <x:v>46078.9583333333</x:v>
       </x:c>
       <x:c r="F34" t="inlineStr">
         <x:is>
@@ -1220,31 +1220,31 @@
       </x:c>
       <x:c r="G34" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004315</x:t>
+          <x:t>FDEC240003356</x:t>
         </x:is>
       </x:c>
       <x:c r="B35" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>AFDA0310</x:t>
         </x:is>
       </x:c>
       <x:c r="C35" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>45945.9166666667</x:v>
+        <x:v>45946.9166666667</x:v>
       </x:c>
       <x:c r="E35" s="2" t="n">
-        <x:v>45987.9583333333</x:v>
+        <x:v>45977.9583333333</x:v>
       </x:c>
       <x:c r="F35" t="inlineStr">
         <x:is>
@@ -1253,31 +1253,31 @@
       </x:c>
       <x:c r="G35" t="inlineStr">
         <x:is>
-          <x:t>FORMACION PARA EL DESARROLLO E INSERCION SL</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="inlineStr">
         <x:is>
-          <x:t>24/911</x:t>
+          <x:t>FDEC240004315</x:t>
         </x:is>
       </x:c>
       <x:c r="B36" t="inlineStr">
         <x:is>
-          <x:t>TMVL0509</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C36" t="inlineStr">
         <x:is>
-          <x:t>PINTURA DE VEHÍCULOS</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>45945</x:v>
+        <x:v>45945.9166666667</x:v>
       </x:c>
       <x:c r="E36" s="2" t="n">
-        <x:v>46080</x:v>
+        <x:v>45987.9583333333</x:v>
       </x:c>
       <x:c r="F36" t="inlineStr">
         <x:is>
@@ -1286,36 +1286,31 @@
       </x:c>
       <x:c r="G36" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H36" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>FORMACION PARA EL DESARROLLO E INSERCION SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="inlineStr">
         <x:is>
-          <x:t>24/931</x:t>
+          <x:t>24/911</x:t>
         </x:is>
       </x:c>
       <x:c r="B37" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>TMVL0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C37" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>PINTURA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D37" s="1" t="n">
         <x:v>45945</x:v>
       </x:c>
       <x:c r="E37" s="2" t="n">
-        <x:v>46099</x:v>
+        <x:v>46080</x:v>
       </x:c>
       <x:c r="F37" t="inlineStr">
         <x:is>
@@ -1336,24 +1331,24 @@
     <x:row r="38">
       <x:c r="A38" t="inlineStr">
         <x:is>
-          <x:t>23/8353</x:t>
+          <x:t>24/931</x:t>
         </x:is>
       </x:c>
       <x:c r="B38" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C38" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>45944.9166666667</x:v>
+        <x:v>45945</x:v>
       </x:c>
       <x:c r="E38" s="2" t="n">
-        <x:v>46103.9583333333</x:v>
+        <x:v>46099</x:v>
       </x:c>
       <x:c r="F38" t="inlineStr">
         <x:is>
@@ -1362,31 +1357,36 @@
       </x:c>
       <x:c r="G38" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H38" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="39">
       <x:c r="A39" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003590</x:t>
+          <x:t>23/8353</x:t>
         </x:is>
       </x:c>
       <x:c r="B39" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C39" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E39" s="2" t="n">
-        <x:v>45999.9583333333</x:v>
+        <x:v>46103.9583333333</x:v>
       </x:c>
       <x:c r="F39" t="inlineStr">
         <x:is>
@@ -1395,31 +1395,31 @@
       </x:c>
       <x:c r="G39" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="40">
       <x:c r="A40" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003866</x:t>
+          <x:t>FDEC240003590</x:t>
         </x:is>
       </x:c>
       <x:c r="B40" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C40" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E40" s="2" t="n">
-        <x:v>46053.9583333333</x:v>
+        <x:v>45999.9583333333</x:v>
       </x:c>
       <x:c r="F40" t="inlineStr">
         <x:is>
@@ -1428,36 +1428,31 @@
       </x:c>
       <x:c r="G40" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H40" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="A41" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004187</x:t>
+          <x:t>FDEC240003866</x:t>
         </x:is>
       </x:c>
       <x:c r="B41" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C41" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E41" s="2" t="n">
-        <x:v>46099.9583333333</x:v>
+        <x:v>46053.9583333333</x:v>
       </x:c>
       <x:c r="F41" t="inlineStr">
         <x:is>
@@ -1466,31 +1461,36 @@
       </x:c>
       <x:c r="G41" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H41" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004464</x:t>
+          <x:t>FDEC240004187</x:t>
         </x:is>
       </x:c>
       <x:c r="B42" t="inlineStr">
         <x:is>
-          <x:t>AFDA0511</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C42" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E42" s="2" t="n">
-        <x:v>45990.9583333333</x:v>
+        <x:v>46099.9583333333</x:v>
       </x:c>
       <x:c r="F42" t="inlineStr">
         <x:is>
@@ -1499,31 +1499,31 @@
       </x:c>
       <x:c r="G42" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="A43" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004545</x:t>
+          <x:t>FDEC240004464</x:t>
         </x:is>
       </x:c>
       <x:c r="B43" t="inlineStr">
         <x:is>
-          <x:t>QUIA0208</x:t>
+          <x:t>AFDA0511</x:t>
         </x:is>
       </x:c>
       <x:c r="C43" t="inlineStr">
         <x:is>
-          <x:t>ENSAYOS MICROBIOLÓGICOS Y BIOTECNOLÓGICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E43" s="2" t="n">
-        <x:v>46069.9583333333</x:v>
+        <x:v>45990.9583333333</x:v>
       </x:c>
       <x:c r="F43" t="inlineStr">
         <x:is>
@@ -1532,31 +1532,31 @@
       </x:c>
       <x:c r="G43" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO MENESIANO EN AV BRASILIA 11 INST  HH DE LA  INSTR CRISTIANA DE MADRID</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="44">
       <x:c r="A44" t="inlineStr">
         <x:is>
-          <x:t>24/924</x:t>
+          <x:t>FDEC240004545</x:t>
         </x:is>
       </x:c>
       <x:c r="B44" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0108</x:t>
+          <x:t>QUIA0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C44" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO Y MONTAJE MECÁNICO DE EQUIPO INDUSTRIAL</x:t>
+          <x:t>ENSAYOS MICROBIOLÓGICOS Y BIOTECNOLÓGICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>45944</x:v>
+        <x:v>45944.9166666667</x:v>
       </x:c>
       <x:c r="E44" s="2" t="n">
-        <x:v>46080</x:v>
+        <x:v>46069.9583333333</x:v>
       </x:c>
       <x:c r="F44" t="inlineStr">
         <x:is>
@@ -1565,12 +1565,7 @@
       </x:c>
       <x:c r="G44" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H44" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>COLEGIO MENESIANO EN AV BRASILIA 11 INST  HH DE LA  INSTR CRISTIANA DE MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -42528,7 +42523,7 @@
     <x:row r="1513">
       <x:c r="A1513" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004566</x:t>
+          <x:t>FDEC240004567</x:t>
         </x:is>
       </x:c>
       <x:c r="B1513" t="inlineStr">
@@ -42555,17 +42550,17 @@
     <x:row r="1514">
       <x:c r="A1514" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004567</x:t>
+          <x:t>FDAC240009002</x:t>
         </x:is>
       </x:c>
       <x:c r="B1514" t="inlineStr">
         <x:is>
-          <x:t>COMT0411</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C1514" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN COMERCIAL DE VENTAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1514" t="inlineStr">
@@ -42575,24 +42570,24 @@
       </x:c>
       <x:c r="G1514" t="inlineStr">
         <x:is>
-          <x:t>ACCION LABORAL</x:t>
+          <x:t>AYUNTAMIENTO DE ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1515">
       <x:c r="A1515" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009002</x:t>
+          <x:t>FDAC240009006</x:t>
         </x:is>
       </x:c>
       <x:c r="B1515" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1515" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F1515" t="inlineStr">
@@ -42609,17 +42604,17 @@
     <x:row r="1516">
       <x:c r="A1516" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009006</x:t>
+          <x:t>FDAC240009007</x:t>
         </x:is>
       </x:c>
       <x:c r="B1516" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>SEAG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C1516" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>INTERPRETACIÓN Y EDUCACIÓN AMBIENTAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F1516" t="inlineStr">
@@ -42636,7 +42631,7 @@
     <x:row r="1517">
       <x:c r="A1517" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009007</x:t>
+          <x:t>FDAC240009008</x:t>
         </x:is>
       </x:c>
       <x:c r="B1517" t="inlineStr">
@@ -42663,17 +42658,17 @@
     <x:row r="1518">
       <x:c r="A1518" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009008</x:t>
+          <x:t>FDAC240009009</x:t>
         </x:is>
       </x:c>
       <x:c r="B1518" t="inlineStr">
         <x:is>
-          <x:t>SEAG0109</x:t>
+          <x:t>TMVG0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C1518" t="inlineStr">
         <x:is>
-          <x:t>INTERPRETACIÓN Y EDUCACIÓN AMBIENTAL</x:t>
+          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1518" t="inlineStr">
@@ -42690,17 +42685,17 @@
     <x:row r="1519">
       <x:c r="A1519" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009009</x:t>
+          <x:t>FDAC240009010</x:t>
         </x:is>
       </x:c>
       <x:c r="B1519" t="inlineStr">
         <x:is>
-          <x:t>TMVG0409</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C1519" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1519" t="inlineStr">
@@ -42710,24 +42705,24 @@
       </x:c>
       <x:c r="G1519" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO DE ALCOBENDAS</x:t>
+          <x:t>AYUNTAMIENTO ARGANDA DEL REY</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1520">
       <x:c r="A1520" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009010</x:t>
+          <x:t>FDAC240009012</x:t>
         </x:is>
       </x:c>
       <x:c r="B1520" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ARGP0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1520" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>TRATAMIENTO Y MAQUETACIÓN DE ELEMENTOS GRÁFICOS EN PREIMPRESIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F1520" t="inlineStr">
@@ -42744,17 +42739,17 @@
     <x:row r="1521">
       <x:c r="A1521" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009012</x:t>
+          <x:t>FDAC240009013</x:t>
         </x:is>
       </x:c>
       <x:c r="B1521" t="inlineStr">
         <x:is>
-          <x:t>ARGP0110</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C1521" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTO Y MAQUETACIÓN DE ELEMENTOS GRÁFICOS EN PREIMPRESIÓN</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F1521" t="inlineStr">
@@ -42771,17 +42766,17 @@
     <x:row r="1522">
       <x:c r="A1522" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009013</x:t>
+          <x:t>FDAC240009014</x:t>
         </x:is>
       </x:c>
       <x:c r="B1522" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>COMT0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C1522" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>GESTIÓN COMERCIAL INMOBILIARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1522" t="inlineStr">
@@ -42798,17 +42793,17 @@
     <x:row r="1523">
       <x:c r="A1523" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009014</x:t>
+          <x:t>FDAC240009017</x:t>
         </x:is>
       </x:c>
       <x:c r="B1523" t="inlineStr">
         <x:is>
-          <x:t>COMT0111</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C1523" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN COMERCIAL INMOBILIARIA</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="F1523" t="inlineStr">
@@ -42818,24 +42813,24 @@
       </x:c>
       <x:c r="G1523" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO ARGANDA DEL REY</x:t>
+          <x:t>AYUNTAMIENTO DE CIEMPOZUELOS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1524">
       <x:c r="A1524" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009017</x:t>
+          <x:t>FDAC240009018</x:t>
         </x:is>
       </x:c>
       <x:c r="B1524" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C1524" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1524" t="inlineStr">
@@ -42852,17 +42847,17 @@
     <x:row r="1525">
       <x:c r="A1525" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009018</x:t>
+          <x:t>FDAC240009019</x:t>
         </x:is>
       </x:c>
       <x:c r="B1525" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1525" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1525" t="inlineStr">
@@ -42879,17 +42874,17 @@
     <x:row r="1526">
       <x:c r="A1526" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009019</x:t>
+          <x:t>FDAC240009021</x:t>
         </x:is>
       </x:c>
       <x:c r="B1526" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C1526" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1526" t="inlineStr">
@@ -42899,24 +42894,24 @@
       </x:c>
       <x:c r="G1526" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO DE CIEMPOZUELOS</x:t>
+          <x:t>AYUNTAMIENTO DE EL ALAMO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1527">
       <x:c r="A1527" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009021</x:t>
+          <x:t>FDAC240009022</x:t>
         </x:is>
       </x:c>
       <x:c r="B1527" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C1527" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1527" t="inlineStr">
@@ -42933,17 +42928,17 @@
     <x:row r="1528">
       <x:c r="A1528" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009022</x:t>
+          <x:t>FDAC240009023</x:t>
         </x:is>
       </x:c>
       <x:c r="B1528" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1528" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1528" t="inlineStr">
@@ -42960,17 +42955,17 @@
     <x:row r="1529">
       <x:c r="A1529" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009023</x:t>
+          <x:t>FDAC240009024</x:t>
         </x:is>
       </x:c>
       <x:c r="B1529" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1529" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F1529" t="inlineStr">
@@ -42987,17 +42982,17 @@
     <x:row r="1530">
       <x:c r="A1530" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009024</x:t>
+          <x:t>FDAC240009025</x:t>
         </x:is>
       </x:c>
       <x:c r="B1530" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C1530" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1530" t="inlineStr">
@@ -43014,7 +43009,7 @@
     <x:row r="1531">
       <x:c r="A1531" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009025</x:t>
+          <x:t>FDAC240009026</x:t>
         </x:is>
       </x:c>
       <x:c r="B1531" t="inlineStr">
@@ -43041,17 +43036,17 @@
     <x:row r="1532">
       <x:c r="A1532" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009026</x:t>
+          <x:t>FDAC240009027</x:t>
         </x:is>
       </x:c>
       <x:c r="B1532" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C1532" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="F1532" t="inlineStr">
@@ -43068,17 +43063,17 @@
     <x:row r="1533">
       <x:c r="A1533" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009027</x:t>
+          <x:t>FDAC240009028</x:t>
         </x:is>
       </x:c>
       <x:c r="B1533" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1533" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1533" t="inlineStr">
@@ -43095,7 +43090,7 @@
     <x:row r="1534">
       <x:c r="A1534" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009028</x:t>
+          <x:t>FDAC240009029</x:t>
         </x:is>
       </x:c>
       <x:c r="B1534" t="inlineStr">
@@ -43122,7 +43117,7 @@
     <x:row r="1535">
       <x:c r="A1535" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009029</x:t>
+          <x:t>FDAC240009030</x:t>
         </x:is>
       </x:c>
       <x:c r="B1535" t="inlineStr">
@@ -43149,7 +43144,7 @@
     <x:row r="1536">
       <x:c r="A1536" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009030</x:t>
+          <x:t>FDAC240009031</x:t>
         </x:is>
       </x:c>
       <x:c r="B1536" t="inlineStr">
@@ -43176,17 +43171,17 @@
     <x:row r="1537">
       <x:c r="A1537" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009031</x:t>
+          <x:t>FDAC240009032</x:t>
         </x:is>
       </x:c>
       <x:c r="B1537" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1537" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1537" t="inlineStr">
@@ -43196,14 +43191,14 @@
       </x:c>
       <x:c r="G1537" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO DE EL ALAMO</x:t>
+          <x:t>AYUNTAMIENTO DE GUADARRAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1538">
       <x:c r="A1538" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009032</x:t>
+          <x:t>FDAC240009033</x:t>
         </x:is>
       </x:c>
       <x:c r="B1538" t="inlineStr">
@@ -43230,7 +43225,7 @@
     <x:row r="1539">
       <x:c r="A1539" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009033</x:t>
+          <x:t>FDAC240009034</x:t>
         </x:is>
       </x:c>
       <x:c r="B1539" t="inlineStr">
@@ -43257,7 +43252,7 @@
     <x:row r="1540">
       <x:c r="A1540" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009034</x:t>
+          <x:t>FDAC240009035</x:t>
         </x:is>
       </x:c>
       <x:c r="B1540" t="inlineStr">
@@ -43284,17 +43279,17 @@
     <x:row r="1541">
       <x:c r="A1541" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009035</x:t>
+          <x:t>FDAC240009036</x:t>
         </x:is>
       </x:c>
       <x:c r="B1541" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C1541" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1541" t="inlineStr">
@@ -43311,7 +43306,7 @@
     <x:row r="1542">
       <x:c r="A1542" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009036</x:t>
+          <x:t>FDAC240009037</x:t>
         </x:is>
       </x:c>
       <x:c r="B1542" t="inlineStr">
@@ -43338,7 +43333,7 @@
     <x:row r="1543">
       <x:c r="A1543" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009037</x:t>
+          <x:t>FDAC240009038</x:t>
         </x:is>
       </x:c>
       <x:c r="B1543" t="inlineStr">
@@ -43365,17 +43360,17 @@
     <x:row r="1544">
       <x:c r="A1544" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009038</x:t>
+          <x:t>FDAC240009039</x:t>
         </x:is>
       </x:c>
       <x:c r="B1544" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1544" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1544" t="inlineStr">
@@ -43385,24 +43380,24 @@
       </x:c>
       <x:c r="G1544" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO DE GUADARRAMA</x:t>
+          <x:t>AYUNTAMIENTO DE PINTO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1545">
       <x:c r="A1545" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009039</x:t>
+          <x:t>FDAC240009040</x:t>
         </x:is>
       </x:c>
       <x:c r="B1545" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>COML0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1545" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE ALMACÉN</x:t>
         </x:is>
       </x:c>
       <x:c r="F1545" t="inlineStr">
@@ -43412,24 +43407,24 @@
       </x:c>
       <x:c r="G1545" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO DE PINTO</x:t>
+          <x:t>AYUNTAMIENTO DE RIVAS VACIAMADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1546">
       <x:c r="A1546" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009040</x:t>
+          <x:t>FDAC240009041</x:t>
         </x:is>
       </x:c>
       <x:c r="B1546" t="inlineStr">
         <x:is>
-          <x:t>COML0110</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C1546" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE ALMACÉN</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1546" t="inlineStr">
@@ -43446,17 +43441,17 @@
     <x:row r="1547">
       <x:c r="A1547" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009041</x:t>
+          <x:t>FDAC240009042</x:t>
         </x:is>
       </x:c>
       <x:c r="B1547" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1547" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1547" t="inlineStr">
@@ -43473,17 +43468,17 @@
     <x:row r="1548">
       <x:c r="A1548" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009042</x:t>
+          <x:t>FDAC240009043</x:t>
         </x:is>
       </x:c>
       <x:c r="B1548" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1548" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F1548" t="inlineStr">
@@ -43500,17 +43495,17 @@
     <x:row r="1549">
       <x:c r="A1549" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009043</x:t>
+          <x:t>FDAC240009044</x:t>
         </x:is>
       </x:c>
       <x:c r="B1549" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1549" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1549" t="inlineStr">
@@ -43527,17 +43522,17 @@
     <x:row r="1550">
       <x:c r="A1550" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009044</x:t>
+          <x:t>FDAC240009047</x:t>
         </x:is>
       </x:c>
       <x:c r="B1550" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C1550" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1550" t="inlineStr">
@@ -43547,24 +43542,24 @@
       </x:c>
       <x:c r="G1550" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO DE RIVAS VACIAMADRID</x:t>
+          <x:t>AYUNTAMIENTO DE SAN SEBASTIAN DE LOS REYES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1551">
       <x:c r="A1551" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009047</x:t>
+          <x:t>FDAC240009048</x:t>
         </x:is>
       </x:c>
       <x:c r="B1551" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>ADGG0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C1551" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1551" t="inlineStr">
@@ -43574,24 +43569,29 @@
       </x:c>
       <x:c r="G1551" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO DE SAN SEBASTIAN DE LOS REYES</x:t>
+          <x:t>AYUNTAMIENTO DE TORREJON DE ARDOZ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1551" t="inlineStr">
+        <x:is>
+          <x:t>Torrejón de Ardoz</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1552">
       <x:c r="A1552" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009048</x:t>
+          <x:t>FDAC240009049</x:t>
         </x:is>
       </x:c>
       <x:c r="B1552" t="inlineStr">
         <x:is>
-          <x:t>ADGG0308</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C1552" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1552" t="inlineStr">
@@ -43613,7 +43613,7 @@
     <x:row r="1553">
       <x:c r="A1553" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009049</x:t>
+          <x:t>FDAC240009050</x:t>
         </x:is>
       </x:c>
       <x:c r="B1553" t="inlineStr">
@@ -43645,17 +43645,17 @@
     <x:row r="1554">
       <x:c r="A1554" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009050</x:t>
+          <x:t>FDAC240009051</x:t>
         </x:is>
       </x:c>
       <x:c r="B1554" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C1554" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1554" t="inlineStr">
@@ -43677,7 +43677,7 @@
     <x:row r="1555">
       <x:c r="A1555" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009051</x:t>
+          <x:t>FDAC240009052</x:t>
         </x:is>
       </x:c>
       <x:c r="B1555" t="inlineStr">
@@ -43709,17 +43709,17 @@
     <x:row r="1556">
       <x:c r="A1556" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009052</x:t>
+          <x:t>FDAC240009053</x:t>
         </x:is>
       </x:c>
       <x:c r="B1556" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C1556" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1556" t="inlineStr">
@@ -43741,7 +43741,7 @@
     <x:row r="1557">
       <x:c r="A1557" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009053</x:t>
+          <x:t>FDAC240009054</x:t>
         </x:is>
       </x:c>
       <x:c r="B1557" t="inlineStr">
@@ -43773,17 +43773,17 @@
     <x:row r="1558">
       <x:c r="A1558" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009054</x:t>
+          <x:t>FDAC240009055</x:t>
         </x:is>
       </x:c>
       <x:c r="B1558" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1558" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F1558" t="inlineStr">
@@ -43805,17 +43805,17 @@
     <x:row r="1559">
       <x:c r="A1559" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009055</x:t>
+          <x:t>FDAC240009056</x:t>
         </x:is>
       </x:c>
       <x:c r="B1559" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1559" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F1559" t="inlineStr">
@@ -43837,17 +43837,17 @@
     <x:row r="1560">
       <x:c r="A1560" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009056</x:t>
+          <x:t>FDAC240009057</x:t>
         </x:is>
       </x:c>
       <x:c r="B1560" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C1560" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1560" t="inlineStr">
@@ -43869,7 +43869,7 @@
     <x:row r="1561">
       <x:c r="A1561" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009057</x:t>
+          <x:t>FDAC240009058</x:t>
         </x:is>
       </x:c>
       <x:c r="B1561" t="inlineStr">
@@ -43901,7 +43901,7 @@
     <x:row r="1562">
       <x:c r="A1562" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009058</x:t>
+          <x:t>FDAC240009059</x:t>
         </x:is>
       </x:c>
       <x:c r="B1562" t="inlineStr">
@@ -43933,17 +43933,17 @@
     <x:row r="1563">
       <x:c r="A1563" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009059</x:t>
+          <x:t>FDAC240009060</x:t>
         </x:is>
       </x:c>
       <x:c r="B1563" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1563" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F1563" t="inlineStr">
@@ -43965,7 +43965,7 @@
     <x:row r="1564">
       <x:c r="A1564" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009060</x:t>
+          <x:t>FDAC240009061</x:t>
         </x:is>
       </x:c>
       <x:c r="B1564" t="inlineStr">
@@ -43997,17 +43997,17 @@
     <x:row r="1565">
       <x:c r="A1565" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009061</x:t>
+          <x:t>FDAC240009062</x:t>
         </x:is>
       </x:c>
       <x:c r="B1565" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1565" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1565" t="inlineStr">
@@ -44029,7 +44029,7 @@
     <x:row r="1566">
       <x:c r="A1566" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009062</x:t>
+          <x:t>FDAC240009063</x:t>
         </x:is>
       </x:c>
       <x:c r="B1566" t="inlineStr">
@@ -44061,7 +44061,7 @@
     <x:row r="1567">
       <x:c r="A1567" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009063</x:t>
+          <x:t>FDAC240009064</x:t>
         </x:is>
       </x:c>
       <x:c r="B1567" t="inlineStr">
@@ -44093,17 +44093,17 @@
     <x:row r="1568">
       <x:c r="A1568" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009064</x:t>
+          <x:t>FDAC240009065</x:t>
         </x:is>
       </x:c>
       <x:c r="B1568" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C1568" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1568" t="inlineStr">
@@ -44113,29 +44113,24 @@
       </x:c>
       <x:c r="G1568" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO DE TORREJON DE ARDOZ</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H1568" t="inlineStr">
-        <x:is>
-          <x:t>Torrejón de Ardoz</x:t>
+          <x:t>AYUNTAMIENTO DE VALDEMORO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1569">
       <x:c r="A1569" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009065</x:t>
+          <x:t>FDAC240009066</x:t>
         </x:is>
       </x:c>
       <x:c r="B1569" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C1569" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="F1569" t="inlineStr">
@@ -44152,17 +44147,17 @@
     <x:row r="1570">
       <x:c r="A1570" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009066</x:t>
+          <x:t>FDAC240009067</x:t>
         </x:is>
       </x:c>
       <x:c r="B1570" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>HOTG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1570" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE VIAJES COMBINADOS Y EVENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1570" t="inlineStr">
@@ -44172,24 +44167,24 @@
       </x:c>
       <x:c r="G1570" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO DE VALDEMORO</x:t>
+          <x:t>AYUNTAMIENTO ARGANDA DEL REY</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1571">
       <x:c r="A1571" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009067</x:t>
+          <x:t>FDAC240009070</x:t>
         </x:is>
       </x:c>
       <x:c r="B1571" t="inlineStr">
         <x:is>
-          <x:t>HOTG0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1571" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE VIAJES COMBINADOS Y EVENTOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1571" t="inlineStr">
@@ -44199,24 +44194,24 @@
       </x:c>
       <x:c r="G1571" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO ARGANDA DEL REY</x:t>
+          <x:t>AYTO S.LORENZO DE EL ESCORIAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1572">
       <x:c r="A1572" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009070</x:t>
+          <x:t>FDAC240009077</x:t>
         </x:is>
       </x:c>
       <x:c r="B1572" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C1572" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F1572" t="inlineStr">
@@ -44226,24 +44221,29 @@
       </x:c>
       <x:c r="G1572" t="inlineStr">
         <x:is>
-          <x:t>AYTO S.LORENZO DE EL ESCORIAL</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1572" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1573">
       <x:c r="A1573" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009077</x:t>
+          <x:t>FDAC240009079</x:t>
         </x:is>
       </x:c>
       <x:c r="B1573" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>SSCE03_1</x:t>
         </x:is>
       </x:c>
       <x:c r="C1573" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>INGLÉS B1</x:t>
         </x:is>
       </x:c>
       <x:c r="F1573" t="inlineStr">
@@ -44265,17 +44265,17 @@
     <x:row r="1574">
       <x:c r="A1574" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009079</x:t>
+          <x:t>FDAC240009080</x:t>
         </x:is>
       </x:c>
       <x:c r="B1574" t="inlineStr">
         <x:is>
-          <x:t>SSCE03_1</x:t>
+          <x:t>SSCE04_1</x:t>
         </x:is>
       </x:c>
       <x:c r="C1574" t="inlineStr">
         <x:is>
-          <x:t>INGLÉS B1</x:t>
+          <x:t>INGLÉS B2</x:t>
         </x:is>
       </x:c>
       <x:c r="F1574" t="inlineStr">
@@ -44297,17 +44297,17 @@
     <x:row r="1575">
       <x:c r="A1575" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009080</x:t>
+          <x:t>FDAC240009086</x:t>
         </x:is>
       </x:c>
       <x:c r="B1575" t="inlineStr">
         <x:is>
-          <x:t>SSCE04_1</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1575" t="inlineStr">
         <x:is>
-          <x:t>INGLÉS B2</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1575" t="inlineStr">
@@ -44317,19 +44317,14 @@
       </x:c>
       <x:c r="G1575" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION Y EL EMPLEO</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H1575" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>CIUDAD DEPORTIVA MUNICIPAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1576">
       <x:c r="A1576" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009086</x:t>
+          <x:t>FDAC240009087</x:t>
         </x:is>
       </x:c>
       <x:c r="B1576" t="inlineStr">
@@ -44356,17 +44351,17 @@
     <x:row r="1577">
       <x:c r="A1577" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009087</x:t>
+          <x:t>FDAC240009088</x:t>
         </x:is>
       </x:c>
       <x:c r="B1577" t="inlineStr">
         <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>AGAO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1577" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1577" t="inlineStr">
@@ -44383,7 +44378,7 @@
     <x:row r="1578">
       <x:c r="A1578" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009088</x:t>
+          <x:t>FDAC240009089</x:t>
         </x:is>
       </x:c>
       <x:c r="B1578" t="inlineStr">
@@ -44410,17 +44405,17 @@
     <x:row r="1579">
       <x:c r="A1579" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009089</x:t>
+          <x:t>FDAC240009090</x:t>
         </x:is>
       </x:c>
       <x:c r="B1579" t="inlineStr">
         <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1579" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1579" t="inlineStr">
@@ -44437,7 +44432,7 @@
     <x:row r="1580">
       <x:c r="A1580" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009090</x:t>
+          <x:t>FDAC240009091</x:t>
         </x:is>
       </x:c>
       <x:c r="B1580" t="inlineStr">
@@ -44464,7 +44459,7 @@
     <x:row r="1581">
       <x:c r="A1581" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009091</x:t>
+          <x:t>FDAC240009092</x:t>
         </x:is>
       </x:c>
       <x:c r="B1581" t="inlineStr">
@@ -44491,17 +44486,17 @@
     <x:row r="1582">
       <x:c r="A1582" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009092</x:t>
+          <x:t>FDAC240009093</x:t>
         </x:is>
       </x:c>
       <x:c r="B1582" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C1582" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1582" t="inlineStr">
@@ -44518,17 +44513,17 @@
     <x:row r="1583">
       <x:c r="A1583" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009093</x:t>
+          <x:t>FDAC240009094</x:t>
         </x:is>
       </x:c>
       <x:c r="B1583" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C1583" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>REPOSTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1583" t="inlineStr">
@@ -44545,17 +44540,17 @@
     <x:row r="1584">
       <x:c r="A1584" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009094</x:t>
+          <x:t>FDAC240009095</x:t>
         </x:is>
       </x:c>
       <x:c r="B1584" t="inlineStr">
         <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1584" t="inlineStr">
         <x:is>
-          <x:t>REPOSTERÍA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F1584" t="inlineStr">
@@ -44572,17 +44567,17 @@
     <x:row r="1585">
       <x:c r="A1585" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009095</x:t>
+          <x:t>FDAC240009100</x:t>
         </x:is>
       </x:c>
       <x:c r="B1585" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>COML0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1585" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE ALMACÉN</x:t>
         </x:is>
       </x:c>
       <x:c r="F1585" t="inlineStr">
@@ -44592,24 +44587,24 @@
       </x:c>
       <x:c r="G1585" t="inlineStr">
         <x:is>
-          <x:t>CIUDAD DEPORTIVA MUNICIPAL</x:t>
+          <x:t>ENTE PUBLICO EMPRESARIAL ALCALA DESARROLLO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1586">
       <x:c r="A1586" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009100</x:t>
+          <x:t>FDAC240009107</x:t>
         </x:is>
       </x:c>
       <x:c r="B1586" t="inlineStr">
         <x:is>
-          <x:t>COML0110</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C1586" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE ALMACÉN</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1586" t="inlineStr">
@@ -44619,24 +44614,24 @@
       </x:c>
       <x:c r="G1586" t="inlineStr">
         <x:is>
-          <x:t>ENTE PUBLICO EMPRESARIAL ALCALA DESARROLLO</x:t>
+          <x:t>INSTITUTO MUNICIPAL PARA EL EMPLEO Y LA PROMOCION ECONOMICA DE ALCORCON</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1587">
       <x:c r="A1587" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009107</x:t>
+          <x:t>FDAC240009108</x:t>
         </x:is>
       </x:c>
       <x:c r="B1587" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C1587" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1587" t="inlineStr">
@@ -44653,7 +44648,7 @@
     <x:row r="1588">
       <x:c r="A1588" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009108</x:t>
+          <x:t>FDAC240009109</x:t>
         </x:is>
       </x:c>
       <x:c r="B1588" t="inlineStr">
@@ -44680,17 +44675,17 @@
     <x:row r="1589">
       <x:c r="A1589" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009109</x:t>
+          <x:t>FDAC240009110</x:t>
         </x:is>
       </x:c>
       <x:c r="B1589" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>SSCB0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1589" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>DINAMIZACIÓN, PROGRAMACIÓN Y DESARROLLO DE ACCIONES CULTURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1589" t="inlineStr">
@@ -44707,17 +44702,17 @@
     <x:row r="1590">
       <x:c r="A1590" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009110</x:t>
+          <x:t>FDAC240009111</x:t>
         </x:is>
       </x:c>
       <x:c r="B1590" t="inlineStr">
         <x:is>
-          <x:t>SSCB0110</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1590" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN, PROGRAMACIÓN Y DESARROLLO DE ACCIONES CULTURALES</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F1590" t="inlineStr">
@@ -44734,7 +44729,7 @@
     <x:row r="1591">
       <x:c r="A1591" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009111</x:t>
+          <x:t>FDAC240009112</x:t>
         </x:is>
       </x:c>
       <x:c r="B1591" t="inlineStr">
@@ -44761,17 +44756,17 @@
     <x:row r="1592">
       <x:c r="A1592" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009112</x:t>
+          <x:t>FDAC240009113</x:t>
         </x:is>
       </x:c>
       <x:c r="B1592" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1592" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1592" t="inlineStr">
@@ -44788,7 +44783,7 @@
     <x:row r="1593">
       <x:c r="A1593" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009113</x:t>
+          <x:t>FDAC240009114</x:t>
         </x:is>
       </x:c>
       <x:c r="B1593" t="inlineStr">
@@ -44815,17 +44810,17 @@
     <x:row r="1594">
       <x:c r="A1594" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009114</x:t>
+          <x:t>FDAC240009115</x:t>
         </x:is>
       </x:c>
       <x:c r="B1594" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1594" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F1594" t="inlineStr">
@@ -44835,14 +44830,14 @@
       </x:c>
       <x:c r="G1594" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO MUNICIPAL PARA EL EMPLEO Y LA PROMOCION ECONOMICA DE ALCORCON</x:t>
+          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1595">
       <x:c r="A1595" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009115</x:t>
+          <x:t>FDAC240009116</x:t>
         </x:is>
       </x:c>
       <x:c r="B1595" t="inlineStr">
@@ -44869,17 +44864,17 @@
     <x:row r="1596">
       <x:c r="A1596" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009116</x:t>
+          <x:t>FDAC240009117</x:t>
         </x:is>
       </x:c>
       <x:c r="B1596" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C1596" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1596" t="inlineStr">
@@ -44896,17 +44891,17 @@
     <x:row r="1597">
       <x:c r="A1597" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009117</x:t>
+          <x:t>FDAC240009118</x:t>
         </x:is>
       </x:c>
       <x:c r="B1597" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C1597" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1597" t="inlineStr">
@@ -44923,17 +44918,17 @@
     <x:row r="1598">
       <x:c r="A1598" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009118</x:t>
+          <x:t>FDAC240009119</x:t>
         </x:is>
       </x:c>
       <x:c r="B1598" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>AFDA0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C1598" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>INSTRUCCIÓN EN YOGA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1598" t="inlineStr">
@@ -44950,17 +44945,17 @@
     <x:row r="1599">
       <x:c r="A1599" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009119</x:t>
+          <x:t>FDAC240009121</x:t>
         </x:is>
       </x:c>
       <x:c r="B1599" t="inlineStr">
         <x:is>
-          <x:t>AFDA0311</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1599" t="inlineStr">
         <x:is>
-          <x:t>INSTRUCCIÓN EN YOGA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1599" t="inlineStr">
@@ -44977,17 +44972,17 @@
     <x:row r="1600">
       <x:c r="A1600" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009121</x:t>
+          <x:t>FDAC240009123</x:t>
         </x:is>
       </x:c>
       <x:c r="B1600" t="inlineStr">
         <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C1600" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F1600" t="inlineStr">
@@ -45004,17 +44999,17 @@
     <x:row r="1601">
       <x:c r="A1601" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009123</x:t>
+          <x:t>FDAC240009125</x:t>
         </x:is>
       </x:c>
       <x:c r="B1601" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>EOCB0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C1601" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>OPERACIONES AUXILIARES DE REVESTIMIENTOS CONTINUOS EN CONSTRUCCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F1601" t="inlineStr">
@@ -45031,17 +45026,17 @@
     <x:row r="1602">
       <x:c r="A1602" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009125</x:t>
+          <x:t>FDAC240009126</x:t>
         </x:is>
       </x:c>
       <x:c r="B1602" t="inlineStr">
         <x:is>
-          <x:t>EOCB0109</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1602" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE REVESTIMIENTOS CONTINUOS EN CONSTRUCCIÓN</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F1602" t="inlineStr">
@@ -45058,17 +45053,17 @@
     <x:row r="1603">
       <x:c r="A1603" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009126</x:t>
+          <x:t>FDAC240009128</x:t>
         </x:is>
       </x:c>
       <x:c r="B1603" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1603" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1603" t="inlineStr">
@@ -45085,7 +45080,7 @@
     <x:row r="1604">
       <x:c r="A1604" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009128</x:t>
+          <x:t>FDAC240009129</x:t>
         </x:is>
       </x:c>
       <x:c r="B1604" t="inlineStr">
@@ -45112,17 +45107,17 @@
     <x:row r="1605">
       <x:c r="A1605" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009129</x:t>
+          <x:t>FDAC240009130</x:t>
         </x:is>
       </x:c>
       <x:c r="B1605" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1605" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1605" t="inlineStr">
@@ -45139,17 +45134,17 @@
     <x:row r="1606">
       <x:c r="A1606" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009130</x:t>
+          <x:t>FDAC240009134</x:t>
         </x:is>
       </x:c>
       <x:c r="B1606" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1606" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F1606" t="inlineStr">
@@ -45166,7 +45161,7 @@
     <x:row r="1607">
       <x:c r="A1607" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009134</x:t>
+          <x:t>FDAC240009135</x:t>
         </x:is>
       </x:c>
       <x:c r="B1607" t="inlineStr">
@@ -45193,17 +45188,17 @@
     <x:row r="1608">
       <x:c r="A1608" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009135</x:t>
+          <x:t>FDAC240009136</x:t>
         </x:is>
       </x:c>
       <x:c r="B1608" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C1608" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1608" t="inlineStr">
@@ -45220,17 +45215,17 @@
     <x:row r="1609">
       <x:c r="A1609" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009136</x:t>
+          <x:t>FDAC240009138</x:t>
         </x:is>
       </x:c>
       <x:c r="B1609" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C1609" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="F1609" t="inlineStr">
@@ -45247,17 +45242,17 @@
     <x:row r="1610">
       <x:c r="A1610" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009138</x:t>
+          <x:t>FDAC240009139</x:t>
         </x:is>
       </x:c>
       <x:c r="B1610" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>SSCE01_1</x:t>
         </x:is>
       </x:c>
       <x:c r="C1610" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>INGLÉS A1</x:t>
         </x:is>
       </x:c>
       <x:c r="F1610" t="inlineStr">
@@ -45274,17 +45269,17 @@
     <x:row r="1611">
       <x:c r="A1611" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009139</x:t>
+          <x:t>FDAC240009140</x:t>
         </x:is>
       </x:c>
       <x:c r="B1611" t="inlineStr">
         <x:is>
-          <x:t>SSCE01_1</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1611" t="inlineStr">
         <x:is>
-          <x:t>INGLÉS A1</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F1611" t="inlineStr">
@@ -45301,7 +45296,7 @@
     <x:row r="1612">
       <x:c r="A1612" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009140</x:t>
+          <x:t>FDAC240009141</x:t>
         </x:is>
       </x:c>
       <x:c r="B1612" t="inlineStr">
@@ -45328,17 +45323,17 @@
     <x:row r="1613">
       <x:c r="A1613" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009141</x:t>
+          <x:t>FDAC240009143</x:t>
         </x:is>
       </x:c>
       <x:c r="B1613" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SSCE02_1</x:t>
         </x:is>
       </x:c>
       <x:c r="C1613" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>INGLÉS A2</x:t>
         </x:is>
       </x:c>
       <x:c r="F1613" t="inlineStr">
@@ -45355,17 +45350,17 @@
     <x:row r="1614">
       <x:c r="A1614" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009143</x:t>
+          <x:t>FDAC240009144</x:t>
         </x:is>
       </x:c>
       <x:c r="B1614" t="inlineStr">
         <x:is>
-          <x:t>SSCE02_1</x:t>
+          <x:t>SSCE03_1</x:t>
         </x:is>
       </x:c>
       <x:c r="C1614" t="inlineStr">
         <x:is>
-          <x:t>INGLÉS A2</x:t>
+          <x:t>INGLÉS B1</x:t>
         </x:is>
       </x:c>
       <x:c r="F1614" t="inlineStr">
@@ -45382,17 +45377,17 @@
     <x:row r="1615">
       <x:c r="A1615" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009144</x:t>
+          <x:t>FDAC240009146</x:t>
         </x:is>
       </x:c>
       <x:c r="B1615" t="inlineStr">
         <x:is>
-          <x:t>SSCE03_1</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C1615" t="inlineStr">
         <x:is>
-          <x:t>INGLÉS B1</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1615" t="inlineStr">
@@ -45409,17 +45404,17 @@
     <x:row r="1616">
       <x:c r="A1616" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009146</x:t>
+          <x:t>FDAC240009148</x:t>
         </x:is>
       </x:c>
       <x:c r="B1616" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1616" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1616" t="inlineStr">
@@ -45436,17 +45431,17 @@
     <x:row r="1617">
       <x:c r="A1617" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009148</x:t>
+          <x:t>FDAC240009149</x:t>
         </x:is>
       </x:c>
       <x:c r="B1617" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1617" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1617" t="inlineStr">
@@ -45463,7 +45458,7 @@
     <x:row r="1618">
       <x:c r="A1618" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009149</x:t>
+          <x:t>FDAC240009150</x:t>
         </x:is>
       </x:c>
       <x:c r="B1618" t="inlineStr">
@@ -45490,7 +45485,7 @@
     <x:row r="1619">
       <x:c r="A1619" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009150</x:t>
+          <x:t>FDAC240009151</x:t>
         </x:is>
       </x:c>
       <x:c r="B1619" t="inlineStr">
@@ -45517,17 +45512,17 @@
     <x:row r="1620">
       <x:c r="A1620" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009151</x:t>
+          <x:t>FDAC240009153</x:t>
         </x:is>
       </x:c>
       <x:c r="B1620" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>AGAO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1620" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1620" t="inlineStr">
@@ -45537,24 +45532,24 @@
       </x:c>
       <x:c r="G1620" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
+          <x:t>ORGANISMO AUTONOMO AGENCIA LOCAL EMPLEO Y FORMACIÓN</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1621">
       <x:c r="A1621" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009153</x:t>
+          <x:t>FDAC240009154</x:t>
         </x:is>
       </x:c>
       <x:c r="B1621" t="inlineStr">
         <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C1621" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1621" t="inlineStr">
@@ -45571,17 +45566,17 @@
     <x:row r="1622">
       <x:c r="A1622" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009154</x:t>
+          <x:t>FDAC240009155</x:t>
         </x:is>
       </x:c>
       <x:c r="B1622" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>FMEA0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C1622" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>MONTAJE DE ESTRUCTURAS E INSTALACIÓN DE SISTEMAS Y EQUIPOS DE AERONAVES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1622" t="inlineStr">
@@ -45598,7 +45593,7 @@
     <x:row r="1623">
       <x:c r="A1623" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009155</x:t>
+          <x:t>FDAC240009156</x:t>
         </x:is>
       </x:c>
       <x:c r="B1623" t="inlineStr">
@@ -45625,17 +45620,17 @@
     <x:row r="1624">
       <x:c r="A1624" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009156</x:t>
+          <x:t>FDAC240009157</x:t>
         </x:is>
       </x:c>
       <x:c r="B1624" t="inlineStr">
         <x:is>
-          <x:t>FMEA0111</x:t>
+          <x:t>FMEA0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C1624" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE DE ESTRUCTURAS E INSTALACIÓN DE SISTEMAS Y EQUIPOS DE AERONAVES</x:t>
+          <x:t>FABRICACIÓN DE ELEMENTOS AEROESPACIALES CON MATERIALES COMPUESTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1624" t="inlineStr">
@@ -45652,17 +45647,17 @@
     <x:row r="1625">
       <x:c r="A1625" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009157</x:t>
+          <x:t>FDAC240009158</x:t>
         </x:is>
       </x:c>
       <x:c r="B1625" t="inlineStr">
         <x:is>
-          <x:t>FMEA0211</x:t>
+          <x:t>FMEC0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C1625" t="inlineStr">
         <x:is>
-          <x:t>FABRICACIÓN DE ELEMENTOS AEROESPACIALES CON MATERIALES COMPUESTOS</x:t>
+          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
         </x:is>
       </x:c>
       <x:c r="F1625" t="inlineStr">
@@ -45679,17 +45674,17 @@
     <x:row r="1626">
       <x:c r="A1626" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009158</x:t>
+          <x:t>FDAC240009159</x:t>
         </x:is>
       </x:c>
       <x:c r="B1626" t="inlineStr">
         <x:is>
-          <x:t>FMEC0210</x:t>
+          <x:t>FMEH0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C1626" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
+          <x:t>MECANIZADO POR ARRANQUE DE VIRUTA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1626" t="inlineStr">
@@ -45706,7 +45701,7 @@
     <x:row r="1627">
       <x:c r="A1627" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009159</x:t>
+          <x:t>FDAC240009160</x:t>
         </x:is>
       </x:c>
       <x:c r="B1627" t="inlineStr">
@@ -45733,17 +45728,17 @@
     <x:row r="1628">
       <x:c r="A1628" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009160</x:t>
+          <x:t>FDAC240009161</x:t>
         </x:is>
       </x:c>
       <x:c r="B1628" t="inlineStr">
         <x:is>
-          <x:t>FMEH0109</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1628" t="inlineStr">
         <x:is>
-          <x:t>MECANIZADO POR ARRANQUE DE VIRUTA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F1628" t="inlineStr">
@@ -45760,17 +45755,17 @@
     <x:row r="1629">
       <x:c r="A1629" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009161</x:t>
+          <x:t>FDAC240009162</x:t>
         </x:is>
       </x:c>
       <x:c r="B1629" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C1629" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1629" t="inlineStr">
@@ -45787,17 +45782,17 @@
     <x:row r="1630">
       <x:c r="A1630" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009162</x:t>
+          <x:t>FDAC240009163</x:t>
         </x:is>
       </x:c>
       <x:c r="B1630" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1630" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F1630" t="inlineStr">
@@ -45814,7 +45809,7 @@
     <x:row r="1631">
       <x:c r="A1631" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009163</x:t>
+          <x:t>FDAC240009164</x:t>
         </x:is>
       </x:c>
       <x:c r="B1631" t="inlineStr">
@@ -45841,17 +45836,17 @@
     <x:row r="1632">
       <x:c r="A1632" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009164</x:t>
+          <x:t>FDAC240009165</x:t>
         </x:is>
       </x:c>
       <x:c r="B1632" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C1632" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1632" t="inlineStr">
@@ -45868,17 +45863,17 @@
     <x:row r="1633">
       <x:c r="A1633" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009165</x:t>
+          <x:t>FDAC240009166</x:t>
         </x:is>
       </x:c>
       <x:c r="B1633" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1633" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1633" t="inlineStr">
@@ -45895,7 +45890,7 @@
     <x:row r="1634">
       <x:c r="A1634" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009166</x:t>
+          <x:t>FDAC240009167</x:t>
         </x:is>
       </x:c>
       <x:c r="B1634" t="inlineStr">
@@ -45922,22 +45917,22 @@
     <x:row r="1635">
       <x:c r="A1635" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009167</x:t>
+          <x:t>FDAC240009168</x:t>
         </x:is>
       </x:c>
       <x:c r="B1635" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ADGD0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1635" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>GESTIÓN INTEGRADA DE RECURSOS HUMANOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1635" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G1635" t="inlineStr">
@@ -45949,17 +45944,17 @@
     <x:row r="1636">
       <x:c r="A1636" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009168</x:t>
+          <x:t>FDAC240009169</x:t>
         </x:is>
       </x:c>
       <x:c r="B1636" t="inlineStr">
         <x:is>
-          <x:t>ADGD0208</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1636" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN INTEGRADA DE RECURSOS HUMANOS</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F1636" t="inlineStr">
@@ -45976,34 +45971,39 @@
     <x:row r="1637">
       <x:c r="A1637" t="inlineStr">
         <x:is>
-          <x:t>FDAC240009169</x:t>
+          <x:t>FCCC240008500</x:t>
         </x:is>
       </x:c>
       <x:c r="B1637" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1637" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F1637" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G1637" t="inlineStr">
         <x:is>
-          <x:t>ORGANISMO AUTONOMO AGENCIA LOCAL EMPLEO Y FORMACIÓN</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1637" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1638">
       <x:c r="A1638" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008500</x:t>
+          <x:t>FCCC240008501</x:t>
         </x:is>
       </x:c>
       <x:c r="B1638" t="inlineStr">
@@ -46035,7 +46035,7 @@
     <x:row r="1639">
       <x:c r="A1639" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008501</x:t>
+          <x:t>FCCC240008502</x:t>
         </x:is>
       </x:c>
       <x:c r="B1639" t="inlineStr">
@@ -46067,17 +46067,17 @@
     <x:row r="1640">
       <x:c r="A1640" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008502</x:t>
+          <x:t>FCCC240008503</x:t>
         </x:is>
       </x:c>
       <x:c r="B1640" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1640" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1640" t="inlineStr">
@@ -46099,7 +46099,7 @@
     <x:row r="1641">
       <x:c r="A1641" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008503</x:t>
+          <x:t>FCCC240008504</x:t>
         </x:is>
       </x:c>
       <x:c r="B1641" t="inlineStr">
@@ -46131,17 +46131,17 @@
     <x:row r="1642">
       <x:c r="A1642" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008504</x:t>
+          <x:t>FCCC240008506</x:t>
         </x:is>
       </x:c>
       <x:c r="B1642" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ADGG0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C1642" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1642" t="inlineStr">
@@ -46151,29 +46151,29 @@
       </x:c>
       <x:c r="G1642" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+          <x:t>FIVE ALCALA</x:t>
         </x:is>
       </x:c>
       <x:c r="H1642" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>ALCALA DE HENARES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1643">
       <x:c r="A1643" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008506</x:t>
+          <x:t>FCCC240008507</x:t>
         </x:is>
       </x:c>
       <x:c r="B1643" t="inlineStr">
         <x:is>
-          <x:t>ADGG0308</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1643" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1643" t="inlineStr">
@@ -46183,29 +46183,29 @@
       </x:c>
       <x:c r="G1643" t="inlineStr">
         <x:is>
-          <x:t>FIVE ALCALA</x:t>
+          <x:t>FIVE MOSTOLES</x:t>
         </x:is>
       </x:c>
       <x:c r="H1643" t="inlineStr">
         <x:is>
-          <x:t>ALCALA DE HENARES</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1644">
       <x:c r="A1644" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008507</x:t>
+          <x:t>FCCC240008508</x:t>
         </x:is>
       </x:c>
       <x:c r="B1644" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1644" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F1644" t="inlineStr">
@@ -46215,29 +46215,29 @@
       </x:c>
       <x:c r="G1644" t="inlineStr">
         <x:is>
-          <x:t>FIVE MOSTOLES</x:t>
+          <x:t>CAMPUS FP VISTA ALEGRE</x:t>
         </x:is>
       </x:c>
       <x:c r="H1644" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1645">
       <x:c r="A1645" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008508</x:t>
+          <x:t>FCCC240008509</x:t>
         </x:is>
       </x:c>
       <x:c r="B1645" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C1645" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1645" t="inlineStr">
@@ -46259,7 +46259,7 @@
     <x:row r="1646">
       <x:c r="A1646" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008509</x:t>
+          <x:t>FCCC240008510</x:t>
         </x:is>
       </x:c>
       <x:c r="B1646" t="inlineStr">
@@ -46279,29 +46279,29 @@
       </x:c>
       <x:c r="G1646" t="inlineStr">
         <x:is>
-          <x:t>CAMPUS FP VISTA ALEGRE</x:t>
+          <x:t>CENES</x:t>
         </x:is>
       </x:c>
       <x:c r="H1646" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>GETAFE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1647">
       <x:c r="A1647" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008510</x:t>
+          <x:t>FCCC240008511</x:t>
         </x:is>
       </x:c>
       <x:c r="B1647" t="inlineStr">
         <x:is>
-          <x:t>ADGG0308</x:t>
+          <x:t>IFCD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C1647" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F1647" t="inlineStr">
@@ -46311,29 +46311,29 @@
       </x:c>
       <x:c r="G1647" t="inlineStr">
         <x:is>
-          <x:t>CENES</x:t>
+          <x:t>CEFORA S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H1647" t="inlineStr">
         <x:is>
-          <x:t>GETAFE</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1648">
       <x:c r="A1648" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008511</x:t>
+          <x:t>FCCC240008512</x:t>
         </x:is>
       </x:c>
       <x:c r="B1648" t="inlineStr">
         <x:is>
-          <x:t>IFCD0210</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C1648" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍAS WEB</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F1648" t="inlineStr">
@@ -46343,7 +46343,7 @@
       </x:c>
       <x:c r="G1648" t="inlineStr">
         <x:is>
-          <x:t>CEFORA S.L.</x:t>
+          <x:t>KIWORKS-CAMPUS FP MÓSTOLES</x:t>
         </x:is>
       </x:c>
       <x:c r="H1648" t="inlineStr">
@@ -46355,17 +46355,17 @@
     <x:row r="1649">
       <x:c r="A1649" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008512</x:t>
+          <x:t>FCCC240008513</x:t>
         </x:is>
       </x:c>
       <x:c r="B1649" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>ADGG0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C1649" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1649" t="inlineStr">
@@ -46375,29 +46375,29 @@
       </x:c>
       <x:c r="G1649" t="inlineStr">
         <x:is>
-          <x:t>KIWORKS-CAMPUS FP MÓSTOLES</x:t>
+          <x:t>KIWORKS CUATRO CAMINOS</x:t>
         </x:is>
       </x:c>
       <x:c r="H1649" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1650">
       <x:c r="A1650" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008513</x:t>
+          <x:t>FCCC240008514</x:t>
         </x:is>
       </x:c>
       <x:c r="B1650" t="inlineStr">
         <x:is>
-          <x:t>ADGG0308</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1650" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F1650" t="inlineStr">
@@ -46407,7 +46407,7 @@
       </x:c>
       <x:c r="G1650" t="inlineStr">
         <x:is>
-          <x:t>KIWORKS CUATRO CAMINOS</x:t>
+          <x:t>CEO ASURA</x:t>
         </x:is>
       </x:c>
       <x:c r="H1650" t="inlineStr">
@@ -46419,17 +46419,17 @@
     <x:row r="1651">
       <x:c r="A1651" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008514</x:t>
+          <x:t>FCCC240008515</x:t>
         </x:is>
       </x:c>
       <x:c r="B1651" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C1651" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1651" t="inlineStr">
@@ -46439,29 +46439,29 @@
       </x:c>
       <x:c r="G1651" t="inlineStr">
         <x:is>
-          <x:t>CEO ASURA</x:t>
+          <x:t>EMPRENDE</x:t>
         </x:is>
       </x:c>
       <x:c r="H1651" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>HUMANES DE MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1652">
       <x:c r="A1652" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008515</x:t>
+          <x:t>FCCC240008516</x:t>
         </x:is>
       </x:c>
       <x:c r="B1652" t="inlineStr">
         <x:is>
-          <x:t>ADGG0308</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1652" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1652" t="inlineStr">
@@ -46471,19 +46471,19 @@
       </x:c>
       <x:c r="G1652" t="inlineStr">
         <x:is>
-          <x:t>EMPRENDE</x:t>
+          <x:t>CENTRO DE FORMACION ASISPA</x:t>
         </x:is>
       </x:c>
       <x:c r="H1652" t="inlineStr">
         <x:is>
-          <x:t>HUMANES DE MADRID</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1653">
       <x:c r="A1653" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008516</x:t>
+          <x:t>FCCC240008517</x:t>
         </x:is>
       </x:c>
       <x:c r="B1653" t="inlineStr">
@@ -46515,7 +46515,7 @@
     <x:row r="1654">
       <x:c r="A1654" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008517</x:t>
+          <x:t>FCCC240008518</x:t>
         </x:is>
       </x:c>
       <x:c r="B1654" t="inlineStr">
@@ -46547,7 +46547,7 @@
     <x:row r="1655">
       <x:c r="A1655" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008518</x:t>
+          <x:t>FCCC240008519</x:t>
         </x:is>
       </x:c>
       <x:c r="B1655" t="inlineStr">
@@ -46579,17 +46579,17 @@
     <x:row r="1656">
       <x:c r="A1656" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008519</x:t>
+          <x:t>FCCC240008523</x:t>
         </x:is>
       </x:c>
       <x:c r="B1656" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1656" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1656" t="inlineStr">
@@ -46599,19 +46599,19 @@
       </x:c>
       <x:c r="G1656" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION ASISPA</x:t>
+          <x:t>MFD FORMACION SAG SOLAR</x:t>
         </x:is>
       </x:c>
       <x:c r="H1656" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1657">
       <x:c r="A1657" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008523</x:t>
+          <x:t>FCCC240008524</x:t>
         </x:is>
       </x:c>
       <x:c r="B1657" t="inlineStr">
@@ -46643,17 +46643,17 @@
     <x:row r="1658">
       <x:c r="A1658" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008524</x:t>
+          <x:t>FCCC240008525</x:t>
         </x:is>
       </x:c>
       <x:c r="B1658" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1658" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1658" t="inlineStr">
@@ -46675,7 +46675,7 @@
     <x:row r="1659">
       <x:c r="A1659" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008525</x:t>
+          <x:t>FCCC240008526</x:t>
         </x:is>
       </x:c>
       <x:c r="B1659" t="inlineStr">
@@ -46707,17 +46707,17 @@
     <x:row r="1660">
       <x:c r="A1660" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008526</x:t>
+          <x:t>FCCC240008529</x:t>
         </x:is>
       </x:c>
       <x:c r="B1660" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1660" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F1660" t="inlineStr">
@@ -46727,29 +46727,29 @@
       </x:c>
       <x:c r="G1660" t="inlineStr">
         <x:is>
-          <x:t>MFD FORMACION SAG SOLAR</x:t>
+          <x:t>CDM FORMACION ALCORCON</x:t>
         </x:is>
       </x:c>
       <x:c r="H1660" t="inlineStr">
         <x:is>
-          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
+          <x:t>ALCORCON</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1661">
       <x:c r="A1661" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008529</x:t>
+          <x:t>FCCC240008530</x:t>
         </x:is>
       </x:c>
       <x:c r="B1661" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C1661" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1661" t="inlineStr">
@@ -46771,17 +46771,17 @@
     <x:row r="1662">
       <x:c r="A1662" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008530</x:t>
+          <x:t>FCCC240008531</x:t>
         </x:is>
       </x:c>
       <x:c r="B1662" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1662" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F1662" t="inlineStr">
@@ -46791,29 +46791,29 @@
       </x:c>
       <x:c r="G1662" t="inlineStr">
         <x:is>
-          <x:t>CDM FORMACION ALCORCON</x:t>
+          <x:t>CDM MOSTOLES CENTRO</x:t>
         </x:is>
       </x:c>
       <x:c r="H1662" t="inlineStr">
         <x:is>
-          <x:t>ALCORCON</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1663">
       <x:c r="A1663" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008531</x:t>
+          <x:t>FCCC240008532</x:t>
         </x:is>
       </x:c>
       <x:c r="B1663" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C1663" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1663" t="inlineStr">
@@ -46835,17 +46835,17 @@
     <x:row r="1664">
       <x:c r="A1664" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008532</x:t>
+          <x:t>FCCC240008533</x:t>
         </x:is>
       </x:c>
       <x:c r="B1664" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1664" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1664" t="inlineStr">
@@ -46855,19 +46855,19 @@
       </x:c>
       <x:c r="G1664" t="inlineStr">
         <x:is>
-          <x:t>CDM MOSTOLES CENTRO</x:t>
+          <x:t>KAPACITA COMPETENCIAS PROFESIONALES SL</x:t>
         </x:is>
       </x:c>
       <x:c r="H1664" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1665">
       <x:c r="A1665" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008533</x:t>
+          <x:t>FCCC240008534</x:t>
         </x:is>
       </x:c>
       <x:c r="B1665" t="inlineStr">
@@ -46899,7 +46899,7 @@
     <x:row r="1666">
       <x:c r="A1666" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008534</x:t>
+          <x:t>FCCC240008535</x:t>
         </x:is>
       </x:c>
       <x:c r="B1666" t="inlineStr">
@@ -46931,7 +46931,7 @@
     <x:row r="1667">
       <x:c r="A1667" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008535</x:t>
+          <x:t>FCCC240008536</x:t>
         </x:is>
       </x:c>
       <x:c r="B1667" t="inlineStr">
@@ -46951,7 +46951,7 @@
       </x:c>
       <x:c r="G1667" t="inlineStr">
         <x:is>
-          <x:t>KAPACITA COMPETENCIAS PROFESIONALES SL</x:t>
+          <x:t>FORO TÉCNICO DE FORMACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="H1667" t="inlineStr">
@@ -46963,7 +46963,7 @@
     <x:row r="1668">
       <x:c r="A1668" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008536</x:t>
+          <x:t>FCCC240008537</x:t>
         </x:is>
       </x:c>
       <x:c r="B1668" t="inlineStr">
@@ -46995,7 +46995,7 @@
     <x:row r="1669">
       <x:c r="A1669" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008537</x:t>
+          <x:t>FCCC240008538</x:t>
         </x:is>
       </x:c>
       <x:c r="B1669" t="inlineStr">
@@ -47027,7 +47027,7 @@
     <x:row r="1670">
       <x:c r="A1670" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008538</x:t>
+          <x:t>FCCC240008539</x:t>
         </x:is>
       </x:c>
       <x:c r="B1670" t="inlineStr">
@@ -47059,39 +47059,34 @@
     <x:row r="1671">
       <x:c r="A1671" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008539</x:t>
+          <x:t>FCCC240008540</x:t>
         </x:is>
       </x:c>
       <x:c r="B1671" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ADGD0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1671" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>GESTIÓN INTEGRADA DE RECURSOS HUMANOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1671" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G1671" t="inlineStr">
         <x:is>
-          <x:t>FORO TÉCNICO DE FORMACIÓN</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H1671" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>PROYECTAEMPLEO TELEFORMACIÓN</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1672">
       <x:c r="A1672" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008540</x:t>
+          <x:t>FCCC240008541</x:t>
         </x:is>
       </x:c>
       <x:c r="B1672" t="inlineStr">
@@ -47118,34 +47113,39 @@
     <x:row r="1673">
       <x:c r="A1673" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008541</x:t>
+          <x:t>FCCC240008542</x:t>
         </x:is>
       </x:c>
       <x:c r="B1673" t="inlineStr">
         <x:is>
-          <x:t>ADGD0208</x:t>
+          <x:t>ADGG0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C1673" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN INTEGRADA DE RECURSOS HUMANOS</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1673" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G1673" t="inlineStr">
         <x:is>
-          <x:t>PROYECTAEMPLEO TELEFORMACIÓN</x:t>
+          <x:t>DOCENCIA Y MULTIMEDIA MADRID</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1673" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1674">
       <x:c r="A1674" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008542</x:t>
+          <x:t>FCCC240008543</x:t>
         </x:is>
       </x:c>
       <x:c r="B1674" t="inlineStr">
@@ -47177,66 +47177,66 @@
     <x:row r="1675">
       <x:c r="A1675" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008543</x:t>
+          <x:t>FCCC240008549</x:t>
         </x:is>
       </x:c>
       <x:c r="B1675" t="inlineStr">
         <x:is>
-          <x:t>ADGG0308</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1675" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1675" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G1675" t="inlineStr">
         <x:is>
-          <x:t>DOCENCIA Y MULTIMEDIA MADRID</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H1675" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t> detuatu formación SL                                     </x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1676">
       <x:c r="A1676" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008549</x:t>
+          <x:t>FCCC240008550</x:t>
         </x:is>
       </x:c>
       <x:c r="B1676" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1676" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F1676" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G1676" t="inlineStr">
         <x:is>
-          <x:t> detuatu formación SL                                     </x:t>
+          <x:t>CAMPUS EMPRENDE INTEGRAL FORMACION, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1676" t="inlineStr">
+        <x:is>
+          <x:t>FUENLABRADA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1677">
       <x:c r="A1677" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008550</x:t>
+          <x:t>FCCC240008552</x:t>
         </x:is>
       </x:c>
       <x:c r="B1677" t="inlineStr">
@@ -47256,29 +47256,29 @@
       </x:c>
       <x:c r="G1677" t="inlineStr">
         <x:is>
-          <x:t>CAMPUS EMPRENDE INTEGRAL FORMACION, S.L.</x:t>
+          <x:t>INNOVACIÓN Y COORDINACIÓN EN ESTRATEGIAS FORMATIVAS S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H1677" t="inlineStr">
         <x:is>
-          <x:t>FUENLABRADA</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1678">
       <x:c r="A1678" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008552</x:t>
+          <x:t>FCCC240008553</x:t>
         </x:is>
       </x:c>
       <x:c r="B1678" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>IMPQ0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1678" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>PELUQUERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1678" t="inlineStr">
@@ -47288,7 +47288,7 @@
       </x:c>
       <x:c r="G1678" t="inlineStr">
         <x:is>
-          <x:t>INNOVACIÓN Y COORDINACIÓN EN ESTRATEGIAS FORMATIVAS S.L.</x:t>
+          <x:t>CENTRO DE FORMACION TURON CIUDAD LINEAL</x:t>
         </x:is>
       </x:c>
       <x:c r="H1678" t="inlineStr">
@@ -47300,17 +47300,17 @@
     <x:row r="1679">
       <x:c r="A1679" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008553</x:t>
+          <x:t>FCCC240008554</x:t>
         </x:is>
       </x:c>
       <x:c r="B1679" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0208</x:t>
+          <x:t>FMEC0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C1679" t="inlineStr">
         <x:is>
-          <x:t>PELUQUERÍA</x:t>
+          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
         </x:is>
       </x:c>
       <x:c r="F1679" t="inlineStr">
@@ -47320,29 +47320,29 @@
       </x:c>
       <x:c r="G1679" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION TURON CIUDAD LINEAL</x:t>
+          <x:t>CATFA</x:t>
         </x:is>
       </x:c>
       <x:c r="H1679" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>TORREJON DE ARDOZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1680">
       <x:c r="A1680" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008554</x:t>
+          <x:t>FCCC240008555</x:t>
         </x:is>
       </x:c>
       <x:c r="B1680" t="inlineStr">
         <x:is>
-          <x:t>FMEC0210</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1680" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F1680" t="inlineStr">
@@ -47364,17 +47364,17 @@
     <x:row r="1681">
       <x:c r="A1681" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008555</x:t>
+          <x:t>FCCC240008556</x:t>
         </x:is>
       </x:c>
       <x:c r="B1681" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1681" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F1681" t="inlineStr">
@@ -47384,19 +47384,19 @@
       </x:c>
       <x:c r="G1681" t="inlineStr">
         <x:is>
-          <x:t>CATFA</x:t>
+          <x:t>DEFOIN</x:t>
         </x:is>
       </x:c>
       <x:c r="H1681" t="inlineStr">
         <x:is>
-          <x:t>TORREJON DE ARDOZ</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1682">
       <x:c r="A1682" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008556</x:t>
+          <x:t>FCCC240008557</x:t>
         </x:is>
       </x:c>
       <x:c r="B1682" t="inlineStr">
@@ -47428,7 +47428,7 @@
     <x:row r="1683">
       <x:c r="A1683" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008557</x:t>
+          <x:t>FCCC240008558</x:t>
         </x:is>
       </x:c>
       <x:c r="B1683" t="inlineStr">
@@ -47460,7 +47460,7 @@
     <x:row r="1684">
       <x:c r="A1684" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008558</x:t>
+          <x:t>FCCC240008559</x:t>
         </x:is>
       </x:c>
       <x:c r="B1684" t="inlineStr">
@@ -47492,17 +47492,17 @@
     <x:row r="1685">
       <x:c r="A1685" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008559</x:t>
+          <x:t>FCCC240008560</x:t>
         </x:is>
       </x:c>
       <x:c r="B1685" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1685" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1685" t="inlineStr">
@@ -47512,7 +47512,7 @@
       </x:c>
       <x:c r="G1685" t="inlineStr">
         <x:is>
-          <x:t>DEFOIN</x:t>
+          <x:t>GALA CTM-2</x:t>
         </x:is>
       </x:c>
       <x:c r="H1685" t="inlineStr">
@@ -47524,17 +47524,17 @@
     <x:row r="1686">
       <x:c r="A1686" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008560</x:t>
+          <x:t>FCCC240008564</x:t>
         </x:is>
       </x:c>
       <x:c r="B1686" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SEAD0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C1686" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1686" t="inlineStr">
@@ -47544,7 +47544,7 @@
       </x:c>
       <x:c r="G1686" t="inlineStr">
         <x:is>
-          <x:t>GALA CTM-2</x:t>
+          <x:t>SCF-MANOS TENDIDAS LEGAZPI</x:t>
         </x:is>
       </x:c>
       <x:c r="H1686" t="inlineStr">
@@ -47556,7 +47556,7 @@
     <x:row r="1687">
       <x:c r="A1687" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008564</x:t>
+          <x:t>FCCC240008565</x:t>
         </x:is>
       </x:c>
       <x:c r="B1687" t="inlineStr">
@@ -47588,7 +47588,7 @@
     <x:row r="1688">
       <x:c r="A1688" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008565</x:t>
+          <x:t>FCCC240008566</x:t>
         </x:is>
       </x:c>
       <x:c r="B1688" t="inlineStr">
@@ -47620,7 +47620,7 @@
     <x:row r="1689">
       <x:c r="A1689" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008566</x:t>
+          <x:t>FCCC240008567</x:t>
         </x:is>
       </x:c>
       <x:c r="B1689" t="inlineStr">
@@ -47652,17 +47652,17 @@
     <x:row r="1690">
       <x:c r="A1690" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008567</x:t>
+          <x:t>FCCC240008568</x:t>
         </x:is>
       </x:c>
       <x:c r="B1690" t="inlineStr">
         <x:is>
-          <x:t>SEAD0212</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C1690" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1690" t="inlineStr">
@@ -47672,7 +47672,7 @@
       </x:c>
       <x:c r="G1690" t="inlineStr">
         <x:is>
-          <x:t>SCF-MANOS TENDIDAS LEGAZPI</x:t>
+          <x:t>SEGURIDAD ESTUDIOS FORM.</x:t>
         </x:is>
       </x:c>
       <x:c r="H1690" t="inlineStr">
@@ -47684,7 +47684,7 @@
     <x:row r="1691">
       <x:c r="A1691" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008568</x:t>
+          <x:t>FCCC240008569</x:t>
         </x:is>
       </x:c>
       <x:c r="B1691" t="inlineStr">
@@ -47716,17 +47716,17 @@
     <x:row r="1692">
       <x:c r="A1692" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008569</x:t>
+          <x:t>FCCC240008571</x:t>
         </x:is>
       </x:c>
       <x:c r="B1692" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C1692" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1692" t="inlineStr">
@@ -47736,19 +47736,19 @@
       </x:c>
       <x:c r="G1692" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD ESTUDIOS FORM.</x:t>
+          <x:t>CARS MAROBE, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H1692" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1693">
       <x:c r="A1693" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008571</x:t>
+          <x:t>FCCC240008572</x:t>
         </x:is>
       </x:c>
       <x:c r="B1693" t="inlineStr">
@@ -47780,17 +47780,17 @@
     <x:row r="1694">
       <x:c r="A1694" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008572</x:t>
+          <x:t>FCCC240008573</x:t>
         </x:is>
       </x:c>
       <x:c r="B1694" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C1694" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1694" t="inlineStr">
@@ -47800,19 +47800,19 @@
       </x:c>
       <x:c r="G1694" t="inlineStr">
         <x:is>
-          <x:t>CARS MAROBE, S.L.</x:t>
+          <x:t>PROSEGUR SERVICIOS DE EFECTIVO ESPAÑA SL</x:t>
         </x:is>
       </x:c>
       <x:c r="H1694" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1695">
       <x:c r="A1695" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008573</x:t>
+          <x:t>FCCC240008574</x:t>
         </x:is>
       </x:c>
       <x:c r="B1695" t="inlineStr">
@@ -47844,49 +47844,44 @@
     <x:row r="1696">
       <x:c r="A1696" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008574</x:t>
+          <x:t>FCCC240008575</x:t>
         </x:is>
       </x:c>
       <x:c r="B1696" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1696" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F1696" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G1696" t="inlineStr">
         <x:is>
-          <x:t>PROSEGUR SERVICIOS DE EFECTIVO ESPAÑA SL</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H1696" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t> CENTRO EUROPEO DE ESTUDIOS PROFESIONALES                 </x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1697">
       <x:c r="A1697" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008575</x:t>
+          <x:t>FCCC240008576</x:t>
         </x:is>
       </x:c>
       <x:c r="B1697" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1697" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1697" t="inlineStr">
@@ -47903,7 +47898,7 @@
     <x:row r="1698">
       <x:c r="A1698" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008576</x:t>
+          <x:t>FCCC240008577</x:t>
         </x:is>
       </x:c>
       <x:c r="B1698" t="inlineStr">
@@ -47930,7 +47925,7 @@
     <x:row r="1699">
       <x:c r="A1699" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008577</x:t>
+          <x:t>FCCC240008578</x:t>
         </x:is>
       </x:c>
       <x:c r="B1699" t="inlineStr">
@@ -47957,7 +47952,7 @@
     <x:row r="1700">
       <x:c r="A1700" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008578</x:t>
+          <x:t>FCCC240008579</x:t>
         </x:is>
       </x:c>
       <x:c r="B1700" t="inlineStr">
@@ -47972,29 +47967,34 @@
       </x:c>
       <x:c r="F1700" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G1700" t="inlineStr">
         <x:is>
-          <x:t> CENTRO EUROPEO DE ESTUDIOS PROFESIONALES                 </x:t>
+          <x:t>ADALID SERVICIOS CORPORATIVOS S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1700" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1701">
       <x:c r="A1701" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008579</x:t>
+          <x:t>FCCC240008580</x:t>
         </x:is>
       </x:c>
       <x:c r="B1701" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1701" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F1701" t="inlineStr">
@@ -48004,7 +48004,7 @@
       </x:c>
       <x:c r="G1701" t="inlineStr">
         <x:is>
-          <x:t>ADALID SERVICIOS CORPORATIVOS S.L.</x:t>
+          <x:t>ADALID SERVICIOS CORPORATIVOS, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H1701" t="inlineStr">
@@ -48016,7 +48016,7 @@
     <x:row r="1702">
       <x:c r="A1702" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008580</x:t>
+          <x:t>FCCC240008581</x:t>
         </x:is>
       </x:c>
       <x:c r="B1702" t="inlineStr">
@@ -48036,7 +48036,7 @@
       </x:c>
       <x:c r="G1702" t="inlineStr">
         <x:is>
-          <x:t>ADALID SERVICIOS CORPORATIVOS, S.L.</x:t>
+          <x:t>CEDEU</x:t>
         </x:is>
       </x:c>
       <x:c r="H1702" t="inlineStr">
@@ -48048,17 +48048,17 @@
     <x:row r="1703">
       <x:c r="A1703" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008581</x:t>
+          <x:t>FCCC240008582</x:t>
         </x:is>
       </x:c>
       <x:c r="B1703" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1703" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1703" t="inlineStr">
@@ -48068,7 +48068,7 @@
       </x:c>
       <x:c r="G1703" t="inlineStr">
         <x:is>
-          <x:t>CEDEU</x:t>
+          <x:t>FORMACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="H1703" t="inlineStr">
@@ -48080,7 +48080,7 @@
     <x:row r="1704">
       <x:c r="A1704" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008582</x:t>
+          <x:t>FCCC240008583</x:t>
         </x:is>
       </x:c>
       <x:c r="B1704" t="inlineStr">
@@ -48112,7 +48112,7 @@
     <x:row r="1705">
       <x:c r="A1705" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008583</x:t>
+          <x:t>FCCC240008584</x:t>
         </x:is>
       </x:c>
       <x:c r="B1705" t="inlineStr">
@@ -48144,17 +48144,17 @@
     <x:row r="1706">
       <x:c r="A1706" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008584</x:t>
+          <x:t>FCCC240008585</x:t>
         </x:is>
       </x:c>
       <x:c r="B1706" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>IMAR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C1706" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1706" t="inlineStr">
@@ -48176,7 +48176,7 @@
     <x:row r="1707">
       <x:c r="A1707" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008585</x:t>
+          <x:t>FCCC240008586</x:t>
         </x:is>
       </x:c>
       <x:c r="B1707" t="inlineStr">
@@ -48208,17 +48208,17 @@
     <x:row r="1708">
       <x:c r="A1708" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008586</x:t>
+          <x:t>FCCC240008594</x:t>
         </x:is>
       </x:c>
       <x:c r="B1708" t="inlineStr">
         <x:is>
-          <x:t>IMAR0408</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C1708" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1708" t="inlineStr">
@@ -48228,29 +48228,29 @@
       </x:c>
       <x:c r="G1708" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL</x:t>
+          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H1708" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>RIVAS-VACIAMADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1709">
       <x:c r="A1709" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008594</x:t>
+          <x:t>FCCC240008595</x:t>
         </x:is>
       </x:c>
       <x:c r="B1709" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCB0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C1709" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>DIRECCIÓN Y COORDINACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="F1709" t="inlineStr">
@@ -48272,17 +48272,17 @@
     <x:row r="1710">
       <x:c r="A1710" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008595</x:t>
+          <x:t>FCCC240008596</x:t>
         </x:is>
       </x:c>
       <x:c r="B1710" t="inlineStr">
         <x:is>
-          <x:t>SSCB0211</x:t>
+          <x:t>ADGG0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C1710" t="inlineStr">
         <x:is>
-          <x:t>DIRECCIÓN Y COORDINACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1710" t="inlineStr">
@@ -48304,17 +48304,17 @@
     <x:row r="1711">
       <x:c r="A1711" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008596</x:t>
+          <x:t>FCCC240008597</x:t>
         </x:is>
       </x:c>
       <x:c r="B1711" t="inlineStr">
         <x:is>
-          <x:t>ADGG0308</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1711" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F1711" t="inlineStr">
@@ -48336,17 +48336,17 @@
     <x:row r="1712">
       <x:c r="A1712" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008597</x:t>
+          <x:t>FCCC240008599</x:t>
         </x:is>
       </x:c>
       <x:c r="B1712" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C1712" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1712" t="inlineStr">
@@ -48356,19 +48356,19 @@
       </x:c>
       <x:c r="G1712" t="inlineStr">
         <x:is>
-          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
+          <x:t>TECN PROF. COSMOS</x:t>
         </x:is>
       </x:c>
       <x:c r="H1712" t="inlineStr">
         <x:is>
-          <x:t>RIVAS-VACIAMADRID</x:t>
+          <x:t>GETAFE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1713">
       <x:c r="A1713" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008599</x:t>
+          <x:t>FCCC240008600</x:t>
         </x:is>
       </x:c>
       <x:c r="B1713" t="inlineStr">
@@ -48400,17 +48400,17 @@
     <x:row r="1714">
       <x:c r="A1714" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008600</x:t>
+          <x:t>FCCC240008601</x:t>
         </x:is>
       </x:c>
       <x:c r="B1714" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>SEAD0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C1714" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1714" t="inlineStr">
@@ -48432,7 +48432,7 @@
     <x:row r="1715">
       <x:c r="A1715" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008601</x:t>
+          <x:t>FCCC240008602</x:t>
         </x:is>
       </x:c>
       <x:c r="B1715" t="inlineStr">
@@ -48464,17 +48464,17 @@
     <x:row r="1716">
       <x:c r="A1716" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008602</x:t>
+          <x:t>FCCC240008603</x:t>
         </x:is>
       </x:c>
       <x:c r="B1716" t="inlineStr">
         <x:is>
-          <x:t>SEAD0212</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C1716" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1716" t="inlineStr">
@@ -48484,29 +48484,29 @@
       </x:c>
       <x:c r="G1716" t="inlineStr">
         <x:is>
-          <x:t>TECN PROF. COSMOS</x:t>
+          <x:t>CENTRO SOCIAL LA RUECA</x:t>
         </x:is>
       </x:c>
       <x:c r="H1716" t="inlineStr">
         <x:is>
-          <x:t>GETAFE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1717">
       <x:c r="A1717" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008603</x:t>
+          <x:t>FCCC240008604</x:t>
         </x:is>
       </x:c>
       <x:c r="B1717" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>COMT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1717" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ATENCIÓN AL CLIENTE, CONSUMIDOR O USUARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F1717" t="inlineStr">
@@ -48516,29 +48516,29 @@
       </x:c>
       <x:c r="G1717" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SOCIAL LA RUECA</x:t>
+          <x:t>NASCOR FORMACION</x:t>
         </x:is>
       </x:c>
       <x:c r="H1717" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>POZUELO DE ALARCON</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1718">
       <x:c r="A1718" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008604</x:t>
+          <x:t>24/1411</x:t>
         </x:is>
       </x:c>
       <x:c r="B1718" t="inlineStr">
         <x:is>
-          <x:t>COMT0110</x:t>
+          <x:t>ADGG053PO_1</x:t>
         </x:is>
       </x:c>
       <x:c r="C1718" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL CLIENTE, CONSUMIDOR O USUARIO</x:t>
+          <x:t>OFIMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1718" t="inlineStr">
@@ -48548,19 +48548,19 @@
       </x:c>
       <x:c r="G1718" t="inlineStr">
         <x:is>
-          <x:t>NASCOR FORMACION</x:t>
+          <x:t>C.F.P.E EN TECNOLOGÍAS DE LA INFORMACIÓN Y LAS COMUNICACIONES (C.R.N. GETAFE)</x:t>
         </x:is>
       </x:c>
       <x:c r="H1718" t="inlineStr">
         <x:is>
-          <x:t>POZUELO DE ALARCON</x:t>
+          <x:t>GETAFE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1719">
       <x:c r="A1719" t="inlineStr">
         <x:is>
-          <x:t>24/1411</x:t>
+          <x:t>24/1412</x:t>
         </x:is>
       </x:c>
       <x:c r="B1719" t="inlineStr">
@@ -48592,7 +48592,7 @@
     <x:row r="1720">
       <x:c r="A1720" t="inlineStr">
         <x:is>
-          <x:t>24/1412</x:t>
+          <x:t>24/1413</x:t>
         </x:is>
       </x:c>
       <x:c r="B1720" t="inlineStr">
@@ -48624,17 +48624,17 @@
     <x:row r="1721">
       <x:c r="A1721" t="inlineStr">
         <x:is>
-          <x:t>24/1413</x:t>
+          <x:t>24/1474</x:t>
         </x:is>
       </x:c>
       <x:c r="B1721" t="inlineStr">
         <x:is>
-          <x:t>ADGG053PO_1</x:t>
+          <x:t>IFCT0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C1721" t="inlineStr">
         <x:is>
-          <x:t>OFIMÁTICA</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1721" t="inlineStr">
@@ -48656,7 +48656,7 @@
     <x:row r="1722">
       <x:c r="A1722" t="inlineStr">
         <x:is>
-          <x:t>24/1474</x:t>
+          <x:t>24/1475</x:t>
         </x:is>
       </x:c>
       <x:c r="B1722" t="inlineStr">
@@ -48688,17 +48688,17 @@
     <x:row r="1723">
       <x:c r="A1723" t="inlineStr">
         <x:is>
-          <x:t>24/1475</x:t>
+          <x:t>24/1479</x:t>
         </x:is>
       </x:c>
       <x:c r="B1723" t="inlineStr">
         <x:is>
-          <x:t>IFCT0309</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1723" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F1723" t="inlineStr">
@@ -48720,17 +48720,17 @@
     <x:row r="1724">
       <x:c r="A1724" t="inlineStr">
         <x:is>
-          <x:t>24/1479</x:t>
+          <x:t>24/1481</x:t>
         </x:is>
       </x:c>
       <x:c r="B1724" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>IFCD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C1724" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F1724" t="inlineStr">
@@ -48752,17 +48752,17 @@
     <x:row r="1725">
       <x:c r="A1725" t="inlineStr">
         <x:is>
-          <x:t>24/1481</x:t>
+          <x:t>24/1483</x:t>
         </x:is>
       </x:c>
       <x:c r="B1725" t="inlineStr">
         <x:is>
-          <x:t>IFCD0210</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C1725" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍAS WEB</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1725" t="inlineStr">
@@ -48784,17 +48784,17 @@
     <x:row r="1726">
       <x:c r="A1726" t="inlineStr">
         <x:is>
-          <x:t>24/1483</x:t>
+          <x:t>24/1489</x:t>
         </x:is>
       </x:c>
       <x:c r="B1726" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C1726" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1726" t="inlineStr">
@@ -48816,7 +48816,7 @@
     <x:row r="1727">
       <x:c r="A1727" t="inlineStr">
         <x:is>
-          <x:t>24/1489</x:t>
+          <x:t>24/1490</x:t>
         </x:is>
       </x:c>
       <x:c r="B1727" t="inlineStr">
@@ -48848,17 +48848,17 @@
     <x:row r="1728">
       <x:c r="A1728" t="inlineStr">
         <x:is>
-          <x:t>24/1490</x:t>
+          <x:t>24/1493</x:t>
         </x:is>
       </x:c>
       <x:c r="B1728" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>IFCD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C1728" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1728" t="inlineStr">
@@ -48880,7 +48880,7 @@
     <x:row r="1729">
       <x:c r="A1729" t="inlineStr">
         <x:is>
-          <x:t>24/1493</x:t>
+          <x:t>24/1494</x:t>
         </x:is>
       </x:c>
       <x:c r="B1729" t="inlineStr">
@@ -48912,17 +48912,17 @@
     <x:row r="1730">
       <x:c r="A1730" t="inlineStr">
         <x:is>
-          <x:t>24/1494</x:t>
+          <x:t>24/1397</x:t>
         </x:is>
       </x:c>
       <x:c r="B1730" t="inlineStr">
         <x:is>
-          <x:t>IFCD0112</x:t>
+          <x:t>TMVG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C1730" t="inlineStr">
         <x:is>
-          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1730" t="inlineStr">
@@ -48932,19 +48932,19 @@
       </x:c>
       <x:c r="G1730" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN TECNOLOGÍAS DE LA INFORMACIÓN Y LAS COMUNICACIONES (C.R.N. GETAFE)</x:t>
+          <x:t>C.I.F.P EN TRANSPORTE Y LOGÍSTICA RAÚL VAZQUEZ</x:t>
         </x:is>
       </x:c>
       <x:c r="H1730" t="inlineStr">
         <x:is>
-          <x:t>GETAFE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1731">
       <x:c r="A1731" t="inlineStr">
         <x:is>
-          <x:t>24/1397</x:t>
+          <x:t>24/1398</x:t>
         </x:is>
       </x:c>
       <x:c r="B1731" t="inlineStr">
@@ -48976,39 +48976,29 @@
     <x:row r="1732">
       <x:c r="A1732" t="inlineStr">
         <x:is>
-          <x:t>24/1398</x:t>
+          <x:t>23/8121</x:t>
         </x:is>
       </x:c>
       <x:c r="B1732" t="inlineStr">
         <x:is>
-          <x:t>TMVG0109</x:t>
+          <x:t>COML0121</x:t>
         </x:is>
       </x:c>
       <x:c r="C1732" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
+          <x:t>SERVICIO DE ENTREGA Y RECOGIDA DOMICILIARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1732" t="inlineStr">
         <x:is>
           <x:t>Presencial</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="G1732" t="inlineStr">
-        <x:is>
-          <x:t>C.I.F.P EN TRANSPORTE Y LOGÍSTICA RAÚL VAZQUEZ</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H1732" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1733">
       <x:c r="A1733" t="inlineStr">
         <x:is>
-          <x:t>23/8121</x:t>
+          <x:t>23/8122</x:t>
         </x:is>
       </x:c>
       <x:c r="B1733" t="inlineStr">
@@ -49030,7 +49020,7 @@
     <x:row r="1734">
       <x:c r="A1734" t="inlineStr">
         <x:is>
-          <x:t>23/8122</x:t>
+          <x:t>23/8123</x:t>
         </x:is>
       </x:c>
       <x:c r="B1734" t="inlineStr">
@@ -49052,29 +49042,39 @@
     <x:row r="1735">
       <x:c r="A1735" t="inlineStr">
         <x:is>
-          <x:t>23/8123</x:t>
+          <x:t>25/16</x:t>
         </x:is>
       </x:c>
       <x:c r="B1735" t="inlineStr">
         <x:is>
-          <x:t>COML0121</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C1735" t="inlineStr">
         <x:is>
-          <x:t>SERVICIO DE ENTREGA Y RECOGIDA DOMICILIARIA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1735" t="inlineStr">
         <x:is>
           <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1735" t="inlineStr">
+        <x:is>
+          <x:t>C.I.F.P ESCUELA DE HOSTELERÍA Y TURISMO SIMONE ORTEGA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1735" t="inlineStr">
+        <x:is>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1736">
       <x:c r="A1736" t="inlineStr">
         <x:is>
-          <x:t>25/16</x:t>
+          <x:t>25/17</x:t>
         </x:is>
       </x:c>
       <x:c r="B1736" t="inlineStr">
@@ -49106,17 +49106,17 @@
     <x:row r="1737">
       <x:c r="A1737" t="inlineStr">
         <x:is>
-          <x:t>25/17</x:t>
+          <x:t>25/18</x:t>
         </x:is>
       </x:c>
       <x:c r="B1737" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>HOTA0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C1737" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>RECEPCIÓN EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1737" t="inlineStr">
@@ -49138,17 +49138,12 @@
     <x:row r="1738">
       <x:c r="A1738" t="inlineStr">
         <x:is>
-          <x:t>25/18</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B1738" t="inlineStr">
-        <x:is>
-          <x:t>HOTA0308</x:t>
+          <x:t>25/2135</x:t>
         </x:is>
       </x:c>
       <x:c r="C1738" t="inlineStr">
         <x:is>
-          <x:t>RECEPCIÓN EN ALOJAMIENTOS</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F1738" t="inlineStr">
@@ -49158,19 +49153,19 @@
       </x:c>
       <x:c r="G1738" t="inlineStr">
         <x:is>
-          <x:t>C.I.F.P ESCUELA DE HOSTELERÍA Y TURISMO SIMONE ORTEGA</x:t>
+          <x:t>CENTRO T.I.C. DE ALCOBENDAS</x:t>
         </x:is>
       </x:c>
       <x:c r="H1738" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="1739">
       <x:c r="A1739" t="inlineStr">
         <x:is>
-          <x:t>25/2135</x:t>
+          <x:t>25/2136</x:t>
         </x:is>
       </x:c>
       <x:c r="C1739" t="inlineStr">
@@ -49197,7 +49192,7 @@
     <x:row r="1740">
       <x:c r="A1740" t="inlineStr">
         <x:is>
-          <x:t>25/2136</x:t>
+          <x:t>25/2137</x:t>
         </x:is>
       </x:c>
       <x:c r="C1740" t="inlineStr">
@@ -49224,7 +49219,7 @@
     <x:row r="1741">
       <x:c r="A1741" t="inlineStr">
         <x:is>
-          <x:t>25/2137</x:t>
+          <x:t>25/2138</x:t>
         </x:is>
       </x:c>
       <x:c r="C1741" t="inlineStr">
@@ -49251,12 +49246,12 @@
     <x:row r="1742">
       <x:c r="A1742" t="inlineStr">
         <x:is>
-          <x:t>25/2138</x:t>
+          <x:t>25/2139</x:t>
         </x:is>
       </x:c>
       <x:c r="C1742" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1742" t="inlineStr">
@@ -49278,7 +49273,7 @@
     <x:row r="1743">
       <x:c r="A1743" t="inlineStr">
         <x:is>
-          <x:t>25/2139</x:t>
+          <x:t>25/2140</x:t>
         </x:is>
       </x:c>
       <x:c r="C1743" t="inlineStr">
@@ -49305,7 +49300,7 @@
     <x:row r="1744">
       <x:c r="A1744" t="inlineStr">
         <x:is>
-          <x:t>25/2140</x:t>
+          <x:t>25/2141</x:t>
         </x:is>
       </x:c>
       <x:c r="C1744" t="inlineStr">
@@ -49332,12 +49327,12 @@
     <x:row r="1745">
       <x:c r="A1745" t="inlineStr">
         <x:is>
-          <x:t>25/2141</x:t>
+          <x:t>25/2142</x:t>
         </x:is>
       </x:c>
       <x:c r="C1745" t="inlineStr">
         <x:is>
-          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F1745" t="inlineStr">
@@ -49359,7 +49354,7 @@
     <x:row r="1746">
       <x:c r="A1746" t="inlineStr">
         <x:is>
-          <x:t>25/2142</x:t>
+          <x:t>25/2143</x:t>
         </x:is>
       </x:c>
       <x:c r="C1746" t="inlineStr">
@@ -49386,7 +49381,7 @@
     <x:row r="1747">
       <x:c r="A1747" t="inlineStr">
         <x:is>
-          <x:t>25/2143</x:t>
+          <x:t>25/2144</x:t>
         </x:is>
       </x:c>
       <x:c r="C1747" t="inlineStr">
@@ -49413,12 +49408,12 @@
     <x:row r="1748">
       <x:c r="A1748" t="inlineStr">
         <x:is>
-          <x:t>25/2144</x:t>
+          <x:t>25/2145</x:t>
         </x:is>
       </x:c>
       <x:c r="C1748" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>OPERACIONES DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F1748" t="inlineStr">
@@ -49440,7 +49435,7 @@
     <x:row r="1749">
       <x:c r="A1749" t="inlineStr">
         <x:is>
-          <x:t>25/2145</x:t>
+          <x:t>25/2146</x:t>
         </x:is>
       </x:c>
       <x:c r="C1749" t="inlineStr">
@@ -49467,7 +49462,7 @@
     <x:row r="1750">
       <x:c r="A1750" t="inlineStr">
         <x:is>
-          <x:t>25/2146</x:t>
+          <x:t>25/2147</x:t>
         </x:is>
       </x:c>
       <x:c r="C1750" t="inlineStr">
@@ -49494,12 +49489,12 @@
     <x:row r="1751">
       <x:c r="A1751" t="inlineStr">
         <x:is>
-          <x:t>25/2147</x:t>
+          <x:t>25/2148</x:t>
         </x:is>
       </x:c>
       <x:c r="C1751" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE REDES DEPARTAMENTALES</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F1751" t="inlineStr">
@@ -49521,7 +49516,7 @@
     <x:row r="1752">
       <x:c r="A1752" t="inlineStr">
         <x:is>
-          <x:t>25/2148</x:t>
+          <x:t>25/2149</x:t>
         </x:is>
       </x:c>
       <x:c r="C1752" t="inlineStr">
@@ -49548,7 +49543,7 @@
     <x:row r="1753">
       <x:c r="A1753" t="inlineStr">
         <x:is>
-          <x:t>25/2149</x:t>
+          <x:t>25/2150</x:t>
         </x:is>
       </x:c>
       <x:c r="C1753" t="inlineStr">
@@ -49575,12 +49570,12 @@
     <x:row r="1754">
       <x:c r="A1754" t="inlineStr">
         <x:is>
-          <x:t>25/2150</x:t>
+          <x:t>25/2151</x:t>
         </x:is>
       </x:c>
       <x:c r="C1754" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F1754" t="inlineStr">
@@ -49602,7 +49597,7 @@
     <x:row r="1755">
       <x:c r="A1755" t="inlineStr">
         <x:is>
-          <x:t>25/2151</x:t>
+          <x:t>25/2152</x:t>
         </x:is>
       </x:c>
       <x:c r="C1755" t="inlineStr">
@@ -49629,7 +49624,7 @@
     <x:row r="1756">
       <x:c r="A1756" t="inlineStr">
         <x:is>
-          <x:t>25/2152</x:t>
+          <x:t>25/2153</x:t>
         </x:is>
       </x:c>
       <x:c r="C1756" t="inlineStr">
@@ -49648,33 +49643,6 @@
         </x:is>
       </x:c>
       <x:c r="H1756" t="inlineStr">
-        <x:is>
-          <x:t>ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row r="1757">
-      <x:c r="A1757" t="inlineStr">
-        <x:is>
-          <x:t>25/2153</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C1757" t="inlineStr">
-        <x:is>
-          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F1757" t="inlineStr">
-        <x:is>
-          <x:t>Presencial</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="G1757" t="inlineStr">
-        <x:is>
-          <x:t>CENTRO T.I.C. DE ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H1757" t="inlineStr">
         <x:is>
           <x:t>ALCOBENDAS</x:t>
         </x:is>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R17803949214d4287"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4049743c7a6d415b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4049743c7a6d415b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R125bf612d90a4591"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R5236a81cfc0a43a5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R93fbb317e3f041ab"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1019,24 +1019,24 @@
     <x:row r="29">
       <x:c r="A29" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004184</x:t>
+          <x:t>FDEC240004370</x:t>
         </x:is>
       </x:c>
       <x:c r="B29" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>45958.9583333333</x:v>
+        <x:v>45959.9583333333</x:v>
       </x:c>
       <x:c r="E29" s="2" t="n">
-        <x:v>46098.9583333333</x:v>
+        <x:v>46079.9583333333</x:v>
       </x:c>
       <x:c r="F29" t="inlineStr">
         <x:is>
@@ -1045,31 +1045,31 @@
       </x:c>
       <x:c r="G29" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="inlineStr">
         <x:is>
-          <x:t>24/1143</x:t>
+          <x:t>FDEC240004184</x:t>
         </x:is>
       </x:c>
       <x:c r="B30" t="inlineStr">
         <x:is>
-          <x:t>TMVG0409</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C30" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>45958</x:v>
+        <x:v>45958.9583333333</x:v>
       </x:c>
       <x:c r="E30" s="2" t="n">
-        <x:v>46099</x:v>
+        <x:v>46098.9583333333</x:v>
       </x:c>
       <x:c r="F30" t="inlineStr">
         <x:is>
@@ -1078,36 +1078,31 @@
       </x:c>
       <x:c r="G30" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H30" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003866</x:t>
+          <x:t>FDEC240004368</x:t>
         </x:is>
       </x:c>
       <x:c r="B31" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>EOCO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>45956.9583333333</x:v>
+        <x:v>45958.9583333333</x:v>
       </x:c>
       <x:c r="E31" s="2" t="n">
-        <x:v>46053.9583333333</x:v>
+        <x:v>46079.9583333333</x:v>
       </x:c>
       <x:c r="F31" t="inlineStr">
         <x:is>
@@ -1116,36 +1111,31 @@
       </x:c>
       <x:c r="G31" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H31" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004566</x:t>
+          <x:t>FDEC240004371</x:t>
         </x:is>
       </x:c>
       <x:c r="B32" t="inlineStr">
         <x:is>
-          <x:t>COMT0411</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN COMERCIAL DE VENTAS</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>45956.9583333333</x:v>
+        <x:v>45958.9583333333</x:v>
       </x:c>
       <x:c r="E32" s="2" t="n">
-        <x:v>46111.9166666667</x:v>
+        <x:v>46077.9583333333</x:v>
       </x:c>
       <x:c r="F32" t="inlineStr">
         <x:is>
@@ -1154,31 +1144,31 @@
       </x:c>
       <x:c r="G32" t="inlineStr">
         <x:is>
-          <x:t>ACCION LABORAL</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008507</x:t>
+          <x:t>24/1143</x:t>
         </x:is>
       </x:c>
       <x:c r="B33" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>TMVG0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C33" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
         </x:is>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>45956.9583333333</x:v>
+        <x:v>45958</x:v>
       </x:c>
       <x:c r="E33" s="2" t="n">
-        <x:v>46110.9166666667</x:v>
+        <x:v>46099</x:v>
       </x:c>
       <x:c r="F33" t="inlineStr">
         <x:is>
@@ -1187,36 +1177,36 @@
       </x:c>
       <x:c r="G33" t="inlineStr">
         <x:is>
-          <x:t>FIVE ALCALA</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H33" t="inlineStr">
         <x:is>
-          <x:t>ALCALA DE HENARES</x:t>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="A34" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004582</x:t>
+          <x:t>FDEC240003356</x:t>
         </x:is>
       </x:c>
       <x:c r="B34" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>AFDA0310</x:t>
         </x:is>
       </x:c>
       <x:c r="C34" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>45952.9166666667</x:v>
+        <x:v>45957.9583333333</x:v>
       </x:c>
       <x:c r="E34" s="2" t="n">
-        <x:v>46098.9583333333</x:v>
+        <x:v>45977.9583333333</x:v>
       </x:c>
       <x:c r="F34" t="inlineStr">
         <x:is>
@@ -1225,26 +1215,31 @@
       </x:c>
       <x:c r="G34" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="inlineStr">
         <x:is>
-          <x:t>24/1161</x:t>
+          <x:t>FDEC240003866</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B35" t="inlineStr">
+        <x:is>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C35" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE, PUESTA EN SERVICIO, MANTENIMIENTO, INSPECCIÓN Y REVISIÓN DE INSTALACIONES RECEPTORAS Y APARATOS DE GAS </x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>45951</x:v>
+        <x:v>45956.9583333333</x:v>
       </x:c>
       <x:c r="E35" s="2" t="n">
-        <x:v>46098</x:v>
+        <x:v>46053.9583333333</x:v>
       </x:c>
       <x:c r="F35" t="inlineStr">
         <x:is>
@@ -1253,36 +1248,36 @@
       </x:c>
       <x:c r="G35" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H35" t="inlineStr">
         <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="inlineStr">
         <x:is>
-          <x:t>24/1174</x:t>
+          <x:t>FDEC240004566</x:t>
         </x:is>
       </x:c>
       <x:c r="B36" t="inlineStr">
         <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>COMT0411</x:t>
         </x:is>
       </x:c>
       <x:c r="C36" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>GESTIÓN COMERCIAL DE VENTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>45951</x:v>
+        <x:v>45956.9583333333</x:v>
       </x:c>
       <x:c r="E36" s="2" t="n">
-        <x:v>46078</x:v>
+        <x:v>46111.9166666667</x:v>
       </x:c>
       <x:c r="F36" t="inlineStr">
         <x:is>
@@ -1291,36 +1286,31 @@
       </x:c>
       <x:c r="G36" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H36" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>ACCION LABORAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004370</x:t>
+          <x:t>FCCC240008507</x:t>
         </x:is>
       </x:c>
       <x:c r="B37" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C37" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>45950.9166666667</x:v>
+        <x:v>45956.9583333333</x:v>
       </x:c>
       <x:c r="E37" s="2" t="n">
-        <x:v>46069.9583333333</x:v>
+        <x:v>46110.9166666667</x:v>
       </x:c>
       <x:c r="F37" t="inlineStr">
         <x:is>
@@ -1329,31 +1319,36 @@
       </x:c>
       <x:c r="G37" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>FIVE ALCALA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H37" t="inlineStr">
+        <x:is>
+          <x:t>ALCALA DE HENARES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="38">
       <x:c r="A38" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004371</x:t>
+          <x:t>FDEC240004582</x:t>
         </x:is>
       </x:c>
       <x:c r="B38" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C38" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>45950.9166666667</x:v>
+        <x:v>45952.9166666667</x:v>
       </x:c>
       <x:c r="E38" s="2" t="n">
-        <x:v>46069.9583333333</x:v>
+        <x:v>46098.9583333333</x:v>
       </x:c>
       <x:c r="F38" t="inlineStr">
         <x:is>
@@ -1362,7 +1357,7 @@
       </x:c>
       <x:c r="G38" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R93fbb317e3f041ab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R8d9a7280168e4183"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R8d9a7280168e4183"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R1f59c20e1248431c"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -740,24 +740,24 @@
     <x:row r="21">
       <x:c r="A21" t="inlineStr">
         <x:is>
-          <x:t>24/1164</x:t>
+          <x:t>24/1170</x:t>
         </x:is>
       </x:c>
       <x:c r="B21" t="inlineStr">
         <x:is>
-          <x:t>IMAI0108</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C21" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA </x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D21" s="1" t="n">
         <x:v>45973</x:v>
       </x:c>
       <x:c r="E21" s="2" t="n">
-        <x:v>46079</x:v>
+        <x:v>46059</x:v>
       </x:c>
       <x:c r="F21" t="inlineStr">
         <x:is>
@@ -778,24 +778,24 @@
     <x:row r="22">
       <x:c r="A22" t="inlineStr">
         <x:is>
-          <x:t>24/1170</x:t>
+          <x:t>FDEC240004315</x:t>
         </x:is>
       </x:c>
       <x:c r="B22" t="inlineStr">
         <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C22" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>45973</x:v>
+        <x:v>45972.9583333333</x:v>
       </x:c>
       <x:c r="E22" s="2" t="n">
-        <x:v>46059</x:v>
+        <x:v>46020.9583333333</x:v>
       </x:c>
       <x:c r="F22" t="inlineStr">
         <x:is>
@@ -804,36 +804,26 @@
       </x:c>
       <x:c r="G22" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H22" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>FORMACION PARA EL DESARROLLO E INSERCION SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004315</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B23" t="inlineStr">
-        <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>FCCC240008547</x:t>
         </x:is>
       </x:c>
       <x:c r="C23" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>45972.9583333333</x:v>
+        <x:v>45971.9583333333</x:v>
       </x:c>
       <x:c r="E23" s="2" t="n">
-        <x:v>46020.9583333333</x:v>
+        <x:v>46106.9583333333</x:v>
       </x:c>
       <x:c r="F23" t="inlineStr">
         <x:is>
@@ -842,26 +832,36 @@
       </x:c>
       <x:c r="G23" t="inlineStr">
         <x:is>
-          <x:t>FORMACION PARA EL DESARROLLO E INSERCION SL</x:t>
+          <x:t>DETUATUFORMACION S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H23" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008547</x:t>
+          <x:t>23/8386</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B24" t="inlineStr">
+        <x:is>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C24" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>45971.9583333333</x:v>
+        <x:v>45964.9583333333</x:v>
       </x:c>
       <x:c r="E24" s="2" t="n">
-        <x:v>46106.9583333333</x:v>
+        <x:v>46105.9583333333</x:v>
       </x:c>
       <x:c r="F24" t="inlineStr">
         <x:is>
@@ -870,36 +870,31 @@
       </x:c>
       <x:c r="G24" t="inlineStr">
         <x:is>
-          <x:t>DETUATUFORMACION S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H24" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="A25" t="inlineStr">
         <x:is>
-          <x:t>23/8386</x:t>
+          <x:t>23/8353</x:t>
         </x:is>
       </x:c>
       <x:c r="B25" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C25" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>45964.9583333333</x:v>
+        <x:v>45963.9583333333</x:v>
       </x:c>
       <x:c r="E25" s="2" t="n">
-        <x:v>46105.9583333333</x:v>
+        <x:v>46093.9583333333</x:v>
       </x:c>
       <x:c r="F25" t="inlineStr">
         <x:is>
@@ -908,7 +903,7 @@
       </x:c>
       <x:c r="G25" t="inlineStr">
         <x:is>
-          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -1019,24 +1014,24 @@
     <x:row r="29">
       <x:c r="A29" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004370</x:t>
+          <x:t>FDEC240004187</x:t>
         </x:is>
       </x:c>
       <x:c r="B29" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>45959.9583333333</x:v>
+        <x:v>45963.9583333333</x:v>
       </x:c>
       <x:c r="E29" s="2" t="n">
-        <x:v>46079.9583333333</x:v>
+        <x:v>46093.9583333333</x:v>
       </x:c>
       <x:c r="F29" t="inlineStr">
         <x:is>
@@ -1045,31 +1040,31 @@
       </x:c>
       <x:c r="G29" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004184</x:t>
+          <x:t>FDEC240004370</x:t>
         </x:is>
       </x:c>
       <x:c r="B30" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C30" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>45958.9583333333</x:v>
+        <x:v>45959.9583333333</x:v>
       </x:c>
       <x:c r="E30" s="2" t="n">
-        <x:v>46098.9583333333</x:v>
+        <x:v>46079.9583333333</x:v>
       </x:c>
       <x:c r="F30" t="inlineStr">
         <x:is>
@@ -1078,31 +1073,31 @@
       </x:c>
       <x:c r="G30" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004368</x:t>
+          <x:t>FDEC240004184</x:t>
         </x:is>
       </x:c>
       <x:c r="B31" t="inlineStr">
         <x:is>
-          <x:t>EOCO0208</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" t="inlineStr">
         <x:is>
-          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>45958.9583333333</x:v>
       </x:c>
       <x:c r="E31" s="2" t="n">
-        <x:v>46079.9583333333</x:v>
+        <x:v>46098.9583333333</x:v>
       </x:c>
       <x:c r="F31" t="inlineStr">
         <x:is>
@@ -1111,31 +1106,31 @@
       </x:c>
       <x:c r="G31" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004371</x:t>
+          <x:t>FDEC240004368</x:t>
         </x:is>
       </x:c>
       <x:c r="B32" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>EOCO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>45958.9583333333</x:v>
       </x:c>
       <x:c r="E32" s="2" t="n">
-        <x:v>46077.9583333333</x:v>
+        <x:v>46079.9583333333</x:v>
       </x:c>
       <x:c r="F32" t="inlineStr">
         <x:is>
@@ -1151,24 +1146,24 @@
     <x:row r="33">
       <x:c r="A33" t="inlineStr">
         <x:is>
-          <x:t>24/1143</x:t>
+          <x:t>FDEC240004371</x:t>
         </x:is>
       </x:c>
       <x:c r="B33" t="inlineStr">
         <x:is>
-          <x:t>TMVG0409</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C33" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>45958</x:v>
+        <x:v>45958.9583333333</x:v>
       </x:c>
       <x:c r="E33" s="2" t="n">
-        <x:v>46099</x:v>
+        <x:v>46077.9583333333</x:v>
       </x:c>
       <x:c r="F33" t="inlineStr">
         <x:is>
@@ -1177,36 +1172,31 @@
       </x:c>
       <x:c r="G33" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H33" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="A34" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003356</x:t>
+          <x:t>24/1143</x:t>
         </x:is>
       </x:c>
       <x:c r="B34" t="inlineStr">
         <x:is>
-          <x:t>AFDA0310</x:t>
+          <x:t>TMVG0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C34" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
+          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
         </x:is>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>45957.9583333333</x:v>
+        <x:v>45958</x:v>
       </x:c>
       <x:c r="E34" s="2" t="n">
-        <x:v>45977.9583333333</x:v>
+        <x:v>46099</x:v>
       </x:c>
       <x:c r="F34" t="inlineStr">
         <x:is>
@@ -1215,31 +1205,36 @@
       </x:c>
       <x:c r="G34" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H34" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003866</x:t>
+          <x:t>FDEC240003356</x:t>
         </x:is>
       </x:c>
       <x:c r="B35" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>AFDA0310</x:t>
         </x:is>
       </x:c>
       <x:c r="C35" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>45956.9583333333</x:v>
+        <x:v>45957.9583333333</x:v>
       </x:c>
       <x:c r="E35" s="2" t="n">
-        <x:v>46053.9583333333</x:v>
+        <x:v>45977.9583333333</x:v>
       </x:c>
       <x:c r="F35" t="inlineStr">
         <x:is>
@@ -1248,36 +1243,31 @@
       </x:c>
       <x:c r="G35" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H35" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004566</x:t>
+          <x:t>FDEC240003866</x:t>
         </x:is>
       </x:c>
       <x:c r="B36" t="inlineStr">
         <x:is>
-          <x:t>COMT0411</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C36" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN COMERCIAL DE VENTAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>45956.9583333333</x:v>
       </x:c>
       <x:c r="E36" s="2" t="n">
-        <x:v>46111.9166666667</x:v>
+        <x:v>46053.9583333333</x:v>
       </x:c>
       <x:c r="F36" t="inlineStr">
         <x:is>
@@ -1286,31 +1276,36 @@
       </x:c>
       <x:c r="G36" t="inlineStr">
         <x:is>
-          <x:t>ACCION LABORAL</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H36" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008507</x:t>
+          <x:t>FDEC240004566</x:t>
         </x:is>
       </x:c>
       <x:c r="B37" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>COMT0411</x:t>
         </x:is>
       </x:c>
       <x:c r="C37" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>GESTIÓN COMERCIAL DE VENTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D37" s="1" t="n">
         <x:v>45956.9583333333</x:v>
       </x:c>
       <x:c r="E37" s="2" t="n">
-        <x:v>46110.9166666667</x:v>
+        <x:v>46111.9166666667</x:v>
       </x:c>
       <x:c r="F37" t="inlineStr">
         <x:is>
@@ -1319,36 +1314,31 @@
       </x:c>
       <x:c r="G37" t="inlineStr">
         <x:is>
-          <x:t>FIVE ALCALA</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H37" t="inlineStr">
-        <x:is>
-          <x:t>ALCALA DE HENARES</x:t>
+          <x:t>ACCION LABORAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="38">
       <x:c r="A38" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004582</x:t>
+          <x:t>FCCC240008507</x:t>
         </x:is>
       </x:c>
       <x:c r="B38" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C38" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>45952.9166666667</x:v>
+        <x:v>45956.9583333333</x:v>
       </x:c>
       <x:c r="E38" s="2" t="n">
-        <x:v>46098.9583333333</x:v>
+        <x:v>46110.9166666667</x:v>
       </x:c>
       <x:c r="F38" t="inlineStr">
         <x:is>
@@ -1357,7 +1347,12 @@
       </x:c>
       <x:c r="G38" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>FIVE ALCALA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H38" t="inlineStr">
+        <x:is>
+          <x:t>ALCALA DE HENARES</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R1f59c20e1248431c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R712316358dd34f15"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -877,24 +877,24 @@
     <x:row r="25">
       <x:c r="A25" t="inlineStr">
         <x:is>
-          <x:t>23/8353</x:t>
+          <x:t>FCCC240008507</x:t>
         </x:is>
       </x:c>
       <x:c r="B25" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C25" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>45963.9583333333</x:v>
+        <x:v>45964.9583333333</x:v>
       </x:c>
       <x:c r="E25" s="2" t="n">
-        <x:v>46093.9583333333</x:v>
+        <x:v>46125.9166666667</x:v>
       </x:c>
       <x:c r="F25" t="inlineStr">
         <x:is>
@@ -903,31 +903,36 @@
       </x:c>
       <x:c r="G25" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>FIVE ALCALA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H25" t="inlineStr">
+        <x:is>
+          <x:t>ALCALA DE HENARES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003355</x:t>
+          <x:t>23/8353</x:t>
         </x:is>
       </x:c>
       <x:c r="B26" t="inlineStr">
         <x:is>
-          <x:t>AFDA0111</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C26" t="inlineStr">
         <x:is>
-          <x:t>FITNESS ACUÁTICO E HIDROCINESIA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>45963.9583333333</x:v>
       </x:c>
       <x:c r="E26" s="2" t="n">
-        <x:v>45972.9583333333</x:v>
+        <x:v>46093.9583333333</x:v>
       </x:c>
       <x:c r="F26" t="inlineStr">
         <x:is>
@@ -936,31 +941,31 @@
       </x:c>
       <x:c r="G26" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003869</x:t>
+          <x:t>FDEC240003355</x:t>
         </x:is>
       </x:c>
       <x:c r="B27" t="inlineStr">
         <x:is>
-          <x:t>SSCI0209</x:t>
+          <x:t>AFDA0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C27" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y ORGANIZACIÓN DE EQUIPOS DE LIMPIEZA</x:t>
+          <x:t>FITNESS ACUÁTICO E HIDROCINESIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>45963.9583333333</x:v>
       </x:c>
       <x:c r="E27" s="2" t="n">
-        <x:v>46014.9583333333</x:v>
+        <x:v>45972.9583333333</x:v>
       </x:c>
       <x:c r="F27" t="inlineStr">
         <x:is>
@@ -969,36 +974,31 @@
       </x:c>
       <x:c r="G27" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H27" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004186</x:t>
+          <x:t>FDEC240003869</x:t>
         </x:is>
       </x:c>
       <x:c r="B28" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>SSCI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C28" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>GESTIÓN Y ORGANIZACIÓN DE EQUIPOS DE LIMPIEZA</x:t>
         </x:is>
       </x:c>
       <x:c r="D28" s="1" t="n">
         <x:v>45963.9583333333</x:v>
       </x:c>
       <x:c r="E28" s="2" t="n">
-        <x:v>46093.9583333333</x:v>
+        <x:v>46014.9583333333</x:v>
       </x:c>
       <x:c r="F28" t="inlineStr">
         <x:is>
@@ -1007,14 +1007,19 @@
       </x:c>
       <x:c r="G28" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H28" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c r="A29" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004187</x:t>
+          <x:t>FDEC240004186</x:t>
         </x:is>
       </x:c>
       <x:c r="B29" t="inlineStr">
@@ -1047,24 +1052,24 @@
     <x:row r="30">
       <x:c r="A30" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004370</x:t>
+          <x:t>FDEC240004187</x:t>
         </x:is>
       </x:c>
       <x:c r="B30" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C30" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>45959.9583333333</x:v>
+        <x:v>45963.9583333333</x:v>
       </x:c>
       <x:c r="E30" s="2" t="n">
-        <x:v>46079.9583333333</x:v>
+        <x:v>46093.9583333333</x:v>
       </x:c>
       <x:c r="F30" t="inlineStr">
         <x:is>
@@ -1073,31 +1078,31 @@
       </x:c>
       <x:c r="G30" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004184</x:t>
+          <x:t>FDEC240004370</x:t>
         </x:is>
       </x:c>
       <x:c r="B31" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>45958.9583333333</x:v>
+        <x:v>45959.9583333333</x:v>
       </x:c>
       <x:c r="E31" s="2" t="n">
-        <x:v>46098.9583333333</x:v>
+        <x:v>46079.9583333333</x:v>
       </x:c>
       <x:c r="F31" t="inlineStr">
         <x:is>
@@ -1106,31 +1111,31 @@
       </x:c>
       <x:c r="G31" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004368</x:t>
+          <x:t>FDEC240004184</x:t>
         </x:is>
       </x:c>
       <x:c r="B32" t="inlineStr">
         <x:is>
-          <x:t>EOCO0208</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" t="inlineStr">
         <x:is>
-          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>45958.9583333333</x:v>
       </x:c>
       <x:c r="E32" s="2" t="n">
-        <x:v>46079.9583333333</x:v>
+        <x:v>46098.9583333333</x:v>
       </x:c>
       <x:c r="F32" t="inlineStr">
         <x:is>
@@ -1139,31 +1144,31 @@
       </x:c>
       <x:c r="G32" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004371</x:t>
+          <x:t>FDEC240004368</x:t>
         </x:is>
       </x:c>
       <x:c r="B33" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>EOCO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C33" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>45958.9583333333</x:v>
       </x:c>
       <x:c r="E33" s="2" t="n">
-        <x:v>46077.9583333333</x:v>
+        <x:v>46079.9583333333</x:v>
       </x:c>
       <x:c r="F33" t="inlineStr">
         <x:is>
@@ -1179,24 +1184,24 @@
     <x:row r="34">
       <x:c r="A34" t="inlineStr">
         <x:is>
-          <x:t>24/1143</x:t>
+          <x:t>FDEC240004371</x:t>
         </x:is>
       </x:c>
       <x:c r="B34" t="inlineStr">
         <x:is>
-          <x:t>TMVG0409</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C34" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>45958</x:v>
+        <x:v>45958.9583333333</x:v>
       </x:c>
       <x:c r="E34" s="2" t="n">
-        <x:v>46099</x:v>
+        <x:v>46077.9583333333</x:v>
       </x:c>
       <x:c r="F34" t="inlineStr">
         <x:is>
@@ -1205,36 +1210,31 @@
       </x:c>
       <x:c r="G34" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H34" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003356</x:t>
+          <x:t>24/1143</x:t>
         </x:is>
       </x:c>
       <x:c r="B35" t="inlineStr">
         <x:is>
-          <x:t>AFDA0310</x:t>
+          <x:t>TMVG0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C35" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
+          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
         </x:is>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>45957.9583333333</x:v>
+        <x:v>45958</x:v>
       </x:c>
       <x:c r="E35" s="2" t="n">
-        <x:v>45977.9583333333</x:v>
+        <x:v>46099</x:v>
       </x:c>
       <x:c r="F35" t="inlineStr">
         <x:is>
@@ -1243,31 +1243,36 @@
       </x:c>
       <x:c r="G35" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H35" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003866</x:t>
+          <x:t>FDEC240003356</x:t>
         </x:is>
       </x:c>
       <x:c r="B36" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>AFDA0310</x:t>
         </x:is>
       </x:c>
       <x:c r="C36" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>ACTIVIDADES DE NATACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>45956.9583333333</x:v>
+        <x:v>45957.9583333333</x:v>
       </x:c>
       <x:c r="E36" s="2" t="n">
-        <x:v>46053.9583333333</x:v>
+        <x:v>45977.9583333333</x:v>
       </x:c>
       <x:c r="F36" t="inlineStr">
         <x:is>
@@ -1276,36 +1281,31 @@
       </x:c>
       <x:c r="G36" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H36" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004566</x:t>
+          <x:t>FDEC240003866</x:t>
         </x:is>
       </x:c>
       <x:c r="B37" t="inlineStr">
         <x:is>
-          <x:t>COMT0411</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C37" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN COMERCIAL DE VENTAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D37" s="1" t="n">
         <x:v>45956.9583333333</x:v>
       </x:c>
       <x:c r="E37" s="2" t="n">
-        <x:v>46111.9166666667</x:v>
+        <x:v>46053.9583333333</x:v>
       </x:c>
       <x:c r="F37" t="inlineStr">
         <x:is>
@@ -1314,31 +1314,36 @@
       </x:c>
       <x:c r="G37" t="inlineStr">
         <x:is>
-          <x:t>ACCION LABORAL</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H37" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="38">
       <x:c r="A38" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008507</x:t>
+          <x:t>FDEC240004566</x:t>
         </x:is>
       </x:c>
       <x:c r="B38" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>COMT0411</x:t>
         </x:is>
       </x:c>
       <x:c r="C38" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>GESTIÓN COMERCIAL DE VENTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D38" s="1" t="n">
         <x:v>45956.9583333333</x:v>
       </x:c>
       <x:c r="E38" s="2" t="n">
-        <x:v>46110.9166666667</x:v>
+        <x:v>46111.9166666667</x:v>
       </x:c>
       <x:c r="F38" t="inlineStr">
         <x:is>
@@ -1347,12 +1352,7 @@
       </x:c>
       <x:c r="G38" t="inlineStr">
         <x:is>
-          <x:t>FIVE ALCALA</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H38" t="inlineStr">
-        <x:is>
-          <x:t>ALCALA DE HENARES</x:t>
+          <x:t>ACCION LABORAL</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -49368,6 +49368,1140 @@
       <x:c r="H1748" t="inlineStr">
         <x:is>
           <x:t>ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1749">
+      <x:c r="A1749" t="inlineStr">
+        <x:is>
+          <x:t>25/2317</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1749" t="inlineStr">
+        <x:is>
+          <x:t>OFIMÁTICA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1749" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1749" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1749" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1750">
+      <x:c r="A1750" t="inlineStr">
+        <x:is>
+          <x:t>25/2318</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1750" t="inlineStr">
+        <x:is>
+          <x:t>OFIMÁTICA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1750" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1750" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1750" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1751">
+      <x:c r="A1751" t="inlineStr">
+        <x:is>
+          <x:t>25/2319</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1751" t="inlineStr">
+        <x:is>
+          <x:t>OFIMÁTICA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1751" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1751" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1751" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1752">
+      <x:c r="A1752" t="inlineStr">
+        <x:is>
+          <x:t>25/2320</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1752" t="inlineStr">
+        <x:is>
+          <x:t>OFIMÁTICA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1752" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1752" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1752" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1753">
+      <x:c r="A1753" t="inlineStr">
+        <x:is>
+          <x:t>25/2321</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1753" t="inlineStr">
+        <x:is>
+          <x:t>OFIMÁTICA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1753" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1753" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1753" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1754">
+      <x:c r="A1754" t="inlineStr">
+        <x:is>
+          <x:t>25/2322</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1754" t="inlineStr">
+        <x:is>
+          <x:t>OFIMÁTICA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1754" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1754" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1754" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1755">
+      <x:c r="A1755" t="inlineStr">
+        <x:is>
+          <x:t>25/2323</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1755" t="inlineStr">
+        <x:is>
+          <x:t>ADMINISTRACIÓN DE BASES DE DATOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1755" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1755" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1755" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1756">
+      <x:c r="A1756" t="inlineStr">
+        <x:is>
+          <x:t>25/2324</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1756" t="inlineStr">
+        <x:is>
+          <x:t>ADMINISTRACIÓN DE BASES DE DATOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1756" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1756" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1756" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1757">
+      <x:c r="A1757" t="inlineStr">
+        <x:is>
+          <x:t>25/2325</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1757" t="inlineStr">
+        <x:is>
+          <x:t>ADMINISTRACIÓN DE BASES DE DATOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1757" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1757" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1757" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1758">
+      <x:c r="A1758" t="inlineStr">
+        <x:is>
+          <x:t>25/2331</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1758" t="inlineStr">
+        <x:is>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1758" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1758" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1758" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1759">
+      <x:c r="A1759" t="inlineStr">
+        <x:is>
+          <x:t>25/2332</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1759" t="inlineStr">
+        <x:is>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1759" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1759" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1759" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1760">
+      <x:c r="A1760" t="inlineStr">
+        <x:is>
+          <x:t>25/2333</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1760" t="inlineStr">
+        <x:is>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1760" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1760" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1760" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1761">
+      <x:c r="A1761" t="inlineStr">
+        <x:is>
+          <x:t>25/2334</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1761" t="inlineStr">
+        <x:is>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1761" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1761" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1761" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1762">
+      <x:c r="A1762" t="inlineStr">
+        <x:is>
+          <x:t>25/2335</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1762" t="inlineStr">
+        <x:is>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1762" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1762" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1762" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1763">
+      <x:c r="A1763" t="inlineStr">
+        <x:is>
+          <x:t>25/2361</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1763" t="inlineStr">
+        <x:is>
+          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS - SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1763" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1763" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1763" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1764">
+      <x:c r="A1764" t="inlineStr">
+        <x:is>
+          <x:t>25/2362</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1764" t="inlineStr">
+        <x:is>
+          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS - SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1764" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1764" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1764" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1765">
+      <x:c r="A1765" t="inlineStr">
+        <x:is>
+          <x:t>25/2363</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1765" t="inlineStr">
+        <x:is>
+          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS - SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1765" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1765" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1765" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1766">
+      <x:c r="A1766" t="inlineStr">
+        <x:is>
+          <x:t>25/2387</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1766" t="inlineStr">
+        <x:is>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INFRAESTRUCTURAS DE TELECOMUNICACIONES EN EDIFICIOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1766" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1766" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1766" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1767">
+      <x:c r="A1767" t="inlineStr">
+        <x:is>
+          <x:t>25/2388</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1767" t="inlineStr">
+        <x:is>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INFRAESTRUCTURAS DE TELECOMUNICACIONES EN EDIFICIOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1767" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1767" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1767" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1768">
+      <x:c r="A1768" t="inlineStr">
+        <x:is>
+          <x:t>25/2389</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1768" t="inlineStr">
+        <x:is>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INFRAESTRUCTURAS DE TELECOMUNICACIONES EN EDIFICIOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1768" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1768" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1768" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1769">
+      <x:c r="A1769" t="inlineStr">
+        <x:is>
+          <x:t>25/2390</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1769" t="inlineStr">
+        <x:is>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1769" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1769" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1769" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1770">
+      <x:c r="A1770" t="inlineStr">
+        <x:is>
+          <x:t>25/2391</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1770" t="inlineStr">
+        <x:is>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1770" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1770" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1770" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1771">
+      <x:c r="A1771" t="inlineStr">
+        <x:is>
+          <x:t>25/2392</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1771" t="inlineStr">
+        <x:is>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1771" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1771" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1771" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1772">
+      <x:c r="A1772" t="inlineStr">
+        <x:is>
+          <x:t>25/2393</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1772" t="inlineStr">
+        <x:is>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1772" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1772" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1772" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1773">
+      <x:c r="A1773" t="inlineStr">
+        <x:is>
+          <x:t>25/2394</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1773" t="inlineStr">
+        <x:is>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1773" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1773" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1773" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1774">
+      <x:c r="A1774" t="inlineStr">
+        <x:is>
+          <x:t>25/2395</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1774" t="inlineStr">
+        <x:is>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1774" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1774" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1774" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1775">
+      <x:c r="A1775" t="inlineStr">
+        <x:is>
+          <x:t>25/2396</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1775" t="inlineStr">
+        <x:is>
+          <x:t>OPERACIÓN EN SISTEMAS DE COMUNICACIÓN DE VOZ Y DATOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1775" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1775" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1775" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1776">
+      <x:c r="A1776" t="inlineStr">
+        <x:is>
+          <x:t>25/2397</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1776" t="inlineStr">
+        <x:is>
+          <x:t>OPERACIÓN EN SISTEMAS DE COMUNICACIÓN DE VOZ Y DATOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1776" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1776" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1776" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1777">
+      <x:c r="A1777" t="inlineStr">
+        <x:is>
+          <x:t>25/2402</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1777" t="inlineStr">
+        <x:is>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1777" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1777" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1777" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1778">
+      <x:c r="A1778" t="inlineStr">
+        <x:is>
+          <x:t>25/2403</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1778" t="inlineStr">
+        <x:is>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1778" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1778" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1778" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1779">
+      <x:c r="A1779" t="inlineStr">
+        <x:is>
+          <x:t>25/2404</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1779" t="inlineStr">
+        <x:is>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1779" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1779" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1779" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1780">
+      <x:c r="A1780" t="inlineStr">
+        <x:is>
+          <x:t>25/2405</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1780" t="inlineStr">
+        <x:is>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1780" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1780" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1780" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1781">
+      <x:c r="A1781" t="inlineStr">
+        <x:is>
+          <x:t>25/2406</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1781" t="inlineStr">
+        <x:is>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1781" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1781" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1781" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1782">
+      <x:c r="A1782" t="inlineStr">
+        <x:is>
+          <x:t>25/2415</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1782" t="inlineStr">
+        <x:is>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1782" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1782" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1782" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1783">
+      <x:c r="A1783" t="inlineStr">
+        <x:is>
+          <x:t>25/2416</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1783" t="inlineStr">
+        <x:is>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1783" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1783" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1783" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1784">
+      <x:c r="A1784" t="inlineStr">
+        <x:is>
+          <x:t>25/2417</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1784" t="inlineStr">
+        <x:is>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1784" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1784" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1784" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1785">
+      <x:c r="A1785" t="inlineStr">
+        <x:is>
+          <x:t>25/2418</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1785" t="inlineStr">
+        <x:is>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1785" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1785" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1785" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1786">
+      <x:c r="A1786" t="inlineStr">
+        <x:is>
+          <x:t>25/2419</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1786" t="inlineStr">
+        <x:is>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1786" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1786" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1786" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1787">
+      <x:c r="A1787" t="inlineStr">
+        <x:is>
+          <x:t>25/2420</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1787" t="inlineStr">
+        <x:is>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1787" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1787" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1787" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1788">
+      <x:c r="A1788" t="inlineStr">
+        <x:is>
+          <x:t>25/2421</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1788" t="inlineStr">
+        <x:is>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1788" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1788" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1788" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1789">
+      <x:c r="A1789" t="inlineStr">
+        <x:is>
+          <x:t>25/2422</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1789" t="inlineStr">
+        <x:is>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE EQUIPOS ELÉCTRICOS Y ELECTRÓNICOS *</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1789" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1789" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1789" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row r="1790">
+      <x:c r="A1790" t="inlineStr">
+        <x:is>
+          <x:t>25/2423</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C1790" t="inlineStr">
+        <x:is>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE EQUIPOS ELÉCTRICOS Y ELECTRÓNICOS *</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F1790" t="inlineStr">
+        <x:is>
+          <x:t>Presencial</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G1790" t="inlineStr">
+        <x:is>
+          <x:t>CENTRO T.I.C. DISTRITO SAN BLAS- CANILLEJAS ASOCIADO AL C.R.N. GETAFE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H1790" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R712316358dd34f15"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R65beb546998c475f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R65beb546998c475f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R0bea8b782bbb400b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rdf8674f7311e4a0d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R2e48576a87044fed"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R446d2b9a87c84bfe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R39a530511c234333"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -291,24 +291,24 @@
     <x:row r="8">
       <x:c r="A8" t="inlineStr">
         <x:is>
-          <x:t>23/8242</x:t>
+          <x:t>23/8313</x:t>
         </x:is>
       </x:c>
       <x:c r="B8" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>EOCB0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C8" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>46047.9583333333</x:v>
+        <x:v>46048.9583333333</x:v>
       </x:c>
       <x:c r="E8" s="2" t="n">
-        <x:v>46170.9166666667</x:v>
+        <x:v>46128.9166666667</x:v>
       </x:c>
       <x:c r="F8" t="inlineStr">
         <x:is>
@@ -317,36 +317,31 @@
       </x:c>
       <x:c r="G8" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H8" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="inlineStr">
         <x:is>
-          <x:t>23/8100</x:t>
+          <x:t>23/8314</x:t>
         </x:is>
       </x:c>
       <x:c r="B9" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C9" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>46043.9583333333</x:v>
+        <x:v>46048.9583333333</x:v>
       </x:c>
       <x:c r="E9" s="2" t="n">
-        <x:v>46196.9166666667</x:v>
+        <x:v>46167.9166666667</x:v>
       </x:c>
       <x:c r="F9" t="inlineStr">
         <x:is>
@@ -355,31 +350,31 @@
       </x:c>
       <x:c r="G9" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="A10" t="inlineStr">
         <x:is>
-          <x:t>23/8101</x:t>
+          <x:t>23/8242</x:t>
         </x:is>
       </x:c>
       <x:c r="B10" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C10" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>46041.9583333333</x:v>
+        <x:v>46047.9583333333</x:v>
       </x:c>
       <x:c r="E10" s="2" t="n">
-        <x:v>46127.9166666667</x:v>
+        <x:v>46170.9166666667</x:v>
       </x:c>
       <x:c r="F10" t="inlineStr">
         <x:is>
@@ -388,31 +383,36 @@
       </x:c>
       <x:c r="G10" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H10" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="inlineStr">
         <x:is>
-          <x:t>23/8099</x:t>
+          <x:t>23/8100</x:t>
         </x:is>
       </x:c>
       <x:c r="B11" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C11" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>46036.9583333333</x:v>
+        <x:v>46043.9583333333</x:v>
       </x:c>
       <x:c r="E11" s="2" t="n">
-        <x:v>46169.9166666667</x:v>
+        <x:v>46196.9166666667</x:v>
       </x:c>
       <x:c r="F11" t="inlineStr">
         <x:is>
@@ -428,24 +428,24 @@
     <x:row r="12">
       <x:c r="A12" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008590</x:t>
+          <x:t>23/8101</x:t>
         </x:is>
       </x:c>
       <x:c r="B12" t="inlineStr">
         <x:is>
-          <x:t>ENAE0208</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C12" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>46036.9583333333</x:v>
+        <x:v>46041.9583333333</x:v>
       </x:c>
       <x:c r="E12" s="2" t="n">
-        <x:v>46141.9166666667</x:v>
+        <x:v>46127.9166666667</x:v>
       </x:c>
       <x:c r="F12" t="inlineStr">
         <x:is>
@@ -454,36 +454,31 @@
       </x:c>
       <x:c r="G12" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H12" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="inlineStr">
         <x:is>
-          <x:t>23/8102</x:t>
+          <x:t>23/8099</x:t>
         </x:is>
       </x:c>
       <x:c r="B13" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C13" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>46034.9583333333</x:v>
+        <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E13" s="2" t="n">
-        <x:v>46145.9166666667</x:v>
+        <x:v>46169.9166666667</x:v>
       </x:c>
       <x:c r="F13" t="inlineStr">
         <x:is>
@@ -499,24 +494,24 @@
     <x:row r="14">
       <x:c r="A14" t="inlineStr">
         <x:is>
-          <x:t>23/8226</x:t>
+          <x:t>FCCC240008590</x:t>
         </x:is>
       </x:c>
       <x:c r="B14" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>ENAE0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C14" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>46034.9583333333</x:v>
+        <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E14" s="2" t="n">
-        <x:v>46161.9166666667</x:v>
+        <x:v>46141.9166666667</x:v>
       </x:c>
       <x:c r="F14" t="inlineStr">
         <x:is>
@@ -525,31 +520,36 @@
       </x:c>
       <x:c r="G14" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H14" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="A15" t="inlineStr">
         <x:is>
-          <x:t>23/8221</x:t>
+          <x:t>23/8102</x:t>
         </x:is>
       </x:c>
       <x:c r="B15" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C15" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>46033.9583333333</x:v>
+        <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E15" s="2" t="n">
-        <x:v>46184.9166666667</x:v>
+        <x:v>46145.9166666667</x:v>
       </x:c>
       <x:c r="F15" t="inlineStr">
         <x:is>
@@ -558,31 +558,31 @@
       </x:c>
       <x:c r="G15" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003865</x:t>
+          <x:t>23/8226</x:t>
         </x:is>
       </x:c>
       <x:c r="B16" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0210</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C16" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE MANUTENCIÓN, ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>46033.9583333333</x:v>
+        <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E16" s="2" t="n">
-        <x:v>46110.9166666667</x:v>
+        <x:v>46161.9166666667</x:v>
       </x:c>
       <x:c r="F16" t="inlineStr">
         <x:is>
@@ -591,36 +591,31 @@
       </x:c>
       <x:c r="G16" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H16" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="A17" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003866</x:t>
+          <x:t>23/8221</x:t>
         </x:is>
       </x:c>
       <x:c r="B17" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C17" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E17" s="2" t="n">
-        <x:v>46110.9166666667</x:v>
+        <x:v>46184.9166666667</x:v>
       </x:c>
       <x:c r="F17" t="inlineStr">
         <x:is>
@@ -629,29 +624,24 @@
       </x:c>
       <x:c r="G17" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H17" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003867</x:t>
+          <x:t>FDEC240003865</x:t>
         </x:is>
       </x:c>
       <x:c r="B18" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>IMAQ0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C18" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE MANUTENCIÓN, ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D18" s="1" t="n">
@@ -679,17 +669,17 @@
     <x:row r="19">
       <x:c r="A19" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003868</x:t>
+          <x:t>FDEC240003866</x:t>
         </x:is>
       </x:c>
       <x:c r="B19" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C19" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D19" s="1" t="n">
@@ -717,24 +707,24 @@
     <x:row r="20">
       <x:c r="A20" t="inlineStr">
         <x:is>
-          <x:t>23/8158</x:t>
+          <x:t>FDEC240003867</x:t>
         </x:is>
       </x:c>
       <x:c r="B20" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C20" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>46028.9583333333</x:v>
+        <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E20" s="2" t="n">
-        <x:v>46121.9166666667</x:v>
+        <x:v>46110.9166666667</x:v>
       </x:c>
       <x:c r="F20" t="inlineStr">
         <x:is>
@@ -743,31 +733,36 @@
       </x:c>
       <x:c r="G20" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H20" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="A21" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003549</x:t>
+          <x:t>FDEC240003868</x:t>
         </x:is>
       </x:c>
       <x:c r="B21" t="inlineStr">
         <x:is>
-          <x:t>COML0111</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C21" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE VIAJEROS POR CARRETERA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>46028.9583333333</x:v>
+        <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E21" s="2" t="n">
-        <x:v>46111.9166666667</x:v>
+        <x:v>46110.9166666667</x:v>
       </x:c>
       <x:c r="F21" t="inlineStr">
         <x:is>
@@ -776,36 +771,36 @@
       </x:c>
       <x:c r="G21" t="inlineStr">
         <x:is>
-          <x:t>MARSDIGITAL, S.L.</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H21" t="inlineStr">
         <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22" t="inlineStr">
         <x:is>
-          <x:t>23/8157</x:t>
+          <x:t>23/8158</x:t>
         </x:is>
       </x:c>
       <x:c r="B22" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C22" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>46026.9583333333</x:v>
+        <x:v>46028.9583333333</x:v>
       </x:c>
       <x:c r="E22" s="2" t="n">
-        <x:v>46135.9166666667</x:v>
+        <x:v>46121.9166666667</x:v>
       </x:c>
       <x:c r="F22" t="inlineStr">
         <x:is>
@@ -821,24 +816,24 @@
     <x:row r="23">
       <x:c r="A23" t="inlineStr">
         <x:is>
-          <x:t>23/8329</x:t>
+          <x:t>FDEC240003549</x:t>
         </x:is>
       </x:c>
       <x:c r="B23" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0211</x:t>
+          <x:t>COML0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C23" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
+          <x:t>TRÁFICO DE VIAJEROS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>45986.9583333333</x:v>
+        <x:v>46028.9583333333</x:v>
       </x:c>
       <x:c r="E23" s="2" t="n">
-        <x:v>46068.9583333333</x:v>
+        <x:v>46111.9166666667</x:v>
       </x:c>
       <x:c r="F23" t="inlineStr">
         <x:is>
@@ -847,31 +842,36 @@
       </x:c>
       <x:c r="G23" t="inlineStr">
         <x:is>
-          <x:t>ADARA FORMACION, S.L.</x:t>
+          <x:t>MARSDIGITAL, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H23" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="inlineStr">
         <x:is>
-          <x:t>24/1185</x:t>
+          <x:t>23/8157</x:t>
         </x:is>
       </x:c>
       <x:c r="B24" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C24" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCION</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>45986</x:v>
+        <x:v>46026.9583333333</x:v>
       </x:c>
       <x:c r="E24" s="2" t="n">
-        <x:v>46098</x:v>
+        <x:v>46135.9166666667</x:v>
       </x:c>
       <x:c r="F24" t="inlineStr">
         <x:is>
@@ -880,36 +880,31 @@
       </x:c>
       <x:c r="G24" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H24" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="A25" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004464</x:t>
+          <x:t>23/8329</x:t>
         </x:is>
       </x:c>
       <x:c r="B25" t="inlineStr">
         <x:is>
-          <x:t>AFDA0511</x:t>
+          <x:t>EOCJ0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C25" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
+          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>45985.9583333333</x:v>
+        <x:v>45986.9583333333</x:v>
       </x:c>
       <x:c r="E25" s="2" t="n">
-        <x:v>46054.9583333333</x:v>
+        <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="F25" t="inlineStr">
         <x:is>
@@ -918,31 +913,31 @@
       </x:c>
       <x:c r="G25" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>ADARA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26" t="inlineStr">
         <x:is>
-          <x:t>24/929</x:t>
+          <x:t>24/1185</x:t>
         </x:is>
       </x:c>
       <x:c r="B26" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C26" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCION</x:t>
         </x:is>
       </x:c>
       <x:c r="D26" s="1" t="n">
-        <x:v>45985</x:v>
+        <x:v>45986</x:v>
       </x:c>
       <x:c r="E26" s="2" t="n">
-        <x:v>46122</x:v>
+        <x:v>46098</x:v>
       </x:c>
       <x:c r="F26" t="inlineStr">
         <x:is>
@@ -951,36 +946,36 @@
       </x:c>
       <x:c r="G26" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H26" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="inlineStr">
         <x:is>
-          <x:t>23/8050</x:t>
+          <x:t>FDEC240004464</x:t>
         </x:is>
       </x:c>
       <x:c r="B27" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>AFDA0511</x:t>
         </x:is>
       </x:c>
       <x:c r="C27" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>45984.9583333333</x:v>
+        <x:v>45985.9583333333</x:v>
       </x:c>
       <x:c r="E27" s="2" t="n">
-        <x:v>46051.9583333333</x:v>
+        <x:v>46054.9583333333</x:v>
       </x:c>
       <x:c r="F27" t="inlineStr">
         <x:is>
@@ -989,31 +984,31 @@
       </x:c>
       <x:c r="G27" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004077</x:t>
+          <x:t>24/929</x:t>
         </x:is>
       </x:c>
       <x:c r="B28" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C28" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>45980.9583333333</x:v>
+        <x:v>45985</x:v>
       </x:c>
       <x:c r="E28" s="2" t="n">
-        <x:v>46110.9166666667</x:v>
+        <x:v>46122</x:v>
       </x:c>
       <x:c r="F28" t="inlineStr">
         <x:is>
@@ -1022,31 +1017,36 @@
       </x:c>
       <x:c r="G28" t="inlineStr">
         <x:is>
-          <x:t>INALOCAL, S.L.</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H28" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c r="A29" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004368</x:t>
+          <x:t>23/8050</x:t>
         </x:is>
       </x:c>
       <x:c r="B29" t="inlineStr">
         <x:is>
-          <x:t>EOCO0208</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" t="inlineStr">
         <x:is>
-          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D29" s="1" t="n">
-        <x:v>45975.9583333333</x:v>
+        <x:v>45984.9583333333</x:v>
       </x:c>
       <x:c r="E29" s="2" t="n">
-        <x:v>46089.9583333333</x:v>
+        <x:v>46051.9583333333</x:v>
       </x:c>
       <x:c r="F29" t="inlineStr">
         <x:is>
@@ -1055,31 +1055,31 @@
       </x:c>
       <x:c r="G29" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="inlineStr">
         <x:is>
-          <x:t>24/1170</x:t>
+          <x:t>FDEC240004077</x:t>
         </x:is>
       </x:c>
       <x:c r="B30" t="inlineStr">
         <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C30" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>45973</x:v>
+        <x:v>45980.9583333333</x:v>
       </x:c>
       <x:c r="E30" s="2" t="n">
-        <x:v>46059</x:v>
+        <x:v>46110.9166666667</x:v>
       </x:c>
       <x:c r="F30" t="inlineStr">
         <x:is>
@@ -1088,36 +1088,31 @@
       </x:c>
       <x:c r="G30" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H30" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>INALOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31" t="inlineStr">
         <x:is>
-          <x:t>23/8353</x:t>
+          <x:t>FDEC240004368</x:t>
         </x:is>
       </x:c>
       <x:c r="B31" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>EOCO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>REPRESENTACIÓN DE PROYECTOS DE OBRA CIVIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>45972.9583333333</x:v>
+        <x:v>45975.9583333333</x:v>
       </x:c>
       <x:c r="E31" s="2" t="n">
-        <x:v>46104.9583333333</x:v>
+        <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="F31" t="inlineStr">
         <x:is>
@@ -1126,31 +1121,31 @@
       </x:c>
       <x:c r="G31" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004315</x:t>
+          <x:t>24/1170</x:t>
         </x:is>
       </x:c>
       <x:c r="B32" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>45972.9583333333</x:v>
+        <x:v>45973</x:v>
       </x:c>
       <x:c r="E32" s="2" t="n">
-        <x:v>46020.9583333333</x:v>
+        <x:v>46059</x:v>
       </x:c>
       <x:c r="F32" t="inlineStr">
         <x:is>
@@ -1159,26 +1154,36 @@
       </x:c>
       <x:c r="G32" t="inlineStr">
         <x:is>
-          <x:t>FORMACION PARA EL DESARROLLO E INSERCION SL</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H32" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008547</x:t>
+          <x:t>23/8353</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B33" t="inlineStr">
+        <x:is>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C33" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>45971.9583333333</x:v>
+        <x:v>45972.9583333333</x:v>
       </x:c>
       <x:c r="E33" s="2" t="n">
-        <x:v>46106.9583333333</x:v>
+        <x:v>46104.9583333333</x:v>
       </x:c>
       <x:c r="F33" t="inlineStr">
         <x:is>
@@ -1187,30 +1192,31 @@
       </x:c>
       <x:c r="G33" t="inlineStr">
         <x:is>
-          <x:t>DETUATUFORMACION S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H33" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="A34" t="inlineStr">
         <x:is>
-          <x:t>22/1707</x:t>
+          <x:t>FDEC240004315</x:t>
         </x:is>
       </x:c>
       <x:c r="B34" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C34" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
-        </x:is>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D34" s="1" t="n">
+        <x:v>45972.9583333333</x:v>
+      </x:c>
+      <x:c r="E34" s="2" t="n">
+        <x:v>46020.9583333333</x:v>
       </x:c>
       <x:c r="F34" t="inlineStr">
         <x:is>
@@ -1219,30 +1225,26 @@
       </x:c>
       <x:c r="G34" t="inlineStr">
         <x:is>
-          <x:t>MFD FORMACION SAG SOLAR</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H34" t="inlineStr">
-        <x:is>
-          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
+          <x:t>FORMACION PARA EL DESARROLLO E INSERCION SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="inlineStr">
         <x:is>
-          <x:t>22/1708</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B35" t="inlineStr">
-        <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>FCCC240008547</x:t>
         </x:is>
       </x:c>
       <x:c r="C35" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
-        </x:is>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D35" s="1" t="n">
+        <x:v>45971.9583333333</x:v>
+      </x:c>
+      <x:c r="E35" s="2" t="n">
+        <x:v>46106.9583333333</x:v>
       </x:c>
       <x:c r="F35" t="inlineStr">
         <x:is>
@@ -1251,29 +1253,29 @@
       </x:c>
       <x:c r="G35" t="inlineStr">
         <x:is>
-          <x:t>MFD FORMACION SAG SOLAR</x:t>
+          <x:t>DETUATUFORMACION S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H35" t="inlineStr">
         <x:is>
-          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="inlineStr">
         <x:is>
-          <x:t>22/1709</x:t>
+          <x:t>22/1707</x:t>
         </x:is>
       </x:c>
       <x:c r="B36" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C36" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F36" t="inlineStr">
@@ -1283,29 +1285,29 @@
       </x:c>
       <x:c r="G36" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION ASISPA</x:t>
+          <x:t>MFD FORMACION SAG SOLAR</x:t>
         </x:is>
       </x:c>
       <x:c r="H36" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="inlineStr">
         <x:is>
-          <x:t>22/1710</x:t>
+          <x:t>22/1708</x:t>
         </x:is>
       </x:c>
       <x:c r="B37" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C37" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F37" t="inlineStr">
@@ -1315,29 +1317,29 @@
       </x:c>
       <x:c r="G37" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION ASISPA</x:t>
+          <x:t>MFD FORMACION SAG SOLAR</x:t>
         </x:is>
       </x:c>
       <x:c r="H37" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="38">
       <x:c r="A38" t="inlineStr">
         <x:is>
-          <x:t>22/1714</x:t>
+          <x:t>22/1709</x:t>
         </x:is>
       </x:c>
       <x:c r="B38" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C38" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F38" t="inlineStr">
@@ -1359,17 +1361,17 @@
     <x:row r="39">
       <x:c r="A39" t="inlineStr">
         <x:is>
-          <x:t>22/1715</x:t>
+          <x:t>22/1710</x:t>
         </x:is>
       </x:c>
       <x:c r="B39" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C39" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F39" t="inlineStr">
@@ -1391,17 +1393,17 @@
     <x:row r="40">
       <x:c r="A40" t="inlineStr">
         <x:is>
-          <x:t>22/1718</x:t>
+          <x:t>22/1714</x:t>
         </x:is>
       </x:c>
       <x:c r="B40" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C40" t="inlineStr">
         <x:is>
-          <x:t>FABRICAS DE ALBAÑILERIA</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F40" t="inlineStr">
@@ -1411,29 +1413,29 @@
       </x:c>
       <x:c r="G40" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
+          <x:t>CENTRO DE FORMACION ASISPA</x:t>
         </x:is>
       </x:c>
       <x:c r="H40" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="A41" t="inlineStr">
         <x:is>
-          <x:t>22/1719</x:t>
+          <x:t>22/1715</x:t>
         </x:is>
       </x:c>
       <x:c r="B41" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0110</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C41" t="inlineStr">
         <x:is>
-          <x:t>INSTALACION DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F41" t="inlineStr">
@@ -1443,29 +1445,29 @@
       </x:c>
       <x:c r="G41" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
+          <x:t>CENTRO DE FORMACION ASISPA</x:t>
         </x:is>
       </x:c>
       <x:c r="H41" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42" t="inlineStr">
         <x:is>
-          <x:t>22/1725</x:t>
+          <x:t>22/1718</x:t>
         </x:is>
       </x:c>
       <x:c r="B42" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C42" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>FABRICAS DE ALBAÑILERIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F42" t="inlineStr">
@@ -1475,29 +1477,29 @@
       </x:c>
       <x:c r="G42" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
         </x:is>
       </x:c>
       <x:c r="H42" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="A43" t="inlineStr">
         <x:is>
-          <x:t>22/1726</x:t>
+          <x:t>22/1719</x:t>
         </x:is>
       </x:c>
       <x:c r="B43" t="inlineStr">
         <x:is>
-          <x:t>ARGI0209</x:t>
+          <x:t>EOCJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C43" t="inlineStr">
         <x:is>
-          <x:t>IMPRESIÓN DIGITAL</x:t>
+          <x:t>INSTALACION DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F43" t="inlineStr">
@@ -1507,29 +1509,29 @@
       </x:c>
       <x:c r="G43" t="inlineStr">
         <x:is>
-          <x:t>INST.POLITECN.SALESIANOS</x:t>
+          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
         </x:is>
       </x:c>
       <x:c r="H43" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="44">
       <x:c r="A44" t="inlineStr">
         <x:is>
-          <x:t>22/1727</x:t>
+          <x:t>22/1725</x:t>
         </x:is>
       </x:c>
       <x:c r="B44" t="inlineStr">
         <x:is>
-          <x:t>ARGI0209</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C44" t="inlineStr">
         <x:is>
-          <x:t>IMPRESIÓN DIGITAL</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F44" t="inlineStr">
@@ -1539,7 +1541,7 @@
       </x:c>
       <x:c r="G44" t="inlineStr">
         <x:is>
-          <x:t>INST.POLITECN.SALESIANOS</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H44" t="inlineStr">
@@ -1551,17 +1553,17 @@
     <x:row r="45">
       <x:c r="A45" t="inlineStr">
         <x:is>
-          <x:t>22/1729</x:t>
+          <x:t>22/1726</x:t>
         </x:is>
       </x:c>
       <x:c r="B45" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>ARGI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C45" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELVACIÓN Y TRANSPORTE</x:t>
+          <x:t>IMPRESIÓN DIGITAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F45" t="inlineStr">
@@ -1583,17 +1585,17 @@
     <x:row r="46">
       <x:c r="A46" t="inlineStr">
         <x:is>
-          <x:t>22/1750</x:t>
+          <x:t>22/1727</x:t>
         </x:is>
       </x:c>
       <x:c r="B46" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ARGI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C46" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>IMPRESIÓN DIGITAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F46" t="inlineStr">
@@ -1603,29 +1605,29 @@
       </x:c>
       <x:c r="G46" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
+          <x:t>INST.POLITECN.SALESIANOS</x:t>
         </x:is>
       </x:c>
       <x:c r="H46" t="inlineStr">
         <x:is>
-          <x:t>BOADILLA DEL MONTE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="47">
       <x:c r="A47" t="inlineStr">
         <x:is>
-          <x:t>22/1751</x:t>
+          <x:t>22/1729</x:t>
         </x:is>
       </x:c>
       <x:c r="B47" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C47" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F47" t="inlineStr">
@@ -1635,19 +1637,19 @@
       </x:c>
       <x:c r="G47" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
+          <x:t>INST.POLITECN.SALESIANOS</x:t>
         </x:is>
       </x:c>
       <x:c r="H47" t="inlineStr">
         <x:is>
-          <x:t>BOADILLA DEL MONTE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="48">
       <x:c r="A48" t="inlineStr">
         <x:is>
-          <x:t>22/1752</x:t>
+          <x:t>22/1750</x:t>
         </x:is>
       </x:c>
       <x:c r="B48" t="inlineStr">
@@ -1679,17 +1681,17 @@
     <x:row r="49">
       <x:c r="A49" t="inlineStr">
         <x:is>
-          <x:t>22/1755</x:t>
+          <x:t>22/1751</x:t>
         </x:is>
       </x:c>
       <x:c r="B49" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C49" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F49" t="inlineStr">
@@ -1699,29 +1701,29 @@
       </x:c>
       <x:c r="G49" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL</x:t>
+          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="H49" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>BOADILLA DEL MONTE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="50">
       <x:c r="A50" t="inlineStr">
         <x:is>
-          <x:t>22/1756</x:t>
+          <x:t>22/1752</x:t>
         </x:is>
       </x:c>
       <x:c r="B50" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C50" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F50" t="inlineStr">
@@ -1731,29 +1733,29 @@
       </x:c>
       <x:c r="G50" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL</x:t>
+          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="H50" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>BOADILLA DEL MONTE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="51">
       <x:c r="A51" t="inlineStr">
         <x:is>
-          <x:t>22/1759</x:t>
+          <x:t>22/1755</x:t>
         </x:is>
       </x:c>
       <x:c r="B51" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C51" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F51" t="inlineStr">
@@ -1763,7 +1765,7 @@
       </x:c>
       <x:c r="G51" t="inlineStr">
         <x:is>
-          <x:t>NRED</x:t>
+          <x:t>FORMACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="H51" t="inlineStr">
@@ -1775,17 +1777,17 @@
     <x:row r="52">
       <x:c r="A52" t="inlineStr">
         <x:is>
-          <x:t>22/1760</x:t>
+          <x:t>22/1756</x:t>
         </x:is>
       </x:c>
       <x:c r="B52" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C52" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F52" t="inlineStr">
@@ -1795,7 +1797,7 @@
       </x:c>
       <x:c r="G52" t="inlineStr">
         <x:is>
-          <x:t>NRED</x:t>
+          <x:t>FORMACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="H52" t="inlineStr">
@@ -1807,7 +1809,7 @@
     <x:row r="53">
       <x:c r="A53" t="inlineStr">
         <x:is>
-          <x:t>22/1761</x:t>
+          <x:t>22/1759</x:t>
         </x:is>
       </x:c>
       <x:c r="B53" t="inlineStr">
@@ -1839,7 +1841,7 @@
     <x:row r="54">
       <x:c r="A54" t="inlineStr">
         <x:is>
-          <x:t>22/1762</x:t>
+          <x:t>22/1760</x:t>
         </x:is>
       </x:c>
       <x:c r="B54" t="inlineStr">
@@ -1871,17 +1873,17 @@
     <x:row r="55">
       <x:c r="A55" t="inlineStr">
         <x:is>
-          <x:t>22/1764</x:t>
+          <x:t>22/1761</x:t>
         </x:is>
       </x:c>
       <x:c r="B55" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C55" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F55" t="inlineStr">
@@ -1891,14 +1893,19 @@
       </x:c>
       <x:c r="G55" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA LARA S.L.</x:t>
+          <x:t>NRED</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H55" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="56">
       <x:c r="A56" t="inlineStr">
         <x:is>
-          <x:t>22/1765</x:t>
+          <x:t>22/1762</x:t>
         </x:is>
       </x:c>
       <x:c r="B56" t="inlineStr">
@@ -1918,7 +1925,7 @@
       </x:c>
       <x:c r="G56" t="inlineStr">
         <x:is>
-          <x:t>FEMXA FORMACION</x:t>
+          <x:t>NRED</x:t>
         </x:is>
       </x:c>
       <x:c r="H56" t="inlineStr">
@@ -1930,17 +1937,17 @@
     <x:row r="57">
       <x:c r="A57" t="inlineStr">
         <x:is>
-          <x:t>22/1766</x:t>
+          <x:t>22/1764</x:t>
         </x:is>
       </x:c>
       <x:c r="B57" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C57" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F57" t="inlineStr">
@@ -1950,29 +1957,24 @@
       </x:c>
       <x:c r="G57" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ACTIVA FORMACION, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H57" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>AUTOESCUELA LARA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="58">
       <x:c r="A58" t="inlineStr">
         <x:is>
-          <x:t>22/1775</x:t>
+          <x:t>22/1765</x:t>
         </x:is>
       </x:c>
       <x:c r="B58" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C58" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F58" t="inlineStr">
@@ -1982,7 +1984,7 @@
       </x:c>
       <x:c r="G58" t="inlineStr">
         <x:is>
-          <x:t>PROYECTA EMPLEO</x:t>
+          <x:t>FEMXA FORMACION</x:t>
         </x:is>
       </x:c>
       <x:c r="H58" t="inlineStr">
@@ -1994,17 +1996,17 @@
     <x:row r="59">
       <x:c r="A59" t="inlineStr">
         <x:is>
-          <x:t>22/1777</x:t>
+          <x:t>22/1766</x:t>
         </x:is>
       </x:c>
       <x:c r="B59" t="inlineStr">
         <x:is>
-          <x:t>COMM0112</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C59" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE MARKETING Y COMUNICACIÓN</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F59" t="inlineStr">
@@ -2014,29 +2016,29 @@
       </x:c>
       <x:c r="G59" t="inlineStr">
         <x:is>
-          <x:t>CENES</x:t>
+          <x:t>CENTRO DE ESTUDIOS ACTIVA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H59" t="inlineStr">
         <x:is>
-          <x:t>GETAFE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="60">
       <x:c r="A60" t="inlineStr">
         <x:is>
-          <x:t>22/1781</x:t>
+          <x:t>22/1775</x:t>
         </x:is>
       </x:c>
       <x:c r="B60" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C60" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACION Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F60" t="inlineStr">
@@ -2046,29 +2048,29 @@
       </x:c>
       <x:c r="G60" t="inlineStr">
         <x:is>
-          <x:t>AULA TRES INFORMATICA</x:t>
+          <x:t>PROYECTA EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="H60" t="inlineStr">
         <x:is>
-          <x:t>TRES CANTOS</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="61">
       <x:c r="A61" t="inlineStr">
         <x:is>
-          <x:t>22/1783</x:t>
+          <x:t>22/1777</x:t>
         </x:is>
       </x:c>
       <x:c r="B61" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>COMM0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C61" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
+          <x:t>GESTIÓN DE MARKETING Y COMUNICACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F61" t="inlineStr">
@@ -2078,29 +2080,29 @@
       </x:c>
       <x:c r="G61" t="inlineStr">
         <x:is>
-          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
+          <x:t>CENES</x:t>
         </x:is>
       </x:c>
       <x:c r="H61" t="inlineStr">
         <x:is>
-          <x:t>RIVAS-VACIAMADRID</x:t>
+          <x:t>GETAFE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="62">
       <x:c r="A62" t="inlineStr">
         <x:is>
-          <x:t>22/1785</x:t>
+          <x:t>22/1781</x:t>
         </x:is>
       </x:c>
       <x:c r="B62" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C62" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>OPERACIONES DE GRABACION Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F62" t="inlineStr">
@@ -2110,29 +2112,29 @@
       </x:c>
       <x:c r="G62" t="inlineStr">
         <x:is>
-          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
+          <x:t>AULA TRES INFORMATICA</x:t>
         </x:is>
       </x:c>
       <x:c r="H62" t="inlineStr">
         <x:is>
-          <x:t>RIVAS-VACIAMADRID</x:t>
+          <x:t>TRES CANTOS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="63">
       <x:c r="A63" t="inlineStr">
         <x:is>
-          <x:t>22/1786</x:t>
+          <x:t>22/1783</x:t>
         </x:is>
       </x:c>
       <x:c r="B63" t="inlineStr">
         <x:is>
-          <x:t>ADGG0308</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C63" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTION EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F63" t="inlineStr">
@@ -2154,7 +2156,7 @@
     <x:row r="64">
       <x:c r="A64" t="inlineStr">
         <x:is>
-          <x:t>22/1788</x:t>
+          <x:t>22/1785</x:t>
         </x:is>
       </x:c>
       <x:c r="B64" t="inlineStr">
@@ -2174,29 +2176,29 @@
       </x:c>
       <x:c r="G64" t="inlineStr">
         <x:is>
-          <x:t>GALA CTM-2</x:t>
+          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H64" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>RIVAS-VACIAMADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="65">
       <x:c r="A65" t="inlineStr">
         <x:is>
-          <x:t>22/1789</x:t>
+          <x:t>22/1786</x:t>
         </x:is>
       </x:c>
       <x:c r="B65" t="inlineStr">
         <x:is>
-          <x:t>IFCT0309</x:t>
+          <x:t>ADGG0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C65" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTION EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F65" t="inlineStr">
@@ -2206,29 +2208,29 @@
       </x:c>
       <x:c r="G65" t="inlineStr">
         <x:is>
-          <x:t>PLATO SUR</x:t>
+          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H65" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>RIVAS-VACIAMADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="66">
       <x:c r="A66" t="inlineStr">
         <x:is>
-          <x:t>22/1792</x:t>
+          <x:t>22/1788</x:t>
         </x:is>
       </x:c>
       <x:c r="B66" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C66" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTIÓN ADMINISTRATIVA</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F66" t="inlineStr">
@@ -2238,7 +2240,7 @@
       </x:c>
       <x:c r="G66" t="inlineStr">
         <x:is>
-          <x:t>KIWORKS CUATRO CAMINOS</x:t>
+          <x:t>GALA CTM-2</x:t>
         </x:is>
       </x:c>
       <x:c r="H66" t="inlineStr">
@@ -2250,17 +2252,17 @@
     <x:row r="67">
       <x:c r="A67" t="inlineStr">
         <x:is>
-          <x:t>22/2238</x:t>
+          <x:t>22/1789</x:t>
         </x:is>
       </x:c>
       <x:c r="B67" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>IFCT0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C67" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F67" t="inlineStr">
@@ -2270,24 +2272,29 @@
       </x:c>
       <x:c r="G67" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>PLATO SUR</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H67" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="68">
       <x:c r="A68" t="inlineStr">
         <x:is>
-          <x:t>22/2239</x:t>
+          <x:t>22/1792</x:t>
         </x:is>
       </x:c>
       <x:c r="B68" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C68" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>ACTIVIDADES DE GESTIÓN ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F68" t="inlineStr">
@@ -2297,24 +2304,29 @@
       </x:c>
       <x:c r="G68" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>KIWORKS CUATRO CAMINOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H68" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="69">
       <x:c r="A69" t="inlineStr">
         <x:is>
-          <x:t>22/2242</x:t>
+          <x:t>22/2238</x:t>
         </x:is>
       </x:c>
       <x:c r="B69" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C69" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F69" t="inlineStr">
@@ -2324,24 +2336,24 @@
       </x:c>
       <x:c r="G69" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="70">
       <x:c r="A70" t="inlineStr">
         <x:is>
-          <x:t>22/2243</x:t>
+          <x:t>22/2239</x:t>
         </x:is>
       </x:c>
       <x:c r="B70" t="inlineStr">
         <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C70" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F70" t="inlineStr">
@@ -2351,24 +2363,24 @@
       </x:c>
       <x:c r="G70" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="71">
       <x:c r="A71" t="inlineStr">
         <x:is>
-          <x:t>22/2244</x:t>
+          <x:t>22/2242</x:t>
         </x:is>
       </x:c>
       <x:c r="B71" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C71" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F71" t="inlineStr">
@@ -2385,17 +2397,17 @@
     <x:row r="72">
       <x:c r="A72" t="inlineStr">
         <x:is>
-          <x:t>22/2245</x:t>
+          <x:t>22/2243</x:t>
         </x:is>
       </x:c>
       <x:c r="B72" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C72" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F72" t="inlineStr">
@@ -2412,17 +2424,17 @@
     <x:row r="73">
       <x:c r="A73" t="inlineStr">
         <x:is>
-          <x:t>22/3933</x:t>
+          <x:t>22/2244</x:t>
         </x:is>
       </x:c>
       <x:c r="B73" t="inlineStr">
         <x:is>
-          <x:t>COMT0210</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C73" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN ADMINISTRATIVA Y FINANCIERA DEL COMERCIO INTERNACIONAL</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F73" t="inlineStr">
@@ -2432,24 +2444,24 @@
       </x:c>
       <x:c r="G73" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="74">
       <x:c r="A74" t="inlineStr">
         <x:is>
-          <x:t>22/5155</x:t>
+          <x:t>22/2245</x:t>
         </x:is>
       </x:c>
       <x:c r="B74" t="inlineStr">
         <x:is>
-          <x:t>EOCE0109</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C74" t="inlineStr">
         <x:is>
-          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F74" t="inlineStr">
@@ -2459,24 +2471,24 @@
       </x:c>
       <x:c r="G74" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="75">
       <x:c r="A75" t="inlineStr">
         <x:is>
-          <x:t>22/5157</x:t>
+          <x:t>22/3933</x:t>
         </x:is>
       </x:c>
       <x:c r="B75" t="inlineStr">
         <x:is>
-          <x:t>FMEC0210</x:t>
+          <x:t>COMT0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C75" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
+          <x:t>GESTIÓN ADMINISTRATIVA Y FINANCIERA DEL COMERCIO INTERNACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F75" t="inlineStr">
@@ -2486,24 +2498,24 @@
       </x:c>
       <x:c r="G75" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="76">
       <x:c r="A76" t="inlineStr">
         <x:is>
-          <x:t>22/5159</x:t>
+          <x:t>22/5155</x:t>
         </x:is>
       </x:c>
       <x:c r="B76" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>EOCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C76" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F76" t="inlineStr">
@@ -2520,17 +2532,17 @@
     <x:row r="77">
       <x:c r="A77" t="inlineStr">
         <x:is>
-          <x:t>22/5163</x:t>
+          <x:t>22/5157</x:t>
         </x:is>
       </x:c>
       <x:c r="B77" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>FMEC0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C77" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
         </x:is>
       </x:c>
       <x:c r="F77" t="inlineStr">
@@ -2547,17 +2559,17 @@
     <x:row r="78">
       <x:c r="A78" t="inlineStr">
         <x:is>
-          <x:t>22/5164</x:t>
+          <x:t>22/5159</x:t>
         </x:is>
       </x:c>
       <x:c r="B78" t="inlineStr">
         <x:is>
-          <x:t>ELEE0209</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C78" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE REDES ELÉCTRICAS DE ALTA TENSIÓN DE SEGUNDA Y TERCERA CATEGORÍA Y CENTROS DE TRANSFORMACIÓN</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F78" t="inlineStr">
@@ -2574,17 +2586,17 @@
     <x:row r="79">
       <x:c r="A79" t="inlineStr">
         <x:is>
-          <x:t>22/5167</x:t>
+          <x:t>22/5163</x:t>
         </x:is>
       </x:c>
       <x:c r="B79" t="inlineStr">
         <x:is>
-          <x:t>EOCB0209</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C79" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ACABADOS RÍGIDOS Y URBANIZACIÓN</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F79" t="inlineStr">
@@ -2601,17 +2613,17 @@
     <x:row r="80">
       <x:c r="A80" t="inlineStr">
         <x:is>
-          <x:t>22/5169</x:t>
+          <x:t>22/5164</x:t>
         </x:is>
       </x:c>
       <x:c r="B80" t="inlineStr">
         <x:is>
-          <x:t>EOCE0109</x:t>
+          <x:t>ELEE0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C80" t="inlineStr">
         <x:is>
-          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE REDES ELÉCTRICAS DE ALTA TENSIÓN DE SEGUNDA Y TERCERA CATEGORÍA Y CENTROS DE TRANSFORMACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F80" t="inlineStr">
@@ -2628,17 +2640,17 @@
     <x:row r="81">
       <x:c r="A81" t="inlineStr">
         <x:is>
-          <x:t>22/5170</x:t>
+          <x:t>22/5167</x:t>
         </x:is>
       </x:c>
       <x:c r="B81" t="inlineStr">
         <x:is>
-          <x:t>FMEC0210</x:t>
+          <x:t>EOCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C81" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ACABADOS RÍGIDOS Y URBANIZACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F81" t="inlineStr">
@@ -2655,17 +2667,17 @@
     <x:row r="82">
       <x:c r="A82" t="inlineStr">
         <x:is>
-          <x:t>22/5171</x:t>
+          <x:t>22/5169</x:t>
         </x:is>
       </x:c>
       <x:c r="B82" t="inlineStr">
         <x:is>
-          <x:t>MAMD0309</x:t>
+          <x:t>EOCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C82" t="inlineStr">
         <x:is>
-          <x:t>PROYECTOS DE CARPINTERÍA Y MUEBLE</x:t>
+          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F82" t="inlineStr">
@@ -2682,17 +2694,17 @@
     <x:row r="83">
       <x:c r="A83" t="inlineStr">
         <x:is>
-          <x:t>22/5172</x:t>
+          <x:t>22/5170</x:t>
         </x:is>
       </x:c>
       <x:c r="B83" t="inlineStr">
         <x:is>
-          <x:t>MAMR0408</x:t>
+          <x:t>FMEC0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C83" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE MUEBLES</x:t>
+          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
         </x:is>
       </x:c>
       <x:c r="F83" t="inlineStr">
@@ -2709,17 +2721,17 @@
     <x:row r="84">
       <x:c r="A84" t="inlineStr">
         <x:is>
-          <x:t>22/5173</x:t>
+          <x:t>22/5171</x:t>
         </x:is>
       </x:c>
       <x:c r="B84" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>MAMD0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C84" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>PROYECTOS DE CARPINTERÍA Y MUEBLE</x:t>
         </x:is>
       </x:c>
       <x:c r="F84" t="inlineStr">
@@ -2736,17 +2748,17 @@
     <x:row r="85">
       <x:c r="A85" t="inlineStr">
         <x:is>
-          <x:t>22/5174</x:t>
+          <x:t>22/5172</x:t>
         </x:is>
       </x:c>
       <x:c r="B85" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>MAMR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C85" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>INSTALACIÓN DE MUEBLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F85" t="inlineStr">
@@ -2763,17 +2775,17 @@
     <x:row r="86">
       <x:c r="A86" t="inlineStr">
         <x:is>
-          <x:t>22/5176</x:t>
+          <x:t>22/5173</x:t>
         </x:is>
       </x:c>
       <x:c r="B86" t="inlineStr">
         <x:is>
-          <x:t>SEAG0211</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C86" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN AMBIENTAL</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F86" t="inlineStr">
@@ -2790,17 +2802,17 @@
     <x:row r="87">
       <x:c r="A87" t="inlineStr">
         <x:is>
-          <x:t>22/5180</x:t>
+          <x:t>22/5174</x:t>
         </x:is>
       </x:c>
       <x:c r="B87" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C87" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F87" t="inlineStr">
@@ -2810,24 +2822,24 @@
       </x:c>
       <x:c r="G87" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="88">
       <x:c r="A88" t="inlineStr">
         <x:is>
-          <x:t>22/5182</x:t>
+          <x:t>22/5176</x:t>
         </x:is>
       </x:c>
       <x:c r="B88" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>SEAG0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C88" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>GESTIÓN AMBIENTAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F88" t="inlineStr">
@@ -2837,24 +2849,24 @@
       </x:c>
       <x:c r="G88" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="89">
       <x:c r="A89" t="inlineStr">
         <x:is>
-          <x:t>22/5183</x:t>
+          <x:t>22/5180</x:t>
         </x:is>
       </x:c>
       <x:c r="B89" t="inlineStr">
         <x:is>
-          <x:t>HOTA0208</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C89" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE PISOS Y LIMPIEZA EN ALOJAMIENTOS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F89" t="inlineStr">
@@ -2871,17 +2883,17 @@
     <x:row r="90">
       <x:c r="A90" t="inlineStr">
         <x:is>
-          <x:t>22/5185</x:t>
+          <x:t>22/5182</x:t>
         </x:is>
       </x:c>
       <x:c r="B90" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C90" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F90" t="inlineStr">
@@ -2898,17 +2910,17 @@
     <x:row r="91">
       <x:c r="A91" t="inlineStr">
         <x:is>
-          <x:t>22/5188</x:t>
+          <x:t>22/5183</x:t>
         </x:is>
       </x:c>
       <x:c r="B91" t="inlineStr">
         <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>HOTA0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C91" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>GESTIÓN DE PISOS Y LIMPIEZA EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F91" t="inlineStr">
@@ -2925,17 +2937,17 @@
     <x:row r="92">
       <x:c r="A92" t="inlineStr">
         <x:is>
-          <x:t>22/5189</x:t>
+          <x:t>22/5185</x:t>
         </x:is>
       </x:c>
       <x:c r="B92" t="inlineStr">
         <x:is>
-          <x:t>AGAO0308M</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C92" t="inlineStr">
         <x:is>
-          <x:t>JARDINERÍA Y RESTAURACIÓN DEL PAISAJE</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F92" t="inlineStr">
@@ -2952,17 +2964,17 @@
     <x:row r="93">
       <x:c r="A93" t="inlineStr">
         <x:is>
-          <x:t>22/5193</x:t>
+          <x:t>22/5188</x:t>
         </x:is>
       </x:c>
       <x:c r="B93" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>AGAO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C93" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
         </x:is>
       </x:c>
       <x:c r="F93" t="inlineStr">
@@ -2979,17 +2991,17 @@
     <x:row r="94">
       <x:c r="A94" t="inlineStr">
         <x:is>
-          <x:t>22/5196</x:t>
+          <x:t>22/5189</x:t>
         </x:is>
       </x:c>
       <x:c r="B94" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>AGAO0308M</x:t>
         </x:is>
       </x:c>
       <x:c r="C94" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>JARDINERÍA Y RESTAURACIÓN DEL PAISAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F94" t="inlineStr">
@@ -3006,17 +3018,17 @@
     <x:row r="95">
       <x:c r="A95" t="inlineStr">
         <x:is>
-          <x:t>22/5199</x:t>
+          <x:t>22/5193</x:t>
         </x:is>
       </x:c>
       <x:c r="B95" t="inlineStr">
         <x:is>
-          <x:t>HOTR0408</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C95" t="inlineStr">
         <x:is>
-          <x:t>COCINA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F95" t="inlineStr">
@@ -3033,17 +3045,17 @@
     <x:row r="96">
       <x:c r="A96" t="inlineStr">
         <x:is>
-          <x:t>22/5200</x:t>
+          <x:t>22/5196</x:t>
         </x:is>
       </x:c>
       <x:c r="B96" t="inlineStr">
         <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C96" t="inlineStr">
         <x:is>
-          <x:t>REPOSTERÍA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F96" t="inlineStr">
@@ -3060,17 +3072,17 @@
     <x:row r="97">
       <x:c r="A97" t="inlineStr">
         <x:is>
-          <x:t>22/5219</x:t>
+          <x:t>22/5199</x:t>
         </x:is>
       </x:c>
       <x:c r="B97" t="inlineStr">
         <x:is>
-          <x:t>AFDA0411</x:t>
+          <x:t>HOTR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C97" t="inlineStr">
         <x:is>
-          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA PARA PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F97" t="inlineStr">
@@ -3080,24 +3092,24 @@
       </x:c>
       <x:c r="G97" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="98">
       <x:c r="A98" t="inlineStr">
         <x:is>
-          <x:t>22/5304</x:t>
+          <x:t>22/5200</x:t>
         </x:is>
       </x:c>
       <x:c r="B98" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C98" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>REPOSTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F98" t="inlineStr">
@@ -3107,19 +3119,24 @@
       </x:c>
       <x:c r="G98" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="99">
       <x:c r="A99" t="inlineStr">
         <x:is>
-          <x:t>4294-27</x:t>
+          <x:t>22/5219</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B99" t="inlineStr">
+        <x:is>
+          <x:t>AFDA0411</x:t>
         </x:is>
       </x:c>
       <x:c r="C99" t="inlineStr">
         <x:is>
-          <x:t>MF0710-PRODUCTOS DE REPOSTERÍA</x:t>
+          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA PARA PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F99" t="inlineStr">
@@ -3129,24 +3146,24 @@
       </x:c>
       <x:c r="G99" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="100">
       <x:c r="A100" t="inlineStr">
         <x:is>
-          <x:t>4294-28</x:t>
+          <x:t>22/5304</x:t>
         </x:is>
       </x:c>
       <x:c r="B100" t="inlineStr">
         <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C100" t="inlineStr">
         <x:is>
-          <x:t>MF0711-SEGURIDAD E HIGIENE Y PROTECCIÓN AMBIENTAL EN HOSTELERÍA</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="F100" t="inlineStr">
@@ -3156,24 +3173,19 @@
       </x:c>
       <x:c r="G100" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="101">
       <x:c r="A101" t="inlineStr">
         <x:is>
-          <x:t>4294-29</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B101" t="inlineStr">
-        <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>4294-27</x:t>
         </x:is>
       </x:c>
       <x:c r="C101" t="inlineStr">
         <x:is>
-          <x:t>MF8229-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF0710-PRODUCTOS DE REPOSTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F101" t="inlineStr">
@@ -3190,17 +3202,17 @@
     <x:row r="102">
       <x:c r="A102" t="inlineStr">
         <x:is>
-          <x:t>4294-30</x:t>
+          <x:t>4294-28</x:t>
         </x:is>
       </x:c>
       <x:c r="B102" t="inlineStr">
         <x:is>
-          <x:t>HOTR0408</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C102" t="inlineStr">
         <x:is>
-          <x:t>MF0259-OFERTAS GASTRONÓMICAS SENCILLAS Y SISTEMAS DE APROVISIONAMIENTO</x:t>
+          <x:t>MF0711-SEGURIDAD E HIGIENE Y PROTECCIÓN AMBIENTAL EN HOSTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F102" t="inlineStr">
@@ -3217,17 +3229,17 @@
     <x:row r="103">
       <x:c r="A103" t="inlineStr">
         <x:is>
-          <x:t>4507-24</x:t>
+          <x:t>4294-29</x:t>
         </x:is>
       </x:c>
       <x:c r="B103" t="inlineStr">
         <x:is>
-          <x:t>ADGG0108</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C103" t="inlineStr">
         <x:is>
-          <x:t>MF8076-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF8229-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F103" t="inlineStr">
@@ -3237,24 +3249,24 @@
       </x:c>
       <x:c r="G103" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="104">
       <x:c r="A104" t="inlineStr">
         <x:is>
-          <x:t>4507-40</x:t>
+          <x:t>4294-30</x:t>
         </x:is>
       </x:c>
       <x:c r="B104" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>HOTR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C104" t="inlineStr">
         <x:is>
-          <x:t>MF8462-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF0259-OFERTAS GASTRONÓMICAS SENCILLAS Y SISTEMAS DE APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F104" t="inlineStr">
@@ -3264,24 +3276,24 @@
       </x:c>
       <x:c r="G104" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="105">
       <x:c r="A105" t="inlineStr">
         <x:is>
-          <x:t>5343-49</x:t>
+          <x:t>4507-24</x:t>
         </x:is>
       </x:c>
       <x:c r="B105" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>ADGG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C105" t="inlineStr">
         <x:is>
-          <x:t>MF1444 IMPARTICIÓN Y TUTORIZACIÓN DE ACCIONES FORMATI  VAS PARA EL EMPLEO</x:t>
+          <x:t>MF8076-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F105" t="inlineStr">
@@ -3291,24 +3303,24 @@
       </x:c>
       <x:c r="G105" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="106">
       <x:c r="A106" t="inlineStr">
         <x:is>
-          <x:t>22/1720</x:t>
+          <x:t>4507-40</x:t>
         </x:is>
       </x:c>
       <x:c r="B106" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C106" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MF8462-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F106" t="inlineStr">
@@ -3318,29 +3330,24 @@
       </x:c>
       <x:c r="G106" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H106" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="107">
       <x:c r="A107" t="inlineStr">
         <x:is>
-          <x:t>22/1723</x:t>
+          <x:t>5343-49</x:t>
         </x:is>
       </x:c>
       <x:c r="B107" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C107" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MF1444 IMPARTICIÓN Y TUTORIZACIÓN DE ACCIONES FORMATI  VAS PARA EL EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="F107" t="inlineStr">
@@ -3350,29 +3357,24 @@
       </x:c>
       <x:c r="G107" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H107" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="108">
       <x:c r="A108" t="inlineStr">
         <x:is>
-          <x:t>22/1716</x:t>
+          <x:t>22/1720</x:t>
         </x:is>
       </x:c>
       <x:c r="B108" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C108" t="inlineStr">
         <x:is>
-          <x:t>INSERCION LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F108" t="inlineStr">
@@ -3382,7 +3384,7 @@
       </x:c>
       <x:c r="G108" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Hada (Edificio de Empresas)</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H108" t="inlineStr">
@@ -3394,7 +3396,7 @@
     <x:row r="109">
       <x:c r="A109" t="inlineStr">
         <x:is>
-          <x:t>22/1721</x:t>
+          <x:t>22/1723</x:t>
         </x:is>
       </x:c>
       <x:c r="B109" t="inlineStr">
@@ -3426,17 +3428,17 @@
     <x:row r="110">
       <x:c r="A110" t="inlineStr">
         <x:is>
-          <x:t>22/1722</x:t>
+          <x:t>22/1716</x:t>
         </x:is>
       </x:c>
       <x:c r="B110" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C110" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>INSERCION LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F110" t="inlineStr">
@@ -3446,7 +3448,7 @@
       </x:c>
       <x:c r="G110" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+          <x:t>Centro Formación IME_Hada (Edificio de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H110" t="inlineStr">
@@ -3458,7 +3460,7 @@
     <x:row r="111">
       <x:c r="A111" t="inlineStr">
         <x:is>
-          <x:t>22/1724</x:t>
+          <x:t>22/1721</x:t>
         </x:is>
       </x:c>
       <x:c r="B111" t="inlineStr">
@@ -3490,17 +3492,17 @@
     <x:row r="112">
       <x:c r="A112" t="inlineStr">
         <x:is>
-          <x:t>22/1794</x:t>
+          <x:t>22/1722</x:t>
         </x:is>
       </x:c>
       <x:c r="B112" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C112" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F112" t="inlineStr">
@@ -3510,24 +3512,29 @@
       </x:c>
       <x:c r="G112" t="inlineStr">
         <x:is>
-          <x:t>Alquiler y Venta Rápida S.L.</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H112" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="113">
       <x:c r="A113" t="inlineStr">
         <x:is>
-          <x:t>23/8000</x:t>
+          <x:t>22/1724</x:t>
         </x:is>
       </x:c>
       <x:c r="B113" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C113" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F113" t="inlineStr">
@@ -3537,24 +3544,29 @@
       </x:c>
       <x:c r="G113" t="inlineStr">
         <x:is>
-          <x:t>IGNACIO RUIZ OSTA</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H113" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="114">
       <x:c r="A114" t="inlineStr">
         <x:is>
-          <x:t>23/8001</x:t>
+          <x:t>22/1794</x:t>
         </x:is>
       </x:c>
       <x:c r="B114" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C114" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F114" t="inlineStr">
@@ -3564,24 +3576,24 @@
       </x:c>
       <x:c r="G114" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>Alquiler y Venta Rápida S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="115">
       <x:c r="A115" t="inlineStr">
         <x:is>
-          <x:t>23/8002</x:t>
+          <x:t>23/8000</x:t>
         </x:is>
       </x:c>
       <x:c r="B115" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C115" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F115" t="inlineStr">
@@ -3591,24 +3603,24 @@
       </x:c>
       <x:c r="G115" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>IGNACIO RUIZ OSTA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="116">
       <x:c r="A116" t="inlineStr">
         <x:is>
-          <x:t>23/8003</x:t>
+          <x:t>23/8001</x:t>
         </x:is>
       </x:c>
       <x:c r="B116" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C116" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F116" t="inlineStr">
@@ -3625,17 +3637,17 @@
     <x:row r="117">
       <x:c r="A117" t="inlineStr">
         <x:is>
-          <x:t>23/8004</x:t>
+          <x:t>23/8002</x:t>
         </x:is>
       </x:c>
       <x:c r="B117" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C117" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F117" t="inlineStr">
@@ -3652,17 +3664,17 @@
     <x:row r="118">
       <x:c r="A118" t="inlineStr">
         <x:is>
-          <x:t>23/8007</x:t>
+          <x:t>23/8003</x:t>
         </x:is>
       </x:c>
       <x:c r="B118" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C118" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F118" t="inlineStr">
@@ -3679,17 +3691,17 @@
     <x:row r="119">
       <x:c r="A119" t="inlineStr">
         <x:is>
-          <x:t>23/8008</x:t>
+          <x:t>23/8004</x:t>
         </x:is>
       </x:c>
       <x:c r="B119" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C119" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="F119" t="inlineStr">
@@ -3706,17 +3718,17 @@
     <x:row r="120">
       <x:c r="A120" t="inlineStr">
         <x:is>
-          <x:t>23/8010</x:t>
+          <x:t>23/8007</x:t>
         </x:is>
       </x:c>
       <x:c r="B120" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C120" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F120" t="inlineStr">
@@ -3726,24 +3738,24 @@
       </x:c>
       <x:c r="G120" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="121">
       <x:c r="A121" t="inlineStr">
         <x:is>
-          <x:t>23/8011</x:t>
+          <x:t>23/8008</x:t>
         </x:is>
       </x:c>
       <x:c r="B121" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C121" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F121" t="inlineStr">
@@ -3753,24 +3765,24 @@
       </x:c>
       <x:c r="G121" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="122">
       <x:c r="A122" t="inlineStr">
         <x:is>
-          <x:t>23/8012</x:t>
+          <x:t>23/8010</x:t>
         </x:is>
       </x:c>
       <x:c r="B122" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C122" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F122" t="inlineStr">
@@ -3787,17 +3799,17 @@
     <x:row r="123">
       <x:c r="A123" t="inlineStr">
         <x:is>
-          <x:t>23/8013</x:t>
+          <x:t>23/8011</x:t>
         </x:is>
       </x:c>
       <x:c r="B123" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C123" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F123" t="inlineStr">
@@ -3814,17 +3826,17 @@
     <x:row r="124">
       <x:c r="A124" t="inlineStr">
         <x:is>
-          <x:t>23/8014</x:t>
+          <x:t>23/8012</x:t>
         </x:is>
       </x:c>
       <x:c r="B124" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C124" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F124" t="inlineStr">
@@ -3841,17 +3853,17 @@
     <x:row r="125">
       <x:c r="A125" t="inlineStr">
         <x:is>
-          <x:t>23/8015</x:t>
+          <x:t>23/8013</x:t>
         </x:is>
       </x:c>
       <x:c r="B125" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C125" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F125" t="inlineStr">
@@ -3868,17 +3880,17 @@
     <x:row r="126">
       <x:c r="A126" t="inlineStr">
         <x:is>
-          <x:t>23/8016</x:t>
+          <x:t>23/8014</x:t>
         </x:is>
       </x:c>
       <x:c r="B126" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C126" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F126" t="inlineStr">
@@ -3895,17 +3907,17 @@
     <x:row r="127">
       <x:c r="A127" t="inlineStr">
         <x:is>
-          <x:t>23/8017</x:t>
+          <x:t>23/8015</x:t>
         </x:is>
       </x:c>
       <x:c r="B127" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C127" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F127" t="inlineStr">
@@ -3922,17 +3934,17 @@
     <x:row r="128">
       <x:c r="A128" t="inlineStr">
         <x:is>
-          <x:t>23/8018</x:t>
+          <x:t>23/8016</x:t>
         </x:is>
       </x:c>
       <x:c r="B128" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C128" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F128" t="inlineStr">
@@ -3942,29 +3954,24 @@
       </x:c>
       <x:c r="G128" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H128" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="129">
       <x:c r="A129" t="inlineStr">
         <x:is>
-          <x:t>23/8019</x:t>
+          <x:t>23/8017</x:t>
         </x:is>
       </x:c>
       <x:c r="B129" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C129" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F129" t="inlineStr">
@@ -3974,29 +3981,24 @@
       </x:c>
       <x:c r="G129" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H129" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="130">
       <x:c r="A130" t="inlineStr">
         <x:is>
-          <x:t>23/8020</x:t>
+          <x:t>23/8018</x:t>
         </x:is>
       </x:c>
       <x:c r="B130" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C130" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F130" t="inlineStr">
@@ -4018,17 +4020,17 @@
     <x:row r="131">
       <x:c r="A131" t="inlineStr">
         <x:is>
-          <x:t>23/8021</x:t>
+          <x:t>23/8019</x:t>
         </x:is>
       </x:c>
       <x:c r="B131" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C131" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F131" t="inlineStr">
@@ -4050,17 +4052,17 @@
     <x:row r="132">
       <x:c r="A132" t="inlineStr">
         <x:is>
-          <x:t>23/8023</x:t>
+          <x:t>23/8020</x:t>
         </x:is>
       </x:c>
       <x:c r="B132" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C132" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F132" t="inlineStr">
@@ -4082,17 +4084,17 @@
     <x:row r="133">
       <x:c r="A133" t="inlineStr">
         <x:is>
-          <x:t>23/8024</x:t>
+          <x:t>23/8021</x:t>
         </x:is>
       </x:c>
       <x:c r="B133" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C133" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F133" t="inlineStr">
@@ -4114,17 +4116,17 @@
     <x:row r="134">
       <x:c r="A134" t="inlineStr">
         <x:is>
-          <x:t>23/8025</x:t>
+          <x:t>23/8023</x:t>
         </x:is>
       </x:c>
       <x:c r="B134" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C134" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F134" t="inlineStr">
@@ -4146,7 +4148,7 @@
     <x:row r="135">
       <x:c r="A135" t="inlineStr">
         <x:is>
-          <x:t>23/8026</x:t>
+          <x:t>23/8024</x:t>
         </x:is>
       </x:c>
       <x:c r="B135" t="inlineStr">
@@ -4178,17 +4180,17 @@
     <x:row r="136">
       <x:c r="A136" t="inlineStr">
         <x:is>
-          <x:t>23/8027</x:t>
+          <x:t>23/8025</x:t>
         </x:is>
       </x:c>
       <x:c r="B136" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C136" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F136" t="inlineStr">
@@ -4198,24 +4200,29 @@
       </x:c>
       <x:c r="G136" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
+          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H136" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="137">
       <x:c r="A137" t="inlineStr">
         <x:is>
-          <x:t>23/8028</x:t>
+          <x:t>23/8026</x:t>
         </x:is>
       </x:c>
       <x:c r="B137" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C137" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F137" t="inlineStr">
@@ -4225,24 +4232,29 @@
       </x:c>
       <x:c r="G137" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
+          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H137" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="138">
       <x:c r="A138" t="inlineStr">
         <x:is>
-          <x:t>23/8029</x:t>
+          <x:t>23/8027</x:t>
         </x:is>
       </x:c>
       <x:c r="B138" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C138" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F138" t="inlineStr">
@@ -4259,17 +4271,17 @@
     <x:row r="139">
       <x:c r="A139" t="inlineStr">
         <x:is>
-          <x:t>23/8030</x:t>
+          <x:t>23/8028</x:t>
         </x:is>
       </x:c>
       <x:c r="B139" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C139" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F139" t="inlineStr">
@@ -4286,17 +4298,17 @@
     <x:row r="140">
       <x:c r="A140" t="inlineStr">
         <x:is>
-          <x:t>23/8031</x:t>
+          <x:t>23/8029</x:t>
         </x:is>
       </x:c>
       <x:c r="B140" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C140" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F140" t="inlineStr">
@@ -4313,17 +4325,17 @@
     <x:row r="141">
       <x:c r="A141" t="inlineStr">
         <x:is>
-          <x:t>23/8032</x:t>
+          <x:t>23/8030</x:t>
         </x:is>
       </x:c>
       <x:c r="B141" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C141" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F141" t="inlineStr">
@@ -4340,7 +4352,7 @@
     <x:row r="142">
       <x:c r="A142" t="inlineStr">
         <x:is>
-          <x:t>23/8033</x:t>
+          <x:t>23/8031</x:t>
         </x:is>
       </x:c>
       <x:c r="B142" t="inlineStr">
@@ -4367,17 +4379,17 @@
     <x:row r="143">
       <x:c r="A143" t="inlineStr">
         <x:is>
-          <x:t>23/8034</x:t>
+          <x:t>23/8032</x:t>
         </x:is>
       </x:c>
       <x:c r="B143" t="inlineStr">
         <x:is>
-          <x:t>ELEE0108</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C143" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F143" t="inlineStr">
@@ -4387,24 +4399,24 @@
       </x:c>
       <x:c r="G143" t="inlineStr">
         <x:is>
-          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
+          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="144">
       <x:c r="A144" t="inlineStr">
         <x:is>
-          <x:t>23/8035</x:t>
+          <x:t>23/8033</x:t>
         </x:is>
       </x:c>
       <x:c r="B144" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C144" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F144" t="inlineStr">
@@ -4414,14 +4426,14 @@
       </x:c>
       <x:c r="G144" t="inlineStr">
         <x:is>
-          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
+          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="145">
       <x:c r="A145" t="inlineStr">
         <x:is>
-          <x:t>23/8036</x:t>
+          <x:t>23/8034</x:t>
         </x:is>
       </x:c>
       <x:c r="B145" t="inlineStr">
@@ -4448,7 +4460,7 @@
     <x:row r="146">
       <x:c r="A146" t="inlineStr">
         <x:is>
-          <x:t>23/8037</x:t>
+          <x:t>23/8035</x:t>
         </x:is>
       </x:c>
       <x:c r="B146" t="inlineStr">
@@ -4475,17 +4487,17 @@
     <x:row r="147">
       <x:c r="A147" t="inlineStr">
         <x:is>
-          <x:t>23/8038</x:t>
+          <x:t>23/8036</x:t>
         </x:is>
       </x:c>
       <x:c r="B147" t="inlineStr">
         <x:is>
-          <x:t>QUIA0108</x:t>
+          <x:t>ELEE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C147" t="inlineStr">
         <x:is>
-          <x:t>ENSAYOS FÍSICOS Y FISICOQUÍMICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F147" t="inlineStr">
@@ -4495,24 +4507,24 @@
       </x:c>
       <x:c r="G147" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION AGRARIA S.A.</x:t>
+          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="148">
       <x:c r="A148" t="inlineStr">
         <x:is>
-          <x:t>23/8039</x:t>
+          <x:t>23/8037</x:t>
         </x:is>
       </x:c>
       <x:c r="B148" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C148" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F148" t="inlineStr">
@@ -4522,24 +4534,24 @@
       </x:c>
       <x:c r="G148" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="149">
       <x:c r="A149" t="inlineStr">
         <x:is>
-          <x:t>23/8040</x:t>
+          <x:t>23/8038</x:t>
         </x:is>
       </x:c>
       <x:c r="B149" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>QUIA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C149" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ENSAYOS FÍSICOS Y FISICOQUÍMICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F149" t="inlineStr">
@@ -4549,24 +4561,24 @@
       </x:c>
       <x:c r="G149" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION AGRARIA S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="150">
       <x:c r="A150" t="inlineStr">
         <x:is>
-          <x:t>23/8041</x:t>
+          <x:t>23/8039</x:t>
         </x:is>
       </x:c>
       <x:c r="B150" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C150" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F150" t="inlineStr">
@@ -4583,17 +4595,17 @@
     <x:row r="151">
       <x:c r="A151" t="inlineStr">
         <x:is>
-          <x:t>23/8044</x:t>
+          <x:t>23/8040</x:t>
         </x:is>
       </x:c>
       <x:c r="B151" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C151" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F151" t="inlineStr">
@@ -4610,17 +4622,17 @@
     <x:row r="152">
       <x:c r="A152" t="inlineStr">
         <x:is>
-          <x:t>23/8045</x:t>
+          <x:t>23/8041</x:t>
         </x:is>
       </x:c>
       <x:c r="B152" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C152" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F152" t="inlineStr">
@@ -4637,7 +4649,7 @@
     <x:row r="153">
       <x:c r="A153" t="inlineStr">
         <x:is>
-          <x:t>23/8046</x:t>
+          <x:t>23/8044</x:t>
         </x:is>
       </x:c>
       <x:c r="B153" t="inlineStr">
@@ -4664,17 +4676,17 @@
     <x:row r="154">
       <x:c r="A154" t="inlineStr">
         <x:is>
-          <x:t>23/8047</x:t>
+          <x:t>23/8045</x:t>
         </x:is>
       </x:c>
       <x:c r="B154" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C154" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F154" t="inlineStr">
@@ -4684,24 +4696,24 @@
       </x:c>
       <x:c r="G154" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="155">
       <x:c r="A155" t="inlineStr">
         <x:is>
-          <x:t>23/8048</x:t>
+          <x:t>23/8046</x:t>
         </x:is>
       </x:c>
       <x:c r="B155" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C155" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F155" t="inlineStr">
@@ -4711,24 +4723,24 @@
       </x:c>
       <x:c r="G155" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="156">
       <x:c r="A156" t="inlineStr">
         <x:is>
-          <x:t>23/8049</x:t>
+          <x:t>23/8047</x:t>
         </x:is>
       </x:c>
       <x:c r="B156" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C156" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F156" t="inlineStr">
@@ -4745,17 +4757,17 @@
     <x:row r="157">
       <x:c r="A157" t="inlineStr">
         <x:is>
-          <x:t>23/8051</x:t>
+          <x:t>23/8048</x:t>
         </x:is>
       </x:c>
       <x:c r="B157" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C157" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F157" t="inlineStr">
@@ -4772,17 +4784,17 @@
     <x:row r="158">
       <x:c r="A158" t="inlineStr">
         <x:is>
-          <x:t>23/8052</x:t>
+          <x:t>23/8049</x:t>
         </x:is>
       </x:c>
       <x:c r="B158" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C158" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F158" t="inlineStr">
@@ -4799,17 +4811,17 @@
     <x:row r="159">
       <x:c r="A159" t="inlineStr">
         <x:is>
-          <x:t>23/8053</x:t>
+          <x:t>23/8051</x:t>
         </x:is>
       </x:c>
       <x:c r="B159" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C159" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F159" t="inlineStr">
@@ -4826,17 +4838,17 @@
     <x:row r="160">
       <x:c r="A160" t="inlineStr">
         <x:is>
-          <x:t>23/8054</x:t>
+          <x:t>23/8052</x:t>
         </x:is>
       </x:c>
       <x:c r="B160" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C160" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F160" t="inlineStr">
@@ -4853,17 +4865,17 @@
     <x:row r="161">
       <x:c r="A161" t="inlineStr">
         <x:is>
-          <x:t>23/8058</x:t>
+          <x:t>23/8053</x:t>
         </x:is>
       </x:c>
       <x:c r="B161" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C161" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F161" t="inlineStr">
@@ -4873,24 +4885,24 @@
       </x:c>
       <x:c r="G161" t="inlineStr">
         <x:is>
-          <x:t>MERINERO S.A.</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="162">
       <x:c r="A162" t="inlineStr">
         <x:is>
-          <x:t>23/8059</x:t>
+          <x:t>23/8054</x:t>
         </x:is>
       </x:c>
       <x:c r="B162" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C162" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F162" t="inlineStr">
@@ -4900,24 +4912,24 @@
       </x:c>
       <x:c r="G162" t="inlineStr">
         <x:is>
-          <x:t>GRUPO FIDSOFT S.A</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="163">
       <x:c r="A163" t="inlineStr">
         <x:is>
-          <x:t>23/8061</x:t>
+          <x:t>23/8058</x:t>
         </x:is>
       </x:c>
       <x:c r="B163" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C163" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F163" t="inlineStr">
@@ -4927,24 +4939,24 @@
       </x:c>
       <x:c r="G163" t="inlineStr">
         <x:is>
-          <x:t>GRUPO FIDSOFT S.A</x:t>
+          <x:t>MERINERO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="164">
       <x:c r="A164" t="inlineStr">
         <x:is>
-          <x:t>23/8062</x:t>
+          <x:t>23/8059</x:t>
         </x:is>
       </x:c>
       <x:c r="B164" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C164" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F164" t="inlineStr">
@@ -4961,17 +4973,17 @@
     <x:row r="165">
       <x:c r="A165" t="inlineStr">
         <x:is>
-          <x:t>23/8063</x:t>
+          <x:t>23/8061</x:t>
         </x:is>
       </x:c>
       <x:c r="B165" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C165" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F165" t="inlineStr">
@@ -4988,17 +5000,17 @@
     <x:row r="166">
       <x:c r="A166" t="inlineStr">
         <x:is>
-          <x:t>23/8064</x:t>
+          <x:t>23/8062</x:t>
         </x:is>
       </x:c>
       <x:c r="B166" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C166" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F166" t="inlineStr">
@@ -5015,17 +5027,17 @@
     <x:row r="167">
       <x:c r="A167" t="inlineStr">
         <x:is>
-          <x:t>23/8065</x:t>
+          <x:t>23/8063</x:t>
         </x:is>
       </x:c>
       <x:c r="B167" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C167" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F167" t="inlineStr">
@@ -5042,17 +5054,17 @@
     <x:row r="168">
       <x:c r="A168" t="inlineStr">
         <x:is>
-          <x:t>23/8066</x:t>
+          <x:t>23/8064</x:t>
         </x:is>
       </x:c>
       <x:c r="B168" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C168" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F168" t="inlineStr">
@@ -5062,24 +5074,24 @@
       </x:c>
       <x:c r="G168" t="inlineStr">
         <x:is>
-          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
+          <x:t>GRUPO FIDSOFT S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="169">
       <x:c r="A169" t="inlineStr">
         <x:is>
-          <x:t>23/8067</x:t>
+          <x:t>23/8065</x:t>
         </x:is>
       </x:c>
       <x:c r="B169" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C169" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F169" t="inlineStr">
@@ -5089,14 +5101,14 @@
       </x:c>
       <x:c r="G169" t="inlineStr">
         <x:is>
-          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
+          <x:t>GRUPO FIDSOFT S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="170">
       <x:c r="A170" t="inlineStr">
         <x:is>
-          <x:t>23/8068</x:t>
+          <x:t>23/8066</x:t>
         </x:is>
       </x:c>
       <x:c r="B170" t="inlineStr">
@@ -5123,17 +5135,17 @@
     <x:row r="171">
       <x:c r="A171" t="inlineStr">
         <x:is>
-          <x:t>23/8069</x:t>
+          <x:t>23/8067</x:t>
         </x:is>
       </x:c>
       <x:c r="B171" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C171" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F171" t="inlineStr">
@@ -5150,17 +5162,17 @@
     <x:row r="172">
       <x:c r="A172" t="inlineStr">
         <x:is>
-          <x:t>23/8070</x:t>
+          <x:t>23/8068</x:t>
         </x:is>
       </x:c>
       <x:c r="B172" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C172" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F172" t="inlineStr">
@@ -5177,17 +5189,17 @@
     <x:row r="173">
       <x:c r="A173" t="inlineStr">
         <x:is>
-          <x:t>23/8071</x:t>
+          <x:t>23/8069</x:t>
         </x:is>
       </x:c>
       <x:c r="B173" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C173" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F173" t="inlineStr">
@@ -5204,17 +5216,17 @@
     <x:row r="174">
       <x:c r="A174" t="inlineStr">
         <x:is>
-          <x:t>23/8072</x:t>
+          <x:t>23/8070</x:t>
         </x:is>
       </x:c>
       <x:c r="B174" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C174" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F174" t="inlineStr">
@@ -5231,17 +5243,17 @@
     <x:row r="175">
       <x:c r="A175" t="inlineStr">
         <x:is>
-          <x:t>23/8073</x:t>
+          <x:t>23/8071</x:t>
         </x:is>
       </x:c>
       <x:c r="B175" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C175" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F175" t="inlineStr">
@@ -5258,17 +5270,17 @@
     <x:row r="176">
       <x:c r="A176" t="inlineStr">
         <x:is>
-          <x:t>23/8076</x:t>
+          <x:t>23/8072</x:t>
         </x:is>
       </x:c>
       <x:c r="B176" t="inlineStr">
         <x:is>
-          <x:t>AFDA0511</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C176" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F176" t="inlineStr">
@@ -5278,24 +5290,24 @@
       </x:c>
       <x:c r="G176" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
+          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="177">
       <x:c r="A177" t="inlineStr">
         <x:is>
-          <x:t>23/8077</x:t>
+          <x:t>23/8073</x:t>
         </x:is>
       </x:c>
       <x:c r="B177" t="inlineStr">
         <x:is>
-          <x:t>AFDP0209</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C177" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F177" t="inlineStr">
@@ -5305,24 +5317,24 @@
       </x:c>
       <x:c r="G177" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
+          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="178">
       <x:c r="A178" t="inlineStr">
         <x:is>
-          <x:t>23/8078</x:t>
+          <x:t>23/8076</x:t>
         </x:is>
       </x:c>
       <x:c r="B178" t="inlineStr">
         <x:is>
-          <x:t>AFDP0209</x:t>
+          <x:t>AFDA0511</x:t>
         </x:is>
       </x:c>
       <x:c r="C178" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
+          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F178" t="inlineStr">
@@ -5339,17 +5351,17 @@
     <x:row r="179">
       <x:c r="A179" t="inlineStr">
         <x:is>
-          <x:t>23/8079</x:t>
+          <x:t>23/8077</x:t>
         </x:is>
       </x:c>
       <x:c r="B179" t="inlineStr">
         <x:is>
-          <x:t>IMSV0208</x:t>
+          <x:t>AFDP0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C179" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
+          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F179" t="inlineStr">
@@ -5366,17 +5378,17 @@
     <x:row r="180">
       <x:c r="A180" t="inlineStr">
         <x:is>
-          <x:t>23/8080</x:t>
+          <x:t>23/8078</x:t>
         </x:is>
       </x:c>
       <x:c r="B180" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>AFDP0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C180" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F180" t="inlineStr">
@@ -5393,17 +5405,17 @@
     <x:row r="181">
       <x:c r="A181" t="inlineStr">
         <x:is>
-          <x:t>23/8081</x:t>
+          <x:t>23/8079</x:t>
         </x:is>
       </x:c>
       <x:c r="B181" t="inlineStr">
         <x:is>
-          <x:t>AFDA0210</x:t>
+          <x:t>IMSV0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C181" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F181" t="inlineStr">
@@ -5420,17 +5432,17 @@
     <x:row r="182">
       <x:c r="A182" t="inlineStr">
         <x:is>
-          <x:t>23/8082</x:t>
+          <x:t>23/8080</x:t>
         </x:is>
       </x:c>
       <x:c r="B182" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C182" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F182" t="inlineStr">
@@ -5440,24 +5452,24 @@
       </x:c>
       <x:c r="G182" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPA SL</x:t>
+          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="183">
       <x:c r="A183" t="inlineStr">
         <x:is>
-          <x:t>23/8083</x:t>
+          <x:t>23/8081</x:t>
         </x:is>
       </x:c>
       <x:c r="B183" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>AFDA0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C183" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F183" t="inlineStr">
@@ -5467,24 +5479,24 @@
       </x:c>
       <x:c r="G183" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPA SL</x:t>
+          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="184">
       <x:c r="A184" t="inlineStr">
         <x:is>
-          <x:t>23/8084</x:t>
+          <x:t>23/8082</x:t>
         </x:is>
       </x:c>
       <x:c r="B184" t="inlineStr">
         <x:is>
-          <x:t>SEAD0212</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C184" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F184" t="inlineStr">
@@ -5501,7 +5513,7 @@
     <x:row r="185">
       <x:c r="A185" t="inlineStr">
         <x:is>
-          <x:t>23/8085</x:t>
+          <x:t>23/8083</x:t>
         </x:is>
       </x:c>
       <x:c r="B185" t="inlineStr">
@@ -5528,7 +5540,7 @@
     <x:row r="186">
       <x:c r="A186" t="inlineStr">
         <x:is>
-          <x:t>23/8086</x:t>
+          <x:t>23/8084</x:t>
         </x:is>
       </x:c>
       <x:c r="B186" t="inlineStr">
@@ -5555,7 +5567,7 @@
     <x:row r="187">
       <x:c r="A187" t="inlineStr">
         <x:is>
-          <x:t>23/8087</x:t>
+          <x:t>23/8085</x:t>
         </x:is>
       </x:c>
       <x:c r="B187" t="inlineStr">
@@ -5582,17 +5594,17 @@
     <x:row r="188">
       <x:c r="A188" t="inlineStr">
         <x:is>
-          <x:t>23/8090</x:t>
+          <x:t>23/8086</x:t>
         </x:is>
       </x:c>
       <x:c r="B188" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>SEAD0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C188" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F188" t="inlineStr">
@@ -5602,24 +5614,24 @@
       </x:c>
       <x:c r="G188" t="inlineStr">
         <x:is>
-          <x:t>ALBORAN FORMACION, S.L.</x:t>
+          <x:t>INSTITUTO EUROPA SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="189">
       <x:c r="A189" t="inlineStr">
         <x:is>
-          <x:t>23/8092</x:t>
+          <x:t>23/8087</x:t>
         </x:is>
       </x:c>
       <x:c r="B189" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C189" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F189" t="inlineStr">
@@ -5629,24 +5641,24 @@
       </x:c>
       <x:c r="G189" t="inlineStr">
         <x:is>
-          <x:t>ALBORAN FORMACION, S.L.</x:t>
+          <x:t>INSTITUTO EUROPA SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="190">
       <x:c r="A190" t="inlineStr">
         <x:is>
-          <x:t>23/8093</x:t>
+          <x:t>23/8090</x:t>
         </x:is>
       </x:c>
       <x:c r="B190" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C190" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F190" t="inlineStr">
@@ -5663,17 +5675,17 @@
     <x:row r="191">
       <x:c r="A191" t="inlineStr">
         <x:is>
-          <x:t>23/8094</x:t>
+          <x:t>23/8092</x:t>
         </x:is>
       </x:c>
       <x:c r="B191" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C191" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F191" t="inlineStr">
@@ -5690,17 +5702,17 @@
     <x:row r="192">
       <x:c r="A192" t="inlineStr">
         <x:is>
-          <x:t>23/8104</x:t>
+          <x:t>23/8093</x:t>
         </x:is>
       </x:c>
       <x:c r="B192" t="inlineStr">
         <x:is>
-          <x:t>AFDA0210</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C192" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F192" t="inlineStr">
@@ -5710,24 +5722,24 @@
       </x:c>
       <x:c r="G192" t="inlineStr">
         <x:is>
-          <x:t>DATA CONTROL FORMACION, SL</x:t>
+          <x:t>ALBORAN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="193">
       <x:c r="A193" t="inlineStr">
         <x:is>
-          <x:t>23/8105</x:t>
+          <x:t>23/8094</x:t>
         </x:is>
       </x:c>
       <x:c r="B193" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C193" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F193" t="inlineStr">
@@ -5737,24 +5749,24 @@
       </x:c>
       <x:c r="G193" t="inlineStr">
         <x:is>
-          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
+          <x:t>ALBORAN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="194">
       <x:c r="A194" t="inlineStr">
         <x:is>
-          <x:t>23/8106</x:t>
+          <x:t>23/8104</x:t>
         </x:is>
       </x:c>
       <x:c r="B194" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>AFDA0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C194" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F194" t="inlineStr">
@@ -5764,24 +5776,24 @@
       </x:c>
       <x:c r="G194" t="inlineStr">
         <x:is>
-          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
+          <x:t>DATA CONTROL FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="195">
       <x:c r="A195" t="inlineStr">
         <x:is>
-          <x:t>23/8107</x:t>
+          <x:t>23/8105</x:t>
         </x:is>
       </x:c>
       <x:c r="B195" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C195" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F195" t="inlineStr">
@@ -5798,17 +5810,17 @@
     <x:row r="196">
       <x:c r="A196" t="inlineStr">
         <x:is>
-          <x:t>23/8108</x:t>
+          <x:t>23/8106</x:t>
         </x:is>
       </x:c>
       <x:c r="B196" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C196" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F196" t="inlineStr">
@@ -5825,17 +5837,17 @@
     <x:row r="197">
       <x:c r="A197" t="inlineStr">
         <x:is>
-          <x:t>23/8109</x:t>
+          <x:t>23/8107</x:t>
         </x:is>
       </x:c>
       <x:c r="B197" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C197" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F197" t="inlineStr">
@@ -5852,17 +5864,17 @@
     <x:row r="198">
       <x:c r="A198" t="inlineStr">
         <x:is>
-          <x:t>23/8110</x:t>
+          <x:t>23/8108</x:t>
         </x:is>
       </x:c>
       <x:c r="B198" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C198" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F198" t="inlineStr">
@@ -5879,17 +5891,17 @@
     <x:row r="199">
       <x:c r="A199" t="inlineStr">
         <x:is>
-          <x:t>23/8111</x:t>
+          <x:t>23/8109</x:t>
         </x:is>
       </x:c>
       <x:c r="B199" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C199" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F199" t="inlineStr">
@@ -5906,17 +5918,17 @@
     <x:row r="200">
       <x:c r="A200" t="inlineStr">
         <x:is>
-          <x:t>23/8112</x:t>
+          <x:t>23/8110</x:t>
         </x:is>
       </x:c>
       <x:c r="B200" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C200" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F200" t="inlineStr">
@@ -5933,7 +5945,7 @@
     <x:row r="201">
       <x:c r="A201" t="inlineStr">
         <x:is>
-          <x:t>23/8113</x:t>
+          <x:t>23/8111</x:t>
         </x:is>
       </x:c>
       <x:c r="B201" t="inlineStr">
@@ -5953,24 +5965,24 @@
       </x:c>
       <x:c r="G201" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
+          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="202">
       <x:c r="A202" t="inlineStr">
         <x:is>
-          <x:t>23/8114</x:t>
+          <x:t>23/8112</x:t>
         </x:is>
       </x:c>
       <x:c r="B202" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C202" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F202" t="inlineStr">
@@ -5980,24 +5992,24 @@
       </x:c>
       <x:c r="G202" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
+          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="203">
       <x:c r="A203" t="inlineStr">
         <x:is>
-          <x:t>23/8115</x:t>
+          <x:t>23/8113</x:t>
         </x:is>
       </x:c>
       <x:c r="B203" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C203" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F203" t="inlineStr">
@@ -6014,17 +6026,17 @@
     <x:row r="204">
       <x:c r="A204" t="inlineStr">
         <x:is>
-          <x:t>23/8116</x:t>
+          <x:t>23/8114</x:t>
         </x:is>
       </x:c>
       <x:c r="B204" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C204" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F204" t="inlineStr">
@@ -6041,17 +6053,17 @@
     <x:row r="205">
       <x:c r="A205" t="inlineStr">
         <x:is>
-          <x:t>23/8117</x:t>
+          <x:t>23/8115</x:t>
         </x:is>
       </x:c>
       <x:c r="B205" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C205" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F205" t="inlineStr">
@@ -6068,17 +6080,17 @@
     <x:row r="206">
       <x:c r="A206" t="inlineStr">
         <x:is>
-          <x:t>23/8118</x:t>
+          <x:t>23/8116</x:t>
         </x:is>
       </x:c>
       <x:c r="B206" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C206" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F206" t="inlineStr">
@@ -6095,7 +6107,7 @@
     <x:row r="207">
       <x:c r="A207" t="inlineStr">
         <x:is>
-          <x:t>23/8119</x:t>
+          <x:t>23/8117</x:t>
         </x:is>
       </x:c>
       <x:c r="B207" t="inlineStr">
@@ -6122,17 +6134,17 @@
     <x:row r="208">
       <x:c r="A208" t="inlineStr">
         <x:is>
-          <x:t>23/8120</x:t>
+          <x:t>23/8118</x:t>
         </x:is>
       </x:c>
       <x:c r="B208" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C208" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F208" t="inlineStr">
@@ -6149,17 +6161,17 @@
     <x:row r="209">
       <x:c r="A209" t="inlineStr">
         <x:is>
-          <x:t>23/8124</x:t>
+          <x:t>23/8119</x:t>
         </x:is>
       </x:c>
       <x:c r="B209" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C209" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F209" t="inlineStr">
@@ -6169,24 +6181,24 @@
       </x:c>
       <x:c r="G209" t="inlineStr">
         <x:is>
-          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
+          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="210">
       <x:c r="A210" t="inlineStr">
         <x:is>
-          <x:t>23/8125</x:t>
+          <x:t>23/8120</x:t>
         </x:is>
       </x:c>
       <x:c r="B210" t="inlineStr">
         <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C210" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F210" t="inlineStr">
@@ -6196,24 +6208,24 @@
       </x:c>
       <x:c r="G210" t="inlineStr">
         <x:is>
-          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
+          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="211">
       <x:c r="A211" t="inlineStr">
         <x:is>
-          <x:t>23/8126</x:t>
+          <x:t>23/8124</x:t>
         </x:is>
       </x:c>
       <x:c r="B211" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C211" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F211" t="inlineStr">
@@ -6230,17 +6242,17 @@
     <x:row r="212">
       <x:c r="A212" t="inlineStr">
         <x:is>
-          <x:t>23/8127</x:t>
+          <x:t>23/8125</x:t>
         </x:is>
       </x:c>
       <x:c r="B212" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C212" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F212" t="inlineStr">
@@ -6257,17 +6269,17 @@
     <x:row r="213">
       <x:c r="A213" t="inlineStr">
         <x:is>
-          <x:t>23/8128</x:t>
+          <x:t>23/8126</x:t>
         </x:is>
       </x:c>
       <x:c r="B213" t="inlineStr">
         <x:is>
-          <x:t>IFCT0409</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C213" t="inlineStr">
         <x:is>
-          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS EN SISTEMAS DOMÓTICOS /INMÓTICOS, DE CONTROL DE ACCESOS Y PRESENCIA Y DE VIDEOVIGILANCIA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F213" t="inlineStr">
@@ -6284,17 +6296,17 @@
     <x:row r="214">
       <x:c r="A214" t="inlineStr">
         <x:is>
-          <x:t>23/8129</x:t>
+          <x:t>23/8127</x:t>
         </x:is>
       </x:c>
       <x:c r="B214" t="inlineStr">
         <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C214" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F214" t="inlineStr">
@@ -6311,17 +6323,17 @@
     <x:row r="215">
       <x:c r="A215" t="inlineStr">
         <x:is>
-          <x:t>23/8130</x:t>
+          <x:t>23/8128</x:t>
         </x:is>
       </x:c>
       <x:c r="B215" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>IFCT0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C215" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS EN SISTEMAS DOMÓTICOS /INMÓTICOS, DE CONTROL DE ACCESOS Y PRESENCIA Y DE VIDEOVIGILANCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F215" t="inlineStr">
@@ -6338,17 +6350,17 @@
     <x:row r="216">
       <x:c r="A216" t="inlineStr">
         <x:is>
-          <x:t>23/8131</x:t>
+          <x:t>23/8129</x:t>
         </x:is>
       </x:c>
       <x:c r="B216" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C216" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F216" t="inlineStr">
@@ -6365,17 +6377,17 @@
     <x:row r="217">
       <x:c r="A217" t="inlineStr">
         <x:is>
-          <x:t>23/8132</x:t>
+          <x:t>23/8130</x:t>
         </x:is>
       </x:c>
       <x:c r="B217" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C217" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F217" t="inlineStr">
@@ -6385,24 +6397,24 @@
       </x:c>
       <x:c r="G217" t="inlineStr">
         <x:is>
-          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
+          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="218">
       <x:c r="A218" t="inlineStr">
         <x:is>
-          <x:t>23/8133</x:t>
+          <x:t>23/8131</x:t>
         </x:is>
       </x:c>
       <x:c r="B218" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C218" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F218" t="inlineStr">
@@ -6412,24 +6424,24 @@
       </x:c>
       <x:c r="G218" t="inlineStr">
         <x:is>
-          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
+          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="219">
       <x:c r="A219" t="inlineStr">
         <x:is>
-          <x:t>23/8134</x:t>
+          <x:t>23/8132</x:t>
         </x:is>
       </x:c>
       <x:c r="B219" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C219" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F219" t="inlineStr">
@@ -6446,17 +6458,17 @@
     <x:row r="220">
       <x:c r="A220" t="inlineStr">
         <x:is>
-          <x:t>23/8135</x:t>
+          <x:t>23/8133</x:t>
         </x:is>
       </x:c>
       <x:c r="B220" t="inlineStr">
         <x:is>
-          <x:t>SSCB0110</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C220" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN, PROGRAMACIÓN Y DESARROLLO DE ACCIONES CULTURALES</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F220" t="inlineStr">
@@ -6473,17 +6485,17 @@
     <x:row r="221">
       <x:c r="A221" t="inlineStr">
         <x:is>
-          <x:t>23/8136</x:t>
+          <x:t>23/8134</x:t>
         </x:is>
       </x:c>
       <x:c r="B221" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C221" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F221" t="inlineStr">
@@ -6500,17 +6512,17 @@
     <x:row r="222">
       <x:c r="A222" t="inlineStr">
         <x:is>
-          <x:t>23/8137</x:t>
+          <x:t>23/8135</x:t>
         </x:is>
       </x:c>
       <x:c r="B222" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>SSCB0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C222" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>DINAMIZACIÓN, PROGRAMACIÓN Y DESARROLLO DE ACCIONES CULTURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F222" t="inlineStr">
@@ -6520,24 +6532,24 @@
       </x:c>
       <x:c r="G222" t="inlineStr">
         <x:is>
-          <x:t>GRADO INFORMATICA Y GESTION SL</x:t>
+          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="223">
       <x:c r="A223" t="inlineStr">
         <x:is>
-          <x:t>23/8138</x:t>
+          <x:t>23/8136</x:t>
         </x:is>
       </x:c>
       <x:c r="B223" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C223" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F223" t="inlineStr">
@@ -6547,24 +6559,24 @@
       </x:c>
       <x:c r="G223" t="inlineStr">
         <x:is>
-          <x:t>NASCOR FORMACION SLU</x:t>
+          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="224">
       <x:c r="A224" t="inlineStr">
         <x:is>
-          <x:t>23/8139</x:t>
+          <x:t>23/8137</x:t>
         </x:is>
       </x:c>
       <x:c r="B224" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C224" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F224" t="inlineStr">
@@ -6574,24 +6586,24 @@
       </x:c>
       <x:c r="G224" t="inlineStr">
         <x:is>
-          <x:t>NASCOR FORMACION SLU</x:t>
+          <x:t>GRADO INFORMATICA Y GESTION SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="225">
       <x:c r="A225" t="inlineStr">
         <x:is>
-          <x:t>23/8140</x:t>
+          <x:t>23/8138</x:t>
         </x:is>
       </x:c>
       <x:c r="B225" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C225" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F225" t="inlineStr">
@@ -6608,17 +6620,17 @@
     <x:row r="226">
       <x:c r="A226" t="inlineStr">
         <x:is>
-          <x:t>23/8141</x:t>
+          <x:t>23/8139</x:t>
         </x:is>
       </x:c>
       <x:c r="B226" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C226" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F226" t="inlineStr">
@@ -6635,17 +6647,17 @@
     <x:row r="227">
       <x:c r="A227" t="inlineStr">
         <x:is>
-          <x:t>23/8142</x:t>
+          <x:t>23/8140</x:t>
         </x:is>
       </x:c>
       <x:c r="B227" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C227" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F227" t="inlineStr">
@@ -6662,17 +6674,17 @@
     <x:row r="228">
       <x:c r="A228" t="inlineStr">
         <x:is>
-          <x:t>23/8143</x:t>
+          <x:t>23/8141</x:t>
         </x:is>
       </x:c>
       <x:c r="B228" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C228" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F228" t="inlineStr">
@@ -6689,17 +6701,17 @@
     <x:row r="229">
       <x:c r="A229" t="inlineStr">
         <x:is>
-          <x:t>23/8144</x:t>
+          <x:t>23/8142</x:t>
         </x:is>
       </x:c>
       <x:c r="B229" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C229" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F229" t="inlineStr">
@@ -6716,17 +6728,17 @@
     <x:row r="230">
       <x:c r="A230" t="inlineStr">
         <x:is>
-          <x:t>23/8145</x:t>
+          <x:t>23/8143</x:t>
         </x:is>
       </x:c>
       <x:c r="B230" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C230" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F230" t="inlineStr">
@@ -6743,17 +6755,17 @@
     <x:row r="231">
       <x:c r="A231" t="inlineStr">
         <x:is>
-          <x:t>23/8148</x:t>
+          <x:t>23/8144</x:t>
         </x:is>
       </x:c>
       <x:c r="B231" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C231" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F231" t="inlineStr">
@@ -6763,29 +6775,24 @@
       </x:c>
       <x:c r="G231" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION AMBIENTAL DE ASTURIAS, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H231" t="inlineStr">
-        <x:is>
-          <x:t>Getafe</x:t>
+          <x:t>NASCOR FORMACION SLU</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="232">
       <x:c r="A232" t="inlineStr">
         <x:is>
-          <x:t>23/8150</x:t>
+          <x:t>23/8145</x:t>
         </x:is>
       </x:c>
       <x:c r="B232" t="inlineStr">
         <x:is>
-          <x:t>TMVO0212</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C232" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A PASAJEROS, TRIPULACIONES, AERONAVES Y MERCANCÍAS EN AEROPUERTOS</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F232" t="inlineStr">
@@ -6795,29 +6802,24 @@
       </x:c>
       <x:c r="G232" t="inlineStr">
         <x:is>
-          <x:t>PROYECTAEMPLEO S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H232" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>NASCOR FORMACION SLU</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="233">
       <x:c r="A233" t="inlineStr">
         <x:is>
-          <x:t>23/8151</x:t>
+          <x:t>23/8148</x:t>
         </x:is>
       </x:c>
       <x:c r="B233" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C233" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F233" t="inlineStr">
@@ -6827,24 +6829,29 @@
       </x:c>
       <x:c r="G233" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>CENTRO DE FORMACION AMBIENTAL DE ASTURIAS, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H233" t="inlineStr">
+        <x:is>
+          <x:t>Getafe</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="234">
       <x:c r="A234" t="inlineStr">
         <x:is>
-          <x:t>23/8152</x:t>
+          <x:t>23/8150</x:t>
         </x:is>
       </x:c>
       <x:c r="B234" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>TMVO0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C234" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ASISTENCIA A PASAJEROS, TRIPULACIONES, AERONAVES Y MERCANCÍAS EN AEROPUERTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F234" t="inlineStr">
@@ -6854,24 +6861,29 @@
       </x:c>
       <x:c r="G234" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>PROYECTAEMPLEO S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H234" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="235">
       <x:c r="A235" t="inlineStr">
         <x:is>
-          <x:t>23/8153</x:t>
+          <x:t>23/8151</x:t>
         </x:is>
       </x:c>
       <x:c r="B235" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C235" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F235" t="inlineStr">
@@ -6888,17 +6900,17 @@
     <x:row r="236">
       <x:c r="A236" t="inlineStr">
         <x:is>
-          <x:t>23/8155</x:t>
+          <x:t>23/8152</x:t>
         </x:is>
       </x:c>
       <x:c r="B236" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C236" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F236" t="inlineStr">
@@ -6915,17 +6927,17 @@
     <x:row r="237">
       <x:c r="A237" t="inlineStr">
         <x:is>
-          <x:t>23/8156</x:t>
+          <x:t>23/8153</x:t>
         </x:is>
       </x:c>
       <x:c r="B237" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C237" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F237" t="inlineStr">
@@ -6942,17 +6954,17 @@
     <x:row r="238">
       <x:c r="A238" t="inlineStr">
         <x:is>
-          <x:t>23/8159</x:t>
+          <x:t>23/8155</x:t>
         </x:is>
       </x:c>
       <x:c r="B238" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C238" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F238" t="inlineStr">
@@ -6962,24 +6974,24 @@
       </x:c>
       <x:c r="G238" t="inlineStr">
         <x:is>
-          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="239">
       <x:c r="A239" t="inlineStr">
         <x:is>
-          <x:t>23/8160</x:t>
+          <x:t>23/8156</x:t>
         </x:is>
       </x:c>
       <x:c r="B239" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C239" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F239" t="inlineStr">
@@ -6989,24 +7001,24 @@
       </x:c>
       <x:c r="G239" t="inlineStr">
         <x:is>
-          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="240">
       <x:c r="A240" t="inlineStr">
         <x:is>
-          <x:t>23/8161</x:t>
+          <x:t>23/8159</x:t>
         </x:is>
       </x:c>
       <x:c r="B240" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C240" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F240" t="inlineStr">
@@ -7023,17 +7035,17 @@
     <x:row r="241">
       <x:c r="A241" t="inlineStr">
         <x:is>
-          <x:t>23/8162</x:t>
+          <x:t>23/8160</x:t>
         </x:is>
       </x:c>
       <x:c r="B241" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C241" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F241" t="inlineStr">
@@ -7050,17 +7062,17 @@
     <x:row r="242">
       <x:c r="A242" t="inlineStr">
         <x:is>
-          <x:t>23/8163</x:t>
+          <x:t>23/8161</x:t>
         </x:is>
       </x:c>
       <x:c r="B242" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C242" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F242" t="inlineStr">
@@ -7077,17 +7089,17 @@
     <x:row r="243">
       <x:c r="A243" t="inlineStr">
         <x:is>
-          <x:t>23/8164</x:t>
+          <x:t>23/8162</x:t>
         </x:is>
       </x:c>
       <x:c r="B243" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C243" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F243" t="inlineStr">
@@ -7104,17 +7116,17 @@
     <x:row r="244">
       <x:c r="A244" t="inlineStr">
         <x:is>
-          <x:t>23/8165</x:t>
+          <x:t>23/8163</x:t>
         </x:is>
       </x:c>
       <x:c r="B244" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C244" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F244" t="inlineStr">
@@ -7131,17 +7143,17 @@
     <x:row r="245">
       <x:c r="A245" t="inlineStr">
         <x:is>
-          <x:t>23/8166</x:t>
+          <x:t>23/8164</x:t>
         </x:is>
       </x:c>
       <x:c r="B245" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C245" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F245" t="inlineStr">
@@ -7158,17 +7170,17 @@
     <x:row r="246">
       <x:c r="A246" t="inlineStr">
         <x:is>
-          <x:t>23/8167</x:t>
+          <x:t>23/8165</x:t>
         </x:is>
       </x:c>
       <x:c r="B246" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C246" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F246" t="inlineStr">
@@ -7178,24 +7190,24 @@
       </x:c>
       <x:c r="G246" t="inlineStr">
         <x:is>
-          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
+          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="247">
       <x:c r="A247" t="inlineStr">
         <x:is>
-          <x:t>23/8168</x:t>
+          <x:t>23/8166</x:t>
         </x:is>
       </x:c>
       <x:c r="B247" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C247" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F247" t="inlineStr">
@@ -7205,24 +7217,24 @@
       </x:c>
       <x:c r="G247" t="inlineStr">
         <x:is>
-          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
+          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="248">
       <x:c r="A248" t="inlineStr">
         <x:is>
-          <x:t>23/8169</x:t>
+          <x:t>23/8167</x:t>
         </x:is>
       </x:c>
       <x:c r="B248" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C248" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F248" t="inlineStr">
@@ -7239,17 +7251,17 @@
     <x:row r="249">
       <x:c r="A249" t="inlineStr">
         <x:is>
-          <x:t>23/8170</x:t>
+          <x:t>23/8168</x:t>
         </x:is>
       </x:c>
       <x:c r="B249" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C249" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F249" t="inlineStr">
@@ -7259,24 +7271,24 @@
       </x:c>
       <x:c r="G249" t="inlineStr">
         <x:is>
-          <x:t>EDITORIAL TÉCNICA CIENTIFICA PRENSA HISPANOAMERICANA S.L</x:t>
+          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="250">
       <x:c r="A250" t="inlineStr">
         <x:is>
-          <x:t>23/8171</x:t>
+          <x:t>23/8169</x:t>
         </x:is>
       </x:c>
       <x:c r="B250" t="inlineStr">
         <x:is>
-          <x:t>TMVG0109</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C250" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F250" t="inlineStr">
@@ -7286,24 +7298,24 @@
       </x:c>
       <x:c r="G250" t="inlineStr">
         <x:is>
-          <x:t>CARS MAROBE S.L.</x:t>
+          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="251">
       <x:c r="A251" t="inlineStr">
         <x:is>
-          <x:t>23/8172</x:t>
+          <x:t>23/8170</x:t>
         </x:is>
       </x:c>
       <x:c r="B251" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C251" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F251" t="inlineStr">
@@ -7313,14 +7325,14 @@
       </x:c>
       <x:c r="G251" t="inlineStr">
         <x:is>
-          <x:t>CARS MAROBE S.L.</x:t>
+          <x:t>EDITORIAL TÉCNICA CIENTIFICA PRENSA HISPANOAMERICANA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="252">
       <x:c r="A252" t="inlineStr">
         <x:is>
-          <x:t>23/8173</x:t>
+          <x:t>23/8171</x:t>
         </x:is>
       </x:c>
       <x:c r="B252" t="inlineStr">
@@ -7347,17 +7359,17 @@
     <x:row r="253">
       <x:c r="A253" t="inlineStr">
         <x:is>
-          <x:t>23/8174</x:t>
+          <x:t>23/8172</x:t>
         </x:is>
       </x:c>
       <x:c r="B253" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C253" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="F253" t="inlineStr">
@@ -7367,24 +7379,24 @@
       </x:c>
       <x:c r="G253" t="inlineStr">
         <x:is>
-          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
+          <x:t>CARS MAROBE S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="254">
       <x:c r="A254" t="inlineStr">
         <x:is>
-          <x:t>23/8175</x:t>
+          <x:t>23/8173</x:t>
         </x:is>
       </x:c>
       <x:c r="B254" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>TMVG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C254" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F254" t="inlineStr">
@@ -7394,24 +7406,24 @@
       </x:c>
       <x:c r="G254" t="inlineStr">
         <x:is>
-          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
+          <x:t>CARS MAROBE S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="255">
       <x:c r="A255" t="inlineStr">
         <x:is>
-          <x:t>23/8176</x:t>
+          <x:t>23/8174</x:t>
         </x:is>
       </x:c>
       <x:c r="B255" t="inlineStr">
         <x:is>
-          <x:t>IFCT0309</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C255" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F255" t="inlineStr">
@@ -7428,7 +7440,7 @@
     <x:row r="256">
       <x:c r="A256" t="inlineStr">
         <x:is>
-          <x:t>23/8177</x:t>
+          <x:t>23/8175</x:t>
         </x:is>
       </x:c>
       <x:c r="B256" t="inlineStr">
@@ -7455,17 +7467,17 @@
     <x:row r="257">
       <x:c r="A257" t="inlineStr">
         <x:is>
-          <x:t>23/8178</x:t>
+          <x:t>23/8176</x:t>
         </x:is>
       </x:c>
       <x:c r="B257" t="inlineStr">
         <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>IFCT0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C257" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F257" t="inlineStr">
@@ -7475,29 +7487,24 @@
       </x:c>
       <x:c r="G257" t="inlineStr">
         <x:is>
-          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H257" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="258">
       <x:c r="A258" t="inlineStr">
         <x:is>
-          <x:t>23/8179</x:t>
+          <x:t>23/8177</x:t>
         </x:is>
       </x:c>
       <x:c r="B258" t="inlineStr">
         <x:is>
-          <x:t>IMSV0208</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C258" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F258" t="inlineStr">
@@ -7507,29 +7514,24 @@
       </x:c>
       <x:c r="G258" t="inlineStr">
         <x:is>
-          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H258" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="259">
       <x:c r="A259" t="inlineStr">
         <x:is>
-          <x:t>23/8180</x:t>
+          <x:t>23/8178</x:t>
         </x:is>
       </x:c>
       <x:c r="B259" t="inlineStr">
         <x:is>
-          <x:t>IMSV0408</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C259" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA DIRECCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F259" t="inlineStr">
@@ -7551,17 +7553,17 @@
     <x:row r="260">
       <x:c r="A260" t="inlineStr">
         <x:is>
-          <x:t>23/8182</x:t>
+          <x:t>23/8179</x:t>
         </x:is>
       </x:c>
       <x:c r="B260" t="inlineStr">
         <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>IMSV0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C260" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F260" t="inlineStr">
@@ -7583,17 +7585,17 @@
     <x:row r="261">
       <x:c r="A261" t="inlineStr">
         <x:is>
-          <x:t>23/8183</x:t>
+          <x:t>23/8180</x:t>
         </x:is>
       </x:c>
       <x:c r="B261" t="inlineStr">
         <x:is>
-          <x:t>IMSV0109</x:t>
+          <x:t>IMSV0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C261" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA DIRECCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F261" t="inlineStr">
@@ -7615,17 +7617,17 @@
     <x:row r="262">
       <x:c r="A262" t="inlineStr">
         <x:is>
-          <x:t>23/8185</x:t>
+          <x:t>23/8182</x:t>
         </x:is>
       </x:c>
       <x:c r="B262" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C262" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F262" t="inlineStr">
@@ -7635,24 +7637,29 @@
       </x:c>
       <x:c r="G262" t="inlineStr">
         <x:is>
-          <x:t>MOSFRIN S.L.</x:t>
+          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H262" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="263">
       <x:c r="A263" t="inlineStr">
         <x:is>
-          <x:t>23/8186</x:t>
+          <x:t>23/8183</x:t>
         </x:is>
       </x:c>
       <x:c r="B263" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>IMSV0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C263" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F263" t="inlineStr">
@@ -7662,24 +7669,29 @@
       </x:c>
       <x:c r="G263" t="inlineStr">
         <x:is>
-          <x:t>MOSFRIN S.L.</x:t>
+          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H263" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="264">
       <x:c r="A264" t="inlineStr">
         <x:is>
-          <x:t>23/8187</x:t>
+          <x:t>23/8185</x:t>
         </x:is>
       </x:c>
       <x:c r="B264" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C264" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F264" t="inlineStr">
@@ -7696,17 +7708,17 @@
     <x:row r="265">
       <x:c r="A265" t="inlineStr">
         <x:is>
-          <x:t>23/8188</x:t>
+          <x:t>23/8186</x:t>
         </x:is>
       </x:c>
       <x:c r="B265" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C265" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F265" t="inlineStr">
@@ -7723,17 +7735,17 @@
     <x:row r="266">
       <x:c r="A266" t="inlineStr">
         <x:is>
-          <x:t>23/8189</x:t>
+          <x:t>23/8187</x:t>
         </x:is>
       </x:c>
       <x:c r="B266" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C266" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F266" t="inlineStr">
@@ -7750,7 +7762,7 @@
     <x:row r="267">
       <x:c r="A267" t="inlineStr">
         <x:is>
-          <x:t>23/8190</x:t>
+          <x:t>23/8188</x:t>
         </x:is>
       </x:c>
       <x:c r="B267" t="inlineStr">
@@ -7777,17 +7789,17 @@
     <x:row r="268">
       <x:c r="A268" t="inlineStr">
         <x:is>
-          <x:t>23/8191</x:t>
+          <x:t>23/8189</x:t>
         </x:is>
       </x:c>
       <x:c r="B268" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C268" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F268" t="inlineStr">
@@ -7804,17 +7816,17 @@
     <x:row r="269">
       <x:c r="A269" t="inlineStr">
         <x:is>
-          <x:t>23/8192</x:t>
+          <x:t>23/8190</x:t>
         </x:is>
       </x:c>
       <x:c r="B269" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C269" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F269" t="inlineStr">
@@ -7824,29 +7836,24 @@
       </x:c>
       <x:c r="G269" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H269" t="inlineStr">
-        <x:is>
-          <x:t>Alcorcón</x:t>
+          <x:t>MOSFRIN S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="270">
       <x:c r="A270" t="inlineStr">
         <x:is>
-          <x:t>23/8193</x:t>
+          <x:t>23/8191</x:t>
         </x:is>
       </x:c>
       <x:c r="B270" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0110</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C270" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F270" t="inlineStr">
@@ -7856,29 +7863,24 @@
       </x:c>
       <x:c r="G270" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H270" t="inlineStr">
-        <x:is>
-          <x:t>Alcorcón</x:t>
+          <x:t>MOSFRIN S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="271">
       <x:c r="A271" t="inlineStr">
         <x:is>
-          <x:t>23/8194</x:t>
+          <x:t>23/8192</x:t>
         </x:is>
       </x:c>
       <x:c r="B271" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C271" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F271" t="inlineStr">
@@ -7900,17 +7902,17 @@
     <x:row r="272">
       <x:c r="A272" t="inlineStr">
         <x:is>
-          <x:t>23/8195</x:t>
+          <x:t>23/8193</x:t>
         </x:is>
       </x:c>
       <x:c r="B272" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>AGAJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C272" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F272" t="inlineStr">
@@ -7932,17 +7934,17 @@
     <x:row r="273">
       <x:c r="A273" t="inlineStr">
         <x:is>
-          <x:t>23/8196</x:t>
+          <x:t>23/8194</x:t>
         </x:is>
       </x:c>
       <x:c r="B273" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0110</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C273" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F273" t="inlineStr">
@@ -7964,17 +7966,17 @@
     <x:row r="274">
       <x:c r="A274" t="inlineStr">
         <x:is>
-          <x:t>23/8197</x:t>
+          <x:t>23/8195</x:t>
         </x:is>
       </x:c>
       <x:c r="B274" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C274" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F274" t="inlineStr">
@@ -7996,17 +7998,17 @@
     <x:row r="275">
       <x:c r="A275" t="inlineStr">
         <x:is>
-          <x:t>23/8198</x:t>
+          <x:t>23/8196</x:t>
         </x:is>
       </x:c>
       <x:c r="B275" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0108</x:t>
+          <x:t>AGAJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C275" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE PELUQUERÍA</x:t>
+          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F275" t="inlineStr">
@@ -8028,7 +8030,7 @@
     <x:row r="276">
       <x:c r="A276" t="inlineStr">
         <x:is>
-          <x:t>23/8199</x:t>
+          <x:t>23/8197</x:t>
         </x:is>
       </x:c>
       <x:c r="B276" t="inlineStr">
@@ -8060,17 +8062,17 @@
     <x:row r="277">
       <x:c r="A277" t="inlineStr">
         <x:is>
-          <x:t>23/8200</x:t>
+          <x:t>23/8198</x:t>
         </x:is>
       </x:c>
       <x:c r="B277" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>IMPQ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C277" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>SERVICIOS AUXILIARES DE PELUQUERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F277" t="inlineStr">
@@ -8092,17 +8094,17 @@
     <x:row r="278">
       <x:c r="A278" t="inlineStr">
         <x:is>
-          <x:t>23/8201</x:t>
+          <x:t>23/8199</x:t>
         </x:is>
       </x:c>
       <x:c r="B278" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C278" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F278" t="inlineStr">
@@ -8112,24 +8114,29 @@
       </x:c>
       <x:c r="G278" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H278" t="inlineStr">
+        <x:is>
+          <x:t>Alcorcón</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="279">
       <x:c r="A279" t="inlineStr">
         <x:is>
-          <x:t>23/8202</x:t>
+          <x:t>23/8200</x:t>
         </x:is>
       </x:c>
       <x:c r="B279" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C279" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F279" t="inlineStr">
@@ -8139,24 +8146,29 @@
       </x:c>
       <x:c r="G279" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H279" t="inlineStr">
+        <x:is>
+          <x:t>Alcorcón</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="280">
       <x:c r="A280" t="inlineStr">
         <x:is>
-          <x:t>23/8203</x:t>
+          <x:t>23/8201</x:t>
         </x:is>
       </x:c>
       <x:c r="B280" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C280" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F280" t="inlineStr">
@@ -8173,7 +8185,7 @@
     <x:row r="281">
       <x:c r="A281" t="inlineStr">
         <x:is>
-          <x:t>23/8204</x:t>
+          <x:t>23/8202</x:t>
         </x:is>
       </x:c>
       <x:c r="B281" t="inlineStr">
@@ -8200,17 +8212,17 @@
     <x:row r="282">
       <x:c r="A282" t="inlineStr">
         <x:is>
-          <x:t>23/8205</x:t>
+          <x:t>23/8203</x:t>
         </x:is>
       </x:c>
       <x:c r="B282" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C282" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F282" t="inlineStr">
@@ -8227,17 +8239,17 @@
     <x:row r="283">
       <x:c r="A283" t="inlineStr">
         <x:is>
-          <x:t>23/8206</x:t>
+          <x:t>23/8204</x:t>
         </x:is>
       </x:c>
       <x:c r="B283" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C283" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F283" t="inlineStr">
@@ -8254,17 +8266,17 @@
     <x:row r="284">
       <x:c r="A284" t="inlineStr">
         <x:is>
-          <x:t>23/8207</x:t>
+          <x:t>23/8205</x:t>
         </x:is>
       </x:c>
       <x:c r="B284" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C284" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F284" t="inlineStr">
@@ -8281,17 +8293,17 @@
     <x:row r="285">
       <x:c r="A285" t="inlineStr">
         <x:is>
-          <x:t>23/8208</x:t>
+          <x:t>23/8206</x:t>
         </x:is>
       </x:c>
       <x:c r="B285" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C285" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F285" t="inlineStr">
@@ -8308,17 +8320,17 @@
     <x:row r="286">
       <x:c r="A286" t="inlineStr">
         <x:is>
-          <x:t>23/8209</x:t>
+          <x:t>23/8207</x:t>
         </x:is>
       </x:c>
       <x:c r="B286" t="inlineStr">
         <x:is>
-          <x:t>ELEE0108</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C286" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F286" t="inlineStr">
@@ -8328,24 +8340,24 @@
       </x:c>
       <x:c r="G286" t="inlineStr">
         <x:is>
-          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="287">
       <x:c r="A287" t="inlineStr">
         <x:is>
-          <x:t>23/8210</x:t>
+          <x:t>23/8208</x:t>
         </x:is>
       </x:c>
       <x:c r="B287" t="inlineStr">
         <x:is>
-          <x:t>ENAE0111</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C287" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F287" t="inlineStr">
@@ -8355,24 +8367,24 @@
       </x:c>
       <x:c r="G287" t="inlineStr">
         <x:is>
-          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="288">
       <x:c r="A288" t="inlineStr">
         <x:is>
-          <x:t>23/8211</x:t>
+          <x:t>23/8209</x:t>
         </x:is>
       </x:c>
       <x:c r="B288" t="inlineStr">
         <x:is>
-          <x:t>ENAE0208</x:t>
+          <x:t>ELEE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C288" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F288" t="inlineStr">
@@ -8389,17 +8401,17 @@
     <x:row r="289">
       <x:c r="A289" t="inlineStr">
         <x:is>
-          <x:t>23/8212</x:t>
+          <x:t>23/8210</x:t>
         </x:is>
       </x:c>
       <x:c r="B289" t="inlineStr">
         <x:is>
-          <x:t>ELEM0111</x:t>
+          <x:t>ENAE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C289" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
+          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F289" t="inlineStr">
@@ -8416,17 +8428,17 @@
     <x:row r="290">
       <x:c r="A290" t="inlineStr">
         <x:is>
-          <x:t>23/8213</x:t>
+          <x:t>23/8211</x:t>
         </x:is>
       </x:c>
       <x:c r="B290" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>ENAE0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C290" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F290" t="inlineStr">
@@ -8436,24 +8448,24 @@
       </x:c>
       <x:c r="G290" t="inlineStr">
         <x:is>
-          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
+          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="291">
       <x:c r="A291" t="inlineStr">
         <x:is>
-          <x:t>23/8214</x:t>
+          <x:t>23/8212</x:t>
         </x:is>
       </x:c>
       <x:c r="B291" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>ELEM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C291" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F291" t="inlineStr">
@@ -8463,24 +8475,24 @@
       </x:c>
       <x:c r="G291" t="inlineStr">
         <x:is>
-          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
+          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="292">
       <x:c r="A292" t="inlineStr">
         <x:is>
-          <x:t>23/8215</x:t>
+          <x:t>23/8213</x:t>
         </x:is>
       </x:c>
       <x:c r="B292" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C292" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F292" t="inlineStr">
@@ -8497,17 +8509,17 @@
     <x:row r="293">
       <x:c r="A293" t="inlineStr">
         <x:is>
-          <x:t>23/8216</x:t>
+          <x:t>23/8214</x:t>
         </x:is>
       </x:c>
       <x:c r="B293" t="inlineStr">
         <x:is>
-          <x:t>IMAI0108</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C293" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F293" t="inlineStr">
@@ -8524,17 +8536,17 @@
     <x:row r="294">
       <x:c r="A294" t="inlineStr">
         <x:is>
-          <x:t>23/8217</x:t>
+          <x:t>23/8215</x:t>
         </x:is>
       </x:c>
       <x:c r="B294" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C294" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F294" t="inlineStr">
@@ -8551,17 +8563,17 @@
     <x:row r="295">
       <x:c r="A295" t="inlineStr">
         <x:is>
-          <x:t>23/8218</x:t>
+          <x:t>23/8216</x:t>
         </x:is>
       </x:c>
       <x:c r="B295" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>IMAI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C295" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F295" t="inlineStr">
@@ -8578,7 +8590,7 @@
     <x:row r="296">
       <x:c r="A296" t="inlineStr">
         <x:is>
-          <x:t>23/8219</x:t>
+          <x:t>23/8217</x:t>
         </x:is>
       </x:c>
       <x:c r="B296" t="inlineStr">
@@ -8605,17 +8617,17 @@
     <x:row r="297">
       <x:c r="A297" t="inlineStr">
         <x:is>
-          <x:t>23/8220</x:t>
+          <x:t>23/8218</x:t>
         </x:is>
       </x:c>
       <x:c r="B297" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C297" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F297" t="inlineStr">
@@ -8632,17 +8644,17 @@
     <x:row r="298">
       <x:c r="A298" t="inlineStr">
         <x:is>
-          <x:t>23/8224</x:t>
+          <x:t>23/8219</x:t>
         </x:is>
       </x:c>
       <x:c r="B298" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C298" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F298" t="inlineStr">
@@ -8652,24 +8664,24 @@
       </x:c>
       <x:c r="G298" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="299">
       <x:c r="A299" t="inlineStr">
         <x:is>
-          <x:t>23/8225</x:t>
+          <x:t>23/8220</x:t>
         </x:is>
       </x:c>
       <x:c r="B299" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C299" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F299" t="inlineStr">
@@ -8679,14 +8691,14 @@
       </x:c>
       <x:c r="G299" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="300">
       <x:c r="A300" t="inlineStr">
         <x:is>
-          <x:t>23/8228</x:t>
+          <x:t>23/8224</x:t>
         </x:is>
       </x:c>
       <x:c r="B300" t="inlineStr">
@@ -8713,17 +8725,17 @@
     <x:row r="301">
       <x:c r="A301" t="inlineStr">
         <x:is>
-          <x:t>23/8229</x:t>
+          <x:t>23/8225</x:t>
         </x:is>
       </x:c>
       <x:c r="B301" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C301" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F301" t="inlineStr">
@@ -8733,24 +8745,24 @@
       </x:c>
       <x:c r="G301" t="inlineStr">
         <x:is>
-          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="302">
       <x:c r="A302" t="inlineStr">
         <x:is>
-          <x:t>23/8230</x:t>
+          <x:t>23/8228</x:t>
         </x:is>
       </x:c>
       <x:c r="B302" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C302" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F302" t="inlineStr">
@@ -8760,24 +8772,24 @@
       </x:c>
       <x:c r="G302" t="inlineStr">
         <x:is>
-          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="303">
       <x:c r="A303" t="inlineStr">
         <x:is>
-          <x:t>23/8231</x:t>
+          <x:t>23/8229</x:t>
         </x:is>
       </x:c>
       <x:c r="B303" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C303" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F303" t="inlineStr">
@@ -8794,17 +8806,17 @@
     <x:row r="304">
       <x:c r="A304" t="inlineStr">
         <x:is>
-          <x:t>23/8232</x:t>
+          <x:t>23/8230</x:t>
         </x:is>
       </x:c>
       <x:c r="B304" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C304" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F304" t="inlineStr">
@@ -8821,17 +8833,17 @@
     <x:row r="305">
       <x:c r="A305" t="inlineStr">
         <x:is>
-          <x:t>23/8233</x:t>
+          <x:t>23/8231</x:t>
         </x:is>
       </x:c>
       <x:c r="B305" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C305" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F305" t="inlineStr">
@@ -8848,17 +8860,17 @@
     <x:row r="306">
       <x:c r="A306" t="inlineStr">
         <x:is>
-          <x:t>23/8234</x:t>
+          <x:t>23/8232</x:t>
         </x:is>
       </x:c>
       <x:c r="B306" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C306" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F306" t="inlineStr">
@@ -8875,17 +8887,17 @@
     <x:row r="307">
       <x:c r="A307" t="inlineStr">
         <x:is>
-          <x:t>23/8235</x:t>
+          <x:t>23/8233</x:t>
         </x:is>
       </x:c>
       <x:c r="B307" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C307" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F307" t="inlineStr">
@@ -8902,17 +8914,17 @@
     <x:row r="308">
       <x:c r="A308" t="inlineStr">
         <x:is>
-          <x:t>23/8243</x:t>
+          <x:t>23/8234</x:t>
         </x:is>
       </x:c>
       <x:c r="B308" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C308" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F308" t="inlineStr">
@@ -8922,29 +8934,24 @@
       </x:c>
       <x:c r="G308" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H308" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="309">
       <x:c r="A309" t="inlineStr">
         <x:is>
-          <x:t>23/8246</x:t>
+          <x:t>23/8235</x:t>
         </x:is>
       </x:c>
       <x:c r="B309" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C309" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F309" t="inlineStr">
@@ -8954,24 +8961,24 @@
       </x:c>
       <x:c r="G309" t="inlineStr">
         <x:is>
-          <x:t>HEDIMA DN FORMACION, S.L.</x:t>
+          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="310">
       <x:c r="A310" t="inlineStr">
         <x:is>
-          <x:t>23/8247</x:t>
+          <x:t>23/8243</x:t>
         </x:is>
       </x:c>
       <x:c r="B310" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C310" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="F310" t="inlineStr">
@@ -8981,14 +8988,19 @@
       </x:c>
       <x:c r="G310" t="inlineStr">
         <x:is>
-          <x:t>HEDIMA DN FORMACION, S.L.</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H310" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="311">
       <x:c r="A311" t="inlineStr">
         <x:is>
-          <x:t>23/8248</x:t>
+          <x:t>23/8246</x:t>
         </x:is>
       </x:c>
       <x:c r="B311" t="inlineStr">
@@ -9015,17 +9027,17 @@
     <x:row r="312">
       <x:c r="A312" t="inlineStr">
         <x:is>
-          <x:t>23/8249</x:t>
+          <x:t>23/8247</x:t>
         </x:is>
       </x:c>
       <x:c r="B312" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C312" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F312" t="inlineStr">
@@ -9042,17 +9054,17 @@
     <x:row r="313">
       <x:c r="A313" t="inlineStr">
         <x:is>
-          <x:t>23/8250</x:t>
+          <x:t>23/8248</x:t>
         </x:is>
       </x:c>
       <x:c r="B313" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C313" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F313" t="inlineStr">
@@ -9062,24 +9074,24 @@
       </x:c>
       <x:c r="G313" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>HEDIMA DN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="314">
       <x:c r="A314" t="inlineStr">
         <x:is>
-          <x:t>23/8251</x:t>
+          <x:t>23/8249</x:t>
         </x:is>
       </x:c>
       <x:c r="B314" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C314" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F314" t="inlineStr">
@@ -9089,14 +9101,14 @@
       </x:c>
       <x:c r="G314" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>HEDIMA DN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="315">
       <x:c r="A315" t="inlineStr">
         <x:is>
-          <x:t>23/8252</x:t>
+          <x:t>23/8250</x:t>
         </x:is>
       </x:c>
       <x:c r="B315" t="inlineStr">
@@ -9123,7 +9135,7 @@
     <x:row r="316">
       <x:c r="A316" t="inlineStr">
         <x:is>
-          <x:t>23/8253</x:t>
+          <x:t>23/8251</x:t>
         </x:is>
       </x:c>
       <x:c r="B316" t="inlineStr">
@@ -9150,17 +9162,17 @@
     <x:row r="317">
       <x:c r="A317" t="inlineStr">
         <x:is>
-          <x:t>23/8254</x:t>
+          <x:t>23/8252</x:t>
         </x:is>
       </x:c>
       <x:c r="B317" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C317" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F317" t="inlineStr">
@@ -9177,17 +9189,17 @@
     <x:row r="318">
       <x:c r="A318" t="inlineStr">
         <x:is>
-          <x:t>23/8255</x:t>
+          <x:t>23/8253</x:t>
         </x:is>
       </x:c>
       <x:c r="B318" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C318" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F318" t="inlineStr">
@@ -9197,24 +9209,24 @@
       </x:c>
       <x:c r="G318" t="inlineStr">
         <x:is>
-          <x:t>AQUINUVE, SL</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="319">
       <x:c r="A319" t="inlineStr">
         <x:is>
-          <x:t>23/8256</x:t>
+          <x:t>23/8254</x:t>
         </x:is>
       </x:c>
       <x:c r="B319" t="inlineStr">
         <x:is>
-          <x:t>TMVL0409</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C319" t="inlineStr">
         <x:is>
-          <x:t>EMBELLECIMIENTO Y DECORACIÓN DE SUPERFICIES DE VEHÍCULOS</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F319" t="inlineStr">
@@ -9224,24 +9236,24 @@
       </x:c>
       <x:c r="G319" t="inlineStr">
         <x:is>
-          <x:t>AQUINUVE, SL</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="320">
       <x:c r="A320" t="inlineStr">
         <x:is>
-          <x:t>23/8257</x:t>
+          <x:t>23/8255</x:t>
         </x:is>
       </x:c>
       <x:c r="B320" t="inlineStr">
         <x:is>
-          <x:t>TMVL0109</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C320" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN CARROCERÍAS DE VEHÍCULOS</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="F320" t="inlineStr">
@@ -9258,17 +9270,17 @@
     <x:row r="321">
       <x:c r="A321" t="inlineStr">
         <x:is>
-          <x:t>23/8258</x:t>
+          <x:t>23/8256</x:t>
         </x:is>
       </x:c>
       <x:c r="B321" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>TMVL0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C321" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>EMBELLECIMIENTO Y DECORACIÓN DE SUPERFICIES DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F321" t="inlineStr">
@@ -9278,24 +9290,24 @@
       </x:c>
       <x:c r="G321" t="inlineStr">
         <x:is>
-          <x:t>ADALID SERVICIOS CORPORATIVOS SL</x:t>
+          <x:t>AQUINUVE, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="322">
       <x:c r="A322" t="inlineStr">
         <x:is>
-          <x:t>23/8259</x:t>
+          <x:t>23/8257</x:t>
         </x:is>
       </x:c>
       <x:c r="B322" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>TMVL0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C322" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN CARROCERÍAS DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F322" t="inlineStr">
@@ -9305,24 +9317,24 @@
       </x:c>
       <x:c r="G322" t="inlineStr">
         <x:is>
-          <x:t>ADALID SERVICIOS CORPORATIVOS SL</x:t>
+          <x:t>AQUINUVE, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="323">
       <x:c r="A323" t="inlineStr">
         <x:is>
-          <x:t>23/8260</x:t>
+          <x:t>23/8258</x:t>
         </x:is>
       </x:c>
       <x:c r="B323" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C323" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F323" t="inlineStr">
@@ -9339,17 +9351,17 @@
     <x:row r="324">
       <x:c r="A324" t="inlineStr">
         <x:is>
-          <x:t>23/8261</x:t>
+          <x:t>23/8259</x:t>
         </x:is>
       </x:c>
       <x:c r="B324" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C324" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F324" t="inlineStr">
@@ -9366,17 +9378,17 @@
     <x:row r="325">
       <x:c r="A325" t="inlineStr">
         <x:is>
-          <x:t>23/8262</x:t>
+          <x:t>23/8260</x:t>
         </x:is>
       </x:c>
       <x:c r="B325" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C325" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F325" t="inlineStr">
@@ -9393,17 +9405,17 @@
     <x:row r="326">
       <x:c r="A326" t="inlineStr">
         <x:is>
-          <x:t>23/8263</x:t>
+          <x:t>23/8261</x:t>
         </x:is>
       </x:c>
       <x:c r="B326" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C326" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F326" t="inlineStr">
@@ -9420,17 +9432,17 @@
     <x:row r="327">
       <x:c r="A327" t="inlineStr">
         <x:is>
-          <x:t>23/8264</x:t>
+          <x:t>23/8262</x:t>
         </x:is>
       </x:c>
       <x:c r="B327" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C327" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F327" t="inlineStr">
@@ -9447,17 +9459,17 @@
     <x:row r="328">
       <x:c r="A328" t="inlineStr">
         <x:is>
-          <x:t>23/8265</x:t>
+          <x:t>23/8263</x:t>
         </x:is>
       </x:c>
       <x:c r="B328" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C328" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F328" t="inlineStr">
@@ -9474,17 +9486,17 @@
     <x:row r="329">
       <x:c r="A329" t="inlineStr">
         <x:is>
-          <x:t>23/8266</x:t>
+          <x:t>23/8264</x:t>
         </x:is>
       </x:c>
       <x:c r="B329" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C329" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F329" t="inlineStr">
@@ -9501,17 +9513,17 @@
     <x:row r="330">
       <x:c r="A330" t="inlineStr">
         <x:is>
-          <x:t>23/8270</x:t>
+          <x:t>23/8265</x:t>
         </x:is>
       </x:c>
       <x:c r="B330" t="inlineStr">
         <x:is>
-          <x:t>TMVI0208</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C330" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F330" t="inlineStr">
@@ -9521,24 +9533,24 @@
       </x:c>
       <x:c r="G330" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA GALA S.L.</x:t>
+          <x:t>ADALID SERVICIOS CORPORATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="331">
       <x:c r="A331" t="inlineStr">
         <x:is>
-          <x:t>23/8271</x:t>
+          <x:t>23/8266</x:t>
         </x:is>
       </x:c>
       <x:c r="B331" t="inlineStr">
         <x:is>
-          <x:t>TMVI0208</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C331" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F331" t="inlineStr">
@@ -9548,24 +9560,24 @@
       </x:c>
       <x:c r="G331" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA GALA S.L.</x:t>
+          <x:t>ADALID SERVICIOS CORPORATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="332">
       <x:c r="A332" t="inlineStr">
         <x:is>
-          <x:t>23/8272</x:t>
+          <x:t>23/8270</x:t>
         </x:is>
       </x:c>
       <x:c r="B332" t="inlineStr">
         <x:is>
-          <x:t>TMVG0209</x:t>
+          <x:t>TMVI0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C332" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE LOS SISTEMAS ELÉCTRICOS Y ELECTRÓNICOS DE VEHÍCULOS</x:t>
+          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F332" t="inlineStr">
@@ -9582,17 +9594,17 @@
     <x:row r="333">
       <x:c r="A333" t="inlineStr">
         <x:is>
-          <x:t>23/8273</x:t>
+          <x:t>23/8271</x:t>
         </x:is>
       </x:c>
       <x:c r="B333" t="inlineStr">
         <x:is>
-          <x:t>TMVG0409</x:t>
+          <x:t>TMVI0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C333" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
+          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F333" t="inlineStr">
@@ -9609,17 +9621,17 @@
     <x:row r="334">
       <x:c r="A334" t="inlineStr">
         <x:is>
-          <x:t>23/8274</x:t>
+          <x:t>23/8272</x:t>
         </x:is>
       </x:c>
       <x:c r="B334" t="inlineStr">
         <x:is>
-          <x:t>TMVI0208</x:t>
+          <x:t>TMVG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C334" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>MANTENIMIENTO DE LOS SISTEMAS ELÉCTRICOS Y ELECTRÓNICOS DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F334" t="inlineStr">
@@ -9636,17 +9648,17 @@
     <x:row r="335">
       <x:c r="A335" t="inlineStr">
         <x:is>
-          <x:t>23/8277</x:t>
+          <x:t>23/8273</x:t>
         </x:is>
       </x:c>
       <x:c r="B335" t="inlineStr">
         <x:is>
-          <x:t>IMSV0109</x:t>
+          <x:t>TMVG0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C335" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
+          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
         </x:is>
       </x:c>
       <x:c r="F335" t="inlineStr">
@@ -9656,24 +9668,24 @@
       </x:c>
       <x:c r="G335" t="inlineStr">
         <x:is>
-          <x:t>ESCUELA INTERNACIONAL DE MEDIOS AUDIOVISUALES S.L.</x:t>
+          <x:t>AUTOESCUELA GALA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="336">
       <x:c r="A336" t="inlineStr">
         <x:is>
-          <x:t>23/8278</x:t>
+          <x:t>23/8274</x:t>
         </x:is>
       </x:c>
       <x:c r="B336" t="inlineStr">
         <x:is>
-          <x:t>SSCI0209</x:t>
+          <x:t>TMVI0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C336" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y ORGANIZACIÓN DE EQUIPOS DE LIMPIEZA</x:t>
+          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F336" t="inlineStr">
@@ -9683,24 +9695,24 @@
       </x:c>
       <x:c r="G336" t="inlineStr">
         <x:is>
-          <x:t>EDUCALIMPIA SL</x:t>
+          <x:t>AUTOESCUELA GALA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="337">
       <x:c r="A337" t="inlineStr">
         <x:is>
-          <x:t>23/8279</x:t>
+          <x:t>23/8277</x:t>
         </x:is>
       </x:c>
       <x:c r="B337" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMSV0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C337" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F337" t="inlineStr">
@@ -9710,24 +9722,24 @@
       </x:c>
       <x:c r="G337" t="inlineStr">
         <x:is>
-          <x:t>GRUPO AULA FORMACION Y EMERGENCIAS S.L.</x:t>
+          <x:t>ESCUELA INTERNACIONAL DE MEDIOS AUDIOVISUALES S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="338">
       <x:c r="A338" t="inlineStr">
         <x:is>
-          <x:t>23/8280</x:t>
+          <x:t>23/8278</x:t>
         </x:is>
       </x:c>
       <x:c r="B338" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C338" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>GESTIÓN Y ORGANIZACIÓN DE EQUIPOS DE LIMPIEZA</x:t>
         </x:is>
       </x:c>
       <x:c r="F338" t="inlineStr">
@@ -9737,24 +9749,24 @@
       </x:c>
       <x:c r="G338" t="inlineStr">
         <x:is>
-          <x:t>GRUPO AULA FORMACION Y EMERGENCIAS S.L.</x:t>
+          <x:t>EDUCALIMPIA SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="339">
       <x:c r="A339" t="inlineStr">
         <x:is>
-          <x:t>23/8281</x:t>
+          <x:t>23/8279</x:t>
         </x:is>
       </x:c>
       <x:c r="B339" t="inlineStr">
         <x:is>
-          <x:t>TMVI0108</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C339" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F339" t="inlineStr">
@@ -9771,17 +9783,17 @@
     <x:row r="340">
       <x:c r="A340" t="inlineStr">
         <x:is>
-          <x:t>23/8282</x:t>
+          <x:t>23/8280</x:t>
         </x:is>
       </x:c>
       <x:c r="B340" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C340" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F340" t="inlineStr">
@@ -9798,17 +9810,17 @@
     <x:row r="341">
       <x:c r="A341" t="inlineStr">
         <x:is>
-          <x:t>23/8283</x:t>
+          <x:t>23/8281</x:t>
         </x:is>
       </x:c>
       <x:c r="B341" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>TMVI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C341" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
         </x:is>
       </x:c>
       <x:c r="F341" t="inlineStr">
@@ -9825,17 +9837,17 @@
     <x:row r="342">
       <x:c r="A342" t="inlineStr">
         <x:is>
-          <x:t>23/8284</x:t>
+          <x:t>23/8282</x:t>
         </x:is>
       </x:c>
       <x:c r="B342" t="inlineStr">
         <x:is>
-          <x:t>TMVI0108</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C342" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F342" t="inlineStr">
@@ -9852,17 +9864,17 @@
     <x:row r="343">
       <x:c r="A343" t="inlineStr">
         <x:is>
-          <x:t>23/8285</x:t>
+          <x:t>23/8283</x:t>
         </x:is>
       </x:c>
       <x:c r="B343" t="inlineStr">
         <x:is>
-          <x:t>TMVI0108</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C343" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F343" t="inlineStr">
@@ -9879,7 +9891,7 @@
     <x:row r="344">
       <x:c r="A344" t="inlineStr">
         <x:is>
-          <x:t>23/8286</x:t>
+          <x:t>23/8284</x:t>
         </x:is>
       </x:c>
       <x:c r="B344" t="inlineStr">
@@ -9906,17 +9918,17 @@
     <x:row r="345">
       <x:c r="A345" t="inlineStr">
         <x:is>
-          <x:t>23/8289</x:t>
+          <x:t>23/8285</x:t>
         </x:is>
       </x:c>
       <x:c r="B345" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>TMVI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C345" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
         </x:is>
       </x:c>
       <x:c r="F345" t="inlineStr">
@@ -9926,29 +9938,24 @@
       </x:c>
       <x:c r="G345" t="inlineStr">
         <x:is>
-          <x:t>FORMAJOBS S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H345" t="inlineStr">
-        <x:is>
-          <x:t>Leganés</x:t>
+          <x:t>GRUPO AULA FORMACION Y EMERGENCIAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="346">
       <x:c r="A346" t="inlineStr">
         <x:is>
-          <x:t>23/8291</x:t>
+          <x:t>23/8286</x:t>
         </x:is>
       </x:c>
       <x:c r="B346" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>TMVI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C346" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
         </x:is>
       </x:c>
       <x:c r="F346" t="inlineStr">
@@ -9958,19 +9965,14 @@
       </x:c>
       <x:c r="G346" t="inlineStr">
         <x:is>
-          <x:t>FORMAJOBS S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H346" t="inlineStr">
-        <x:is>
-          <x:t>Leganés</x:t>
+          <x:t>GRUPO AULA FORMACION Y EMERGENCIAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="347">
       <x:c r="A347" t="inlineStr">
         <x:is>
-          <x:t>23/8292</x:t>
+          <x:t>23/8289</x:t>
         </x:is>
       </x:c>
       <x:c r="B347" t="inlineStr">
@@ -10002,17 +10004,17 @@
     <x:row r="348">
       <x:c r="A348" t="inlineStr">
         <x:is>
-          <x:t>23/8293</x:t>
+          <x:t>23/8291</x:t>
         </x:is>
       </x:c>
       <x:c r="B348" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C348" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F348" t="inlineStr">
@@ -10034,17 +10036,17 @@
     <x:row r="349">
       <x:c r="A349" t="inlineStr">
         <x:is>
-          <x:t>23/8297</x:t>
+          <x:t>23/8292</x:t>
         </x:is>
       </x:c>
       <x:c r="B349" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C349" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F349" t="inlineStr">
@@ -10054,24 +10056,29 @@
       </x:c>
       <x:c r="G349" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>FORMAJOBS S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H349" t="inlineStr">
+        <x:is>
+          <x:t>Leganés</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="350">
       <x:c r="A350" t="inlineStr">
         <x:is>
-          <x:t>23/8298</x:t>
+          <x:t>23/8293</x:t>
         </x:is>
       </x:c>
       <x:c r="B350" t="inlineStr">
         <x:is>
-          <x:t>ENAE0308</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C350" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F350" t="inlineStr">
@@ -10081,24 +10088,29 @@
       </x:c>
       <x:c r="G350" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>FORMAJOBS S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H350" t="inlineStr">
+        <x:is>
+          <x:t>Leganés</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="351">
       <x:c r="A351" t="inlineStr">
         <x:is>
-          <x:t>23/8299</x:t>
+          <x:t>23/8297</x:t>
         </x:is>
       </x:c>
       <x:c r="B351" t="inlineStr">
         <x:is>
-          <x:t>ENAE0111</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C351" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F351" t="inlineStr">
@@ -10115,17 +10127,17 @@
     <x:row r="352">
       <x:c r="A352" t="inlineStr">
         <x:is>
-          <x:t>23/8300</x:t>
+          <x:t>23/8298</x:t>
         </x:is>
       </x:c>
       <x:c r="B352" t="inlineStr">
         <x:is>
-          <x:t>ENAE0508</x:t>
+          <x:t>ENAE0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C352" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F352" t="inlineStr">
@@ -10142,17 +10154,17 @@
     <x:row r="353">
       <x:c r="A353" t="inlineStr">
         <x:is>
-          <x:t>23/8303</x:t>
+          <x:t>23/8299</x:t>
         </x:is>
       </x:c>
       <x:c r="B353" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>ENAE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C353" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F353" t="inlineStr">
@@ -10162,24 +10174,24 @@
       </x:c>
       <x:c r="G353" t="inlineStr">
         <x:is>
-          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="354">
       <x:c r="A354" t="inlineStr">
         <x:is>
-          <x:t>23/8305</x:t>
+          <x:t>23/8300</x:t>
         </x:is>
       </x:c>
       <x:c r="B354" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>ENAE0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C354" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F354" t="inlineStr">
@@ -10189,24 +10201,24 @@
       </x:c>
       <x:c r="G354" t="inlineStr">
         <x:is>
-          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="355">
       <x:c r="A355" t="inlineStr">
         <x:is>
-          <x:t>23/8306</x:t>
+          <x:t>23/8303</x:t>
         </x:is>
       </x:c>
       <x:c r="B355" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C355" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F355" t="inlineStr">
@@ -10223,17 +10235,17 @@
     <x:row r="356">
       <x:c r="A356" t="inlineStr">
         <x:is>
-          <x:t>23/8307</x:t>
+          <x:t>23/8305</x:t>
         </x:is>
       </x:c>
       <x:c r="B356" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C356" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F356" t="inlineStr">
@@ -10250,17 +10262,17 @@
     <x:row r="357">
       <x:c r="A357" t="inlineStr">
         <x:is>
-          <x:t>23/8308</x:t>
+          <x:t>23/8306</x:t>
         </x:is>
       </x:c>
       <x:c r="B357" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C357" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F357" t="inlineStr">
@@ -10277,17 +10289,17 @@
     <x:row r="358">
       <x:c r="A358" t="inlineStr">
         <x:is>
-          <x:t>23/8309</x:t>
+          <x:t>23/8307</x:t>
         </x:is>
       </x:c>
       <x:c r="B358" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C358" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F358" t="inlineStr">
@@ -10304,17 +10316,17 @@
     <x:row r="359">
       <x:c r="A359" t="inlineStr">
         <x:is>
-          <x:t>23/8313</x:t>
+          <x:t>23/8308</x:t>
         </x:is>
       </x:c>
       <x:c r="B359" t="inlineStr">
         <x:is>
-          <x:t>EOCB0208</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C359" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F359" t="inlineStr">
@@ -10324,24 +10336,24 @@
       </x:c>
       <x:c r="G359" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="360">
       <x:c r="A360" t="inlineStr">
         <x:is>
-          <x:t>23/8314</x:t>
+          <x:t>23/8309</x:t>
         </x:is>
       </x:c>
       <x:c r="B360" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C360" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F360" t="inlineStr">
@@ -10351,7 +10363,7 @@
       </x:c>
       <x:c r="G360" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R39a530511c234333"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R494a183267fd45d3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R494a183267fd45d3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R373b0aee8ef44a06"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rd6aa2d63af584829"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R89b59a37dddc4cfd"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R89b59a37dddc4cfd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R8af5c38f3b494309"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rb0ac1d0a491e4364"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rb6739cccadd6460e"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -258,24 +258,24 @@
     <x:row r="7">
       <x:c r="A7" t="inlineStr">
         <x:is>
-          <x:t>23/8344</x:t>
+          <x:t>23/8297</x:t>
         </x:is>
       </x:c>
       <x:c r="B7" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C7" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>46056.9583333333</x:v>
       </x:c>
       <x:c r="E7" s="2" t="n">
-        <x:v>46168.9166666667</x:v>
+        <x:v>46201.9166666667</x:v>
       </x:c>
       <x:c r="F7" t="inlineStr">
         <x:is>
@@ -284,31 +284,31 @@
       </x:c>
       <x:c r="G7" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="inlineStr">
         <x:is>
-          <x:t>23/8009</x:t>
+          <x:t>23/8344</x:t>
         </x:is>
       </x:c>
       <x:c r="B8" t="inlineStr">
         <x:is>
-          <x:t>HOTT0112</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C8" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN A PASAJEROS EN TRANSPORTE FERROVIARIO</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>46054.9583333333</x:v>
+        <x:v>46056.9583333333</x:v>
       </x:c>
       <x:c r="E8" s="2" t="n">
-        <x:v>46336.9583333333</x:v>
+        <x:v>46168.9166666667</x:v>
       </x:c>
       <x:c r="F8" t="inlineStr">
         <x:is>
@@ -317,31 +317,31 @@
       </x:c>
       <x:c r="G8" t="inlineStr">
         <x:is>
-          <x:t>BAI FORMACIÓN SA</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="inlineStr">
         <x:is>
-          <x:t>23/8313</x:t>
+          <x:t>23/8009</x:t>
         </x:is>
       </x:c>
       <x:c r="B9" t="inlineStr">
         <x:is>
-          <x:t>EOCB0208</x:t>
+          <x:t>HOTT0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C9" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
+          <x:t>ATENCIÓN A PASAJEROS EN TRANSPORTE FERROVIARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>46048.9583333333</x:v>
+        <x:v>46054.9583333333</x:v>
       </x:c>
       <x:c r="E9" s="2" t="n">
-        <x:v>46128.9166666667</x:v>
+        <x:v>46336.9583333333</x:v>
       </x:c>
       <x:c r="F9" t="inlineStr">
         <x:is>
@@ -350,31 +350,31 @@
       </x:c>
       <x:c r="G9" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>BAI FORMACIÓN SA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="A10" t="inlineStr">
         <x:is>
-          <x:t>23/8314</x:t>
+          <x:t>23/8313</x:t>
         </x:is>
       </x:c>
       <x:c r="B10" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>EOCB0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C10" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>46048.9583333333</x:v>
       </x:c>
       <x:c r="E10" s="2" t="n">
-        <x:v>46167.9166666667</x:v>
+        <x:v>46128.9166666667</x:v>
       </x:c>
       <x:c r="F10" t="inlineStr">
         <x:is>
@@ -390,24 +390,24 @@
     <x:row r="11">
       <x:c r="A11" t="inlineStr">
         <x:is>
-          <x:t>23/8343</x:t>
+          <x:t>23/8314</x:t>
         </x:is>
       </x:c>
       <x:c r="B11" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C11" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>46048.9583333333</x:v>
       </x:c>
       <x:c r="E11" s="2" t="n">
-        <x:v>46169.9166666667</x:v>
+        <x:v>46167.9166666667</x:v>
       </x:c>
       <x:c r="F11" t="inlineStr">
         <x:is>
@@ -416,31 +416,31 @@
       </x:c>
       <x:c r="G11" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="A12" t="inlineStr">
         <x:is>
-          <x:t>23/8242</x:t>
+          <x:t>23/8343</x:t>
         </x:is>
       </x:c>
       <x:c r="B12" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C12" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>46047.9583333333</x:v>
+        <x:v>46048.9583333333</x:v>
       </x:c>
       <x:c r="E12" s="2" t="n">
-        <x:v>46170.9166666667</x:v>
+        <x:v>46169.9166666667</x:v>
       </x:c>
       <x:c r="F12" t="inlineStr">
         <x:is>
@@ -449,36 +449,31 @@
       </x:c>
       <x:c r="G12" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H12" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="inlineStr">
         <x:is>
-          <x:t>23/8306</x:t>
+          <x:t>23/8242</x:t>
         </x:is>
       </x:c>
       <x:c r="B13" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C13" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>46047.9583333333</x:v>
       </x:c>
       <x:c r="E13" s="2" t="n">
-        <x:v>46147.9166666667</x:v>
+        <x:v>46170.9166666667</x:v>
       </x:c>
       <x:c r="F13" t="inlineStr">
         <x:is>
@@ -487,31 +482,36 @@
       </x:c>
       <x:c r="G13" t="inlineStr">
         <x:is>
-          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H13" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="A14" t="inlineStr">
         <x:is>
-          <x:t>23/8100</x:t>
+          <x:t>23/8306</x:t>
         </x:is>
       </x:c>
       <x:c r="B14" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C14" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>46043.9583333333</x:v>
+        <x:v>46047.9583333333</x:v>
       </x:c>
       <x:c r="E14" s="2" t="n">
-        <x:v>46196.9166666667</x:v>
+        <x:v>46147.9166666667</x:v>
       </x:c>
       <x:c r="F14" t="inlineStr">
         <x:is>
@@ -520,31 +520,31 @@
       </x:c>
       <x:c r="G14" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="A15" t="inlineStr">
         <x:is>
-          <x:t>23/8101</x:t>
+          <x:t>23/8325</x:t>
         </x:is>
       </x:c>
       <x:c r="B15" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C15" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>46041.9583333333</x:v>
+        <x:v>46047.9583333333</x:v>
       </x:c>
       <x:c r="E15" s="2" t="n">
-        <x:v>46127.9166666667</x:v>
+        <x:v>46194.9166666667</x:v>
       </x:c>
       <x:c r="F15" t="inlineStr">
         <x:is>
@@ -553,31 +553,31 @@
       </x:c>
       <x:c r="G15" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>CONECTANDO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" t="inlineStr">
         <x:is>
-          <x:t>23/8099</x:t>
+          <x:t>23/8100</x:t>
         </x:is>
       </x:c>
       <x:c r="B16" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C16" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>46036.9583333333</x:v>
+        <x:v>46043.9583333333</x:v>
       </x:c>
       <x:c r="E16" s="2" t="n">
-        <x:v>46169.9166666667</x:v>
+        <x:v>46196.9166666667</x:v>
       </x:c>
       <x:c r="F16" t="inlineStr">
         <x:is>
@@ -593,24 +593,24 @@
     <x:row r="17">
       <x:c r="A17" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008590</x:t>
+          <x:t>23/8101</x:t>
         </x:is>
       </x:c>
       <x:c r="B17" t="inlineStr">
         <x:is>
-          <x:t>ENAE0208</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C17" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>46036.9583333333</x:v>
+        <x:v>46041.9583333333</x:v>
       </x:c>
       <x:c r="E17" s="2" t="n">
-        <x:v>46141.9166666667</x:v>
+        <x:v>46127.9166666667</x:v>
       </x:c>
       <x:c r="F17" t="inlineStr">
         <x:is>
@@ -619,31 +619,31 @@
       </x:c>
       <x:c r="G17" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H17" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18" t="inlineStr">
         <x:is>
-          <x:t>25/2148</x:t>
+          <x:t>23/8099</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B18" t="inlineStr">
+        <x:is>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C18" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E18" s="2" t="n">
-        <x:v>46180.9166666667</x:v>
+        <x:v>46169.9166666667</x:v>
       </x:c>
       <x:c r="F18" t="inlineStr">
         <x:is>
@@ -652,31 +652,31 @@
       </x:c>
       <x:c r="G18" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H18" t="inlineStr">
-        <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19" t="inlineStr">
         <x:is>
-          <x:t>25/2142</x:t>
+          <x:t>FCCC240008590</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B19" t="inlineStr">
+        <x:is>
+          <x:t>ENAE0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C19" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D19" s="1" t="n">
-        <x:v>46035.9583333333</x:v>
+        <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E19" s="2" t="n">
-        <x:v>46173.9166666667</x:v>
+        <x:v>46141.9166666667</x:v>
       </x:c>
       <x:c r="F19" t="inlineStr">
         <x:is>
@@ -685,31 +685,31 @@
       </x:c>
       <x:c r="G19" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
         </x:is>
       </x:c>
       <x:c r="H19" t="inlineStr">
         <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" t="inlineStr">
         <x:is>
-          <x:t>25/2151</x:t>
+          <x:t>25/2148</x:t>
         </x:is>
       </x:c>
       <x:c r="C20" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>46035.9583333333</x:v>
+        <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E20" s="2" t="n">
-        <x:v>46187.9166666667</x:v>
+        <x:v>46180.9166666667</x:v>
       </x:c>
       <x:c r="F20" t="inlineStr">
         <x:is>
@@ -730,24 +730,19 @@
     <x:row r="21">
       <x:c r="A21" t="inlineStr">
         <x:is>
-          <x:t>23/8102</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B21" t="inlineStr">
-        <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>25/2142</x:t>
         </x:is>
       </x:c>
       <x:c r="C21" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>46034.9583333333</x:v>
+        <x:v>46035.9583333333</x:v>
       </x:c>
       <x:c r="E21" s="2" t="n">
-        <x:v>46145.9166666667</x:v>
+        <x:v>46173.9166666667</x:v>
       </x:c>
       <x:c r="F21" t="inlineStr">
         <x:is>
@@ -756,31 +751,31 @@
       </x:c>
       <x:c r="G21" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H21" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22" t="inlineStr">
         <x:is>
-          <x:t>23/8226</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B22" t="inlineStr">
-        <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>25/2151</x:t>
         </x:is>
       </x:c>
       <x:c r="C22" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>46034.9583333333</x:v>
+        <x:v>46035.9583333333</x:v>
       </x:c>
       <x:c r="E22" s="2" t="n">
-        <x:v>46161.9166666667</x:v>
+        <x:v>46187.9166666667</x:v>
       </x:c>
       <x:c r="F22" t="inlineStr">
         <x:is>
@@ -789,26 +784,36 @@
       </x:c>
       <x:c r="G22" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H22" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="inlineStr">
         <x:is>
-          <x:t>25/2135</x:t>
+          <x:t>23/8102</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B23" t="inlineStr">
+        <x:is>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C23" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D23" s="1" t="n">
         <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E23" s="2" t="n">
-        <x:v>46174.9166666667</x:v>
+        <x:v>46145.9166666667</x:v>
       </x:c>
       <x:c r="F23" t="inlineStr">
         <x:is>
@@ -817,36 +822,31 @@
       </x:c>
       <x:c r="G23" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H23" t="inlineStr">
-        <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="inlineStr">
         <x:is>
-          <x:t>23/8221</x:t>
+          <x:t>23/8226</x:t>
         </x:is>
       </x:c>
       <x:c r="B24" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C24" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>46033.9583333333</x:v>
+        <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E24" s="2" t="n">
-        <x:v>46184.9166666667</x:v>
+        <x:v>46161.9166666667</x:v>
       </x:c>
       <x:c r="F24" t="inlineStr">
         <x:is>
@@ -862,24 +862,19 @@
     <x:row r="25">
       <x:c r="A25" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003865</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B25" t="inlineStr">
-        <x:is>
-          <x:t>IMAQ0210</x:t>
+          <x:t>25/2135</x:t>
         </x:is>
       </x:c>
       <x:c r="C25" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE MANUTENCIÓN, ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D25" s="1" t="n">
-        <x:v>46033.9583333333</x:v>
+        <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E25" s="2" t="n">
-        <x:v>46110.9166666667</x:v>
+        <x:v>46174.9166666667</x:v>
       </x:c>
       <x:c r="F25" t="inlineStr">
         <x:is>
@@ -888,36 +883,36 @@
       </x:c>
       <x:c r="G25" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
         </x:is>
       </x:c>
       <x:c r="H25" t="inlineStr">
         <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003866</x:t>
+          <x:t>23/8221</x:t>
         </x:is>
       </x:c>
       <x:c r="B26" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C26" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E26" s="2" t="n">
-        <x:v>46110.9166666667</x:v>
+        <x:v>46184.9166666667</x:v>
       </x:c>
       <x:c r="F26" t="inlineStr">
         <x:is>
@@ -926,29 +921,24 @@
       </x:c>
       <x:c r="G26" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H26" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003867</x:t>
+          <x:t>FDEC240003865</x:t>
         </x:is>
       </x:c>
       <x:c r="B27" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>IMAQ0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C27" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE MANUTENCIÓN, ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D27" s="1" t="n">
@@ -976,17 +966,17 @@
     <x:row r="28">
       <x:c r="A28" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003868</x:t>
+          <x:t>FDEC240003866</x:t>
         </x:is>
       </x:c>
       <x:c r="B28" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C28" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D28" s="1" t="n">
@@ -1014,19 +1004,24 @@
     <x:row r="29">
       <x:c r="A29" t="inlineStr">
         <x:is>
-          <x:t>25/2145</x:t>
+          <x:t>FDEC240003867</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B29" t="inlineStr">
+        <x:is>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE REDES DEPARTAMENTALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E29" s="2" t="n">
-        <x:v>46191.9166666667</x:v>
+        <x:v>46110.9166666667</x:v>
       </x:c>
       <x:c r="F29" t="inlineStr">
         <x:is>
@@ -1035,36 +1030,36 @@
       </x:c>
       <x:c r="G29" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H29" t="inlineStr">
         <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="inlineStr">
         <x:is>
-          <x:t>23/8158</x:t>
+          <x:t>FDEC240003868</x:t>
         </x:is>
       </x:c>
       <x:c r="B30" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C30" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D30" s="1" t="n">
-        <x:v>46028.9583333333</x:v>
+        <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E30" s="2" t="n">
-        <x:v>46121.9166666667</x:v>
+        <x:v>46110.9166666667</x:v>
       </x:c>
       <x:c r="F30" t="inlineStr">
         <x:is>
@@ -1073,31 +1068,31 @@
       </x:c>
       <x:c r="G30" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H30" t="inlineStr">
+        <x:is>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003549</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B31" t="inlineStr">
-        <x:is>
-          <x:t>COML0111</x:t>
+          <x:t>25/2145</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE VIAJEROS POR CARRETERA</x:t>
+          <x:t>OPERACIONES DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>46028.9583333333</x:v>
+        <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E31" s="2" t="n">
-        <x:v>46111.9166666667</x:v>
+        <x:v>46191.9166666667</x:v>
       </x:c>
       <x:c r="F31" t="inlineStr">
         <x:is>
@@ -1106,36 +1101,36 @@
       </x:c>
       <x:c r="G31" t="inlineStr">
         <x:is>
-          <x:t>MARSDIGITAL, S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
         </x:is>
       </x:c>
       <x:c r="H31" t="inlineStr">
         <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="inlineStr">
         <x:is>
-          <x:t>23/8157</x:t>
+          <x:t>23/8158</x:t>
         </x:is>
       </x:c>
       <x:c r="B32" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>46026.9583333333</x:v>
+        <x:v>46028.9583333333</x:v>
       </x:c>
       <x:c r="E32" s="2" t="n">
-        <x:v>46135.9166666667</x:v>
+        <x:v>46121.9166666667</x:v>
       </x:c>
       <x:c r="F32" t="inlineStr">
         <x:is>
@@ -1151,24 +1146,24 @@
     <x:row r="33">
       <x:c r="A33" t="inlineStr">
         <x:is>
-          <x:t>23/8386</x:t>
+          <x:t>FDEC240003549</x:t>
         </x:is>
       </x:c>
       <x:c r="B33" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>COML0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C33" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>TRÁFICO DE VIAJEROS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="D33" s="1" t="n">
-        <x:v>45992.9583333333</x:v>
+        <x:v>46028.9583333333</x:v>
       </x:c>
       <x:c r="E33" s="2" t="n">
-        <x:v>46105.9583333333</x:v>
+        <x:v>46111.9166666667</x:v>
       </x:c>
       <x:c r="F33" t="inlineStr">
         <x:is>
@@ -1177,31 +1172,36 @@
       </x:c>
       <x:c r="G33" t="inlineStr">
         <x:is>
-          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
+          <x:t>MARSDIGITAL, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H33" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="A34" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004370</x:t>
+          <x:t>23/8157</x:t>
         </x:is>
       </x:c>
       <x:c r="B34" t="inlineStr">
         <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C34" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>45992.9583333333</x:v>
+        <x:v>46026.9583333333</x:v>
       </x:c>
       <x:c r="E34" s="2" t="n">
-        <x:v>46090.9583333333</x:v>
+        <x:v>46135.9166666667</x:v>
       </x:c>
       <x:c r="F34" t="inlineStr">
         <x:is>
@@ -1210,31 +1210,31 @@
       </x:c>
       <x:c r="G34" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="inlineStr">
         <x:is>
-          <x:t>FDEC240004464</x:t>
+          <x:t>23/8386</x:t>
         </x:is>
       </x:c>
       <x:c r="B35" t="inlineStr">
         <x:is>
-          <x:t>AFDA0511</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C35" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D35" s="1" t="n">
         <x:v>45992.9583333333</x:v>
       </x:c>
       <x:c r="E35" s="2" t="n">
-        <x:v>46065.9583333333</x:v>
+        <x:v>46105.9583333333</x:v>
       </x:c>
       <x:c r="F35" t="inlineStr">
         <x:is>
@@ -1243,31 +1243,31 @@
       </x:c>
       <x:c r="G35" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003675</x:t>
+          <x:t>FDEC240004370</x:t>
         </x:is>
       </x:c>
       <x:c r="B36" t="inlineStr">
         <x:is>
-          <x:t>COML0121</x:t>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C36" t="inlineStr">
         <x:is>
-          <x:t>SERVICIO DE ENTREGA Y RECOGIDA DOMICILIARIA</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D36" s="1" t="n">
-        <x:v>45987.9583333333</x:v>
+        <x:v>45992.9583333333</x:v>
       </x:c>
       <x:c r="E36" s="2" t="n">
-        <x:v>46055.9583333333</x:v>
+        <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="F36" t="inlineStr">
         <x:is>
@@ -1276,31 +1276,31 @@
       </x:c>
       <x:c r="G36" t="inlineStr">
         <x:is>
-          <x:t>G12 GRUPO EMPRESARIAL DE SERVICIOS, S.L.</x:t>
+          <x:t>ASOCIACION DE MUJERES PARA LA FORMACION Y EL DESARROLLO (AMFORMAD)</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003923</x:t>
+          <x:t>FDEC240004464</x:t>
         </x:is>
       </x:c>
       <x:c r="B37" t="inlineStr">
         <x:is>
-          <x:t>ENAE0508</x:t>
+          <x:t>AFDA0511</x:t>
         </x:is>
       </x:c>
       <x:c r="C37" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D37" s="1" t="n">
-        <x:v>45986.9583333333</x:v>
+        <x:v>45992.9583333333</x:v>
       </x:c>
       <x:c r="E37" s="2" t="n">
-        <x:v>46110.9166666667</x:v>
+        <x:v>46065.9583333333</x:v>
       </x:c>
       <x:c r="F37" t="inlineStr">
         <x:is>
@@ -1309,31 +1309,31 @@
       </x:c>
       <x:c r="G37" t="inlineStr">
         <x:is>
-          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="38">
       <x:c r="A38" t="inlineStr">
         <x:is>
-          <x:t>24/1185</x:t>
+          <x:t>FDEC240003675</x:t>
         </x:is>
       </x:c>
       <x:c r="B38" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>COML0121</x:t>
         </x:is>
       </x:c>
       <x:c r="C38" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCION</x:t>
+          <x:t>SERVICIO DE ENTREGA Y RECOGIDA DOMICILIARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D38" s="1" t="n">
-        <x:v>45986</x:v>
+        <x:v>45987.9583333333</x:v>
       </x:c>
       <x:c r="E38" s="2" t="n">
-        <x:v>46098</x:v>
+        <x:v>46055.9583333333</x:v>
       </x:c>
       <x:c r="F38" t="inlineStr">
         <x:is>
@@ -1342,36 +1342,31 @@
       </x:c>
       <x:c r="G38" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H38" t="inlineStr">
-        <x:is>
-          <x:t>PARACUELLOS DE JARAMA</x:t>
+          <x:t>G12 GRUPO EMPRESARIAL DE SERVICIOS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="39">
       <x:c r="A39" t="inlineStr">
         <x:is>
-          <x:t>24/929</x:t>
+          <x:t>FDEC240003923</x:t>
         </x:is>
       </x:c>
       <x:c r="B39" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>ENAE0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C39" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D39" s="1" t="n">
-        <x:v>45985</x:v>
+        <x:v>45986.9583333333</x:v>
       </x:c>
       <x:c r="E39" s="2" t="n">
-        <x:v>46122</x:v>
+        <x:v>46110.9166666667</x:v>
       </x:c>
       <x:c r="F39" t="inlineStr">
         <x:is>
@@ -1380,36 +1375,31 @@
       </x:c>
       <x:c r="G39" t="inlineStr">
         <x:is>
-          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H39" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="40">
       <x:c r="A40" t="inlineStr">
         <x:is>
-          <x:t>23/8050</x:t>
+          <x:t>24/1185</x:t>
         </x:is>
       </x:c>
       <x:c r="B40" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C40" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCION</x:t>
         </x:is>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>45984.9583333333</x:v>
+        <x:v>45986</x:v>
       </x:c>
       <x:c r="E40" s="2" t="n">
-        <x:v>46051.9583333333</x:v>
+        <x:v>46098</x:v>
       </x:c>
       <x:c r="F40" t="inlineStr">
         <x:is>
@@ -1418,25 +1408,36 @@
       </x:c>
       <x:c r="G40" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>C.F.P.E EN EDIFICACION Y OBRA CIVIL (C.R.N. PARACUELLOS)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H40" t="inlineStr">
+        <x:is>
+          <x:t>PARACUELLOS DE JARAMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="A41" t="inlineStr">
         <x:is>
-          <x:t>22/1707</x:t>
+          <x:t>24/929</x:t>
         </x:is>
       </x:c>
       <x:c r="B41" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C41" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
-        </x:is>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D41" s="1" t="n">
+        <x:v>45985</x:v>
+      </x:c>
+      <x:c r="E41" s="2" t="n">
+        <x:v>46122</x:v>
       </x:c>
       <x:c r="F41" t="inlineStr">
         <x:is>
@@ -1445,30 +1446,36 @@
       </x:c>
       <x:c r="G41" t="inlineStr">
         <x:is>
-          <x:t>MFD FORMACION SAG SOLAR</x:t>
+          <x:t>C.F.P.E EN ELECTRICIDAD, ELECTRÓNICA Y AERONAÚTICA (C.R.N. LEGANÉS)</x:t>
         </x:is>
       </x:c>
       <x:c r="H41" t="inlineStr">
         <x:is>
-          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42" t="inlineStr">
         <x:is>
-          <x:t>22/1708</x:t>
+          <x:t>23/8050</x:t>
         </x:is>
       </x:c>
       <x:c r="B42" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C42" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
-        </x:is>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D42" s="1" t="n">
+        <x:v>45984.9583333333</x:v>
+      </x:c>
+      <x:c r="E42" s="2" t="n">
+        <x:v>46051.9583333333</x:v>
       </x:c>
       <x:c r="F42" t="inlineStr">
         <x:is>
@@ -1477,29 +1484,24 @@
       </x:c>
       <x:c r="G42" t="inlineStr">
         <x:is>
-          <x:t>MFD FORMACION SAG SOLAR</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H42" t="inlineStr">
-        <x:is>
-          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="A43" t="inlineStr">
         <x:is>
-          <x:t>22/1709</x:t>
+          <x:t>22/1707</x:t>
         </x:is>
       </x:c>
       <x:c r="B43" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C43" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F43" t="inlineStr">
@@ -1509,29 +1511,29 @@
       </x:c>
       <x:c r="G43" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION ASISPA</x:t>
+          <x:t>MFD FORMACION SAG SOLAR</x:t>
         </x:is>
       </x:c>
       <x:c r="H43" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="44">
       <x:c r="A44" t="inlineStr">
         <x:is>
-          <x:t>22/1710</x:t>
+          <x:t>22/1708</x:t>
         </x:is>
       </x:c>
       <x:c r="B44" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C44" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F44" t="inlineStr">
@@ -1541,29 +1543,29 @@
       </x:c>
       <x:c r="G44" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION ASISPA</x:t>
+          <x:t>MFD FORMACION SAG SOLAR</x:t>
         </x:is>
       </x:c>
       <x:c r="H44" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="45">
       <x:c r="A45" t="inlineStr">
         <x:is>
-          <x:t>22/1714</x:t>
+          <x:t>22/1709</x:t>
         </x:is>
       </x:c>
       <x:c r="B45" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C45" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F45" t="inlineStr">
@@ -1585,17 +1587,17 @@
     <x:row r="46">
       <x:c r="A46" t="inlineStr">
         <x:is>
-          <x:t>22/1715</x:t>
+          <x:t>22/1710</x:t>
         </x:is>
       </x:c>
       <x:c r="B46" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C46" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F46" t="inlineStr">
@@ -1617,17 +1619,17 @@
     <x:row r="47">
       <x:c r="A47" t="inlineStr">
         <x:is>
-          <x:t>22/1718</x:t>
+          <x:t>22/1714</x:t>
         </x:is>
       </x:c>
       <x:c r="B47" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C47" t="inlineStr">
         <x:is>
-          <x:t>FABRICAS DE ALBAÑILERIA</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F47" t="inlineStr">
@@ -1637,29 +1639,29 @@
       </x:c>
       <x:c r="G47" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
+          <x:t>CENTRO DE FORMACION ASISPA</x:t>
         </x:is>
       </x:c>
       <x:c r="H47" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="48">
       <x:c r="A48" t="inlineStr">
         <x:is>
-          <x:t>22/1719</x:t>
+          <x:t>22/1715</x:t>
         </x:is>
       </x:c>
       <x:c r="B48" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0110</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C48" t="inlineStr">
         <x:is>
-          <x:t>INSTALACION DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F48" t="inlineStr">
@@ -1669,29 +1671,29 @@
       </x:c>
       <x:c r="G48" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
+          <x:t>CENTRO DE FORMACION ASISPA</x:t>
         </x:is>
       </x:c>
       <x:c r="H48" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="49">
       <x:c r="A49" t="inlineStr">
         <x:is>
-          <x:t>22/1725</x:t>
+          <x:t>22/1718</x:t>
         </x:is>
       </x:c>
       <x:c r="B49" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C49" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>FABRICAS DE ALBAÑILERIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F49" t="inlineStr">
@@ -1701,29 +1703,29 @@
       </x:c>
       <x:c r="G49" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
         </x:is>
       </x:c>
       <x:c r="H49" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="50">
       <x:c r="A50" t="inlineStr">
         <x:is>
-          <x:t>22/1726</x:t>
+          <x:t>22/1719</x:t>
         </x:is>
       </x:c>
       <x:c r="B50" t="inlineStr">
         <x:is>
-          <x:t>ARGI0209</x:t>
+          <x:t>EOCJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C50" t="inlineStr">
         <x:is>
-          <x:t>IMPRESIÓN DIGITAL</x:t>
+          <x:t>INSTALACION DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F50" t="inlineStr">
@@ -1733,29 +1735,29 @@
       </x:c>
       <x:c r="G50" t="inlineStr">
         <x:is>
-          <x:t>INST.POLITECN.SALESIANOS</x:t>
+          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
         </x:is>
       </x:c>
       <x:c r="H50" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="51">
       <x:c r="A51" t="inlineStr">
         <x:is>
-          <x:t>22/1727</x:t>
+          <x:t>22/1725</x:t>
         </x:is>
       </x:c>
       <x:c r="B51" t="inlineStr">
         <x:is>
-          <x:t>ARGI0209</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C51" t="inlineStr">
         <x:is>
-          <x:t>IMPRESIÓN DIGITAL</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F51" t="inlineStr">
@@ -1765,7 +1767,7 @@
       </x:c>
       <x:c r="G51" t="inlineStr">
         <x:is>
-          <x:t>INST.POLITECN.SALESIANOS</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H51" t="inlineStr">
@@ -1777,17 +1779,17 @@
     <x:row r="52">
       <x:c r="A52" t="inlineStr">
         <x:is>
-          <x:t>22/1729</x:t>
+          <x:t>22/1726</x:t>
         </x:is>
       </x:c>
       <x:c r="B52" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>ARGI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C52" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELVACIÓN Y TRANSPORTE</x:t>
+          <x:t>IMPRESIÓN DIGITAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F52" t="inlineStr">
@@ -1809,17 +1811,17 @@
     <x:row r="53">
       <x:c r="A53" t="inlineStr">
         <x:is>
-          <x:t>22/1750</x:t>
+          <x:t>22/1727</x:t>
         </x:is>
       </x:c>
       <x:c r="B53" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ARGI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C53" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>IMPRESIÓN DIGITAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F53" t="inlineStr">
@@ -1829,29 +1831,29 @@
       </x:c>
       <x:c r="G53" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
+          <x:t>INST.POLITECN.SALESIANOS</x:t>
         </x:is>
       </x:c>
       <x:c r="H53" t="inlineStr">
         <x:is>
-          <x:t>BOADILLA DEL MONTE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="54">
       <x:c r="A54" t="inlineStr">
         <x:is>
-          <x:t>22/1751</x:t>
+          <x:t>22/1729</x:t>
         </x:is>
       </x:c>
       <x:c r="B54" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C54" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F54" t="inlineStr">
@@ -1861,19 +1863,19 @@
       </x:c>
       <x:c r="G54" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
+          <x:t>INST.POLITECN.SALESIANOS</x:t>
         </x:is>
       </x:c>
       <x:c r="H54" t="inlineStr">
         <x:is>
-          <x:t>BOADILLA DEL MONTE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="55">
       <x:c r="A55" t="inlineStr">
         <x:is>
-          <x:t>22/1752</x:t>
+          <x:t>22/1750</x:t>
         </x:is>
       </x:c>
       <x:c r="B55" t="inlineStr">
@@ -1905,17 +1907,17 @@
     <x:row r="56">
       <x:c r="A56" t="inlineStr">
         <x:is>
-          <x:t>22/1755</x:t>
+          <x:t>22/1751</x:t>
         </x:is>
       </x:c>
       <x:c r="B56" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C56" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F56" t="inlineStr">
@@ -1925,29 +1927,29 @@
       </x:c>
       <x:c r="G56" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL</x:t>
+          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="H56" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>BOADILLA DEL MONTE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="57">
       <x:c r="A57" t="inlineStr">
         <x:is>
-          <x:t>22/1756</x:t>
+          <x:t>22/1752</x:t>
         </x:is>
       </x:c>
       <x:c r="B57" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C57" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F57" t="inlineStr">
@@ -1957,29 +1959,29 @@
       </x:c>
       <x:c r="G57" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL</x:t>
+          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="H57" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>BOADILLA DEL MONTE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="58">
       <x:c r="A58" t="inlineStr">
         <x:is>
-          <x:t>22/1759</x:t>
+          <x:t>22/1755</x:t>
         </x:is>
       </x:c>
       <x:c r="B58" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C58" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F58" t="inlineStr">
@@ -1989,7 +1991,7 @@
       </x:c>
       <x:c r="G58" t="inlineStr">
         <x:is>
-          <x:t>NRED</x:t>
+          <x:t>FORMACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="H58" t="inlineStr">
@@ -2001,17 +2003,17 @@
     <x:row r="59">
       <x:c r="A59" t="inlineStr">
         <x:is>
-          <x:t>22/1760</x:t>
+          <x:t>22/1756</x:t>
         </x:is>
       </x:c>
       <x:c r="B59" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C59" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F59" t="inlineStr">
@@ -2021,7 +2023,7 @@
       </x:c>
       <x:c r="G59" t="inlineStr">
         <x:is>
-          <x:t>NRED</x:t>
+          <x:t>FORMACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="H59" t="inlineStr">
@@ -2033,7 +2035,7 @@
     <x:row r="60">
       <x:c r="A60" t="inlineStr">
         <x:is>
-          <x:t>22/1761</x:t>
+          <x:t>22/1759</x:t>
         </x:is>
       </x:c>
       <x:c r="B60" t="inlineStr">
@@ -2065,7 +2067,7 @@
     <x:row r="61">
       <x:c r="A61" t="inlineStr">
         <x:is>
-          <x:t>22/1762</x:t>
+          <x:t>22/1760</x:t>
         </x:is>
       </x:c>
       <x:c r="B61" t="inlineStr">
@@ -2097,17 +2099,17 @@
     <x:row r="62">
       <x:c r="A62" t="inlineStr">
         <x:is>
-          <x:t>22/1764</x:t>
+          <x:t>22/1761</x:t>
         </x:is>
       </x:c>
       <x:c r="B62" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C62" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F62" t="inlineStr">
@@ -2117,14 +2119,19 @@
       </x:c>
       <x:c r="G62" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA LARA S.L.</x:t>
+          <x:t>NRED</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H62" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="63">
       <x:c r="A63" t="inlineStr">
         <x:is>
-          <x:t>22/1765</x:t>
+          <x:t>22/1762</x:t>
         </x:is>
       </x:c>
       <x:c r="B63" t="inlineStr">
@@ -2144,7 +2151,7 @@
       </x:c>
       <x:c r="G63" t="inlineStr">
         <x:is>
-          <x:t>FEMXA FORMACION</x:t>
+          <x:t>NRED</x:t>
         </x:is>
       </x:c>
       <x:c r="H63" t="inlineStr">
@@ -2156,17 +2163,17 @@
     <x:row r="64">
       <x:c r="A64" t="inlineStr">
         <x:is>
-          <x:t>22/1766</x:t>
+          <x:t>22/1764</x:t>
         </x:is>
       </x:c>
       <x:c r="B64" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C64" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F64" t="inlineStr">
@@ -2176,29 +2183,24 @@
       </x:c>
       <x:c r="G64" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ACTIVA FORMACION, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H64" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>AUTOESCUELA LARA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="65">
       <x:c r="A65" t="inlineStr">
         <x:is>
-          <x:t>22/1775</x:t>
+          <x:t>22/1765</x:t>
         </x:is>
       </x:c>
       <x:c r="B65" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C65" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F65" t="inlineStr">
@@ -2208,7 +2210,7 @@
       </x:c>
       <x:c r="G65" t="inlineStr">
         <x:is>
-          <x:t>PROYECTA EMPLEO</x:t>
+          <x:t>FEMXA FORMACION</x:t>
         </x:is>
       </x:c>
       <x:c r="H65" t="inlineStr">
@@ -2220,17 +2222,17 @@
     <x:row r="66">
       <x:c r="A66" t="inlineStr">
         <x:is>
-          <x:t>22/1777</x:t>
+          <x:t>22/1766</x:t>
         </x:is>
       </x:c>
       <x:c r="B66" t="inlineStr">
         <x:is>
-          <x:t>COMM0112</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C66" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE MARKETING Y COMUNICACIÓN</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F66" t="inlineStr">
@@ -2240,29 +2242,29 @@
       </x:c>
       <x:c r="G66" t="inlineStr">
         <x:is>
-          <x:t>CENES</x:t>
+          <x:t>CENTRO DE ESTUDIOS ACTIVA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H66" t="inlineStr">
         <x:is>
-          <x:t>GETAFE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="67">
       <x:c r="A67" t="inlineStr">
         <x:is>
-          <x:t>22/1781</x:t>
+          <x:t>22/1775</x:t>
         </x:is>
       </x:c>
       <x:c r="B67" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C67" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACION Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F67" t="inlineStr">
@@ -2272,29 +2274,29 @@
       </x:c>
       <x:c r="G67" t="inlineStr">
         <x:is>
-          <x:t>AULA TRES INFORMATICA</x:t>
+          <x:t>PROYECTA EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="H67" t="inlineStr">
         <x:is>
-          <x:t>TRES CANTOS</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="68">
       <x:c r="A68" t="inlineStr">
         <x:is>
-          <x:t>22/1783</x:t>
+          <x:t>22/1777</x:t>
         </x:is>
       </x:c>
       <x:c r="B68" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>COMM0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C68" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
+          <x:t>GESTIÓN DE MARKETING Y COMUNICACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F68" t="inlineStr">
@@ -2304,29 +2306,29 @@
       </x:c>
       <x:c r="G68" t="inlineStr">
         <x:is>
-          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
+          <x:t>CENES</x:t>
         </x:is>
       </x:c>
       <x:c r="H68" t="inlineStr">
         <x:is>
-          <x:t>RIVAS-VACIAMADRID</x:t>
+          <x:t>GETAFE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="69">
       <x:c r="A69" t="inlineStr">
         <x:is>
-          <x:t>22/1785</x:t>
+          <x:t>22/1781</x:t>
         </x:is>
       </x:c>
       <x:c r="B69" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C69" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>OPERACIONES DE GRABACION Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F69" t="inlineStr">
@@ -2336,29 +2338,29 @@
       </x:c>
       <x:c r="G69" t="inlineStr">
         <x:is>
-          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
+          <x:t>AULA TRES INFORMATICA</x:t>
         </x:is>
       </x:c>
       <x:c r="H69" t="inlineStr">
         <x:is>
-          <x:t>RIVAS-VACIAMADRID</x:t>
+          <x:t>TRES CANTOS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="70">
       <x:c r="A70" t="inlineStr">
         <x:is>
-          <x:t>22/1786</x:t>
+          <x:t>22/1783</x:t>
         </x:is>
       </x:c>
       <x:c r="B70" t="inlineStr">
         <x:is>
-          <x:t>ADGG0308</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C70" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTION EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F70" t="inlineStr">
@@ -2380,7 +2382,7 @@
     <x:row r="71">
       <x:c r="A71" t="inlineStr">
         <x:is>
-          <x:t>22/1788</x:t>
+          <x:t>22/1785</x:t>
         </x:is>
       </x:c>
       <x:c r="B71" t="inlineStr">
@@ -2400,29 +2402,29 @@
       </x:c>
       <x:c r="G71" t="inlineStr">
         <x:is>
-          <x:t>GALA CTM-2</x:t>
+          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H71" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>RIVAS-VACIAMADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="72">
       <x:c r="A72" t="inlineStr">
         <x:is>
-          <x:t>22/1789</x:t>
+          <x:t>22/1786</x:t>
         </x:is>
       </x:c>
       <x:c r="B72" t="inlineStr">
         <x:is>
-          <x:t>IFCT0309</x:t>
+          <x:t>ADGG0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C72" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTION EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F72" t="inlineStr">
@@ -2432,29 +2434,29 @@
       </x:c>
       <x:c r="G72" t="inlineStr">
         <x:is>
-          <x:t>PLATO SUR</x:t>
+          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H72" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>RIVAS-VACIAMADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="73">
       <x:c r="A73" t="inlineStr">
         <x:is>
-          <x:t>22/1792</x:t>
+          <x:t>22/1788</x:t>
         </x:is>
       </x:c>
       <x:c r="B73" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C73" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTIÓN ADMINISTRATIVA</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F73" t="inlineStr">
@@ -2464,7 +2466,7 @@
       </x:c>
       <x:c r="G73" t="inlineStr">
         <x:is>
-          <x:t>KIWORKS CUATRO CAMINOS</x:t>
+          <x:t>GALA CTM-2</x:t>
         </x:is>
       </x:c>
       <x:c r="H73" t="inlineStr">
@@ -2476,17 +2478,17 @@
     <x:row r="74">
       <x:c r="A74" t="inlineStr">
         <x:is>
-          <x:t>22/2238</x:t>
+          <x:t>22/1789</x:t>
         </x:is>
       </x:c>
       <x:c r="B74" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>IFCT0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C74" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F74" t="inlineStr">
@@ -2496,24 +2498,29 @@
       </x:c>
       <x:c r="G74" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>PLATO SUR</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H74" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="75">
       <x:c r="A75" t="inlineStr">
         <x:is>
-          <x:t>22/2239</x:t>
+          <x:t>22/1792</x:t>
         </x:is>
       </x:c>
       <x:c r="B75" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C75" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>ACTIVIDADES DE GESTIÓN ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F75" t="inlineStr">
@@ -2523,24 +2530,29 @@
       </x:c>
       <x:c r="G75" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>KIWORKS CUATRO CAMINOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H75" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="76">
       <x:c r="A76" t="inlineStr">
         <x:is>
-          <x:t>22/2242</x:t>
+          <x:t>22/2238</x:t>
         </x:is>
       </x:c>
       <x:c r="B76" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C76" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F76" t="inlineStr">
@@ -2550,24 +2562,24 @@
       </x:c>
       <x:c r="G76" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="77">
       <x:c r="A77" t="inlineStr">
         <x:is>
-          <x:t>22/2243</x:t>
+          <x:t>22/2239</x:t>
         </x:is>
       </x:c>
       <x:c r="B77" t="inlineStr">
         <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C77" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F77" t="inlineStr">
@@ -2577,24 +2589,24 @@
       </x:c>
       <x:c r="G77" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="78">
       <x:c r="A78" t="inlineStr">
         <x:is>
-          <x:t>22/2244</x:t>
+          <x:t>22/2242</x:t>
         </x:is>
       </x:c>
       <x:c r="B78" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C78" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F78" t="inlineStr">
@@ -2611,17 +2623,17 @@
     <x:row r="79">
       <x:c r="A79" t="inlineStr">
         <x:is>
-          <x:t>22/2245</x:t>
+          <x:t>22/2243</x:t>
         </x:is>
       </x:c>
       <x:c r="B79" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C79" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F79" t="inlineStr">
@@ -2638,17 +2650,17 @@
     <x:row r="80">
       <x:c r="A80" t="inlineStr">
         <x:is>
-          <x:t>22/3933</x:t>
+          <x:t>22/2244</x:t>
         </x:is>
       </x:c>
       <x:c r="B80" t="inlineStr">
         <x:is>
-          <x:t>COMT0210</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C80" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN ADMINISTRATIVA Y FINANCIERA DEL COMERCIO INTERNACIONAL</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F80" t="inlineStr">
@@ -2658,24 +2670,24 @@
       </x:c>
       <x:c r="G80" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="81">
       <x:c r="A81" t="inlineStr">
         <x:is>
-          <x:t>22/5155</x:t>
+          <x:t>22/2245</x:t>
         </x:is>
       </x:c>
       <x:c r="B81" t="inlineStr">
         <x:is>
-          <x:t>EOCE0109</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C81" t="inlineStr">
         <x:is>
-          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F81" t="inlineStr">
@@ -2685,24 +2697,24 @@
       </x:c>
       <x:c r="G81" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="82">
       <x:c r="A82" t="inlineStr">
         <x:is>
-          <x:t>22/5157</x:t>
+          <x:t>22/3933</x:t>
         </x:is>
       </x:c>
       <x:c r="B82" t="inlineStr">
         <x:is>
-          <x:t>FMEC0210</x:t>
+          <x:t>COMT0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C82" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
+          <x:t>GESTIÓN ADMINISTRATIVA Y FINANCIERA DEL COMERCIO INTERNACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F82" t="inlineStr">
@@ -2712,24 +2724,24 @@
       </x:c>
       <x:c r="G82" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="83">
       <x:c r="A83" t="inlineStr">
         <x:is>
-          <x:t>22/5159</x:t>
+          <x:t>22/5155</x:t>
         </x:is>
       </x:c>
       <x:c r="B83" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>EOCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C83" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F83" t="inlineStr">
@@ -2746,17 +2758,17 @@
     <x:row r="84">
       <x:c r="A84" t="inlineStr">
         <x:is>
-          <x:t>22/5163</x:t>
+          <x:t>22/5157</x:t>
         </x:is>
       </x:c>
       <x:c r="B84" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>FMEC0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C84" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
         </x:is>
       </x:c>
       <x:c r="F84" t="inlineStr">
@@ -2773,17 +2785,17 @@
     <x:row r="85">
       <x:c r="A85" t="inlineStr">
         <x:is>
-          <x:t>22/5164</x:t>
+          <x:t>22/5159</x:t>
         </x:is>
       </x:c>
       <x:c r="B85" t="inlineStr">
         <x:is>
-          <x:t>ELEE0209</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C85" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE REDES ELÉCTRICAS DE ALTA TENSIÓN DE SEGUNDA Y TERCERA CATEGORÍA Y CENTROS DE TRANSFORMACIÓN</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F85" t="inlineStr">
@@ -2800,17 +2812,17 @@
     <x:row r="86">
       <x:c r="A86" t="inlineStr">
         <x:is>
-          <x:t>22/5167</x:t>
+          <x:t>22/5163</x:t>
         </x:is>
       </x:c>
       <x:c r="B86" t="inlineStr">
         <x:is>
-          <x:t>EOCB0209</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C86" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ACABADOS RÍGIDOS Y URBANIZACIÓN</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F86" t="inlineStr">
@@ -2827,17 +2839,17 @@
     <x:row r="87">
       <x:c r="A87" t="inlineStr">
         <x:is>
-          <x:t>22/5169</x:t>
+          <x:t>22/5164</x:t>
         </x:is>
       </x:c>
       <x:c r="B87" t="inlineStr">
         <x:is>
-          <x:t>EOCE0109</x:t>
+          <x:t>ELEE0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C87" t="inlineStr">
         <x:is>
-          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE REDES ELÉCTRICAS DE ALTA TENSIÓN DE SEGUNDA Y TERCERA CATEGORÍA Y CENTROS DE TRANSFORMACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F87" t="inlineStr">
@@ -2854,17 +2866,17 @@
     <x:row r="88">
       <x:c r="A88" t="inlineStr">
         <x:is>
-          <x:t>22/5170</x:t>
+          <x:t>22/5167</x:t>
         </x:is>
       </x:c>
       <x:c r="B88" t="inlineStr">
         <x:is>
-          <x:t>FMEC0210</x:t>
+          <x:t>EOCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C88" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ACABADOS RÍGIDOS Y URBANIZACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F88" t="inlineStr">
@@ -2881,17 +2893,17 @@
     <x:row r="89">
       <x:c r="A89" t="inlineStr">
         <x:is>
-          <x:t>22/5171</x:t>
+          <x:t>22/5169</x:t>
         </x:is>
       </x:c>
       <x:c r="B89" t="inlineStr">
         <x:is>
-          <x:t>MAMD0309</x:t>
+          <x:t>EOCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C89" t="inlineStr">
         <x:is>
-          <x:t>PROYECTOS DE CARPINTERÍA Y MUEBLE</x:t>
+          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F89" t="inlineStr">
@@ -2908,17 +2920,17 @@
     <x:row r="90">
       <x:c r="A90" t="inlineStr">
         <x:is>
-          <x:t>22/5172</x:t>
+          <x:t>22/5170</x:t>
         </x:is>
       </x:c>
       <x:c r="B90" t="inlineStr">
         <x:is>
-          <x:t>MAMR0408</x:t>
+          <x:t>FMEC0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C90" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE MUEBLES</x:t>
+          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
         </x:is>
       </x:c>
       <x:c r="F90" t="inlineStr">
@@ -2935,17 +2947,17 @@
     <x:row r="91">
       <x:c r="A91" t="inlineStr">
         <x:is>
-          <x:t>22/5173</x:t>
+          <x:t>22/5171</x:t>
         </x:is>
       </x:c>
       <x:c r="B91" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>MAMD0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C91" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>PROYECTOS DE CARPINTERÍA Y MUEBLE</x:t>
         </x:is>
       </x:c>
       <x:c r="F91" t="inlineStr">
@@ -2962,17 +2974,17 @@
     <x:row r="92">
       <x:c r="A92" t="inlineStr">
         <x:is>
-          <x:t>22/5174</x:t>
+          <x:t>22/5172</x:t>
         </x:is>
       </x:c>
       <x:c r="B92" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>MAMR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C92" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>INSTALACIÓN DE MUEBLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F92" t="inlineStr">
@@ -2989,17 +3001,17 @@
     <x:row r="93">
       <x:c r="A93" t="inlineStr">
         <x:is>
-          <x:t>22/5176</x:t>
+          <x:t>22/5173</x:t>
         </x:is>
       </x:c>
       <x:c r="B93" t="inlineStr">
         <x:is>
-          <x:t>SEAG0211</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C93" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN AMBIENTAL</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F93" t="inlineStr">
@@ -3016,17 +3028,17 @@
     <x:row r="94">
       <x:c r="A94" t="inlineStr">
         <x:is>
-          <x:t>22/5180</x:t>
+          <x:t>22/5174</x:t>
         </x:is>
       </x:c>
       <x:c r="B94" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C94" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F94" t="inlineStr">
@@ -3036,24 +3048,24 @@
       </x:c>
       <x:c r="G94" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="95">
       <x:c r="A95" t="inlineStr">
         <x:is>
-          <x:t>22/5182</x:t>
+          <x:t>22/5176</x:t>
         </x:is>
       </x:c>
       <x:c r="B95" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>SEAG0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C95" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>GESTIÓN AMBIENTAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F95" t="inlineStr">
@@ -3063,24 +3075,24 @@
       </x:c>
       <x:c r="G95" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="96">
       <x:c r="A96" t="inlineStr">
         <x:is>
-          <x:t>22/5183</x:t>
+          <x:t>22/5180</x:t>
         </x:is>
       </x:c>
       <x:c r="B96" t="inlineStr">
         <x:is>
-          <x:t>HOTA0208</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C96" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE PISOS Y LIMPIEZA EN ALOJAMIENTOS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F96" t="inlineStr">
@@ -3097,17 +3109,17 @@
     <x:row r="97">
       <x:c r="A97" t="inlineStr">
         <x:is>
-          <x:t>22/5185</x:t>
+          <x:t>22/5182</x:t>
         </x:is>
       </x:c>
       <x:c r="B97" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C97" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F97" t="inlineStr">
@@ -3124,17 +3136,17 @@
     <x:row r="98">
       <x:c r="A98" t="inlineStr">
         <x:is>
-          <x:t>22/5188</x:t>
+          <x:t>22/5183</x:t>
         </x:is>
       </x:c>
       <x:c r="B98" t="inlineStr">
         <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>HOTA0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C98" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>GESTIÓN DE PISOS Y LIMPIEZA EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F98" t="inlineStr">
@@ -3151,17 +3163,17 @@
     <x:row r="99">
       <x:c r="A99" t="inlineStr">
         <x:is>
-          <x:t>22/5189</x:t>
+          <x:t>22/5185</x:t>
         </x:is>
       </x:c>
       <x:c r="B99" t="inlineStr">
         <x:is>
-          <x:t>AGAO0308M</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C99" t="inlineStr">
         <x:is>
-          <x:t>JARDINERÍA Y RESTAURACIÓN DEL PAISAJE</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F99" t="inlineStr">
@@ -3178,17 +3190,17 @@
     <x:row r="100">
       <x:c r="A100" t="inlineStr">
         <x:is>
-          <x:t>22/5193</x:t>
+          <x:t>22/5188</x:t>
         </x:is>
       </x:c>
       <x:c r="B100" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>AGAO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C100" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
         </x:is>
       </x:c>
       <x:c r="F100" t="inlineStr">
@@ -3205,17 +3217,17 @@
     <x:row r="101">
       <x:c r="A101" t="inlineStr">
         <x:is>
-          <x:t>22/5196</x:t>
+          <x:t>22/5189</x:t>
         </x:is>
       </x:c>
       <x:c r="B101" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>AGAO0308M</x:t>
         </x:is>
       </x:c>
       <x:c r="C101" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>JARDINERÍA Y RESTAURACIÓN DEL PAISAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F101" t="inlineStr">
@@ -3232,17 +3244,17 @@
     <x:row r="102">
       <x:c r="A102" t="inlineStr">
         <x:is>
-          <x:t>22/5199</x:t>
+          <x:t>22/5193</x:t>
         </x:is>
       </x:c>
       <x:c r="B102" t="inlineStr">
         <x:is>
-          <x:t>HOTR0408</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C102" t="inlineStr">
         <x:is>
-          <x:t>COCINA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F102" t="inlineStr">
@@ -3259,17 +3271,17 @@
     <x:row r="103">
       <x:c r="A103" t="inlineStr">
         <x:is>
-          <x:t>22/5200</x:t>
+          <x:t>22/5196</x:t>
         </x:is>
       </x:c>
       <x:c r="B103" t="inlineStr">
         <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C103" t="inlineStr">
         <x:is>
-          <x:t>REPOSTERÍA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F103" t="inlineStr">
@@ -3286,17 +3298,17 @@
     <x:row r="104">
       <x:c r="A104" t="inlineStr">
         <x:is>
-          <x:t>22/5219</x:t>
+          <x:t>22/5199</x:t>
         </x:is>
       </x:c>
       <x:c r="B104" t="inlineStr">
         <x:is>
-          <x:t>AFDA0411</x:t>
+          <x:t>HOTR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C104" t="inlineStr">
         <x:is>
-          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA PARA PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F104" t="inlineStr">
@@ -3306,24 +3318,24 @@
       </x:c>
       <x:c r="G104" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="105">
       <x:c r="A105" t="inlineStr">
         <x:is>
-          <x:t>22/5304</x:t>
+          <x:t>22/5200</x:t>
         </x:is>
       </x:c>
       <x:c r="B105" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C105" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>REPOSTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F105" t="inlineStr">
@@ -3333,19 +3345,24 @@
       </x:c>
       <x:c r="G105" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="106">
       <x:c r="A106" t="inlineStr">
         <x:is>
-          <x:t>4294-27</x:t>
+          <x:t>22/5219</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B106" t="inlineStr">
+        <x:is>
+          <x:t>AFDA0411</x:t>
         </x:is>
       </x:c>
       <x:c r="C106" t="inlineStr">
         <x:is>
-          <x:t>MF0710-PRODUCTOS DE REPOSTERÍA</x:t>
+          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA PARA PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F106" t="inlineStr">
@@ -3355,24 +3372,24 @@
       </x:c>
       <x:c r="G106" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="107">
       <x:c r="A107" t="inlineStr">
         <x:is>
-          <x:t>4294-28</x:t>
+          <x:t>22/5304</x:t>
         </x:is>
       </x:c>
       <x:c r="B107" t="inlineStr">
         <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C107" t="inlineStr">
         <x:is>
-          <x:t>MF0711-SEGURIDAD E HIGIENE Y PROTECCIÓN AMBIENTAL EN HOSTELERÍA</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="F107" t="inlineStr">
@@ -3382,24 +3399,19 @@
       </x:c>
       <x:c r="G107" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="108">
       <x:c r="A108" t="inlineStr">
         <x:is>
-          <x:t>4294-29</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B108" t="inlineStr">
-        <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>4294-27</x:t>
         </x:is>
       </x:c>
       <x:c r="C108" t="inlineStr">
         <x:is>
-          <x:t>MF8229-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF0710-PRODUCTOS DE REPOSTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F108" t="inlineStr">
@@ -3416,17 +3428,17 @@
     <x:row r="109">
       <x:c r="A109" t="inlineStr">
         <x:is>
-          <x:t>4294-30</x:t>
+          <x:t>4294-28</x:t>
         </x:is>
       </x:c>
       <x:c r="B109" t="inlineStr">
         <x:is>
-          <x:t>HOTR0408</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C109" t="inlineStr">
         <x:is>
-          <x:t>MF0259-OFERTAS GASTRONÓMICAS SENCILLAS Y SISTEMAS DE APROVISIONAMIENTO</x:t>
+          <x:t>MF0711-SEGURIDAD E HIGIENE Y PROTECCIÓN AMBIENTAL EN HOSTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F109" t="inlineStr">
@@ -3443,17 +3455,17 @@
     <x:row r="110">
       <x:c r="A110" t="inlineStr">
         <x:is>
-          <x:t>4507-24</x:t>
+          <x:t>4294-29</x:t>
         </x:is>
       </x:c>
       <x:c r="B110" t="inlineStr">
         <x:is>
-          <x:t>ADGG0108</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C110" t="inlineStr">
         <x:is>
-          <x:t>MF8076-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF8229-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F110" t="inlineStr">
@@ -3463,24 +3475,24 @@
       </x:c>
       <x:c r="G110" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="111">
       <x:c r="A111" t="inlineStr">
         <x:is>
-          <x:t>4507-40</x:t>
+          <x:t>4294-30</x:t>
         </x:is>
       </x:c>
       <x:c r="B111" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>HOTR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C111" t="inlineStr">
         <x:is>
-          <x:t>MF8462-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF0259-OFERTAS GASTRONÓMICAS SENCILLAS Y SISTEMAS DE APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F111" t="inlineStr">
@@ -3490,24 +3502,24 @@
       </x:c>
       <x:c r="G111" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="112">
       <x:c r="A112" t="inlineStr">
         <x:is>
-          <x:t>5343-49</x:t>
+          <x:t>4507-24</x:t>
         </x:is>
       </x:c>
       <x:c r="B112" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>ADGG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C112" t="inlineStr">
         <x:is>
-          <x:t>MF1444 IMPARTICIÓN Y TUTORIZACIÓN DE ACCIONES FORMATI  VAS PARA EL EMPLEO</x:t>
+          <x:t>MF8076-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F112" t="inlineStr">
@@ -3517,24 +3529,24 @@
       </x:c>
       <x:c r="G112" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="113">
       <x:c r="A113" t="inlineStr">
         <x:is>
-          <x:t>22/1720</x:t>
+          <x:t>4507-40</x:t>
         </x:is>
       </x:c>
       <x:c r="B113" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C113" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MF8462-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F113" t="inlineStr">
@@ -3544,29 +3556,24 @@
       </x:c>
       <x:c r="G113" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H113" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="114">
       <x:c r="A114" t="inlineStr">
         <x:is>
-          <x:t>22/1723</x:t>
+          <x:t>5343-49</x:t>
         </x:is>
       </x:c>
       <x:c r="B114" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C114" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MF1444 IMPARTICIÓN Y TUTORIZACIÓN DE ACCIONES FORMATI  VAS PARA EL EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="F114" t="inlineStr">
@@ -3576,29 +3583,24 @@
       </x:c>
       <x:c r="G114" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H114" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="115">
       <x:c r="A115" t="inlineStr">
         <x:is>
-          <x:t>22/1716</x:t>
+          <x:t>22/1720</x:t>
         </x:is>
       </x:c>
       <x:c r="B115" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C115" t="inlineStr">
         <x:is>
-          <x:t>INSERCION LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F115" t="inlineStr">
@@ -3608,7 +3610,7 @@
       </x:c>
       <x:c r="G115" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Hada (Edificio de Empresas)</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H115" t="inlineStr">
@@ -3620,7 +3622,7 @@
     <x:row r="116">
       <x:c r="A116" t="inlineStr">
         <x:is>
-          <x:t>22/1721</x:t>
+          <x:t>22/1723</x:t>
         </x:is>
       </x:c>
       <x:c r="B116" t="inlineStr">
@@ -3652,17 +3654,17 @@
     <x:row r="117">
       <x:c r="A117" t="inlineStr">
         <x:is>
-          <x:t>22/1722</x:t>
+          <x:t>22/1716</x:t>
         </x:is>
       </x:c>
       <x:c r="B117" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C117" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>INSERCION LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F117" t="inlineStr">
@@ -3672,7 +3674,7 @@
       </x:c>
       <x:c r="G117" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+          <x:t>Centro Formación IME_Hada (Edificio de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H117" t="inlineStr">
@@ -3684,7 +3686,7 @@
     <x:row r="118">
       <x:c r="A118" t="inlineStr">
         <x:is>
-          <x:t>22/1724</x:t>
+          <x:t>22/1721</x:t>
         </x:is>
       </x:c>
       <x:c r="B118" t="inlineStr">
@@ -3716,17 +3718,17 @@
     <x:row r="119">
       <x:c r="A119" t="inlineStr">
         <x:is>
-          <x:t>22/1794</x:t>
+          <x:t>22/1722</x:t>
         </x:is>
       </x:c>
       <x:c r="B119" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C119" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F119" t="inlineStr">
@@ -3736,24 +3738,29 @@
       </x:c>
       <x:c r="G119" t="inlineStr">
         <x:is>
-          <x:t>Alquiler y Venta Rápida S.L.</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H119" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="120">
       <x:c r="A120" t="inlineStr">
         <x:is>
-          <x:t>23/8000</x:t>
+          <x:t>22/1724</x:t>
         </x:is>
       </x:c>
       <x:c r="B120" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C120" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F120" t="inlineStr">
@@ -3763,24 +3770,29 @@
       </x:c>
       <x:c r="G120" t="inlineStr">
         <x:is>
-          <x:t>IGNACIO RUIZ OSTA</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H120" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="121">
       <x:c r="A121" t="inlineStr">
         <x:is>
-          <x:t>23/8001</x:t>
+          <x:t>22/1794</x:t>
         </x:is>
       </x:c>
       <x:c r="B121" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C121" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F121" t="inlineStr">
@@ -3790,24 +3802,24 @@
       </x:c>
       <x:c r="G121" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>Alquiler y Venta Rápida S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="122">
       <x:c r="A122" t="inlineStr">
         <x:is>
-          <x:t>23/8002</x:t>
+          <x:t>23/8000</x:t>
         </x:is>
       </x:c>
       <x:c r="B122" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C122" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F122" t="inlineStr">
@@ -3817,24 +3829,24 @@
       </x:c>
       <x:c r="G122" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>IGNACIO RUIZ OSTA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="123">
       <x:c r="A123" t="inlineStr">
         <x:is>
-          <x:t>23/8003</x:t>
+          <x:t>23/8001</x:t>
         </x:is>
       </x:c>
       <x:c r="B123" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C123" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F123" t="inlineStr">
@@ -3851,17 +3863,17 @@
     <x:row r="124">
       <x:c r="A124" t="inlineStr">
         <x:is>
-          <x:t>23/8004</x:t>
+          <x:t>23/8002</x:t>
         </x:is>
       </x:c>
       <x:c r="B124" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C124" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F124" t="inlineStr">
@@ -3878,17 +3890,17 @@
     <x:row r="125">
       <x:c r="A125" t="inlineStr">
         <x:is>
-          <x:t>23/8007</x:t>
+          <x:t>23/8003</x:t>
         </x:is>
       </x:c>
       <x:c r="B125" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C125" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F125" t="inlineStr">
@@ -3905,17 +3917,17 @@
     <x:row r="126">
       <x:c r="A126" t="inlineStr">
         <x:is>
-          <x:t>23/8008</x:t>
+          <x:t>23/8004</x:t>
         </x:is>
       </x:c>
       <x:c r="B126" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C126" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="F126" t="inlineStr">
@@ -3932,17 +3944,17 @@
     <x:row r="127">
       <x:c r="A127" t="inlineStr">
         <x:is>
-          <x:t>23/8010</x:t>
+          <x:t>23/8007</x:t>
         </x:is>
       </x:c>
       <x:c r="B127" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C127" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F127" t="inlineStr">
@@ -3952,24 +3964,24 @@
       </x:c>
       <x:c r="G127" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="128">
       <x:c r="A128" t="inlineStr">
         <x:is>
-          <x:t>23/8011</x:t>
+          <x:t>23/8008</x:t>
         </x:is>
       </x:c>
       <x:c r="B128" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C128" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F128" t="inlineStr">
@@ -3979,24 +3991,24 @@
       </x:c>
       <x:c r="G128" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="129">
       <x:c r="A129" t="inlineStr">
         <x:is>
-          <x:t>23/8012</x:t>
+          <x:t>23/8010</x:t>
         </x:is>
       </x:c>
       <x:c r="B129" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C129" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F129" t="inlineStr">
@@ -4013,17 +4025,17 @@
     <x:row r="130">
       <x:c r="A130" t="inlineStr">
         <x:is>
-          <x:t>23/8013</x:t>
+          <x:t>23/8011</x:t>
         </x:is>
       </x:c>
       <x:c r="B130" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C130" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F130" t="inlineStr">
@@ -4040,17 +4052,17 @@
     <x:row r="131">
       <x:c r="A131" t="inlineStr">
         <x:is>
-          <x:t>23/8014</x:t>
+          <x:t>23/8012</x:t>
         </x:is>
       </x:c>
       <x:c r="B131" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C131" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F131" t="inlineStr">
@@ -4067,17 +4079,17 @@
     <x:row r="132">
       <x:c r="A132" t="inlineStr">
         <x:is>
-          <x:t>23/8015</x:t>
+          <x:t>23/8013</x:t>
         </x:is>
       </x:c>
       <x:c r="B132" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C132" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F132" t="inlineStr">
@@ -4094,17 +4106,17 @@
     <x:row r="133">
       <x:c r="A133" t="inlineStr">
         <x:is>
-          <x:t>23/8016</x:t>
+          <x:t>23/8014</x:t>
         </x:is>
       </x:c>
       <x:c r="B133" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C133" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F133" t="inlineStr">
@@ -4121,17 +4133,17 @@
     <x:row r="134">
       <x:c r="A134" t="inlineStr">
         <x:is>
-          <x:t>23/8017</x:t>
+          <x:t>23/8015</x:t>
         </x:is>
       </x:c>
       <x:c r="B134" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C134" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F134" t="inlineStr">
@@ -4148,17 +4160,17 @@
     <x:row r="135">
       <x:c r="A135" t="inlineStr">
         <x:is>
-          <x:t>23/8018</x:t>
+          <x:t>23/8016</x:t>
         </x:is>
       </x:c>
       <x:c r="B135" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C135" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F135" t="inlineStr">
@@ -4168,29 +4180,24 @@
       </x:c>
       <x:c r="G135" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H135" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="136">
       <x:c r="A136" t="inlineStr">
         <x:is>
-          <x:t>23/8019</x:t>
+          <x:t>23/8017</x:t>
         </x:is>
       </x:c>
       <x:c r="B136" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C136" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F136" t="inlineStr">
@@ -4200,29 +4207,24 @@
       </x:c>
       <x:c r="G136" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H136" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="137">
       <x:c r="A137" t="inlineStr">
         <x:is>
-          <x:t>23/8020</x:t>
+          <x:t>23/8018</x:t>
         </x:is>
       </x:c>
       <x:c r="B137" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C137" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F137" t="inlineStr">
@@ -4244,17 +4246,17 @@
     <x:row r="138">
       <x:c r="A138" t="inlineStr">
         <x:is>
-          <x:t>23/8021</x:t>
+          <x:t>23/8019</x:t>
         </x:is>
       </x:c>
       <x:c r="B138" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C138" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F138" t="inlineStr">
@@ -4276,17 +4278,17 @@
     <x:row r="139">
       <x:c r="A139" t="inlineStr">
         <x:is>
-          <x:t>23/8023</x:t>
+          <x:t>23/8020</x:t>
         </x:is>
       </x:c>
       <x:c r="B139" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C139" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F139" t="inlineStr">
@@ -4308,17 +4310,17 @@
     <x:row r="140">
       <x:c r="A140" t="inlineStr">
         <x:is>
-          <x:t>23/8024</x:t>
+          <x:t>23/8021</x:t>
         </x:is>
       </x:c>
       <x:c r="B140" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C140" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F140" t="inlineStr">
@@ -4340,17 +4342,17 @@
     <x:row r="141">
       <x:c r="A141" t="inlineStr">
         <x:is>
-          <x:t>23/8025</x:t>
+          <x:t>23/8023</x:t>
         </x:is>
       </x:c>
       <x:c r="B141" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C141" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F141" t="inlineStr">
@@ -4372,7 +4374,7 @@
     <x:row r="142">
       <x:c r="A142" t="inlineStr">
         <x:is>
-          <x:t>23/8026</x:t>
+          <x:t>23/8024</x:t>
         </x:is>
       </x:c>
       <x:c r="B142" t="inlineStr">
@@ -4404,17 +4406,17 @@
     <x:row r="143">
       <x:c r="A143" t="inlineStr">
         <x:is>
-          <x:t>23/8027</x:t>
+          <x:t>23/8025</x:t>
         </x:is>
       </x:c>
       <x:c r="B143" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C143" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F143" t="inlineStr">
@@ -4424,24 +4426,29 @@
       </x:c>
       <x:c r="G143" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
+          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H143" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="144">
       <x:c r="A144" t="inlineStr">
         <x:is>
-          <x:t>23/8028</x:t>
+          <x:t>23/8026</x:t>
         </x:is>
       </x:c>
       <x:c r="B144" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C144" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F144" t="inlineStr">
@@ -4451,24 +4458,29 @@
       </x:c>
       <x:c r="G144" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
+          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H144" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="145">
       <x:c r="A145" t="inlineStr">
         <x:is>
-          <x:t>23/8029</x:t>
+          <x:t>23/8027</x:t>
         </x:is>
       </x:c>
       <x:c r="B145" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C145" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F145" t="inlineStr">
@@ -4485,17 +4497,17 @@
     <x:row r="146">
       <x:c r="A146" t="inlineStr">
         <x:is>
-          <x:t>23/8030</x:t>
+          <x:t>23/8028</x:t>
         </x:is>
       </x:c>
       <x:c r="B146" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C146" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F146" t="inlineStr">
@@ -4512,17 +4524,17 @@
     <x:row r="147">
       <x:c r="A147" t="inlineStr">
         <x:is>
-          <x:t>23/8031</x:t>
+          <x:t>23/8029</x:t>
         </x:is>
       </x:c>
       <x:c r="B147" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C147" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F147" t="inlineStr">
@@ -4539,17 +4551,17 @@
     <x:row r="148">
       <x:c r="A148" t="inlineStr">
         <x:is>
-          <x:t>23/8032</x:t>
+          <x:t>23/8030</x:t>
         </x:is>
       </x:c>
       <x:c r="B148" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C148" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F148" t="inlineStr">
@@ -4566,7 +4578,7 @@
     <x:row r="149">
       <x:c r="A149" t="inlineStr">
         <x:is>
-          <x:t>23/8033</x:t>
+          <x:t>23/8031</x:t>
         </x:is>
       </x:c>
       <x:c r="B149" t="inlineStr">
@@ -4593,17 +4605,17 @@
     <x:row r="150">
       <x:c r="A150" t="inlineStr">
         <x:is>
-          <x:t>23/8034</x:t>
+          <x:t>23/8032</x:t>
         </x:is>
       </x:c>
       <x:c r="B150" t="inlineStr">
         <x:is>
-          <x:t>ELEE0108</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C150" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F150" t="inlineStr">
@@ -4613,24 +4625,24 @@
       </x:c>
       <x:c r="G150" t="inlineStr">
         <x:is>
-          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
+          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="151">
       <x:c r="A151" t="inlineStr">
         <x:is>
-          <x:t>23/8035</x:t>
+          <x:t>23/8033</x:t>
         </x:is>
       </x:c>
       <x:c r="B151" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C151" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F151" t="inlineStr">
@@ -4640,14 +4652,14 @@
       </x:c>
       <x:c r="G151" t="inlineStr">
         <x:is>
-          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
+          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="152">
       <x:c r="A152" t="inlineStr">
         <x:is>
-          <x:t>23/8036</x:t>
+          <x:t>23/8034</x:t>
         </x:is>
       </x:c>
       <x:c r="B152" t="inlineStr">
@@ -4674,7 +4686,7 @@
     <x:row r="153">
       <x:c r="A153" t="inlineStr">
         <x:is>
-          <x:t>23/8037</x:t>
+          <x:t>23/8035</x:t>
         </x:is>
       </x:c>
       <x:c r="B153" t="inlineStr">
@@ -4701,17 +4713,17 @@
     <x:row r="154">
       <x:c r="A154" t="inlineStr">
         <x:is>
-          <x:t>23/8038</x:t>
+          <x:t>23/8036</x:t>
         </x:is>
       </x:c>
       <x:c r="B154" t="inlineStr">
         <x:is>
-          <x:t>QUIA0108</x:t>
+          <x:t>ELEE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C154" t="inlineStr">
         <x:is>
-          <x:t>ENSAYOS FÍSICOS Y FISICOQUÍMICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F154" t="inlineStr">
@@ -4721,24 +4733,24 @@
       </x:c>
       <x:c r="G154" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION AGRARIA S.A.</x:t>
+          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="155">
       <x:c r="A155" t="inlineStr">
         <x:is>
-          <x:t>23/8039</x:t>
+          <x:t>23/8037</x:t>
         </x:is>
       </x:c>
       <x:c r="B155" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C155" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F155" t="inlineStr">
@@ -4748,24 +4760,24 @@
       </x:c>
       <x:c r="G155" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="156">
       <x:c r="A156" t="inlineStr">
         <x:is>
-          <x:t>23/8040</x:t>
+          <x:t>23/8038</x:t>
         </x:is>
       </x:c>
       <x:c r="B156" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>QUIA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C156" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ENSAYOS FÍSICOS Y FISICOQUÍMICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F156" t="inlineStr">
@@ -4775,24 +4787,24 @@
       </x:c>
       <x:c r="G156" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION AGRARIA S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="157">
       <x:c r="A157" t="inlineStr">
         <x:is>
-          <x:t>23/8041</x:t>
+          <x:t>23/8039</x:t>
         </x:is>
       </x:c>
       <x:c r="B157" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C157" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F157" t="inlineStr">
@@ -4809,17 +4821,17 @@
     <x:row r="158">
       <x:c r="A158" t="inlineStr">
         <x:is>
-          <x:t>23/8044</x:t>
+          <x:t>23/8040</x:t>
         </x:is>
       </x:c>
       <x:c r="B158" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C158" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F158" t="inlineStr">
@@ -4836,17 +4848,17 @@
     <x:row r="159">
       <x:c r="A159" t="inlineStr">
         <x:is>
-          <x:t>23/8045</x:t>
+          <x:t>23/8041</x:t>
         </x:is>
       </x:c>
       <x:c r="B159" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C159" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F159" t="inlineStr">
@@ -4863,7 +4875,7 @@
     <x:row r="160">
       <x:c r="A160" t="inlineStr">
         <x:is>
-          <x:t>23/8046</x:t>
+          <x:t>23/8044</x:t>
         </x:is>
       </x:c>
       <x:c r="B160" t="inlineStr">
@@ -4890,17 +4902,17 @@
     <x:row r="161">
       <x:c r="A161" t="inlineStr">
         <x:is>
-          <x:t>23/8047</x:t>
+          <x:t>23/8045</x:t>
         </x:is>
       </x:c>
       <x:c r="B161" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C161" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F161" t="inlineStr">
@@ -4910,24 +4922,24 @@
       </x:c>
       <x:c r="G161" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="162">
       <x:c r="A162" t="inlineStr">
         <x:is>
-          <x:t>23/8048</x:t>
+          <x:t>23/8046</x:t>
         </x:is>
       </x:c>
       <x:c r="B162" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C162" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F162" t="inlineStr">
@@ -4937,24 +4949,24 @@
       </x:c>
       <x:c r="G162" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="163">
       <x:c r="A163" t="inlineStr">
         <x:is>
-          <x:t>23/8049</x:t>
+          <x:t>23/8047</x:t>
         </x:is>
       </x:c>
       <x:c r="B163" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C163" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F163" t="inlineStr">
@@ -4971,17 +4983,17 @@
     <x:row r="164">
       <x:c r="A164" t="inlineStr">
         <x:is>
-          <x:t>23/8051</x:t>
+          <x:t>23/8048</x:t>
         </x:is>
       </x:c>
       <x:c r="B164" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C164" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F164" t="inlineStr">
@@ -4998,17 +5010,17 @@
     <x:row r="165">
       <x:c r="A165" t="inlineStr">
         <x:is>
-          <x:t>23/8052</x:t>
+          <x:t>23/8049</x:t>
         </x:is>
       </x:c>
       <x:c r="B165" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C165" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F165" t="inlineStr">
@@ -5025,17 +5037,17 @@
     <x:row r="166">
       <x:c r="A166" t="inlineStr">
         <x:is>
-          <x:t>23/8053</x:t>
+          <x:t>23/8051</x:t>
         </x:is>
       </x:c>
       <x:c r="B166" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C166" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F166" t="inlineStr">
@@ -5052,17 +5064,17 @@
     <x:row r="167">
       <x:c r="A167" t="inlineStr">
         <x:is>
-          <x:t>23/8054</x:t>
+          <x:t>23/8052</x:t>
         </x:is>
       </x:c>
       <x:c r="B167" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C167" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F167" t="inlineStr">
@@ -5079,17 +5091,17 @@
     <x:row r="168">
       <x:c r="A168" t="inlineStr">
         <x:is>
-          <x:t>23/8058</x:t>
+          <x:t>23/8053</x:t>
         </x:is>
       </x:c>
       <x:c r="B168" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C168" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F168" t="inlineStr">
@@ -5099,24 +5111,24 @@
       </x:c>
       <x:c r="G168" t="inlineStr">
         <x:is>
-          <x:t>MERINERO S.A.</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="169">
       <x:c r="A169" t="inlineStr">
         <x:is>
-          <x:t>23/8059</x:t>
+          <x:t>23/8054</x:t>
         </x:is>
       </x:c>
       <x:c r="B169" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C169" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F169" t="inlineStr">
@@ -5126,24 +5138,24 @@
       </x:c>
       <x:c r="G169" t="inlineStr">
         <x:is>
-          <x:t>GRUPO FIDSOFT S.A</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="170">
       <x:c r="A170" t="inlineStr">
         <x:is>
-          <x:t>23/8061</x:t>
+          <x:t>23/8058</x:t>
         </x:is>
       </x:c>
       <x:c r="B170" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C170" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F170" t="inlineStr">
@@ -5153,24 +5165,24 @@
       </x:c>
       <x:c r="G170" t="inlineStr">
         <x:is>
-          <x:t>GRUPO FIDSOFT S.A</x:t>
+          <x:t>MERINERO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="171">
       <x:c r="A171" t="inlineStr">
         <x:is>
-          <x:t>23/8062</x:t>
+          <x:t>23/8059</x:t>
         </x:is>
       </x:c>
       <x:c r="B171" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C171" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F171" t="inlineStr">
@@ -5187,17 +5199,17 @@
     <x:row r="172">
       <x:c r="A172" t="inlineStr">
         <x:is>
-          <x:t>23/8063</x:t>
+          <x:t>23/8061</x:t>
         </x:is>
       </x:c>
       <x:c r="B172" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C172" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F172" t="inlineStr">
@@ -5214,17 +5226,17 @@
     <x:row r="173">
       <x:c r="A173" t="inlineStr">
         <x:is>
-          <x:t>23/8064</x:t>
+          <x:t>23/8062</x:t>
         </x:is>
       </x:c>
       <x:c r="B173" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C173" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F173" t="inlineStr">
@@ -5241,17 +5253,17 @@
     <x:row r="174">
       <x:c r="A174" t="inlineStr">
         <x:is>
-          <x:t>23/8065</x:t>
+          <x:t>23/8063</x:t>
         </x:is>
       </x:c>
       <x:c r="B174" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C174" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F174" t="inlineStr">
@@ -5268,17 +5280,17 @@
     <x:row r="175">
       <x:c r="A175" t="inlineStr">
         <x:is>
-          <x:t>23/8066</x:t>
+          <x:t>23/8064</x:t>
         </x:is>
       </x:c>
       <x:c r="B175" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C175" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F175" t="inlineStr">
@@ -5288,24 +5300,24 @@
       </x:c>
       <x:c r="G175" t="inlineStr">
         <x:is>
-          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
+          <x:t>GRUPO FIDSOFT S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="176">
       <x:c r="A176" t="inlineStr">
         <x:is>
-          <x:t>23/8067</x:t>
+          <x:t>23/8065</x:t>
         </x:is>
       </x:c>
       <x:c r="B176" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C176" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F176" t="inlineStr">
@@ -5315,14 +5327,14 @@
       </x:c>
       <x:c r="G176" t="inlineStr">
         <x:is>
-          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
+          <x:t>GRUPO FIDSOFT S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="177">
       <x:c r="A177" t="inlineStr">
         <x:is>
-          <x:t>23/8068</x:t>
+          <x:t>23/8066</x:t>
         </x:is>
       </x:c>
       <x:c r="B177" t="inlineStr">
@@ -5349,17 +5361,17 @@
     <x:row r="178">
       <x:c r="A178" t="inlineStr">
         <x:is>
-          <x:t>23/8069</x:t>
+          <x:t>23/8067</x:t>
         </x:is>
       </x:c>
       <x:c r="B178" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C178" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F178" t="inlineStr">
@@ -5376,17 +5388,17 @@
     <x:row r="179">
       <x:c r="A179" t="inlineStr">
         <x:is>
-          <x:t>23/8070</x:t>
+          <x:t>23/8068</x:t>
         </x:is>
       </x:c>
       <x:c r="B179" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C179" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F179" t="inlineStr">
@@ -5403,17 +5415,17 @@
     <x:row r="180">
       <x:c r="A180" t="inlineStr">
         <x:is>
-          <x:t>23/8071</x:t>
+          <x:t>23/8069</x:t>
         </x:is>
       </x:c>
       <x:c r="B180" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C180" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F180" t="inlineStr">
@@ -5430,17 +5442,17 @@
     <x:row r="181">
       <x:c r="A181" t="inlineStr">
         <x:is>
-          <x:t>23/8072</x:t>
+          <x:t>23/8070</x:t>
         </x:is>
       </x:c>
       <x:c r="B181" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C181" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F181" t="inlineStr">
@@ -5457,17 +5469,17 @@
     <x:row r="182">
       <x:c r="A182" t="inlineStr">
         <x:is>
-          <x:t>23/8073</x:t>
+          <x:t>23/8071</x:t>
         </x:is>
       </x:c>
       <x:c r="B182" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C182" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F182" t="inlineStr">
@@ -5484,17 +5496,17 @@
     <x:row r="183">
       <x:c r="A183" t="inlineStr">
         <x:is>
-          <x:t>23/8076</x:t>
+          <x:t>23/8072</x:t>
         </x:is>
       </x:c>
       <x:c r="B183" t="inlineStr">
         <x:is>
-          <x:t>AFDA0511</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C183" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F183" t="inlineStr">
@@ -5504,24 +5516,24 @@
       </x:c>
       <x:c r="G183" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
+          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="184">
       <x:c r="A184" t="inlineStr">
         <x:is>
-          <x:t>23/8077</x:t>
+          <x:t>23/8073</x:t>
         </x:is>
       </x:c>
       <x:c r="B184" t="inlineStr">
         <x:is>
-          <x:t>AFDP0209</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C184" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F184" t="inlineStr">
@@ -5531,24 +5543,24 @@
       </x:c>
       <x:c r="G184" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
+          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="185">
       <x:c r="A185" t="inlineStr">
         <x:is>
-          <x:t>23/8078</x:t>
+          <x:t>23/8076</x:t>
         </x:is>
       </x:c>
       <x:c r="B185" t="inlineStr">
         <x:is>
-          <x:t>AFDP0209</x:t>
+          <x:t>AFDA0511</x:t>
         </x:is>
       </x:c>
       <x:c r="C185" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
+          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F185" t="inlineStr">
@@ -5565,17 +5577,17 @@
     <x:row r="186">
       <x:c r="A186" t="inlineStr">
         <x:is>
-          <x:t>23/8079</x:t>
+          <x:t>23/8077</x:t>
         </x:is>
       </x:c>
       <x:c r="B186" t="inlineStr">
         <x:is>
-          <x:t>IMSV0208</x:t>
+          <x:t>AFDP0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C186" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
+          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F186" t="inlineStr">
@@ -5592,17 +5604,17 @@
     <x:row r="187">
       <x:c r="A187" t="inlineStr">
         <x:is>
-          <x:t>23/8080</x:t>
+          <x:t>23/8078</x:t>
         </x:is>
       </x:c>
       <x:c r="B187" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>AFDP0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C187" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F187" t="inlineStr">
@@ -5619,17 +5631,17 @@
     <x:row r="188">
       <x:c r="A188" t="inlineStr">
         <x:is>
-          <x:t>23/8081</x:t>
+          <x:t>23/8079</x:t>
         </x:is>
       </x:c>
       <x:c r="B188" t="inlineStr">
         <x:is>
-          <x:t>AFDA0210</x:t>
+          <x:t>IMSV0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C188" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F188" t="inlineStr">
@@ -5646,17 +5658,17 @@
     <x:row r="189">
       <x:c r="A189" t="inlineStr">
         <x:is>
-          <x:t>23/8082</x:t>
+          <x:t>23/8080</x:t>
         </x:is>
       </x:c>
       <x:c r="B189" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C189" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F189" t="inlineStr">
@@ -5666,24 +5678,24 @@
       </x:c>
       <x:c r="G189" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPA SL</x:t>
+          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="190">
       <x:c r="A190" t="inlineStr">
         <x:is>
-          <x:t>23/8083</x:t>
+          <x:t>23/8081</x:t>
         </x:is>
       </x:c>
       <x:c r="B190" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>AFDA0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C190" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F190" t="inlineStr">
@@ -5693,24 +5705,24 @@
       </x:c>
       <x:c r="G190" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPA SL</x:t>
+          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="191">
       <x:c r="A191" t="inlineStr">
         <x:is>
-          <x:t>23/8084</x:t>
+          <x:t>23/8082</x:t>
         </x:is>
       </x:c>
       <x:c r="B191" t="inlineStr">
         <x:is>
-          <x:t>SEAD0212</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C191" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F191" t="inlineStr">
@@ -5727,7 +5739,7 @@
     <x:row r="192">
       <x:c r="A192" t="inlineStr">
         <x:is>
-          <x:t>23/8085</x:t>
+          <x:t>23/8083</x:t>
         </x:is>
       </x:c>
       <x:c r="B192" t="inlineStr">
@@ -5754,7 +5766,7 @@
     <x:row r="193">
       <x:c r="A193" t="inlineStr">
         <x:is>
-          <x:t>23/8086</x:t>
+          <x:t>23/8084</x:t>
         </x:is>
       </x:c>
       <x:c r="B193" t="inlineStr">
@@ -5781,7 +5793,7 @@
     <x:row r="194">
       <x:c r="A194" t="inlineStr">
         <x:is>
-          <x:t>23/8087</x:t>
+          <x:t>23/8085</x:t>
         </x:is>
       </x:c>
       <x:c r="B194" t="inlineStr">
@@ -5808,17 +5820,17 @@
     <x:row r="195">
       <x:c r="A195" t="inlineStr">
         <x:is>
-          <x:t>23/8090</x:t>
+          <x:t>23/8086</x:t>
         </x:is>
       </x:c>
       <x:c r="B195" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>SEAD0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C195" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F195" t="inlineStr">
@@ -5828,24 +5840,24 @@
       </x:c>
       <x:c r="G195" t="inlineStr">
         <x:is>
-          <x:t>ALBORAN FORMACION, S.L.</x:t>
+          <x:t>INSTITUTO EUROPA SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="196">
       <x:c r="A196" t="inlineStr">
         <x:is>
-          <x:t>23/8092</x:t>
+          <x:t>23/8087</x:t>
         </x:is>
       </x:c>
       <x:c r="B196" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C196" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F196" t="inlineStr">
@@ -5855,24 +5867,24 @@
       </x:c>
       <x:c r="G196" t="inlineStr">
         <x:is>
-          <x:t>ALBORAN FORMACION, S.L.</x:t>
+          <x:t>INSTITUTO EUROPA SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="197">
       <x:c r="A197" t="inlineStr">
         <x:is>
-          <x:t>23/8093</x:t>
+          <x:t>23/8090</x:t>
         </x:is>
       </x:c>
       <x:c r="B197" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C197" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F197" t="inlineStr">
@@ -5889,17 +5901,17 @@
     <x:row r="198">
       <x:c r="A198" t="inlineStr">
         <x:is>
-          <x:t>23/8094</x:t>
+          <x:t>23/8092</x:t>
         </x:is>
       </x:c>
       <x:c r="B198" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C198" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F198" t="inlineStr">
@@ -5916,17 +5928,17 @@
     <x:row r="199">
       <x:c r="A199" t="inlineStr">
         <x:is>
-          <x:t>23/8104</x:t>
+          <x:t>23/8093</x:t>
         </x:is>
       </x:c>
       <x:c r="B199" t="inlineStr">
         <x:is>
-          <x:t>AFDA0210</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C199" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F199" t="inlineStr">
@@ -5936,24 +5948,24 @@
       </x:c>
       <x:c r="G199" t="inlineStr">
         <x:is>
-          <x:t>DATA CONTROL FORMACION, SL</x:t>
+          <x:t>ALBORAN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="200">
       <x:c r="A200" t="inlineStr">
         <x:is>
-          <x:t>23/8105</x:t>
+          <x:t>23/8094</x:t>
         </x:is>
       </x:c>
       <x:c r="B200" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C200" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F200" t="inlineStr">
@@ -5963,24 +5975,24 @@
       </x:c>
       <x:c r="G200" t="inlineStr">
         <x:is>
-          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
+          <x:t>ALBORAN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="201">
       <x:c r="A201" t="inlineStr">
         <x:is>
-          <x:t>23/8106</x:t>
+          <x:t>23/8104</x:t>
         </x:is>
       </x:c>
       <x:c r="B201" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>AFDA0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C201" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F201" t="inlineStr">
@@ -5990,24 +6002,24 @@
       </x:c>
       <x:c r="G201" t="inlineStr">
         <x:is>
-          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
+          <x:t>DATA CONTROL FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="202">
       <x:c r="A202" t="inlineStr">
         <x:is>
-          <x:t>23/8107</x:t>
+          <x:t>23/8105</x:t>
         </x:is>
       </x:c>
       <x:c r="B202" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C202" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F202" t="inlineStr">
@@ -6024,17 +6036,17 @@
     <x:row r="203">
       <x:c r="A203" t="inlineStr">
         <x:is>
-          <x:t>23/8108</x:t>
+          <x:t>23/8106</x:t>
         </x:is>
       </x:c>
       <x:c r="B203" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C203" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F203" t="inlineStr">
@@ -6051,17 +6063,17 @@
     <x:row r="204">
       <x:c r="A204" t="inlineStr">
         <x:is>
-          <x:t>23/8109</x:t>
+          <x:t>23/8107</x:t>
         </x:is>
       </x:c>
       <x:c r="B204" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C204" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F204" t="inlineStr">
@@ -6078,17 +6090,17 @@
     <x:row r="205">
       <x:c r="A205" t="inlineStr">
         <x:is>
-          <x:t>23/8110</x:t>
+          <x:t>23/8108</x:t>
         </x:is>
       </x:c>
       <x:c r="B205" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C205" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F205" t="inlineStr">
@@ -6105,17 +6117,17 @@
     <x:row r="206">
       <x:c r="A206" t="inlineStr">
         <x:is>
-          <x:t>23/8111</x:t>
+          <x:t>23/8109</x:t>
         </x:is>
       </x:c>
       <x:c r="B206" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C206" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F206" t="inlineStr">
@@ -6132,17 +6144,17 @@
     <x:row r="207">
       <x:c r="A207" t="inlineStr">
         <x:is>
-          <x:t>23/8112</x:t>
+          <x:t>23/8110</x:t>
         </x:is>
       </x:c>
       <x:c r="B207" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C207" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F207" t="inlineStr">
@@ -6159,7 +6171,7 @@
     <x:row r="208">
       <x:c r="A208" t="inlineStr">
         <x:is>
-          <x:t>23/8113</x:t>
+          <x:t>23/8111</x:t>
         </x:is>
       </x:c>
       <x:c r="B208" t="inlineStr">
@@ -6179,24 +6191,24 @@
       </x:c>
       <x:c r="G208" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
+          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="209">
       <x:c r="A209" t="inlineStr">
         <x:is>
-          <x:t>23/8114</x:t>
+          <x:t>23/8112</x:t>
         </x:is>
       </x:c>
       <x:c r="B209" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C209" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F209" t="inlineStr">
@@ -6206,24 +6218,24 @@
       </x:c>
       <x:c r="G209" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
+          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="210">
       <x:c r="A210" t="inlineStr">
         <x:is>
-          <x:t>23/8115</x:t>
+          <x:t>23/8113</x:t>
         </x:is>
       </x:c>
       <x:c r="B210" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C210" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F210" t="inlineStr">
@@ -6240,17 +6252,17 @@
     <x:row r="211">
       <x:c r="A211" t="inlineStr">
         <x:is>
-          <x:t>23/8116</x:t>
+          <x:t>23/8114</x:t>
         </x:is>
       </x:c>
       <x:c r="B211" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C211" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F211" t="inlineStr">
@@ -6267,17 +6279,17 @@
     <x:row r="212">
       <x:c r="A212" t="inlineStr">
         <x:is>
-          <x:t>23/8117</x:t>
+          <x:t>23/8115</x:t>
         </x:is>
       </x:c>
       <x:c r="B212" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C212" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F212" t="inlineStr">
@@ -6294,17 +6306,17 @@
     <x:row r="213">
       <x:c r="A213" t="inlineStr">
         <x:is>
-          <x:t>23/8118</x:t>
+          <x:t>23/8116</x:t>
         </x:is>
       </x:c>
       <x:c r="B213" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C213" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F213" t="inlineStr">
@@ -6321,7 +6333,7 @@
     <x:row r="214">
       <x:c r="A214" t="inlineStr">
         <x:is>
-          <x:t>23/8119</x:t>
+          <x:t>23/8117</x:t>
         </x:is>
       </x:c>
       <x:c r="B214" t="inlineStr">
@@ -6348,17 +6360,17 @@
     <x:row r="215">
       <x:c r="A215" t="inlineStr">
         <x:is>
-          <x:t>23/8120</x:t>
+          <x:t>23/8118</x:t>
         </x:is>
       </x:c>
       <x:c r="B215" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C215" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F215" t="inlineStr">
@@ -6375,17 +6387,17 @@
     <x:row r="216">
       <x:c r="A216" t="inlineStr">
         <x:is>
-          <x:t>23/8124</x:t>
+          <x:t>23/8119</x:t>
         </x:is>
       </x:c>
       <x:c r="B216" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C216" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F216" t="inlineStr">
@@ -6395,24 +6407,24 @@
       </x:c>
       <x:c r="G216" t="inlineStr">
         <x:is>
-          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
+          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="217">
       <x:c r="A217" t="inlineStr">
         <x:is>
-          <x:t>23/8125</x:t>
+          <x:t>23/8120</x:t>
         </x:is>
       </x:c>
       <x:c r="B217" t="inlineStr">
         <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C217" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F217" t="inlineStr">
@@ -6422,24 +6434,24 @@
       </x:c>
       <x:c r="G217" t="inlineStr">
         <x:is>
-          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
+          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="218">
       <x:c r="A218" t="inlineStr">
         <x:is>
-          <x:t>23/8126</x:t>
+          <x:t>23/8124</x:t>
         </x:is>
       </x:c>
       <x:c r="B218" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C218" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F218" t="inlineStr">
@@ -6456,17 +6468,17 @@
     <x:row r="219">
       <x:c r="A219" t="inlineStr">
         <x:is>
-          <x:t>23/8127</x:t>
+          <x:t>23/8125</x:t>
         </x:is>
       </x:c>
       <x:c r="B219" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C219" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F219" t="inlineStr">
@@ -6483,17 +6495,17 @@
     <x:row r="220">
       <x:c r="A220" t="inlineStr">
         <x:is>
-          <x:t>23/8128</x:t>
+          <x:t>23/8126</x:t>
         </x:is>
       </x:c>
       <x:c r="B220" t="inlineStr">
         <x:is>
-          <x:t>IFCT0409</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C220" t="inlineStr">
         <x:is>
-          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS EN SISTEMAS DOMÓTICOS /INMÓTICOS, DE CONTROL DE ACCESOS Y PRESENCIA Y DE VIDEOVIGILANCIA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F220" t="inlineStr">
@@ -6510,17 +6522,17 @@
     <x:row r="221">
       <x:c r="A221" t="inlineStr">
         <x:is>
-          <x:t>23/8129</x:t>
+          <x:t>23/8127</x:t>
         </x:is>
       </x:c>
       <x:c r="B221" t="inlineStr">
         <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C221" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F221" t="inlineStr">
@@ -6537,17 +6549,17 @@
     <x:row r="222">
       <x:c r="A222" t="inlineStr">
         <x:is>
-          <x:t>23/8130</x:t>
+          <x:t>23/8128</x:t>
         </x:is>
       </x:c>
       <x:c r="B222" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>IFCT0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C222" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS EN SISTEMAS DOMÓTICOS /INMÓTICOS, DE CONTROL DE ACCESOS Y PRESENCIA Y DE VIDEOVIGILANCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F222" t="inlineStr">
@@ -6564,17 +6576,17 @@
     <x:row r="223">
       <x:c r="A223" t="inlineStr">
         <x:is>
-          <x:t>23/8131</x:t>
+          <x:t>23/8129</x:t>
         </x:is>
       </x:c>
       <x:c r="B223" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C223" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F223" t="inlineStr">
@@ -6591,17 +6603,17 @@
     <x:row r="224">
       <x:c r="A224" t="inlineStr">
         <x:is>
-          <x:t>23/8132</x:t>
+          <x:t>23/8130</x:t>
         </x:is>
       </x:c>
       <x:c r="B224" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C224" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F224" t="inlineStr">
@@ -6611,24 +6623,24 @@
       </x:c>
       <x:c r="G224" t="inlineStr">
         <x:is>
-          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
+          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="225">
       <x:c r="A225" t="inlineStr">
         <x:is>
-          <x:t>23/8133</x:t>
+          <x:t>23/8131</x:t>
         </x:is>
       </x:c>
       <x:c r="B225" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C225" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F225" t="inlineStr">
@@ -6638,24 +6650,24 @@
       </x:c>
       <x:c r="G225" t="inlineStr">
         <x:is>
-          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
+          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="226">
       <x:c r="A226" t="inlineStr">
         <x:is>
-          <x:t>23/8134</x:t>
+          <x:t>23/8132</x:t>
         </x:is>
       </x:c>
       <x:c r="B226" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C226" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F226" t="inlineStr">
@@ -6672,17 +6684,17 @@
     <x:row r="227">
       <x:c r="A227" t="inlineStr">
         <x:is>
-          <x:t>23/8135</x:t>
+          <x:t>23/8133</x:t>
         </x:is>
       </x:c>
       <x:c r="B227" t="inlineStr">
         <x:is>
-          <x:t>SSCB0110</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C227" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN, PROGRAMACIÓN Y DESARROLLO DE ACCIONES CULTURALES</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F227" t="inlineStr">
@@ -6699,17 +6711,17 @@
     <x:row r="228">
       <x:c r="A228" t="inlineStr">
         <x:is>
-          <x:t>23/8136</x:t>
+          <x:t>23/8134</x:t>
         </x:is>
       </x:c>
       <x:c r="B228" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C228" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F228" t="inlineStr">
@@ -6726,17 +6738,17 @@
     <x:row r="229">
       <x:c r="A229" t="inlineStr">
         <x:is>
-          <x:t>23/8137</x:t>
+          <x:t>23/8135</x:t>
         </x:is>
       </x:c>
       <x:c r="B229" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>SSCB0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C229" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>DINAMIZACIÓN, PROGRAMACIÓN Y DESARROLLO DE ACCIONES CULTURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F229" t="inlineStr">
@@ -6746,24 +6758,24 @@
       </x:c>
       <x:c r="G229" t="inlineStr">
         <x:is>
-          <x:t>GRADO INFORMATICA Y GESTION SL</x:t>
+          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="230">
       <x:c r="A230" t="inlineStr">
         <x:is>
-          <x:t>23/8138</x:t>
+          <x:t>23/8136</x:t>
         </x:is>
       </x:c>
       <x:c r="B230" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C230" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F230" t="inlineStr">
@@ -6773,24 +6785,24 @@
       </x:c>
       <x:c r="G230" t="inlineStr">
         <x:is>
-          <x:t>NASCOR FORMACION SLU</x:t>
+          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="231">
       <x:c r="A231" t="inlineStr">
         <x:is>
-          <x:t>23/8139</x:t>
+          <x:t>23/8137</x:t>
         </x:is>
       </x:c>
       <x:c r="B231" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C231" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F231" t="inlineStr">
@@ -6800,24 +6812,24 @@
       </x:c>
       <x:c r="G231" t="inlineStr">
         <x:is>
-          <x:t>NASCOR FORMACION SLU</x:t>
+          <x:t>GRADO INFORMATICA Y GESTION SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="232">
       <x:c r="A232" t="inlineStr">
         <x:is>
-          <x:t>23/8140</x:t>
+          <x:t>23/8138</x:t>
         </x:is>
       </x:c>
       <x:c r="B232" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C232" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F232" t="inlineStr">
@@ -6834,17 +6846,17 @@
     <x:row r="233">
       <x:c r="A233" t="inlineStr">
         <x:is>
-          <x:t>23/8141</x:t>
+          <x:t>23/8139</x:t>
         </x:is>
       </x:c>
       <x:c r="B233" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C233" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F233" t="inlineStr">
@@ -6861,17 +6873,17 @@
     <x:row r="234">
       <x:c r="A234" t="inlineStr">
         <x:is>
-          <x:t>23/8142</x:t>
+          <x:t>23/8140</x:t>
         </x:is>
       </x:c>
       <x:c r="B234" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C234" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F234" t="inlineStr">
@@ -6888,17 +6900,17 @@
     <x:row r="235">
       <x:c r="A235" t="inlineStr">
         <x:is>
-          <x:t>23/8143</x:t>
+          <x:t>23/8141</x:t>
         </x:is>
       </x:c>
       <x:c r="B235" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C235" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F235" t="inlineStr">
@@ -6915,17 +6927,17 @@
     <x:row r="236">
       <x:c r="A236" t="inlineStr">
         <x:is>
-          <x:t>23/8144</x:t>
+          <x:t>23/8142</x:t>
         </x:is>
       </x:c>
       <x:c r="B236" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C236" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F236" t="inlineStr">
@@ -6942,17 +6954,17 @@
     <x:row r="237">
       <x:c r="A237" t="inlineStr">
         <x:is>
-          <x:t>23/8145</x:t>
+          <x:t>23/8143</x:t>
         </x:is>
       </x:c>
       <x:c r="B237" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C237" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F237" t="inlineStr">
@@ -6969,17 +6981,17 @@
     <x:row r="238">
       <x:c r="A238" t="inlineStr">
         <x:is>
-          <x:t>23/8148</x:t>
+          <x:t>23/8144</x:t>
         </x:is>
       </x:c>
       <x:c r="B238" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C238" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F238" t="inlineStr">
@@ -6989,29 +7001,24 @@
       </x:c>
       <x:c r="G238" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION AMBIENTAL DE ASTURIAS, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H238" t="inlineStr">
-        <x:is>
-          <x:t>Getafe</x:t>
+          <x:t>NASCOR FORMACION SLU</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="239">
       <x:c r="A239" t="inlineStr">
         <x:is>
-          <x:t>23/8150</x:t>
+          <x:t>23/8145</x:t>
         </x:is>
       </x:c>
       <x:c r="B239" t="inlineStr">
         <x:is>
-          <x:t>TMVO0212</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C239" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A PASAJEROS, TRIPULACIONES, AERONAVES Y MERCANCÍAS EN AEROPUERTOS</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F239" t="inlineStr">
@@ -7021,29 +7028,24 @@
       </x:c>
       <x:c r="G239" t="inlineStr">
         <x:is>
-          <x:t>PROYECTAEMPLEO S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H239" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>NASCOR FORMACION SLU</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="240">
       <x:c r="A240" t="inlineStr">
         <x:is>
-          <x:t>23/8151</x:t>
+          <x:t>23/8148</x:t>
         </x:is>
       </x:c>
       <x:c r="B240" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C240" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F240" t="inlineStr">
@@ -7053,24 +7055,29 @@
       </x:c>
       <x:c r="G240" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>CENTRO DE FORMACION AMBIENTAL DE ASTURIAS, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H240" t="inlineStr">
+        <x:is>
+          <x:t>Getafe</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="241">
       <x:c r="A241" t="inlineStr">
         <x:is>
-          <x:t>23/8152</x:t>
+          <x:t>23/8150</x:t>
         </x:is>
       </x:c>
       <x:c r="B241" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>TMVO0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C241" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ASISTENCIA A PASAJEROS, TRIPULACIONES, AERONAVES Y MERCANCÍAS EN AEROPUERTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F241" t="inlineStr">
@@ -7080,24 +7087,29 @@
       </x:c>
       <x:c r="G241" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>PROYECTAEMPLEO S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H241" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="242">
       <x:c r="A242" t="inlineStr">
         <x:is>
-          <x:t>23/8153</x:t>
+          <x:t>23/8151</x:t>
         </x:is>
       </x:c>
       <x:c r="B242" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C242" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F242" t="inlineStr">
@@ -7114,17 +7126,17 @@
     <x:row r="243">
       <x:c r="A243" t="inlineStr">
         <x:is>
-          <x:t>23/8155</x:t>
+          <x:t>23/8152</x:t>
         </x:is>
       </x:c>
       <x:c r="B243" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C243" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F243" t="inlineStr">
@@ -7141,17 +7153,17 @@
     <x:row r="244">
       <x:c r="A244" t="inlineStr">
         <x:is>
-          <x:t>23/8156</x:t>
+          <x:t>23/8153</x:t>
         </x:is>
       </x:c>
       <x:c r="B244" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C244" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F244" t="inlineStr">
@@ -7168,17 +7180,17 @@
     <x:row r="245">
       <x:c r="A245" t="inlineStr">
         <x:is>
-          <x:t>23/8159</x:t>
+          <x:t>23/8155</x:t>
         </x:is>
       </x:c>
       <x:c r="B245" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C245" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F245" t="inlineStr">
@@ -7188,24 +7200,24 @@
       </x:c>
       <x:c r="G245" t="inlineStr">
         <x:is>
-          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="246">
       <x:c r="A246" t="inlineStr">
         <x:is>
-          <x:t>23/8160</x:t>
+          <x:t>23/8156</x:t>
         </x:is>
       </x:c>
       <x:c r="B246" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C246" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F246" t="inlineStr">
@@ -7215,24 +7227,24 @@
       </x:c>
       <x:c r="G246" t="inlineStr">
         <x:is>
-          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="247">
       <x:c r="A247" t="inlineStr">
         <x:is>
-          <x:t>23/8161</x:t>
+          <x:t>23/8159</x:t>
         </x:is>
       </x:c>
       <x:c r="B247" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C247" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F247" t="inlineStr">
@@ -7249,17 +7261,17 @@
     <x:row r="248">
       <x:c r="A248" t="inlineStr">
         <x:is>
-          <x:t>23/8162</x:t>
+          <x:t>23/8160</x:t>
         </x:is>
       </x:c>
       <x:c r="B248" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C248" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F248" t="inlineStr">
@@ -7276,17 +7288,17 @@
     <x:row r="249">
       <x:c r="A249" t="inlineStr">
         <x:is>
-          <x:t>23/8163</x:t>
+          <x:t>23/8161</x:t>
         </x:is>
       </x:c>
       <x:c r="B249" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C249" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F249" t="inlineStr">
@@ -7303,17 +7315,17 @@
     <x:row r="250">
       <x:c r="A250" t="inlineStr">
         <x:is>
-          <x:t>23/8164</x:t>
+          <x:t>23/8162</x:t>
         </x:is>
       </x:c>
       <x:c r="B250" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C250" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F250" t="inlineStr">
@@ -7330,17 +7342,17 @@
     <x:row r="251">
       <x:c r="A251" t="inlineStr">
         <x:is>
-          <x:t>23/8165</x:t>
+          <x:t>23/8163</x:t>
         </x:is>
       </x:c>
       <x:c r="B251" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C251" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F251" t="inlineStr">
@@ -7357,17 +7369,17 @@
     <x:row r="252">
       <x:c r="A252" t="inlineStr">
         <x:is>
-          <x:t>23/8166</x:t>
+          <x:t>23/8164</x:t>
         </x:is>
       </x:c>
       <x:c r="B252" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C252" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F252" t="inlineStr">
@@ -7384,17 +7396,17 @@
     <x:row r="253">
       <x:c r="A253" t="inlineStr">
         <x:is>
-          <x:t>23/8167</x:t>
+          <x:t>23/8165</x:t>
         </x:is>
       </x:c>
       <x:c r="B253" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C253" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F253" t="inlineStr">
@@ -7404,24 +7416,24 @@
       </x:c>
       <x:c r="G253" t="inlineStr">
         <x:is>
-          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
+          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="254">
       <x:c r="A254" t="inlineStr">
         <x:is>
-          <x:t>23/8168</x:t>
+          <x:t>23/8166</x:t>
         </x:is>
       </x:c>
       <x:c r="B254" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C254" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F254" t="inlineStr">
@@ -7431,24 +7443,24 @@
       </x:c>
       <x:c r="G254" t="inlineStr">
         <x:is>
-          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
+          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="255">
       <x:c r="A255" t="inlineStr">
         <x:is>
-          <x:t>23/8169</x:t>
+          <x:t>23/8167</x:t>
         </x:is>
       </x:c>
       <x:c r="B255" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C255" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F255" t="inlineStr">
@@ -7465,17 +7477,17 @@
     <x:row r="256">
       <x:c r="A256" t="inlineStr">
         <x:is>
-          <x:t>23/8170</x:t>
+          <x:t>23/8168</x:t>
         </x:is>
       </x:c>
       <x:c r="B256" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C256" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F256" t="inlineStr">
@@ -7485,24 +7497,24 @@
       </x:c>
       <x:c r="G256" t="inlineStr">
         <x:is>
-          <x:t>EDITORIAL TÉCNICA CIENTIFICA PRENSA HISPANOAMERICANA S.L</x:t>
+          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="257">
       <x:c r="A257" t="inlineStr">
         <x:is>
-          <x:t>23/8171</x:t>
+          <x:t>23/8169</x:t>
         </x:is>
       </x:c>
       <x:c r="B257" t="inlineStr">
         <x:is>
-          <x:t>TMVG0109</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C257" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F257" t="inlineStr">
@@ -7512,24 +7524,24 @@
       </x:c>
       <x:c r="G257" t="inlineStr">
         <x:is>
-          <x:t>CARS MAROBE S.L.</x:t>
+          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="258">
       <x:c r="A258" t="inlineStr">
         <x:is>
-          <x:t>23/8172</x:t>
+          <x:t>23/8170</x:t>
         </x:is>
       </x:c>
       <x:c r="B258" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C258" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F258" t="inlineStr">
@@ -7539,14 +7551,14 @@
       </x:c>
       <x:c r="G258" t="inlineStr">
         <x:is>
-          <x:t>CARS MAROBE S.L.</x:t>
+          <x:t>EDITORIAL TÉCNICA CIENTIFICA PRENSA HISPANOAMERICANA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="259">
       <x:c r="A259" t="inlineStr">
         <x:is>
-          <x:t>23/8173</x:t>
+          <x:t>23/8171</x:t>
         </x:is>
       </x:c>
       <x:c r="B259" t="inlineStr">
@@ -7573,17 +7585,17 @@
     <x:row r="260">
       <x:c r="A260" t="inlineStr">
         <x:is>
-          <x:t>23/8174</x:t>
+          <x:t>23/8172</x:t>
         </x:is>
       </x:c>
       <x:c r="B260" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C260" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="F260" t="inlineStr">
@@ -7593,24 +7605,24 @@
       </x:c>
       <x:c r="G260" t="inlineStr">
         <x:is>
-          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
+          <x:t>CARS MAROBE S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="261">
       <x:c r="A261" t="inlineStr">
         <x:is>
-          <x:t>23/8175</x:t>
+          <x:t>23/8173</x:t>
         </x:is>
       </x:c>
       <x:c r="B261" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>TMVG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C261" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F261" t="inlineStr">
@@ -7620,24 +7632,24 @@
       </x:c>
       <x:c r="G261" t="inlineStr">
         <x:is>
-          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
+          <x:t>CARS MAROBE S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="262">
       <x:c r="A262" t="inlineStr">
         <x:is>
-          <x:t>23/8176</x:t>
+          <x:t>23/8174</x:t>
         </x:is>
       </x:c>
       <x:c r="B262" t="inlineStr">
         <x:is>
-          <x:t>IFCT0309</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C262" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F262" t="inlineStr">
@@ -7654,7 +7666,7 @@
     <x:row r="263">
       <x:c r="A263" t="inlineStr">
         <x:is>
-          <x:t>23/8177</x:t>
+          <x:t>23/8175</x:t>
         </x:is>
       </x:c>
       <x:c r="B263" t="inlineStr">
@@ -7681,17 +7693,17 @@
     <x:row r="264">
       <x:c r="A264" t="inlineStr">
         <x:is>
-          <x:t>23/8178</x:t>
+          <x:t>23/8176</x:t>
         </x:is>
       </x:c>
       <x:c r="B264" t="inlineStr">
         <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>IFCT0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C264" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F264" t="inlineStr">
@@ -7701,29 +7713,24 @@
       </x:c>
       <x:c r="G264" t="inlineStr">
         <x:is>
-          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H264" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="265">
       <x:c r="A265" t="inlineStr">
         <x:is>
-          <x:t>23/8179</x:t>
+          <x:t>23/8177</x:t>
         </x:is>
       </x:c>
       <x:c r="B265" t="inlineStr">
         <x:is>
-          <x:t>IMSV0208</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C265" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F265" t="inlineStr">
@@ -7733,29 +7740,24 @@
       </x:c>
       <x:c r="G265" t="inlineStr">
         <x:is>
-          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H265" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="266">
       <x:c r="A266" t="inlineStr">
         <x:is>
-          <x:t>23/8180</x:t>
+          <x:t>23/8178</x:t>
         </x:is>
       </x:c>
       <x:c r="B266" t="inlineStr">
         <x:is>
-          <x:t>IMSV0408</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C266" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA DIRECCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F266" t="inlineStr">
@@ -7777,17 +7779,17 @@
     <x:row r="267">
       <x:c r="A267" t="inlineStr">
         <x:is>
-          <x:t>23/8182</x:t>
+          <x:t>23/8179</x:t>
         </x:is>
       </x:c>
       <x:c r="B267" t="inlineStr">
         <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>IMSV0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C267" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F267" t="inlineStr">
@@ -7809,17 +7811,17 @@
     <x:row r="268">
       <x:c r="A268" t="inlineStr">
         <x:is>
-          <x:t>23/8183</x:t>
+          <x:t>23/8180</x:t>
         </x:is>
       </x:c>
       <x:c r="B268" t="inlineStr">
         <x:is>
-          <x:t>IMSV0109</x:t>
+          <x:t>IMSV0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C268" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA DIRECCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F268" t="inlineStr">
@@ -7841,17 +7843,17 @@
     <x:row r="269">
       <x:c r="A269" t="inlineStr">
         <x:is>
-          <x:t>23/8185</x:t>
+          <x:t>23/8182</x:t>
         </x:is>
       </x:c>
       <x:c r="B269" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C269" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F269" t="inlineStr">
@@ -7861,24 +7863,29 @@
       </x:c>
       <x:c r="G269" t="inlineStr">
         <x:is>
-          <x:t>MOSFRIN S.L.</x:t>
+          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H269" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="270">
       <x:c r="A270" t="inlineStr">
         <x:is>
-          <x:t>23/8186</x:t>
+          <x:t>23/8183</x:t>
         </x:is>
       </x:c>
       <x:c r="B270" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>IMSV0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C270" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F270" t="inlineStr">
@@ -7888,24 +7895,29 @@
       </x:c>
       <x:c r="G270" t="inlineStr">
         <x:is>
-          <x:t>MOSFRIN S.L.</x:t>
+          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H270" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="271">
       <x:c r="A271" t="inlineStr">
         <x:is>
-          <x:t>23/8187</x:t>
+          <x:t>23/8185</x:t>
         </x:is>
       </x:c>
       <x:c r="B271" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C271" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F271" t="inlineStr">
@@ -7922,17 +7934,17 @@
     <x:row r="272">
       <x:c r="A272" t="inlineStr">
         <x:is>
-          <x:t>23/8188</x:t>
+          <x:t>23/8186</x:t>
         </x:is>
       </x:c>
       <x:c r="B272" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C272" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F272" t="inlineStr">
@@ -7949,17 +7961,17 @@
     <x:row r="273">
       <x:c r="A273" t="inlineStr">
         <x:is>
-          <x:t>23/8189</x:t>
+          <x:t>23/8187</x:t>
         </x:is>
       </x:c>
       <x:c r="B273" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C273" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F273" t="inlineStr">
@@ -7976,7 +7988,7 @@
     <x:row r="274">
       <x:c r="A274" t="inlineStr">
         <x:is>
-          <x:t>23/8190</x:t>
+          <x:t>23/8188</x:t>
         </x:is>
       </x:c>
       <x:c r="B274" t="inlineStr">
@@ -8003,17 +8015,17 @@
     <x:row r="275">
       <x:c r="A275" t="inlineStr">
         <x:is>
-          <x:t>23/8191</x:t>
+          <x:t>23/8189</x:t>
         </x:is>
       </x:c>
       <x:c r="B275" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C275" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F275" t="inlineStr">
@@ -8030,17 +8042,17 @@
     <x:row r="276">
       <x:c r="A276" t="inlineStr">
         <x:is>
-          <x:t>23/8192</x:t>
+          <x:t>23/8190</x:t>
         </x:is>
       </x:c>
       <x:c r="B276" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C276" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F276" t="inlineStr">
@@ -8050,29 +8062,24 @@
       </x:c>
       <x:c r="G276" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H276" t="inlineStr">
-        <x:is>
-          <x:t>Alcorcón</x:t>
+          <x:t>MOSFRIN S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="277">
       <x:c r="A277" t="inlineStr">
         <x:is>
-          <x:t>23/8193</x:t>
+          <x:t>23/8191</x:t>
         </x:is>
       </x:c>
       <x:c r="B277" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0110</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C277" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F277" t="inlineStr">
@@ -8082,29 +8089,24 @@
       </x:c>
       <x:c r="G277" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H277" t="inlineStr">
-        <x:is>
-          <x:t>Alcorcón</x:t>
+          <x:t>MOSFRIN S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="278">
       <x:c r="A278" t="inlineStr">
         <x:is>
-          <x:t>23/8194</x:t>
+          <x:t>23/8192</x:t>
         </x:is>
       </x:c>
       <x:c r="B278" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C278" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F278" t="inlineStr">
@@ -8126,17 +8128,17 @@
     <x:row r="279">
       <x:c r="A279" t="inlineStr">
         <x:is>
-          <x:t>23/8195</x:t>
+          <x:t>23/8193</x:t>
         </x:is>
       </x:c>
       <x:c r="B279" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>AGAJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C279" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F279" t="inlineStr">
@@ -8158,17 +8160,17 @@
     <x:row r="280">
       <x:c r="A280" t="inlineStr">
         <x:is>
-          <x:t>23/8196</x:t>
+          <x:t>23/8194</x:t>
         </x:is>
       </x:c>
       <x:c r="B280" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0110</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C280" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F280" t="inlineStr">
@@ -8190,17 +8192,17 @@
     <x:row r="281">
       <x:c r="A281" t="inlineStr">
         <x:is>
-          <x:t>23/8197</x:t>
+          <x:t>23/8195</x:t>
         </x:is>
       </x:c>
       <x:c r="B281" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C281" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F281" t="inlineStr">
@@ -8222,17 +8224,17 @@
     <x:row r="282">
       <x:c r="A282" t="inlineStr">
         <x:is>
-          <x:t>23/8198</x:t>
+          <x:t>23/8196</x:t>
         </x:is>
       </x:c>
       <x:c r="B282" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0108</x:t>
+          <x:t>AGAJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C282" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE PELUQUERÍA</x:t>
+          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F282" t="inlineStr">
@@ -8254,7 +8256,7 @@
     <x:row r="283">
       <x:c r="A283" t="inlineStr">
         <x:is>
-          <x:t>23/8199</x:t>
+          <x:t>23/8197</x:t>
         </x:is>
       </x:c>
       <x:c r="B283" t="inlineStr">
@@ -8286,17 +8288,17 @@
     <x:row r="284">
       <x:c r="A284" t="inlineStr">
         <x:is>
-          <x:t>23/8200</x:t>
+          <x:t>23/8198</x:t>
         </x:is>
       </x:c>
       <x:c r="B284" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>IMPQ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C284" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>SERVICIOS AUXILIARES DE PELUQUERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F284" t="inlineStr">
@@ -8318,17 +8320,17 @@
     <x:row r="285">
       <x:c r="A285" t="inlineStr">
         <x:is>
-          <x:t>23/8201</x:t>
+          <x:t>23/8199</x:t>
         </x:is>
       </x:c>
       <x:c r="B285" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C285" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F285" t="inlineStr">
@@ -8338,24 +8340,29 @@
       </x:c>
       <x:c r="G285" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H285" t="inlineStr">
+        <x:is>
+          <x:t>Alcorcón</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="286">
       <x:c r="A286" t="inlineStr">
         <x:is>
-          <x:t>23/8202</x:t>
+          <x:t>23/8200</x:t>
         </x:is>
       </x:c>
       <x:c r="B286" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C286" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F286" t="inlineStr">
@@ -8365,24 +8372,29 @@
       </x:c>
       <x:c r="G286" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H286" t="inlineStr">
+        <x:is>
+          <x:t>Alcorcón</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="287">
       <x:c r="A287" t="inlineStr">
         <x:is>
-          <x:t>23/8203</x:t>
+          <x:t>23/8201</x:t>
         </x:is>
       </x:c>
       <x:c r="B287" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C287" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F287" t="inlineStr">
@@ -8399,7 +8411,7 @@
     <x:row r="288">
       <x:c r="A288" t="inlineStr">
         <x:is>
-          <x:t>23/8204</x:t>
+          <x:t>23/8202</x:t>
         </x:is>
       </x:c>
       <x:c r="B288" t="inlineStr">
@@ -8426,17 +8438,17 @@
     <x:row r="289">
       <x:c r="A289" t="inlineStr">
         <x:is>
-          <x:t>23/8205</x:t>
+          <x:t>23/8203</x:t>
         </x:is>
       </x:c>
       <x:c r="B289" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C289" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F289" t="inlineStr">
@@ -8453,17 +8465,17 @@
     <x:row r="290">
       <x:c r="A290" t="inlineStr">
         <x:is>
-          <x:t>23/8206</x:t>
+          <x:t>23/8204</x:t>
         </x:is>
       </x:c>
       <x:c r="B290" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C290" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F290" t="inlineStr">
@@ -8480,17 +8492,17 @@
     <x:row r="291">
       <x:c r="A291" t="inlineStr">
         <x:is>
-          <x:t>23/8207</x:t>
+          <x:t>23/8205</x:t>
         </x:is>
       </x:c>
       <x:c r="B291" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C291" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F291" t="inlineStr">
@@ -8507,17 +8519,17 @@
     <x:row r="292">
       <x:c r="A292" t="inlineStr">
         <x:is>
-          <x:t>23/8208</x:t>
+          <x:t>23/8206</x:t>
         </x:is>
       </x:c>
       <x:c r="B292" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C292" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F292" t="inlineStr">
@@ -8534,17 +8546,17 @@
     <x:row r="293">
       <x:c r="A293" t="inlineStr">
         <x:is>
-          <x:t>23/8209</x:t>
+          <x:t>23/8207</x:t>
         </x:is>
       </x:c>
       <x:c r="B293" t="inlineStr">
         <x:is>
-          <x:t>ELEE0108</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C293" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F293" t="inlineStr">
@@ -8554,24 +8566,24 @@
       </x:c>
       <x:c r="G293" t="inlineStr">
         <x:is>
-          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="294">
       <x:c r="A294" t="inlineStr">
         <x:is>
-          <x:t>23/8210</x:t>
+          <x:t>23/8208</x:t>
         </x:is>
       </x:c>
       <x:c r="B294" t="inlineStr">
         <x:is>
-          <x:t>ENAE0111</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C294" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F294" t="inlineStr">
@@ -8581,24 +8593,24 @@
       </x:c>
       <x:c r="G294" t="inlineStr">
         <x:is>
-          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="295">
       <x:c r="A295" t="inlineStr">
         <x:is>
-          <x:t>23/8211</x:t>
+          <x:t>23/8209</x:t>
         </x:is>
       </x:c>
       <x:c r="B295" t="inlineStr">
         <x:is>
-          <x:t>ENAE0208</x:t>
+          <x:t>ELEE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C295" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F295" t="inlineStr">
@@ -8615,17 +8627,17 @@
     <x:row r="296">
       <x:c r="A296" t="inlineStr">
         <x:is>
-          <x:t>23/8212</x:t>
+          <x:t>23/8210</x:t>
         </x:is>
       </x:c>
       <x:c r="B296" t="inlineStr">
         <x:is>
-          <x:t>ELEM0111</x:t>
+          <x:t>ENAE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C296" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
+          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F296" t="inlineStr">
@@ -8642,17 +8654,17 @@
     <x:row r="297">
       <x:c r="A297" t="inlineStr">
         <x:is>
-          <x:t>23/8213</x:t>
+          <x:t>23/8211</x:t>
         </x:is>
       </x:c>
       <x:c r="B297" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>ENAE0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C297" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F297" t="inlineStr">
@@ -8662,24 +8674,24 @@
       </x:c>
       <x:c r="G297" t="inlineStr">
         <x:is>
-          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
+          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="298">
       <x:c r="A298" t="inlineStr">
         <x:is>
-          <x:t>23/8214</x:t>
+          <x:t>23/8212</x:t>
         </x:is>
       </x:c>
       <x:c r="B298" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>ELEM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C298" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F298" t="inlineStr">
@@ -8689,24 +8701,24 @@
       </x:c>
       <x:c r="G298" t="inlineStr">
         <x:is>
-          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
+          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="299">
       <x:c r="A299" t="inlineStr">
         <x:is>
-          <x:t>23/8215</x:t>
+          <x:t>23/8213</x:t>
         </x:is>
       </x:c>
       <x:c r="B299" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C299" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F299" t="inlineStr">
@@ -8723,17 +8735,17 @@
     <x:row r="300">
       <x:c r="A300" t="inlineStr">
         <x:is>
-          <x:t>23/8216</x:t>
+          <x:t>23/8214</x:t>
         </x:is>
       </x:c>
       <x:c r="B300" t="inlineStr">
         <x:is>
-          <x:t>IMAI0108</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C300" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F300" t="inlineStr">
@@ -8750,17 +8762,17 @@
     <x:row r="301">
       <x:c r="A301" t="inlineStr">
         <x:is>
-          <x:t>23/8217</x:t>
+          <x:t>23/8215</x:t>
         </x:is>
       </x:c>
       <x:c r="B301" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C301" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F301" t="inlineStr">
@@ -8777,17 +8789,17 @@
     <x:row r="302">
       <x:c r="A302" t="inlineStr">
         <x:is>
-          <x:t>23/8218</x:t>
+          <x:t>23/8216</x:t>
         </x:is>
       </x:c>
       <x:c r="B302" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>IMAI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C302" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F302" t="inlineStr">
@@ -8804,7 +8816,7 @@
     <x:row r="303">
       <x:c r="A303" t="inlineStr">
         <x:is>
-          <x:t>23/8219</x:t>
+          <x:t>23/8217</x:t>
         </x:is>
       </x:c>
       <x:c r="B303" t="inlineStr">
@@ -8831,17 +8843,17 @@
     <x:row r="304">
       <x:c r="A304" t="inlineStr">
         <x:is>
-          <x:t>23/8220</x:t>
+          <x:t>23/8218</x:t>
         </x:is>
       </x:c>
       <x:c r="B304" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C304" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F304" t="inlineStr">
@@ -8858,17 +8870,17 @@
     <x:row r="305">
       <x:c r="A305" t="inlineStr">
         <x:is>
-          <x:t>23/8224</x:t>
+          <x:t>23/8219</x:t>
         </x:is>
       </x:c>
       <x:c r="B305" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C305" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F305" t="inlineStr">
@@ -8878,24 +8890,24 @@
       </x:c>
       <x:c r="G305" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="306">
       <x:c r="A306" t="inlineStr">
         <x:is>
-          <x:t>23/8225</x:t>
+          <x:t>23/8220</x:t>
         </x:is>
       </x:c>
       <x:c r="B306" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C306" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F306" t="inlineStr">
@@ -8905,14 +8917,14 @@
       </x:c>
       <x:c r="G306" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="307">
       <x:c r="A307" t="inlineStr">
         <x:is>
-          <x:t>23/8228</x:t>
+          <x:t>23/8224</x:t>
         </x:is>
       </x:c>
       <x:c r="B307" t="inlineStr">
@@ -8939,17 +8951,17 @@
     <x:row r="308">
       <x:c r="A308" t="inlineStr">
         <x:is>
-          <x:t>23/8229</x:t>
+          <x:t>23/8225</x:t>
         </x:is>
       </x:c>
       <x:c r="B308" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C308" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F308" t="inlineStr">
@@ -8959,24 +8971,24 @@
       </x:c>
       <x:c r="G308" t="inlineStr">
         <x:is>
-          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="309">
       <x:c r="A309" t="inlineStr">
         <x:is>
-          <x:t>23/8230</x:t>
+          <x:t>23/8228</x:t>
         </x:is>
       </x:c>
       <x:c r="B309" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C309" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F309" t="inlineStr">
@@ -8986,24 +8998,24 @@
       </x:c>
       <x:c r="G309" t="inlineStr">
         <x:is>
-          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="310">
       <x:c r="A310" t="inlineStr">
         <x:is>
-          <x:t>23/8231</x:t>
+          <x:t>23/8229</x:t>
         </x:is>
       </x:c>
       <x:c r="B310" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C310" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F310" t="inlineStr">
@@ -9020,17 +9032,17 @@
     <x:row r="311">
       <x:c r="A311" t="inlineStr">
         <x:is>
-          <x:t>23/8232</x:t>
+          <x:t>23/8230</x:t>
         </x:is>
       </x:c>
       <x:c r="B311" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C311" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F311" t="inlineStr">
@@ -9047,17 +9059,17 @@
     <x:row r="312">
       <x:c r="A312" t="inlineStr">
         <x:is>
-          <x:t>23/8233</x:t>
+          <x:t>23/8231</x:t>
         </x:is>
       </x:c>
       <x:c r="B312" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C312" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F312" t="inlineStr">
@@ -9074,17 +9086,17 @@
     <x:row r="313">
       <x:c r="A313" t="inlineStr">
         <x:is>
-          <x:t>23/8234</x:t>
+          <x:t>23/8232</x:t>
         </x:is>
       </x:c>
       <x:c r="B313" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C313" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F313" t="inlineStr">
@@ -9101,17 +9113,17 @@
     <x:row r="314">
       <x:c r="A314" t="inlineStr">
         <x:is>
-          <x:t>23/8235</x:t>
+          <x:t>23/8233</x:t>
         </x:is>
       </x:c>
       <x:c r="B314" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C314" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F314" t="inlineStr">
@@ -9128,17 +9140,17 @@
     <x:row r="315">
       <x:c r="A315" t="inlineStr">
         <x:is>
-          <x:t>23/8243</x:t>
+          <x:t>23/8234</x:t>
         </x:is>
       </x:c>
       <x:c r="B315" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C315" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F315" t="inlineStr">
@@ -9148,29 +9160,24 @@
       </x:c>
       <x:c r="G315" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H315" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="316">
       <x:c r="A316" t="inlineStr">
         <x:is>
-          <x:t>23/8246</x:t>
+          <x:t>23/8235</x:t>
         </x:is>
       </x:c>
       <x:c r="B316" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C316" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F316" t="inlineStr">
@@ -9180,24 +9187,24 @@
       </x:c>
       <x:c r="G316" t="inlineStr">
         <x:is>
-          <x:t>HEDIMA DN FORMACION, S.L.</x:t>
+          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="317">
       <x:c r="A317" t="inlineStr">
         <x:is>
-          <x:t>23/8247</x:t>
+          <x:t>23/8243</x:t>
         </x:is>
       </x:c>
       <x:c r="B317" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C317" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="F317" t="inlineStr">
@@ -9207,14 +9214,19 @@
       </x:c>
       <x:c r="G317" t="inlineStr">
         <x:is>
-          <x:t>HEDIMA DN FORMACION, S.L.</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H317" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="318">
       <x:c r="A318" t="inlineStr">
         <x:is>
-          <x:t>23/8248</x:t>
+          <x:t>23/8246</x:t>
         </x:is>
       </x:c>
       <x:c r="B318" t="inlineStr">
@@ -9241,17 +9253,17 @@
     <x:row r="319">
       <x:c r="A319" t="inlineStr">
         <x:is>
-          <x:t>23/8249</x:t>
+          <x:t>23/8247</x:t>
         </x:is>
       </x:c>
       <x:c r="B319" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C319" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F319" t="inlineStr">
@@ -9268,17 +9280,17 @@
     <x:row r="320">
       <x:c r="A320" t="inlineStr">
         <x:is>
-          <x:t>23/8250</x:t>
+          <x:t>23/8248</x:t>
         </x:is>
       </x:c>
       <x:c r="B320" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C320" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F320" t="inlineStr">
@@ -9288,24 +9300,24 @@
       </x:c>
       <x:c r="G320" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>HEDIMA DN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="321">
       <x:c r="A321" t="inlineStr">
         <x:is>
-          <x:t>23/8251</x:t>
+          <x:t>23/8249</x:t>
         </x:is>
       </x:c>
       <x:c r="B321" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C321" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F321" t="inlineStr">
@@ -9315,14 +9327,14 @@
       </x:c>
       <x:c r="G321" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>HEDIMA DN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="322">
       <x:c r="A322" t="inlineStr">
         <x:is>
-          <x:t>23/8252</x:t>
+          <x:t>23/8250</x:t>
         </x:is>
       </x:c>
       <x:c r="B322" t="inlineStr">
@@ -9349,7 +9361,7 @@
     <x:row r="323">
       <x:c r="A323" t="inlineStr">
         <x:is>
-          <x:t>23/8253</x:t>
+          <x:t>23/8251</x:t>
         </x:is>
       </x:c>
       <x:c r="B323" t="inlineStr">
@@ -9376,17 +9388,17 @@
     <x:row r="324">
       <x:c r="A324" t="inlineStr">
         <x:is>
-          <x:t>23/8254</x:t>
+          <x:t>23/8252</x:t>
         </x:is>
       </x:c>
       <x:c r="B324" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C324" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F324" t="inlineStr">
@@ -9403,17 +9415,17 @@
     <x:row r="325">
       <x:c r="A325" t="inlineStr">
         <x:is>
-          <x:t>23/8255</x:t>
+          <x:t>23/8253</x:t>
         </x:is>
       </x:c>
       <x:c r="B325" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C325" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F325" t="inlineStr">
@@ -9423,24 +9435,24 @@
       </x:c>
       <x:c r="G325" t="inlineStr">
         <x:is>
-          <x:t>AQUINUVE, SL</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="326">
       <x:c r="A326" t="inlineStr">
         <x:is>
-          <x:t>23/8256</x:t>
+          <x:t>23/8254</x:t>
         </x:is>
       </x:c>
       <x:c r="B326" t="inlineStr">
         <x:is>
-          <x:t>TMVL0409</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C326" t="inlineStr">
         <x:is>
-          <x:t>EMBELLECIMIENTO Y DECORACIÓN DE SUPERFICIES DE VEHÍCULOS</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F326" t="inlineStr">
@@ -9450,24 +9462,24 @@
       </x:c>
       <x:c r="G326" t="inlineStr">
         <x:is>
-          <x:t>AQUINUVE, SL</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="327">
       <x:c r="A327" t="inlineStr">
         <x:is>
-          <x:t>23/8257</x:t>
+          <x:t>23/8255</x:t>
         </x:is>
       </x:c>
       <x:c r="B327" t="inlineStr">
         <x:is>
-          <x:t>TMVL0109</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C327" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN CARROCERÍAS DE VEHÍCULOS</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="F327" t="inlineStr">
@@ -9484,17 +9496,17 @@
     <x:row r="328">
       <x:c r="A328" t="inlineStr">
         <x:is>
-          <x:t>23/8258</x:t>
+          <x:t>23/8256</x:t>
         </x:is>
       </x:c>
       <x:c r="B328" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>TMVL0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C328" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>EMBELLECIMIENTO Y DECORACIÓN DE SUPERFICIES DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F328" t="inlineStr">
@@ -9504,24 +9516,24 @@
       </x:c>
       <x:c r="G328" t="inlineStr">
         <x:is>
-          <x:t>ADALID SERVICIOS CORPORATIVOS SL</x:t>
+          <x:t>AQUINUVE, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="329">
       <x:c r="A329" t="inlineStr">
         <x:is>
-          <x:t>23/8259</x:t>
+          <x:t>23/8257</x:t>
         </x:is>
       </x:c>
       <x:c r="B329" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>TMVL0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C329" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN CARROCERÍAS DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F329" t="inlineStr">
@@ -9531,24 +9543,24 @@
       </x:c>
       <x:c r="G329" t="inlineStr">
         <x:is>
-          <x:t>ADALID SERVICIOS CORPORATIVOS SL</x:t>
+          <x:t>AQUINUVE, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="330">
       <x:c r="A330" t="inlineStr">
         <x:is>
-          <x:t>23/8260</x:t>
+          <x:t>23/8258</x:t>
         </x:is>
       </x:c>
       <x:c r="B330" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C330" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F330" t="inlineStr">
@@ -9565,17 +9577,17 @@
     <x:row r="331">
       <x:c r="A331" t="inlineStr">
         <x:is>
-          <x:t>23/8261</x:t>
+          <x:t>23/8259</x:t>
         </x:is>
       </x:c>
       <x:c r="B331" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C331" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F331" t="inlineStr">
@@ -9592,17 +9604,17 @@
     <x:row r="332">
       <x:c r="A332" t="inlineStr">
         <x:is>
-          <x:t>23/8262</x:t>
+          <x:t>23/8260</x:t>
         </x:is>
       </x:c>
       <x:c r="B332" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C332" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F332" t="inlineStr">
@@ -9619,17 +9631,17 @@
     <x:row r="333">
       <x:c r="A333" t="inlineStr">
         <x:is>
-          <x:t>23/8263</x:t>
+          <x:t>23/8261</x:t>
         </x:is>
       </x:c>
       <x:c r="B333" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C333" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F333" t="inlineStr">
@@ -9646,17 +9658,17 @@
     <x:row r="334">
       <x:c r="A334" t="inlineStr">
         <x:is>
-          <x:t>23/8264</x:t>
+          <x:t>23/8262</x:t>
         </x:is>
       </x:c>
       <x:c r="B334" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C334" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F334" t="inlineStr">
@@ -9673,17 +9685,17 @@
     <x:row r="335">
       <x:c r="A335" t="inlineStr">
         <x:is>
-          <x:t>23/8265</x:t>
+          <x:t>23/8263</x:t>
         </x:is>
       </x:c>
       <x:c r="B335" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C335" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F335" t="inlineStr">
@@ -9700,17 +9712,17 @@
     <x:row r="336">
       <x:c r="A336" t="inlineStr">
         <x:is>
-          <x:t>23/8266</x:t>
+          <x:t>23/8264</x:t>
         </x:is>
       </x:c>
       <x:c r="B336" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C336" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F336" t="inlineStr">
@@ -9727,17 +9739,17 @@
     <x:row r="337">
       <x:c r="A337" t="inlineStr">
         <x:is>
-          <x:t>23/8270</x:t>
+          <x:t>23/8265</x:t>
         </x:is>
       </x:c>
       <x:c r="B337" t="inlineStr">
         <x:is>
-          <x:t>TMVI0208</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C337" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F337" t="inlineStr">
@@ -9747,24 +9759,24 @@
       </x:c>
       <x:c r="G337" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA GALA S.L.</x:t>
+          <x:t>ADALID SERVICIOS CORPORATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="338">
       <x:c r="A338" t="inlineStr">
         <x:is>
-          <x:t>23/8271</x:t>
+          <x:t>23/8266</x:t>
         </x:is>
       </x:c>
       <x:c r="B338" t="inlineStr">
         <x:is>
-          <x:t>TMVI0208</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C338" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F338" t="inlineStr">
@@ -9774,24 +9786,24 @@
       </x:c>
       <x:c r="G338" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA GALA S.L.</x:t>
+          <x:t>ADALID SERVICIOS CORPORATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="339">
       <x:c r="A339" t="inlineStr">
         <x:is>
-          <x:t>23/8272</x:t>
+          <x:t>23/8270</x:t>
         </x:is>
       </x:c>
       <x:c r="B339" t="inlineStr">
         <x:is>
-          <x:t>TMVG0209</x:t>
+          <x:t>TMVI0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C339" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE LOS SISTEMAS ELÉCTRICOS Y ELECTRÓNICOS DE VEHÍCULOS</x:t>
+          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F339" t="inlineStr">
@@ -9808,17 +9820,17 @@
     <x:row r="340">
       <x:c r="A340" t="inlineStr">
         <x:is>
-          <x:t>23/8273</x:t>
+          <x:t>23/8271</x:t>
         </x:is>
       </x:c>
       <x:c r="B340" t="inlineStr">
         <x:is>
-          <x:t>TMVG0409</x:t>
+          <x:t>TMVI0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C340" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
+          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F340" t="inlineStr">
@@ -9835,17 +9847,17 @@
     <x:row r="341">
       <x:c r="A341" t="inlineStr">
         <x:is>
-          <x:t>23/8274</x:t>
+          <x:t>23/8272</x:t>
         </x:is>
       </x:c>
       <x:c r="B341" t="inlineStr">
         <x:is>
-          <x:t>TMVI0208</x:t>
+          <x:t>TMVG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C341" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>MANTENIMIENTO DE LOS SISTEMAS ELÉCTRICOS Y ELECTRÓNICOS DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F341" t="inlineStr">
@@ -9862,17 +9874,17 @@
     <x:row r="342">
       <x:c r="A342" t="inlineStr">
         <x:is>
-          <x:t>23/8277</x:t>
+          <x:t>23/8273</x:t>
         </x:is>
       </x:c>
       <x:c r="B342" t="inlineStr">
         <x:is>
-          <x:t>IMSV0109</x:t>
+          <x:t>TMVG0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C342" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
+          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
         </x:is>
       </x:c>
       <x:c r="F342" t="inlineStr">
@@ -9882,24 +9894,24 @@
       </x:c>
       <x:c r="G342" t="inlineStr">
         <x:is>
-          <x:t>ESCUELA INTERNACIONAL DE MEDIOS AUDIOVISUALES S.L.</x:t>
+          <x:t>AUTOESCUELA GALA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="343">
       <x:c r="A343" t="inlineStr">
         <x:is>
-          <x:t>23/8278</x:t>
+          <x:t>23/8274</x:t>
         </x:is>
       </x:c>
       <x:c r="B343" t="inlineStr">
         <x:is>
-          <x:t>SSCI0209</x:t>
+          <x:t>TMVI0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C343" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y ORGANIZACIÓN DE EQUIPOS DE LIMPIEZA</x:t>
+          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F343" t="inlineStr">
@@ -9909,24 +9921,24 @@
       </x:c>
       <x:c r="G343" t="inlineStr">
         <x:is>
-          <x:t>EDUCALIMPIA SL</x:t>
+          <x:t>AUTOESCUELA GALA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="344">
       <x:c r="A344" t="inlineStr">
         <x:is>
-          <x:t>23/8279</x:t>
+          <x:t>23/8277</x:t>
         </x:is>
       </x:c>
       <x:c r="B344" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMSV0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C344" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F344" t="inlineStr">
@@ -9936,24 +9948,24 @@
       </x:c>
       <x:c r="G344" t="inlineStr">
         <x:is>
-          <x:t>GRUPO AULA FORMACION Y EMERGENCIAS S.L.</x:t>
+          <x:t>ESCUELA INTERNACIONAL DE MEDIOS AUDIOVISUALES S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="345">
       <x:c r="A345" t="inlineStr">
         <x:is>
-          <x:t>23/8280</x:t>
+          <x:t>23/8278</x:t>
         </x:is>
       </x:c>
       <x:c r="B345" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C345" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>GESTIÓN Y ORGANIZACIÓN DE EQUIPOS DE LIMPIEZA</x:t>
         </x:is>
       </x:c>
       <x:c r="F345" t="inlineStr">
@@ -9963,24 +9975,24 @@
       </x:c>
       <x:c r="G345" t="inlineStr">
         <x:is>
-          <x:t>GRUPO AULA FORMACION Y EMERGENCIAS S.L.</x:t>
+          <x:t>EDUCALIMPIA SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="346">
       <x:c r="A346" t="inlineStr">
         <x:is>
-          <x:t>23/8281</x:t>
+          <x:t>23/8279</x:t>
         </x:is>
       </x:c>
       <x:c r="B346" t="inlineStr">
         <x:is>
-          <x:t>TMVI0108</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C346" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F346" t="inlineStr">
@@ -9997,17 +10009,17 @@
     <x:row r="347">
       <x:c r="A347" t="inlineStr">
         <x:is>
-          <x:t>23/8282</x:t>
+          <x:t>23/8280</x:t>
         </x:is>
       </x:c>
       <x:c r="B347" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C347" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F347" t="inlineStr">
@@ -10024,17 +10036,17 @@
     <x:row r="348">
       <x:c r="A348" t="inlineStr">
         <x:is>
-          <x:t>23/8283</x:t>
+          <x:t>23/8281</x:t>
         </x:is>
       </x:c>
       <x:c r="B348" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>TMVI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C348" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
         </x:is>
       </x:c>
       <x:c r="F348" t="inlineStr">
@@ -10051,17 +10063,17 @@
     <x:row r="349">
       <x:c r="A349" t="inlineStr">
         <x:is>
-          <x:t>23/8284</x:t>
+          <x:t>23/8282</x:t>
         </x:is>
       </x:c>
       <x:c r="B349" t="inlineStr">
         <x:is>
-          <x:t>TMVI0108</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C349" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F349" t="inlineStr">
@@ -10078,17 +10090,17 @@
     <x:row r="350">
       <x:c r="A350" t="inlineStr">
         <x:is>
-          <x:t>23/8285</x:t>
+          <x:t>23/8283</x:t>
         </x:is>
       </x:c>
       <x:c r="B350" t="inlineStr">
         <x:is>
-          <x:t>TMVI0108</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C350" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F350" t="inlineStr">
@@ -10105,7 +10117,7 @@
     <x:row r="351">
       <x:c r="A351" t="inlineStr">
         <x:is>
-          <x:t>23/8286</x:t>
+          <x:t>23/8284</x:t>
         </x:is>
       </x:c>
       <x:c r="B351" t="inlineStr">
@@ -10132,17 +10144,17 @@
     <x:row r="352">
       <x:c r="A352" t="inlineStr">
         <x:is>
-          <x:t>23/8289</x:t>
+          <x:t>23/8285</x:t>
         </x:is>
       </x:c>
       <x:c r="B352" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>TMVI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C352" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
         </x:is>
       </x:c>
       <x:c r="F352" t="inlineStr">
@@ -10152,29 +10164,24 @@
       </x:c>
       <x:c r="G352" t="inlineStr">
         <x:is>
-          <x:t>FORMAJOBS S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H352" t="inlineStr">
-        <x:is>
-          <x:t>Leganés</x:t>
+          <x:t>GRUPO AULA FORMACION Y EMERGENCIAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="353">
       <x:c r="A353" t="inlineStr">
         <x:is>
-          <x:t>23/8291</x:t>
+          <x:t>23/8286</x:t>
         </x:is>
       </x:c>
       <x:c r="B353" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>TMVI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C353" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
         </x:is>
       </x:c>
       <x:c r="F353" t="inlineStr">
@@ -10184,19 +10191,14 @@
       </x:c>
       <x:c r="G353" t="inlineStr">
         <x:is>
-          <x:t>FORMAJOBS S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H353" t="inlineStr">
-        <x:is>
-          <x:t>Leganés</x:t>
+          <x:t>GRUPO AULA FORMACION Y EMERGENCIAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="354">
       <x:c r="A354" t="inlineStr">
         <x:is>
-          <x:t>23/8292</x:t>
+          <x:t>23/8289</x:t>
         </x:is>
       </x:c>
       <x:c r="B354" t="inlineStr">
@@ -10228,17 +10230,17 @@
     <x:row r="355">
       <x:c r="A355" t="inlineStr">
         <x:is>
-          <x:t>23/8293</x:t>
+          <x:t>23/8291</x:t>
         </x:is>
       </x:c>
       <x:c r="B355" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C355" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F355" t="inlineStr">
@@ -10260,17 +10262,17 @@
     <x:row r="356">
       <x:c r="A356" t="inlineStr">
         <x:is>
-          <x:t>23/8297</x:t>
+          <x:t>23/8292</x:t>
         </x:is>
       </x:c>
       <x:c r="B356" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C356" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F356" t="inlineStr">
@@ -10280,24 +10282,29 @@
       </x:c>
       <x:c r="G356" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>FORMAJOBS S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H356" t="inlineStr">
+        <x:is>
+          <x:t>Leganés</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="357">
       <x:c r="A357" t="inlineStr">
         <x:is>
-          <x:t>23/8298</x:t>
+          <x:t>23/8293</x:t>
         </x:is>
       </x:c>
       <x:c r="B357" t="inlineStr">
         <x:is>
-          <x:t>ENAE0308</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C357" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F357" t="inlineStr">
@@ -10307,24 +10314,29 @@
       </x:c>
       <x:c r="G357" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>FORMAJOBS S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H357" t="inlineStr">
+        <x:is>
+          <x:t>Leganés</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="358">
       <x:c r="A358" t="inlineStr">
         <x:is>
-          <x:t>23/8299</x:t>
+          <x:t>23/8298</x:t>
         </x:is>
       </x:c>
       <x:c r="B358" t="inlineStr">
         <x:is>
-          <x:t>ENAE0111</x:t>
+          <x:t>ENAE0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C358" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
+          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F358" t="inlineStr">
@@ -10341,17 +10353,17 @@
     <x:row r="359">
       <x:c r="A359" t="inlineStr">
         <x:is>
-          <x:t>23/8300</x:t>
+          <x:t>23/8299</x:t>
         </x:is>
       </x:c>
       <x:c r="B359" t="inlineStr">
         <x:is>
-          <x:t>ENAE0508</x:t>
+          <x:t>ENAE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C359" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F359" t="inlineStr">
@@ -10368,17 +10380,17 @@
     <x:row r="360">
       <x:c r="A360" t="inlineStr">
         <x:is>
-          <x:t>23/8303</x:t>
+          <x:t>23/8300</x:t>
         </x:is>
       </x:c>
       <x:c r="B360" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>ENAE0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C360" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F360" t="inlineStr">
@@ -10388,24 +10400,24 @@
       </x:c>
       <x:c r="G360" t="inlineStr">
         <x:is>
-          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="361">
       <x:c r="A361" t="inlineStr">
         <x:is>
-          <x:t>23/8305</x:t>
+          <x:t>23/8303</x:t>
         </x:is>
       </x:c>
       <x:c r="B361" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C361" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F361" t="inlineStr">
@@ -10422,17 +10434,17 @@
     <x:row r="362">
       <x:c r="A362" t="inlineStr">
         <x:is>
-          <x:t>23/8307</x:t>
+          <x:t>23/8305</x:t>
         </x:is>
       </x:c>
       <x:c r="B362" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C362" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F362" t="inlineStr">
@@ -10449,17 +10461,17 @@
     <x:row r="363">
       <x:c r="A363" t="inlineStr">
         <x:is>
-          <x:t>23/8308</x:t>
+          <x:t>23/8307</x:t>
         </x:is>
       </x:c>
       <x:c r="B363" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C363" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F363" t="inlineStr">
@@ -10476,17 +10488,17 @@
     <x:row r="364">
       <x:c r="A364" t="inlineStr">
         <x:is>
-          <x:t>23/8309</x:t>
+          <x:t>23/8308</x:t>
         </x:is>
       </x:c>
       <x:c r="B364" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C364" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F364" t="inlineStr">
@@ -10503,17 +10515,17 @@
     <x:row r="365">
       <x:c r="A365" t="inlineStr">
         <x:is>
-          <x:t>23/8316</x:t>
+          <x:t>23/8309</x:t>
         </x:is>
       </x:c>
       <x:c r="B365" t="inlineStr">
         <x:is>
-          <x:t>EOCB0208</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C365" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F365" t="inlineStr">
@@ -10523,24 +10535,24 @@
       </x:c>
       <x:c r="G365" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="366">
       <x:c r="A366" t="inlineStr">
         <x:is>
-          <x:t>23/8317</x:t>
+          <x:t>23/8316</x:t>
         </x:is>
       </x:c>
       <x:c r="B366" t="inlineStr">
         <x:is>
-          <x:t>HOTR0208</x:t>
+          <x:t>EOCB0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C366" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F366" t="inlineStr">
@@ -10557,17 +10569,17 @@
     <x:row r="367">
       <x:c r="A367" t="inlineStr">
         <x:is>
-          <x:t>23/8318</x:t>
+          <x:t>23/8317</x:t>
         </x:is>
       </x:c>
       <x:c r="B367" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>HOTR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C367" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
         </x:is>
       </x:c>
       <x:c r="F367" t="inlineStr">
@@ -10584,17 +10596,17 @@
     <x:row r="368">
       <x:c r="A368" t="inlineStr">
         <x:is>
-          <x:t>23/8319</x:t>
+          <x:t>23/8318</x:t>
         </x:is>
       </x:c>
       <x:c r="B368" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C368" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F368" t="inlineStr">
@@ -10604,24 +10616,24 @@
       </x:c>
       <x:c r="G368" t="inlineStr">
         <x:is>
-          <x:t>ECOLE DIMAGE TRIUNFO, S.L.</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="369">
       <x:c r="A369" t="inlineStr">
         <x:is>
-          <x:t>23/8320</x:t>
+          <x:t>23/8319</x:t>
         </x:is>
       </x:c>
       <x:c r="B369" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C369" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F369" t="inlineStr">
@@ -10638,17 +10650,17 @@
     <x:row r="370">
       <x:c r="A370" t="inlineStr">
         <x:is>
-          <x:t>23/8321</x:t>
+          <x:t>23/8320</x:t>
         </x:is>
       </x:c>
       <x:c r="B370" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C370" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F370" t="inlineStr">
@@ -10665,17 +10677,17 @@
     <x:row r="371">
       <x:c r="A371" t="inlineStr">
         <x:is>
-          <x:t>23/8322</x:t>
+          <x:t>23/8321</x:t>
         </x:is>
       </x:c>
       <x:c r="B371" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C371" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F371" t="inlineStr">
@@ -10692,17 +10704,17 @@
     <x:row r="372">
       <x:c r="A372" t="inlineStr">
         <x:is>
-          <x:t>23/8323</x:t>
+          <x:t>23/8322</x:t>
         </x:is>
       </x:c>
       <x:c r="B372" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0308</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C372" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS CAPILARES ESTÉTICOS</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F372" t="inlineStr">
@@ -10719,17 +10731,17 @@
     <x:row r="373">
       <x:c r="A373" t="inlineStr">
         <x:is>
-          <x:t>23/8324</x:t>
+          <x:t>23/8323</x:t>
         </x:is>
       </x:c>
       <x:c r="B373" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMPQ0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C373" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>TRATAMIENTOS CAPILARES ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F373" t="inlineStr">
@@ -10746,17 +10758,17 @@
     <x:row r="374">
       <x:c r="A374" t="inlineStr">
         <x:is>
-          <x:t>23/8325</x:t>
+          <x:t>23/8324</x:t>
         </x:is>
       </x:c>
       <x:c r="B374" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C374" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F374" t="inlineStr">
@@ -10766,7 +10778,7 @@
       </x:c>
       <x:c r="G374" t="inlineStr">
         <x:is>
-          <x:t>CONECTANDO LOCAL, S.L.</x:t>
+          <x:t>ECOLE DIMAGE TRIUNFO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rece37fc6c9964cac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R73961b9e0bfd4e31"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R51b0b9c1c640423d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R547e331d76d740ed"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R547e331d76d740ed"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R21ad7df5662c4a0a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R21ad7df5662c4a0a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Re63d6d82754e4079"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Re63d6d82754e4079"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R2fa7692c1c2349dc"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Ra9f4a51f98324cde"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R61c0d5c18f0443a1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R61c0d5c18f0443a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R9e840793139a4bdc"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R9e840793139a4bdc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R6d776cd07f994739"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R6d776cd07f994739"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R315eebb503cc49d0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R315eebb503cc49d0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R8643e8e67694460a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R8643e8e67694460a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4e9fd1b9c852427f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4e9fd1b9c852427f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R63ff20029c664e04"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R6bab4f07e3df4468"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R78ef3a2761344cc4"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -78,24 +78,24 @@
     <x:row r="2">
       <x:c r="A2" t="inlineStr">
         <x:is>
-          <x:t>23/8417</x:t>
+          <x:t>23/8351</x:t>
         </x:is>
       </x:c>
       <x:c r="B2" t="inlineStr">
         <x:is>
-          <x:t>MAMD0209</x:t>
+          <x:t>COMP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C2" t="inlineStr">
         <x:is>
-          <x:t>TRABAJOS DE CARPINTERÍA Y MUEBLE</x:t>
+          <x:t>IMPLANTACIÓN Y ANIMACIÓN DE ESPACIOS COMERCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>46131.9166666667</x:v>
+        <x:v>46139.9166666667</x:v>
       </x:c>
       <x:c r="E2" s="2" t="n">
-        <x:v>46194.9166666667</x:v>
+        <x:v>46288.9166666667</x:v>
       </x:c>
       <x:c r="F2" t="inlineStr">
         <x:is>
@@ -104,31 +104,31 @@
       </x:c>
       <x:c r="G2" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION CARMEN PARDO-VALCARCE</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H2" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>KNOWLEDGE INNOVATION WORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="3">
       <x:c r="A3" t="inlineStr">
         <x:is>
-          <x:t>25/2143</x:t>
+          <x:t>23/8417</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B3" t="inlineStr">
+        <x:is>
+          <x:t>MAMD0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C3" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>TRABAJOS DE CARPINTERÍA Y MUEBLE</x:t>
         </x:is>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>46103.9583333333</x:v>
+        <x:v>46131.9166666667</x:v>
       </x:c>
       <x:c r="E3" s="2" t="n">
-        <x:v>46229.9166666667</x:v>
+        <x:v>46194.9166666667</x:v>
       </x:c>
       <x:c r="F3" t="inlineStr">
         <x:is>
@@ -137,36 +137,31 @@
       </x:c>
       <x:c r="G3" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+          <x:t>FUNDACION CARMEN PARDO-VALCARCE</x:t>
         </x:is>
       </x:c>
       <x:c r="H3" t="inlineStr">
         <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="4">
       <x:c r="A4" t="inlineStr">
         <x:is>
-          <x:t>23/8315</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B4" t="inlineStr">
-        <x:is>
-          <x:t>SSCI0109</x:t>
+          <x:t>25/2143</x:t>
         </x:is>
       </x:c>
       <x:c r="C4" t="inlineStr">
         <x:is>
-          <x:t>EMPLEO DOMÉSTICO</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>46097.9583333333</x:v>
+        <x:v>46103.9583333333</x:v>
       </x:c>
       <x:c r="E4" s="2" t="n">
-        <x:v>46132.9166666667</x:v>
+        <x:v>46229.9166666667</x:v>
       </x:c>
       <x:c r="F4" t="inlineStr">
         <x:is>
@@ -175,26 +170,36 @@
       </x:c>
       <x:c r="G4" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H4" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="inlineStr">
         <x:is>
-          <x:t>25/2139</x:t>
+          <x:t>23/8315</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B5" t="inlineStr">
+        <x:is>
+          <x:t>SSCI0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C5" t="inlineStr">
         <x:is>
-          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+          <x:t>EMPLEO DOMÉSTICO</x:t>
         </x:is>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>46075.9583333333</x:v>
+        <x:v>46097.9583333333</x:v>
       </x:c>
       <x:c r="E5" s="2" t="n">
-        <x:v>46288.9166666667</x:v>
+        <x:v>46132.9166666667</x:v>
       </x:c>
       <x:c r="F5" t="inlineStr">
         <x:is>
@@ -203,36 +208,26 @@
       </x:c>
       <x:c r="G5" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H5" t="inlineStr">
-        <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="A6" t="inlineStr">
         <x:is>
-          <x:t>23/8313</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B6" t="inlineStr">
-        <x:is>
-          <x:t>EOCB0208</x:t>
+          <x:t>25/2139</x:t>
         </x:is>
       </x:c>
       <x:c r="C6" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>46068.9583333333</x:v>
+        <x:v>46075.9583333333</x:v>
       </x:c>
       <x:c r="E6" s="2" t="n">
-        <x:v>46149.9166666667</x:v>
+        <x:v>46288.9166666667</x:v>
       </x:c>
       <x:c r="F6" t="inlineStr">
         <x:is>
@@ -241,31 +236,36 @@
       </x:c>
       <x:c r="G6" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H6" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008592</x:t>
+          <x:t>23/8313</x:t>
         </x:is>
       </x:c>
       <x:c r="B7" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>EOCB0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C7" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>46062.9583333333</x:v>
+        <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E7" s="2" t="n">
-        <x:v>46159.9166666667</x:v>
+        <x:v>46149.9166666667</x:v>
       </x:c>
       <x:c r="F7" t="inlineStr">
         <x:is>
@@ -274,19 +274,14 @@
       </x:c>
       <x:c r="G7" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H7" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008593</x:t>
+          <x:t>FCCC240008592</x:t>
         </x:is>
       </x:c>
       <x:c r="B8" t="inlineStr">
@@ -324,24 +319,24 @@
     <x:row r="9">
       <x:c r="A9" t="inlineStr">
         <x:is>
-          <x:t>23/8297</x:t>
+          <x:t>FCCC240008593</x:t>
         </x:is>
       </x:c>
       <x:c r="B9" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C9" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>46056.9583333333</x:v>
+        <x:v>46062.9583333333</x:v>
       </x:c>
       <x:c r="E9" s="2" t="n">
-        <x:v>46201.9166666667</x:v>
+        <x:v>46159.9166666667</x:v>
       </x:c>
       <x:c r="F9" t="inlineStr">
         <x:is>
@@ -350,31 +345,36 @@
       </x:c>
       <x:c r="G9" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H9" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="10">
       <x:c r="A10" t="inlineStr">
         <x:is>
-          <x:t>23/8344</x:t>
+          <x:t>23/8297</x:t>
         </x:is>
       </x:c>
       <x:c r="B10" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C10" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D10" s="1" t="n">
         <x:v>46056.9583333333</x:v>
       </x:c>
       <x:c r="E10" s="2" t="n">
-        <x:v>46168.9166666667</x:v>
+        <x:v>46201.9166666667</x:v>
       </x:c>
       <x:c r="F10" t="inlineStr">
         <x:is>
@@ -383,31 +383,31 @@
       </x:c>
       <x:c r="G10" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="inlineStr">
         <x:is>
-          <x:t>23/8009</x:t>
+          <x:t>23/8344</x:t>
         </x:is>
       </x:c>
       <x:c r="B11" t="inlineStr">
         <x:is>
-          <x:t>HOTT0112</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C11" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN A PASAJEROS EN TRANSPORTE FERROVIARIO</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>46054.9583333333</x:v>
+        <x:v>46056.9583333333</x:v>
       </x:c>
       <x:c r="E11" s="2" t="n">
-        <x:v>46336.9583333333</x:v>
+        <x:v>46168.9166666667</x:v>
       </x:c>
       <x:c r="F11" t="inlineStr">
         <x:is>
@@ -416,31 +416,31 @@
       </x:c>
       <x:c r="G11" t="inlineStr">
         <x:is>
-          <x:t>BAI FORMACIÓN SA</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="A12" t="inlineStr">
         <x:is>
-          <x:t>23/8204</x:t>
+          <x:t>23/8009</x:t>
         </x:is>
       </x:c>
       <x:c r="B12" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>HOTT0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C12" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>ATENCIÓN A PASAJEROS EN TRANSPORTE FERROVIARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D12" s="1" t="n">
         <x:v>46054.9583333333</x:v>
       </x:c>
       <x:c r="E12" s="2" t="n">
-        <x:v>46188.9166666667</x:v>
+        <x:v>46336.9583333333</x:v>
       </x:c>
       <x:c r="F12" t="inlineStr">
         <x:is>
@@ -449,31 +449,31 @@
       </x:c>
       <x:c r="G12" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>BAI FORMACIÓN SA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="inlineStr">
         <x:is>
-          <x:t>23/8241</x:t>
+          <x:t>23/8204</x:t>
         </x:is>
       </x:c>
       <x:c r="B13" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C13" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D13" s="1" t="n">
         <x:v>46054.9583333333</x:v>
       </x:c>
       <x:c r="E13" s="2" t="n">
-        <x:v>46161.9166666667</x:v>
+        <x:v>46188.9166666667</x:v>
       </x:c>
       <x:c r="F13" t="inlineStr">
         <x:is>
@@ -482,36 +482,31 @@
       </x:c>
       <x:c r="G13" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H13" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="A14" t="inlineStr">
         <x:is>
-          <x:t>23/8314</x:t>
+          <x:t>23/8241</x:t>
         </x:is>
       </x:c>
       <x:c r="B14" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C14" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="D14" s="1" t="n">
-        <x:v>46048.9583333333</x:v>
+        <x:v>46054.9583333333</x:v>
       </x:c>
       <x:c r="E14" s="2" t="n">
-        <x:v>46167.9166666667</x:v>
+        <x:v>46161.9166666667</x:v>
       </x:c>
       <x:c r="F14" t="inlineStr">
         <x:is>
@@ -520,31 +515,36 @@
       </x:c>
       <x:c r="G14" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H14" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="A15" t="inlineStr">
         <x:is>
-          <x:t>23/8343</x:t>
+          <x:t>23/8314</x:t>
         </x:is>
       </x:c>
       <x:c r="B15" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C15" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D15" s="1" t="n">
         <x:v>46048.9583333333</x:v>
       </x:c>
       <x:c r="E15" s="2" t="n">
-        <x:v>46169.9166666667</x:v>
+        <x:v>46167.9166666667</x:v>
       </x:c>
       <x:c r="F15" t="inlineStr">
         <x:is>
@@ -553,31 +553,31 @@
       </x:c>
       <x:c r="G15" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" t="inlineStr">
         <x:is>
-          <x:t>23/8205</x:t>
+          <x:t>23/8343</x:t>
         </x:is>
       </x:c>
       <x:c r="B16" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C16" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="D16" s="1" t="n">
-        <x:v>46047.9583333333</x:v>
+        <x:v>46048.9583333333</x:v>
       </x:c>
       <x:c r="E16" s="2" t="n">
-        <x:v>46154.9166666667</x:v>
+        <x:v>46169.9166666667</x:v>
       </x:c>
       <x:c r="F16" t="inlineStr">
         <x:is>
@@ -586,31 +586,31 @@
       </x:c>
       <x:c r="G16" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="A17" t="inlineStr">
         <x:is>
-          <x:t>23/8242</x:t>
+          <x:t>23/8205</x:t>
         </x:is>
       </x:c>
       <x:c r="B17" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C17" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D17" s="1" t="n">
         <x:v>46047.9583333333</x:v>
       </x:c>
       <x:c r="E17" s="2" t="n">
-        <x:v>46170.9166666667</x:v>
+        <x:v>46154.9166666667</x:v>
       </x:c>
       <x:c r="F17" t="inlineStr">
         <x:is>
@@ -619,36 +619,31 @@
       </x:c>
       <x:c r="G17" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H17" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18" t="inlineStr">
         <x:is>
-          <x:t>23/8306</x:t>
+          <x:t>23/8242</x:t>
         </x:is>
       </x:c>
       <x:c r="B18" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C18" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D18" s="1" t="n">
         <x:v>46047.9583333333</x:v>
       </x:c>
       <x:c r="E18" s="2" t="n">
-        <x:v>46147.9166666667</x:v>
+        <x:v>46170.9166666667</x:v>
       </x:c>
       <x:c r="F18" t="inlineStr">
         <x:is>
@@ -657,31 +652,36 @@
       </x:c>
       <x:c r="G18" t="inlineStr">
         <x:is>
-          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H18" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19" t="inlineStr">
         <x:is>
-          <x:t>23/8325</x:t>
+          <x:t>23/8306</x:t>
         </x:is>
       </x:c>
       <x:c r="B19" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C19" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>46047.9583333333</x:v>
       </x:c>
       <x:c r="E19" s="2" t="n">
-        <x:v>46194.9166666667</x:v>
+        <x:v>46147.9166666667</x:v>
       </x:c>
       <x:c r="F19" t="inlineStr">
         <x:is>
@@ -690,31 +690,31 @@
       </x:c>
       <x:c r="G19" t="inlineStr">
         <x:is>
-          <x:t>CONECTANDO LOCAL, S.L.</x:t>
+          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" t="inlineStr">
         <x:is>
-          <x:t>23/8100</x:t>
+          <x:t>23/8325</x:t>
         </x:is>
       </x:c>
       <x:c r="B20" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C20" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D20" s="1" t="n">
-        <x:v>46043.9583333333</x:v>
+        <x:v>46047.9583333333</x:v>
       </x:c>
       <x:c r="E20" s="2" t="n">
-        <x:v>46196.9166666667</x:v>
+        <x:v>46194.9166666667</x:v>
       </x:c>
       <x:c r="F20" t="inlineStr">
         <x:is>
@@ -723,26 +723,31 @@
       </x:c>
       <x:c r="G20" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>CONECTANDO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="A21" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008548</x:t>
+          <x:t>23/8100</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B21" t="inlineStr">
+        <x:is>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C21" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>46042.9583333333</x:v>
+        <x:v>46043.9583333333</x:v>
       </x:c>
       <x:c r="E21" s="2" t="n">
-        <x:v>46159.9166666667</x:v>
+        <x:v>46196.9166666667</x:v>
       </x:c>
       <x:c r="F21" t="inlineStr">
         <x:is>
@@ -751,36 +756,26 @@
       </x:c>
       <x:c r="G21" t="inlineStr">
         <x:is>
-          <x:t>DETUATUFORMACION S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H21" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22" t="inlineStr">
         <x:is>
-          <x:t>23/8101</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B22" t="inlineStr">
-        <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>FCCC240008548</x:t>
         </x:is>
       </x:c>
       <x:c r="C22" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>46041.9583333333</x:v>
+        <x:v>46042.9583333333</x:v>
       </x:c>
       <x:c r="E22" s="2" t="n">
-        <x:v>46127.9166666667</x:v>
+        <x:v>46159.9166666667</x:v>
       </x:c>
       <x:c r="F22" t="inlineStr">
         <x:is>
@@ -789,31 +784,36 @@
       </x:c>
       <x:c r="G22" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>DETUATUFORMACION S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H22" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="inlineStr">
         <x:is>
-          <x:t>23/8099</x:t>
+          <x:t>23/8101</x:t>
         </x:is>
       </x:c>
       <x:c r="B23" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C23" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>46036.9583333333</x:v>
+        <x:v>46041.9583333333</x:v>
       </x:c>
       <x:c r="E23" s="2" t="n">
-        <x:v>46169.9166666667</x:v>
+        <x:v>46127.9166666667</x:v>
       </x:c>
       <x:c r="F23" t="inlineStr">
         <x:is>
@@ -829,24 +829,24 @@
     <x:row r="24">
       <x:c r="A24" t="inlineStr">
         <x:is>
-          <x:t>23/8416</x:t>
+          <x:t>23/8099</x:t>
         </x:is>
       </x:c>
       <x:c r="B24" t="inlineStr">
         <x:is>
-          <x:t>AGAX0208</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C24" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN AGRICULTURA</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D24" s="1" t="n">
         <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E24" s="2" t="n">
-        <x:v>46135.9166666667</x:v>
+        <x:v>46169.9166666667</x:v>
       </x:c>
       <x:c r="F24" t="inlineStr">
         <x:is>
@@ -855,36 +855,31 @@
       </x:c>
       <x:c r="G24" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION CARMEN PARDO-VALCARCE</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H24" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="25">
       <x:c r="A25" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008590</x:t>
+          <x:t>23/8416</x:t>
         </x:is>
       </x:c>
       <x:c r="B25" t="inlineStr">
         <x:is>
-          <x:t>ENAE0208</x:t>
+          <x:t>AGAX0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C25" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN AGRICULTURA</x:t>
         </x:is>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E25" s="2" t="n">
-        <x:v>46141.9166666667</x:v>
+        <x:v>46135.9166666667</x:v>
       </x:c>
       <x:c r="F25" t="inlineStr">
         <x:is>
@@ -893,31 +888,36 @@
       </x:c>
       <x:c r="G25" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
+          <x:t>FUNDACION CARMEN PARDO-VALCARCE</x:t>
         </x:is>
       </x:c>
       <x:c r="H25" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26" t="inlineStr">
         <x:is>
-          <x:t>25/2148</x:t>
+          <x:t>FCCC240008590</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B26" t="inlineStr">
+        <x:is>
+          <x:t>ENAE0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C26" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E26" s="2" t="n">
-        <x:v>46180.9166666667</x:v>
+        <x:v>46141.9166666667</x:v>
       </x:c>
       <x:c r="F26" t="inlineStr">
         <x:is>
@@ -926,36 +926,31 @@
       </x:c>
       <x:c r="G26" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
         </x:is>
       </x:c>
       <x:c r="H26" t="inlineStr">
         <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="inlineStr">
         <x:is>
-          <x:t>23/8387</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B27" t="inlineStr">
-        <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>25/2148</x:t>
         </x:is>
       </x:c>
       <x:c r="C27" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D27" s="1" t="n">
-        <x:v>46035.9583333333</x:v>
+        <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E27" s="2" t="n">
-        <x:v>46153.9583333333</x:v>
+        <x:v>46180.9166666667</x:v>
       </x:c>
       <x:c r="F27" t="inlineStr">
         <x:is>
@@ -964,24 +959,29 @@
       </x:c>
       <x:c r="G27" t="inlineStr">
         <x:is>
-          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H27" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="inlineStr">
         <x:is>
-          <x:t>23/8388</x:t>
+          <x:t>23/8387</x:t>
         </x:is>
       </x:c>
       <x:c r="B28" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C28" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D28" s="1" t="n">
@@ -1004,19 +1004,24 @@
     <x:row r="29">
       <x:c r="A29" t="inlineStr">
         <x:is>
-          <x:t>25/2142</x:t>
+          <x:t>23/8388</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B29" t="inlineStr">
+        <x:is>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D29" s="1" t="n">
         <x:v>46035.9583333333</x:v>
       </x:c>
       <x:c r="E29" s="2" t="n">
-        <x:v>46173.9166666667</x:v>
+        <x:v>46153.9583333333</x:v>
       </x:c>
       <x:c r="F29" t="inlineStr">
         <x:is>
@@ -1025,31 +1030,26 @@
       </x:c>
       <x:c r="G29" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H29" t="inlineStr">
-        <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="30">
       <x:c r="A30" t="inlineStr">
         <x:is>
-          <x:t>25/2151</x:t>
+          <x:t>25/2142</x:t>
         </x:is>
       </x:c>
       <x:c r="C30" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>46035.9583333333</x:v>
       </x:c>
       <x:c r="E30" s="2" t="n">
-        <x:v>46187.9166666667</x:v>
+        <x:v>46173.9166666667</x:v>
       </x:c>
       <x:c r="F30" t="inlineStr">
         <x:is>
@@ -1070,24 +1070,19 @@
     <x:row r="31">
       <x:c r="A31" t="inlineStr">
         <x:is>
-          <x:t>23/8102</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B31" t="inlineStr">
-        <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>25/2151</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D31" s="1" t="n">
-        <x:v>46034.9583333333</x:v>
+        <x:v>46035.9583333333</x:v>
       </x:c>
       <x:c r="E31" s="2" t="n">
-        <x:v>46145.9166666667</x:v>
+        <x:v>46187.9166666667</x:v>
       </x:c>
       <x:c r="F31" t="inlineStr">
         <x:is>
@@ -1096,31 +1091,36 @@
       </x:c>
       <x:c r="G31" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H31" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="32">
       <x:c r="A32" t="inlineStr">
         <x:is>
-          <x:t>23/8226</x:t>
+          <x:t>23/8102</x:t>
         </x:is>
       </x:c>
       <x:c r="B32" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D32" s="1" t="n">
         <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E32" s="2" t="n">
-        <x:v>46161.9166666667</x:v>
+        <x:v>46145.9166666667</x:v>
       </x:c>
       <x:c r="F32" t="inlineStr">
         <x:is>
@@ -1129,26 +1129,31 @@
       </x:c>
       <x:c r="G32" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="inlineStr">
         <x:is>
-          <x:t>25/2135</x:t>
+          <x:t>23/8226</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B33" t="inlineStr">
+        <x:is>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C33" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E33" s="2" t="n">
-        <x:v>46174.9166666667</x:v>
+        <x:v>46161.9166666667</x:v>
       </x:c>
       <x:c r="F33" t="inlineStr">
         <x:is>
@@ -1157,36 +1162,26 @@
       </x:c>
       <x:c r="G33" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H33" t="inlineStr">
-        <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="A34" t="inlineStr">
         <x:is>
-          <x:t>23/8221</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B34" t="inlineStr">
-        <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>25/2135</x:t>
         </x:is>
       </x:c>
       <x:c r="C34" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D34" s="1" t="n">
-        <x:v>46033.9583333333</x:v>
+        <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E34" s="2" t="n">
-        <x:v>46184.9166666667</x:v>
+        <x:v>46174.9166666667</x:v>
       </x:c>
       <x:c r="F34" t="inlineStr">
         <x:is>
@@ -1195,31 +1190,36 @@
       </x:c>
       <x:c r="G34" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H34" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003865</x:t>
+          <x:t>23/8221</x:t>
         </x:is>
       </x:c>
       <x:c r="B35" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0210</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C35" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE MANUTENCIÓN, ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="D35" s="1" t="n">
         <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E35" s="2" t="n">
-        <x:v>46110.9166666667</x:v>
+        <x:v>46184.9166666667</x:v>
       </x:c>
       <x:c r="F35" t="inlineStr">
         <x:is>
@@ -1228,29 +1228,24 @@
       </x:c>
       <x:c r="G35" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H35" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003866</x:t>
+          <x:t>FDEC240003865</x:t>
         </x:is>
       </x:c>
       <x:c r="B36" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>IMAQ0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C36" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE MANUTENCIÓN, ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D36" s="1" t="n">
@@ -1278,17 +1273,17 @@
     <x:row r="37">
       <x:c r="A37" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003867</x:t>
+          <x:t>FDEC240003866</x:t>
         </x:is>
       </x:c>
       <x:c r="B37" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C37" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D37" s="1" t="n">
@@ -1316,17 +1311,17 @@
     <x:row r="38">
       <x:c r="A38" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003868</x:t>
+          <x:t>FDEC240003867</x:t>
         </x:is>
       </x:c>
       <x:c r="B38" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C38" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D38" s="1" t="n">
@@ -1354,19 +1349,24 @@
     <x:row r="39">
       <x:c r="A39" t="inlineStr">
         <x:is>
-          <x:t>25/2145</x:t>
+          <x:t>FDEC240003868</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B39" t="inlineStr">
+        <x:is>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C39" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE REDES DEPARTAMENTALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D39" s="1" t="n">
         <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E39" s="2" t="n">
-        <x:v>46191.9166666667</x:v>
+        <x:v>46110.9166666667</x:v>
       </x:c>
       <x:c r="F39" t="inlineStr">
         <x:is>
@@ -1375,36 +1375,31 @@
       </x:c>
       <x:c r="G39" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H39" t="inlineStr">
         <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="40">
       <x:c r="A40" t="inlineStr">
         <x:is>
-          <x:t>23/8158</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B40" t="inlineStr">
-        <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>25/2145</x:t>
         </x:is>
       </x:c>
       <x:c r="C40" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>OPERACIONES DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D40" s="1" t="n">
-        <x:v>46028.9583333333</x:v>
+        <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E40" s="2" t="n">
-        <x:v>46121.9166666667</x:v>
+        <x:v>46191.9166666667</x:v>
       </x:c>
       <x:c r="F40" t="inlineStr">
         <x:is>
@@ -1413,31 +1408,36 @@
       </x:c>
       <x:c r="G40" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H40" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="A41" t="inlineStr">
         <x:is>
-          <x:t>23/8337</x:t>
+          <x:t>23/8158</x:t>
         </x:is>
       </x:c>
       <x:c r="B41" t="inlineStr">
         <x:is>
-          <x:t>HOTR0208</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C41" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D41" s="1" t="n">
         <x:v>46028.9583333333</x:v>
       </x:c>
       <x:c r="E41" s="2" t="n">
-        <x:v>46132.9166666667</x:v>
+        <x:v>46121.9166666667</x:v>
       </x:c>
       <x:c r="F41" t="inlineStr">
         <x:is>
@@ -1446,36 +1446,31 @@
       </x:c>
       <x:c r="G41" t="inlineStr">
         <x:is>
-          <x:t>LIDER SYSTEM ACADEMY, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H41" t="inlineStr">
-        <x:is>
-          <x:t>Getafe</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003549</x:t>
+          <x:t>23/8337</x:t>
         </x:is>
       </x:c>
       <x:c r="B42" t="inlineStr">
         <x:is>
-          <x:t>COML0111</x:t>
+          <x:t>HOTR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C42" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE VIAJEROS POR CARRETERA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
         </x:is>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>46028.9583333333</x:v>
       </x:c>
       <x:c r="E42" s="2" t="n">
-        <x:v>46111.9166666667</x:v>
+        <x:v>46132.9166666667</x:v>
       </x:c>
       <x:c r="F42" t="inlineStr">
         <x:is>
@@ -1484,36 +1479,36 @@
       </x:c>
       <x:c r="G42" t="inlineStr">
         <x:is>
-          <x:t>MARSDIGITAL, S.L.</x:t>
+          <x:t>LIDER SYSTEM ACADEMY, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H42" t="inlineStr">
         <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>Getafe</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="A43" t="inlineStr">
         <x:is>
-          <x:t>23/8157</x:t>
+          <x:t>FDEC240003549</x:t>
         </x:is>
       </x:c>
       <x:c r="B43" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>COML0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C43" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>TRÁFICO DE VIAJEROS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="D43" s="1" t="n">
-        <x:v>46026.9583333333</x:v>
+        <x:v>46028.9583333333</x:v>
       </x:c>
       <x:c r="E43" s="2" t="n">
-        <x:v>46135.9166666667</x:v>
+        <x:v>46111.9166666667</x:v>
       </x:c>
       <x:c r="F43" t="inlineStr">
         <x:is>
@@ -1522,25 +1517,36 @@
       </x:c>
       <x:c r="G43" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>MARSDIGITAL, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H43" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="44">
       <x:c r="A44" t="inlineStr">
         <x:is>
-          <x:t>22/1707</x:t>
+          <x:t>23/8157</x:t>
         </x:is>
       </x:c>
       <x:c r="B44" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C44" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
-        </x:is>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D44" s="1" t="n">
+        <x:v>46026.9583333333</x:v>
+      </x:c>
+      <x:c r="E44" s="2" t="n">
+        <x:v>46135.9166666667</x:v>
       </x:c>
       <x:c r="F44" t="inlineStr">
         <x:is>
@@ -1549,19 +1555,14 @@
       </x:c>
       <x:c r="G44" t="inlineStr">
         <x:is>
-          <x:t>MFD FORMACION SAG SOLAR</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H44" t="inlineStr">
-        <x:is>
-          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="45">
       <x:c r="A45" t="inlineStr">
         <x:is>
-          <x:t>22/1708</x:t>
+          <x:t>22/1707</x:t>
         </x:is>
       </x:c>
       <x:c r="B45" t="inlineStr">
@@ -1593,17 +1594,17 @@
     <x:row r="46">
       <x:c r="A46" t="inlineStr">
         <x:is>
-          <x:t>22/1709</x:t>
+          <x:t>22/1708</x:t>
         </x:is>
       </x:c>
       <x:c r="B46" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C46" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F46" t="inlineStr">
@@ -1613,19 +1614,19 @@
       </x:c>
       <x:c r="G46" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION ASISPA</x:t>
+          <x:t>MFD FORMACION SAG SOLAR</x:t>
         </x:is>
       </x:c>
       <x:c r="H46" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="47">
       <x:c r="A47" t="inlineStr">
         <x:is>
-          <x:t>22/1710</x:t>
+          <x:t>22/1709</x:t>
         </x:is>
       </x:c>
       <x:c r="B47" t="inlineStr">
@@ -1657,17 +1658,17 @@
     <x:row r="48">
       <x:c r="A48" t="inlineStr">
         <x:is>
-          <x:t>22/1714</x:t>
+          <x:t>22/1710</x:t>
         </x:is>
       </x:c>
       <x:c r="B48" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C48" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F48" t="inlineStr">
@@ -1689,7 +1690,7 @@
     <x:row r="49">
       <x:c r="A49" t="inlineStr">
         <x:is>
-          <x:t>22/1715</x:t>
+          <x:t>22/1714</x:t>
         </x:is>
       </x:c>
       <x:c r="B49" t="inlineStr">
@@ -1721,17 +1722,17 @@
     <x:row r="50">
       <x:c r="A50" t="inlineStr">
         <x:is>
-          <x:t>22/1718</x:t>
+          <x:t>22/1715</x:t>
         </x:is>
       </x:c>
       <x:c r="B50" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C50" t="inlineStr">
         <x:is>
-          <x:t>FABRICAS DE ALBAÑILERIA</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F50" t="inlineStr">
@@ -1741,29 +1742,29 @@
       </x:c>
       <x:c r="G50" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
+          <x:t>CENTRO DE FORMACION ASISPA</x:t>
         </x:is>
       </x:c>
       <x:c r="H50" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="51">
       <x:c r="A51" t="inlineStr">
         <x:is>
-          <x:t>22/1719</x:t>
+          <x:t>22/1718</x:t>
         </x:is>
       </x:c>
       <x:c r="B51" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0110</x:t>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C51" t="inlineStr">
         <x:is>
-          <x:t>INSTALACION DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
+          <x:t>FABRICAS DE ALBAÑILERIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F51" t="inlineStr">
@@ -1785,17 +1786,17 @@
     <x:row r="52">
       <x:c r="A52" t="inlineStr">
         <x:is>
-          <x:t>22/1725</x:t>
+          <x:t>22/1719</x:t>
         </x:is>
       </x:c>
       <x:c r="B52" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>EOCJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C52" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>INSTALACION DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F52" t="inlineStr">
@@ -1805,29 +1806,29 @@
       </x:c>
       <x:c r="G52" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
         </x:is>
       </x:c>
       <x:c r="H52" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="53">
       <x:c r="A53" t="inlineStr">
         <x:is>
-          <x:t>22/1726</x:t>
+          <x:t>22/1725</x:t>
         </x:is>
       </x:c>
       <x:c r="B53" t="inlineStr">
         <x:is>
-          <x:t>ARGI0209</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C53" t="inlineStr">
         <x:is>
-          <x:t>IMPRESIÓN DIGITAL</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F53" t="inlineStr">
@@ -1837,7 +1838,7 @@
       </x:c>
       <x:c r="G53" t="inlineStr">
         <x:is>
-          <x:t>INST.POLITECN.SALESIANOS</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H53" t="inlineStr">
@@ -1849,7 +1850,7 @@
     <x:row r="54">
       <x:c r="A54" t="inlineStr">
         <x:is>
-          <x:t>22/1727</x:t>
+          <x:t>22/1726</x:t>
         </x:is>
       </x:c>
       <x:c r="B54" t="inlineStr">
@@ -1881,17 +1882,17 @@
     <x:row r="55">
       <x:c r="A55" t="inlineStr">
         <x:is>
-          <x:t>22/1729</x:t>
+          <x:t>22/1727</x:t>
         </x:is>
       </x:c>
       <x:c r="B55" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>ARGI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C55" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELVACIÓN Y TRANSPORTE</x:t>
+          <x:t>IMPRESIÓN DIGITAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F55" t="inlineStr">
@@ -1913,17 +1914,17 @@
     <x:row r="56">
       <x:c r="A56" t="inlineStr">
         <x:is>
-          <x:t>22/1750</x:t>
+          <x:t>22/1729</x:t>
         </x:is>
       </x:c>
       <x:c r="B56" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C56" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F56" t="inlineStr">
@@ -1933,19 +1934,19 @@
       </x:c>
       <x:c r="G56" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
+          <x:t>INST.POLITECN.SALESIANOS</x:t>
         </x:is>
       </x:c>
       <x:c r="H56" t="inlineStr">
         <x:is>
-          <x:t>BOADILLA DEL MONTE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="57">
       <x:c r="A57" t="inlineStr">
         <x:is>
-          <x:t>22/1751</x:t>
+          <x:t>22/1750</x:t>
         </x:is>
       </x:c>
       <x:c r="B57" t="inlineStr">
@@ -1977,7 +1978,7 @@
     <x:row r="58">
       <x:c r="A58" t="inlineStr">
         <x:is>
-          <x:t>22/1752</x:t>
+          <x:t>22/1751</x:t>
         </x:is>
       </x:c>
       <x:c r="B58" t="inlineStr">
@@ -2009,17 +2010,17 @@
     <x:row r="59">
       <x:c r="A59" t="inlineStr">
         <x:is>
-          <x:t>22/1755</x:t>
+          <x:t>22/1752</x:t>
         </x:is>
       </x:c>
       <x:c r="B59" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C59" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F59" t="inlineStr">
@@ -2029,19 +2030,19 @@
       </x:c>
       <x:c r="G59" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL</x:t>
+          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="H59" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>BOADILLA DEL MONTE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="60">
       <x:c r="A60" t="inlineStr">
         <x:is>
-          <x:t>22/1756</x:t>
+          <x:t>22/1755</x:t>
         </x:is>
       </x:c>
       <x:c r="B60" t="inlineStr">
@@ -2073,17 +2074,17 @@
     <x:row r="61">
       <x:c r="A61" t="inlineStr">
         <x:is>
-          <x:t>22/1759</x:t>
+          <x:t>22/1756</x:t>
         </x:is>
       </x:c>
       <x:c r="B61" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C61" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F61" t="inlineStr">
@@ -2093,7 +2094,7 @@
       </x:c>
       <x:c r="G61" t="inlineStr">
         <x:is>
-          <x:t>NRED</x:t>
+          <x:t>FORMACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="H61" t="inlineStr">
@@ -2105,7 +2106,7 @@
     <x:row r="62">
       <x:c r="A62" t="inlineStr">
         <x:is>
-          <x:t>22/1760</x:t>
+          <x:t>22/1759</x:t>
         </x:is>
       </x:c>
       <x:c r="B62" t="inlineStr">
@@ -2137,7 +2138,7 @@
     <x:row r="63">
       <x:c r="A63" t="inlineStr">
         <x:is>
-          <x:t>22/1761</x:t>
+          <x:t>22/1760</x:t>
         </x:is>
       </x:c>
       <x:c r="B63" t="inlineStr">
@@ -2169,7 +2170,7 @@
     <x:row r="64">
       <x:c r="A64" t="inlineStr">
         <x:is>
-          <x:t>22/1762</x:t>
+          <x:t>22/1761</x:t>
         </x:is>
       </x:c>
       <x:c r="B64" t="inlineStr">
@@ -2201,17 +2202,17 @@
     <x:row r="65">
       <x:c r="A65" t="inlineStr">
         <x:is>
-          <x:t>22/1764</x:t>
+          <x:t>22/1762</x:t>
         </x:is>
       </x:c>
       <x:c r="B65" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C65" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F65" t="inlineStr">
@@ -2221,24 +2222,29 @@
       </x:c>
       <x:c r="G65" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA LARA S.L.</x:t>
+          <x:t>NRED</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H65" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="66">
       <x:c r="A66" t="inlineStr">
         <x:is>
-          <x:t>22/1765</x:t>
+          <x:t>22/1764</x:t>
         </x:is>
       </x:c>
       <x:c r="B66" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C66" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F66" t="inlineStr">
@@ -2248,19 +2254,14 @@
       </x:c>
       <x:c r="G66" t="inlineStr">
         <x:is>
-          <x:t>FEMXA FORMACION</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H66" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>AUTOESCUELA LARA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="67">
       <x:c r="A67" t="inlineStr">
         <x:is>
-          <x:t>22/1766</x:t>
+          <x:t>22/1765</x:t>
         </x:is>
       </x:c>
       <x:c r="B67" t="inlineStr">
@@ -2280,7 +2281,7 @@
       </x:c>
       <x:c r="G67" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ACTIVA FORMACION, S.L.</x:t>
+          <x:t>FEMXA FORMACION</x:t>
         </x:is>
       </x:c>
       <x:c r="H67" t="inlineStr">
@@ -2292,17 +2293,17 @@
     <x:row r="68">
       <x:c r="A68" t="inlineStr">
         <x:is>
-          <x:t>22/1775</x:t>
+          <x:t>22/1766</x:t>
         </x:is>
       </x:c>
       <x:c r="B68" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C68" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F68" t="inlineStr">
@@ -2312,7 +2313,7 @@
       </x:c>
       <x:c r="G68" t="inlineStr">
         <x:is>
-          <x:t>PROYECTA EMPLEO</x:t>
+          <x:t>CENTRO DE ESTUDIOS ACTIVA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H68" t="inlineStr">
@@ -2324,17 +2325,17 @@
     <x:row r="69">
       <x:c r="A69" t="inlineStr">
         <x:is>
-          <x:t>22/1777</x:t>
+          <x:t>22/1775</x:t>
         </x:is>
       </x:c>
       <x:c r="B69" t="inlineStr">
         <x:is>
-          <x:t>COMM0112</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C69" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE MARKETING Y COMUNICACIÓN</x:t>
+          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F69" t="inlineStr">
@@ -2344,29 +2345,29 @@
       </x:c>
       <x:c r="G69" t="inlineStr">
         <x:is>
-          <x:t>CENES</x:t>
+          <x:t>PROYECTA EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="H69" t="inlineStr">
         <x:is>
-          <x:t>GETAFE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="70">
       <x:c r="A70" t="inlineStr">
         <x:is>
-          <x:t>22/1781</x:t>
+          <x:t>22/1777</x:t>
         </x:is>
       </x:c>
       <x:c r="B70" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>COMM0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C70" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACION Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>GESTIÓN DE MARKETING Y COMUNICACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F70" t="inlineStr">
@@ -2376,29 +2377,29 @@
       </x:c>
       <x:c r="G70" t="inlineStr">
         <x:is>
-          <x:t>AULA TRES INFORMATICA</x:t>
+          <x:t>CENES</x:t>
         </x:is>
       </x:c>
       <x:c r="H70" t="inlineStr">
         <x:is>
-          <x:t>TRES CANTOS</x:t>
+          <x:t>GETAFE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="71">
       <x:c r="A71" t="inlineStr">
         <x:is>
-          <x:t>22/1783</x:t>
+          <x:t>22/1781</x:t>
         </x:is>
       </x:c>
       <x:c r="B71" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C71" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
+          <x:t>OPERACIONES DE GRABACION Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F71" t="inlineStr">
@@ -2408,29 +2409,29 @@
       </x:c>
       <x:c r="G71" t="inlineStr">
         <x:is>
-          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
+          <x:t>AULA TRES INFORMATICA</x:t>
         </x:is>
       </x:c>
       <x:c r="H71" t="inlineStr">
         <x:is>
-          <x:t>RIVAS-VACIAMADRID</x:t>
+          <x:t>TRES CANTOS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="72">
       <x:c r="A72" t="inlineStr">
         <x:is>
-          <x:t>22/1785</x:t>
+          <x:t>22/1783</x:t>
         </x:is>
       </x:c>
       <x:c r="B72" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C72" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F72" t="inlineStr">
@@ -2452,17 +2453,17 @@
     <x:row r="73">
       <x:c r="A73" t="inlineStr">
         <x:is>
-          <x:t>22/1786</x:t>
+          <x:t>22/1785</x:t>
         </x:is>
       </x:c>
       <x:c r="B73" t="inlineStr">
         <x:is>
-          <x:t>ADGG0308</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C73" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTION EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F73" t="inlineStr">
@@ -2484,17 +2485,17 @@
     <x:row r="74">
       <x:c r="A74" t="inlineStr">
         <x:is>
-          <x:t>22/1788</x:t>
+          <x:t>22/1786</x:t>
         </x:is>
       </x:c>
       <x:c r="B74" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C74" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTION EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F74" t="inlineStr">
@@ -2504,29 +2505,29 @@
       </x:c>
       <x:c r="G74" t="inlineStr">
         <x:is>
-          <x:t>GALA CTM-2</x:t>
+          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H74" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>RIVAS-VACIAMADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="75">
       <x:c r="A75" t="inlineStr">
         <x:is>
-          <x:t>22/1789</x:t>
+          <x:t>22/1788</x:t>
         </x:is>
       </x:c>
       <x:c r="B75" t="inlineStr">
         <x:is>
-          <x:t>IFCT0309</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C75" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F75" t="inlineStr">
@@ -2536,29 +2537,29 @@
       </x:c>
       <x:c r="G75" t="inlineStr">
         <x:is>
-          <x:t>PLATO SUR</x:t>
+          <x:t>GALA CTM-2</x:t>
         </x:is>
       </x:c>
       <x:c r="H75" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="76">
       <x:c r="A76" t="inlineStr">
         <x:is>
-          <x:t>22/1792</x:t>
+          <x:t>22/1789</x:t>
         </x:is>
       </x:c>
       <x:c r="B76" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>IFCT0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C76" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTIÓN ADMINISTRATIVA</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F76" t="inlineStr">
@@ -2568,29 +2569,29 @@
       </x:c>
       <x:c r="G76" t="inlineStr">
         <x:is>
-          <x:t>KIWORKS CUATRO CAMINOS</x:t>
+          <x:t>PLATO SUR</x:t>
         </x:is>
       </x:c>
       <x:c r="H76" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="77">
       <x:c r="A77" t="inlineStr">
         <x:is>
-          <x:t>22/2238</x:t>
+          <x:t>22/1792</x:t>
         </x:is>
       </x:c>
       <x:c r="B77" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C77" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>ACTIVIDADES DE GESTIÓN ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F77" t="inlineStr">
@@ -2600,14 +2601,19 @@
       </x:c>
       <x:c r="G77" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>KIWORKS CUATRO CAMINOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H77" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="78">
       <x:c r="A78" t="inlineStr">
         <x:is>
-          <x:t>22/2239</x:t>
+          <x:t>22/2238</x:t>
         </x:is>
       </x:c>
       <x:c r="B78" t="inlineStr">
@@ -2634,17 +2640,17 @@
     <x:row r="79">
       <x:c r="A79" t="inlineStr">
         <x:is>
-          <x:t>22/2242</x:t>
+          <x:t>22/2239</x:t>
         </x:is>
       </x:c>
       <x:c r="B79" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C79" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F79" t="inlineStr">
@@ -2654,24 +2660,24 @@
       </x:c>
       <x:c r="G79" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="80">
       <x:c r="A80" t="inlineStr">
         <x:is>
-          <x:t>22/2243</x:t>
+          <x:t>22/2242</x:t>
         </x:is>
       </x:c>
       <x:c r="B80" t="inlineStr">
         <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C80" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F80" t="inlineStr">
@@ -2688,17 +2694,17 @@
     <x:row r="81">
       <x:c r="A81" t="inlineStr">
         <x:is>
-          <x:t>22/2244</x:t>
+          <x:t>22/2243</x:t>
         </x:is>
       </x:c>
       <x:c r="B81" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C81" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F81" t="inlineStr">
@@ -2715,17 +2721,17 @@
     <x:row r="82">
       <x:c r="A82" t="inlineStr">
         <x:is>
-          <x:t>22/2245</x:t>
+          <x:t>22/2244</x:t>
         </x:is>
       </x:c>
       <x:c r="B82" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C82" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F82" t="inlineStr">
@@ -2742,17 +2748,17 @@
     <x:row r="83">
       <x:c r="A83" t="inlineStr">
         <x:is>
-          <x:t>22/3933</x:t>
+          <x:t>22/2245</x:t>
         </x:is>
       </x:c>
       <x:c r="B83" t="inlineStr">
         <x:is>
-          <x:t>COMT0210</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C83" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN ADMINISTRATIVA Y FINANCIERA DEL COMERCIO INTERNACIONAL</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F83" t="inlineStr">
@@ -2762,24 +2768,24 @@
       </x:c>
       <x:c r="G83" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="84">
       <x:c r="A84" t="inlineStr">
         <x:is>
-          <x:t>22/5119</x:t>
+          <x:t>22/3933</x:t>
         </x:is>
       </x:c>
       <x:c r="B84" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>COMT0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C84" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>GESTIÓN ADMINISTRATIVA Y FINANCIERA DEL COMERCIO INTERNACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F84" t="inlineStr">
@@ -2789,29 +2795,24 @@
       </x:c>
       <x:c r="G84" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION CARMEN PARDO-VALCARCE</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H84" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="85">
       <x:c r="A85" t="inlineStr">
         <x:is>
-          <x:t>22/5120</x:t>
+          <x:t>22/5119</x:t>
         </x:is>
       </x:c>
       <x:c r="B85" t="inlineStr">
         <x:is>
-          <x:t>AGAX0208</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C85" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN AGRICULTURA</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F85" t="inlineStr">
@@ -2833,17 +2834,17 @@
     <x:row r="86">
       <x:c r="A86" t="inlineStr">
         <x:is>
-          <x:t>22/5121</x:t>
+          <x:t>22/5120</x:t>
         </x:is>
       </x:c>
       <x:c r="B86" t="inlineStr">
         <x:is>
-          <x:t>MAMD0209</x:t>
+          <x:t>AGAX0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C86" t="inlineStr">
         <x:is>
-          <x:t>TRABAJOS DE CARPINTERÍA Y MUEBLE</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN AGRICULTURA</x:t>
         </x:is>
       </x:c>
       <x:c r="F86" t="inlineStr">
@@ -2865,17 +2866,17 @@
     <x:row r="87">
       <x:c r="A87" t="inlineStr">
         <x:is>
-          <x:t>22/5155</x:t>
+          <x:t>22/5121</x:t>
         </x:is>
       </x:c>
       <x:c r="B87" t="inlineStr">
         <x:is>
-          <x:t>EOCE0109</x:t>
+          <x:t>MAMD0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C87" t="inlineStr">
         <x:is>
-          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
+          <x:t>TRABAJOS DE CARPINTERÍA Y MUEBLE</x:t>
         </x:is>
       </x:c>
       <x:c r="F87" t="inlineStr">
@@ -2885,24 +2886,29 @@
       </x:c>
       <x:c r="G87" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>FUNDACION CARMEN PARDO-VALCARCE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H87" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="88">
       <x:c r="A88" t="inlineStr">
         <x:is>
-          <x:t>22/5157</x:t>
+          <x:t>22/5155</x:t>
         </x:is>
       </x:c>
       <x:c r="B88" t="inlineStr">
         <x:is>
-          <x:t>FMEC0210</x:t>
+          <x:t>EOCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C88" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
+          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F88" t="inlineStr">
@@ -2919,17 +2925,17 @@
     <x:row r="89">
       <x:c r="A89" t="inlineStr">
         <x:is>
-          <x:t>22/5159</x:t>
+          <x:t>22/5157</x:t>
         </x:is>
       </x:c>
       <x:c r="B89" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>FMEC0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C89" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
         </x:is>
       </x:c>
       <x:c r="F89" t="inlineStr">
@@ -2946,17 +2952,17 @@
     <x:row r="90">
       <x:c r="A90" t="inlineStr">
         <x:is>
-          <x:t>22/5163</x:t>
+          <x:t>22/5159</x:t>
         </x:is>
       </x:c>
       <x:c r="B90" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C90" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F90" t="inlineStr">
@@ -2973,17 +2979,17 @@
     <x:row r="91">
       <x:c r="A91" t="inlineStr">
         <x:is>
-          <x:t>22/5164</x:t>
+          <x:t>22/5163</x:t>
         </x:is>
       </x:c>
       <x:c r="B91" t="inlineStr">
         <x:is>
-          <x:t>ELEE0209</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C91" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE REDES ELÉCTRICAS DE ALTA TENSIÓN DE SEGUNDA Y TERCERA CATEGORÍA Y CENTROS DE TRANSFORMACIÓN</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F91" t="inlineStr">
@@ -3000,17 +3006,17 @@
     <x:row r="92">
       <x:c r="A92" t="inlineStr">
         <x:is>
-          <x:t>22/5167</x:t>
+          <x:t>22/5164</x:t>
         </x:is>
       </x:c>
       <x:c r="B92" t="inlineStr">
         <x:is>
-          <x:t>EOCB0209</x:t>
+          <x:t>ELEE0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C92" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ACABADOS RÍGIDOS Y URBANIZACIÓN</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE REDES ELÉCTRICAS DE ALTA TENSIÓN DE SEGUNDA Y TERCERA CATEGORÍA Y CENTROS DE TRANSFORMACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F92" t="inlineStr">
@@ -3027,17 +3033,17 @@
     <x:row r="93">
       <x:c r="A93" t="inlineStr">
         <x:is>
-          <x:t>22/5169</x:t>
+          <x:t>22/5167</x:t>
         </x:is>
       </x:c>
       <x:c r="B93" t="inlineStr">
         <x:is>
-          <x:t>EOCE0109</x:t>
+          <x:t>EOCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C93" t="inlineStr">
         <x:is>
-          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ACABADOS RÍGIDOS Y URBANIZACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F93" t="inlineStr">
@@ -3054,17 +3060,17 @@
     <x:row r="94">
       <x:c r="A94" t="inlineStr">
         <x:is>
-          <x:t>22/5170</x:t>
+          <x:t>22/5169</x:t>
         </x:is>
       </x:c>
       <x:c r="B94" t="inlineStr">
         <x:is>
-          <x:t>FMEC0210</x:t>
+          <x:t>EOCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C94" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
+          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F94" t="inlineStr">
@@ -3081,17 +3087,17 @@
     <x:row r="95">
       <x:c r="A95" t="inlineStr">
         <x:is>
-          <x:t>22/5171</x:t>
+          <x:t>22/5170</x:t>
         </x:is>
       </x:c>
       <x:c r="B95" t="inlineStr">
         <x:is>
-          <x:t>MAMD0309</x:t>
+          <x:t>FMEC0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C95" t="inlineStr">
         <x:is>
-          <x:t>PROYECTOS DE CARPINTERÍA Y MUEBLE</x:t>
+          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
         </x:is>
       </x:c>
       <x:c r="F95" t="inlineStr">
@@ -3108,17 +3114,17 @@
     <x:row r="96">
       <x:c r="A96" t="inlineStr">
         <x:is>
-          <x:t>22/5172</x:t>
+          <x:t>22/5171</x:t>
         </x:is>
       </x:c>
       <x:c r="B96" t="inlineStr">
         <x:is>
-          <x:t>MAMR0408</x:t>
+          <x:t>MAMD0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C96" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE MUEBLES</x:t>
+          <x:t>PROYECTOS DE CARPINTERÍA Y MUEBLE</x:t>
         </x:is>
       </x:c>
       <x:c r="F96" t="inlineStr">
@@ -3135,17 +3141,17 @@
     <x:row r="97">
       <x:c r="A97" t="inlineStr">
         <x:is>
-          <x:t>22/5173</x:t>
+          <x:t>22/5172</x:t>
         </x:is>
       </x:c>
       <x:c r="B97" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>MAMR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C97" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>INSTALACIÓN DE MUEBLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F97" t="inlineStr">
@@ -3162,17 +3168,17 @@
     <x:row r="98">
       <x:c r="A98" t="inlineStr">
         <x:is>
-          <x:t>22/5174</x:t>
+          <x:t>22/5173</x:t>
         </x:is>
       </x:c>
       <x:c r="B98" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C98" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F98" t="inlineStr">
@@ -3189,17 +3195,17 @@
     <x:row r="99">
       <x:c r="A99" t="inlineStr">
         <x:is>
-          <x:t>22/5176</x:t>
+          <x:t>22/5174</x:t>
         </x:is>
       </x:c>
       <x:c r="B99" t="inlineStr">
         <x:is>
-          <x:t>SEAG0211</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C99" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN AMBIENTAL</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F99" t="inlineStr">
@@ -3216,17 +3222,17 @@
     <x:row r="100">
       <x:c r="A100" t="inlineStr">
         <x:is>
-          <x:t>22/5180</x:t>
+          <x:t>22/5176</x:t>
         </x:is>
       </x:c>
       <x:c r="B100" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SEAG0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C100" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>GESTIÓN AMBIENTAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F100" t="inlineStr">
@@ -3236,24 +3242,24 @@
       </x:c>
       <x:c r="G100" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="101">
       <x:c r="A101" t="inlineStr">
         <x:is>
-          <x:t>22/5182</x:t>
+          <x:t>22/5180</x:t>
         </x:is>
       </x:c>
       <x:c r="B101" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C101" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F101" t="inlineStr">
@@ -3270,17 +3276,17 @@
     <x:row r="102">
       <x:c r="A102" t="inlineStr">
         <x:is>
-          <x:t>22/5183</x:t>
+          <x:t>22/5182</x:t>
         </x:is>
       </x:c>
       <x:c r="B102" t="inlineStr">
         <x:is>
-          <x:t>HOTA0208</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C102" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE PISOS Y LIMPIEZA EN ALOJAMIENTOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F102" t="inlineStr">
@@ -3297,17 +3303,17 @@
     <x:row r="103">
       <x:c r="A103" t="inlineStr">
         <x:is>
-          <x:t>22/5185</x:t>
+          <x:t>22/5183</x:t>
         </x:is>
       </x:c>
       <x:c r="B103" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>HOTA0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C103" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>GESTIÓN DE PISOS Y LIMPIEZA EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F103" t="inlineStr">
@@ -3324,17 +3330,17 @@
     <x:row r="104">
       <x:c r="A104" t="inlineStr">
         <x:is>
-          <x:t>22/5188</x:t>
+          <x:t>22/5185</x:t>
         </x:is>
       </x:c>
       <x:c r="B104" t="inlineStr">
         <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C104" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F104" t="inlineStr">
@@ -3351,17 +3357,17 @@
     <x:row r="105">
       <x:c r="A105" t="inlineStr">
         <x:is>
-          <x:t>22/5189</x:t>
+          <x:t>22/5188</x:t>
         </x:is>
       </x:c>
       <x:c r="B105" t="inlineStr">
         <x:is>
-          <x:t>AGAO0308M</x:t>
+          <x:t>AGAO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C105" t="inlineStr">
         <x:is>
-          <x:t>JARDINERÍA Y RESTAURACIÓN DEL PAISAJE</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
         </x:is>
       </x:c>
       <x:c r="F105" t="inlineStr">
@@ -3378,17 +3384,17 @@
     <x:row r="106">
       <x:c r="A106" t="inlineStr">
         <x:is>
-          <x:t>22/5193</x:t>
+          <x:t>22/5189</x:t>
         </x:is>
       </x:c>
       <x:c r="B106" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>AGAO0308M</x:t>
         </x:is>
       </x:c>
       <x:c r="C106" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>JARDINERÍA Y RESTAURACIÓN DEL PAISAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F106" t="inlineStr">
@@ -3405,17 +3411,17 @@
     <x:row r="107">
       <x:c r="A107" t="inlineStr">
         <x:is>
-          <x:t>22/5196</x:t>
+          <x:t>22/5193</x:t>
         </x:is>
       </x:c>
       <x:c r="B107" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C107" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F107" t="inlineStr">
@@ -3432,17 +3438,17 @@
     <x:row r="108">
       <x:c r="A108" t="inlineStr">
         <x:is>
-          <x:t>22/5199</x:t>
+          <x:t>22/5196</x:t>
         </x:is>
       </x:c>
       <x:c r="B108" t="inlineStr">
         <x:is>
-          <x:t>HOTR0408</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C108" t="inlineStr">
         <x:is>
-          <x:t>COCINA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F108" t="inlineStr">
@@ -3459,17 +3465,17 @@
     <x:row r="109">
       <x:c r="A109" t="inlineStr">
         <x:is>
-          <x:t>22/5200</x:t>
+          <x:t>22/5199</x:t>
         </x:is>
       </x:c>
       <x:c r="B109" t="inlineStr">
         <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>HOTR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C109" t="inlineStr">
         <x:is>
-          <x:t>REPOSTERÍA</x:t>
+          <x:t>COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F109" t="inlineStr">
@@ -3486,17 +3492,17 @@
     <x:row r="110">
       <x:c r="A110" t="inlineStr">
         <x:is>
-          <x:t>22/5219</x:t>
+          <x:t>22/5200</x:t>
         </x:is>
       </x:c>
       <x:c r="B110" t="inlineStr">
         <x:is>
-          <x:t>AFDA0411</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C110" t="inlineStr">
         <x:is>
-          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA PARA PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>REPOSTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F110" t="inlineStr">
@@ -3506,24 +3512,24 @@
       </x:c>
       <x:c r="G110" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="111">
       <x:c r="A111" t="inlineStr">
         <x:is>
-          <x:t>22/5304</x:t>
+          <x:t>22/5219</x:t>
         </x:is>
       </x:c>
       <x:c r="B111" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>AFDA0411</x:t>
         </x:is>
       </x:c>
       <x:c r="C111" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA PARA PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F111" t="inlineStr">
@@ -3533,19 +3539,24 @@
       </x:c>
       <x:c r="G111" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="112">
       <x:c r="A112" t="inlineStr">
         <x:is>
-          <x:t>4294-27</x:t>
+          <x:t>22/5304</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B112" t="inlineStr">
+        <x:is>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C112" t="inlineStr">
         <x:is>
-          <x:t>MF0710-PRODUCTOS DE REPOSTERÍA</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="F112" t="inlineStr">
@@ -3555,24 +3566,19 @@
       </x:c>
       <x:c r="G112" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="113">
       <x:c r="A113" t="inlineStr">
         <x:is>
-          <x:t>4294-28</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B113" t="inlineStr">
-        <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>4294-27</x:t>
         </x:is>
       </x:c>
       <x:c r="C113" t="inlineStr">
         <x:is>
-          <x:t>MF0711-SEGURIDAD E HIGIENE Y PROTECCIÓN AMBIENTAL EN HOSTELERÍA</x:t>
+          <x:t>MF0710-PRODUCTOS DE REPOSTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F113" t="inlineStr">
@@ -3589,7 +3595,7 @@
     <x:row r="114">
       <x:c r="A114" t="inlineStr">
         <x:is>
-          <x:t>4294-29</x:t>
+          <x:t>4294-28</x:t>
         </x:is>
       </x:c>
       <x:c r="B114" t="inlineStr">
@@ -3599,7 +3605,7 @@
       </x:c>
       <x:c r="C114" t="inlineStr">
         <x:is>
-          <x:t>MF8229-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF0711-SEGURIDAD E HIGIENE Y PROTECCIÓN AMBIENTAL EN HOSTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F114" t="inlineStr">
@@ -3616,17 +3622,17 @@
     <x:row r="115">
       <x:c r="A115" t="inlineStr">
         <x:is>
-          <x:t>4294-30</x:t>
+          <x:t>4294-29</x:t>
         </x:is>
       </x:c>
       <x:c r="B115" t="inlineStr">
         <x:is>
-          <x:t>HOTR0408</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C115" t="inlineStr">
         <x:is>
-          <x:t>MF0259-OFERTAS GASTRONÓMICAS SENCILLAS Y SISTEMAS DE APROVISIONAMIENTO</x:t>
+          <x:t>MF8229-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F115" t="inlineStr">
@@ -3643,17 +3649,17 @@
     <x:row r="116">
       <x:c r="A116" t="inlineStr">
         <x:is>
-          <x:t>4507-24</x:t>
+          <x:t>4294-30</x:t>
         </x:is>
       </x:c>
       <x:c r="B116" t="inlineStr">
         <x:is>
-          <x:t>ADGG0108</x:t>
+          <x:t>HOTR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C116" t="inlineStr">
         <x:is>
-          <x:t>MF8076-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF0259-OFERTAS GASTRONÓMICAS SENCILLAS Y SISTEMAS DE APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F116" t="inlineStr">
@@ -3663,24 +3669,24 @@
       </x:c>
       <x:c r="G116" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="117">
       <x:c r="A117" t="inlineStr">
         <x:is>
-          <x:t>4507-40</x:t>
+          <x:t>4507-24</x:t>
         </x:is>
       </x:c>
       <x:c r="B117" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>ADGG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C117" t="inlineStr">
         <x:is>
-          <x:t>MF8462-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF8076-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F117" t="inlineStr">
@@ -3697,17 +3703,17 @@
     <x:row r="118">
       <x:c r="A118" t="inlineStr">
         <x:is>
-          <x:t>5343-49</x:t>
+          <x:t>4507-40</x:t>
         </x:is>
       </x:c>
       <x:c r="B118" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C118" t="inlineStr">
         <x:is>
-          <x:t>MF1444 IMPARTICIÓN Y TUTORIZACIÓN DE ACCIONES FORMATI  VAS PARA EL EMPLEO</x:t>
+          <x:t>MF8462-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F118" t="inlineStr">
@@ -3717,24 +3723,24 @@
       </x:c>
       <x:c r="G118" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="119">
       <x:c r="A119" t="inlineStr">
         <x:is>
-          <x:t>22/1720</x:t>
+          <x:t>5343-49</x:t>
         </x:is>
       </x:c>
       <x:c r="B119" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C119" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MF1444 IMPARTICIÓN Y TUTORIZACIÓN DE ACCIONES FORMATI  VAS PARA EL EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="F119" t="inlineStr">
@@ -3744,19 +3750,14 @@
       </x:c>
       <x:c r="G119" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H119" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="120">
       <x:c r="A120" t="inlineStr">
         <x:is>
-          <x:t>22/1723</x:t>
+          <x:t>22/1720</x:t>
         </x:is>
       </x:c>
       <x:c r="B120" t="inlineStr">
@@ -3788,17 +3789,17 @@
     <x:row r="121">
       <x:c r="A121" t="inlineStr">
         <x:is>
-          <x:t>22/1716</x:t>
+          <x:t>22/1723</x:t>
         </x:is>
       </x:c>
       <x:c r="B121" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C121" t="inlineStr">
         <x:is>
-          <x:t>INSERCION LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F121" t="inlineStr">
@@ -3808,7 +3809,7 @@
       </x:c>
       <x:c r="G121" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Hada (Edificio de Empresas)</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H121" t="inlineStr">
@@ -3820,17 +3821,17 @@
     <x:row r="122">
       <x:c r="A122" t="inlineStr">
         <x:is>
-          <x:t>22/1721</x:t>
+          <x:t>22/1716</x:t>
         </x:is>
       </x:c>
       <x:c r="B122" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C122" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>INSERCION LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F122" t="inlineStr">
@@ -3840,7 +3841,7 @@
       </x:c>
       <x:c r="G122" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+          <x:t>Centro Formación IME_Hada (Edificio de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H122" t="inlineStr">
@@ -3852,7 +3853,7 @@
     <x:row r="123">
       <x:c r="A123" t="inlineStr">
         <x:is>
-          <x:t>22/1722</x:t>
+          <x:t>22/1721</x:t>
         </x:is>
       </x:c>
       <x:c r="B123" t="inlineStr">
@@ -3884,7 +3885,7 @@
     <x:row r="124">
       <x:c r="A124" t="inlineStr">
         <x:is>
-          <x:t>22/1724</x:t>
+          <x:t>22/1722</x:t>
         </x:is>
       </x:c>
       <x:c r="B124" t="inlineStr">
@@ -3916,17 +3917,17 @@
     <x:row r="125">
       <x:c r="A125" t="inlineStr">
         <x:is>
-          <x:t>22/1794</x:t>
+          <x:t>22/1724</x:t>
         </x:is>
       </x:c>
       <x:c r="B125" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C125" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F125" t="inlineStr">
@@ -3936,24 +3937,29 @@
       </x:c>
       <x:c r="G125" t="inlineStr">
         <x:is>
-          <x:t>Alquiler y Venta Rápida S.L.</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H125" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="126">
       <x:c r="A126" t="inlineStr">
         <x:is>
-          <x:t>23/8000</x:t>
+          <x:t>22/1794</x:t>
         </x:is>
       </x:c>
       <x:c r="B126" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C126" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F126" t="inlineStr">
@@ -3963,24 +3969,24 @@
       </x:c>
       <x:c r="G126" t="inlineStr">
         <x:is>
-          <x:t>IGNACIO RUIZ OSTA</x:t>
+          <x:t>Alquiler y Venta Rápida S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="127">
       <x:c r="A127" t="inlineStr">
         <x:is>
-          <x:t>23/8001</x:t>
+          <x:t>23/8000</x:t>
         </x:is>
       </x:c>
       <x:c r="B127" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C127" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F127" t="inlineStr">
@@ -3990,24 +3996,24 @@
       </x:c>
       <x:c r="G127" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>IGNACIO RUIZ OSTA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="128">
       <x:c r="A128" t="inlineStr">
         <x:is>
-          <x:t>23/8002</x:t>
+          <x:t>23/8001</x:t>
         </x:is>
       </x:c>
       <x:c r="B128" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C128" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F128" t="inlineStr">
@@ -4024,17 +4030,17 @@
     <x:row r="129">
       <x:c r="A129" t="inlineStr">
         <x:is>
-          <x:t>23/8003</x:t>
+          <x:t>23/8002</x:t>
         </x:is>
       </x:c>
       <x:c r="B129" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C129" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F129" t="inlineStr">
@@ -4051,17 +4057,17 @@
     <x:row r="130">
       <x:c r="A130" t="inlineStr">
         <x:is>
-          <x:t>23/8004</x:t>
+          <x:t>23/8003</x:t>
         </x:is>
       </x:c>
       <x:c r="B130" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C130" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F130" t="inlineStr">
@@ -4078,17 +4084,17 @@
     <x:row r="131">
       <x:c r="A131" t="inlineStr">
         <x:is>
-          <x:t>23/8007</x:t>
+          <x:t>23/8004</x:t>
         </x:is>
       </x:c>
       <x:c r="B131" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C131" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="F131" t="inlineStr">
@@ -4105,7 +4111,7 @@
     <x:row r="132">
       <x:c r="A132" t="inlineStr">
         <x:is>
-          <x:t>23/8008</x:t>
+          <x:t>23/8007</x:t>
         </x:is>
       </x:c>
       <x:c r="B132" t="inlineStr">
@@ -4132,17 +4138,17 @@
     <x:row r="133">
       <x:c r="A133" t="inlineStr">
         <x:is>
-          <x:t>23/8010</x:t>
+          <x:t>23/8008</x:t>
         </x:is>
       </x:c>
       <x:c r="B133" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C133" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F133" t="inlineStr">
@@ -4152,24 +4158,24 @@
       </x:c>
       <x:c r="G133" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="134">
       <x:c r="A134" t="inlineStr">
         <x:is>
-          <x:t>23/8011</x:t>
+          <x:t>23/8010</x:t>
         </x:is>
       </x:c>
       <x:c r="B134" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C134" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F134" t="inlineStr">
@@ -4186,17 +4192,17 @@
     <x:row r="135">
       <x:c r="A135" t="inlineStr">
         <x:is>
-          <x:t>23/8012</x:t>
+          <x:t>23/8011</x:t>
         </x:is>
       </x:c>
       <x:c r="B135" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C135" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F135" t="inlineStr">
@@ -4213,17 +4219,17 @@
     <x:row r="136">
       <x:c r="A136" t="inlineStr">
         <x:is>
-          <x:t>23/8013</x:t>
+          <x:t>23/8012</x:t>
         </x:is>
       </x:c>
       <x:c r="B136" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C136" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F136" t="inlineStr">
@@ -4240,17 +4246,17 @@
     <x:row r="137">
       <x:c r="A137" t="inlineStr">
         <x:is>
-          <x:t>23/8014</x:t>
+          <x:t>23/8013</x:t>
         </x:is>
       </x:c>
       <x:c r="B137" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C137" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F137" t="inlineStr">
@@ -4267,17 +4273,17 @@
     <x:row r="138">
       <x:c r="A138" t="inlineStr">
         <x:is>
-          <x:t>23/8015</x:t>
+          <x:t>23/8014</x:t>
         </x:is>
       </x:c>
       <x:c r="B138" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C138" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F138" t="inlineStr">
@@ -4294,17 +4300,17 @@
     <x:row r="139">
       <x:c r="A139" t="inlineStr">
         <x:is>
-          <x:t>23/8016</x:t>
+          <x:t>23/8015</x:t>
         </x:is>
       </x:c>
       <x:c r="B139" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C139" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F139" t="inlineStr">
@@ -4321,17 +4327,17 @@
     <x:row r="140">
       <x:c r="A140" t="inlineStr">
         <x:is>
-          <x:t>23/8017</x:t>
+          <x:t>23/8016</x:t>
         </x:is>
       </x:c>
       <x:c r="B140" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C140" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F140" t="inlineStr">
@@ -4348,17 +4354,17 @@
     <x:row r="141">
       <x:c r="A141" t="inlineStr">
         <x:is>
-          <x:t>23/8018</x:t>
+          <x:t>23/8017</x:t>
         </x:is>
       </x:c>
       <x:c r="B141" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C141" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F141" t="inlineStr">
@@ -4368,29 +4374,24 @@
       </x:c>
       <x:c r="G141" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H141" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="142">
       <x:c r="A142" t="inlineStr">
         <x:is>
-          <x:t>23/8019</x:t>
+          <x:t>23/8018</x:t>
         </x:is>
       </x:c>
       <x:c r="B142" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C142" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F142" t="inlineStr">
@@ -4412,17 +4413,17 @@
     <x:row r="143">
       <x:c r="A143" t="inlineStr">
         <x:is>
-          <x:t>23/8020</x:t>
+          <x:t>23/8019</x:t>
         </x:is>
       </x:c>
       <x:c r="B143" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C143" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F143" t="inlineStr">
@@ -4444,17 +4445,17 @@
     <x:row r="144">
       <x:c r="A144" t="inlineStr">
         <x:is>
-          <x:t>23/8021</x:t>
+          <x:t>23/8020</x:t>
         </x:is>
       </x:c>
       <x:c r="B144" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C144" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F144" t="inlineStr">
@@ -4476,17 +4477,17 @@
     <x:row r="145">
       <x:c r="A145" t="inlineStr">
         <x:is>
-          <x:t>23/8023</x:t>
+          <x:t>23/8021</x:t>
         </x:is>
       </x:c>
       <x:c r="B145" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C145" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F145" t="inlineStr">
@@ -4508,17 +4509,17 @@
     <x:row r="146">
       <x:c r="A146" t="inlineStr">
         <x:is>
-          <x:t>23/8024</x:t>
+          <x:t>23/8023</x:t>
         </x:is>
       </x:c>
       <x:c r="B146" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C146" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F146" t="inlineStr">
@@ -4540,17 +4541,17 @@
     <x:row r="147">
       <x:c r="A147" t="inlineStr">
         <x:is>
-          <x:t>23/8025</x:t>
+          <x:t>23/8024</x:t>
         </x:is>
       </x:c>
       <x:c r="B147" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C147" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F147" t="inlineStr">
@@ -4572,17 +4573,17 @@
     <x:row r="148">
       <x:c r="A148" t="inlineStr">
         <x:is>
-          <x:t>23/8026</x:t>
+          <x:t>23/8025</x:t>
         </x:is>
       </x:c>
       <x:c r="B148" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C148" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F148" t="inlineStr">
@@ -4604,17 +4605,17 @@
     <x:row r="149">
       <x:c r="A149" t="inlineStr">
         <x:is>
-          <x:t>23/8027</x:t>
+          <x:t>23/8026</x:t>
         </x:is>
       </x:c>
       <x:c r="B149" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C149" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F149" t="inlineStr">
@@ -4624,24 +4625,29 @@
       </x:c>
       <x:c r="G149" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
+          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H149" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="150">
       <x:c r="A150" t="inlineStr">
         <x:is>
-          <x:t>23/8028</x:t>
+          <x:t>23/8027</x:t>
         </x:is>
       </x:c>
       <x:c r="B150" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C150" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F150" t="inlineStr">
@@ -4658,17 +4664,17 @@
     <x:row r="151">
       <x:c r="A151" t="inlineStr">
         <x:is>
-          <x:t>23/8029</x:t>
+          <x:t>23/8028</x:t>
         </x:is>
       </x:c>
       <x:c r="B151" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C151" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F151" t="inlineStr">
@@ -4685,17 +4691,17 @@
     <x:row r="152">
       <x:c r="A152" t="inlineStr">
         <x:is>
-          <x:t>23/8030</x:t>
+          <x:t>23/8029</x:t>
         </x:is>
       </x:c>
       <x:c r="B152" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C152" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F152" t="inlineStr">
@@ -4712,17 +4718,17 @@
     <x:row r="153">
       <x:c r="A153" t="inlineStr">
         <x:is>
-          <x:t>23/8031</x:t>
+          <x:t>23/8030</x:t>
         </x:is>
       </x:c>
       <x:c r="B153" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C153" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F153" t="inlineStr">
@@ -4739,17 +4745,17 @@
     <x:row r="154">
       <x:c r="A154" t="inlineStr">
         <x:is>
-          <x:t>23/8032</x:t>
+          <x:t>23/8031</x:t>
         </x:is>
       </x:c>
       <x:c r="B154" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C154" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F154" t="inlineStr">
@@ -4766,17 +4772,17 @@
     <x:row r="155">
       <x:c r="A155" t="inlineStr">
         <x:is>
-          <x:t>23/8033</x:t>
+          <x:t>23/8032</x:t>
         </x:is>
       </x:c>
       <x:c r="B155" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C155" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F155" t="inlineStr">
@@ -4793,17 +4799,17 @@
     <x:row r="156">
       <x:c r="A156" t="inlineStr">
         <x:is>
-          <x:t>23/8034</x:t>
+          <x:t>23/8033</x:t>
         </x:is>
       </x:c>
       <x:c r="B156" t="inlineStr">
         <x:is>
-          <x:t>ELEE0108</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C156" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F156" t="inlineStr">
@@ -4813,24 +4819,24 @@
       </x:c>
       <x:c r="G156" t="inlineStr">
         <x:is>
-          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
+          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="157">
       <x:c r="A157" t="inlineStr">
         <x:is>
-          <x:t>23/8035</x:t>
+          <x:t>23/8034</x:t>
         </x:is>
       </x:c>
       <x:c r="B157" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>ELEE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C157" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F157" t="inlineStr">
@@ -4847,17 +4853,17 @@
     <x:row r="158">
       <x:c r="A158" t="inlineStr">
         <x:is>
-          <x:t>23/8036</x:t>
+          <x:t>23/8035</x:t>
         </x:is>
       </x:c>
       <x:c r="B158" t="inlineStr">
         <x:is>
-          <x:t>ELEE0108</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C158" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F158" t="inlineStr">
@@ -4874,17 +4880,17 @@
     <x:row r="159">
       <x:c r="A159" t="inlineStr">
         <x:is>
-          <x:t>23/8037</x:t>
+          <x:t>23/8036</x:t>
         </x:is>
       </x:c>
       <x:c r="B159" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>ELEE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C159" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F159" t="inlineStr">
@@ -4901,17 +4907,17 @@
     <x:row r="160">
       <x:c r="A160" t="inlineStr">
         <x:is>
-          <x:t>23/8038</x:t>
+          <x:t>23/8037</x:t>
         </x:is>
       </x:c>
       <x:c r="B160" t="inlineStr">
         <x:is>
-          <x:t>QUIA0108</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C160" t="inlineStr">
         <x:is>
-          <x:t>ENSAYOS FÍSICOS Y FISICOQUÍMICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F160" t="inlineStr">
@@ -4921,24 +4927,24 @@
       </x:c>
       <x:c r="G160" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION AGRARIA S.A.</x:t>
+          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="161">
       <x:c r="A161" t="inlineStr">
         <x:is>
-          <x:t>23/8039</x:t>
+          <x:t>23/8038</x:t>
         </x:is>
       </x:c>
       <x:c r="B161" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>QUIA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C161" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>ENSAYOS FÍSICOS Y FISICOQUÍMICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F161" t="inlineStr">
@@ -4948,24 +4954,24 @@
       </x:c>
       <x:c r="G161" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION AGRARIA S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="162">
       <x:c r="A162" t="inlineStr">
         <x:is>
-          <x:t>23/8040</x:t>
+          <x:t>23/8039</x:t>
         </x:is>
       </x:c>
       <x:c r="B162" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C162" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F162" t="inlineStr">
@@ -4982,17 +4988,17 @@
     <x:row r="163">
       <x:c r="A163" t="inlineStr">
         <x:is>
-          <x:t>23/8041</x:t>
+          <x:t>23/8040</x:t>
         </x:is>
       </x:c>
       <x:c r="B163" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C163" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F163" t="inlineStr">
@@ -5009,7 +5015,7 @@
     <x:row r="164">
       <x:c r="A164" t="inlineStr">
         <x:is>
-          <x:t>23/8044</x:t>
+          <x:t>23/8041</x:t>
         </x:is>
       </x:c>
       <x:c r="B164" t="inlineStr">
@@ -5036,17 +5042,17 @@
     <x:row r="165">
       <x:c r="A165" t="inlineStr">
         <x:is>
-          <x:t>23/8045</x:t>
+          <x:t>23/8044</x:t>
         </x:is>
       </x:c>
       <x:c r="B165" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C165" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F165" t="inlineStr">
@@ -5063,17 +5069,17 @@
     <x:row r="166">
       <x:c r="A166" t="inlineStr">
         <x:is>
-          <x:t>23/8046</x:t>
+          <x:t>23/8045</x:t>
         </x:is>
       </x:c>
       <x:c r="B166" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C166" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F166" t="inlineStr">
@@ -5090,17 +5096,17 @@
     <x:row r="167">
       <x:c r="A167" t="inlineStr">
         <x:is>
-          <x:t>23/8047</x:t>
+          <x:t>23/8046</x:t>
         </x:is>
       </x:c>
       <x:c r="B167" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C167" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F167" t="inlineStr">
@@ -5110,24 +5116,24 @@
       </x:c>
       <x:c r="G167" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="168">
       <x:c r="A168" t="inlineStr">
         <x:is>
-          <x:t>23/8048</x:t>
+          <x:t>23/8047</x:t>
         </x:is>
       </x:c>
       <x:c r="B168" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C168" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F168" t="inlineStr">
@@ -5144,17 +5150,17 @@
     <x:row r="169">
       <x:c r="A169" t="inlineStr">
         <x:is>
-          <x:t>23/8049</x:t>
+          <x:t>23/8048</x:t>
         </x:is>
       </x:c>
       <x:c r="B169" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C169" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F169" t="inlineStr">
@@ -5171,17 +5177,17 @@
     <x:row r="170">
       <x:c r="A170" t="inlineStr">
         <x:is>
-          <x:t>23/8051</x:t>
+          <x:t>23/8049</x:t>
         </x:is>
       </x:c>
       <x:c r="B170" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C170" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F170" t="inlineStr">
@@ -5198,17 +5204,17 @@
     <x:row r="171">
       <x:c r="A171" t="inlineStr">
         <x:is>
-          <x:t>23/8052</x:t>
+          <x:t>23/8051</x:t>
         </x:is>
       </x:c>
       <x:c r="B171" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C171" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F171" t="inlineStr">
@@ -5225,17 +5231,17 @@
     <x:row r="172">
       <x:c r="A172" t="inlineStr">
         <x:is>
-          <x:t>23/8053</x:t>
+          <x:t>23/8052</x:t>
         </x:is>
       </x:c>
       <x:c r="B172" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C172" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F172" t="inlineStr">
@@ -5252,17 +5258,17 @@
     <x:row r="173">
       <x:c r="A173" t="inlineStr">
         <x:is>
-          <x:t>23/8054</x:t>
+          <x:t>23/8053</x:t>
         </x:is>
       </x:c>
       <x:c r="B173" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C173" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F173" t="inlineStr">
@@ -5279,17 +5285,17 @@
     <x:row r="174">
       <x:c r="A174" t="inlineStr">
         <x:is>
-          <x:t>23/8058</x:t>
+          <x:t>23/8054</x:t>
         </x:is>
       </x:c>
       <x:c r="B174" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C174" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F174" t="inlineStr">
@@ -5299,24 +5305,24 @@
       </x:c>
       <x:c r="G174" t="inlineStr">
         <x:is>
-          <x:t>MERINERO S.A.</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="175">
       <x:c r="A175" t="inlineStr">
         <x:is>
-          <x:t>23/8059</x:t>
+          <x:t>23/8058</x:t>
         </x:is>
       </x:c>
       <x:c r="B175" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C175" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F175" t="inlineStr">
@@ -5326,14 +5332,14 @@
       </x:c>
       <x:c r="G175" t="inlineStr">
         <x:is>
-          <x:t>GRUPO FIDSOFT S.A</x:t>
+          <x:t>MERINERO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="176">
       <x:c r="A176" t="inlineStr">
         <x:is>
-          <x:t>23/8061</x:t>
+          <x:t>23/8059</x:t>
         </x:is>
       </x:c>
       <x:c r="B176" t="inlineStr">
@@ -5360,17 +5366,17 @@
     <x:row r="177">
       <x:c r="A177" t="inlineStr">
         <x:is>
-          <x:t>23/8062</x:t>
+          <x:t>23/8061</x:t>
         </x:is>
       </x:c>
       <x:c r="B177" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C177" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F177" t="inlineStr">
@@ -5387,17 +5393,17 @@
     <x:row r="178">
       <x:c r="A178" t="inlineStr">
         <x:is>
-          <x:t>23/8063</x:t>
+          <x:t>23/8062</x:t>
         </x:is>
       </x:c>
       <x:c r="B178" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C178" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F178" t="inlineStr">
@@ -5414,17 +5420,17 @@
     <x:row r="179">
       <x:c r="A179" t="inlineStr">
         <x:is>
-          <x:t>23/8064</x:t>
+          <x:t>23/8063</x:t>
         </x:is>
       </x:c>
       <x:c r="B179" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C179" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F179" t="inlineStr">
@@ -5441,17 +5447,17 @@
     <x:row r="180">
       <x:c r="A180" t="inlineStr">
         <x:is>
-          <x:t>23/8065</x:t>
+          <x:t>23/8064</x:t>
         </x:is>
       </x:c>
       <x:c r="B180" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C180" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F180" t="inlineStr">
@@ -5468,17 +5474,17 @@
     <x:row r="181">
       <x:c r="A181" t="inlineStr">
         <x:is>
-          <x:t>23/8066</x:t>
+          <x:t>23/8065</x:t>
         </x:is>
       </x:c>
       <x:c r="B181" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C181" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F181" t="inlineStr">
@@ -5488,24 +5494,24 @@
       </x:c>
       <x:c r="G181" t="inlineStr">
         <x:is>
-          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
+          <x:t>GRUPO FIDSOFT S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="182">
       <x:c r="A182" t="inlineStr">
         <x:is>
-          <x:t>23/8067</x:t>
+          <x:t>23/8066</x:t>
         </x:is>
       </x:c>
       <x:c r="B182" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C182" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F182" t="inlineStr">
@@ -5522,17 +5528,17 @@
     <x:row r="183">
       <x:c r="A183" t="inlineStr">
         <x:is>
-          <x:t>23/8068</x:t>
+          <x:t>23/8067</x:t>
         </x:is>
       </x:c>
       <x:c r="B183" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C183" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F183" t="inlineStr">
@@ -5549,17 +5555,17 @@
     <x:row r="184">
       <x:c r="A184" t="inlineStr">
         <x:is>
-          <x:t>23/8069</x:t>
+          <x:t>23/8068</x:t>
         </x:is>
       </x:c>
       <x:c r="B184" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C184" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F184" t="inlineStr">
@@ -5576,17 +5582,17 @@
     <x:row r="185">
       <x:c r="A185" t="inlineStr">
         <x:is>
-          <x:t>23/8070</x:t>
+          <x:t>23/8069</x:t>
         </x:is>
       </x:c>
       <x:c r="B185" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C185" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F185" t="inlineStr">
@@ -5603,17 +5609,17 @@
     <x:row r="186">
       <x:c r="A186" t="inlineStr">
         <x:is>
-          <x:t>23/8071</x:t>
+          <x:t>23/8070</x:t>
         </x:is>
       </x:c>
       <x:c r="B186" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C186" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F186" t="inlineStr">
@@ -5630,17 +5636,17 @@
     <x:row r="187">
       <x:c r="A187" t="inlineStr">
         <x:is>
-          <x:t>23/8072</x:t>
+          <x:t>23/8071</x:t>
         </x:is>
       </x:c>
       <x:c r="B187" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C187" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F187" t="inlineStr">
@@ -5657,17 +5663,17 @@
     <x:row r="188">
       <x:c r="A188" t="inlineStr">
         <x:is>
-          <x:t>23/8073</x:t>
+          <x:t>23/8072</x:t>
         </x:is>
       </x:c>
       <x:c r="B188" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C188" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F188" t="inlineStr">
@@ -5684,17 +5690,17 @@
     <x:row r="189">
       <x:c r="A189" t="inlineStr">
         <x:is>
-          <x:t>23/8076</x:t>
+          <x:t>23/8073</x:t>
         </x:is>
       </x:c>
       <x:c r="B189" t="inlineStr">
         <x:is>
-          <x:t>AFDA0511</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C189" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F189" t="inlineStr">
@@ -5704,24 +5710,24 @@
       </x:c>
       <x:c r="G189" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
+          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="190">
       <x:c r="A190" t="inlineStr">
         <x:is>
-          <x:t>23/8077</x:t>
+          <x:t>23/8076</x:t>
         </x:is>
       </x:c>
       <x:c r="B190" t="inlineStr">
         <x:is>
-          <x:t>AFDP0209</x:t>
+          <x:t>AFDA0511</x:t>
         </x:is>
       </x:c>
       <x:c r="C190" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
+          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F190" t="inlineStr">
@@ -5738,7 +5744,7 @@
     <x:row r="191">
       <x:c r="A191" t="inlineStr">
         <x:is>
-          <x:t>23/8078</x:t>
+          <x:t>23/8077</x:t>
         </x:is>
       </x:c>
       <x:c r="B191" t="inlineStr">
@@ -5765,17 +5771,17 @@
     <x:row r="192">
       <x:c r="A192" t="inlineStr">
         <x:is>
-          <x:t>23/8079</x:t>
+          <x:t>23/8078</x:t>
         </x:is>
       </x:c>
       <x:c r="B192" t="inlineStr">
         <x:is>
-          <x:t>IMSV0208</x:t>
+          <x:t>AFDP0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C192" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
+          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F192" t="inlineStr">
@@ -5792,17 +5798,17 @@
     <x:row r="193">
       <x:c r="A193" t="inlineStr">
         <x:is>
-          <x:t>23/8080</x:t>
+          <x:t>23/8079</x:t>
         </x:is>
       </x:c>
       <x:c r="B193" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>IMSV0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C193" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F193" t="inlineStr">
@@ -5819,17 +5825,17 @@
     <x:row r="194">
       <x:c r="A194" t="inlineStr">
         <x:is>
-          <x:t>23/8081</x:t>
+          <x:t>23/8080</x:t>
         </x:is>
       </x:c>
       <x:c r="B194" t="inlineStr">
         <x:is>
-          <x:t>AFDA0210</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C194" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F194" t="inlineStr">
@@ -5846,17 +5852,17 @@
     <x:row r="195">
       <x:c r="A195" t="inlineStr">
         <x:is>
-          <x:t>23/8082</x:t>
+          <x:t>23/8081</x:t>
         </x:is>
       </x:c>
       <x:c r="B195" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>AFDA0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C195" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F195" t="inlineStr">
@@ -5866,24 +5872,24 @@
       </x:c>
       <x:c r="G195" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPA SL</x:t>
+          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="196">
       <x:c r="A196" t="inlineStr">
         <x:is>
-          <x:t>23/8083</x:t>
+          <x:t>23/8082</x:t>
         </x:is>
       </x:c>
       <x:c r="B196" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C196" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F196" t="inlineStr">
@@ -5900,17 +5906,17 @@
     <x:row r="197">
       <x:c r="A197" t="inlineStr">
         <x:is>
-          <x:t>23/8084</x:t>
+          <x:t>23/8083</x:t>
         </x:is>
       </x:c>
       <x:c r="B197" t="inlineStr">
         <x:is>
-          <x:t>SEAD0212</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C197" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F197" t="inlineStr">
@@ -5927,17 +5933,17 @@
     <x:row r="198">
       <x:c r="A198" t="inlineStr">
         <x:is>
-          <x:t>23/8085</x:t>
+          <x:t>23/8084</x:t>
         </x:is>
       </x:c>
       <x:c r="B198" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>SEAD0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C198" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F198" t="inlineStr">
@@ -5954,17 +5960,17 @@
     <x:row r="199">
       <x:c r="A199" t="inlineStr">
         <x:is>
-          <x:t>23/8086</x:t>
+          <x:t>23/8085</x:t>
         </x:is>
       </x:c>
       <x:c r="B199" t="inlineStr">
         <x:is>
-          <x:t>SEAD0212</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C199" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F199" t="inlineStr">
@@ -5981,17 +5987,17 @@
     <x:row r="200">
       <x:c r="A200" t="inlineStr">
         <x:is>
-          <x:t>23/8087</x:t>
+          <x:t>23/8086</x:t>
         </x:is>
       </x:c>
       <x:c r="B200" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>SEAD0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C200" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F200" t="inlineStr">
@@ -6008,17 +6014,17 @@
     <x:row r="201">
       <x:c r="A201" t="inlineStr">
         <x:is>
-          <x:t>23/8090</x:t>
+          <x:t>23/8087</x:t>
         </x:is>
       </x:c>
       <x:c r="B201" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C201" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F201" t="inlineStr">
@@ -6028,24 +6034,24 @@
       </x:c>
       <x:c r="G201" t="inlineStr">
         <x:is>
-          <x:t>ALBORAN FORMACION, S.L.</x:t>
+          <x:t>INSTITUTO EUROPA SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="202">
       <x:c r="A202" t="inlineStr">
         <x:is>
-          <x:t>23/8092</x:t>
+          <x:t>23/8090</x:t>
         </x:is>
       </x:c>
       <x:c r="B202" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C202" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F202" t="inlineStr">
@@ -6062,17 +6068,17 @@
     <x:row r="203">
       <x:c r="A203" t="inlineStr">
         <x:is>
-          <x:t>23/8093</x:t>
+          <x:t>23/8092</x:t>
         </x:is>
       </x:c>
       <x:c r="B203" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C203" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F203" t="inlineStr">
@@ -6089,17 +6095,17 @@
     <x:row r="204">
       <x:c r="A204" t="inlineStr">
         <x:is>
-          <x:t>23/8094</x:t>
+          <x:t>23/8093</x:t>
         </x:is>
       </x:c>
       <x:c r="B204" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C204" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F204" t="inlineStr">
@@ -6116,17 +6122,17 @@
     <x:row r="205">
       <x:c r="A205" t="inlineStr">
         <x:is>
-          <x:t>23/8104</x:t>
+          <x:t>23/8094</x:t>
         </x:is>
       </x:c>
       <x:c r="B205" t="inlineStr">
         <x:is>
-          <x:t>AFDA0210</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C205" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F205" t="inlineStr">
@@ -6136,24 +6142,24 @@
       </x:c>
       <x:c r="G205" t="inlineStr">
         <x:is>
-          <x:t>DATA CONTROL FORMACION, SL</x:t>
+          <x:t>ALBORAN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="206">
       <x:c r="A206" t="inlineStr">
         <x:is>
-          <x:t>23/8105</x:t>
+          <x:t>23/8104</x:t>
         </x:is>
       </x:c>
       <x:c r="B206" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>AFDA0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C206" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F206" t="inlineStr">
@@ -6163,24 +6169,24 @@
       </x:c>
       <x:c r="G206" t="inlineStr">
         <x:is>
-          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
+          <x:t>DATA CONTROL FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="207">
       <x:c r="A207" t="inlineStr">
         <x:is>
-          <x:t>23/8106</x:t>
+          <x:t>23/8105</x:t>
         </x:is>
       </x:c>
       <x:c r="B207" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C207" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F207" t="inlineStr">
@@ -6197,17 +6203,17 @@
     <x:row r="208">
       <x:c r="A208" t="inlineStr">
         <x:is>
-          <x:t>23/8107</x:t>
+          <x:t>23/8106</x:t>
         </x:is>
       </x:c>
       <x:c r="B208" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C208" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F208" t="inlineStr">
@@ -6224,17 +6230,17 @@
     <x:row r="209">
       <x:c r="A209" t="inlineStr">
         <x:is>
-          <x:t>23/8108</x:t>
+          <x:t>23/8107</x:t>
         </x:is>
       </x:c>
       <x:c r="B209" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C209" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F209" t="inlineStr">
@@ -6251,17 +6257,17 @@
     <x:row r="210">
       <x:c r="A210" t="inlineStr">
         <x:is>
-          <x:t>23/8109</x:t>
+          <x:t>23/8108</x:t>
         </x:is>
       </x:c>
       <x:c r="B210" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C210" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F210" t="inlineStr">
@@ -6278,17 +6284,17 @@
     <x:row r="211">
       <x:c r="A211" t="inlineStr">
         <x:is>
-          <x:t>23/8110</x:t>
+          <x:t>23/8109</x:t>
         </x:is>
       </x:c>
       <x:c r="B211" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C211" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F211" t="inlineStr">
@@ -6305,17 +6311,17 @@
     <x:row r="212">
       <x:c r="A212" t="inlineStr">
         <x:is>
-          <x:t>23/8111</x:t>
+          <x:t>23/8110</x:t>
         </x:is>
       </x:c>
       <x:c r="B212" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C212" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F212" t="inlineStr">
@@ -6332,17 +6338,17 @@
     <x:row r="213">
       <x:c r="A213" t="inlineStr">
         <x:is>
-          <x:t>23/8112</x:t>
+          <x:t>23/8111</x:t>
         </x:is>
       </x:c>
       <x:c r="B213" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C213" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F213" t="inlineStr">
@@ -6359,17 +6365,17 @@
     <x:row r="214">
       <x:c r="A214" t="inlineStr">
         <x:is>
-          <x:t>23/8113</x:t>
+          <x:t>23/8112</x:t>
         </x:is>
       </x:c>
       <x:c r="B214" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C214" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F214" t="inlineStr">
@@ -6379,14 +6385,14 @@
       </x:c>
       <x:c r="G214" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
+          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="215">
       <x:c r="A215" t="inlineStr">
         <x:is>
-          <x:t>23/8114</x:t>
+          <x:t>23/8113</x:t>
         </x:is>
       </x:c>
       <x:c r="B215" t="inlineStr">
@@ -6413,17 +6419,17 @@
     <x:row r="216">
       <x:c r="A216" t="inlineStr">
         <x:is>
-          <x:t>23/8115</x:t>
+          <x:t>23/8114</x:t>
         </x:is>
       </x:c>
       <x:c r="B216" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C216" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F216" t="inlineStr">
@@ -6440,17 +6446,17 @@
     <x:row r="217">
       <x:c r="A217" t="inlineStr">
         <x:is>
-          <x:t>23/8116</x:t>
+          <x:t>23/8115</x:t>
         </x:is>
       </x:c>
       <x:c r="B217" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C217" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F217" t="inlineStr">
@@ -6467,17 +6473,17 @@
     <x:row r="218">
       <x:c r="A218" t="inlineStr">
         <x:is>
-          <x:t>23/8117</x:t>
+          <x:t>23/8116</x:t>
         </x:is>
       </x:c>
       <x:c r="B218" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C218" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F218" t="inlineStr">
@@ -6494,17 +6500,17 @@
     <x:row r="219">
       <x:c r="A219" t="inlineStr">
         <x:is>
-          <x:t>23/8118</x:t>
+          <x:t>23/8117</x:t>
         </x:is>
       </x:c>
       <x:c r="B219" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C219" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F219" t="inlineStr">
@@ -6521,17 +6527,17 @@
     <x:row r="220">
       <x:c r="A220" t="inlineStr">
         <x:is>
-          <x:t>23/8119</x:t>
+          <x:t>23/8118</x:t>
         </x:is>
       </x:c>
       <x:c r="B220" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C220" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F220" t="inlineStr">
@@ -6548,17 +6554,17 @@
     <x:row r="221">
       <x:c r="A221" t="inlineStr">
         <x:is>
-          <x:t>23/8120</x:t>
+          <x:t>23/8119</x:t>
         </x:is>
       </x:c>
       <x:c r="B221" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C221" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F221" t="inlineStr">
@@ -6575,17 +6581,17 @@
     <x:row r="222">
       <x:c r="A222" t="inlineStr">
         <x:is>
-          <x:t>23/8124</x:t>
+          <x:t>23/8120</x:t>
         </x:is>
       </x:c>
       <x:c r="B222" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C222" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F222" t="inlineStr">
@@ -6595,24 +6601,24 @@
       </x:c>
       <x:c r="G222" t="inlineStr">
         <x:is>
-          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
+          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="223">
       <x:c r="A223" t="inlineStr">
         <x:is>
-          <x:t>23/8125</x:t>
+          <x:t>23/8124</x:t>
         </x:is>
       </x:c>
       <x:c r="B223" t="inlineStr">
         <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C223" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F223" t="inlineStr">
@@ -6629,17 +6635,17 @@
     <x:row r="224">
       <x:c r="A224" t="inlineStr">
         <x:is>
-          <x:t>23/8126</x:t>
+          <x:t>23/8125</x:t>
         </x:is>
       </x:c>
       <x:c r="B224" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C224" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F224" t="inlineStr">
@@ -6656,17 +6662,17 @@
     <x:row r="225">
       <x:c r="A225" t="inlineStr">
         <x:is>
-          <x:t>23/8127</x:t>
+          <x:t>23/8126</x:t>
         </x:is>
       </x:c>
       <x:c r="B225" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C225" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F225" t="inlineStr">
@@ -6683,17 +6689,17 @@
     <x:row r="226">
       <x:c r="A226" t="inlineStr">
         <x:is>
-          <x:t>23/8128</x:t>
+          <x:t>23/8127</x:t>
         </x:is>
       </x:c>
       <x:c r="B226" t="inlineStr">
         <x:is>
-          <x:t>IFCT0409</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C226" t="inlineStr">
         <x:is>
-          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS EN SISTEMAS DOMÓTICOS /INMÓTICOS, DE CONTROL DE ACCESOS Y PRESENCIA Y DE VIDEOVIGILANCIA</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F226" t="inlineStr">
@@ -6710,17 +6716,17 @@
     <x:row r="227">
       <x:c r="A227" t="inlineStr">
         <x:is>
-          <x:t>23/8129</x:t>
+          <x:t>23/8128</x:t>
         </x:is>
       </x:c>
       <x:c r="B227" t="inlineStr">
         <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>IFCT0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C227" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS EN SISTEMAS DOMÓTICOS /INMÓTICOS, DE CONTROL DE ACCESOS Y PRESENCIA Y DE VIDEOVIGILANCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F227" t="inlineStr">
@@ -6737,17 +6743,17 @@
     <x:row r="228">
       <x:c r="A228" t="inlineStr">
         <x:is>
-          <x:t>23/8130</x:t>
+          <x:t>23/8129</x:t>
         </x:is>
       </x:c>
       <x:c r="B228" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C228" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F228" t="inlineStr">
@@ -6764,17 +6770,17 @@
     <x:row r="229">
       <x:c r="A229" t="inlineStr">
         <x:is>
-          <x:t>23/8131</x:t>
+          <x:t>23/8130</x:t>
         </x:is>
       </x:c>
       <x:c r="B229" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C229" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F229" t="inlineStr">
@@ -6791,17 +6797,17 @@
     <x:row r="230">
       <x:c r="A230" t="inlineStr">
         <x:is>
-          <x:t>23/8132</x:t>
+          <x:t>23/8131</x:t>
         </x:is>
       </x:c>
       <x:c r="B230" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C230" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F230" t="inlineStr">
@@ -6811,24 +6817,24 @@
       </x:c>
       <x:c r="G230" t="inlineStr">
         <x:is>
-          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
+          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="231">
       <x:c r="A231" t="inlineStr">
         <x:is>
-          <x:t>23/8133</x:t>
+          <x:t>23/8132</x:t>
         </x:is>
       </x:c>
       <x:c r="B231" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C231" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F231" t="inlineStr">
@@ -6845,17 +6851,17 @@
     <x:row r="232">
       <x:c r="A232" t="inlineStr">
         <x:is>
-          <x:t>23/8134</x:t>
+          <x:t>23/8133</x:t>
         </x:is>
       </x:c>
       <x:c r="B232" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C232" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F232" t="inlineStr">
@@ -6872,17 +6878,17 @@
     <x:row r="233">
       <x:c r="A233" t="inlineStr">
         <x:is>
-          <x:t>23/8135</x:t>
+          <x:t>23/8134</x:t>
         </x:is>
       </x:c>
       <x:c r="B233" t="inlineStr">
         <x:is>
-          <x:t>SSCB0110</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C233" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN, PROGRAMACIÓN Y DESARROLLO DE ACCIONES CULTURALES</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F233" t="inlineStr">
@@ -6899,17 +6905,17 @@
     <x:row r="234">
       <x:c r="A234" t="inlineStr">
         <x:is>
-          <x:t>23/8136</x:t>
+          <x:t>23/8135</x:t>
         </x:is>
       </x:c>
       <x:c r="B234" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>SSCB0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C234" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>DINAMIZACIÓN, PROGRAMACIÓN Y DESARROLLO DE ACCIONES CULTURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F234" t="inlineStr">
@@ -6926,17 +6932,17 @@
     <x:row r="235">
       <x:c r="A235" t="inlineStr">
         <x:is>
-          <x:t>23/8137</x:t>
+          <x:t>23/8136</x:t>
         </x:is>
       </x:c>
       <x:c r="B235" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C235" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F235" t="inlineStr">
@@ -6946,24 +6952,24 @@
       </x:c>
       <x:c r="G235" t="inlineStr">
         <x:is>
-          <x:t>GRADO INFORMATICA Y GESTION SL</x:t>
+          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="236">
       <x:c r="A236" t="inlineStr">
         <x:is>
-          <x:t>23/8138</x:t>
+          <x:t>23/8137</x:t>
         </x:is>
       </x:c>
       <x:c r="B236" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C236" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F236" t="inlineStr">
@@ -6973,24 +6979,24 @@
       </x:c>
       <x:c r="G236" t="inlineStr">
         <x:is>
-          <x:t>NASCOR FORMACION SLU</x:t>
+          <x:t>GRADO INFORMATICA Y GESTION SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="237">
       <x:c r="A237" t="inlineStr">
         <x:is>
-          <x:t>23/8139</x:t>
+          <x:t>23/8138</x:t>
         </x:is>
       </x:c>
       <x:c r="B237" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C237" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F237" t="inlineStr">
@@ -7007,17 +7013,17 @@
     <x:row r="238">
       <x:c r="A238" t="inlineStr">
         <x:is>
-          <x:t>23/8140</x:t>
+          <x:t>23/8139</x:t>
         </x:is>
       </x:c>
       <x:c r="B238" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C238" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F238" t="inlineStr">
@@ -7034,17 +7040,17 @@
     <x:row r="239">
       <x:c r="A239" t="inlineStr">
         <x:is>
-          <x:t>23/8141</x:t>
+          <x:t>23/8140</x:t>
         </x:is>
       </x:c>
       <x:c r="B239" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C239" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F239" t="inlineStr">
@@ -7061,17 +7067,17 @@
     <x:row r="240">
       <x:c r="A240" t="inlineStr">
         <x:is>
-          <x:t>23/8142</x:t>
+          <x:t>23/8141</x:t>
         </x:is>
       </x:c>
       <x:c r="B240" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C240" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F240" t="inlineStr">
@@ -7088,17 +7094,17 @@
     <x:row r="241">
       <x:c r="A241" t="inlineStr">
         <x:is>
-          <x:t>23/8143</x:t>
+          <x:t>23/8142</x:t>
         </x:is>
       </x:c>
       <x:c r="B241" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C241" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F241" t="inlineStr">
@@ -7115,17 +7121,17 @@
     <x:row r="242">
       <x:c r="A242" t="inlineStr">
         <x:is>
-          <x:t>23/8144</x:t>
+          <x:t>23/8143</x:t>
         </x:is>
       </x:c>
       <x:c r="B242" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C242" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F242" t="inlineStr">
@@ -7142,17 +7148,17 @@
     <x:row r="243">
       <x:c r="A243" t="inlineStr">
         <x:is>
-          <x:t>23/8145</x:t>
+          <x:t>23/8144</x:t>
         </x:is>
       </x:c>
       <x:c r="B243" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C243" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F243" t="inlineStr">
@@ -7169,17 +7175,17 @@
     <x:row r="244">
       <x:c r="A244" t="inlineStr">
         <x:is>
-          <x:t>23/8148</x:t>
+          <x:t>23/8145</x:t>
         </x:is>
       </x:c>
       <x:c r="B244" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C244" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F244" t="inlineStr">
@@ -7189,29 +7195,24 @@
       </x:c>
       <x:c r="G244" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION AMBIENTAL DE ASTURIAS, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H244" t="inlineStr">
-        <x:is>
-          <x:t>Getafe</x:t>
+          <x:t>NASCOR FORMACION SLU</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="245">
       <x:c r="A245" t="inlineStr">
         <x:is>
-          <x:t>23/8150</x:t>
+          <x:t>23/8148</x:t>
         </x:is>
       </x:c>
       <x:c r="B245" t="inlineStr">
         <x:is>
-          <x:t>TMVO0212</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C245" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A PASAJEROS, TRIPULACIONES, AERONAVES Y MERCANCÍAS EN AEROPUERTOS</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F245" t="inlineStr">
@@ -7221,29 +7222,29 @@
       </x:c>
       <x:c r="G245" t="inlineStr">
         <x:is>
-          <x:t>PROYECTAEMPLEO S.L.</x:t>
+          <x:t>CENTRO DE FORMACION AMBIENTAL DE ASTURIAS, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H245" t="inlineStr">
         <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>Getafe</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="246">
       <x:c r="A246" t="inlineStr">
         <x:is>
-          <x:t>23/8151</x:t>
+          <x:t>23/8150</x:t>
         </x:is>
       </x:c>
       <x:c r="B246" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>TMVO0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C246" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>ASISTENCIA A PASAJEROS, TRIPULACIONES, AERONAVES Y MERCANCÍAS EN AEROPUERTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F246" t="inlineStr">
@@ -7253,24 +7254,29 @@
       </x:c>
       <x:c r="G246" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>PROYECTAEMPLEO S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H246" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="247">
       <x:c r="A247" t="inlineStr">
         <x:is>
-          <x:t>23/8152</x:t>
+          <x:t>23/8151</x:t>
         </x:is>
       </x:c>
       <x:c r="B247" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C247" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F247" t="inlineStr">
@@ -7287,17 +7293,17 @@
     <x:row r="248">
       <x:c r="A248" t="inlineStr">
         <x:is>
-          <x:t>23/8153</x:t>
+          <x:t>23/8152</x:t>
         </x:is>
       </x:c>
       <x:c r="B248" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C248" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F248" t="inlineStr">
@@ -7314,17 +7320,17 @@
     <x:row r="249">
       <x:c r="A249" t="inlineStr">
         <x:is>
-          <x:t>23/8155</x:t>
+          <x:t>23/8153</x:t>
         </x:is>
       </x:c>
       <x:c r="B249" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C249" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F249" t="inlineStr">
@@ -7341,17 +7347,17 @@
     <x:row r="250">
       <x:c r="A250" t="inlineStr">
         <x:is>
-          <x:t>23/8156</x:t>
+          <x:t>23/8155</x:t>
         </x:is>
       </x:c>
       <x:c r="B250" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C250" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F250" t="inlineStr">
@@ -7368,17 +7374,17 @@
     <x:row r="251">
       <x:c r="A251" t="inlineStr">
         <x:is>
-          <x:t>23/8159</x:t>
+          <x:t>23/8156</x:t>
         </x:is>
       </x:c>
       <x:c r="B251" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C251" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F251" t="inlineStr">
@@ -7388,24 +7394,24 @@
       </x:c>
       <x:c r="G251" t="inlineStr">
         <x:is>
-          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="252">
       <x:c r="A252" t="inlineStr">
         <x:is>
-          <x:t>23/8160</x:t>
+          <x:t>23/8159</x:t>
         </x:is>
       </x:c>
       <x:c r="B252" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C252" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F252" t="inlineStr">
@@ -7422,17 +7428,17 @@
     <x:row r="253">
       <x:c r="A253" t="inlineStr">
         <x:is>
-          <x:t>23/8161</x:t>
+          <x:t>23/8160</x:t>
         </x:is>
       </x:c>
       <x:c r="B253" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C253" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F253" t="inlineStr">
@@ -7449,17 +7455,17 @@
     <x:row r="254">
       <x:c r="A254" t="inlineStr">
         <x:is>
-          <x:t>23/8162</x:t>
+          <x:t>23/8161</x:t>
         </x:is>
       </x:c>
       <x:c r="B254" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C254" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F254" t="inlineStr">
@@ -7476,17 +7482,17 @@
     <x:row r="255">
       <x:c r="A255" t="inlineStr">
         <x:is>
-          <x:t>23/8163</x:t>
+          <x:t>23/8162</x:t>
         </x:is>
       </x:c>
       <x:c r="B255" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C255" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F255" t="inlineStr">
@@ -7503,17 +7509,17 @@
     <x:row r="256">
       <x:c r="A256" t="inlineStr">
         <x:is>
-          <x:t>23/8164</x:t>
+          <x:t>23/8163</x:t>
         </x:is>
       </x:c>
       <x:c r="B256" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C256" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F256" t="inlineStr">
@@ -7530,17 +7536,17 @@
     <x:row r="257">
       <x:c r="A257" t="inlineStr">
         <x:is>
-          <x:t>23/8165</x:t>
+          <x:t>23/8164</x:t>
         </x:is>
       </x:c>
       <x:c r="B257" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C257" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F257" t="inlineStr">
@@ -7557,17 +7563,17 @@
     <x:row r="258">
       <x:c r="A258" t="inlineStr">
         <x:is>
-          <x:t>23/8166</x:t>
+          <x:t>23/8165</x:t>
         </x:is>
       </x:c>
       <x:c r="B258" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C258" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F258" t="inlineStr">
@@ -7584,17 +7590,17 @@
     <x:row r="259">
       <x:c r="A259" t="inlineStr">
         <x:is>
-          <x:t>23/8167</x:t>
+          <x:t>23/8166</x:t>
         </x:is>
       </x:c>
       <x:c r="B259" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C259" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F259" t="inlineStr">
@@ -7604,24 +7610,24 @@
       </x:c>
       <x:c r="G259" t="inlineStr">
         <x:is>
-          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
+          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="260">
       <x:c r="A260" t="inlineStr">
         <x:is>
-          <x:t>23/8168</x:t>
+          <x:t>23/8167</x:t>
         </x:is>
       </x:c>
       <x:c r="B260" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C260" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F260" t="inlineStr">
@@ -7638,17 +7644,17 @@
     <x:row r="261">
       <x:c r="A261" t="inlineStr">
         <x:is>
-          <x:t>23/8169</x:t>
+          <x:t>23/8168</x:t>
         </x:is>
       </x:c>
       <x:c r="B261" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C261" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F261" t="inlineStr">
@@ -7665,7 +7671,7 @@
     <x:row r="262">
       <x:c r="A262" t="inlineStr">
         <x:is>
-          <x:t>23/8170</x:t>
+          <x:t>23/8169</x:t>
         </x:is>
       </x:c>
       <x:c r="B262" t="inlineStr">
@@ -7685,24 +7691,24 @@
       </x:c>
       <x:c r="G262" t="inlineStr">
         <x:is>
-          <x:t>EDITORIAL TÉCNICA CIENTIFICA PRENSA HISPANOAMERICANA S.L</x:t>
+          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="263">
       <x:c r="A263" t="inlineStr">
         <x:is>
-          <x:t>23/8171</x:t>
+          <x:t>23/8170</x:t>
         </x:is>
       </x:c>
       <x:c r="B263" t="inlineStr">
         <x:is>
-          <x:t>TMVG0109</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C263" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F263" t="inlineStr">
@@ -7712,24 +7718,24 @@
       </x:c>
       <x:c r="G263" t="inlineStr">
         <x:is>
-          <x:t>CARS MAROBE S.L.</x:t>
+          <x:t>EDITORIAL TÉCNICA CIENTIFICA PRENSA HISPANOAMERICANA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="264">
       <x:c r="A264" t="inlineStr">
         <x:is>
-          <x:t>23/8172</x:t>
+          <x:t>23/8171</x:t>
         </x:is>
       </x:c>
       <x:c r="B264" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>TMVG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C264" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F264" t="inlineStr">
@@ -7746,17 +7752,17 @@
     <x:row r="265">
       <x:c r="A265" t="inlineStr">
         <x:is>
-          <x:t>23/8173</x:t>
+          <x:t>23/8172</x:t>
         </x:is>
       </x:c>
       <x:c r="B265" t="inlineStr">
         <x:is>
-          <x:t>TMVG0109</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C265" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="F265" t="inlineStr">
@@ -7773,17 +7779,17 @@
     <x:row r="266">
       <x:c r="A266" t="inlineStr">
         <x:is>
-          <x:t>23/8174</x:t>
+          <x:t>23/8173</x:t>
         </x:is>
       </x:c>
       <x:c r="B266" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>TMVG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C266" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F266" t="inlineStr">
@@ -7793,24 +7799,24 @@
       </x:c>
       <x:c r="G266" t="inlineStr">
         <x:is>
-          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
+          <x:t>CARS MAROBE S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="267">
       <x:c r="A267" t="inlineStr">
         <x:is>
-          <x:t>23/8175</x:t>
+          <x:t>23/8174</x:t>
         </x:is>
       </x:c>
       <x:c r="B267" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C267" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F267" t="inlineStr">
@@ -7827,17 +7833,17 @@
     <x:row r="268">
       <x:c r="A268" t="inlineStr">
         <x:is>
-          <x:t>23/8176</x:t>
+          <x:t>23/8175</x:t>
         </x:is>
       </x:c>
       <x:c r="B268" t="inlineStr">
         <x:is>
-          <x:t>IFCT0309</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C268" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F268" t="inlineStr">
@@ -7854,17 +7860,17 @@
     <x:row r="269">
       <x:c r="A269" t="inlineStr">
         <x:is>
-          <x:t>23/8177</x:t>
+          <x:t>23/8176</x:t>
         </x:is>
       </x:c>
       <x:c r="B269" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>IFCT0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C269" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F269" t="inlineStr">
@@ -7881,17 +7887,17 @@
     <x:row r="270">
       <x:c r="A270" t="inlineStr">
         <x:is>
-          <x:t>23/8178</x:t>
+          <x:t>23/8177</x:t>
         </x:is>
       </x:c>
       <x:c r="B270" t="inlineStr">
         <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C270" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F270" t="inlineStr">
@@ -7901,29 +7907,24 @@
       </x:c>
       <x:c r="G270" t="inlineStr">
         <x:is>
-          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H270" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="271">
       <x:c r="A271" t="inlineStr">
         <x:is>
-          <x:t>23/8179</x:t>
+          <x:t>23/8178</x:t>
         </x:is>
       </x:c>
       <x:c r="B271" t="inlineStr">
         <x:is>
-          <x:t>IMSV0208</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C271" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F271" t="inlineStr">
@@ -7945,17 +7946,17 @@
     <x:row r="272">
       <x:c r="A272" t="inlineStr">
         <x:is>
-          <x:t>23/8180</x:t>
+          <x:t>23/8179</x:t>
         </x:is>
       </x:c>
       <x:c r="B272" t="inlineStr">
         <x:is>
-          <x:t>IMSV0408</x:t>
+          <x:t>IMSV0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C272" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA DIRECCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F272" t="inlineStr">
@@ -7977,17 +7978,17 @@
     <x:row r="273">
       <x:c r="A273" t="inlineStr">
         <x:is>
-          <x:t>23/8182</x:t>
+          <x:t>23/8180</x:t>
         </x:is>
       </x:c>
       <x:c r="B273" t="inlineStr">
         <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>IMSV0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C273" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA DIRECCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F273" t="inlineStr">
@@ -8009,17 +8010,17 @@
     <x:row r="274">
       <x:c r="A274" t="inlineStr">
         <x:is>
-          <x:t>23/8183</x:t>
+          <x:t>23/8182</x:t>
         </x:is>
       </x:c>
       <x:c r="B274" t="inlineStr">
         <x:is>
-          <x:t>IMSV0109</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C274" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F274" t="inlineStr">
@@ -8041,17 +8042,17 @@
     <x:row r="275">
       <x:c r="A275" t="inlineStr">
         <x:is>
-          <x:t>23/8185</x:t>
+          <x:t>23/8183</x:t>
         </x:is>
       </x:c>
       <x:c r="B275" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>IMSV0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C275" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F275" t="inlineStr">
@@ -8061,24 +8062,29 @@
       </x:c>
       <x:c r="G275" t="inlineStr">
         <x:is>
-          <x:t>MOSFRIN S.L.</x:t>
+          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H275" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="276">
       <x:c r="A276" t="inlineStr">
         <x:is>
-          <x:t>23/8186</x:t>
+          <x:t>23/8185</x:t>
         </x:is>
       </x:c>
       <x:c r="B276" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C276" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F276" t="inlineStr">
@@ -8095,17 +8101,17 @@
     <x:row r="277">
       <x:c r="A277" t="inlineStr">
         <x:is>
-          <x:t>23/8187</x:t>
+          <x:t>23/8186</x:t>
         </x:is>
       </x:c>
       <x:c r="B277" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C277" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F277" t="inlineStr">
@@ -8122,17 +8128,17 @@
     <x:row r="278">
       <x:c r="A278" t="inlineStr">
         <x:is>
-          <x:t>23/8188</x:t>
+          <x:t>23/8187</x:t>
         </x:is>
       </x:c>
       <x:c r="B278" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C278" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F278" t="inlineStr">
@@ -8149,17 +8155,17 @@
     <x:row r="279">
       <x:c r="A279" t="inlineStr">
         <x:is>
-          <x:t>23/8189</x:t>
+          <x:t>23/8188</x:t>
         </x:is>
       </x:c>
       <x:c r="B279" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C279" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F279" t="inlineStr">
@@ -8176,17 +8182,17 @@
     <x:row r="280">
       <x:c r="A280" t="inlineStr">
         <x:is>
-          <x:t>23/8190</x:t>
+          <x:t>23/8189</x:t>
         </x:is>
       </x:c>
       <x:c r="B280" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C280" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F280" t="inlineStr">
@@ -8203,17 +8209,17 @@
     <x:row r="281">
       <x:c r="A281" t="inlineStr">
         <x:is>
-          <x:t>23/8191</x:t>
+          <x:t>23/8190</x:t>
         </x:is>
       </x:c>
       <x:c r="B281" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C281" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F281" t="inlineStr">
@@ -8230,17 +8236,17 @@
     <x:row r="282">
       <x:c r="A282" t="inlineStr">
         <x:is>
-          <x:t>23/8192</x:t>
+          <x:t>23/8191</x:t>
         </x:is>
       </x:c>
       <x:c r="B282" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C282" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F282" t="inlineStr">
@@ -8250,29 +8256,24 @@
       </x:c>
       <x:c r="G282" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H282" t="inlineStr">
-        <x:is>
-          <x:t>Alcorcón</x:t>
+          <x:t>MOSFRIN S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="283">
       <x:c r="A283" t="inlineStr">
         <x:is>
-          <x:t>23/8193</x:t>
+          <x:t>23/8192</x:t>
         </x:is>
       </x:c>
       <x:c r="B283" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0110</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C283" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F283" t="inlineStr">
@@ -8294,17 +8295,17 @@
     <x:row r="284">
       <x:c r="A284" t="inlineStr">
         <x:is>
-          <x:t>23/8194</x:t>
+          <x:t>23/8193</x:t>
         </x:is>
       </x:c>
       <x:c r="B284" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>AGAJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C284" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F284" t="inlineStr">
@@ -8326,17 +8327,17 @@
     <x:row r="285">
       <x:c r="A285" t="inlineStr">
         <x:is>
-          <x:t>23/8195</x:t>
+          <x:t>23/8194</x:t>
         </x:is>
       </x:c>
       <x:c r="B285" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C285" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F285" t="inlineStr">
@@ -8358,17 +8359,17 @@
     <x:row r="286">
       <x:c r="A286" t="inlineStr">
         <x:is>
-          <x:t>23/8196</x:t>
+          <x:t>23/8195</x:t>
         </x:is>
       </x:c>
       <x:c r="B286" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0110</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C286" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F286" t="inlineStr">
@@ -8390,17 +8391,17 @@
     <x:row r="287">
       <x:c r="A287" t="inlineStr">
         <x:is>
-          <x:t>23/8197</x:t>
+          <x:t>23/8196</x:t>
         </x:is>
       </x:c>
       <x:c r="B287" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>AGAJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C287" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F287" t="inlineStr">
@@ -8422,17 +8423,17 @@
     <x:row r="288">
       <x:c r="A288" t="inlineStr">
         <x:is>
-          <x:t>23/8198</x:t>
+          <x:t>23/8197</x:t>
         </x:is>
       </x:c>
       <x:c r="B288" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0108</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C288" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE PELUQUERÍA</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F288" t="inlineStr">
@@ -8454,17 +8455,17 @@
     <x:row r="289">
       <x:c r="A289" t="inlineStr">
         <x:is>
-          <x:t>23/8199</x:t>
+          <x:t>23/8198</x:t>
         </x:is>
       </x:c>
       <x:c r="B289" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>IMPQ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C289" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>SERVICIOS AUXILIARES DE PELUQUERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F289" t="inlineStr">
@@ -8486,17 +8487,17 @@
     <x:row r="290">
       <x:c r="A290" t="inlineStr">
         <x:is>
-          <x:t>23/8200</x:t>
+          <x:t>23/8199</x:t>
         </x:is>
       </x:c>
       <x:c r="B290" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C290" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F290" t="inlineStr">
@@ -8518,17 +8519,17 @@
     <x:row r="291">
       <x:c r="A291" t="inlineStr">
         <x:is>
-          <x:t>23/8201</x:t>
+          <x:t>23/8200</x:t>
         </x:is>
       </x:c>
       <x:c r="B291" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C291" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F291" t="inlineStr">
@@ -8538,24 +8539,29 @@
       </x:c>
       <x:c r="G291" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H291" t="inlineStr">
+        <x:is>
+          <x:t>Alcorcón</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="292">
       <x:c r="A292" t="inlineStr">
         <x:is>
-          <x:t>23/8202</x:t>
+          <x:t>23/8201</x:t>
         </x:is>
       </x:c>
       <x:c r="B292" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C292" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F292" t="inlineStr">
@@ -8572,17 +8578,17 @@
     <x:row r="293">
       <x:c r="A293" t="inlineStr">
         <x:is>
-          <x:t>23/8203</x:t>
+          <x:t>23/8202</x:t>
         </x:is>
       </x:c>
       <x:c r="B293" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C293" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F293" t="inlineStr">
@@ -8599,17 +8605,17 @@
     <x:row r="294">
       <x:c r="A294" t="inlineStr">
         <x:is>
-          <x:t>23/8206</x:t>
+          <x:t>23/8203</x:t>
         </x:is>
       </x:c>
       <x:c r="B294" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C294" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F294" t="inlineStr">
@@ -8626,17 +8632,17 @@
     <x:row r="295">
       <x:c r="A295" t="inlineStr">
         <x:is>
-          <x:t>23/8207</x:t>
+          <x:t>23/8206</x:t>
         </x:is>
       </x:c>
       <x:c r="B295" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C295" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F295" t="inlineStr">
@@ -8653,17 +8659,17 @@
     <x:row r="296">
       <x:c r="A296" t="inlineStr">
         <x:is>
-          <x:t>23/8208</x:t>
+          <x:t>23/8207</x:t>
         </x:is>
       </x:c>
       <x:c r="B296" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C296" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F296" t="inlineStr">
@@ -8680,17 +8686,17 @@
     <x:row r="297">
       <x:c r="A297" t="inlineStr">
         <x:is>
-          <x:t>23/8209</x:t>
+          <x:t>23/8208</x:t>
         </x:is>
       </x:c>
       <x:c r="B297" t="inlineStr">
         <x:is>
-          <x:t>ELEE0108</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C297" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F297" t="inlineStr">
@@ -8700,24 +8706,24 @@
       </x:c>
       <x:c r="G297" t="inlineStr">
         <x:is>
-          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="298">
       <x:c r="A298" t="inlineStr">
         <x:is>
-          <x:t>23/8210</x:t>
+          <x:t>23/8209</x:t>
         </x:is>
       </x:c>
       <x:c r="B298" t="inlineStr">
         <x:is>
-          <x:t>ENAE0111</x:t>
+          <x:t>ELEE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C298" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F298" t="inlineStr">
@@ -8734,17 +8740,17 @@
     <x:row r="299">
       <x:c r="A299" t="inlineStr">
         <x:is>
-          <x:t>23/8211</x:t>
+          <x:t>23/8210</x:t>
         </x:is>
       </x:c>
       <x:c r="B299" t="inlineStr">
         <x:is>
-          <x:t>ENAE0208</x:t>
+          <x:t>ENAE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C299" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F299" t="inlineStr">
@@ -8761,17 +8767,17 @@
     <x:row r="300">
       <x:c r="A300" t="inlineStr">
         <x:is>
-          <x:t>23/8212</x:t>
+          <x:t>23/8211</x:t>
         </x:is>
       </x:c>
       <x:c r="B300" t="inlineStr">
         <x:is>
-          <x:t>ELEM0111</x:t>
+          <x:t>ENAE0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C300" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F300" t="inlineStr">
@@ -8788,17 +8794,17 @@
     <x:row r="301">
       <x:c r="A301" t="inlineStr">
         <x:is>
-          <x:t>23/8213</x:t>
+          <x:t>23/8212</x:t>
         </x:is>
       </x:c>
       <x:c r="B301" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>ELEM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C301" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F301" t="inlineStr">
@@ -8808,24 +8814,24 @@
       </x:c>
       <x:c r="G301" t="inlineStr">
         <x:is>
-          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
+          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="302">
       <x:c r="A302" t="inlineStr">
         <x:is>
-          <x:t>23/8214</x:t>
+          <x:t>23/8213</x:t>
         </x:is>
       </x:c>
       <x:c r="B302" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C302" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F302" t="inlineStr">
@@ -8842,17 +8848,17 @@
     <x:row r="303">
       <x:c r="A303" t="inlineStr">
         <x:is>
-          <x:t>23/8215</x:t>
+          <x:t>23/8214</x:t>
         </x:is>
       </x:c>
       <x:c r="B303" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C303" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F303" t="inlineStr">
@@ -8869,17 +8875,17 @@
     <x:row r="304">
       <x:c r="A304" t="inlineStr">
         <x:is>
-          <x:t>23/8216</x:t>
+          <x:t>23/8215</x:t>
         </x:is>
       </x:c>
       <x:c r="B304" t="inlineStr">
         <x:is>
-          <x:t>IMAI0108</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C304" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F304" t="inlineStr">
@@ -8896,17 +8902,17 @@
     <x:row r="305">
       <x:c r="A305" t="inlineStr">
         <x:is>
-          <x:t>23/8217</x:t>
+          <x:t>23/8216</x:t>
         </x:is>
       </x:c>
       <x:c r="B305" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>IMAI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C305" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F305" t="inlineStr">
@@ -8923,17 +8929,17 @@
     <x:row r="306">
       <x:c r="A306" t="inlineStr">
         <x:is>
-          <x:t>23/8218</x:t>
+          <x:t>23/8217</x:t>
         </x:is>
       </x:c>
       <x:c r="B306" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C306" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F306" t="inlineStr">
@@ -8950,17 +8956,17 @@
     <x:row r="307">
       <x:c r="A307" t="inlineStr">
         <x:is>
-          <x:t>23/8219</x:t>
+          <x:t>23/8218</x:t>
         </x:is>
       </x:c>
       <x:c r="B307" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C307" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F307" t="inlineStr">
@@ -8977,7 +8983,7 @@
     <x:row r="308">
       <x:c r="A308" t="inlineStr">
         <x:is>
-          <x:t>23/8220</x:t>
+          <x:t>23/8219</x:t>
         </x:is>
       </x:c>
       <x:c r="B308" t="inlineStr">
@@ -9004,17 +9010,17 @@
     <x:row r="309">
       <x:c r="A309" t="inlineStr">
         <x:is>
-          <x:t>23/8224</x:t>
+          <x:t>23/8220</x:t>
         </x:is>
       </x:c>
       <x:c r="B309" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C309" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F309" t="inlineStr">
@@ -9024,24 +9030,24 @@
       </x:c>
       <x:c r="G309" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="310">
       <x:c r="A310" t="inlineStr">
         <x:is>
-          <x:t>23/8225</x:t>
+          <x:t>23/8224</x:t>
         </x:is>
       </x:c>
       <x:c r="B310" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C310" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F310" t="inlineStr">
@@ -9058,17 +9064,17 @@
     <x:row r="311">
       <x:c r="A311" t="inlineStr">
         <x:is>
-          <x:t>23/8228</x:t>
+          <x:t>23/8225</x:t>
         </x:is>
       </x:c>
       <x:c r="B311" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C311" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F311" t="inlineStr">
@@ -9085,17 +9091,17 @@
     <x:row r="312">
       <x:c r="A312" t="inlineStr">
         <x:is>
-          <x:t>23/8229</x:t>
+          <x:t>23/8228</x:t>
         </x:is>
       </x:c>
       <x:c r="B312" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C312" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F312" t="inlineStr">
@@ -9105,14 +9111,14 @@
       </x:c>
       <x:c r="G312" t="inlineStr">
         <x:is>
-          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="313">
       <x:c r="A313" t="inlineStr">
         <x:is>
-          <x:t>23/8230</x:t>
+          <x:t>23/8229</x:t>
         </x:is>
       </x:c>
       <x:c r="B313" t="inlineStr">
@@ -9139,17 +9145,17 @@
     <x:row r="314">
       <x:c r="A314" t="inlineStr">
         <x:is>
-          <x:t>23/8231</x:t>
+          <x:t>23/8230</x:t>
         </x:is>
       </x:c>
       <x:c r="B314" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C314" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F314" t="inlineStr">
@@ -9166,17 +9172,17 @@
     <x:row r="315">
       <x:c r="A315" t="inlineStr">
         <x:is>
-          <x:t>23/8232</x:t>
+          <x:t>23/8231</x:t>
         </x:is>
       </x:c>
       <x:c r="B315" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C315" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F315" t="inlineStr">
@@ -9193,17 +9199,17 @@
     <x:row r="316">
       <x:c r="A316" t="inlineStr">
         <x:is>
-          <x:t>23/8233</x:t>
+          <x:t>23/8232</x:t>
         </x:is>
       </x:c>
       <x:c r="B316" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C316" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F316" t="inlineStr">
@@ -9220,17 +9226,17 @@
     <x:row r="317">
       <x:c r="A317" t="inlineStr">
         <x:is>
-          <x:t>23/8234</x:t>
+          <x:t>23/8233</x:t>
         </x:is>
       </x:c>
       <x:c r="B317" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C317" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F317" t="inlineStr">
@@ -9247,17 +9253,17 @@
     <x:row r="318">
       <x:c r="A318" t="inlineStr">
         <x:is>
-          <x:t>23/8235</x:t>
+          <x:t>23/8234</x:t>
         </x:is>
       </x:c>
       <x:c r="B318" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C318" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F318" t="inlineStr">
@@ -9274,17 +9280,17 @@
     <x:row r="319">
       <x:c r="A319" t="inlineStr">
         <x:is>
-          <x:t>23/8243</x:t>
+          <x:t>23/8235</x:t>
         </x:is>
       </x:c>
       <x:c r="B319" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C319" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F319" t="inlineStr">
@@ -9294,29 +9300,24 @@
       </x:c>
       <x:c r="G319" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H319" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="320">
       <x:c r="A320" t="inlineStr">
         <x:is>
-          <x:t>23/8246</x:t>
+          <x:t>23/8243</x:t>
         </x:is>
       </x:c>
       <x:c r="B320" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C320" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="F320" t="inlineStr">
@@ -9326,24 +9327,29 @@
       </x:c>
       <x:c r="G320" t="inlineStr">
         <x:is>
-          <x:t>HEDIMA DN FORMACION, S.L.</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H320" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="321">
       <x:c r="A321" t="inlineStr">
         <x:is>
-          <x:t>23/8247</x:t>
+          <x:t>23/8246</x:t>
         </x:is>
       </x:c>
       <x:c r="B321" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C321" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F321" t="inlineStr">
@@ -9360,17 +9366,17 @@
     <x:row r="322">
       <x:c r="A322" t="inlineStr">
         <x:is>
-          <x:t>23/8248</x:t>
+          <x:t>23/8247</x:t>
         </x:is>
       </x:c>
       <x:c r="B322" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C322" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F322" t="inlineStr">
@@ -9387,7 +9393,7 @@
     <x:row r="323">
       <x:c r="A323" t="inlineStr">
         <x:is>
-          <x:t>23/8249</x:t>
+          <x:t>23/8248</x:t>
         </x:is>
       </x:c>
       <x:c r="B323" t="inlineStr">
@@ -9414,17 +9420,17 @@
     <x:row r="324">
       <x:c r="A324" t="inlineStr">
         <x:is>
-          <x:t>23/8250</x:t>
+          <x:t>23/8249</x:t>
         </x:is>
       </x:c>
       <x:c r="B324" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C324" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F324" t="inlineStr">
@@ -9434,24 +9440,24 @@
       </x:c>
       <x:c r="G324" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>HEDIMA DN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="325">
       <x:c r="A325" t="inlineStr">
         <x:is>
-          <x:t>23/8251</x:t>
+          <x:t>23/8250</x:t>
         </x:is>
       </x:c>
       <x:c r="B325" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C325" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F325" t="inlineStr">
@@ -9468,17 +9474,17 @@
     <x:row r="326">
       <x:c r="A326" t="inlineStr">
         <x:is>
-          <x:t>23/8252</x:t>
+          <x:t>23/8251</x:t>
         </x:is>
       </x:c>
       <x:c r="B326" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C326" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F326" t="inlineStr">
@@ -9495,17 +9501,17 @@
     <x:row r="327">
       <x:c r="A327" t="inlineStr">
         <x:is>
-          <x:t>23/8253</x:t>
+          <x:t>23/8252</x:t>
         </x:is>
       </x:c>
       <x:c r="B327" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C327" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F327" t="inlineStr">
@@ -9522,7 +9528,7 @@
     <x:row r="328">
       <x:c r="A328" t="inlineStr">
         <x:is>
-          <x:t>23/8254</x:t>
+          <x:t>23/8253</x:t>
         </x:is>
       </x:c>
       <x:c r="B328" t="inlineStr">
@@ -9549,17 +9555,17 @@
     <x:row r="329">
       <x:c r="A329" t="inlineStr">
         <x:is>
-          <x:t>23/8255</x:t>
+          <x:t>23/8254</x:t>
         </x:is>
       </x:c>
       <x:c r="B329" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C329" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F329" t="inlineStr">
@@ -9569,24 +9575,24 @@
       </x:c>
       <x:c r="G329" t="inlineStr">
         <x:is>
-          <x:t>AQUINUVE, SL</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="330">
       <x:c r="A330" t="inlineStr">
         <x:is>
-          <x:t>23/8256</x:t>
+          <x:t>23/8255</x:t>
         </x:is>
       </x:c>
       <x:c r="B330" t="inlineStr">
         <x:is>
-          <x:t>TMVL0409</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C330" t="inlineStr">
         <x:is>
-          <x:t>EMBELLECIMIENTO Y DECORACIÓN DE SUPERFICIES DE VEHÍCULOS</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="F330" t="inlineStr">
@@ -9603,17 +9609,17 @@
     <x:row r="331">
       <x:c r="A331" t="inlineStr">
         <x:is>
-          <x:t>23/8257</x:t>
+          <x:t>23/8256</x:t>
         </x:is>
       </x:c>
       <x:c r="B331" t="inlineStr">
         <x:is>
-          <x:t>TMVL0109</x:t>
+          <x:t>TMVL0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C331" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN CARROCERÍAS DE VEHÍCULOS</x:t>
+          <x:t>EMBELLECIMIENTO Y DECORACIÓN DE SUPERFICIES DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F331" t="inlineStr">
@@ -9630,17 +9636,17 @@
     <x:row r="332">
       <x:c r="A332" t="inlineStr">
         <x:is>
-          <x:t>23/8258</x:t>
+          <x:t>23/8257</x:t>
         </x:is>
       </x:c>
       <x:c r="B332" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>TMVL0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C332" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN CARROCERÍAS DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F332" t="inlineStr">
@@ -9650,24 +9656,24 @@
       </x:c>
       <x:c r="G332" t="inlineStr">
         <x:is>
-          <x:t>ADALID SERVICIOS CORPORATIVOS SL</x:t>
+          <x:t>AQUINUVE, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="333">
       <x:c r="A333" t="inlineStr">
         <x:is>
-          <x:t>23/8259</x:t>
+          <x:t>23/8258</x:t>
         </x:is>
       </x:c>
       <x:c r="B333" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C333" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F333" t="inlineStr">
@@ -9684,17 +9690,17 @@
     <x:row r="334">
       <x:c r="A334" t="inlineStr">
         <x:is>
-          <x:t>23/8260</x:t>
+          <x:t>23/8259</x:t>
         </x:is>
       </x:c>
       <x:c r="B334" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C334" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F334" t="inlineStr">
@@ -9711,17 +9717,17 @@
     <x:row r="335">
       <x:c r="A335" t="inlineStr">
         <x:is>
-          <x:t>23/8261</x:t>
+          <x:t>23/8260</x:t>
         </x:is>
       </x:c>
       <x:c r="B335" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C335" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F335" t="inlineStr">
@@ -9738,17 +9744,17 @@
     <x:row r="336">
       <x:c r="A336" t="inlineStr">
         <x:is>
-          <x:t>23/8262</x:t>
+          <x:t>23/8261</x:t>
         </x:is>
       </x:c>
       <x:c r="B336" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C336" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F336" t="inlineStr">
@@ -9765,17 +9771,17 @@
     <x:row r="337">
       <x:c r="A337" t="inlineStr">
         <x:is>
-          <x:t>23/8263</x:t>
+          <x:t>23/8262</x:t>
         </x:is>
       </x:c>
       <x:c r="B337" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C337" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F337" t="inlineStr">
@@ -9792,17 +9798,17 @@
     <x:row r="338">
       <x:c r="A338" t="inlineStr">
         <x:is>
-          <x:t>23/8264</x:t>
+          <x:t>23/8263</x:t>
         </x:is>
       </x:c>
       <x:c r="B338" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C338" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F338" t="inlineStr">
@@ -9819,17 +9825,17 @@
     <x:row r="339">
       <x:c r="A339" t="inlineStr">
         <x:is>
-          <x:t>23/8265</x:t>
+          <x:t>23/8264</x:t>
         </x:is>
       </x:c>
       <x:c r="B339" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C339" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F339" t="inlineStr">
@@ -9846,17 +9852,17 @@
     <x:row r="340">
       <x:c r="A340" t="inlineStr">
         <x:is>
-          <x:t>23/8266</x:t>
+          <x:t>23/8265</x:t>
         </x:is>
       </x:c>
       <x:c r="B340" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C340" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F340" t="inlineStr">
@@ -9873,17 +9879,17 @@
     <x:row r="341">
       <x:c r="A341" t="inlineStr">
         <x:is>
-          <x:t>23/8270</x:t>
+          <x:t>23/8266</x:t>
         </x:is>
       </x:c>
       <x:c r="B341" t="inlineStr">
         <x:is>
-          <x:t>TMVI0208</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C341" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F341" t="inlineStr">
@@ -9893,14 +9899,14 @@
       </x:c>
       <x:c r="G341" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA GALA S.L.</x:t>
+          <x:t>ADALID SERVICIOS CORPORATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="342">
       <x:c r="A342" t="inlineStr">
         <x:is>
-          <x:t>23/8271</x:t>
+          <x:t>23/8270</x:t>
         </x:is>
       </x:c>
       <x:c r="B342" t="inlineStr">
@@ -9927,17 +9933,17 @@
     <x:row r="343">
       <x:c r="A343" t="inlineStr">
         <x:is>
-          <x:t>23/8272</x:t>
+          <x:t>23/8271</x:t>
         </x:is>
       </x:c>
       <x:c r="B343" t="inlineStr">
         <x:is>
-          <x:t>TMVG0209</x:t>
+          <x:t>TMVI0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C343" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE LOS SISTEMAS ELÉCTRICOS Y ELECTRÓNICOS DE VEHÍCULOS</x:t>
+          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F343" t="inlineStr">
@@ -9954,17 +9960,17 @@
     <x:row r="344">
       <x:c r="A344" t="inlineStr">
         <x:is>
-          <x:t>23/8273</x:t>
+          <x:t>23/8272</x:t>
         </x:is>
       </x:c>
       <x:c r="B344" t="inlineStr">
         <x:is>
-          <x:t>TMVG0409</x:t>
+          <x:t>TMVG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C344" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
+          <x:t>MANTENIMIENTO DE LOS SISTEMAS ELÉCTRICOS Y ELECTRÓNICOS DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F344" t="inlineStr">
@@ -9981,17 +9987,17 @@
     <x:row r="345">
       <x:c r="A345" t="inlineStr">
         <x:is>
-          <x:t>23/8274</x:t>
+          <x:t>23/8273</x:t>
         </x:is>
       </x:c>
       <x:c r="B345" t="inlineStr">
         <x:is>
-          <x:t>TMVI0208</x:t>
+          <x:t>TMVG0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C345" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
         </x:is>
       </x:c>
       <x:c r="F345" t="inlineStr">
@@ -10008,17 +10014,17 @@
     <x:row r="346">
       <x:c r="A346" t="inlineStr">
         <x:is>
-          <x:t>23/8277</x:t>
+          <x:t>23/8274</x:t>
         </x:is>
       </x:c>
       <x:c r="B346" t="inlineStr">
         <x:is>
-          <x:t>IMSV0109</x:t>
+          <x:t>TMVI0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C346" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
+          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F346" t="inlineStr">
@@ -10028,24 +10034,24 @@
       </x:c>
       <x:c r="G346" t="inlineStr">
         <x:is>
-          <x:t>ESCUELA INTERNACIONAL DE MEDIOS AUDIOVISUALES S.L.</x:t>
+          <x:t>AUTOESCUELA GALA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="347">
       <x:c r="A347" t="inlineStr">
         <x:is>
-          <x:t>23/8278</x:t>
+          <x:t>23/8277</x:t>
         </x:is>
       </x:c>
       <x:c r="B347" t="inlineStr">
         <x:is>
-          <x:t>SSCI0209</x:t>
+          <x:t>IMSV0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C347" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y ORGANIZACIÓN DE EQUIPOS DE LIMPIEZA</x:t>
+          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F347" t="inlineStr">
@@ -10055,24 +10061,24 @@
       </x:c>
       <x:c r="G347" t="inlineStr">
         <x:is>
-          <x:t>EDUCALIMPIA SL</x:t>
+          <x:t>ESCUELA INTERNACIONAL DE MEDIOS AUDIOVISUALES S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="348">
       <x:c r="A348" t="inlineStr">
         <x:is>
-          <x:t>23/8279</x:t>
+          <x:t>23/8278</x:t>
         </x:is>
       </x:c>
       <x:c r="B348" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>SSCI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C348" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>GESTIÓN Y ORGANIZACIÓN DE EQUIPOS DE LIMPIEZA</x:t>
         </x:is>
       </x:c>
       <x:c r="F348" t="inlineStr">
@@ -10082,24 +10088,24 @@
       </x:c>
       <x:c r="G348" t="inlineStr">
         <x:is>
-          <x:t>GRUPO AULA FORMACION Y EMERGENCIAS S.L.</x:t>
+          <x:t>EDUCALIMPIA SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="349">
       <x:c r="A349" t="inlineStr">
         <x:is>
-          <x:t>23/8280</x:t>
+          <x:t>23/8279</x:t>
         </x:is>
       </x:c>
       <x:c r="B349" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C349" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F349" t="inlineStr">
@@ -10116,17 +10122,17 @@
     <x:row r="350">
       <x:c r="A350" t="inlineStr">
         <x:is>
-          <x:t>23/8281</x:t>
+          <x:t>23/8280</x:t>
         </x:is>
       </x:c>
       <x:c r="B350" t="inlineStr">
         <x:is>
-          <x:t>TMVI0108</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C350" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F350" t="inlineStr">
@@ -10143,17 +10149,17 @@
     <x:row r="351">
       <x:c r="A351" t="inlineStr">
         <x:is>
-          <x:t>23/8282</x:t>
+          <x:t>23/8281</x:t>
         </x:is>
       </x:c>
       <x:c r="B351" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>TMVI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C351" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
         </x:is>
       </x:c>
       <x:c r="F351" t="inlineStr">
@@ -10170,17 +10176,17 @@
     <x:row r="352">
       <x:c r="A352" t="inlineStr">
         <x:is>
-          <x:t>23/8283</x:t>
+          <x:t>23/8282</x:t>
         </x:is>
       </x:c>
       <x:c r="B352" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C352" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F352" t="inlineStr">
@@ -10197,17 +10203,17 @@
     <x:row r="353">
       <x:c r="A353" t="inlineStr">
         <x:is>
-          <x:t>23/8284</x:t>
+          <x:t>23/8283</x:t>
         </x:is>
       </x:c>
       <x:c r="B353" t="inlineStr">
         <x:is>
-          <x:t>TMVI0108</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C353" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F353" t="inlineStr">
@@ -10224,7 +10230,7 @@
     <x:row r="354">
       <x:c r="A354" t="inlineStr">
         <x:is>
-          <x:t>23/8285</x:t>
+          <x:t>23/8284</x:t>
         </x:is>
       </x:c>
       <x:c r="B354" t="inlineStr">
@@ -10251,7 +10257,7 @@
     <x:row r="355">
       <x:c r="A355" t="inlineStr">
         <x:is>
-          <x:t>23/8286</x:t>
+          <x:t>23/8285</x:t>
         </x:is>
       </x:c>
       <x:c r="B355" t="inlineStr">
@@ -10278,17 +10284,17 @@
     <x:row r="356">
       <x:c r="A356" t="inlineStr">
         <x:is>
-          <x:t>23/8289</x:t>
+          <x:t>23/8286</x:t>
         </x:is>
       </x:c>
       <x:c r="B356" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>TMVI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C356" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
         </x:is>
       </x:c>
       <x:c r="F356" t="inlineStr">
@@ -10298,29 +10304,24 @@
       </x:c>
       <x:c r="G356" t="inlineStr">
         <x:is>
-          <x:t>FORMAJOBS S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H356" t="inlineStr">
-        <x:is>
-          <x:t>Leganés</x:t>
+          <x:t>GRUPO AULA FORMACION Y EMERGENCIAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="357">
       <x:c r="A357" t="inlineStr">
         <x:is>
-          <x:t>23/8291</x:t>
+          <x:t>23/8289</x:t>
         </x:is>
       </x:c>
       <x:c r="B357" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C357" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F357" t="inlineStr">
@@ -10342,17 +10343,17 @@
     <x:row r="358">
       <x:c r="A358" t="inlineStr">
         <x:is>
-          <x:t>23/8292</x:t>
+          <x:t>23/8291</x:t>
         </x:is>
       </x:c>
       <x:c r="B358" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C358" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F358" t="inlineStr">
@@ -10374,7 +10375,7 @@
     <x:row r="359">
       <x:c r="A359" t="inlineStr">
         <x:is>
-          <x:t>23/8293</x:t>
+          <x:t>23/8292</x:t>
         </x:is>
       </x:c>
       <x:c r="B359" t="inlineStr">
@@ -10406,17 +10407,17 @@
     <x:row r="360">
       <x:c r="A360" t="inlineStr">
         <x:is>
-          <x:t>23/8298</x:t>
+          <x:t>23/8293</x:t>
         </x:is>
       </x:c>
       <x:c r="B360" t="inlineStr">
         <x:is>
-          <x:t>ENAE0308</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C360" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F360" t="inlineStr">
@@ -10426,24 +10427,29 @@
       </x:c>
       <x:c r="G360" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>FORMAJOBS S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H360" t="inlineStr">
+        <x:is>
+          <x:t>Leganés</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="361">
       <x:c r="A361" t="inlineStr">
         <x:is>
-          <x:t>23/8299</x:t>
+          <x:t>23/8298</x:t>
         </x:is>
       </x:c>
       <x:c r="B361" t="inlineStr">
         <x:is>
-          <x:t>ENAE0111</x:t>
+          <x:t>ENAE0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C361" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
+          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F361" t="inlineStr">
@@ -10460,17 +10466,17 @@
     <x:row r="362">
       <x:c r="A362" t="inlineStr">
         <x:is>
-          <x:t>23/8300</x:t>
+          <x:t>23/8299</x:t>
         </x:is>
       </x:c>
       <x:c r="B362" t="inlineStr">
         <x:is>
-          <x:t>ENAE0508</x:t>
+          <x:t>ENAE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C362" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F362" t="inlineStr">
@@ -10487,17 +10493,17 @@
     <x:row r="363">
       <x:c r="A363" t="inlineStr">
         <x:is>
-          <x:t>23/8303</x:t>
+          <x:t>23/8300</x:t>
         </x:is>
       </x:c>
       <x:c r="B363" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>ENAE0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C363" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F363" t="inlineStr">
@@ -10507,24 +10513,24 @@
       </x:c>
       <x:c r="G363" t="inlineStr">
         <x:is>
-          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="364">
       <x:c r="A364" t="inlineStr">
         <x:is>
-          <x:t>23/8305</x:t>
+          <x:t>23/8303</x:t>
         </x:is>
       </x:c>
       <x:c r="B364" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C364" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F364" t="inlineStr">
@@ -10541,17 +10547,17 @@
     <x:row r="365">
       <x:c r="A365" t="inlineStr">
         <x:is>
-          <x:t>23/8307</x:t>
+          <x:t>23/8305</x:t>
         </x:is>
       </x:c>
       <x:c r="B365" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C365" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F365" t="inlineStr">
@@ -10568,17 +10574,17 @@
     <x:row r="366">
       <x:c r="A366" t="inlineStr">
         <x:is>
-          <x:t>23/8308</x:t>
+          <x:t>23/8307</x:t>
         </x:is>
       </x:c>
       <x:c r="B366" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C366" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F366" t="inlineStr">
@@ -10595,17 +10601,17 @@
     <x:row r="367">
       <x:c r="A367" t="inlineStr">
         <x:is>
-          <x:t>23/8309</x:t>
+          <x:t>23/8308</x:t>
         </x:is>
       </x:c>
       <x:c r="B367" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C367" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F367" t="inlineStr">
@@ -10622,17 +10628,17 @@
     <x:row r="368">
       <x:c r="A368" t="inlineStr">
         <x:is>
-          <x:t>23/8316</x:t>
+          <x:t>23/8309</x:t>
         </x:is>
       </x:c>
       <x:c r="B368" t="inlineStr">
         <x:is>
-          <x:t>EOCB0208</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C368" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F368" t="inlineStr">
@@ -10642,24 +10648,24 @@
       </x:c>
       <x:c r="G368" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="369">
       <x:c r="A369" t="inlineStr">
         <x:is>
-          <x:t>23/8317</x:t>
+          <x:t>23/8316</x:t>
         </x:is>
       </x:c>
       <x:c r="B369" t="inlineStr">
         <x:is>
-          <x:t>HOTR0208</x:t>
+          <x:t>EOCB0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C369" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F369" t="inlineStr">
@@ -10676,17 +10682,17 @@
     <x:row r="370">
       <x:c r="A370" t="inlineStr">
         <x:is>
-          <x:t>23/8318</x:t>
+          <x:t>23/8317</x:t>
         </x:is>
       </x:c>
       <x:c r="B370" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>HOTR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C370" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
         </x:is>
       </x:c>
       <x:c r="F370" t="inlineStr">
@@ -10703,17 +10709,17 @@
     <x:row r="371">
       <x:c r="A371" t="inlineStr">
         <x:is>
-          <x:t>23/8319</x:t>
+          <x:t>23/8318</x:t>
         </x:is>
       </x:c>
       <x:c r="B371" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C371" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F371" t="inlineStr">
@@ -10723,24 +10729,24 @@
       </x:c>
       <x:c r="G371" t="inlineStr">
         <x:is>
-          <x:t>ECOLE DIMAGE TRIUNFO, S.L.</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="372">
       <x:c r="A372" t="inlineStr">
         <x:is>
-          <x:t>23/8320</x:t>
+          <x:t>23/8319</x:t>
         </x:is>
       </x:c>
       <x:c r="B372" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C372" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F372" t="inlineStr">
@@ -10757,17 +10763,17 @@
     <x:row r="373">
       <x:c r="A373" t="inlineStr">
         <x:is>
-          <x:t>23/8321</x:t>
+          <x:t>23/8320</x:t>
         </x:is>
       </x:c>
       <x:c r="B373" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C373" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F373" t="inlineStr">
@@ -10784,17 +10790,17 @@
     <x:row r="374">
       <x:c r="A374" t="inlineStr">
         <x:is>
-          <x:t>23/8322</x:t>
+          <x:t>23/8321</x:t>
         </x:is>
       </x:c>
       <x:c r="B374" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C374" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F374" t="inlineStr">
@@ -10811,17 +10817,17 @@
     <x:row r="375">
       <x:c r="A375" t="inlineStr">
         <x:is>
-          <x:t>23/8323</x:t>
+          <x:t>23/8322</x:t>
         </x:is>
       </x:c>
       <x:c r="B375" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0308</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C375" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS CAPILARES ESTÉTICOS</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F375" t="inlineStr">
@@ -10838,17 +10844,17 @@
     <x:row r="376">
       <x:c r="A376" t="inlineStr">
         <x:is>
-          <x:t>23/8324</x:t>
+          <x:t>23/8323</x:t>
         </x:is>
       </x:c>
       <x:c r="B376" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMPQ0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C376" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>TRATAMIENTOS CAPILARES ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F376" t="inlineStr">
@@ -10865,17 +10871,17 @@
     <x:row r="377">
       <x:c r="A377" t="inlineStr">
         <x:is>
-          <x:t>23/8326</x:t>
+          <x:t>23/8324</x:t>
         </x:is>
       </x:c>
       <x:c r="B377" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C377" t="inlineStr">
         <x:is>
-          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F377" t="inlineStr">
@@ -10885,24 +10891,24 @@
       </x:c>
       <x:c r="G377" t="inlineStr">
         <x:is>
-          <x:t>ADARA FORMACION, S.L.</x:t>
+          <x:t>ECOLE DIMAGE TRIUNFO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="378">
       <x:c r="A378" t="inlineStr">
         <x:is>
-          <x:t>23/8327</x:t>
+          <x:t>23/8326</x:t>
         </x:is>
       </x:c>
       <x:c r="B378" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0211</x:t>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C378" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
+          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F378" t="inlineStr">
@@ -10919,17 +10925,17 @@
     <x:row r="379">
       <x:c r="A379" t="inlineStr">
         <x:is>
-          <x:t>23/8328</x:t>
+          <x:t>23/8327</x:t>
         </x:is>
       </x:c>
       <x:c r="B379" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>EOCJ0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C379" t="inlineStr">
         <x:is>
-          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
+          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F379" t="inlineStr">
@@ -10946,7 +10952,7 @@
     <x:row r="380">
       <x:c r="A380" t="inlineStr">
         <x:is>
-          <x:t>23/8330</x:t>
+          <x:t>23/8328</x:t>
         </x:is>
       </x:c>
       <x:c r="B380" t="inlineStr">
@@ -10973,17 +10979,17 @@
     <x:row r="381">
       <x:c r="A381" t="inlineStr">
         <x:is>
-          <x:t>23/8331</x:t>
+          <x:t>23/8330</x:t>
         </x:is>
       </x:c>
       <x:c r="B381" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0110</x:t>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C381" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
+          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F381" t="inlineStr">
@@ -11000,17 +11006,17 @@
     <x:row r="382">
       <x:c r="A382" t="inlineStr">
         <x:is>
-          <x:t>23/8332</x:t>
+          <x:t>23/8331</x:t>
         </x:is>
       </x:c>
       <x:c r="B382" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>EOCJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C382" t="inlineStr">
         <x:is>
-          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
+          <x:t>INSTALACIÓN DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F382" t="inlineStr">
@@ -11027,17 +11033,17 @@
     <x:row r="383">
       <x:c r="A383" t="inlineStr">
         <x:is>
-          <x:t>23/8333</x:t>
+          <x:t>23/8332</x:t>
         </x:is>
       </x:c>
       <x:c r="B383" t="inlineStr">
         <x:is>
-          <x:t>SEAD0412</x:t>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C383" t="inlineStr">
         <x:is>
-          <x:t>ADIESTRAMIENTO DE BASE Y EDUCACIÓN CANINA</x:t>
+          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F383" t="inlineStr">
@@ -11047,14 +11053,14 @@
       </x:c>
       <x:c r="G383" t="inlineStr">
         <x:is>
-          <x:t>ESCUELA CANINA NARUB, S.L.</x:t>
+          <x:t>ADARA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="384">
       <x:c r="A384" t="inlineStr">
         <x:is>
-          <x:t>23/8334</x:t>
+          <x:t>23/8333</x:t>
         </x:is>
       </x:c>
       <x:c r="B384" t="inlineStr">
@@ -11081,7 +11087,7 @@
     <x:row r="385">
       <x:c r="A385" t="inlineStr">
         <x:is>
-          <x:t>23/8335</x:t>
+          <x:t>23/8334</x:t>
         </x:is>
       </x:c>
       <x:c r="B385" t="inlineStr">
@@ -11108,17 +11114,17 @@
     <x:row r="386">
       <x:c r="A386" t="inlineStr">
         <x:is>
-          <x:t>23/8336</x:t>
+          <x:t>23/8335</x:t>
         </x:is>
       </x:c>
       <x:c r="B386" t="inlineStr">
         <x:is>
-          <x:t>HOTR0208</x:t>
+          <x:t>SEAD0412</x:t>
         </x:is>
       </x:c>
       <x:c r="C386" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
+          <x:t>ADIESTRAMIENTO DE BASE Y EDUCACIÓN CANINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F386" t="inlineStr">
@@ -11128,19 +11134,14 @@
       </x:c>
       <x:c r="G386" t="inlineStr">
         <x:is>
-          <x:t>LIDER SYSTEM ACADEMY, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H386" t="inlineStr">
-        <x:is>
-          <x:t>Getafe</x:t>
+          <x:t>ESCUELA CANINA NARUB, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="387">
       <x:c r="A387" t="inlineStr">
         <x:is>
-          <x:t>23/8338</x:t>
+          <x:t>23/8336</x:t>
         </x:is>
       </x:c>
       <x:c r="B387" t="inlineStr">
@@ -11172,7 +11173,7 @@
     <x:row r="388">
       <x:c r="A388" t="inlineStr">
         <x:is>
-          <x:t>23/8339</x:t>
+          <x:t>23/8338</x:t>
         </x:is>
       </x:c>
       <x:c r="B388" t="inlineStr">
@@ -11204,17 +11205,17 @@
     <x:row r="389">
       <x:c r="A389" t="inlineStr">
         <x:is>
-          <x:t>23/8340</x:t>
+          <x:t>23/8339</x:t>
         </x:is>
       </x:c>
       <x:c r="B389" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>HOTR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C389" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
         </x:is>
       </x:c>
       <x:c r="F389" t="inlineStr">
@@ -11224,24 +11225,29 @@
       </x:c>
       <x:c r="G389" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>LIDER SYSTEM ACADEMY, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H389" t="inlineStr">
+        <x:is>
+          <x:t>Getafe</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="390">
       <x:c r="A390" t="inlineStr">
         <x:is>
-          <x:t>23/8341</x:t>
+          <x:t>23/8340</x:t>
         </x:is>
       </x:c>
       <x:c r="B390" t="inlineStr">
         <x:is>
-          <x:t>SEAD0212</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C390" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F390" t="inlineStr">
@@ -11258,17 +11264,17 @@
     <x:row r="391">
       <x:c r="A391" t="inlineStr">
         <x:is>
-          <x:t>23/8342</x:t>
+          <x:t>23/8341</x:t>
         </x:is>
       </x:c>
       <x:c r="B391" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>SEAD0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C391" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F391" t="inlineStr">
@@ -11285,17 +11291,17 @@
     <x:row r="392">
       <x:c r="A392" t="inlineStr">
         <x:is>
-          <x:t>23/8351</x:t>
+          <x:t>23/8342</x:t>
         </x:is>
       </x:c>
       <x:c r="B392" t="inlineStr">
         <x:is>
-          <x:t>COMP0108</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C392" t="inlineStr">
         <x:is>
-          <x:t>IMPLANTACIÓN Y ANIMACIÓN DE ESPACIOS COMERCIALES</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="F392" t="inlineStr">
@@ -11305,7 +11311,7 @@
       </x:c>
       <x:c r="G392" t="inlineStr">
         <x:is>
-          <x:t>KNOWLEDGE INNOVATION WORKS, S.L.</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R78ef3a2761344cc4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rb206f266a0de449e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rb206f266a0de449e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R9bc49767ba0b4f86"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R9bc49767ba0b4f86"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R280f5f25b3dd47e1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R280f5f25b3dd47e1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Ra3d8142663194f28"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Ra3d8142663194f28"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rba05f0ef84304863"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rba05f0ef84304863"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R02cf7501edbd4a42"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R02cf7501edbd4a42"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4234bf54d67143fb"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -149,19 +149,24 @@
     <x:row r="4">
       <x:c r="A4" t="inlineStr">
         <x:is>
-          <x:t>25/2143</x:t>
+          <x:t>23/8352</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B4" t="inlineStr">
+        <x:is>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C4" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>46103.9583333333</x:v>
+        <x:v>46126.9166666667</x:v>
       </x:c>
       <x:c r="E4" s="2" t="n">
-        <x:v>46229.9166666667</x:v>
+        <x:v>46215.9166666667</x:v>
       </x:c>
       <x:c r="F4" t="inlineStr">
         <x:is>
@@ -170,36 +175,26 @@
       </x:c>
       <x:c r="G4" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H4" t="inlineStr">
-        <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>KNOWLEDGE INNOVATION WORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="5">
       <x:c r="A5" t="inlineStr">
         <x:is>
-          <x:t>23/8315</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B5" t="inlineStr">
-        <x:is>
-          <x:t>SSCI0109</x:t>
+          <x:t>25/2143</x:t>
         </x:is>
       </x:c>
       <x:c r="C5" t="inlineStr">
         <x:is>
-          <x:t>EMPLEO DOMÉSTICO</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>46097.9583333333</x:v>
+        <x:v>46103.9583333333</x:v>
       </x:c>
       <x:c r="E5" s="2" t="n">
-        <x:v>46132.9166666667</x:v>
+        <x:v>46229.9166666667</x:v>
       </x:c>
       <x:c r="F5" t="inlineStr">
         <x:is>
@@ -208,26 +203,36 @@
       </x:c>
       <x:c r="G5" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H5" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="6">
       <x:c r="A6" t="inlineStr">
         <x:is>
-          <x:t>25/2139</x:t>
+          <x:t>23/8315</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B6" t="inlineStr">
+        <x:is>
+          <x:t>SSCI0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C6" t="inlineStr">
         <x:is>
-          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+          <x:t>EMPLEO DOMÉSTICO</x:t>
         </x:is>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>46075.9583333333</x:v>
+        <x:v>46097.9583333333</x:v>
       </x:c>
       <x:c r="E6" s="2" t="n">
-        <x:v>46288.9166666667</x:v>
+        <x:v>46132.9166666667</x:v>
       </x:c>
       <x:c r="F6" t="inlineStr">
         <x:is>
@@ -236,36 +241,26 @@
       </x:c>
       <x:c r="G6" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H6" t="inlineStr">
-        <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="7">
       <x:c r="A7" t="inlineStr">
         <x:is>
-          <x:t>23/8313</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B7" t="inlineStr">
-        <x:is>
-          <x:t>EOCB0208</x:t>
+          <x:t>25/2139</x:t>
         </x:is>
       </x:c>
       <x:c r="C7" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>46068.9583333333</x:v>
+        <x:v>46075.9583333333</x:v>
       </x:c>
       <x:c r="E7" s="2" t="n">
-        <x:v>46149.9166666667</x:v>
+        <x:v>46288.9166666667</x:v>
       </x:c>
       <x:c r="F7" t="inlineStr">
         <x:is>
@@ -274,31 +269,36 @@
       </x:c>
       <x:c r="G7" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H7" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="8">
       <x:c r="A8" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008592</x:t>
+          <x:t>23/8313</x:t>
         </x:is>
       </x:c>
       <x:c r="B8" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>EOCB0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C8" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>46062.9583333333</x:v>
+        <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E8" s="2" t="n">
-        <x:v>46159.9166666667</x:v>
+        <x:v>46149.9166666667</x:v>
       </x:c>
       <x:c r="F8" t="inlineStr">
         <x:is>
@@ -307,19 +307,14 @@
       </x:c>
       <x:c r="G8" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H8" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="9">
       <x:c r="A9" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008593</x:t>
+          <x:t>FCCC240008592</x:t>
         </x:is>
       </x:c>
       <x:c r="B9" t="inlineStr">
@@ -357,24 +352,24 @@
     <x:row r="10">
       <x:c r="A10" t="inlineStr">
         <x:is>
-          <x:t>23/8297</x:t>
+          <x:t>FCCC240008593</x:t>
         </x:is>
       </x:c>
       <x:c r="B10" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C10" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>46056.9583333333</x:v>
+        <x:v>46062.9583333333</x:v>
       </x:c>
       <x:c r="E10" s="2" t="n">
-        <x:v>46201.9166666667</x:v>
+        <x:v>46159.9166666667</x:v>
       </x:c>
       <x:c r="F10" t="inlineStr">
         <x:is>
@@ -383,31 +378,36 @@
       </x:c>
       <x:c r="G10" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H10" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="11">
       <x:c r="A11" t="inlineStr">
         <x:is>
-          <x:t>23/8344</x:t>
+          <x:t>23/8297</x:t>
         </x:is>
       </x:c>
       <x:c r="B11" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C11" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D11" s="1" t="n">
         <x:v>46056.9583333333</x:v>
       </x:c>
       <x:c r="E11" s="2" t="n">
-        <x:v>46168.9166666667</x:v>
+        <x:v>46201.9166666667</x:v>
       </x:c>
       <x:c r="F11" t="inlineStr">
         <x:is>
@@ -416,31 +416,31 @@
       </x:c>
       <x:c r="G11" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="12">
       <x:c r="A12" t="inlineStr">
         <x:is>
-          <x:t>23/8009</x:t>
+          <x:t>23/8344</x:t>
         </x:is>
       </x:c>
       <x:c r="B12" t="inlineStr">
         <x:is>
-          <x:t>HOTT0112</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C12" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN A PASAJEROS EN TRANSPORTE FERROVIARIO</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D12" s="1" t="n">
-        <x:v>46054.9583333333</x:v>
+        <x:v>46056.9583333333</x:v>
       </x:c>
       <x:c r="E12" s="2" t="n">
-        <x:v>46336.9583333333</x:v>
+        <x:v>46168.9166666667</x:v>
       </x:c>
       <x:c r="F12" t="inlineStr">
         <x:is>
@@ -449,31 +449,31 @@
       </x:c>
       <x:c r="G12" t="inlineStr">
         <x:is>
-          <x:t>BAI FORMACIÓN SA</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="13">
       <x:c r="A13" t="inlineStr">
         <x:is>
-          <x:t>23/8204</x:t>
+          <x:t>23/8241</x:t>
         </x:is>
       </x:c>
       <x:c r="B13" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C13" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="D13" s="1" t="n">
-        <x:v>46054.9583333333</x:v>
+        <x:v>46055.9583333333</x:v>
       </x:c>
       <x:c r="E13" s="2" t="n">
-        <x:v>46188.9166666667</x:v>
+        <x:v>46160.9166666667</x:v>
       </x:c>
       <x:c r="F13" t="inlineStr">
         <x:is>
@@ -482,31 +482,36 @@
       </x:c>
       <x:c r="G13" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H13" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="14">
       <x:c r="A14" t="inlineStr">
         <x:is>
-          <x:t>23/8241</x:t>
+          <x:t>23/8009</x:t>
         </x:is>
       </x:c>
       <x:c r="B14" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>HOTT0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C14" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>ATENCIÓN A PASAJEROS EN TRANSPORTE FERROVIARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D14" s="1" t="n">
         <x:v>46054.9583333333</x:v>
       </x:c>
       <x:c r="E14" s="2" t="n">
-        <x:v>46161.9166666667</x:v>
+        <x:v>46336.9583333333</x:v>
       </x:c>
       <x:c r="F14" t="inlineStr">
         <x:is>
@@ -515,36 +520,31 @@
       </x:c>
       <x:c r="G14" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H14" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>BAI FORMACIÓN SA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="15">
       <x:c r="A15" t="inlineStr">
         <x:is>
-          <x:t>23/8314</x:t>
+          <x:t>23/8204</x:t>
         </x:is>
       </x:c>
       <x:c r="B15" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C15" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D15" s="1" t="n">
-        <x:v>46048.9583333333</x:v>
+        <x:v>46054.9583333333</x:v>
       </x:c>
       <x:c r="E15" s="2" t="n">
-        <x:v>46167.9166666667</x:v>
+        <x:v>46188.9166666667</x:v>
       </x:c>
       <x:c r="F15" t="inlineStr">
         <x:is>
@@ -553,31 +553,31 @@
       </x:c>
       <x:c r="G15" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="16">
       <x:c r="A16" t="inlineStr">
         <x:is>
-          <x:t>23/8343</x:t>
+          <x:t>23/8242</x:t>
         </x:is>
       </x:c>
       <x:c r="B16" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C16" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D16" s="1" t="n">
         <x:v>46048.9583333333</x:v>
       </x:c>
       <x:c r="E16" s="2" t="n">
-        <x:v>46169.9166666667</x:v>
+        <x:v>46174.9166666667</x:v>
       </x:c>
       <x:c r="F16" t="inlineStr">
         <x:is>
@@ -586,31 +586,36 @@
       </x:c>
       <x:c r="G16" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H16" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="17">
       <x:c r="A17" t="inlineStr">
         <x:is>
-          <x:t>23/8205</x:t>
+          <x:t>23/8314</x:t>
         </x:is>
       </x:c>
       <x:c r="B17" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C17" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D17" s="1" t="n">
-        <x:v>46047.9583333333</x:v>
+        <x:v>46048.9583333333</x:v>
       </x:c>
       <x:c r="E17" s="2" t="n">
-        <x:v>46154.9166666667</x:v>
+        <x:v>46167.9166666667</x:v>
       </x:c>
       <x:c r="F17" t="inlineStr">
         <x:is>
@@ -619,31 +624,31 @@
       </x:c>
       <x:c r="G17" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="18">
       <x:c r="A18" t="inlineStr">
         <x:is>
-          <x:t>23/8242</x:t>
+          <x:t>23/8343</x:t>
         </x:is>
       </x:c>
       <x:c r="B18" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C18" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="D18" s="1" t="n">
-        <x:v>46047.9583333333</x:v>
+        <x:v>46048.9583333333</x:v>
       </x:c>
       <x:c r="E18" s="2" t="n">
-        <x:v>46170.9166666667</x:v>
+        <x:v>46169.9166666667</x:v>
       </x:c>
       <x:c r="F18" t="inlineStr">
         <x:is>
@@ -652,36 +657,31 @@
       </x:c>
       <x:c r="G18" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H18" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="19">
       <x:c r="A19" t="inlineStr">
         <x:is>
-          <x:t>23/8306</x:t>
+          <x:t>23/8205</x:t>
         </x:is>
       </x:c>
       <x:c r="B19" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C19" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D19" s="1" t="n">
         <x:v>46047.9583333333</x:v>
       </x:c>
       <x:c r="E19" s="2" t="n">
-        <x:v>46147.9166666667</x:v>
+        <x:v>46154.9166666667</x:v>
       </x:c>
       <x:c r="F19" t="inlineStr">
         <x:is>
@@ -690,31 +690,31 @@
       </x:c>
       <x:c r="G19" t="inlineStr">
         <x:is>
-          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="20">
       <x:c r="A20" t="inlineStr">
         <x:is>
-          <x:t>23/8325</x:t>
+          <x:t>23/8306</x:t>
         </x:is>
       </x:c>
       <x:c r="B20" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C20" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D20" s="1" t="n">
         <x:v>46047.9583333333</x:v>
       </x:c>
       <x:c r="E20" s="2" t="n">
-        <x:v>46194.9166666667</x:v>
+        <x:v>46147.9166666667</x:v>
       </x:c>
       <x:c r="F20" t="inlineStr">
         <x:is>
@@ -723,31 +723,31 @@
       </x:c>
       <x:c r="G20" t="inlineStr">
         <x:is>
-          <x:t>CONECTANDO LOCAL, S.L.</x:t>
+          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="21">
       <x:c r="A21" t="inlineStr">
         <x:is>
-          <x:t>23/8100</x:t>
+          <x:t>23/8325</x:t>
         </x:is>
       </x:c>
       <x:c r="B21" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C21" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D21" s="1" t="n">
-        <x:v>46043.9583333333</x:v>
+        <x:v>46047.9583333333</x:v>
       </x:c>
       <x:c r="E21" s="2" t="n">
-        <x:v>46196.9166666667</x:v>
+        <x:v>46194.9166666667</x:v>
       </x:c>
       <x:c r="F21" t="inlineStr">
         <x:is>
@@ -756,26 +756,31 @@
       </x:c>
       <x:c r="G21" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>CONECTANDO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="22">
       <x:c r="A22" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008548</x:t>
+          <x:t>23/8100</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B22" t="inlineStr">
+        <x:is>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C22" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D22" s="1" t="n">
-        <x:v>46042.9583333333</x:v>
+        <x:v>46043.9583333333</x:v>
       </x:c>
       <x:c r="E22" s="2" t="n">
-        <x:v>46159.9166666667</x:v>
+        <x:v>46196.9166666667</x:v>
       </x:c>
       <x:c r="F22" t="inlineStr">
         <x:is>
@@ -784,36 +789,26 @@
       </x:c>
       <x:c r="G22" t="inlineStr">
         <x:is>
-          <x:t>DETUATUFORMACION S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H22" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="23">
       <x:c r="A23" t="inlineStr">
         <x:is>
-          <x:t>23/8101</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B23" t="inlineStr">
-        <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>FCCC240008548</x:t>
         </x:is>
       </x:c>
       <x:c r="C23" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D23" s="1" t="n">
-        <x:v>46041.9583333333</x:v>
+        <x:v>46042.9583333333</x:v>
       </x:c>
       <x:c r="E23" s="2" t="n">
-        <x:v>46127.9166666667</x:v>
+        <x:v>46159.9166666667</x:v>
       </x:c>
       <x:c r="F23" t="inlineStr">
         <x:is>
@@ -822,31 +817,36 @@
       </x:c>
       <x:c r="G23" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>DETUATUFORMACION S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H23" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="24">
       <x:c r="A24" t="inlineStr">
         <x:is>
-          <x:t>23/8099</x:t>
+          <x:t>23/8101</x:t>
         </x:is>
       </x:c>
       <x:c r="B24" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C24" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D24" s="1" t="n">
-        <x:v>46036.9583333333</x:v>
+        <x:v>46041.9583333333</x:v>
       </x:c>
       <x:c r="E24" s="2" t="n">
-        <x:v>46169.9166666667</x:v>
+        <x:v>46127.9166666667</x:v>
       </x:c>
       <x:c r="F24" t="inlineStr">
         <x:is>
@@ -862,24 +862,24 @@
     <x:row r="25">
       <x:c r="A25" t="inlineStr">
         <x:is>
-          <x:t>23/8416</x:t>
+          <x:t>23/8099</x:t>
         </x:is>
       </x:c>
       <x:c r="B25" t="inlineStr">
         <x:is>
-          <x:t>AGAX0208</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C25" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN AGRICULTURA</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D25" s="1" t="n">
         <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E25" s="2" t="n">
-        <x:v>46135.9166666667</x:v>
+        <x:v>46169.9166666667</x:v>
       </x:c>
       <x:c r="F25" t="inlineStr">
         <x:is>
@@ -888,36 +888,31 @@
       </x:c>
       <x:c r="G25" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION CARMEN PARDO-VALCARCE</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H25" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="26">
       <x:c r="A26" t="inlineStr">
         <x:is>
-          <x:t>FCCC240008590</x:t>
+          <x:t>23/8416</x:t>
         </x:is>
       </x:c>
       <x:c r="B26" t="inlineStr">
         <x:is>
-          <x:t>ENAE0208</x:t>
+          <x:t>AGAX0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C26" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN AGRICULTURA</x:t>
         </x:is>
       </x:c>
       <x:c r="D26" s="1" t="n">
         <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E26" s="2" t="n">
-        <x:v>46141.9166666667</x:v>
+        <x:v>46135.9166666667</x:v>
       </x:c>
       <x:c r="F26" t="inlineStr">
         <x:is>
@@ -926,31 +921,36 @@
       </x:c>
       <x:c r="G26" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL INSTALACIONES</x:t>
+          <x:t>FUNDACION CARMEN PARDO-VALCARCE</x:t>
         </x:is>
       </x:c>
       <x:c r="H26" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="27">
       <x:c r="A27" t="inlineStr">
         <x:is>
-          <x:t>25/2148</x:t>
+          <x:t>FCCC240008590</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B27" t="inlineStr">
+        <x:is>
+          <x:t>ENAE0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C27" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D27" s="1" t="n">
         <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E27" s="2" t="n">
-        <x:v>46180.9166666667</x:v>
+        <x:v>46141.9166666667</x:v>
       </x:c>
       <x:c r="F27" t="inlineStr">
         <x:is>
@@ -959,36 +959,31 @@
       </x:c>
       <x:c r="G27" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+          <x:t>FORMACIONAL INSTALACIONES</x:t>
         </x:is>
       </x:c>
       <x:c r="H27" t="inlineStr">
         <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="28">
       <x:c r="A28" t="inlineStr">
         <x:is>
-          <x:t>23/8387</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B28" t="inlineStr">
-        <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>25/2148</x:t>
         </x:is>
       </x:c>
       <x:c r="C28" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D28" s="1" t="n">
-        <x:v>46035.9583333333</x:v>
+        <x:v>46036.9583333333</x:v>
       </x:c>
       <x:c r="E28" s="2" t="n">
-        <x:v>46153.9583333333</x:v>
+        <x:v>46180.9166666667</x:v>
       </x:c>
       <x:c r="F28" t="inlineStr">
         <x:is>
@@ -997,24 +992,29 @@
       </x:c>
       <x:c r="G28" t="inlineStr">
         <x:is>
-          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H28" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="29">
       <x:c r="A29" t="inlineStr">
         <x:is>
-          <x:t>23/8388</x:t>
+          <x:t>23/8387</x:t>
         </x:is>
       </x:c>
       <x:c r="B29" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C29" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D29" s="1" t="n">
@@ -1037,19 +1037,24 @@
     <x:row r="30">
       <x:c r="A30" t="inlineStr">
         <x:is>
-          <x:t>25/2142</x:t>
+          <x:t>23/8388</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B30" t="inlineStr">
+        <x:is>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C30" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D30" s="1" t="n">
         <x:v>46035.9583333333</x:v>
       </x:c>
       <x:c r="E30" s="2" t="n">
-        <x:v>46173.9166666667</x:v>
+        <x:v>46153.9583333333</x:v>
       </x:c>
       <x:c r="F30" t="inlineStr">
         <x:is>
@@ -1058,31 +1063,26 @@
       </x:c>
       <x:c r="G30" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H30" t="inlineStr">
-        <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="31">
       <x:c r="A31" t="inlineStr">
         <x:is>
-          <x:t>25/2151</x:t>
+          <x:t>25/2142</x:t>
         </x:is>
       </x:c>
       <x:c r="C31" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D31" s="1" t="n">
         <x:v>46035.9583333333</x:v>
       </x:c>
       <x:c r="E31" s="2" t="n">
-        <x:v>46187.9166666667</x:v>
+        <x:v>46173.9166666667</x:v>
       </x:c>
       <x:c r="F31" t="inlineStr">
         <x:is>
@@ -1103,24 +1103,19 @@
     <x:row r="32">
       <x:c r="A32" t="inlineStr">
         <x:is>
-          <x:t>23/8102</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B32" t="inlineStr">
-        <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>25/2151</x:t>
         </x:is>
       </x:c>
       <x:c r="C32" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D32" s="1" t="n">
-        <x:v>46034.9583333333</x:v>
+        <x:v>46035.9583333333</x:v>
       </x:c>
       <x:c r="E32" s="2" t="n">
-        <x:v>46145.9166666667</x:v>
+        <x:v>46187.9166666667</x:v>
       </x:c>
       <x:c r="F32" t="inlineStr">
         <x:is>
@@ -1129,31 +1124,36 @@
       </x:c>
       <x:c r="G32" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H32" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="33">
       <x:c r="A33" t="inlineStr">
         <x:is>
-          <x:t>23/8226</x:t>
+          <x:t>23/8102</x:t>
         </x:is>
       </x:c>
       <x:c r="B33" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C33" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D33" s="1" t="n">
         <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E33" s="2" t="n">
-        <x:v>46161.9166666667</x:v>
+        <x:v>46145.9166666667</x:v>
       </x:c>
       <x:c r="F33" t="inlineStr">
         <x:is>
@@ -1162,26 +1162,31 @@
       </x:c>
       <x:c r="G33" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="34">
       <x:c r="A34" t="inlineStr">
         <x:is>
-          <x:t>25/2135</x:t>
+          <x:t>23/8226</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B34" t="inlineStr">
+        <x:is>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C34" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D34" s="1" t="n">
         <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E34" s="2" t="n">
-        <x:v>46174.9166666667</x:v>
+        <x:v>46161.9166666667</x:v>
       </x:c>
       <x:c r="F34" t="inlineStr">
         <x:is>
@@ -1190,36 +1195,26 @@
       </x:c>
       <x:c r="G34" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H34" t="inlineStr">
-        <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="35">
       <x:c r="A35" t="inlineStr">
         <x:is>
-          <x:t>23/8221</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B35" t="inlineStr">
-        <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>25/2135</x:t>
         </x:is>
       </x:c>
       <x:c r="C35" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D35" s="1" t="n">
-        <x:v>46033.9583333333</x:v>
+        <x:v>46034.9583333333</x:v>
       </x:c>
       <x:c r="E35" s="2" t="n">
-        <x:v>46184.9166666667</x:v>
+        <x:v>46174.9166666667</x:v>
       </x:c>
       <x:c r="F35" t="inlineStr">
         <x:is>
@@ -1228,31 +1223,36 @@
       </x:c>
       <x:c r="G35" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H35" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="36">
       <x:c r="A36" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003865</x:t>
+          <x:t>23/8221</x:t>
         </x:is>
       </x:c>
       <x:c r="B36" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0210</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C36" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE MANUTENCIÓN, ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="D36" s="1" t="n">
         <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E36" s="2" t="n">
-        <x:v>46110.9166666667</x:v>
+        <x:v>46184.9166666667</x:v>
       </x:c>
       <x:c r="F36" t="inlineStr">
         <x:is>
@@ -1261,29 +1261,24 @@
       </x:c>
       <x:c r="G36" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H36" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="37">
       <x:c r="A37" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003866</x:t>
+          <x:t>FDEC240003865</x:t>
         </x:is>
       </x:c>
       <x:c r="B37" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>IMAQ0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C37" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE MANUTENCIÓN, ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D37" s="1" t="n">
@@ -1311,17 +1306,17 @@
     <x:row r="38">
       <x:c r="A38" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003867</x:t>
+          <x:t>FDEC240003866</x:t>
         </x:is>
       </x:c>
       <x:c r="B38" t="inlineStr">
         <x:is>
-          <x:t>IMAR0209</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C38" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D38" s="1" t="n">
@@ -1349,17 +1344,17 @@
     <x:row r="39">
       <x:c r="A39" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003868</x:t>
+          <x:t>FDEC240003867</x:t>
         </x:is>
       </x:c>
       <x:c r="B39" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>IMAR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C39" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D39" s="1" t="n">
@@ -1387,19 +1382,24 @@
     <x:row r="40">
       <x:c r="A40" t="inlineStr">
         <x:is>
-          <x:t>25/2145</x:t>
+          <x:t>FDEC240003868</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B40" t="inlineStr">
+        <x:is>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C40" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE REDES DEPARTAMENTALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D40" s="1" t="n">
         <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E40" s="2" t="n">
-        <x:v>46191.9166666667</x:v>
+        <x:v>46110.9166666667</x:v>
       </x:c>
       <x:c r="F40" t="inlineStr">
         <x:is>
@@ -1408,36 +1408,31 @@
       </x:c>
       <x:c r="G40" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H40" t="inlineStr">
         <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="41">
       <x:c r="A41" t="inlineStr">
         <x:is>
-          <x:t>23/8158</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B41" t="inlineStr">
-        <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>25/2145</x:t>
         </x:is>
       </x:c>
       <x:c r="C41" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>OPERACIONES DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D41" s="1" t="n">
-        <x:v>46028.9583333333</x:v>
+        <x:v>46033.9583333333</x:v>
       </x:c>
       <x:c r="E41" s="2" t="n">
-        <x:v>46121.9166666667</x:v>
+        <x:v>46191.9166666667</x:v>
       </x:c>
       <x:c r="F41" t="inlineStr">
         <x:is>
@@ -1446,31 +1441,36 @@
       </x:c>
       <x:c r="G41" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H41" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="42">
       <x:c r="A42" t="inlineStr">
         <x:is>
-          <x:t>23/8337</x:t>
+          <x:t>23/8158</x:t>
         </x:is>
       </x:c>
       <x:c r="B42" t="inlineStr">
         <x:is>
-          <x:t>HOTR0208</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C42" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D42" s="1" t="n">
         <x:v>46028.9583333333</x:v>
       </x:c>
       <x:c r="E42" s="2" t="n">
-        <x:v>46132.9166666667</x:v>
+        <x:v>46121.9166666667</x:v>
       </x:c>
       <x:c r="F42" t="inlineStr">
         <x:is>
@@ -1479,36 +1479,31 @@
       </x:c>
       <x:c r="G42" t="inlineStr">
         <x:is>
-          <x:t>LIDER SYSTEM ACADEMY, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H42" t="inlineStr">
-        <x:is>
-          <x:t>Getafe</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="43">
       <x:c r="A43" t="inlineStr">
         <x:is>
-          <x:t>FDEC240003549</x:t>
+          <x:t>23/8337</x:t>
         </x:is>
       </x:c>
       <x:c r="B43" t="inlineStr">
         <x:is>
-          <x:t>COML0111</x:t>
+          <x:t>HOTR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C43" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE VIAJEROS POR CARRETERA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
         </x:is>
       </x:c>
       <x:c r="D43" s="1" t="n">
         <x:v>46028.9583333333</x:v>
       </x:c>
       <x:c r="E43" s="2" t="n">
-        <x:v>46111.9166666667</x:v>
+        <x:v>46132.9166666667</x:v>
       </x:c>
       <x:c r="F43" t="inlineStr">
         <x:is>
@@ -1517,36 +1512,36 @@
       </x:c>
       <x:c r="G43" t="inlineStr">
         <x:is>
-          <x:t>MARSDIGITAL, S.L.</x:t>
+          <x:t>LIDER SYSTEM ACADEMY, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H43" t="inlineStr">
         <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>Getafe</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="44">
       <x:c r="A44" t="inlineStr">
         <x:is>
-          <x:t>23/8157</x:t>
+          <x:t>FDEC240003549</x:t>
         </x:is>
       </x:c>
       <x:c r="B44" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>COML0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C44" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>TRÁFICO DE VIAJEROS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="D44" s="1" t="n">
-        <x:v>46026.9583333333</x:v>
+        <x:v>46028.9583333333</x:v>
       </x:c>
       <x:c r="E44" s="2" t="n">
-        <x:v>46135.9166666667</x:v>
+        <x:v>46111.9166666667</x:v>
       </x:c>
       <x:c r="F44" t="inlineStr">
         <x:is>
@@ -1555,25 +1550,36 @@
       </x:c>
       <x:c r="G44" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>MARSDIGITAL, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H44" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="45">
       <x:c r="A45" t="inlineStr">
         <x:is>
-          <x:t>22/1707</x:t>
+          <x:t>23/8157</x:t>
         </x:is>
       </x:c>
       <x:c r="B45" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C45" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
-        </x:is>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D45" s="1" t="n">
+        <x:v>46026.9583333333</x:v>
+      </x:c>
+      <x:c r="E45" s="2" t="n">
+        <x:v>46135.9166666667</x:v>
       </x:c>
       <x:c r="F45" t="inlineStr">
         <x:is>
@@ -1582,19 +1588,14 @@
       </x:c>
       <x:c r="G45" t="inlineStr">
         <x:is>
-          <x:t>MFD FORMACION SAG SOLAR</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H45" t="inlineStr">
-        <x:is>
-          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="46">
       <x:c r="A46" t="inlineStr">
         <x:is>
-          <x:t>22/1708</x:t>
+          <x:t>22/1707</x:t>
         </x:is>
       </x:c>
       <x:c r="B46" t="inlineStr">
@@ -1626,17 +1627,17 @@
     <x:row r="47">
       <x:c r="A47" t="inlineStr">
         <x:is>
-          <x:t>22/1709</x:t>
+          <x:t>22/1708</x:t>
         </x:is>
       </x:c>
       <x:c r="B47" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C47" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F47" t="inlineStr">
@@ -1646,19 +1647,19 @@
       </x:c>
       <x:c r="G47" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION ASISPA</x:t>
+          <x:t>MFD FORMACION SAG SOLAR</x:t>
         </x:is>
       </x:c>
       <x:c r="H47" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>SAN AGUSTIN DEL GUADALIX</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="48">
       <x:c r="A48" t="inlineStr">
         <x:is>
-          <x:t>22/1710</x:t>
+          <x:t>22/1709</x:t>
         </x:is>
       </x:c>
       <x:c r="B48" t="inlineStr">
@@ -1690,17 +1691,17 @@
     <x:row r="49">
       <x:c r="A49" t="inlineStr">
         <x:is>
-          <x:t>22/1714</x:t>
+          <x:t>22/1710</x:t>
         </x:is>
       </x:c>
       <x:c r="B49" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C49" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F49" t="inlineStr">
@@ -1722,7 +1723,7 @@
     <x:row r="50">
       <x:c r="A50" t="inlineStr">
         <x:is>
-          <x:t>22/1715</x:t>
+          <x:t>22/1714</x:t>
         </x:is>
       </x:c>
       <x:c r="B50" t="inlineStr">
@@ -1754,17 +1755,17 @@
     <x:row r="51">
       <x:c r="A51" t="inlineStr">
         <x:is>
-          <x:t>22/1718</x:t>
+          <x:t>22/1715</x:t>
         </x:is>
       </x:c>
       <x:c r="B51" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C51" t="inlineStr">
         <x:is>
-          <x:t>FABRICAS DE ALBAÑILERIA</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F51" t="inlineStr">
@@ -1774,29 +1775,29 @@
       </x:c>
       <x:c r="G51" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
+          <x:t>CENTRO DE FORMACION ASISPA</x:t>
         </x:is>
       </x:c>
       <x:c r="H51" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="52">
       <x:c r="A52" t="inlineStr">
         <x:is>
-          <x:t>22/1719</x:t>
+          <x:t>22/1718</x:t>
         </x:is>
       </x:c>
       <x:c r="B52" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0110</x:t>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C52" t="inlineStr">
         <x:is>
-          <x:t>INSTALACION DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
+          <x:t>FABRICAS DE ALBAÑILERIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F52" t="inlineStr">
@@ -1818,17 +1819,17 @@
     <x:row r="53">
       <x:c r="A53" t="inlineStr">
         <x:is>
-          <x:t>22/1725</x:t>
+          <x:t>22/1719</x:t>
         </x:is>
       </x:c>
       <x:c r="B53" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>EOCJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C53" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>INSTALACION DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F53" t="inlineStr">
@@ -1838,29 +1839,29 @@
       </x:c>
       <x:c r="G53" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
         </x:is>
       </x:c>
       <x:c r="H53" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="54">
       <x:c r="A54" t="inlineStr">
         <x:is>
-          <x:t>22/1726</x:t>
+          <x:t>22/1725</x:t>
         </x:is>
       </x:c>
       <x:c r="B54" t="inlineStr">
         <x:is>
-          <x:t>ARGI0209</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C54" t="inlineStr">
         <x:is>
-          <x:t>IMPRESIÓN DIGITAL</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F54" t="inlineStr">
@@ -1870,7 +1871,7 @@
       </x:c>
       <x:c r="G54" t="inlineStr">
         <x:is>
-          <x:t>INST.POLITECN.SALESIANOS</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H54" t="inlineStr">
@@ -1882,7 +1883,7 @@
     <x:row r="55">
       <x:c r="A55" t="inlineStr">
         <x:is>
-          <x:t>22/1727</x:t>
+          <x:t>22/1726</x:t>
         </x:is>
       </x:c>
       <x:c r="B55" t="inlineStr">
@@ -1914,17 +1915,17 @@
     <x:row r="56">
       <x:c r="A56" t="inlineStr">
         <x:is>
-          <x:t>22/1729</x:t>
+          <x:t>22/1727</x:t>
         </x:is>
       </x:c>
       <x:c r="B56" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>ARGI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C56" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELVACIÓN Y TRANSPORTE</x:t>
+          <x:t>IMPRESIÓN DIGITAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F56" t="inlineStr">
@@ -1946,17 +1947,17 @@
     <x:row r="57">
       <x:c r="A57" t="inlineStr">
         <x:is>
-          <x:t>22/1750</x:t>
+          <x:t>22/1729</x:t>
         </x:is>
       </x:c>
       <x:c r="B57" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C57" t="inlineStr">
         <x:is>
-          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F57" t="inlineStr">
@@ -1966,19 +1967,19 @@
       </x:c>
       <x:c r="G57" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
+          <x:t>INST.POLITECN.SALESIANOS</x:t>
         </x:is>
       </x:c>
       <x:c r="H57" t="inlineStr">
         <x:is>
-          <x:t>BOADILLA DEL MONTE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="58">
       <x:c r="A58" t="inlineStr">
         <x:is>
-          <x:t>22/1751</x:t>
+          <x:t>22/1750</x:t>
         </x:is>
       </x:c>
       <x:c r="B58" t="inlineStr">
@@ -2010,7 +2011,7 @@
     <x:row r="59">
       <x:c r="A59" t="inlineStr">
         <x:is>
-          <x:t>22/1752</x:t>
+          <x:t>22/1751</x:t>
         </x:is>
       </x:c>
       <x:c r="B59" t="inlineStr">
@@ -2042,17 +2043,17 @@
     <x:row r="60">
       <x:c r="A60" t="inlineStr">
         <x:is>
-          <x:t>22/1755</x:t>
+          <x:t>22/1752</x:t>
         </x:is>
       </x:c>
       <x:c r="B60" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C60" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F60" t="inlineStr">
@@ -2062,19 +2063,19 @@
       </x:c>
       <x:c r="G60" t="inlineStr">
         <x:is>
-          <x:t>FORMACIONAL</x:t>
+          <x:t>CENTRO SERGESA DE FORMACION SOCIOSANITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="H60" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>BOADILLA DEL MONTE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="61">
       <x:c r="A61" t="inlineStr">
         <x:is>
-          <x:t>22/1756</x:t>
+          <x:t>22/1755</x:t>
         </x:is>
       </x:c>
       <x:c r="B61" t="inlineStr">
@@ -2106,17 +2107,17 @@
     <x:row r="62">
       <x:c r="A62" t="inlineStr">
         <x:is>
-          <x:t>22/1759</x:t>
+          <x:t>22/1756</x:t>
         </x:is>
       </x:c>
       <x:c r="B62" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C62" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F62" t="inlineStr">
@@ -2126,7 +2127,7 @@
       </x:c>
       <x:c r="G62" t="inlineStr">
         <x:is>
-          <x:t>NRED</x:t>
+          <x:t>FORMACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="H62" t="inlineStr">
@@ -2138,7 +2139,7 @@
     <x:row r="63">
       <x:c r="A63" t="inlineStr">
         <x:is>
-          <x:t>22/1760</x:t>
+          <x:t>22/1759</x:t>
         </x:is>
       </x:c>
       <x:c r="B63" t="inlineStr">
@@ -2170,7 +2171,7 @@
     <x:row r="64">
       <x:c r="A64" t="inlineStr">
         <x:is>
-          <x:t>22/1761</x:t>
+          <x:t>22/1760</x:t>
         </x:is>
       </x:c>
       <x:c r="B64" t="inlineStr">
@@ -2202,7 +2203,7 @@
     <x:row r="65">
       <x:c r="A65" t="inlineStr">
         <x:is>
-          <x:t>22/1762</x:t>
+          <x:t>22/1761</x:t>
         </x:is>
       </x:c>
       <x:c r="B65" t="inlineStr">
@@ -2234,17 +2235,17 @@
     <x:row r="66">
       <x:c r="A66" t="inlineStr">
         <x:is>
-          <x:t>22/1764</x:t>
+          <x:t>22/1762</x:t>
         </x:is>
       </x:c>
       <x:c r="B66" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C66" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F66" t="inlineStr">
@@ -2254,24 +2255,29 @@
       </x:c>
       <x:c r="G66" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA LARA S.L.</x:t>
+          <x:t>NRED</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H66" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="67">
       <x:c r="A67" t="inlineStr">
         <x:is>
-          <x:t>22/1765</x:t>
+          <x:t>22/1764</x:t>
         </x:is>
       </x:c>
       <x:c r="B67" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C67" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F67" t="inlineStr">
@@ -2281,19 +2287,14 @@
       </x:c>
       <x:c r="G67" t="inlineStr">
         <x:is>
-          <x:t>FEMXA FORMACION</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H67" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>AUTOESCUELA LARA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="68">
       <x:c r="A68" t="inlineStr">
         <x:is>
-          <x:t>22/1766</x:t>
+          <x:t>22/1765</x:t>
         </x:is>
       </x:c>
       <x:c r="B68" t="inlineStr">
@@ -2313,7 +2314,7 @@
       </x:c>
       <x:c r="G68" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ACTIVA FORMACION, S.L.</x:t>
+          <x:t>FEMXA FORMACION</x:t>
         </x:is>
       </x:c>
       <x:c r="H68" t="inlineStr">
@@ -2325,17 +2326,17 @@
     <x:row r="69">
       <x:c r="A69" t="inlineStr">
         <x:is>
-          <x:t>22/1775</x:t>
+          <x:t>22/1766</x:t>
         </x:is>
       </x:c>
       <x:c r="B69" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C69" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F69" t="inlineStr">
@@ -2345,7 +2346,7 @@
       </x:c>
       <x:c r="G69" t="inlineStr">
         <x:is>
-          <x:t>PROYECTA EMPLEO</x:t>
+          <x:t>CENTRO DE ESTUDIOS ACTIVA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H69" t="inlineStr">
@@ -2357,17 +2358,17 @@
     <x:row r="70">
       <x:c r="A70" t="inlineStr">
         <x:is>
-          <x:t>22/1777</x:t>
+          <x:t>22/1775</x:t>
         </x:is>
       </x:c>
       <x:c r="B70" t="inlineStr">
         <x:is>
-          <x:t>COMM0112</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C70" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE MARKETING Y COMUNICACIÓN</x:t>
+          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F70" t="inlineStr">
@@ -2377,29 +2378,29 @@
       </x:c>
       <x:c r="G70" t="inlineStr">
         <x:is>
-          <x:t>CENES</x:t>
+          <x:t>PROYECTA EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="H70" t="inlineStr">
         <x:is>
-          <x:t>GETAFE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="71">
       <x:c r="A71" t="inlineStr">
         <x:is>
-          <x:t>22/1781</x:t>
+          <x:t>22/1777</x:t>
         </x:is>
       </x:c>
       <x:c r="B71" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>COMM0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C71" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACION Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>GESTIÓN DE MARKETING Y COMUNICACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F71" t="inlineStr">
@@ -2409,29 +2410,29 @@
       </x:c>
       <x:c r="G71" t="inlineStr">
         <x:is>
-          <x:t>AULA TRES INFORMATICA</x:t>
+          <x:t>CENES</x:t>
         </x:is>
       </x:c>
       <x:c r="H71" t="inlineStr">
         <x:is>
-          <x:t>TRES CANTOS</x:t>
+          <x:t>GETAFE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="72">
       <x:c r="A72" t="inlineStr">
         <x:is>
-          <x:t>22/1783</x:t>
+          <x:t>22/1781</x:t>
         </x:is>
       </x:c>
       <x:c r="B72" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C72" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
+          <x:t>OPERACIONES DE GRABACION Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F72" t="inlineStr">
@@ -2441,29 +2442,29 @@
       </x:c>
       <x:c r="G72" t="inlineStr">
         <x:is>
-          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
+          <x:t>AULA TRES INFORMATICA</x:t>
         </x:is>
       </x:c>
       <x:c r="H72" t="inlineStr">
         <x:is>
-          <x:t>RIVAS-VACIAMADRID</x:t>
+          <x:t>TRES CANTOS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="73">
       <x:c r="A73" t="inlineStr">
         <x:is>
-          <x:t>22/1785</x:t>
+          <x:t>22/1783</x:t>
         </x:is>
       </x:c>
       <x:c r="B73" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C73" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>ACTIVIDADES DE GESTION ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F73" t="inlineStr">
@@ -2485,17 +2486,17 @@
     <x:row r="74">
       <x:c r="A74" t="inlineStr">
         <x:is>
-          <x:t>22/1786</x:t>
+          <x:t>22/1785</x:t>
         </x:is>
       </x:c>
       <x:c r="B74" t="inlineStr">
         <x:is>
-          <x:t>ADGG0308</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C74" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTION EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F74" t="inlineStr">
@@ -2517,17 +2518,17 @@
     <x:row r="75">
       <x:c r="A75" t="inlineStr">
         <x:is>
-          <x:t>22/1788</x:t>
+          <x:t>22/1786</x:t>
         </x:is>
       </x:c>
       <x:c r="B75" t="inlineStr">
         <x:is>
-          <x:t>ADGG0208</x:t>
+          <x:t>ADGG0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C75" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTION EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F75" t="inlineStr">
@@ -2537,29 +2538,29 @@
       </x:c>
       <x:c r="G75" t="inlineStr">
         <x:is>
-          <x:t>GALA CTM-2</x:t>
+          <x:t>KYBOS FORMACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H75" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>RIVAS-VACIAMADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="76">
       <x:c r="A76" t="inlineStr">
         <x:is>
-          <x:t>22/1789</x:t>
+          <x:t>22/1788</x:t>
         </x:is>
       </x:c>
       <x:c r="B76" t="inlineStr">
         <x:is>
-          <x:t>IFCT0309</x:t>
+          <x:t>ADGG0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C76" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACION CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F76" t="inlineStr">
@@ -2569,29 +2570,29 @@
       </x:c>
       <x:c r="G76" t="inlineStr">
         <x:is>
-          <x:t>PLATO SUR</x:t>
+          <x:t>GALA CTM-2</x:t>
         </x:is>
       </x:c>
       <x:c r="H76" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="77">
       <x:c r="A77" t="inlineStr">
         <x:is>
-          <x:t>22/1792</x:t>
+          <x:t>22/1789</x:t>
         </x:is>
       </x:c>
       <x:c r="B77" t="inlineStr">
         <x:is>
-          <x:t>ADGD0308</x:t>
+          <x:t>IFCT0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C77" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTIÓN ADMINISTRATIVA</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F77" t="inlineStr">
@@ -2601,29 +2602,29 @@
       </x:c>
       <x:c r="G77" t="inlineStr">
         <x:is>
-          <x:t>KIWORKS CUATRO CAMINOS</x:t>
+          <x:t>PLATO SUR</x:t>
         </x:is>
       </x:c>
       <x:c r="H77" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="78">
       <x:c r="A78" t="inlineStr">
         <x:is>
-          <x:t>22/2238</x:t>
+          <x:t>22/1792</x:t>
         </x:is>
       </x:c>
       <x:c r="B78" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>ADGD0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C78" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>ACTIVIDADES DE GESTIÓN ADMINISTRATIVA</x:t>
         </x:is>
       </x:c>
       <x:c r="F78" t="inlineStr">
@@ -2633,14 +2634,19 @@
       </x:c>
       <x:c r="G78" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>KIWORKS CUATRO CAMINOS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H78" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="79">
       <x:c r="A79" t="inlineStr">
         <x:is>
-          <x:t>22/2239</x:t>
+          <x:t>22/2238</x:t>
         </x:is>
       </x:c>
       <x:c r="B79" t="inlineStr">
@@ -2667,17 +2673,17 @@
     <x:row r="80">
       <x:c r="A80" t="inlineStr">
         <x:is>
-          <x:t>22/2242</x:t>
+          <x:t>22/2239</x:t>
         </x:is>
       </x:c>
       <x:c r="B80" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C80" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F80" t="inlineStr">
@@ -2687,24 +2693,24 @@
       </x:c>
       <x:c r="G80" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="81">
       <x:c r="A81" t="inlineStr">
         <x:is>
-          <x:t>22/2243</x:t>
+          <x:t>22/2242</x:t>
         </x:is>
       </x:c>
       <x:c r="B81" t="inlineStr">
         <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C81" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F81" t="inlineStr">
@@ -2721,17 +2727,17 @@
     <x:row r="82">
       <x:c r="A82" t="inlineStr">
         <x:is>
-          <x:t>22/2244</x:t>
+          <x:t>22/2243</x:t>
         </x:is>
       </x:c>
       <x:c r="B82" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C82" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F82" t="inlineStr">
@@ -2748,17 +2754,17 @@
     <x:row r="83">
       <x:c r="A83" t="inlineStr">
         <x:is>
-          <x:t>22/2245</x:t>
+          <x:t>22/2244</x:t>
         </x:is>
       </x:c>
       <x:c r="B83" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C83" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F83" t="inlineStr">
@@ -2775,17 +2781,17 @@
     <x:row r="84">
       <x:c r="A84" t="inlineStr">
         <x:is>
-          <x:t>22/3933</x:t>
+          <x:t>22/2245</x:t>
         </x:is>
       </x:c>
       <x:c r="B84" t="inlineStr">
         <x:is>
-          <x:t>COMT0210</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C84" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN ADMINISTRATIVA Y FINANCIERA DEL COMERCIO INTERNACIONAL</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F84" t="inlineStr">
@@ -2795,24 +2801,24 @@
       </x:c>
       <x:c r="G84" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="85">
       <x:c r="A85" t="inlineStr">
         <x:is>
-          <x:t>22/5119</x:t>
+          <x:t>22/3933</x:t>
         </x:is>
       </x:c>
       <x:c r="B85" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>COMT0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C85" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>GESTIÓN ADMINISTRATIVA Y FINANCIERA DEL COMERCIO INTERNACIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F85" t="inlineStr">
@@ -2822,29 +2828,24 @@
       </x:c>
       <x:c r="G85" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION CARMEN PARDO-VALCARCE</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H85" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="86">
       <x:c r="A86" t="inlineStr">
         <x:is>
-          <x:t>22/5120</x:t>
+          <x:t>22/5119</x:t>
         </x:is>
       </x:c>
       <x:c r="B86" t="inlineStr">
         <x:is>
-          <x:t>AGAX0208</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C86" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN AGRICULTURA</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F86" t="inlineStr">
@@ -2866,17 +2867,17 @@
     <x:row r="87">
       <x:c r="A87" t="inlineStr">
         <x:is>
-          <x:t>22/5121</x:t>
+          <x:t>22/5120</x:t>
         </x:is>
       </x:c>
       <x:c r="B87" t="inlineStr">
         <x:is>
-          <x:t>MAMD0209</x:t>
+          <x:t>AGAX0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C87" t="inlineStr">
         <x:is>
-          <x:t>TRABAJOS DE CARPINTERÍA Y MUEBLE</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN AGRICULTURA</x:t>
         </x:is>
       </x:c>
       <x:c r="F87" t="inlineStr">
@@ -2898,17 +2899,17 @@
     <x:row r="88">
       <x:c r="A88" t="inlineStr">
         <x:is>
-          <x:t>22/5155</x:t>
+          <x:t>22/5121</x:t>
         </x:is>
       </x:c>
       <x:c r="B88" t="inlineStr">
         <x:is>
-          <x:t>EOCE0109</x:t>
+          <x:t>MAMD0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C88" t="inlineStr">
         <x:is>
-          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
+          <x:t>TRABAJOS DE CARPINTERÍA Y MUEBLE</x:t>
         </x:is>
       </x:c>
       <x:c r="F88" t="inlineStr">
@@ -2918,24 +2919,29 @@
       </x:c>
       <x:c r="G88" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INICIATIVAS SUR</x:t>
+          <x:t>FUNDACION CARMEN PARDO-VALCARCE</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H88" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="89">
       <x:c r="A89" t="inlineStr">
         <x:is>
-          <x:t>22/5157</x:t>
+          <x:t>22/5155</x:t>
         </x:is>
       </x:c>
       <x:c r="B89" t="inlineStr">
         <x:is>
-          <x:t>FMEC0210</x:t>
+          <x:t>EOCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C89" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
+          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F89" t="inlineStr">
@@ -2952,17 +2958,17 @@
     <x:row r="90">
       <x:c r="A90" t="inlineStr">
         <x:is>
-          <x:t>22/5159</x:t>
+          <x:t>22/5157</x:t>
         </x:is>
       </x:c>
       <x:c r="B90" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>FMEC0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C90" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
         </x:is>
       </x:c>
       <x:c r="F90" t="inlineStr">
@@ -2979,17 +2985,17 @@
     <x:row r="91">
       <x:c r="A91" t="inlineStr">
         <x:is>
-          <x:t>22/5163</x:t>
+          <x:t>22/5159</x:t>
         </x:is>
       </x:c>
       <x:c r="B91" t="inlineStr">
         <x:is>
-          <x:t>SSCM0108</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C91" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F91" t="inlineStr">
@@ -3006,17 +3012,17 @@
     <x:row r="92">
       <x:c r="A92" t="inlineStr">
         <x:is>
-          <x:t>22/5164</x:t>
+          <x:t>22/5163</x:t>
         </x:is>
       </x:c>
       <x:c r="B92" t="inlineStr">
         <x:is>
-          <x:t>ELEE0209</x:t>
+          <x:t>SSCM0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C92" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE REDES ELÉCTRICAS DE ALTA TENSIÓN DE SEGUNDA Y TERCERA CATEGORÍA Y CENTROS DE TRANSFORMACIÓN</x:t>
+          <x:t>LIMPIEZA DE SUPERFICIES Y MOBILIARIO EN EDIFICIOS Y LOCALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F92" t="inlineStr">
@@ -3033,17 +3039,17 @@
     <x:row r="93">
       <x:c r="A93" t="inlineStr">
         <x:is>
-          <x:t>22/5167</x:t>
+          <x:t>22/5164</x:t>
         </x:is>
       </x:c>
       <x:c r="B93" t="inlineStr">
         <x:is>
-          <x:t>EOCB0209</x:t>
+          <x:t>ELEE0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C93" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ACABADOS RÍGIDOS Y URBANIZACIÓN</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE REDES ELÉCTRICAS DE ALTA TENSIÓN DE SEGUNDA Y TERCERA CATEGORÍA Y CENTROS DE TRANSFORMACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F93" t="inlineStr">
@@ -3060,17 +3066,17 @@
     <x:row r="94">
       <x:c r="A94" t="inlineStr">
         <x:is>
-          <x:t>22/5169</x:t>
+          <x:t>22/5167</x:t>
         </x:is>
       </x:c>
       <x:c r="B94" t="inlineStr">
         <x:is>
-          <x:t>EOCE0109</x:t>
+          <x:t>EOCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C94" t="inlineStr">
         <x:is>
-          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ACABADOS RÍGIDOS Y URBANIZACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F94" t="inlineStr">
@@ -3087,17 +3093,17 @@
     <x:row r="95">
       <x:c r="A95" t="inlineStr">
         <x:is>
-          <x:t>22/5170</x:t>
+          <x:t>22/5169</x:t>
         </x:is>
       </x:c>
       <x:c r="B95" t="inlineStr">
         <x:is>
-          <x:t>FMEC0210</x:t>
+          <x:t>EOCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C95" t="inlineStr">
         <x:is>
-          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
+          <x:t>LEVANTAMIENTOS Y REPLANTEOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F95" t="inlineStr">
@@ -3114,17 +3120,17 @@
     <x:row r="96">
       <x:c r="A96" t="inlineStr">
         <x:is>
-          <x:t>22/5171</x:t>
+          <x:t>22/5170</x:t>
         </x:is>
       </x:c>
       <x:c r="B96" t="inlineStr">
         <x:is>
-          <x:t>MAMD0309</x:t>
+          <x:t>FMEC0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C96" t="inlineStr">
         <x:is>
-          <x:t>PROYECTOS DE CARPINTERÍA Y MUEBLE</x:t>
+          <x:t>SOLDADURA OXIGÁS Y SOLDADURA MIG/MAG</x:t>
         </x:is>
       </x:c>
       <x:c r="F96" t="inlineStr">
@@ -3141,17 +3147,17 @@
     <x:row r="97">
       <x:c r="A97" t="inlineStr">
         <x:is>
-          <x:t>22/5172</x:t>
+          <x:t>22/5171</x:t>
         </x:is>
       </x:c>
       <x:c r="B97" t="inlineStr">
         <x:is>
-          <x:t>MAMR0408</x:t>
+          <x:t>MAMD0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C97" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE MUEBLES</x:t>
+          <x:t>PROYECTOS DE CARPINTERÍA Y MUEBLE</x:t>
         </x:is>
       </x:c>
       <x:c r="F97" t="inlineStr">
@@ -3168,17 +3174,17 @@
     <x:row r="98">
       <x:c r="A98" t="inlineStr">
         <x:is>
-          <x:t>22/5173</x:t>
+          <x:t>22/5172</x:t>
         </x:is>
       </x:c>
       <x:c r="B98" t="inlineStr">
         <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>MAMR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C98" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>INSTALACIÓN DE MUEBLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F98" t="inlineStr">
@@ -3195,17 +3201,17 @@
     <x:row r="99">
       <x:c r="A99" t="inlineStr">
         <x:is>
-          <x:t>22/5174</x:t>
+          <x:t>22/5173</x:t>
         </x:is>
       </x:c>
       <x:c r="B99" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C99" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F99" t="inlineStr">
@@ -3222,17 +3228,17 @@
     <x:row r="100">
       <x:c r="A100" t="inlineStr">
         <x:is>
-          <x:t>22/5176</x:t>
+          <x:t>22/5174</x:t>
         </x:is>
       </x:c>
       <x:c r="B100" t="inlineStr">
         <x:is>
-          <x:t>SEAG0211</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C100" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN AMBIENTAL</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F100" t="inlineStr">
@@ -3249,17 +3255,17 @@
     <x:row r="101">
       <x:c r="A101" t="inlineStr">
         <x:is>
-          <x:t>22/5180</x:t>
+          <x:t>22/5176</x:t>
         </x:is>
       </x:c>
       <x:c r="B101" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SEAG0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C101" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>GESTIÓN AMBIENTAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F101" t="inlineStr">
@@ -3269,24 +3275,24 @@
       </x:c>
       <x:c r="G101" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>FUNDACION INICIATIVAS SUR</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="102">
       <x:c r="A102" t="inlineStr">
         <x:is>
-          <x:t>22/5182</x:t>
+          <x:t>22/5180</x:t>
         </x:is>
       </x:c>
       <x:c r="B102" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C102" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F102" t="inlineStr">
@@ -3303,17 +3309,17 @@
     <x:row r="103">
       <x:c r="A103" t="inlineStr">
         <x:is>
-          <x:t>22/5183</x:t>
+          <x:t>22/5182</x:t>
         </x:is>
       </x:c>
       <x:c r="B103" t="inlineStr">
         <x:is>
-          <x:t>HOTA0208</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C103" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE PISOS Y LIMPIEZA EN ALOJAMIENTOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F103" t="inlineStr">
@@ -3330,17 +3336,17 @@
     <x:row r="104">
       <x:c r="A104" t="inlineStr">
         <x:is>
-          <x:t>22/5185</x:t>
+          <x:t>22/5183</x:t>
         </x:is>
       </x:c>
       <x:c r="B104" t="inlineStr">
         <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>HOTA0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C104" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>GESTIÓN DE PISOS Y LIMPIEZA EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F104" t="inlineStr">
@@ -3357,17 +3363,17 @@
     <x:row r="105">
       <x:c r="A105" t="inlineStr">
         <x:is>
-          <x:t>22/5188</x:t>
+          <x:t>22/5185</x:t>
         </x:is>
       </x:c>
       <x:c r="B105" t="inlineStr">
         <x:is>
-          <x:t>AGAO0208</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C105" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F105" t="inlineStr">
@@ -3384,17 +3390,17 @@
     <x:row r="106">
       <x:c r="A106" t="inlineStr">
         <x:is>
-          <x:t>22/5189</x:t>
+          <x:t>22/5188</x:t>
         </x:is>
       </x:c>
       <x:c r="B106" t="inlineStr">
         <x:is>
-          <x:t>AGAO0308M</x:t>
+          <x:t>AGAO0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C106" t="inlineStr">
         <x:is>
-          <x:t>JARDINERÍA Y RESTAURACIÓN DEL PAISAJE</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE JARDINES Y ZONAS VERDES</x:t>
         </x:is>
       </x:c>
       <x:c r="F106" t="inlineStr">
@@ -3411,17 +3417,17 @@
     <x:row r="107">
       <x:c r="A107" t="inlineStr">
         <x:is>
-          <x:t>22/5193</x:t>
+          <x:t>22/5189</x:t>
         </x:is>
       </x:c>
       <x:c r="B107" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>AGAO0308M</x:t>
         </x:is>
       </x:c>
       <x:c r="C107" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>JARDINERÍA Y RESTAURACIÓN DEL PAISAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F107" t="inlineStr">
@@ -3438,17 +3444,17 @@
     <x:row r="108">
       <x:c r="A108" t="inlineStr">
         <x:is>
-          <x:t>22/5196</x:t>
+          <x:t>22/5193</x:t>
         </x:is>
       </x:c>
       <x:c r="B108" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C108" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F108" t="inlineStr">
@@ -3465,17 +3471,17 @@
     <x:row r="109">
       <x:c r="A109" t="inlineStr">
         <x:is>
-          <x:t>22/5199</x:t>
+          <x:t>22/5196</x:t>
         </x:is>
       </x:c>
       <x:c r="B109" t="inlineStr">
         <x:is>
-          <x:t>HOTR0408</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C109" t="inlineStr">
         <x:is>
-          <x:t>COCINA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F109" t="inlineStr">
@@ -3492,17 +3498,17 @@
     <x:row r="110">
       <x:c r="A110" t="inlineStr">
         <x:is>
-          <x:t>22/5200</x:t>
+          <x:t>22/5199</x:t>
         </x:is>
       </x:c>
       <x:c r="B110" t="inlineStr">
         <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>HOTR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C110" t="inlineStr">
         <x:is>
-          <x:t>REPOSTERÍA</x:t>
+          <x:t>COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F110" t="inlineStr">
@@ -3519,17 +3525,17 @@
     <x:row r="111">
       <x:c r="A111" t="inlineStr">
         <x:is>
-          <x:t>22/5219</x:t>
+          <x:t>22/5200</x:t>
         </x:is>
       </x:c>
       <x:c r="B111" t="inlineStr">
         <x:is>
-          <x:t>AFDA0411</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C111" t="inlineStr">
         <x:is>
-          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA PARA PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>REPOSTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F111" t="inlineStr">
@@ -3539,24 +3545,24 @@
       </x:c>
       <x:c r="G111" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="112">
       <x:c r="A112" t="inlineStr">
         <x:is>
-          <x:t>22/5304</x:t>
+          <x:t>22/5219</x:t>
         </x:is>
       </x:c>
       <x:c r="B112" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>AFDA0411</x:t>
         </x:is>
       </x:c>
       <x:c r="C112" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>ANIMACIÓN FÍSICO-DEPORTIVA Y RECREATIVA PARA PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F112" t="inlineStr">
@@ -3566,19 +3572,24 @@
       </x:c>
       <x:c r="G112" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>FUNDACION INTERNACIONAL DE EDUCACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="113">
       <x:c r="A113" t="inlineStr">
         <x:is>
-          <x:t>4294-27</x:t>
+          <x:t>22/5304</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B113" t="inlineStr">
+        <x:is>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C113" t="inlineStr">
         <x:is>
-          <x:t>MF0710-PRODUCTOS DE REPOSTERÍA</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="F113" t="inlineStr">
@@ -3588,24 +3599,19 @@
       </x:c>
       <x:c r="G113" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="114">
       <x:c r="A114" t="inlineStr">
         <x:is>
-          <x:t>4294-28</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B114" t="inlineStr">
-        <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>4294-27</x:t>
         </x:is>
       </x:c>
       <x:c r="C114" t="inlineStr">
         <x:is>
-          <x:t>MF0711-SEGURIDAD E HIGIENE Y PROTECCIÓN AMBIENTAL EN HOSTELERÍA</x:t>
+          <x:t>MF0710-PRODUCTOS DE REPOSTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F114" t="inlineStr">
@@ -3622,7 +3628,7 @@
     <x:row r="115">
       <x:c r="A115" t="inlineStr">
         <x:is>
-          <x:t>4294-29</x:t>
+          <x:t>4294-28</x:t>
         </x:is>
       </x:c>
       <x:c r="B115" t="inlineStr">
@@ -3632,7 +3638,7 @@
       </x:c>
       <x:c r="C115" t="inlineStr">
         <x:is>
-          <x:t>MF8229-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF0711-SEGURIDAD E HIGIENE Y PROTECCIÓN AMBIENTAL EN HOSTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F115" t="inlineStr">
@@ -3649,17 +3655,17 @@
     <x:row r="116">
       <x:c r="A116" t="inlineStr">
         <x:is>
-          <x:t>4294-30</x:t>
+          <x:t>4294-29</x:t>
         </x:is>
       </x:c>
       <x:c r="B116" t="inlineStr">
         <x:is>
-          <x:t>HOTR0408</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C116" t="inlineStr">
         <x:is>
-          <x:t>MF0259-OFERTAS GASTRONÓMICAS SENCILLAS Y SISTEMAS DE APROVISIONAMIENTO</x:t>
+          <x:t>MF8229-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F116" t="inlineStr">
@@ -3676,17 +3682,17 @@
     <x:row r="117">
       <x:c r="A117" t="inlineStr">
         <x:is>
-          <x:t>4507-24</x:t>
+          <x:t>4294-30</x:t>
         </x:is>
       </x:c>
       <x:c r="B117" t="inlineStr">
         <x:is>
-          <x:t>ADGG0108</x:t>
+          <x:t>HOTR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C117" t="inlineStr">
         <x:is>
-          <x:t>MF8076-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF0259-OFERTAS GASTRONÓMICAS SENCILLAS Y SISTEMAS DE APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F117" t="inlineStr">
@@ -3696,24 +3702,24 @@
       </x:c>
       <x:c r="G117" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="118">
       <x:c r="A118" t="inlineStr">
         <x:is>
-          <x:t>4507-40</x:t>
+          <x:t>4507-24</x:t>
         </x:is>
       </x:c>
       <x:c r="B118" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>ADGG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C118" t="inlineStr">
         <x:is>
-          <x:t>MF8462-PRÁCTICAS NO LABORALES</x:t>
+          <x:t>MF8076-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F118" t="inlineStr">
@@ -3730,17 +3736,17 @@
     <x:row r="119">
       <x:c r="A119" t="inlineStr">
         <x:is>
-          <x:t>5343-49</x:t>
+          <x:t>4507-40</x:t>
         </x:is>
       </x:c>
       <x:c r="B119" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C119" t="inlineStr">
         <x:is>
-          <x:t>MF1444 IMPARTICIÓN Y TUTORIZACIÓN DE ACCIONES FORMATI  VAS PARA EL EMPLEO</x:t>
+          <x:t>MF8462-PRÁCTICAS NO LABORALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F119" t="inlineStr">
@@ -3750,24 +3756,24 @@
       </x:c>
       <x:c r="G119" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="120">
       <x:c r="A120" t="inlineStr">
         <x:is>
-          <x:t>22/1720</x:t>
+          <x:t>5343-49</x:t>
         </x:is>
       </x:c>
       <x:c r="B120" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C120" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MF1444 IMPARTICIÓN Y TUTORIZACIÓN DE ACCIONES FORMATI  VAS PARA EL EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="F120" t="inlineStr">
@@ -3777,19 +3783,14 @@
       </x:c>
       <x:c r="G120" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H120" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="121">
       <x:c r="A121" t="inlineStr">
         <x:is>
-          <x:t>22/1723</x:t>
+          <x:t>22/1720</x:t>
         </x:is>
       </x:c>
       <x:c r="B121" t="inlineStr">
@@ -3821,17 +3822,17 @@
     <x:row r="122">
       <x:c r="A122" t="inlineStr">
         <x:is>
-          <x:t>22/1716</x:t>
+          <x:t>22/1723</x:t>
         </x:is>
       </x:c>
       <x:c r="B122" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C122" t="inlineStr">
         <x:is>
-          <x:t>INSERCION LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F122" t="inlineStr">
@@ -3841,7 +3842,7 @@
       </x:c>
       <x:c r="G122" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Hada (Edificio de Empresas)</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H122" t="inlineStr">
@@ -3853,17 +3854,17 @@
     <x:row r="123">
       <x:c r="A123" t="inlineStr">
         <x:is>
-          <x:t>22/1721</x:t>
+          <x:t>22/1716</x:t>
         </x:is>
       </x:c>
       <x:c r="B123" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C123" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>INSERCION LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F123" t="inlineStr">
@@ -3873,7 +3874,7 @@
       </x:c>
       <x:c r="G123" t="inlineStr">
         <x:is>
-          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+          <x:t>Centro Formación IME_Hada (Edificio de Empresas)</x:t>
         </x:is>
       </x:c>
       <x:c r="H123" t="inlineStr">
@@ -3885,7 +3886,7 @@
     <x:row r="124">
       <x:c r="A124" t="inlineStr">
         <x:is>
-          <x:t>22/1722</x:t>
+          <x:t>22/1721</x:t>
         </x:is>
       </x:c>
       <x:c r="B124" t="inlineStr">
@@ -3917,7 +3918,7 @@
     <x:row r="125">
       <x:c r="A125" t="inlineStr">
         <x:is>
-          <x:t>22/1724</x:t>
+          <x:t>22/1722</x:t>
         </x:is>
       </x:c>
       <x:c r="B125" t="inlineStr">
@@ -3949,17 +3950,17 @@
     <x:row r="126">
       <x:c r="A126" t="inlineStr">
         <x:is>
-          <x:t>22/1794</x:t>
+          <x:t>22/1724</x:t>
         </x:is>
       </x:c>
       <x:c r="B126" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C126" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F126" t="inlineStr">
@@ -3969,24 +3970,29 @@
       </x:c>
       <x:c r="G126" t="inlineStr">
         <x:is>
-          <x:t>Alquiler y Venta Rápida S.L.</x:t>
+          <x:t>Centro Formación IME_Dual (Edificio  de Empresas)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H126" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="127">
       <x:c r="A127" t="inlineStr">
         <x:is>
-          <x:t>23/8000</x:t>
+          <x:t>22/1794</x:t>
         </x:is>
       </x:c>
       <x:c r="B127" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C127" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F127" t="inlineStr">
@@ -3996,24 +4002,24 @@
       </x:c>
       <x:c r="G127" t="inlineStr">
         <x:is>
-          <x:t>IGNACIO RUIZ OSTA</x:t>
+          <x:t>Alquiler y Venta Rápida S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="128">
       <x:c r="A128" t="inlineStr">
         <x:is>
-          <x:t>23/8001</x:t>
+          <x:t>23/8000</x:t>
         </x:is>
       </x:c>
       <x:c r="B128" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C128" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F128" t="inlineStr">
@@ -4023,24 +4029,24 @@
       </x:c>
       <x:c r="G128" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>IGNACIO RUIZ OSTA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="129">
       <x:c r="A129" t="inlineStr">
         <x:is>
-          <x:t>23/8002</x:t>
+          <x:t>23/8001</x:t>
         </x:is>
       </x:c>
       <x:c r="B129" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C129" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F129" t="inlineStr">
@@ -4057,17 +4063,17 @@
     <x:row r="130">
       <x:c r="A130" t="inlineStr">
         <x:is>
-          <x:t>23/8003</x:t>
+          <x:t>23/8002</x:t>
         </x:is>
       </x:c>
       <x:c r="B130" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C130" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F130" t="inlineStr">
@@ -4084,17 +4090,17 @@
     <x:row r="131">
       <x:c r="A131" t="inlineStr">
         <x:is>
-          <x:t>23/8004</x:t>
+          <x:t>23/8003</x:t>
         </x:is>
       </x:c>
       <x:c r="B131" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C131" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F131" t="inlineStr">
@@ -4111,17 +4117,17 @@
     <x:row r="132">
       <x:c r="A132" t="inlineStr">
         <x:is>
-          <x:t>23/8007</x:t>
+          <x:t>23/8004</x:t>
         </x:is>
       </x:c>
       <x:c r="B132" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C132" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="F132" t="inlineStr">
@@ -4138,7 +4144,7 @@
     <x:row r="133">
       <x:c r="A133" t="inlineStr">
         <x:is>
-          <x:t>23/8008</x:t>
+          <x:t>23/8007</x:t>
         </x:is>
       </x:c>
       <x:c r="B133" t="inlineStr">
@@ -4165,17 +4171,17 @@
     <x:row r="134">
       <x:c r="A134" t="inlineStr">
         <x:is>
-          <x:t>23/8010</x:t>
+          <x:t>23/8008</x:t>
         </x:is>
       </x:c>
       <x:c r="B134" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C134" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F134" t="inlineStr">
@@ -4185,24 +4191,24 @@
       </x:c>
       <x:c r="G134" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="135">
       <x:c r="A135" t="inlineStr">
         <x:is>
-          <x:t>23/8011</x:t>
+          <x:t>23/8010</x:t>
         </x:is>
       </x:c>
       <x:c r="B135" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C135" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F135" t="inlineStr">
@@ -4219,17 +4225,17 @@
     <x:row r="136">
       <x:c r="A136" t="inlineStr">
         <x:is>
-          <x:t>23/8012</x:t>
+          <x:t>23/8011</x:t>
         </x:is>
       </x:c>
       <x:c r="B136" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C136" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F136" t="inlineStr">
@@ -4246,17 +4252,17 @@
     <x:row r="137">
       <x:c r="A137" t="inlineStr">
         <x:is>
-          <x:t>23/8013</x:t>
+          <x:t>23/8012</x:t>
         </x:is>
       </x:c>
       <x:c r="B137" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C137" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F137" t="inlineStr">
@@ -4273,17 +4279,17 @@
     <x:row r="138">
       <x:c r="A138" t="inlineStr">
         <x:is>
-          <x:t>23/8014</x:t>
+          <x:t>23/8013</x:t>
         </x:is>
       </x:c>
       <x:c r="B138" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C138" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F138" t="inlineStr">
@@ -4300,17 +4306,17 @@
     <x:row r="139">
       <x:c r="A139" t="inlineStr">
         <x:is>
-          <x:t>23/8015</x:t>
+          <x:t>23/8014</x:t>
         </x:is>
       </x:c>
       <x:c r="B139" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C139" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F139" t="inlineStr">
@@ -4327,17 +4333,17 @@
     <x:row r="140">
       <x:c r="A140" t="inlineStr">
         <x:is>
-          <x:t>23/8016</x:t>
+          <x:t>23/8015</x:t>
         </x:is>
       </x:c>
       <x:c r="B140" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C140" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F140" t="inlineStr">
@@ -4354,17 +4360,17 @@
     <x:row r="141">
       <x:c r="A141" t="inlineStr">
         <x:is>
-          <x:t>23/8017</x:t>
+          <x:t>23/8016</x:t>
         </x:is>
       </x:c>
       <x:c r="B141" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C141" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F141" t="inlineStr">
@@ -4381,17 +4387,17 @@
     <x:row r="142">
       <x:c r="A142" t="inlineStr">
         <x:is>
-          <x:t>23/8018</x:t>
+          <x:t>23/8017</x:t>
         </x:is>
       </x:c>
       <x:c r="B142" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C142" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F142" t="inlineStr">
@@ -4401,29 +4407,24 @@
       </x:c>
       <x:c r="G142" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H142" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ACADEMIA LAGASCA SERRANO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="143">
       <x:c r="A143" t="inlineStr">
         <x:is>
-          <x:t>23/8019</x:t>
+          <x:t>23/8018</x:t>
         </x:is>
       </x:c>
       <x:c r="B143" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C143" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F143" t="inlineStr">
@@ -4445,17 +4446,17 @@
     <x:row r="144">
       <x:c r="A144" t="inlineStr">
         <x:is>
-          <x:t>23/8020</x:t>
+          <x:t>23/8019</x:t>
         </x:is>
       </x:c>
       <x:c r="B144" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C144" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F144" t="inlineStr">
@@ -4477,17 +4478,17 @@
     <x:row r="145">
       <x:c r="A145" t="inlineStr">
         <x:is>
-          <x:t>23/8021</x:t>
+          <x:t>23/8020</x:t>
         </x:is>
       </x:c>
       <x:c r="B145" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C145" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F145" t="inlineStr">
@@ -4509,17 +4510,17 @@
     <x:row r="146">
       <x:c r="A146" t="inlineStr">
         <x:is>
-          <x:t>23/8023</x:t>
+          <x:t>23/8021</x:t>
         </x:is>
       </x:c>
       <x:c r="B146" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C146" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F146" t="inlineStr">
@@ -4541,17 +4542,17 @@
     <x:row r="147">
       <x:c r="A147" t="inlineStr">
         <x:is>
-          <x:t>23/8024</x:t>
+          <x:t>23/8023</x:t>
         </x:is>
       </x:c>
       <x:c r="B147" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C147" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F147" t="inlineStr">
@@ -4573,17 +4574,17 @@
     <x:row r="148">
       <x:c r="A148" t="inlineStr">
         <x:is>
-          <x:t>23/8025</x:t>
+          <x:t>23/8024</x:t>
         </x:is>
       </x:c>
       <x:c r="B148" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C148" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F148" t="inlineStr">
@@ -4605,17 +4606,17 @@
     <x:row r="149">
       <x:c r="A149" t="inlineStr">
         <x:is>
-          <x:t>23/8026</x:t>
+          <x:t>23/8025</x:t>
         </x:is>
       </x:c>
       <x:c r="B149" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C149" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F149" t="inlineStr">
@@ -4637,17 +4638,17 @@
     <x:row r="150">
       <x:c r="A150" t="inlineStr">
         <x:is>
-          <x:t>23/8027</x:t>
+          <x:t>23/8026</x:t>
         </x:is>
       </x:c>
       <x:c r="B150" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C150" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F150" t="inlineStr">
@@ -4657,24 +4658,29 @@
       </x:c>
       <x:c r="G150" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
+          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H150" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="151">
       <x:c r="A151" t="inlineStr">
         <x:is>
-          <x:t>23/8028</x:t>
+          <x:t>23/8027</x:t>
         </x:is>
       </x:c>
       <x:c r="B151" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C151" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F151" t="inlineStr">
@@ -4691,17 +4697,17 @@
     <x:row r="152">
       <x:c r="A152" t="inlineStr">
         <x:is>
-          <x:t>23/8029</x:t>
+          <x:t>23/8028</x:t>
         </x:is>
       </x:c>
       <x:c r="B152" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C152" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F152" t="inlineStr">
@@ -4718,17 +4724,17 @@
     <x:row r="153">
       <x:c r="A153" t="inlineStr">
         <x:is>
-          <x:t>23/8030</x:t>
+          <x:t>23/8029</x:t>
         </x:is>
       </x:c>
       <x:c r="B153" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C153" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F153" t="inlineStr">
@@ -4745,17 +4751,17 @@
     <x:row r="154">
       <x:c r="A154" t="inlineStr">
         <x:is>
-          <x:t>23/8031</x:t>
+          <x:t>23/8030</x:t>
         </x:is>
       </x:c>
       <x:c r="B154" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C154" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F154" t="inlineStr">
@@ -4772,17 +4778,17 @@
     <x:row r="155">
       <x:c r="A155" t="inlineStr">
         <x:is>
-          <x:t>23/8032</x:t>
+          <x:t>23/8031</x:t>
         </x:is>
       </x:c>
       <x:c r="B155" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C155" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F155" t="inlineStr">
@@ -4799,17 +4805,17 @@
     <x:row r="156">
       <x:c r="A156" t="inlineStr">
         <x:is>
-          <x:t>23/8033</x:t>
+          <x:t>23/8032</x:t>
         </x:is>
       </x:c>
       <x:c r="B156" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C156" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F156" t="inlineStr">
@@ -4826,17 +4832,17 @@
     <x:row r="157">
       <x:c r="A157" t="inlineStr">
         <x:is>
-          <x:t>23/8034</x:t>
+          <x:t>23/8033</x:t>
         </x:is>
       </x:c>
       <x:c r="B157" t="inlineStr">
         <x:is>
-          <x:t>ELEE0108</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C157" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F157" t="inlineStr">
@@ -4846,24 +4852,24 @@
       </x:c>
       <x:c r="G157" t="inlineStr">
         <x:is>
-          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
+          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="158">
       <x:c r="A158" t="inlineStr">
         <x:is>
-          <x:t>23/8035</x:t>
+          <x:t>23/8034</x:t>
         </x:is>
       </x:c>
       <x:c r="B158" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>ELEE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C158" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F158" t="inlineStr">
@@ -4880,17 +4886,17 @@
     <x:row r="159">
       <x:c r="A159" t="inlineStr">
         <x:is>
-          <x:t>23/8036</x:t>
+          <x:t>23/8035</x:t>
         </x:is>
       </x:c>
       <x:c r="B159" t="inlineStr">
         <x:is>
-          <x:t>ELEE0108</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C159" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F159" t="inlineStr">
@@ -4907,17 +4913,17 @@
     <x:row r="160">
       <x:c r="A160" t="inlineStr">
         <x:is>
-          <x:t>23/8037</x:t>
+          <x:t>23/8036</x:t>
         </x:is>
       </x:c>
       <x:c r="B160" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>ELEE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C160" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F160" t="inlineStr">
@@ -4934,17 +4940,17 @@
     <x:row r="161">
       <x:c r="A161" t="inlineStr">
         <x:is>
-          <x:t>23/8038</x:t>
+          <x:t>23/8037</x:t>
         </x:is>
       </x:c>
       <x:c r="B161" t="inlineStr">
         <x:is>
-          <x:t>QUIA0108</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C161" t="inlineStr">
         <x:is>
-          <x:t>ENSAYOS FÍSICOS Y FISICOQUÍMICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F161" t="inlineStr">
@@ -4954,24 +4960,24 @@
       </x:c>
       <x:c r="G161" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION AGRARIA S.A.</x:t>
+          <x:t>SOCIEDAD ANONIMA  JUAN XXIII</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="162">
       <x:c r="A162" t="inlineStr">
         <x:is>
-          <x:t>23/8039</x:t>
+          <x:t>23/8038</x:t>
         </x:is>
       </x:c>
       <x:c r="B162" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>QUIA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C162" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>ENSAYOS FÍSICOS Y FISICOQUÍMICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F162" t="inlineStr">
@@ -4981,24 +4987,24 @@
       </x:c>
       <x:c r="G162" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA COLON, S.A</x:t>
+          <x:t>CENTRO DE INICIATIVAS PARA LA FORMACION AGRARIA S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="163">
       <x:c r="A163" t="inlineStr">
         <x:is>
-          <x:t>23/8040</x:t>
+          <x:t>23/8039</x:t>
         </x:is>
       </x:c>
       <x:c r="B163" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C163" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F163" t="inlineStr">
@@ -5015,17 +5021,17 @@
     <x:row r="164">
       <x:c r="A164" t="inlineStr">
         <x:is>
-          <x:t>23/8041</x:t>
+          <x:t>23/8040</x:t>
         </x:is>
       </x:c>
       <x:c r="B164" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C164" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F164" t="inlineStr">
@@ -5042,7 +5048,7 @@
     <x:row r="165">
       <x:c r="A165" t="inlineStr">
         <x:is>
-          <x:t>23/8044</x:t>
+          <x:t>23/8041</x:t>
         </x:is>
       </x:c>
       <x:c r="B165" t="inlineStr">
@@ -5069,17 +5075,17 @@
     <x:row r="166">
       <x:c r="A166" t="inlineStr">
         <x:is>
-          <x:t>23/8045</x:t>
+          <x:t>23/8044</x:t>
         </x:is>
       </x:c>
       <x:c r="B166" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C166" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F166" t="inlineStr">
@@ -5096,17 +5102,17 @@
     <x:row r="167">
       <x:c r="A167" t="inlineStr">
         <x:is>
-          <x:t>23/8046</x:t>
+          <x:t>23/8045</x:t>
         </x:is>
       </x:c>
       <x:c r="B167" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C167" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F167" t="inlineStr">
@@ -5123,17 +5129,17 @@
     <x:row r="168">
       <x:c r="A168" t="inlineStr">
         <x:is>
-          <x:t>23/8047</x:t>
+          <x:t>23/8046</x:t>
         </x:is>
       </x:c>
       <x:c r="B168" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C168" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F168" t="inlineStr">
@@ -5143,24 +5149,24 @@
       </x:c>
       <x:c r="G168" t="inlineStr">
         <x:is>
-          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
+          <x:t>ACADEMIA COLON, S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="169">
       <x:c r="A169" t="inlineStr">
         <x:is>
-          <x:t>23/8048</x:t>
+          <x:t>23/8047</x:t>
         </x:is>
       </x:c>
       <x:c r="B169" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C169" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F169" t="inlineStr">
@@ -5177,17 +5183,17 @@
     <x:row r="170">
       <x:c r="A170" t="inlineStr">
         <x:is>
-          <x:t>23/8049</x:t>
+          <x:t>23/8048</x:t>
         </x:is>
       </x:c>
       <x:c r="B170" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C170" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F170" t="inlineStr">
@@ -5204,17 +5210,17 @@
     <x:row r="171">
       <x:c r="A171" t="inlineStr">
         <x:is>
-          <x:t>23/8051</x:t>
+          <x:t>23/8049</x:t>
         </x:is>
       </x:c>
       <x:c r="B171" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C171" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F171" t="inlineStr">
@@ -5231,17 +5237,17 @@
     <x:row r="172">
       <x:c r="A172" t="inlineStr">
         <x:is>
-          <x:t>23/8052</x:t>
+          <x:t>23/8051</x:t>
         </x:is>
       </x:c>
       <x:c r="B172" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C172" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F172" t="inlineStr">
@@ -5258,17 +5264,17 @@
     <x:row r="173">
       <x:c r="A173" t="inlineStr">
         <x:is>
-          <x:t>23/8053</x:t>
+          <x:t>23/8052</x:t>
         </x:is>
       </x:c>
       <x:c r="B173" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C173" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F173" t="inlineStr">
@@ -5285,17 +5291,17 @@
     <x:row r="174">
       <x:c r="A174" t="inlineStr">
         <x:is>
-          <x:t>23/8054</x:t>
+          <x:t>23/8053</x:t>
         </x:is>
       </x:c>
       <x:c r="B174" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C174" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F174" t="inlineStr">
@@ -5312,17 +5318,17 @@
     <x:row r="175">
       <x:c r="A175" t="inlineStr">
         <x:is>
-          <x:t>23/8058</x:t>
+          <x:t>23/8054</x:t>
         </x:is>
       </x:c>
       <x:c r="B175" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C175" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F175" t="inlineStr">
@@ -5332,24 +5338,24 @@
       </x:c>
       <x:c r="G175" t="inlineStr">
         <x:is>
-          <x:t>MERINERO S.A.</x:t>
+          <x:t>AC3 EVOLUCION FORMATIVA S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="176">
       <x:c r="A176" t="inlineStr">
         <x:is>
-          <x:t>23/8059</x:t>
+          <x:t>23/8058</x:t>
         </x:is>
       </x:c>
       <x:c r="B176" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C176" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F176" t="inlineStr">
@@ -5359,14 +5365,14 @@
       </x:c>
       <x:c r="G176" t="inlineStr">
         <x:is>
-          <x:t>GRUPO FIDSOFT S.A</x:t>
+          <x:t>MERINERO S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="177">
       <x:c r="A177" t="inlineStr">
         <x:is>
-          <x:t>23/8061</x:t>
+          <x:t>23/8059</x:t>
         </x:is>
       </x:c>
       <x:c r="B177" t="inlineStr">
@@ -5393,17 +5399,17 @@
     <x:row r="178">
       <x:c r="A178" t="inlineStr">
         <x:is>
-          <x:t>23/8062</x:t>
+          <x:t>23/8061</x:t>
         </x:is>
       </x:c>
       <x:c r="B178" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C178" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F178" t="inlineStr">
@@ -5420,17 +5426,17 @@
     <x:row r="179">
       <x:c r="A179" t="inlineStr">
         <x:is>
-          <x:t>23/8063</x:t>
+          <x:t>23/8062</x:t>
         </x:is>
       </x:c>
       <x:c r="B179" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C179" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F179" t="inlineStr">
@@ -5447,17 +5453,17 @@
     <x:row r="180">
       <x:c r="A180" t="inlineStr">
         <x:is>
-          <x:t>23/8064</x:t>
+          <x:t>23/8063</x:t>
         </x:is>
       </x:c>
       <x:c r="B180" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C180" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F180" t="inlineStr">
@@ -5474,17 +5480,17 @@
     <x:row r="181">
       <x:c r="A181" t="inlineStr">
         <x:is>
-          <x:t>23/8065</x:t>
+          <x:t>23/8064</x:t>
         </x:is>
       </x:c>
       <x:c r="B181" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C181" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F181" t="inlineStr">
@@ -5501,17 +5507,17 @@
     <x:row r="182">
       <x:c r="A182" t="inlineStr">
         <x:is>
-          <x:t>23/8066</x:t>
+          <x:t>23/8065</x:t>
         </x:is>
       </x:c>
       <x:c r="B182" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C182" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F182" t="inlineStr">
@@ -5521,24 +5527,24 @@
       </x:c>
       <x:c r="G182" t="inlineStr">
         <x:is>
-          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
+          <x:t>GRUPO FIDSOFT S.A</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="183">
       <x:c r="A183" t="inlineStr">
         <x:is>
-          <x:t>23/8067</x:t>
+          <x:t>23/8066</x:t>
         </x:is>
       </x:c>
       <x:c r="B183" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C183" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F183" t="inlineStr">
@@ -5555,17 +5561,17 @@
     <x:row r="184">
       <x:c r="A184" t="inlineStr">
         <x:is>
-          <x:t>23/8068</x:t>
+          <x:t>23/8067</x:t>
         </x:is>
       </x:c>
       <x:c r="B184" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C184" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F184" t="inlineStr">
@@ -5582,17 +5588,17 @@
     <x:row r="185">
       <x:c r="A185" t="inlineStr">
         <x:is>
-          <x:t>23/8069</x:t>
+          <x:t>23/8068</x:t>
         </x:is>
       </x:c>
       <x:c r="B185" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C185" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F185" t="inlineStr">
@@ -5609,17 +5615,17 @@
     <x:row r="186">
       <x:c r="A186" t="inlineStr">
         <x:is>
-          <x:t>23/8070</x:t>
+          <x:t>23/8069</x:t>
         </x:is>
       </x:c>
       <x:c r="B186" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C186" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F186" t="inlineStr">
@@ -5636,17 +5642,17 @@
     <x:row r="187">
       <x:c r="A187" t="inlineStr">
         <x:is>
-          <x:t>23/8071</x:t>
+          <x:t>23/8070</x:t>
         </x:is>
       </x:c>
       <x:c r="B187" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C187" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F187" t="inlineStr">
@@ -5663,17 +5669,17 @@
     <x:row r="188">
       <x:c r="A188" t="inlineStr">
         <x:is>
-          <x:t>23/8072</x:t>
+          <x:t>23/8071</x:t>
         </x:is>
       </x:c>
       <x:c r="B188" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C188" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F188" t="inlineStr">
@@ -5690,17 +5696,17 @@
     <x:row r="189">
       <x:c r="A189" t="inlineStr">
         <x:is>
-          <x:t>23/8073</x:t>
+          <x:t>23/8072</x:t>
         </x:is>
       </x:c>
       <x:c r="B189" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C189" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F189" t="inlineStr">
@@ -5717,17 +5723,17 @@
     <x:row r="190">
       <x:c r="A190" t="inlineStr">
         <x:is>
-          <x:t>23/8076</x:t>
+          <x:t>23/8073</x:t>
         </x:is>
       </x:c>
       <x:c r="B190" t="inlineStr">
         <x:is>
-          <x:t>AFDA0511</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C190" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F190" t="inlineStr">
@@ -5737,24 +5743,24 @@
       </x:c>
       <x:c r="G190" t="inlineStr">
         <x:is>
-          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
+          <x:t>VIRENSIS SOCIEDAD ANONIMA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="191">
       <x:c r="A191" t="inlineStr">
         <x:is>
-          <x:t>23/8077</x:t>
+          <x:t>23/8076</x:t>
         </x:is>
       </x:c>
       <x:c r="B191" t="inlineStr">
         <x:is>
-          <x:t>AFDP0209</x:t>
+          <x:t>AFDA0511</x:t>
         </x:is>
       </x:c>
       <x:c r="C191" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
+          <x:t>OPERACIONES AUXILIARES EN LA ORGANIZACIÓN DE ACTIVIDADES Y FUNCIONAMIENTO DE INSTALACIONES DEPORTIVAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F191" t="inlineStr">
@@ -5771,7 +5777,7 @@
     <x:row r="192">
       <x:c r="A192" t="inlineStr">
         <x:is>
-          <x:t>23/8078</x:t>
+          <x:t>23/8077</x:t>
         </x:is>
       </x:c>
       <x:c r="B192" t="inlineStr">
@@ -5798,17 +5804,17 @@
     <x:row r="193">
       <x:c r="A193" t="inlineStr">
         <x:is>
-          <x:t>23/8079</x:t>
+          <x:t>23/8078</x:t>
         </x:is>
       </x:c>
       <x:c r="B193" t="inlineStr">
         <x:is>
-          <x:t>IMSV0208</x:t>
+          <x:t>AFDP0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C193" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
+          <x:t>SOCORRISMO EN ESPACIOS ACUÁTICOS NATURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F193" t="inlineStr">
@@ -5825,17 +5831,17 @@
     <x:row r="194">
       <x:c r="A194" t="inlineStr">
         <x:is>
-          <x:t>23/8080</x:t>
+          <x:t>23/8079</x:t>
         </x:is>
       </x:c>
       <x:c r="B194" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>IMSV0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C194" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F194" t="inlineStr">
@@ -5852,17 +5858,17 @@
     <x:row r="195">
       <x:c r="A195" t="inlineStr">
         <x:is>
-          <x:t>23/8081</x:t>
+          <x:t>23/8080</x:t>
         </x:is>
       </x:c>
       <x:c r="B195" t="inlineStr">
         <x:is>
-          <x:t>AFDA0210</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C195" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F195" t="inlineStr">
@@ -5879,17 +5885,17 @@
     <x:row r="196">
       <x:c r="A196" t="inlineStr">
         <x:is>
-          <x:t>23/8082</x:t>
+          <x:t>23/8081</x:t>
         </x:is>
       </x:c>
       <x:c r="B196" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>AFDA0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C196" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F196" t="inlineStr">
@@ -5899,24 +5905,24 @@
       </x:c>
       <x:c r="G196" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPA SL</x:t>
+          <x:t>CENTRO SUPERIOR DE FORMACION EUROPA-SUR S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="197">
       <x:c r="A197" t="inlineStr">
         <x:is>
-          <x:t>23/8083</x:t>
+          <x:t>23/8082</x:t>
         </x:is>
       </x:c>
       <x:c r="B197" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C197" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F197" t="inlineStr">
@@ -5933,17 +5939,17 @@
     <x:row r="198">
       <x:c r="A198" t="inlineStr">
         <x:is>
-          <x:t>23/8084</x:t>
+          <x:t>23/8083</x:t>
         </x:is>
       </x:c>
       <x:c r="B198" t="inlineStr">
         <x:is>
-          <x:t>SEAD0212</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C198" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F198" t="inlineStr">
@@ -5960,17 +5966,17 @@
     <x:row r="199">
       <x:c r="A199" t="inlineStr">
         <x:is>
-          <x:t>23/8085</x:t>
+          <x:t>23/8084</x:t>
         </x:is>
       </x:c>
       <x:c r="B199" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>SEAD0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C199" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F199" t="inlineStr">
@@ -5987,17 +5993,17 @@
     <x:row r="200">
       <x:c r="A200" t="inlineStr">
         <x:is>
-          <x:t>23/8086</x:t>
+          <x:t>23/8085</x:t>
         </x:is>
       </x:c>
       <x:c r="B200" t="inlineStr">
         <x:is>
-          <x:t>SEAD0212</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C200" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F200" t="inlineStr">
@@ -6014,17 +6020,17 @@
     <x:row r="201">
       <x:c r="A201" t="inlineStr">
         <x:is>
-          <x:t>23/8087</x:t>
+          <x:t>23/8086</x:t>
         </x:is>
       </x:c>
       <x:c r="B201" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>SEAD0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C201" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F201" t="inlineStr">
@@ -6041,17 +6047,17 @@
     <x:row r="202">
       <x:c r="A202" t="inlineStr">
         <x:is>
-          <x:t>23/8090</x:t>
+          <x:t>23/8087</x:t>
         </x:is>
       </x:c>
       <x:c r="B202" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C202" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F202" t="inlineStr">
@@ -6061,24 +6067,24 @@
       </x:c>
       <x:c r="G202" t="inlineStr">
         <x:is>
-          <x:t>ALBORAN FORMACION, S.L.</x:t>
+          <x:t>INSTITUTO EUROPA SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="203">
       <x:c r="A203" t="inlineStr">
         <x:is>
-          <x:t>23/8092</x:t>
+          <x:t>23/8090</x:t>
         </x:is>
       </x:c>
       <x:c r="B203" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C203" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F203" t="inlineStr">
@@ -6095,17 +6101,17 @@
     <x:row r="204">
       <x:c r="A204" t="inlineStr">
         <x:is>
-          <x:t>23/8093</x:t>
+          <x:t>23/8092</x:t>
         </x:is>
       </x:c>
       <x:c r="B204" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C204" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F204" t="inlineStr">
@@ -6122,17 +6128,17 @@
     <x:row r="205">
       <x:c r="A205" t="inlineStr">
         <x:is>
-          <x:t>23/8094</x:t>
+          <x:t>23/8093</x:t>
         </x:is>
       </x:c>
       <x:c r="B205" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C205" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F205" t="inlineStr">
@@ -6149,17 +6155,17 @@
     <x:row r="206">
       <x:c r="A206" t="inlineStr">
         <x:is>
-          <x:t>23/8104</x:t>
+          <x:t>23/8094</x:t>
         </x:is>
       </x:c>
       <x:c r="B206" t="inlineStr">
         <x:is>
-          <x:t>AFDA0210</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C206" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F206" t="inlineStr">
@@ -6169,24 +6175,24 @@
       </x:c>
       <x:c r="G206" t="inlineStr">
         <x:is>
-          <x:t>DATA CONTROL FORMACION, SL</x:t>
+          <x:t>ALBORAN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="207">
       <x:c r="A207" t="inlineStr">
         <x:is>
-          <x:t>23/8105</x:t>
+          <x:t>23/8104</x:t>
         </x:is>
       </x:c>
       <x:c r="B207" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>AFDA0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C207" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN SALA DE ENTRENAMIENTO POLIVALENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F207" t="inlineStr">
@@ -6196,24 +6202,24 @@
       </x:c>
       <x:c r="G207" t="inlineStr">
         <x:is>
-          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
+          <x:t>DATA CONTROL FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="208">
       <x:c r="A208" t="inlineStr">
         <x:is>
-          <x:t>23/8106</x:t>
+          <x:t>23/8105</x:t>
         </x:is>
       </x:c>
       <x:c r="B208" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C208" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F208" t="inlineStr">
@@ -6230,17 +6236,17 @@
     <x:row r="209">
       <x:c r="A209" t="inlineStr">
         <x:is>
-          <x:t>23/8107</x:t>
+          <x:t>23/8106</x:t>
         </x:is>
       </x:c>
       <x:c r="B209" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C209" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F209" t="inlineStr">
@@ -6257,17 +6263,17 @@
     <x:row r="210">
       <x:c r="A210" t="inlineStr">
         <x:is>
-          <x:t>23/8108</x:t>
+          <x:t>23/8107</x:t>
         </x:is>
       </x:c>
       <x:c r="B210" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C210" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F210" t="inlineStr">
@@ -6284,17 +6290,17 @@
     <x:row r="211">
       <x:c r="A211" t="inlineStr">
         <x:is>
-          <x:t>23/8109</x:t>
+          <x:t>23/8108</x:t>
         </x:is>
       </x:c>
       <x:c r="B211" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C211" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F211" t="inlineStr">
@@ -6311,17 +6317,17 @@
     <x:row r="212">
       <x:c r="A212" t="inlineStr">
         <x:is>
-          <x:t>23/8110</x:t>
+          <x:t>23/8109</x:t>
         </x:is>
       </x:c>
       <x:c r="B212" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C212" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F212" t="inlineStr">
@@ -6338,17 +6344,17 @@
     <x:row r="213">
       <x:c r="A213" t="inlineStr">
         <x:is>
-          <x:t>23/8111</x:t>
+          <x:t>23/8110</x:t>
         </x:is>
       </x:c>
       <x:c r="B213" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C213" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F213" t="inlineStr">
@@ -6365,17 +6371,17 @@
     <x:row r="214">
       <x:c r="A214" t="inlineStr">
         <x:is>
-          <x:t>23/8112</x:t>
+          <x:t>23/8111</x:t>
         </x:is>
       </x:c>
       <x:c r="B214" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C214" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F214" t="inlineStr">
@@ -6392,17 +6398,17 @@
     <x:row r="215">
       <x:c r="A215" t="inlineStr">
         <x:is>
-          <x:t>23/8113</x:t>
+          <x:t>23/8112</x:t>
         </x:is>
       </x:c>
       <x:c r="B215" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C215" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F215" t="inlineStr">
@@ -6412,14 +6418,14 @@
       </x:c>
       <x:c r="G215" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
+          <x:t>EUROCONSULTORIA FORMACION EMPRESA, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="216">
       <x:c r="A216" t="inlineStr">
         <x:is>
-          <x:t>23/8114</x:t>
+          <x:t>23/8113</x:t>
         </x:is>
       </x:c>
       <x:c r="B216" t="inlineStr">
@@ -6446,17 +6452,17 @@
     <x:row r="217">
       <x:c r="A217" t="inlineStr">
         <x:is>
-          <x:t>23/8115</x:t>
+          <x:t>23/8114</x:t>
         </x:is>
       </x:c>
       <x:c r="B217" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C217" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F217" t="inlineStr">
@@ -6473,17 +6479,17 @@
     <x:row r="218">
       <x:c r="A218" t="inlineStr">
         <x:is>
-          <x:t>23/8116</x:t>
+          <x:t>23/8115</x:t>
         </x:is>
       </x:c>
       <x:c r="B218" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C218" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F218" t="inlineStr">
@@ -6500,17 +6506,17 @@
     <x:row r="219">
       <x:c r="A219" t="inlineStr">
         <x:is>
-          <x:t>23/8117</x:t>
+          <x:t>23/8116</x:t>
         </x:is>
       </x:c>
       <x:c r="B219" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C219" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F219" t="inlineStr">
@@ -6527,17 +6533,17 @@
     <x:row r="220">
       <x:c r="A220" t="inlineStr">
         <x:is>
-          <x:t>23/8118</x:t>
+          <x:t>23/8117</x:t>
         </x:is>
       </x:c>
       <x:c r="B220" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C220" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F220" t="inlineStr">
@@ -6554,17 +6560,17 @@
     <x:row r="221">
       <x:c r="A221" t="inlineStr">
         <x:is>
-          <x:t>23/8119</x:t>
+          <x:t>23/8118</x:t>
         </x:is>
       </x:c>
       <x:c r="B221" t="inlineStr">
         <x:is>
-          <x:t>COML0309</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C221" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F221" t="inlineStr">
@@ -6581,17 +6587,17 @@
     <x:row r="222">
       <x:c r="A222" t="inlineStr">
         <x:is>
-          <x:t>23/8120</x:t>
+          <x:t>23/8119</x:t>
         </x:is>
       </x:c>
       <x:c r="B222" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>COML0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C222" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ORGANIZACIÓN Y GESTIÓN DE ALMACENES</x:t>
         </x:is>
       </x:c>
       <x:c r="F222" t="inlineStr">
@@ -6608,17 +6614,17 @@
     <x:row r="223">
       <x:c r="A223" t="inlineStr">
         <x:is>
-          <x:t>23/8124</x:t>
+          <x:t>23/8120</x:t>
         </x:is>
       </x:c>
       <x:c r="B223" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C223" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F223" t="inlineStr">
@@ -6628,24 +6634,24 @@
       </x:c>
       <x:c r="G223" t="inlineStr">
         <x:is>
-          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
+          <x:t>ACADEMIA POSTAL 3 VIGO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="224">
       <x:c r="A224" t="inlineStr">
         <x:is>
-          <x:t>23/8125</x:t>
+          <x:t>23/8124</x:t>
         </x:is>
       </x:c>
       <x:c r="B224" t="inlineStr">
         <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C224" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F224" t="inlineStr">
@@ -6662,17 +6668,17 @@
     <x:row r="225">
       <x:c r="A225" t="inlineStr">
         <x:is>
-          <x:t>23/8126</x:t>
+          <x:t>23/8125</x:t>
         </x:is>
       </x:c>
       <x:c r="B225" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C225" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F225" t="inlineStr">
@@ -6689,17 +6695,17 @@
     <x:row r="226">
       <x:c r="A226" t="inlineStr">
         <x:is>
-          <x:t>23/8127</x:t>
+          <x:t>23/8126</x:t>
         </x:is>
       </x:c>
       <x:c r="B226" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C226" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F226" t="inlineStr">
@@ -6716,17 +6722,17 @@
     <x:row r="227">
       <x:c r="A227" t="inlineStr">
         <x:is>
-          <x:t>23/8128</x:t>
+          <x:t>23/8127</x:t>
         </x:is>
       </x:c>
       <x:c r="B227" t="inlineStr">
         <x:is>
-          <x:t>IFCT0409</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C227" t="inlineStr">
         <x:is>
-          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS EN SISTEMAS DOMÓTICOS /INMÓTICOS, DE CONTROL DE ACCESOS Y PRESENCIA Y DE VIDEOVIGILANCIA</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F227" t="inlineStr">
@@ -6743,17 +6749,17 @@
     <x:row r="228">
       <x:c r="A228" t="inlineStr">
         <x:is>
-          <x:t>23/8129</x:t>
+          <x:t>23/8128</x:t>
         </x:is>
       </x:c>
       <x:c r="B228" t="inlineStr">
         <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>IFCT0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C228" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS EN SISTEMAS DOMÓTICOS /INMÓTICOS, DE CONTROL DE ACCESOS Y PRESENCIA Y DE VIDEOVIGILANCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F228" t="inlineStr">
@@ -6770,17 +6776,17 @@
     <x:row r="229">
       <x:c r="A229" t="inlineStr">
         <x:is>
-          <x:t>23/8130</x:t>
+          <x:t>23/8129</x:t>
         </x:is>
       </x:c>
       <x:c r="B229" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C229" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F229" t="inlineStr">
@@ -6797,17 +6803,17 @@
     <x:row r="230">
       <x:c r="A230" t="inlineStr">
         <x:is>
-          <x:t>23/8131</x:t>
+          <x:t>23/8130</x:t>
         </x:is>
       </x:c>
       <x:c r="B230" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C230" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F230" t="inlineStr">
@@ -6824,17 +6830,17 @@
     <x:row r="231">
       <x:c r="A231" t="inlineStr">
         <x:is>
-          <x:t>23/8132</x:t>
+          <x:t>23/8131</x:t>
         </x:is>
       </x:c>
       <x:c r="B231" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C231" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F231" t="inlineStr">
@@ -6844,24 +6850,24 @@
       </x:c>
       <x:c r="G231" t="inlineStr">
         <x:is>
-          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
+          <x:t>ESLA CENTROS DE FORMACION, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="232">
       <x:c r="A232" t="inlineStr">
         <x:is>
-          <x:t>23/8133</x:t>
+          <x:t>23/8132</x:t>
         </x:is>
       </x:c>
       <x:c r="B232" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C232" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F232" t="inlineStr">
@@ -6878,17 +6884,17 @@
     <x:row r="233">
       <x:c r="A233" t="inlineStr">
         <x:is>
-          <x:t>23/8134</x:t>
+          <x:t>23/8133</x:t>
         </x:is>
       </x:c>
       <x:c r="B233" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C233" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F233" t="inlineStr">
@@ -6905,17 +6911,17 @@
     <x:row r="234">
       <x:c r="A234" t="inlineStr">
         <x:is>
-          <x:t>23/8135</x:t>
+          <x:t>23/8134</x:t>
         </x:is>
       </x:c>
       <x:c r="B234" t="inlineStr">
         <x:is>
-          <x:t>SSCB0110</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C234" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN, PROGRAMACIÓN Y DESARROLLO DE ACCIONES CULTURALES</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F234" t="inlineStr">
@@ -6932,17 +6938,17 @@
     <x:row r="235">
       <x:c r="A235" t="inlineStr">
         <x:is>
-          <x:t>23/8136</x:t>
+          <x:t>23/8135</x:t>
         </x:is>
       </x:c>
       <x:c r="B235" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>SSCB0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C235" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>DINAMIZACIÓN, PROGRAMACIÓN Y DESARROLLO DE ACCIONES CULTURALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F235" t="inlineStr">
@@ -6959,17 +6965,17 @@
     <x:row r="236">
       <x:c r="A236" t="inlineStr">
         <x:is>
-          <x:t>23/8137</x:t>
+          <x:t>23/8136</x:t>
         </x:is>
       </x:c>
       <x:c r="B236" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C236" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F236" t="inlineStr">
@@ -6979,24 +6985,24 @@
       </x:c>
       <x:c r="G236" t="inlineStr">
         <x:is>
-          <x:t>GRADO INFORMATICA Y GESTION SL</x:t>
+          <x:t>GRUPO INSEM DESARROLLO DEL CONOCIMIENTO S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="237">
       <x:c r="A237" t="inlineStr">
         <x:is>
-          <x:t>23/8138</x:t>
+          <x:t>23/8137</x:t>
         </x:is>
       </x:c>
       <x:c r="B237" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C237" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F237" t="inlineStr">
@@ -7006,24 +7012,24 @@
       </x:c>
       <x:c r="G237" t="inlineStr">
         <x:is>
-          <x:t>NASCOR FORMACION SLU</x:t>
+          <x:t>GRADO INFORMATICA Y GESTION SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="238">
       <x:c r="A238" t="inlineStr">
         <x:is>
-          <x:t>23/8139</x:t>
+          <x:t>23/8138</x:t>
         </x:is>
       </x:c>
       <x:c r="B238" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C238" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F238" t="inlineStr">
@@ -7040,17 +7046,17 @@
     <x:row r="239">
       <x:c r="A239" t="inlineStr">
         <x:is>
-          <x:t>23/8140</x:t>
+          <x:t>23/8139</x:t>
         </x:is>
       </x:c>
       <x:c r="B239" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C239" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F239" t="inlineStr">
@@ -7067,17 +7073,17 @@
     <x:row r="240">
       <x:c r="A240" t="inlineStr">
         <x:is>
-          <x:t>23/8141</x:t>
+          <x:t>23/8140</x:t>
         </x:is>
       </x:c>
       <x:c r="B240" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C240" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F240" t="inlineStr">
@@ -7094,17 +7100,17 @@
     <x:row r="241">
       <x:c r="A241" t="inlineStr">
         <x:is>
-          <x:t>23/8142</x:t>
+          <x:t>23/8141</x:t>
         </x:is>
       </x:c>
       <x:c r="B241" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C241" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F241" t="inlineStr">
@@ -7121,17 +7127,17 @@
     <x:row r="242">
       <x:c r="A242" t="inlineStr">
         <x:is>
-          <x:t>23/8143</x:t>
+          <x:t>23/8142</x:t>
         </x:is>
       </x:c>
       <x:c r="B242" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C242" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F242" t="inlineStr">
@@ -7148,17 +7154,17 @@
     <x:row r="243">
       <x:c r="A243" t="inlineStr">
         <x:is>
-          <x:t>23/8144</x:t>
+          <x:t>23/8143</x:t>
         </x:is>
       </x:c>
       <x:c r="B243" t="inlineStr">
         <x:is>
-          <x:t>SSCG0109</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C243" t="inlineStr">
         <x:is>
-          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F243" t="inlineStr">
@@ -7175,17 +7181,17 @@
     <x:row r="244">
       <x:c r="A244" t="inlineStr">
         <x:is>
-          <x:t>23/8145</x:t>
+          <x:t>23/8144</x:t>
         </x:is>
       </x:c>
       <x:c r="B244" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SSCG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C244" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>INSERCIÓN LABORAL DE PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="F244" t="inlineStr">
@@ -7202,17 +7208,17 @@
     <x:row r="245">
       <x:c r="A245" t="inlineStr">
         <x:is>
-          <x:t>23/8148</x:t>
+          <x:t>23/8145</x:t>
         </x:is>
       </x:c>
       <x:c r="B245" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C245" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F245" t="inlineStr">
@@ -7222,29 +7228,24 @@
       </x:c>
       <x:c r="G245" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACION AMBIENTAL DE ASTURIAS, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H245" t="inlineStr">
-        <x:is>
-          <x:t>Getafe</x:t>
+          <x:t>NASCOR FORMACION SLU</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="246">
       <x:c r="A246" t="inlineStr">
         <x:is>
-          <x:t>23/8150</x:t>
+          <x:t>23/8148</x:t>
         </x:is>
       </x:c>
       <x:c r="B246" t="inlineStr">
         <x:is>
-          <x:t>TMVO0212</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C246" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A PASAJEROS, TRIPULACIONES, AERONAVES Y MERCANCÍAS EN AEROPUERTOS</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F246" t="inlineStr">
@@ -7254,29 +7255,29 @@
       </x:c>
       <x:c r="G246" t="inlineStr">
         <x:is>
-          <x:t>PROYECTAEMPLEO S.L.</x:t>
+          <x:t>CENTRO DE FORMACION AMBIENTAL DE ASTURIAS, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H246" t="inlineStr">
         <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>Getafe</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="247">
       <x:c r="A247" t="inlineStr">
         <x:is>
-          <x:t>23/8151</x:t>
+          <x:t>23/8150</x:t>
         </x:is>
       </x:c>
       <x:c r="B247" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>TMVO0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C247" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>ASISTENCIA A PASAJEROS, TRIPULACIONES, AERONAVES Y MERCANCÍAS EN AEROPUERTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F247" t="inlineStr">
@@ -7286,24 +7287,29 @@
       </x:c>
       <x:c r="G247" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
+          <x:t>PROYECTAEMPLEO S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H247" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="248">
       <x:c r="A248" t="inlineStr">
         <x:is>
-          <x:t>23/8152</x:t>
+          <x:t>23/8151</x:t>
         </x:is>
       </x:c>
       <x:c r="B248" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C248" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F248" t="inlineStr">
@@ -7320,17 +7326,17 @@
     <x:row r="249">
       <x:c r="A249" t="inlineStr">
         <x:is>
-          <x:t>23/8153</x:t>
+          <x:t>23/8152</x:t>
         </x:is>
       </x:c>
       <x:c r="B249" t="inlineStr">
         <x:is>
-          <x:t>ADGD0210</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C249" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F249" t="inlineStr">
@@ -7347,17 +7353,17 @@
     <x:row r="250">
       <x:c r="A250" t="inlineStr">
         <x:is>
-          <x:t>23/8155</x:t>
+          <x:t>23/8153</x:t>
         </x:is>
       </x:c>
       <x:c r="B250" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>ADGD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C250" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE MICROEMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F250" t="inlineStr">
@@ -7374,17 +7380,17 @@
     <x:row r="251">
       <x:c r="A251" t="inlineStr">
         <x:is>
-          <x:t>23/8156</x:t>
+          <x:t>23/8155</x:t>
         </x:is>
       </x:c>
       <x:c r="B251" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C251" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F251" t="inlineStr">
@@ -7401,17 +7407,17 @@
     <x:row r="252">
       <x:c r="A252" t="inlineStr">
         <x:is>
-          <x:t>23/8159</x:t>
+          <x:t>23/8156</x:t>
         </x:is>
       </x:c>
       <x:c r="B252" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C252" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F252" t="inlineStr">
@@ -7421,24 +7427,24 @@
       </x:c>
       <x:c r="G252" t="inlineStr">
         <x:is>
-          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
+          <x:t>INSTITUTO EUROPEO DE COMUNICACION Y MARKETING SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="253">
       <x:c r="A253" t="inlineStr">
         <x:is>
-          <x:t>23/8160</x:t>
+          <x:t>23/8159</x:t>
         </x:is>
       </x:c>
       <x:c r="B253" t="inlineStr">
         <x:is>
-          <x:t>COML0109</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C253" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F253" t="inlineStr">
@@ -7455,17 +7461,17 @@
     <x:row r="254">
       <x:c r="A254" t="inlineStr">
         <x:is>
-          <x:t>23/8161</x:t>
+          <x:t>23/8160</x:t>
         </x:is>
       </x:c>
       <x:c r="B254" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>COML0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C254" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>TRÁFICO DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F254" t="inlineStr">
@@ -7482,17 +7488,17 @@
     <x:row r="255">
       <x:c r="A255" t="inlineStr">
         <x:is>
-          <x:t>23/8162</x:t>
+          <x:t>23/8161</x:t>
         </x:is>
       </x:c>
       <x:c r="B255" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C255" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F255" t="inlineStr">
@@ -7509,17 +7515,17 @@
     <x:row r="256">
       <x:c r="A256" t="inlineStr">
         <x:is>
-          <x:t>23/8163</x:t>
+          <x:t>23/8162</x:t>
         </x:is>
       </x:c>
       <x:c r="B256" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C256" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F256" t="inlineStr">
@@ -7536,17 +7542,17 @@
     <x:row r="257">
       <x:c r="A257" t="inlineStr">
         <x:is>
-          <x:t>23/8164</x:t>
+          <x:t>23/8163</x:t>
         </x:is>
       </x:c>
       <x:c r="B257" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C257" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F257" t="inlineStr">
@@ -7563,17 +7569,17 @@
     <x:row r="258">
       <x:c r="A258" t="inlineStr">
         <x:is>
-          <x:t>23/8165</x:t>
+          <x:t>23/8164</x:t>
         </x:is>
       </x:c>
       <x:c r="B258" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C258" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F258" t="inlineStr">
@@ -7590,17 +7596,17 @@
     <x:row r="259">
       <x:c r="A259" t="inlineStr">
         <x:is>
-          <x:t>23/8166</x:t>
+          <x:t>23/8165</x:t>
         </x:is>
       </x:c>
       <x:c r="B259" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C259" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F259" t="inlineStr">
@@ -7617,17 +7623,17 @@
     <x:row r="260">
       <x:c r="A260" t="inlineStr">
         <x:is>
-          <x:t>23/8167</x:t>
+          <x:t>23/8166</x:t>
         </x:is>
       </x:c>
       <x:c r="B260" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C260" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="F260" t="inlineStr">
@@ -7637,24 +7643,24 @@
       </x:c>
       <x:c r="G260" t="inlineStr">
         <x:is>
-          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
+          <x:t>CENTRO INFORMATICO COSLADA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="261">
       <x:c r="A261" t="inlineStr">
         <x:is>
-          <x:t>23/8168</x:t>
+          <x:t>23/8167</x:t>
         </x:is>
       </x:c>
       <x:c r="B261" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C261" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F261" t="inlineStr">
@@ -7671,17 +7677,17 @@
     <x:row r="262">
       <x:c r="A262" t="inlineStr">
         <x:is>
-          <x:t>23/8169</x:t>
+          <x:t>23/8168</x:t>
         </x:is>
       </x:c>
       <x:c r="B262" t="inlineStr">
         <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C262" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F262" t="inlineStr">
@@ -7698,7 +7704,7 @@
     <x:row r="263">
       <x:c r="A263" t="inlineStr">
         <x:is>
-          <x:t>23/8170</x:t>
+          <x:t>23/8169</x:t>
         </x:is>
       </x:c>
       <x:c r="B263" t="inlineStr">
@@ -7718,24 +7724,24 @@
       </x:c>
       <x:c r="G263" t="inlineStr">
         <x:is>
-          <x:t>EDITORIAL TÉCNICA CIENTIFICA PRENSA HISPANOAMERICANA S.L</x:t>
+          <x:t>CENTRO PROFESIONAL PAULA DIAZ S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="264">
       <x:c r="A264" t="inlineStr">
         <x:is>
-          <x:t>23/8171</x:t>
+          <x:t>23/8170</x:t>
         </x:is>
       </x:c>
       <x:c r="B264" t="inlineStr">
         <x:is>
-          <x:t>TMVG0109</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C264" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="F264" t="inlineStr">
@@ -7745,24 +7751,24 @@
       </x:c>
       <x:c r="G264" t="inlineStr">
         <x:is>
-          <x:t>CARS MAROBE S.L.</x:t>
+          <x:t>EDITORIAL TÉCNICA CIENTIFICA PRENSA HISPANOAMERICANA S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="265">
       <x:c r="A265" t="inlineStr">
         <x:is>
-          <x:t>23/8172</x:t>
+          <x:t>23/8171</x:t>
         </x:is>
       </x:c>
       <x:c r="B265" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>TMVG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C265" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F265" t="inlineStr">
@@ -7779,17 +7785,17 @@
     <x:row r="266">
       <x:c r="A266" t="inlineStr">
         <x:is>
-          <x:t>23/8173</x:t>
+          <x:t>23/8172</x:t>
         </x:is>
       </x:c>
       <x:c r="B266" t="inlineStr">
         <x:is>
-          <x:t>TMVG0109</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C266" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="F266" t="inlineStr">
@@ -7806,17 +7812,17 @@
     <x:row r="267">
       <x:c r="A267" t="inlineStr">
         <x:is>
-          <x:t>23/8174</x:t>
+          <x:t>23/8173</x:t>
         </x:is>
       </x:c>
       <x:c r="B267" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>TMVG0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C267" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F267" t="inlineStr">
@@ -7826,24 +7832,24 @@
       </x:c>
       <x:c r="G267" t="inlineStr">
         <x:is>
-          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
+          <x:t>CARS MAROBE S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="268">
       <x:c r="A268" t="inlineStr">
         <x:is>
-          <x:t>23/8175</x:t>
+          <x:t>23/8174</x:t>
         </x:is>
       </x:c>
       <x:c r="B268" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C268" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F268" t="inlineStr">
@@ -7860,17 +7866,17 @@
     <x:row r="269">
       <x:c r="A269" t="inlineStr">
         <x:is>
-          <x:t>23/8176</x:t>
+          <x:t>23/8175</x:t>
         </x:is>
       </x:c>
       <x:c r="B269" t="inlineStr">
         <x:is>
-          <x:t>IFCT0309</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C269" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F269" t="inlineStr">
@@ -7887,17 +7893,17 @@
     <x:row r="270">
       <x:c r="A270" t="inlineStr">
         <x:is>
-          <x:t>23/8177</x:t>
+          <x:t>23/8176</x:t>
         </x:is>
       </x:c>
       <x:c r="B270" t="inlineStr">
         <x:is>
-          <x:t>ARGN0110</x:t>
+          <x:t>IFCT0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C270" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F270" t="inlineStr">
@@ -7914,17 +7920,17 @@
     <x:row r="271">
       <x:c r="A271" t="inlineStr">
         <x:is>
-          <x:t>23/8178</x:t>
+          <x:t>23/8177</x:t>
         </x:is>
       </x:c>
       <x:c r="B271" t="inlineStr">
         <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>ARGN0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C271" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS EDITORIALES MULTIMEDIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F271" t="inlineStr">
@@ -7934,29 +7940,24 @@
       </x:c>
       <x:c r="G271" t="inlineStr">
         <x:is>
-          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H271" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>CONSULTORIA E INTEGRACION DE SISTEMAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="272">
       <x:c r="A272" t="inlineStr">
         <x:is>
-          <x:t>23/8179</x:t>
+          <x:t>23/8178</x:t>
         </x:is>
       </x:c>
       <x:c r="B272" t="inlineStr">
         <x:is>
-          <x:t>IMSV0208</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C272" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F272" t="inlineStr">
@@ -7978,17 +7979,17 @@
     <x:row r="273">
       <x:c r="A273" t="inlineStr">
         <x:is>
-          <x:t>23/8180</x:t>
+          <x:t>23/8179</x:t>
         </x:is>
       </x:c>
       <x:c r="B273" t="inlineStr">
         <x:is>
-          <x:t>IMSV0408</x:t>
+          <x:t>IMSV0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C273" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA DIRECCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F273" t="inlineStr">
@@ -8010,17 +8011,17 @@
     <x:row r="274">
       <x:c r="A274" t="inlineStr">
         <x:is>
-          <x:t>23/8182</x:t>
+          <x:t>23/8180</x:t>
         </x:is>
       </x:c>
       <x:c r="B274" t="inlineStr">
         <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>IMSV0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C274" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA DIRECCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F274" t="inlineStr">
@@ -8042,17 +8043,17 @@
     <x:row r="275">
       <x:c r="A275" t="inlineStr">
         <x:is>
-          <x:t>23/8183</x:t>
+          <x:t>23/8182</x:t>
         </x:is>
       </x:c>
       <x:c r="B275" t="inlineStr">
         <x:is>
-          <x:t>IMSV0109</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C275" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F275" t="inlineStr">
@@ -8074,17 +8075,17 @@
     <x:row r="276">
       <x:c r="A276" t="inlineStr">
         <x:is>
-          <x:t>23/8185</x:t>
+          <x:t>23/8183</x:t>
         </x:is>
       </x:c>
       <x:c r="B276" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>IMSV0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C276" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F276" t="inlineStr">
@@ -8094,24 +8095,29 @@
       </x:c>
       <x:c r="G276" t="inlineStr">
         <x:is>
-          <x:t>MOSFRIN S.L.</x:t>
+          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H276" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="277">
       <x:c r="A277" t="inlineStr">
         <x:is>
-          <x:t>23/8186</x:t>
+          <x:t>23/8185</x:t>
         </x:is>
       </x:c>
       <x:c r="B277" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C277" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F277" t="inlineStr">
@@ -8128,17 +8134,17 @@
     <x:row r="278">
       <x:c r="A278" t="inlineStr">
         <x:is>
-          <x:t>23/8187</x:t>
+          <x:t>23/8186</x:t>
         </x:is>
       </x:c>
       <x:c r="B278" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C278" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F278" t="inlineStr">
@@ -8155,17 +8161,17 @@
     <x:row r="279">
       <x:c r="A279" t="inlineStr">
         <x:is>
-          <x:t>23/8188</x:t>
+          <x:t>23/8187</x:t>
         </x:is>
       </x:c>
       <x:c r="B279" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C279" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F279" t="inlineStr">
@@ -8182,17 +8188,17 @@
     <x:row r="280">
       <x:c r="A280" t="inlineStr">
         <x:is>
-          <x:t>23/8189</x:t>
+          <x:t>23/8188</x:t>
         </x:is>
       </x:c>
       <x:c r="B280" t="inlineStr">
         <x:is>
-          <x:t>SSCE0212</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C280" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F280" t="inlineStr">
@@ -8209,17 +8215,17 @@
     <x:row r="281">
       <x:c r="A281" t="inlineStr">
         <x:is>
-          <x:t>23/8190</x:t>
+          <x:t>23/8189</x:t>
         </x:is>
       </x:c>
       <x:c r="B281" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>SSCE0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C281" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>PROMOCIÓN PARA LA IGUALDAD EFECTIVA DE MUJERES Y HOMBRES</x:t>
         </x:is>
       </x:c>
       <x:c r="F281" t="inlineStr">
@@ -8236,17 +8242,17 @@
     <x:row r="282">
       <x:c r="A282" t="inlineStr">
         <x:is>
-          <x:t>23/8191</x:t>
+          <x:t>23/8190</x:t>
         </x:is>
       </x:c>
       <x:c r="B282" t="inlineStr">
         <x:is>
-          <x:t>IFCT0110</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C282" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F282" t="inlineStr">
@@ -8263,17 +8269,17 @@
     <x:row r="283">
       <x:c r="A283" t="inlineStr">
         <x:is>
-          <x:t>23/8192</x:t>
+          <x:t>23/8191</x:t>
         </x:is>
       </x:c>
       <x:c r="B283" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>IFCT0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C283" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F283" t="inlineStr">
@@ -8283,29 +8289,24 @@
       </x:c>
       <x:c r="G283" t="inlineStr">
         <x:is>
-          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H283" t="inlineStr">
-        <x:is>
-          <x:t>Alcorcón</x:t>
+          <x:t>MOSFRIN S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="284">
       <x:c r="A284" t="inlineStr">
         <x:is>
-          <x:t>23/8193</x:t>
+          <x:t>23/8192</x:t>
         </x:is>
       </x:c>
       <x:c r="B284" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0110</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C284" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F284" t="inlineStr">
@@ -8327,17 +8328,17 @@
     <x:row r="285">
       <x:c r="A285" t="inlineStr">
         <x:is>
-          <x:t>23/8194</x:t>
+          <x:t>23/8193</x:t>
         </x:is>
       </x:c>
       <x:c r="B285" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>AGAJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C285" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F285" t="inlineStr">
@@ -8359,17 +8360,17 @@
     <x:row r="286">
       <x:c r="A286" t="inlineStr">
         <x:is>
-          <x:t>23/8195</x:t>
+          <x:t>23/8194</x:t>
         </x:is>
       </x:c>
       <x:c r="B286" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0108</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C286" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F286" t="inlineStr">
@@ -8391,17 +8392,17 @@
     <x:row r="287">
       <x:c r="A287" t="inlineStr">
         <x:is>
-          <x:t>23/8196</x:t>
+          <x:t>23/8195</x:t>
         </x:is>
       </x:c>
       <x:c r="B287" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0110</x:t>
+          <x:t>AGAJ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C287" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F287" t="inlineStr">
@@ -8423,17 +8424,17 @@
     <x:row r="288">
       <x:c r="A288" t="inlineStr">
         <x:is>
-          <x:t>23/8197</x:t>
+          <x:t>23/8196</x:t>
         </x:is>
       </x:c>
       <x:c r="B288" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>AGAJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C288" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>ACTIVIDADES DE FLORISTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F288" t="inlineStr">
@@ -8455,17 +8456,17 @@
     <x:row r="289">
       <x:c r="A289" t="inlineStr">
         <x:is>
-          <x:t>23/8198</x:t>
+          <x:t>23/8197</x:t>
         </x:is>
       </x:c>
       <x:c r="B289" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0108</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C289" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE PELUQUERÍA</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F289" t="inlineStr">
@@ -8487,17 +8488,17 @@
     <x:row r="290">
       <x:c r="A290" t="inlineStr">
         <x:is>
-          <x:t>23/8199</x:t>
+          <x:t>23/8198</x:t>
         </x:is>
       </x:c>
       <x:c r="B290" t="inlineStr">
         <x:is>
-          <x:t>IMPP0108</x:t>
+          <x:t>IMPQ0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C290" t="inlineStr">
         <x:is>
-          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
+          <x:t>SERVICIOS AUXILIARES DE PELUQUERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F290" t="inlineStr">
@@ -8519,17 +8520,17 @@
     <x:row r="291">
       <x:c r="A291" t="inlineStr">
         <x:is>
-          <x:t>23/8200</x:t>
+          <x:t>23/8199</x:t>
         </x:is>
       </x:c>
       <x:c r="B291" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>IMPP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C291" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>CUIDADOS ESTÉTICOS DE MANOS Y PIES</x:t>
         </x:is>
       </x:c>
       <x:c r="F291" t="inlineStr">
@@ -8551,17 +8552,17 @@
     <x:row r="292">
       <x:c r="A292" t="inlineStr">
         <x:is>
-          <x:t>23/8201</x:t>
+          <x:t>23/8200</x:t>
         </x:is>
       </x:c>
       <x:c r="B292" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C292" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F292" t="inlineStr">
@@ -8571,24 +8572,29 @@
       </x:c>
       <x:c r="G292" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>ACADEMIA LIDER SYSTEM S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H292" t="inlineStr">
+        <x:is>
+          <x:t>Alcorcón</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="293">
       <x:c r="A293" t="inlineStr">
         <x:is>
-          <x:t>23/8202</x:t>
+          <x:t>23/8201</x:t>
         </x:is>
       </x:c>
       <x:c r="B293" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C293" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F293" t="inlineStr">
@@ -8605,17 +8611,17 @@
     <x:row r="294">
       <x:c r="A294" t="inlineStr">
         <x:is>
-          <x:t>23/8203</x:t>
+          <x:t>23/8202</x:t>
         </x:is>
       </x:c>
       <x:c r="B294" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C294" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F294" t="inlineStr">
@@ -8632,17 +8638,17 @@
     <x:row r="295">
       <x:c r="A295" t="inlineStr">
         <x:is>
-          <x:t>23/8206</x:t>
+          <x:t>23/8203</x:t>
         </x:is>
       </x:c>
       <x:c r="B295" t="inlineStr">
         <x:is>
-          <x:t>ARGN0109</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C295" t="inlineStr">
         <x:is>
-          <x:t>PRODUCCIÓN EDITORIAL</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F295" t="inlineStr">
@@ -8659,17 +8665,17 @@
     <x:row r="296">
       <x:c r="A296" t="inlineStr">
         <x:is>
-          <x:t>23/8207</x:t>
+          <x:t>23/8206</x:t>
         </x:is>
       </x:c>
       <x:c r="B296" t="inlineStr">
         <x:is>
-          <x:t>COML0209</x:t>
+          <x:t>ARGN0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C296" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
+          <x:t>PRODUCCIÓN EDITORIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F296" t="inlineStr">
@@ -8686,17 +8692,17 @@
     <x:row r="297">
       <x:c r="A297" t="inlineStr">
         <x:is>
-          <x:t>23/8208</x:t>
+          <x:t>23/8207</x:t>
         </x:is>
       </x:c>
       <x:c r="B297" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>COML0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C297" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>ORGANIZACIÓN DEL TRANSPORTE Y LA DISTRIBUCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F297" t="inlineStr">
@@ -8713,17 +8719,17 @@
     <x:row r="298">
       <x:c r="A298" t="inlineStr">
         <x:is>
-          <x:t>23/8209</x:t>
+          <x:t>23/8208</x:t>
         </x:is>
       </x:c>
       <x:c r="B298" t="inlineStr">
         <x:is>
-          <x:t>ELEE0108</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C298" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F298" t="inlineStr">
@@ -8733,24 +8739,24 @@
       </x:c>
       <x:c r="G298" t="inlineStr">
         <x:is>
-          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="299">
       <x:c r="A299" t="inlineStr">
         <x:is>
-          <x:t>23/8210</x:t>
+          <x:t>23/8209</x:t>
         </x:is>
       </x:c>
       <x:c r="B299" t="inlineStr">
         <x:is>
-          <x:t>ENAE0111</x:t>
+          <x:t>ELEE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C299" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE REDES ELÉCTRICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F299" t="inlineStr">
@@ -8767,17 +8773,17 @@
     <x:row r="300">
       <x:c r="A300" t="inlineStr">
         <x:is>
-          <x:t>23/8211</x:t>
+          <x:t>23/8210</x:t>
         </x:is>
       </x:c>
       <x:c r="B300" t="inlineStr">
         <x:is>
-          <x:t>ENAE0208</x:t>
+          <x:t>ENAE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C300" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F300" t="inlineStr">
@@ -8794,17 +8800,17 @@
     <x:row r="301">
       <x:c r="A301" t="inlineStr">
         <x:is>
-          <x:t>23/8212</x:t>
+          <x:t>23/8211</x:t>
         </x:is>
       </x:c>
       <x:c r="B301" t="inlineStr">
         <x:is>
-          <x:t>ELEM0111</x:t>
+          <x:t>ENAE0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C301" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F301" t="inlineStr">
@@ -8821,17 +8827,17 @@
     <x:row r="302">
       <x:c r="A302" t="inlineStr">
         <x:is>
-          <x:t>23/8213</x:t>
+          <x:t>23/8212</x:t>
         </x:is>
       </x:c>
       <x:c r="B302" t="inlineStr">
         <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>ELEM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C302" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F302" t="inlineStr">
@@ -8841,24 +8847,24 @@
       </x:c>
       <x:c r="G302" t="inlineStr">
         <x:is>
-          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
+          <x:t>ATRIUM SELECCIÓN Y FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="303">
       <x:c r="A303" t="inlineStr">
         <x:is>
-          <x:t>23/8214</x:t>
+          <x:t>23/8213</x:t>
         </x:is>
       </x:c>
       <x:c r="B303" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C303" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F303" t="inlineStr">
@@ -8875,17 +8881,17 @@
     <x:row r="304">
       <x:c r="A304" t="inlineStr">
         <x:is>
-          <x:t>23/8215</x:t>
+          <x:t>23/8214</x:t>
         </x:is>
       </x:c>
       <x:c r="B304" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C304" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F304" t="inlineStr">
@@ -8902,17 +8908,17 @@
     <x:row r="305">
       <x:c r="A305" t="inlineStr">
         <x:is>
-          <x:t>23/8216</x:t>
+          <x:t>23/8215</x:t>
         </x:is>
       </x:c>
       <x:c r="B305" t="inlineStr">
         <x:is>
-          <x:t>IMAI0108</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C305" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F305" t="inlineStr">
@@ -8929,17 +8935,17 @@
     <x:row r="306">
       <x:c r="A306" t="inlineStr">
         <x:is>
-          <x:t>23/8217</x:t>
+          <x:t>23/8216</x:t>
         </x:is>
       </x:c>
       <x:c r="B306" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>IMAI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C306" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F306" t="inlineStr">
@@ -8956,17 +8962,17 @@
     <x:row r="307">
       <x:c r="A307" t="inlineStr">
         <x:is>
-          <x:t>23/8218</x:t>
+          <x:t>23/8217</x:t>
         </x:is>
       </x:c>
       <x:c r="B307" t="inlineStr">
         <x:is>
-          <x:t>FMEM0109</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C307" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F307" t="inlineStr">
@@ -8983,17 +8989,17 @@
     <x:row r="308">
       <x:c r="A308" t="inlineStr">
         <x:is>
-          <x:t>23/8219</x:t>
+          <x:t>23/8218</x:t>
         </x:is>
       </x:c>
       <x:c r="B308" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>FMEM0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C308" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>GESTIÓN DE LA PRODUCCIÓN EN FABRICACIÓN MECÁNICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F308" t="inlineStr">
@@ -9010,7 +9016,7 @@
     <x:row r="309">
       <x:c r="A309" t="inlineStr">
         <x:is>
-          <x:t>23/8220</x:t>
+          <x:t>23/8219</x:t>
         </x:is>
       </x:c>
       <x:c r="B309" t="inlineStr">
@@ -9037,17 +9043,17 @@
     <x:row r="310">
       <x:c r="A310" t="inlineStr">
         <x:is>
-          <x:t>23/8224</x:t>
+          <x:t>23/8220</x:t>
         </x:is>
       </x:c>
       <x:c r="B310" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C310" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F310" t="inlineStr">
@@ -9057,24 +9063,24 @@
       </x:c>
       <x:c r="G310" t="inlineStr">
         <x:is>
-          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
+          <x:t>CATFA.FORMACION Y EMPLEO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="311">
       <x:c r="A311" t="inlineStr">
         <x:is>
-          <x:t>23/8225</x:t>
+          <x:t>23/8224</x:t>
         </x:is>
       </x:c>
       <x:c r="B311" t="inlineStr">
         <x:is>
-          <x:t>SSCE0112</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C311" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F311" t="inlineStr">
@@ -9091,17 +9097,17 @@
     <x:row r="312">
       <x:c r="A312" t="inlineStr">
         <x:is>
-          <x:t>23/8228</x:t>
+          <x:t>23/8225</x:t>
         </x:is>
       </x:c>
       <x:c r="B312" t="inlineStr">
         <x:is>
-          <x:t>SEAG0110</x:t>
+          <x:t>SSCE0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C312" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
+          <x:t>ATENCIÓN AL ALUMNADO CON NECESIDADES EDUCATIVAS ESPECIALES (ACNNE) EN CENTROS EDUCATIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F312" t="inlineStr">
@@ -9118,17 +9124,17 @@
     <x:row r="313">
       <x:c r="A313" t="inlineStr">
         <x:is>
-          <x:t>23/8229</x:t>
+          <x:t>23/8228</x:t>
         </x:is>
       </x:c>
       <x:c r="B313" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>SEAG0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C313" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>SERVICIOS PARA EL CONTROL DE PLAGAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F313" t="inlineStr">
@@ -9138,14 +9144,14 @@
       </x:c>
       <x:c r="G313" t="inlineStr">
         <x:is>
-          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
+          <x:t>INNOVACION Y DESARROLLO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="314">
       <x:c r="A314" t="inlineStr">
         <x:is>
-          <x:t>23/8230</x:t>
+          <x:t>23/8229</x:t>
         </x:is>
       </x:c>
       <x:c r="B314" t="inlineStr">
@@ -9172,17 +9178,17 @@
     <x:row r="315">
       <x:c r="A315" t="inlineStr">
         <x:is>
-          <x:t>23/8231</x:t>
+          <x:t>23/8230</x:t>
         </x:is>
       </x:c>
       <x:c r="B315" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C315" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F315" t="inlineStr">
@@ -9199,17 +9205,17 @@
     <x:row r="316">
       <x:c r="A316" t="inlineStr">
         <x:is>
-          <x:t>23/8232</x:t>
+          <x:t>23/8231</x:t>
         </x:is>
       </x:c>
       <x:c r="B316" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C316" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F316" t="inlineStr">
@@ -9226,17 +9232,17 @@
     <x:row r="317">
       <x:c r="A317" t="inlineStr">
         <x:is>
-          <x:t>23/8233</x:t>
+          <x:t>23/8232</x:t>
         </x:is>
       </x:c>
       <x:c r="B317" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C317" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F317" t="inlineStr">
@@ -9253,17 +9259,17 @@
     <x:row r="318">
       <x:c r="A318" t="inlineStr">
         <x:is>
-          <x:t>23/8234</x:t>
+          <x:t>23/8233</x:t>
         </x:is>
       </x:c>
       <x:c r="B318" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C318" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F318" t="inlineStr">
@@ -9280,17 +9286,17 @@
     <x:row r="319">
       <x:c r="A319" t="inlineStr">
         <x:is>
-          <x:t>23/8235</x:t>
+          <x:t>23/8234</x:t>
         </x:is>
       </x:c>
       <x:c r="B319" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C319" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F319" t="inlineStr">
@@ -9307,17 +9313,17 @@
     <x:row r="320">
       <x:c r="A320" t="inlineStr">
         <x:is>
-          <x:t>23/8243</x:t>
+          <x:t>23/8235</x:t>
         </x:is>
       </x:c>
       <x:c r="B320" t="inlineStr">
         <x:is>
-          <x:t>SANT0108</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C320" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F320" t="inlineStr">
@@ -9327,29 +9333,24 @@
       </x:c>
       <x:c r="G320" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H320" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="321">
       <x:c r="A321" t="inlineStr">
         <x:is>
-          <x:t>23/8246</x:t>
+          <x:t>23/8243</x:t>
         </x:is>
       </x:c>
       <x:c r="B321" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>SANT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C321" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="F321" t="inlineStr">
@@ -9359,24 +9360,29 @@
       </x:c>
       <x:c r="G321" t="inlineStr">
         <x:is>
-          <x:t>HEDIMA DN FORMACION, S.L.</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H321" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="322">
       <x:c r="A322" t="inlineStr">
         <x:is>
-          <x:t>23/8247</x:t>
+          <x:t>23/8246</x:t>
         </x:is>
       </x:c>
       <x:c r="B322" t="inlineStr">
         <x:is>
-          <x:t>IMSV0209</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C322" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F322" t="inlineStr">
@@ -9393,17 +9399,17 @@
     <x:row r="323">
       <x:c r="A323" t="inlineStr">
         <x:is>
-          <x:t>23/8248</x:t>
+          <x:t>23/8247</x:t>
         </x:is>
       </x:c>
       <x:c r="B323" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>IMSV0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C323" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>DESARROLLO DE PRODUCTOS AUDIOVISUALES MULTIMEDIA INTERACTIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F323" t="inlineStr">
@@ -9420,7 +9426,7 @@
     <x:row r="324">
       <x:c r="A324" t="inlineStr">
         <x:is>
-          <x:t>23/8249</x:t>
+          <x:t>23/8248</x:t>
         </x:is>
       </x:c>
       <x:c r="B324" t="inlineStr">
@@ -9447,17 +9453,17 @@
     <x:row r="325">
       <x:c r="A325" t="inlineStr">
         <x:is>
-          <x:t>23/8250</x:t>
+          <x:t>23/8249</x:t>
         </x:is>
       </x:c>
       <x:c r="B325" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C325" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F325" t="inlineStr">
@@ -9467,24 +9473,24 @@
       </x:c>
       <x:c r="G325" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>HEDIMA DN FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="326">
       <x:c r="A326" t="inlineStr">
         <x:is>
-          <x:t>23/8251</x:t>
+          <x:t>23/8250</x:t>
         </x:is>
       </x:c>
       <x:c r="B326" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C326" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F326" t="inlineStr">
@@ -9501,17 +9507,17 @@
     <x:row r="327">
       <x:c r="A327" t="inlineStr">
         <x:is>
-          <x:t>23/8252</x:t>
+          <x:t>23/8251</x:t>
         </x:is>
       </x:c>
       <x:c r="B327" t="inlineStr">
         <x:is>
-          <x:t>IFCT0109</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C327" t="inlineStr">
         <x:is>
-          <x:t>SEGURIDAD INFORMÁTICA</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F327" t="inlineStr">
@@ -9528,17 +9534,17 @@
     <x:row r="328">
       <x:c r="A328" t="inlineStr">
         <x:is>
-          <x:t>23/8253</x:t>
+          <x:t>23/8252</x:t>
         </x:is>
       </x:c>
       <x:c r="B328" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>IFCT0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C328" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>SEGURIDAD INFORMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F328" t="inlineStr">
@@ -9555,7 +9561,7 @@
     <x:row r="329">
       <x:c r="A329" t="inlineStr">
         <x:is>
-          <x:t>23/8254</x:t>
+          <x:t>23/8253</x:t>
         </x:is>
       </x:c>
       <x:c r="B329" t="inlineStr">
@@ -9582,17 +9588,17 @@
     <x:row r="330">
       <x:c r="A330" t="inlineStr">
         <x:is>
-          <x:t>23/8255</x:t>
+          <x:t>23/8254</x:t>
         </x:is>
       </x:c>
       <x:c r="B330" t="inlineStr">
         <x:is>
-          <x:t>TMVG0309</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C330" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="F330" t="inlineStr">
@@ -9602,24 +9608,24 @@
       </x:c>
       <x:c r="G330" t="inlineStr">
         <x:is>
-          <x:t>AQUINUVE, SL</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="331">
       <x:c r="A331" t="inlineStr">
         <x:is>
-          <x:t>23/8256</x:t>
+          <x:t>23/8255</x:t>
         </x:is>
       </x:c>
       <x:c r="B331" t="inlineStr">
         <x:is>
-          <x:t>TMVL0409</x:t>
+          <x:t>TMVG0309</x:t>
         </x:is>
       </x:c>
       <x:c r="C331" t="inlineStr">
         <x:is>
-          <x:t>EMBELLECIMIENTO Y DECORACIÓN DE SUPERFICIES DE VEHÍCULOS</x:t>
+          <x:t>MANTENIMIENTO DE SISTEMAS DE TRANSMISIÓN DE FUERZA Y TRENES DE RODAJE DE VEHÍCULOS AUTOMÓVILES</x:t>
         </x:is>
       </x:c>
       <x:c r="F331" t="inlineStr">
@@ -9636,17 +9642,17 @@
     <x:row r="332">
       <x:c r="A332" t="inlineStr">
         <x:is>
-          <x:t>23/8257</x:t>
+          <x:t>23/8256</x:t>
         </x:is>
       </x:c>
       <x:c r="B332" t="inlineStr">
         <x:is>
-          <x:t>TMVL0109</x:t>
+          <x:t>TMVL0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C332" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN CARROCERÍAS DE VEHÍCULOS</x:t>
+          <x:t>EMBELLECIMIENTO Y DECORACIÓN DE SUPERFICIES DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F332" t="inlineStr">
@@ -9663,17 +9669,17 @@
     <x:row r="333">
       <x:c r="A333" t="inlineStr">
         <x:is>
-          <x:t>23/8258</x:t>
+          <x:t>23/8257</x:t>
         </x:is>
       </x:c>
       <x:c r="B333" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>TMVL0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C333" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN CARROCERÍAS DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F333" t="inlineStr">
@@ -9683,24 +9689,24 @@
       </x:c>
       <x:c r="G333" t="inlineStr">
         <x:is>
-          <x:t>ADALID SERVICIOS CORPORATIVOS SL</x:t>
+          <x:t>AQUINUVE, SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="334">
       <x:c r="A334" t="inlineStr">
         <x:is>
-          <x:t>23/8259</x:t>
+          <x:t>23/8258</x:t>
         </x:is>
       </x:c>
       <x:c r="B334" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C334" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F334" t="inlineStr">
@@ -9717,17 +9723,17 @@
     <x:row r="335">
       <x:c r="A335" t="inlineStr">
         <x:is>
-          <x:t>23/8260</x:t>
+          <x:t>23/8259</x:t>
         </x:is>
       </x:c>
       <x:c r="B335" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C335" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F335" t="inlineStr">
@@ -9744,17 +9750,17 @@
     <x:row r="336">
       <x:c r="A336" t="inlineStr">
         <x:is>
-          <x:t>23/8261</x:t>
+          <x:t>23/8260</x:t>
         </x:is>
       </x:c>
       <x:c r="B336" t="inlineStr">
         <x:is>
-          <x:t>ADGG0508</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C336" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F336" t="inlineStr">
@@ -9771,17 +9777,17 @@
     <x:row r="337">
       <x:c r="A337" t="inlineStr">
         <x:is>
-          <x:t>23/8262</x:t>
+          <x:t>23/8261</x:t>
         </x:is>
       </x:c>
       <x:c r="B337" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>ADGG0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C337" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>OPERACIONES DE GRABACIÓN Y TRATAMIENTO DE DATOS Y DOCUMENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F337" t="inlineStr">
@@ -9798,17 +9804,17 @@
     <x:row r="338">
       <x:c r="A338" t="inlineStr">
         <x:is>
-          <x:t>23/8263</x:t>
+          <x:t>23/8262</x:t>
         </x:is>
       </x:c>
       <x:c r="B338" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C338" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F338" t="inlineStr">
@@ -9825,17 +9831,17 @@
     <x:row r="339">
       <x:c r="A339" t="inlineStr">
         <x:is>
-          <x:t>23/8264</x:t>
+          <x:t>23/8263</x:t>
         </x:is>
       </x:c>
       <x:c r="B339" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>SSCE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C339" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F339" t="inlineStr">
@@ -9852,17 +9858,17 @@
     <x:row r="340">
       <x:c r="A340" t="inlineStr">
         <x:is>
-          <x:t>23/8265</x:t>
+          <x:t>23/8264</x:t>
         </x:is>
       </x:c>
       <x:c r="B340" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C340" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="F340" t="inlineStr">
@@ -9879,17 +9885,17 @@
     <x:row r="341">
       <x:c r="A341" t="inlineStr">
         <x:is>
-          <x:t>23/8266</x:t>
+          <x:t>23/8265</x:t>
         </x:is>
       </x:c>
       <x:c r="B341" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C341" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F341" t="inlineStr">
@@ -9906,17 +9912,17 @@
     <x:row r="342">
       <x:c r="A342" t="inlineStr">
         <x:is>
-          <x:t>23/8270</x:t>
+          <x:t>23/8266</x:t>
         </x:is>
       </x:c>
       <x:c r="B342" t="inlineStr">
         <x:is>
-          <x:t>TMVI0208</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C342" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F342" t="inlineStr">
@@ -9926,14 +9932,14 @@
       </x:c>
       <x:c r="G342" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA GALA S.L.</x:t>
+          <x:t>ADALID SERVICIOS CORPORATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="343">
       <x:c r="A343" t="inlineStr">
         <x:is>
-          <x:t>23/8271</x:t>
+          <x:t>23/8270</x:t>
         </x:is>
       </x:c>
       <x:c r="B343" t="inlineStr">
@@ -9960,17 +9966,17 @@
     <x:row r="344">
       <x:c r="A344" t="inlineStr">
         <x:is>
-          <x:t>23/8272</x:t>
+          <x:t>23/8271</x:t>
         </x:is>
       </x:c>
       <x:c r="B344" t="inlineStr">
         <x:is>
-          <x:t>TMVG0209</x:t>
+          <x:t>TMVI0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C344" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE LOS SISTEMAS ELÉCTRICOS Y ELECTRÓNICOS DE VEHÍCULOS</x:t>
+          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F344" t="inlineStr">
@@ -9987,17 +9993,17 @@
     <x:row r="345">
       <x:c r="A345" t="inlineStr">
         <x:is>
-          <x:t>23/8273</x:t>
+          <x:t>23/8272</x:t>
         </x:is>
       </x:c>
       <x:c r="B345" t="inlineStr">
         <x:is>
-          <x:t>TMVG0409</x:t>
+          <x:t>TMVG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C345" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
+          <x:t>MANTENIMIENTO DE LOS SISTEMAS ELÉCTRICOS Y ELECTRÓNICOS DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F345" t="inlineStr">
@@ -10014,17 +10020,17 @@
     <x:row r="346">
       <x:c r="A346" t="inlineStr">
         <x:is>
-          <x:t>23/8274</x:t>
+          <x:t>23/8273</x:t>
         </x:is>
       </x:c>
       <x:c r="B346" t="inlineStr">
         <x:is>
-          <x:t>TMVI0208</x:t>
+          <x:t>TMVG0409</x:t>
         </x:is>
       </x:c>
       <x:c r="C346" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
+          <x:t>MANTENIMIENTO DEL MOTOR Y SUS SISTEMAS AUXILIARES</x:t>
         </x:is>
       </x:c>
       <x:c r="F346" t="inlineStr">
@@ -10041,17 +10047,17 @@
     <x:row r="347">
       <x:c r="A347" t="inlineStr">
         <x:is>
-          <x:t>23/8277</x:t>
+          <x:t>23/8274</x:t>
         </x:is>
       </x:c>
       <x:c r="B347" t="inlineStr">
         <x:is>
-          <x:t>IMSV0109</x:t>
+          <x:t>TMVI0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C347" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
+          <x:t>CONDUCCIÓN DE VEHÍCULOS PESADOS DE TRANSPORTE DE MERCANCÍAS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="F347" t="inlineStr">
@@ -10061,24 +10067,24 @@
       </x:c>
       <x:c r="G347" t="inlineStr">
         <x:is>
-          <x:t>ESCUELA INTERNACIONAL DE MEDIOS AUDIOVISUALES S.L.</x:t>
+          <x:t>AUTOESCUELA GALA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="348">
       <x:c r="A348" t="inlineStr">
         <x:is>
-          <x:t>23/8278</x:t>
+          <x:t>23/8277</x:t>
         </x:is>
       </x:c>
       <x:c r="B348" t="inlineStr">
         <x:is>
-          <x:t>SSCI0209</x:t>
+          <x:t>IMSV0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C348" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y ORGANIZACIÓN DE EQUIPOS DE LIMPIEZA</x:t>
+          <x:t>MONTAJE Y POSTPRODUCCIÓN DE AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="F348" t="inlineStr">
@@ -10088,24 +10094,24 @@
       </x:c>
       <x:c r="G348" t="inlineStr">
         <x:is>
-          <x:t>EDUCALIMPIA SL</x:t>
+          <x:t>ESCUELA INTERNACIONAL DE MEDIOS AUDIOVISUALES S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="349">
       <x:c r="A349" t="inlineStr">
         <x:is>
-          <x:t>23/8279</x:t>
+          <x:t>23/8278</x:t>
         </x:is>
       </x:c>
       <x:c r="B349" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>SSCI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C349" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>GESTIÓN Y ORGANIZACIÓN DE EQUIPOS DE LIMPIEZA</x:t>
         </x:is>
       </x:c>
       <x:c r="F349" t="inlineStr">
@@ -10115,24 +10121,24 @@
       </x:c>
       <x:c r="G349" t="inlineStr">
         <x:is>
-          <x:t>GRUPO AULA FORMACION Y EMERGENCIAS S.L.</x:t>
+          <x:t>EDUCALIMPIA SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="350">
       <x:c r="A350" t="inlineStr">
         <x:is>
-          <x:t>23/8280</x:t>
+          <x:t>23/8279</x:t>
         </x:is>
       </x:c>
       <x:c r="B350" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C350" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F350" t="inlineStr">
@@ -10149,17 +10155,17 @@
     <x:row r="351">
       <x:c r="A351" t="inlineStr">
         <x:is>
-          <x:t>23/8281</x:t>
+          <x:t>23/8280</x:t>
         </x:is>
       </x:c>
       <x:c r="B351" t="inlineStr">
         <x:is>
-          <x:t>TMVI0108</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C351" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F351" t="inlineStr">
@@ -10176,17 +10182,17 @@
     <x:row r="352">
       <x:c r="A352" t="inlineStr">
         <x:is>
-          <x:t>23/8282</x:t>
+          <x:t>23/8281</x:t>
         </x:is>
       </x:c>
       <x:c r="B352" t="inlineStr">
         <x:is>
-          <x:t>HOTR0608</x:t>
+          <x:t>TMVI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C352" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE RESTAURANTE</x:t>
+          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
         </x:is>
       </x:c>
       <x:c r="F352" t="inlineStr">
@@ -10203,17 +10209,17 @@
     <x:row r="353">
       <x:c r="A353" t="inlineStr">
         <x:is>
-          <x:t>23/8283</x:t>
+          <x:t>23/8282</x:t>
         </x:is>
       </x:c>
       <x:c r="B353" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>HOTR0608</x:t>
         </x:is>
       </x:c>
       <x:c r="C353" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>SERVICIOS DE RESTAURANTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F353" t="inlineStr">
@@ -10230,17 +10236,17 @@
     <x:row r="354">
       <x:c r="A354" t="inlineStr">
         <x:is>
-          <x:t>23/8284</x:t>
+          <x:t>23/8283</x:t>
         </x:is>
       </x:c>
       <x:c r="B354" t="inlineStr">
         <x:is>
-          <x:t>TMVI0108</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C354" t="inlineStr">
         <x:is>
-          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F354" t="inlineStr">
@@ -10257,7 +10263,7 @@
     <x:row r="355">
       <x:c r="A355" t="inlineStr">
         <x:is>
-          <x:t>23/8285</x:t>
+          <x:t>23/8284</x:t>
         </x:is>
       </x:c>
       <x:c r="B355" t="inlineStr">
@@ -10284,7 +10290,7 @@
     <x:row r="356">
       <x:c r="A356" t="inlineStr">
         <x:is>
-          <x:t>23/8286</x:t>
+          <x:t>23/8285</x:t>
         </x:is>
       </x:c>
       <x:c r="B356" t="inlineStr">
@@ -10311,17 +10317,17 @@
     <x:row r="357">
       <x:c r="A357" t="inlineStr">
         <x:is>
-          <x:t>23/8289</x:t>
+          <x:t>23/8286</x:t>
         </x:is>
       </x:c>
       <x:c r="B357" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>TMVI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C357" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>CONDUCCIÓN DE AUTOBUSES</x:t>
         </x:is>
       </x:c>
       <x:c r="F357" t="inlineStr">
@@ -10331,29 +10337,24 @@
       </x:c>
       <x:c r="G357" t="inlineStr">
         <x:is>
-          <x:t>FORMAJOBS S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H357" t="inlineStr">
-        <x:is>
-          <x:t>Leganés</x:t>
+          <x:t>GRUPO AULA FORMACION Y EMERGENCIAS S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="358">
       <x:c r="A358" t="inlineStr">
         <x:is>
-          <x:t>23/8291</x:t>
+          <x:t>23/8289</x:t>
         </x:is>
       </x:c>
       <x:c r="B358" t="inlineStr">
         <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C358" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F358" t="inlineStr">
@@ -10375,17 +10376,17 @@
     <x:row r="359">
       <x:c r="A359" t="inlineStr">
         <x:is>
-          <x:t>23/8292</x:t>
+          <x:t>23/8291</x:t>
         </x:is>
       </x:c>
       <x:c r="B359" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C359" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F359" t="inlineStr">
@@ -10407,7 +10408,7 @@
     <x:row r="360">
       <x:c r="A360" t="inlineStr">
         <x:is>
-          <x:t>23/8293</x:t>
+          <x:t>23/8292</x:t>
         </x:is>
       </x:c>
       <x:c r="B360" t="inlineStr">
@@ -10439,17 +10440,17 @@
     <x:row r="361">
       <x:c r="A361" t="inlineStr">
         <x:is>
-          <x:t>23/8298</x:t>
+          <x:t>23/8293</x:t>
         </x:is>
       </x:c>
       <x:c r="B361" t="inlineStr">
         <x:is>
-          <x:t>ENAE0308</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C361" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F361" t="inlineStr">
@@ -10459,24 +10460,29 @@
       </x:c>
       <x:c r="G361" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>FORMAJOBS S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H361" t="inlineStr">
+        <x:is>
+          <x:t>Leganés</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="362">
       <x:c r="A362" t="inlineStr">
         <x:is>
-          <x:t>23/8299</x:t>
+          <x:t>23/8298</x:t>
         </x:is>
       </x:c>
       <x:c r="B362" t="inlineStr">
         <x:is>
-          <x:t>ENAE0111</x:t>
+          <x:t>ENAE0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C362" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
+          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F362" t="inlineStr">
@@ -10493,17 +10499,17 @@
     <x:row r="363">
       <x:c r="A363" t="inlineStr">
         <x:is>
-          <x:t>23/8300</x:t>
+          <x:t>23/8299</x:t>
         </x:is>
       </x:c>
       <x:c r="B363" t="inlineStr">
         <x:is>
-          <x:t>ENAE0508</x:t>
+          <x:t>ENAE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C363" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>OPERACIONES BÁSICAS EN EL MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE ENERGÍAS RENOVABLES</x:t>
         </x:is>
       </x:c>
       <x:c r="F363" t="inlineStr">
@@ -10520,17 +10526,17 @@
     <x:row r="364">
       <x:c r="A364" t="inlineStr">
         <x:is>
-          <x:t>23/8303</x:t>
+          <x:t>23/8300</x:t>
         </x:is>
       </x:c>
       <x:c r="B364" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>ENAE0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C364" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F364" t="inlineStr">
@@ -10540,24 +10546,24 @@
       </x:c>
       <x:c r="G364" t="inlineStr">
         <x:is>
-          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="365">
       <x:c r="A365" t="inlineStr">
         <x:is>
-          <x:t>23/8305</x:t>
+          <x:t>23/8303</x:t>
         </x:is>
       </x:c>
       <x:c r="B365" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>IFCT0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C365" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F365" t="inlineStr">
@@ -10574,17 +10580,17 @@
     <x:row r="366">
       <x:c r="A366" t="inlineStr">
         <x:is>
-          <x:t>23/8307</x:t>
+          <x:t>23/8305</x:t>
         </x:is>
       </x:c>
       <x:c r="B366" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C366" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F366" t="inlineStr">
@@ -10601,17 +10607,17 @@
     <x:row r="367">
       <x:c r="A367" t="inlineStr">
         <x:is>
-          <x:t>23/8308</x:t>
+          <x:t>23/8307</x:t>
         </x:is>
       </x:c>
       <x:c r="B367" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C367" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F367" t="inlineStr">
@@ -10628,17 +10634,17 @@
     <x:row r="368">
       <x:c r="A368" t="inlineStr">
         <x:is>
-          <x:t>23/8309</x:t>
+          <x:t>23/8308</x:t>
         </x:is>
       </x:c>
       <x:c r="B368" t="inlineStr">
         <x:is>
-          <x:t>HOTA0108</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C368" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F368" t="inlineStr">
@@ -10655,17 +10661,17 @@
     <x:row r="369">
       <x:c r="A369" t="inlineStr">
         <x:is>
-          <x:t>23/8316</x:t>
+          <x:t>23/8309</x:t>
         </x:is>
       </x:c>
       <x:c r="B369" t="inlineStr">
         <x:is>
-          <x:t>EOCB0208</x:t>
+          <x:t>HOTA0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C369" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PISOS EN ALOJAMIENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F369" t="inlineStr">
@@ -10675,24 +10681,24 @@
       </x:c>
       <x:c r="G369" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="370">
       <x:c r="A370" t="inlineStr">
         <x:is>
-          <x:t>23/8317</x:t>
+          <x:t>23/8316</x:t>
         </x:is>
       </x:c>
       <x:c r="B370" t="inlineStr">
         <x:is>
-          <x:t>HOTR0208</x:t>
+          <x:t>EOCB0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C370" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F370" t="inlineStr">
@@ -10709,17 +10715,17 @@
     <x:row r="371">
       <x:c r="A371" t="inlineStr">
         <x:is>
-          <x:t>23/8318</x:t>
+          <x:t>23/8317</x:t>
         </x:is>
       </x:c>
       <x:c r="B371" t="inlineStr">
         <x:is>
-          <x:t>SEAG0311</x:t>
+          <x:t>HOTR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C371" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
         </x:is>
       </x:c>
       <x:c r="F371" t="inlineStr">
@@ -10736,17 +10742,17 @@
     <x:row r="372">
       <x:c r="A372" t="inlineStr">
         <x:is>
-          <x:t>23/8319</x:t>
+          <x:t>23/8318</x:t>
         </x:is>
       </x:c>
       <x:c r="B372" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>SEAG0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C372" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>GESTIÓN DE SERVICIOS PARA EL CONTROL DE ORGANISMOS NOCIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F372" t="inlineStr">
@@ -10756,24 +10762,24 @@
       </x:c>
       <x:c r="G372" t="inlineStr">
         <x:is>
-          <x:t>ECOLE DIMAGE TRIUNFO, S.L.</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="373">
       <x:c r="A373" t="inlineStr">
         <x:is>
-          <x:t>23/8320</x:t>
+          <x:t>23/8319</x:t>
         </x:is>
       </x:c>
       <x:c r="B373" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C373" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="F373" t="inlineStr">
@@ -10790,17 +10796,17 @@
     <x:row r="374">
       <x:c r="A374" t="inlineStr">
         <x:is>
-          <x:t>23/8321</x:t>
+          <x:t>23/8320</x:t>
         </x:is>
       </x:c>
       <x:c r="B374" t="inlineStr">
         <x:is>
-          <x:t>IMPE0110</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C374" t="inlineStr">
         <x:is>
-          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="F374" t="inlineStr">
@@ -10817,17 +10823,17 @@
     <x:row r="375">
       <x:c r="A375" t="inlineStr">
         <x:is>
-          <x:t>23/8322</x:t>
+          <x:t>23/8321</x:t>
         </x:is>
       </x:c>
       <x:c r="B375" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMPE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C375" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>MASAJES ESTÉTICOS Y TÉCNICAS SENSORIALES ASOCIADAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F375" t="inlineStr">
@@ -10844,17 +10850,17 @@
     <x:row r="376">
       <x:c r="A376" t="inlineStr">
         <x:is>
-          <x:t>23/8323</x:t>
+          <x:t>23/8322</x:t>
         </x:is>
       </x:c>
       <x:c r="B376" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0308</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C376" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS CAPILARES ESTÉTICOS</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F376" t="inlineStr">
@@ -10871,17 +10877,17 @@
     <x:row r="377">
       <x:c r="A377" t="inlineStr">
         <x:is>
-          <x:t>23/8324</x:t>
+          <x:t>23/8323</x:t>
         </x:is>
       </x:c>
       <x:c r="B377" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>IMPQ0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C377" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>TRATAMIENTOS CAPILARES ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F377" t="inlineStr">
@@ -10898,17 +10904,17 @@
     <x:row r="378">
       <x:c r="A378" t="inlineStr">
         <x:is>
-          <x:t>23/8326</x:t>
+          <x:t>23/8324</x:t>
         </x:is>
       </x:c>
       <x:c r="B378" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C378" t="inlineStr">
         <x:is>
-          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F378" t="inlineStr">
@@ -10918,24 +10924,24 @@
       </x:c>
       <x:c r="G378" t="inlineStr">
         <x:is>
-          <x:t>ADARA FORMACION, S.L.</x:t>
+          <x:t>ECOLE DIMAGE TRIUNFO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="379">
       <x:c r="A379" t="inlineStr">
         <x:is>
-          <x:t>23/8327</x:t>
+          <x:t>23/8326</x:t>
         </x:is>
       </x:c>
       <x:c r="B379" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0211</x:t>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C379" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
+          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F379" t="inlineStr">
@@ -10952,17 +10958,17 @@
     <x:row r="380">
       <x:c r="A380" t="inlineStr">
         <x:is>
-          <x:t>23/8328</x:t>
+          <x:t>23/8327</x:t>
         </x:is>
       </x:c>
       <x:c r="B380" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>EOCJ0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C380" t="inlineStr">
         <x:is>
-          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
+          <x:t>INSTALACIÓN DE SISTEMAS TÉCNICOS DE PAVIMENTOS, EMPANELADOS Y MAMPARAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F380" t="inlineStr">
@@ -10979,7 +10985,7 @@
     <x:row r="381">
       <x:c r="A381" t="inlineStr">
         <x:is>
-          <x:t>23/8330</x:t>
+          <x:t>23/8328</x:t>
         </x:is>
       </x:c>
       <x:c r="B381" t="inlineStr">
@@ -11006,17 +11012,17 @@
     <x:row r="382">
       <x:c r="A382" t="inlineStr">
         <x:is>
-          <x:t>23/8331</x:t>
+          <x:t>23/8330</x:t>
         </x:is>
       </x:c>
       <x:c r="B382" t="inlineStr">
         <x:is>
-          <x:t>EOCJ0110</x:t>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C382" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
+          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F382" t="inlineStr">
@@ -11033,17 +11039,17 @@
     <x:row r="383">
       <x:c r="A383" t="inlineStr">
         <x:is>
-          <x:t>23/8332</x:t>
+          <x:t>23/8331</x:t>
         </x:is>
       </x:c>
       <x:c r="B383" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>EOCJ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C383" t="inlineStr">
         <x:is>
-          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
+          <x:t>INSTALACIÓN DE PLACA DE YESO LAMINADO Y FALSOS TECHOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F383" t="inlineStr">
@@ -11060,17 +11066,17 @@
     <x:row r="384">
       <x:c r="A384" t="inlineStr">
         <x:is>
-          <x:t>23/8333</x:t>
+          <x:t>23/8332</x:t>
         </x:is>
       </x:c>
       <x:c r="B384" t="inlineStr">
         <x:is>
-          <x:t>SEAD0412</x:t>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C384" t="inlineStr">
         <x:is>
-          <x:t>ADIESTRAMIENTO DE BASE Y EDUCACIÓN CANINA</x:t>
+          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="F384" t="inlineStr">
@@ -11080,14 +11086,14 @@
       </x:c>
       <x:c r="G384" t="inlineStr">
         <x:is>
-          <x:t>ESCUELA CANINA NARUB, S.L.</x:t>
+          <x:t>ADARA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="385">
       <x:c r="A385" t="inlineStr">
         <x:is>
-          <x:t>23/8334</x:t>
+          <x:t>23/8333</x:t>
         </x:is>
       </x:c>
       <x:c r="B385" t="inlineStr">
@@ -11114,7 +11120,7 @@
     <x:row r="386">
       <x:c r="A386" t="inlineStr">
         <x:is>
-          <x:t>23/8335</x:t>
+          <x:t>23/8334</x:t>
         </x:is>
       </x:c>
       <x:c r="B386" t="inlineStr">
@@ -11141,17 +11147,17 @@
     <x:row r="387">
       <x:c r="A387" t="inlineStr">
         <x:is>
-          <x:t>23/8336</x:t>
+          <x:t>23/8335</x:t>
         </x:is>
       </x:c>
       <x:c r="B387" t="inlineStr">
         <x:is>
-          <x:t>HOTR0208</x:t>
+          <x:t>SEAD0412</x:t>
         </x:is>
       </x:c>
       <x:c r="C387" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
+          <x:t>ADIESTRAMIENTO DE BASE Y EDUCACIÓN CANINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F387" t="inlineStr">
@@ -11161,19 +11167,14 @@
       </x:c>
       <x:c r="G387" t="inlineStr">
         <x:is>
-          <x:t>LIDER SYSTEM ACADEMY, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H387" t="inlineStr">
-        <x:is>
-          <x:t>Getafe</x:t>
+          <x:t>ESCUELA CANINA NARUB, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="388">
       <x:c r="A388" t="inlineStr">
         <x:is>
-          <x:t>23/8338</x:t>
+          <x:t>23/8336</x:t>
         </x:is>
       </x:c>
       <x:c r="B388" t="inlineStr">
@@ -11205,7 +11206,7 @@
     <x:row r="389">
       <x:c r="A389" t="inlineStr">
         <x:is>
-          <x:t>23/8339</x:t>
+          <x:t>23/8338</x:t>
         </x:is>
       </x:c>
       <x:c r="B389" t="inlineStr">
@@ -11237,17 +11238,17 @@
     <x:row r="390">
       <x:c r="A390" t="inlineStr">
         <x:is>
-          <x:t>23/8340</x:t>
+          <x:t>23/8339</x:t>
         </x:is>
       </x:c>
       <x:c r="B390" t="inlineStr">
         <x:is>
-          <x:t>SEAD0112</x:t>
+          <x:t>HOTR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C390" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE RESTAURANTE Y BAR</x:t>
         </x:is>
       </x:c>
       <x:c r="F390" t="inlineStr">
@@ -11257,24 +11258,29 @@
       </x:c>
       <x:c r="G390" t="inlineStr">
         <x:is>
-          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
+          <x:t>LIDER SYSTEM ACADEMY, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H390" t="inlineStr">
+        <x:is>
+          <x:t>Getafe</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="391">
       <x:c r="A391" t="inlineStr">
         <x:is>
-          <x:t>23/8341</x:t>
+          <x:t>23/8340</x:t>
         </x:is>
       </x:c>
       <x:c r="B391" t="inlineStr">
         <x:is>
-          <x:t>SEAD0212</x:t>
+          <x:t>SEAD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C391" t="inlineStr">
         <x:is>
-          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE PERSONAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F391" t="inlineStr">
@@ -11291,17 +11297,17 @@
     <x:row r="392">
       <x:c r="A392" t="inlineStr">
         <x:is>
-          <x:t>23/8342</x:t>
+          <x:t>23/8341</x:t>
         </x:is>
       </x:c>
       <x:c r="B392" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>SEAD0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C392" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>VIGILANCIA, SEGURIDAD PRIVADA Y PROTECCIÓN DE EXPLOSIVOS</x:t>
         </x:is>
       </x:c>
       <x:c r="F392" t="inlineStr">
@@ -11318,17 +11324,17 @@
     <x:row r="393">
       <x:c r="A393" t="inlineStr">
         <x:is>
-          <x:t>23/8352</x:t>
+          <x:t>23/8342</x:t>
         </x:is>
       </x:c>
       <x:c r="B393" t="inlineStr">
         <x:is>
-          <x:t>IFCT0108</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C393" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="F393" t="inlineStr">
@@ -11338,7 +11344,7 @@
       </x:c>
       <x:c r="G393" t="inlineStr">
         <x:is>
-          <x:t>KNOWLEDGE INNOVATION WORKS, S.L.</x:t>
+          <x:t>IMPULSO 06 FORMACION Y EDUCACIÓN, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4234bf54d67143fb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rdd4dd994e3b54b72"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rdd4dd994e3b54b72"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rffb21461d857486a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rffb21461d857486a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rf02f75a8179f4bd7"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rcab580236a0c4d9a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R985f0cf8c2c94473"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R985f0cf8c2c94473"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4853f0153fa34f5e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4853f0153fa34f5e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rb59fae1bd83448c1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rb59fae1bd83448c1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R84d66d9688134111"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R84d66d9688134111"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rf7707b7a443a49e9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rf7707b7a443a49e9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R61de062640574824"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R61de062640574824"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R49a144eceb984487"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R49a144eceb984487"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rabb28adc6d0c4b3b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rabb28adc6d0c4b3b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R668ae28794f74ebc"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R668ae28794f74ebc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4422baaf4ec145d4"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R4422baaf4ec145d4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R66777f132d6d43eb"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R66777f132d6d43eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R96ba438bef0a4f2c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R5cf9d03d1ee147eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R03170d2f68d14117"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R9670c98171d9491a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Re5e02b17a1ff4c26"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Re50fdbcf418e4241"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rb6f5cd0a061b4619"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Re9ffc911c3c5451e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rbe80f547785b4398"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rbe80f547785b4398"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Ra5639e1aa6c74bda"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R0b2c58d9e8c34ed8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R2fec568fd15b478b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R70e622a91d234161"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R5cbd1553661147e2"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1321,7 +1321,7 @@
         <x:v>46211.9166666667</x:v>
       </x:c>
       <x:c r="E39" s="2" t="n">
-        <x:v>46303.9166666667</x:v>
+        <x:v>46300.9166666667</x:v>
       </x:c>
       <x:c r="F39" t="inlineStr">
         <x:is>
@@ -4595,24 +4595,19 @@
     <x:row r="137">
       <x:c r="A137" t="inlineStr">
         <x:is>
-          <x:t>25/4965</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B137" t="inlineStr">
-        <x:is>
-          <x:t>TMVO0111</x:t>
+          <x:t>25/9012</x:t>
         </x:is>
       </x:c>
       <x:c r="C137" t="inlineStr">
         <x:is>
-          <x:t>TRIPULACIÓN DE CABINA DE PASAJEROS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D137" s="1" t="n">
-        <x:v>46096.9583333333</x:v>
+        <x:v>46097.9583333333</x:v>
       </x:c>
       <x:c r="E137" s="2" t="n">
-        <x:v>46216.9166666667</x:v>
+        <x:v>46163.9166666667</x:v>
       </x:c>
       <x:c r="F137" t="inlineStr">
         <x:is>
@@ -4621,31 +4616,36 @@
       </x:c>
       <x:c r="G137" t="inlineStr">
         <x:is>
-          <x:t>BAI FORMACIÓN SA</x:t>
+          <x:t>Gala Formación CTM1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H137" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="138">
       <x:c r="A138" t="inlineStr">
         <x:is>
-          <x:t>25/5538</x:t>
+          <x:t>25/4965</x:t>
         </x:is>
       </x:c>
       <x:c r="B138" t="inlineStr">
         <x:is>
-          <x:t>IMPE0109</x:t>
+          <x:t>TMVO0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C138" t="inlineStr">
         <x:is>
-          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
+          <x:t>TRIPULACIÓN DE CABINA DE PASAJEROS</x:t>
         </x:is>
       </x:c>
       <x:c r="D138" s="1" t="n">
         <x:v>46096.9583333333</x:v>
       </x:c>
       <x:c r="E138" s="2" t="n">
-        <x:v>46224.9166666667</x:v>
+        <x:v>46216.9166666667</x:v>
       </x:c>
       <x:c r="F138" t="inlineStr">
         <x:is>
@@ -4654,31 +4654,31 @@
       </x:c>
       <x:c r="G138" t="inlineStr">
         <x:is>
-          <x:t>ECOLE DIMAGE TRIUNFO, S.L.</x:t>
+          <x:t>BAI FORMACIÓN SA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="139">
       <x:c r="A139" t="inlineStr">
         <x:is>
-          <x:t>25/4951</x:t>
+          <x:t>25/5538</x:t>
         </x:is>
       </x:c>
       <x:c r="B139" t="inlineStr">
         <x:is>
-          <x:t>AFDA0111</x:t>
+          <x:t>IMPE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C139" t="inlineStr">
         <x:is>
-          <x:t>FITNESS ACUÁTICO E HIDROCINESIA</x:t>
+          <x:t>BRONCEADO, MAQUILLAJE Y DEPILACIÓN AVANZADA</x:t>
         </x:is>
       </x:c>
       <x:c r="D139" s="1" t="n">
-        <x:v>46093.9583333333</x:v>
+        <x:v>46096.9583333333</x:v>
       </x:c>
       <x:c r="E139" s="2" t="n">
-        <x:v>46233.9166666667</x:v>
+        <x:v>46224.9166666667</x:v>
       </x:c>
       <x:c r="F139" t="inlineStr">
         <x:is>
@@ -4687,31 +4687,31 @@
       </x:c>
       <x:c r="G139" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>ECOLE DIMAGE TRIUNFO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="140">
       <x:c r="A140" t="inlineStr">
         <x:is>
-          <x:t>25/5416</x:t>
+          <x:t>25/4951</x:t>
         </x:is>
       </x:c>
       <x:c r="B140" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>AFDA0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C140" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>FITNESS ACUÁTICO E HIDROCINESIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D140" s="1" t="n">
-        <x:v>46092.9583333333</x:v>
+        <x:v>46093.9583333333</x:v>
       </x:c>
       <x:c r="E140" s="2" t="n">
-        <x:v>46231.9166666667</x:v>
+        <x:v>46233.9166666667</x:v>
       </x:c>
       <x:c r="F140" t="inlineStr">
         <x:is>
@@ -4720,26 +4720,31 @@
       </x:c>
       <x:c r="G140" t="inlineStr">
         <x:is>
-          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="141">
       <x:c r="A141" t="inlineStr">
         <x:is>
-          <x:t>25/2391</x:t>
+          <x:t>25/5416</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B141" t="inlineStr">
+        <x:is>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C141" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D141" s="1" t="n">
         <x:v>46092.9583333333</x:v>
       </x:c>
       <x:c r="E141" s="2" t="n">
-        <x:v>46232.9166666667</x:v>
+        <x:v>46231.9166666667</x:v>
       </x:c>
       <x:c r="F141" t="inlineStr">
         <x:is>
@@ -4748,31 +4753,26 @@
       </x:c>
       <x:c r="G141" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H141" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="142">
       <x:c r="A142" t="inlineStr">
         <x:is>
-          <x:t>25/2361</x:t>
+          <x:t>25/2391</x:t>
         </x:is>
       </x:c>
       <x:c r="C142" t="inlineStr">
         <x:is>
-          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS - SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D142" s="1" t="n">
-        <x:v>46091.9583333333</x:v>
+        <x:v>46092.9583333333</x:v>
       </x:c>
       <x:c r="E142" s="2" t="n">
-        <x:v>46229.9166666667</x:v>
+        <x:v>46232.9166666667</x:v>
       </x:c>
       <x:c r="F142" t="inlineStr">
         <x:is>
@@ -4793,33 +4793,28 @@
     <x:row r="143">
       <x:c r="A143" t="inlineStr">
         <x:is>
-          <x:t>25/5560</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B143" t="inlineStr">
-        <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>25/2361</x:t>
         </x:is>
       </x:c>
       <x:c r="C143" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS - SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D143" s="1" t="n">
-        <x:v>46090.9583333333</x:v>
+        <x:v>46091.9583333333</x:v>
       </x:c>
       <x:c r="E143" s="2" t="n">
-        <x:v>46190.9166666667</x:v>
+        <x:v>46229.9166666667</x:v>
       </x:c>
       <x:c r="F143" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G143" t="inlineStr">
         <x:is>
-          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
         </x:is>
       </x:c>
       <x:c r="H143" t="inlineStr">
@@ -4831,57 +4826,62 @@
     <x:row r="144">
       <x:c r="A144" t="inlineStr">
         <x:is>
-          <x:t>25/5631</x:t>
+          <x:t>25/5560</x:t>
         </x:is>
       </x:c>
       <x:c r="B144" t="inlineStr">
         <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C144" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D144" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E144" s="2" t="n">
-        <x:v>46202.9166666667</x:v>
+        <x:v>46190.9166666667</x:v>
       </x:c>
       <x:c r="F144" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G144" t="inlineStr">
         <x:is>
-          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
+          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H144" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="145">
       <x:c r="A145" t="inlineStr">
         <x:is>
-          <x:t>25/5876</x:t>
+          <x:t>25/5631</x:t>
         </x:is>
       </x:c>
       <x:c r="B145" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C145" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D145" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E145" s="2" t="n">
-        <x:v>46294.9166666667</x:v>
+        <x:v>46202.9166666667</x:v>
       </x:c>
       <x:c r="F145" t="inlineStr">
         <x:is>
@@ -4890,31 +4890,31 @@
       </x:c>
       <x:c r="G145" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="146">
       <x:c r="A146" t="inlineStr">
         <x:is>
-          <x:t>25/8144</x:t>
+          <x:t>25/5876</x:t>
         </x:is>
       </x:c>
       <x:c r="B146" t="inlineStr">
         <x:is>
-          <x:t>ADGD0108</x:t>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C146" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN CONTABLE Y GESTIÓN ADMINISTRATIVA PARA AUDITORÍA</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D146" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E146" s="2" t="n">
-        <x:v>46210.9166666667</x:v>
+        <x:v>46294.9166666667</x:v>
       </x:c>
       <x:c r="F146" t="inlineStr">
         <x:is>
@@ -4923,26 +4923,31 @@
       </x:c>
       <x:c r="G146" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO DE SAN FERNANDO DE HENARES</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="147">
       <x:c r="A147" t="inlineStr">
         <x:is>
-          <x:t>25/2331</x:t>
+          <x:t>25/8144</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B147" t="inlineStr">
+        <x:is>
+          <x:t>ADGD0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C147" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>GESTIÓN CONTABLE Y GESTIÓN ADMINISTRATIVA PARA AUDITORÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D147" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E147" s="2" t="n">
-        <x:v>46232.9166666667</x:v>
+        <x:v>46210.9166666667</x:v>
       </x:c>
       <x:c r="F147" t="inlineStr">
         <x:is>
@@ -4951,31 +4956,26 @@
       </x:c>
       <x:c r="G147" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H147" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>AYUNTAMIENTO DE SAN FERNANDO DE HENARES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="148">
       <x:c r="A148" t="inlineStr">
         <x:is>
-          <x:t>25/2388</x:t>
+          <x:t>25/2331</x:t>
         </x:is>
       </x:c>
       <x:c r="C148" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INFRAESTRUCTURAS DE TELECOMUNICACIONES EN EDIFICIOS</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D148" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E148" s="2" t="n">
-        <x:v>46190.9166666667</x:v>
+        <x:v>46232.9166666667</x:v>
       </x:c>
       <x:c r="F148" t="inlineStr">
         <x:is>
@@ -4996,19 +4996,19 @@
     <x:row r="149">
       <x:c r="A149" t="inlineStr">
         <x:is>
-          <x:t>25/2422</x:t>
+          <x:t>25/2388</x:t>
         </x:is>
       </x:c>
       <x:c r="C149" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE EQUIPOS ELÉCTRICOS Y ELECTRÓNICOS *</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INFRAESTRUCTURAS DE TELECOMUNICACIONES EN EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D149" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E149" s="2" t="n">
-        <x:v>46184.9166666667</x:v>
+        <x:v>46190.9166666667</x:v>
       </x:c>
       <x:c r="F149" t="inlineStr">
         <x:is>
@@ -5029,24 +5029,19 @@
     <x:row r="150">
       <x:c r="A150" t="inlineStr">
         <x:is>
-          <x:t>23/8204</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B150" t="inlineStr">
-        <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>25/2422</x:t>
         </x:is>
       </x:c>
       <x:c r="C150" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE EQUIPOS ELÉCTRICOS Y ELECTRÓNICOS *</x:t>
         </x:is>
       </x:c>
       <x:c r="D150" s="1" t="n">
-        <x:v>46089.9583333333</x:v>
+        <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E150" s="2" t="n">
-        <x:v>46183.9166666667</x:v>
+        <x:v>46184.9166666667</x:v>
       </x:c>
       <x:c r="F150" t="inlineStr">
         <x:is>
@@ -5055,31 +5050,36 @@
       </x:c>
       <x:c r="G150" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H150" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="151">
       <x:c r="A151" t="inlineStr">
         <x:is>
-          <x:t>25/5419</x:t>
+          <x:t>23/8204</x:t>
         </x:is>
       </x:c>
       <x:c r="B151" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0109</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C151" t="inlineStr">
         <x:is>
-          <x:t>PELUQUERÍA TÉCNICO-ARTÍSTICA</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D151" s="1" t="n">
         <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E151" s="2" t="n">
-        <x:v>46232.9166666667</x:v>
+        <x:v>46183.9166666667</x:v>
       </x:c>
       <x:c r="F151" t="inlineStr">
         <x:is>
@@ -5088,31 +5088,31 @@
       </x:c>
       <x:c r="G151" t="inlineStr">
         <x:is>
-          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="152">
       <x:c r="A152" t="inlineStr">
         <x:is>
-          <x:t>25/5539</x:t>
+          <x:t>25/5419</x:t>
         </x:is>
       </x:c>
       <x:c r="B152" t="inlineStr">
         <x:is>
-          <x:t>IMPE0209</x:t>
+          <x:t>IMPQ0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C152" t="inlineStr">
         <x:is>
-          <x:t>MAQUILLAJE INTEGRAL</x:t>
+          <x:t>PELUQUERÍA TÉCNICO-ARTÍSTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D152" s="1" t="n">
         <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E152" s="2" t="n">
-        <x:v>46225.9166666667</x:v>
+        <x:v>46232.9166666667</x:v>
       </x:c>
       <x:c r="F152" t="inlineStr">
         <x:is>
@@ -5121,31 +5121,31 @@
       </x:c>
       <x:c r="G152" t="inlineStr">
         <x:is>
-          <x:t>ECOLE DIMAGE TRIUNFO, S.L.</x:t>
+          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="153">
       <x:c r="A153" t="inlineStr">
         <x:is>
-          <x:t>25/5877</x:t>
+          <x:t>25/5539</x:t>
         </x:is>
       </x:c>
       <x:c r="B153" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>IMPE0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C153" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>MAQUILLAJE INTEGRAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D153" s="1" t="n">
         <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E153" s="2" t="n">
-        <x:v>46233.9166666667</x:v>
+        <x:v>46225.9166666667</x:v>
       </x:c>
       <x:c r="F153" t="inlineStr">
         <x:is>
@@ -5154,31 +5154,31 @@
       </x:c>
       <x:c r="G153" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>ECOLE DIMAGE TRIUNFO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="154">
       <x:c r="A154" t="inlineStr">
         <x:is>
-          <x:t>23/8438</x:t>
+          <x:t>25/5877</x:t>
         </x:is>
       </x:c>
       <x:c r="B154" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C154" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D154" s="1" t="n">
-        <x:v>46086.9583333333</x:v>
+        <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E154" s="2" t="n">
-        <x:v>46128.9166666667</x:v>
+        <x:v>46233.9166666667</x:v>
       </x:c>
       <x:c r="F154" t="inlineStr">
         <x:is>
@@ -5187,97 +5187,97 @@
       </x:c>
       <x:c r="G154" t="inlineStr">
         <x:is>
-          <x:t>ARACOVE</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="155">
       <x:c r="A155" t="inlineStr">
         <x:is>
-          <x:t>25/5604</x:t>
+          <x:t>23/8438</x:t>
         </x:is>
       </x:c>
       <x:c r="B155" t="inlineStr">
         <x:is>
-          <x:t>ADGD0110</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C155" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA EN LA GESTIÓN DE LOS PROCEDIMIENTOS TRIBUTARIOS</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D155" s="1" t="n">
-        <x:v>46085.9583333333</x:v>
+        <x:v>46086.9583333333</x:v>
       </x:c>
       <x:c r="E155" s="2" t="n">
-        <x:v>46280.9166666667</x:v>
+        <x:v>46128.9166666667</x:v>
       </x:c>
       <x:c r="F155" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G155" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>ARACOVE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="156">
       <x:c r="A156" t="inlineStr">
         <x:is>
-          <x:t>25/5289</x:t>
+          <x:t>25/5604</x:t>
         </x:is>
       </x:c>
       <x:c r="B156" t="inlineStr">
         <x:is>
-          <x:t>ELEQ0311</x:t>
+          <x:t>ADGD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C156" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE EQUIPOS ELECTRÓNICOS</x:t>
+          <x:t>ASISTENCIA EN LA GESTIÓN DE LOS PROCEDIMIENTOS TRIBUTARIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D156" s="1" t="n">
-        <x:v>46084.9583333333</x:v>
+        <x:v>46085.9583333333</x:v>
       </x:c>
       <x:c r="E156" s="2" t="n">
-        <x:v>46289.9166666667</x:v>
+        <x:v>46280.9166666667</x:v>
       </x:c>
       <x:c r="F156" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G156" t="inlineStr">
         <x:is>
-          <x:t>ELWE SISTEMAS DE ENSEÑANZA S.L.</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="157">
       <x:c r="A157" t="inlineStr">
         <x:is>
-          <x:t>25/5444</x:t>
+          <x:t>25/5289</x:t>
         </x:is>
       </x:c>
       <x:c r="B157" t="inlineStr">
         <x:is>
-          <x:t>IFCD0112</x:t>
+          <x:t>ELEQ0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C157" t="inlineStr">
         <x:is>
-          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+          <x:t>MANTENIMIENTO DE EQUIPOS ELECTRÓNICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D157" s="1" t="n">
         <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E157" s="2" t="n">
-        <x:v>46281.9166666667</x:v>
+        <x:v>46289.9166666667</x:v>
       </x:c>
       <x:c r="F157" t="inlineStr">
         <x:is>
@@ -5286,31 +5286,31 @@
       </x:c>
       <x:c r="G157" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>ELWE SISTEMAS DE ENSEÑANZA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="158">
       <x:c r="A158" t="inlineStr">
         <x:is>
-          <x:t>25/5510</x:t>
+          <x:t>25/5444</x:t>
         </x:is>
       </x:c>
       <x:c r="B158" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>IFCD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C158" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D158" s="1" t="n">
         <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E158" s="2" t="n">
-        <x:v>46224.9166666667</x:v>
+        <x:v>46281.9166666667</x:v>
       </x:c>
       <x:c r="F158" t="inlineStr">
         <x:is>
@@ -5319,87 +5319,92 @@
       </x:c>
       <x:c r="G158" t="inlineStr">
         <x:is>
-          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="159">
       <x:c r="A159" t="inlineStr">
         <x:is>
-          <x:t>25/5545</x:t>
+          <x:t>25/5510</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B159" t="inlineStr">
+        <x:is>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C159" t="inlineStr">
         <x:is>
-          <x:t>IMPLANTACIÓN Y ANIMACIÓN DE ESPACIOS COMERCIALES</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D159" s="1" t="n">
         <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E159" s="2" t="n">
-        <x:v>46155.9166666667</x:v>
+        <x:v>46224.9166666667</x:v>
       </x:c>
       <x:c r="F159" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G159" t="inlineStr">
         <x:is>
-          <x:t>CONECTANDO LOCAL, S.L.</x:t>
+          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="160">
       <x:c r="A160" t="inlineStr">
         <x:is>
-          <x:t>25/5640</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B160" t="inlineStr">
-        <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>25/5545</x:t>
         </x:is>
       </x:c>
       <x:c r="C160" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>IMPLANTACIÓN Y ANIMACIÓN DE ESPACIOS COMERCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D160" s="1" t="n">
         <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E160" s="2" t="n">
-        <x:v>46222.9166666667</x:v>
+        <x:v>46155.9166666667</x:v>
       </x:c>
       <x:c r="F160" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G160" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN ZARZAQUEMADA S.L.</x:t>
+          <x:t>CONECTANDO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="161">
       <x:c r="A161" t="inlineStr">
         <x:is>
-          <x:t>25/9013</x:t>
+          <x:t>25/5640</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B161" t="inlineStr">
+        <x:is>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C161" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D161" s="1" t="n">
         <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E161" s="2" t="n">
-        <x:v>46279.9166666667</x:v>
+        <x:v>46222.9166666667</x:v>
       </x:c>
       <x:c r="F161" t="inlineStr">
         <x:is>
@@ -5408,31 +5413,26 @@
       </x:c>
       <x:c r="G161" t="inlineStr">
         <x:is>
-          <x:t>PLATO SUR</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H161" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>CENTRO DE FORMACIÓN ZARZAQUEMADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="162">
       <x:c r="A162" t="inlineStr">
         <x:is>
-          <x:t>25/2402</x:t>
+          <x:t>25/9013</x:t>
         </x:is>
       </x:c>
       <x:c r="C162" t="inlineStr">
         <x:is>
-          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D162" s="1" t="n">
         <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E162" s="2" t="n">
-        <x:v>46299.9166666667</x:v>
+        <x:v>46279.9166666667</x:v>
       </x:c>
       <x:c r="F162" t="inlineStr">
         <x:is>
@@ -5441,36 +5441,31 @@
       </x:c>
       <x:c r="G162" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
+          <x:t>PLATO SUR</x:t>
         </x:is>
       </x:c>
       <x:c r="H162" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="163">
       <x:c r="A163" t="inlineStr">
         <x:is>
-          <x:t>23/8298</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B163" t="inlineStr">
-        <x:is>
-          <x:t>ENAE0308</x:t>
+          <x:t>25/2402</x:t>
         </x:is>
       </x:c>
       <x:c r="C163" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D163" s="1" t="n">
-        <x:v>46083.9583333333</x:v>
+        <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E163" s="2" t="n">
-        <x:v>46289.9166666667</x:v>
+        <x:v>46299.9166666667</x:v>
       </x:c>
       <x:c r="F163" t="inlineStr">
         <x:is>
@@ -5479,31 +5474,36 @@
       </x:c>
       <x:c r="G163" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H163" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="164">
       <x:c r="A164" t="inlineStr">
         <x:is>
-          <x:t>23/8388</x:t>
+          <x:t>23/8298</x:t>
         </x:is>
       </x:c>
       <x:c r="B164" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>ENAE0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C164" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D164" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E164" s="2" t="n">
-        <x:v>46210.9583333333</x:v>
+        <x:v>46289.9166666667</x:v>
       </x:c>
       <x:c r="F164" t="inlineStr">
         <x:is>
@@ -5512,31 +5512,31 @@
       </x:c>
       <x:c r="G164" t="inlineStr">
         <x:is>
-          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="165">
       <x:c r="A165" t="inlineStr">
         <x:is>
-          <x:t>25/4950</x:t>
+          <x:t>23/8388</x:t>
         </x:is>
       </x:c>
       <x:c r="B165" t="inlineStr">
         <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C165" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D165" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E165" s="2" t="n">
-        <x:v>46204.9166666667</x:v>
+        <x:v>46210.9583333333</x:v>
       </x:c>
       <x:c r="F165" t="inlineStr">
         <x:is>
@@ -5545,31 +5545,31 @@
       </x:c>
       <x:c r="G165" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="166">
       <x:c r="A166" t="inlineStr">
         <x:is>
-          <x:t>25/5037</x:t>
+          <x:t>25/4950</x:t>
         </x:is>
       </x:c>
       <x:c r="B166" t="inlineStr">
         <x:is>
-          <x:t>ARTU0212</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C166" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA DIRECCIÓN TÉCNICA DE ESPECTÁCULOS EN VIVO Y EVENTOS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D166" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E166" s="2" t="n">
-        <x:v>46198.9166666667</x:v>
+        <x:v>46204.9166666667</x:v>
       </x:c>
       <x:c r="F166" t="inlineStr">
         <x:is>
@@ -5578,36 +5578,31 @@
       </x:c>
       <x:c r="G166" t="inlineStr">
         <x:is>
-          <x:t>JANA PRODUCCIONES, S.A.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H166" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="167">
       <x:c r="A167" t="inlineStr">
         <x:is>
-          <x:t>25/5119</x:t>
+          <x:t>25/5037</x:t>
         </x:is>
       </x:c>
       <x:c r="B167" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>ARTU0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C167" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>ASISTENCIA A LA DIRECCIÓN TÉCNICA DE ESPECTÁCULOS EN VIVO Y EVENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D167" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E167" s="2" t="n">
-        <x:v>46160.9166666667</x:v>
+        <x:v>46198.9166666667</x:v>
       </x:c>
       <x:c r="F167" t="inlineStr">
         <x:is>
@@ -5616,26 +5611,36 @@
       </x:c>
       <x:c r="G167" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>JANA PRODUCCIONES, S.A.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H167" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="168">
       <x:c r="A168" t="inlineStr">
         <x:is>
-          <x:t>25/5378</x:t>
+          <x:t>25/5119</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B168" t="inlineStr">
+        <x:is>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C168" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D168" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E168" s="2" t="n">
-        <x:v>46161.9166666667</x:v>
+        <x:v>46160.9166666667</x:v>
       </x:c>
       <x:c r="F168" t="inlineStr">
         <x:is>
@@ -5644,31 +5649,26 @@
       </x:c>
       <x:c r="G168" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="169">
       <x:c r="A169" t="inlineStr">
         <x:is>
-          <x:t>25/5423</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B169" t="inlineStr">
-        <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>25/5378</x:t>
         </x:is>
       </x:c>
       <x:c r="C169" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="D169" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E169" s="2" t="n">
-        <x:v>46194.9166666667</x:v>
+        <x:v>46161.9166666667</x:v>
       </x:c>
       <x:c r="F169" t="inlineStr">
         <x:is>
@@ -5677,107 +5677,107 @@
       </x:c>
       <x:c r="G169" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H169" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="170">
       <x:c r="A170" t="inlineStr">
         <x:is>
-          <x:t>25/5557</x:t>
+          <x:t>25/5423</x:t>
         </x:is>
       </x:c>
       <x:c r="B170" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C170" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D170" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E170" s="2" t="n">
-        <x:v>46169.9166666667</x:v>
+        <x:v>46194.9166666667</x:v>
       </x:c>
       <x:c r="F170" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G170" t="inlineStr">
         <x:is>
-          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H170" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="171">
       <x:c r="A171" t="inlineStr">
         <x:is>
-          <x:t>25/5630</x:t>
+          <x:t>25/5557</x:t>
         </x:is>
       </x:c>
       <x:c r="B171" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C171" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="D171" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E171" s="2" t="n">
-        <x:v>46188.9166666667</x:v>
+        <x:v>46169.9166666667</x:v>
       </x:c>
       <x:c r="F171" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G171" t="inlineStr">
         <x:is>
-          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
+          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H171" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="172">
       <x:c r="A172" t="inlineStr">
         <x:is>
-          <x:t>25/5653</x:t>
+          <x:t>25/5630</x:t>
         </x:is>
       </x:c>
       <x:c r="B172" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C172" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D172" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E172" s="2" t="n">
-        <x:v>46195.9166666667</x:v>
+        <x:v>46188.9166666667</x:v>
       </x:c>
       <x:c r="F172" t="inlineStr">
         <x:is>
@@ -5786,36 +5786,31 @@
       </x:c>
       <x:c r="G172" t="inlineStr">
         <x:is>
-          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H172" t="inlineStr">
-        <x:is>
-          <x:t>Alcala de Henares</x:t>
+          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="173">
       <x:c r="A173" t="inlineStr">
         <x:is>
-          <x:t>25/5816</x:t>
+          <x:t>25/5653</x:t>
         </x:is>
       </x:c>
       <x:c r="B173" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C173" t="inlineStr">
         <x:is>
-          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="D173" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E173" s="2" t="n">
-        <x:v>46233.9166666667</x:v>
+        <x:v>46195.9166666667</x:v>
       </x:c>
       <x:c r="F173" t="inlineStr">
         <x:is>
@@ -5824,31 +5819,36 @@
       </x:c>
       <x:c r="G173" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
+          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H173" t="inlineStr">
+        <x:is>
+          <x:t>Alcala de Henares</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="174">
       <x:c r="A174" t="inlineStr">
         <x:is>
-          <x:t>25/5878</x:t>
+          <x:t>25/5816</x:t>
         </x:is>
       </x:c>
       <x:c r="B174" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C174" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D174" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E174" s="2" t="n">
-        <x:v>46171.9166666667</x:v>
+        <x:v>46233.9166666667</x:v>
       </x:c>
       <x:c r="F174" t="inlineStr">
         <x:is>
@@ -5857,26 +5857,31 @@
       </x:c>
       <x:c r="G174" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="175">
       <x:c r="A175" t="inlineStr">
         <x:is>
-          <x:t>25/2334</x:t>
+          <x:t>25/5878</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B175" t="inlineStr">
+        <x:is>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C175" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D175" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E175" s="2" t="n">
-        <x:v>46233.9166666667</x:v>
+        <x:v>46171.9166666667</x:v>
       </x:c>
       <x:c r="F175" t="inlineStr">
         <x:is>
@@ -5885,36 +5890,26 @@
       </x:c>
       <x:c r="G175" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H175" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="176">
       <x:c r="A176" t="inlineStr">
         <x:is>
-          <x:t>25/5442</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B176" t="inlineStr">
-        <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>25/2334</x:t>
         </x:is>
       </x:c>
       <x:c r="C176" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D176" s="1" t="n">
-        <x:v>46082.9583333333</x:v>
+        <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E176" s="2" t="n">
-        <x:v>46209.9166666667</x:v>
+        <x:v>46233.9166666667</x:v>
       </x:c>
       <x:c r="F176" t="inlineStr">
         <x:is>
@@ -5923,31 +5918,36 @@
       </x:c>
       <x:c r="G176" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H176" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="177">
       <x:c r="A177" t="inlineStr">
         <x:is>
-          <x:t>25/5501</x:t>
+          <x:t>25/5442</x:t>
         </x:is>
       </x:c>
       <x:c r="B177" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C177" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D177" s="1" t="n">
         <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E177" s="2" t="n">
-        <x:v>46230.9166666667</x:v>
+        <x:v>46209.9166666667</x:v>
       </x:c>
       <x:c r="F177" t="inlineStr">
         <x:is>
@@ -5956,31 +5956,31 @@
       </x:c>
       <x:c r="G177" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="178">
       <x:c r="A178" t="inlineStr">
         <x:is>
-          <x:t>25/5585</x:t>
+          <x:t>25/5501</x:t>
         </x:is>
       </x:c>
       <x:c r="B178" t="inlineStr">
         <x:is>
-          <x:t>COMV0108</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C178" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE VENTA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D178" s="1" t="n">
         <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E178" s="2" t="n">
-        <x:v>46174.9166666667</x:v>
+        <x:v>46230.9166666667</x:v>
       </x:c>
       <x:c r="F178" t="inlineStr">
         <x:is>
@@ -5989,31 +5989,31 @@
       </x:c>
       <x:c r="G178" t="inlineStr">
         <x:is>
-          <x:t>KNOWLEDGE INNOVATION WORKS, S.L.</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="179">
       <x:c r="A179" t="inlineStr">
         <x:is>
-          <x:t>25/5661</x:t>
+          <x:t>25/5585</x:t>
         </x:is>
       </x:c>
       <x:c r="B179" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0109</x:t>
+          <x:t>COMV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C179" t="inlineStr">
         <x:is>
-          <x:t>PELUQUERÍA TÉCNICO-ARTÍSTICA</x:t>
+          <x:t>ACTIVIDADES DE VENTA</x:t>
         </x:is>
       </x:c>
       <x:c r="D179" s="1" t="n">
         <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E179" s="2" t="n">
-        <x:v>46210.9166666667</x:v>
+        <x:v>46174.9166666667</x:v>
       </x:c>
       <x:c r="F179" t="inlineStr">
         <x:is>
@@ -6022,31 +6022,31 @@
       </x:c>
       <x:c r="G179" t="inlineStr">
         <x:is>
-          <x:t>MONTE BATRES EVENTOS SL</x:t>
+          <x:t>KNOWLEDGE INNOVATION WORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="180">
       <x:c r="A180" t="inlineStr">
         <x:is>
-          <x:t>25/5663</x:t>
+          <x:t>25/5661</x:t>
         </x:is>
       </x:c>
       <x:c r="B180" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0308</x:t>
+          <x:t>IMPQ0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C180" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS CAPILARES ESTÉTICOS</x:t>
+          <x:t>PELUQUERÍA TÉCNICO-ARTÍSTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D180" s="1" t="n">
         <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E180" s="2" t="n">
-        <x:v>46176.9166666667</x:v>
+        <x:v>46210.9166666667</x:v>
       </x:c>
       <x:c r="F180" t="inlineStr">
         <x:is>
@@ -6062,24 +6062,24 @@
     <x:row r="181">
       <x:c r="A181" t="inlineStr">
         <x:is>
-          <x:t>25/5761</x:t>
+          <x:t>25/5663</x:t>
         </x:is>
       </x:c>
       <x:c r="B181" t="inlineStr">
         <x:is>
-          <x:t>ARGI0209</x:t>
+          <x:t>IMPQ0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C181" t="inlineStr">
         <x:is>
-          <x:t>IMPRESIÓN DIGITAL</x:t>
+          <x:t>TRATAMIENTOS CAPILARES ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D181" s="1" t="n">
         <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E181" s="2" t="n">
-        <x:v>46184.9166666667</x:v>
+        <x:v>46176.9166666667</x:v>
       </x:c>
       <x:c r="F181" t="inlineStr">
         <x:is>
@@ -6088,31 +6088,31 @@
       </x:c>
       <x:c r="G181" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION VILLENA LA SALLE</x:t>
+          <x:t>MONTE BATRES EVENTOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="182">
       <x:c r="A182" t="inlineStr">
         <x:is>
-          <x:t>25/4964</x:t>
+          <x:t>25/5761</x:t>
         </x:is>
       </x:c>
       <x:c r="B182" t="inlineStr">
         <x:is>
-          <x:t>TMVO0111</x:t>
+          <x:t>ARGI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C182" t="inlineStr">
         <x:is>
-          <x:t>TRIPULACIÓN DE CABINA DE PASAJEROS</x:t>
+          <x:t>IMPRESIÓN DIGITAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D182" s="1" t="n">
-        <x:v>46079.9583333333</x:v>
+        <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E182" s="2" t="n">
-        <x:v>46201.9166666667</x:v>
+        <x:v>46184.9166666667</x:v>
       </x:c>
       <x:c r="F182" t="inlineStr">
         <x:is>
@@ -6121,31 +6121,31 @@
       </x:c>
       <x:c r="G182" t="inlineStr">
         <x:is>
-          <x:t>BAI FORMACIÓN SA</x:t>
+          <x:t>FUNDACION VILLENA LA SALLE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="183">
       <x:c r="A183" t="inlineStr">
         <x:is>
-          <x:t>25/8058</x:t>
+          <x:t>25/4964</x:t>
         </x:is>
       </x:c>
       <x:c r="B183" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>TMVO0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C183" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>TRIPULACIÓN DE CABINA DE PASAJEROS</x:t>
         </x:is>
       </x:c>
       <x:c r="D183" s="1" t="n">
         <x:v>46079.9583333333</x:v>
       </x:c>
       <x:c r="E183" s="2" t="n">
-        <x:v>46139.9166666667</x:v>
+        <x:v>46201.9166666667</x:v>
       </x:c>
       <x:c r="F183" t="inlineStr">
         <x:is>
@@ -6154,31 +6154,31 @@
       </x:c>
       <x:c r="G183" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
+          <x:t>BAI FORMACIÓN SA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="184">
       <x:c r="A184" t="inlineStr">
         <x:is>
-          <x:t>25/5524</x:t>
+          <x:t>25/8058</x:t>
         </x:is>
       </x:c>
       <x:c r="B184" t="inlineStr">
         <x:is>
-          <x:t>EOCB0208</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C184" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D184" s="1" t="n">
-        <x:v>46078.9583333333</x:v>
+        <x:v>46079.9583333333</x:v>
       </x:c>
       <x:c r="E184" s="2" t="n">
-        <x:v>46134.9166666667</x:v>
+        <x:v>46139.9166666667</x:v>
       </x:c>
       <x:c r="F184" t="inlineStr">
         <x:is>
@@ -6187,36 +6187,31 @@
       </x:c>
       <x:c r="G184" t="inlineStr">
         <x:is>
-          <x:t>TELEFORMACION ADARA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H184" t="inlineStr">
-        <x:is>
-          <x:t>Rivas Vaciamadrid</x:t>
+          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="185">
       <x:c r="A185" t="inlineStr">
         <x:is>
-          <x:t>25/5629</x:t>
+          <x:t>25/5524</x:t>
         </x:is>
       </x:c>
       <x:c r="B185" t="inlineStr">
         <x:is>
-          <x:t>ENAS0110</x:t>
+          <x:t>EOCB0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C185" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE, PUESTA EN SERVICIO, MANTENIMIENTO, INSPECCIÓN Y REVISIÓN DE INSTALACIONES RECEPTORAS Y APARATOS DE GAS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D185" s="1" t="n">
         <x:v>46078.9583333333</x:v>
       </x:c>
       <x:c r="E185" s="2" t="n">
-        <x:v>46156.9166666667</x:v>
+        <x:v>46134.9166666667</x:v>
       </x:c>
       <x:c r="F185" t="inlineStr">
         <x:is>
@@ -6225,26 +6220,36 @@
       </x:c>
       <x:c r="G185" t="inlineStr">
         <x:is>
-          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
+          <x:t>TELEFORMACION ADARA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H185" t="inlineStr">
+        <x:is>
+          <x:t>Rivas Vaciamadrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="186">
       <x:c r="A186" t="inlineStr">
         <x:is>
-          <x:t>25/2395</x:t>
+          <x:t>25/5629</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B186" t="inlineStr">
+        <x:is>
+          <x:t>ENAS0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C186" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>MONTAJE, PUESTA EN SERVICIO, MANTENIMIENTO, INSPECCIÓN Y REVISIÓN DE INSTALACIONES RECEPTORAS Y APARATOS DE GAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D186" s="1" t="n">
         <x:v>46078.9583333333</x:v>
       </x:c>
       <x:c r="E186" s="2" t="n">
-        <x:v>46224.9166666667</x:v>
+        <x:v>46156.9166666667</x:v>
       </x:c>
       <x:c r="F186" t="inlineStr">
         <x:is>
@@ -6253,33 +6258,26 @@
       </x:c>
       <x:c r="G186" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H186" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="187">
       <x:c r="A187" t="inlineStr">
         <x:is>
-          <x:t>25/5364</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B187" t="inlineStr">
-        <x:is>
-          <x:t>SSCE0109</x:t>
+          <x:t>25/2395</x:t>
         </x:is>
       </x:c>
       <x:c r="C187" t="inlineStr">
         <x:is>
-          <x:t>INFORMACIÓN JUVENIL</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D187" s="1" t="n">
-        <x:v>46077.9583333333</x:v>
+        <x:v>46078.9583333333</x:v>
+      </x:c>
+      <x:c r="E187" s="2" t="n">
+        <x:v>46224.9166666667</x:v>
       </x:c>
       <x:c r="F187" t="inlineStr">
         <x:is>
@@ -6288,27 +6286,34 @@
       </x:c>
       <x:c r="G187" t="inlineStr">
         <x:is>
-          <x:t>SERPROFES SL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H187" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="188">
       <x:c r="A188" t="inlineStr">
         <x:is>
-          <x:t>25/5494</x:t>
+          <x:t>25/5364</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B188" t="inlineStr">
+        <x:is>
+          <x:t>SSCE0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C188" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
+          <x:t>INFORMACIÓN JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D188" s="1" t="n">
         <x:v>46077.9583333333</x:v>
       </x:c>
-      <x:c r="E188" s="2" t="n">
-        <x:v>46211.9166666667</x:v>
-      </x:c>
       <x:c r="F188" t="inlineStr">
         <x:is>
           <x:t>Presencial</x:t>
@@ -6316,107 +6321,102 @@
       </x:c>
       <x:c r="G188" t="inlineStr">
         <x:is>
-          <x:t>FORMAJOBS S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H188" t="inlineStr">
-        <x:is>
-          <x:t>Leganés</x:t>
+          <x:t>SERPROFES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="189">
       <x:c r="A189" t="inlineStr">
         <x:is>
-          <x:t>25/5558</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B189" t="inlineStr">
-        <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>25/5494</x:t>
         </x:is>
       </x:c>
       <x:c r="C189" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ATENCIÓN SANITARIA A MÚLTIPLES VÍCTIMAS Y CATÁSTROFES</x:t>
         </x:is>
       </x:c>
       <x:c r="D189" s="1" t="n">
         <x:v>46077.9583333333</x:v>
       </x:c>
       <x:c r="E189" s="2" t="n">
-        <x:v>46163.9166666667</x:v>
+        <x:v>46211.9166666667</x:v>
       </x:c>
       <x:c r="F189" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G189" t="inlineStr">
         <x:is>
-          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
+          <x:t>FORMAJOBS S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H189" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>Leganés</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="190">
       <x:c r="A190" t="inlineStr">
         <x:is>
-          <x:t>25/5762</x:t>
+          <x:t>25/5558</x:t>
         </x:is>
       </x:c>
       <x:c r="B190" t="inlineStr">
         <x:is>
-          <x:t>ELES0208</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C190" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE INSTALACIONES ELECTROTÉCNICAS Y DE TELECOMUNICACIONES EN EDIFICIOS</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="D190" s="1" t="n">
         <x:v>46077.9583333333</x:v>
       </x:c>
       <x:c r="E190" s="2" t="n">
-        <x:v>46174.9166666667</x:v>
+        <x:v>46163.9166666667</x:v>
       </x:c>
       <x:c r="F190" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G190" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION VILLENA LA SALLE</x:t>
+          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H190" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="191">
       <x:c r="A191" t="inlineStr">
         <x:is>
-          <x:t>25/5832</x:t>
+          <x:t>25/5762</x:t>
         </x:is>
       </x:c>
       <x:c r="B191" t="inlineStr">
         <x:is>
-          <x:t>AGAH0108</x:t>
+          <x:t>ELES0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C191" t="inlineStr">
         <x:is>
-          <x:t>HORTICULTURA Y FLORICULTURA</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE DE INSTALACIONES ELECTROTÉCNICAS Y DE TELECOMUNICACIONES EN EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D191" s="1" t="n">
         <x:v>46077.9583333333</x:v>
       </x:c>
       <x:c r="E191" s="2" t="n">
-        <x:v>46189.9166666667</x:v>
+        <x:v>46174.9166666667</x:v>
       </x:c>
       <x:c r="F191" t="inlineStr">
         <x:is>
@@ -6425,31 +6425,31 @@
       </x:c>
       <x:c r="G191" t="inlineStr">
         <x:is>
-          <x:t>ARACOVE</x:t>
+          <x:t>FUNDACION VILLENA LA SALLE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="192">
       <x:c r="A192" t="inlineStr">
         <x:is>
-          <x:t>25/5904</x:t>
+          <x:t>25/5832</x:t>
         </x:is>
       </x:c>
       <x:c r="B192" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>AGAH0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C192" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>HORTICULTURA Y FLORICULTURA</x:t>
         </x:is>
       </x:c>
       <x:c r="D192" s="1" t="n">
         <x:v>46077.9583333333</x:v>
       </x:c>
       <x:c r="E192" s="2" t="n">
-        <x:v>46209.9166666667</x:v>
+        <x:v>46189.9166666667</x:v>
       </x:c>
       <x:c r="F192" t="inlineStr">
         <x:is>
@@ -6458,26 +6458,31 @@
       </x:c>
       <x:c r="G192" t="inlineStr">
         <x:is>
-          <x:t>INSTITUCION PROFESIONAL SALESIANA SALESIANOS INSPECTORIA DE SAN JUAN BOSCO</x:t>
+          <x:t>ARACOVE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="193">
       <x:c r="A193" t="inlineStr">
         <x:is>
-          <x:t>25/9016</x:t>
+          <x:t>25/5904</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B193" t="inlineStr">
+        <x:is>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C193" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D193" s="1" t="n">
         <x:v>46077.9583333333</x:v>
       </x:c>
       <x:c r="E193" s="2" t="n">
-        <x:v>46239.9166666667</x:v>
+        <x:v>46209.9166666667</x:v>
       </x:c>
       <x:c r="F193" t="inlineStr">
         <x:is>
@@ -6486,36 +6491,26 @@
       </x:c>
       <x:c r="G193" t="inlineStr">
         <x:is>
-          <x:t>CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H193" t="inlineStr">
-        <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>INSTITUCION PROFESIONAL SALESIANA SALESIANOS INSPECTORIA DE SAN JUAN BOSCO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="194">
       <x:c r="A194" t="inlineStr">
         <x:is>
-          <x:t>25/5115</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B194" t="inlineStr">
-        <x:is>
-          <x:t>SEAG0108</x:t>
+          <x:t>25/9016</x:t>
         </x:is>
       </x:c>
       <x:c r="C194" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D194" s="1" t="n">
-        <x:v>46076.9583333333</x:v>
+        <x:v>46077.9583333333</x:v>
       </x:c>
       <x:c r="E194" s="2" t="n">
-        <x:v>46180.9166666667</x:v>
+        <x:v>46239.9166666667</x:v>
       </x:c>
       <x:c r="F194" t="inlineStr">
         <x:is>
@@ -6524,31 +6519,36 @@
       </x:c>
       <x:c r="G194" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H194" t="inlineStr">
+        <x:is>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="195">
       <x:c r="A195" t="inlineStr">
         <x:is>
-          <x:t>25/5118</x:t>
+          <x:t>25/5115</x:t>
         </x:is>
       </x:c>
       <x:c r="B195" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>SEAG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C195" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>GESTIÓN DE RESIDUOS URBANOS E INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D195" s="1" t="n">
         <x:v>46076.9583333333</x:v>
       </x:c>
       <x:c r="E195" s="2" t="n">
-        <x:v>46152.9166666667</x:v>
+        <x:v>46180.9166666667</x:v>
       </x:c>
       <x:c r="F195" t="inlineStr">
         <x:is>
@@ -6564,24 +6564,24 @@
     <x:row r="196">
       <x:c r="A196" t="inlineStr">
         <x:is>
-          <x:t>25/5424</x:t>
+          <x:t>25/5118</x:t>
         </x:is>
       </x:c>
       <x:c r="B196" t="inlineStr">
         <x:is>
-          <x:t>IMSV0308</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C196" t="inlineStr">
         <x:is>
-          <x:t>CÁMARA DE CINE, VÍDEO Y TELEVISIÓN</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D196" s="1" t="n">
         <x:v>46076.9583333333</x:v>
       </x:c>
       <x:c r="E196" s="2" t="n">
-        <x:v>46202.9166666667</x:v>
+        <x:v>46152.9166666667</x:v>
       </x:c>
       <x:c r="F196" t="inlineStr">
         <x:is>
@@ -6590,36 +6590,31 @@
       </x:c>
       <x:c r="G196" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H196" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="197">
       <x:c r="A197" t="inlineStr">
         <x:is>
-          <x:t>25/5502</x:t>
+          <x:t>25/5424</x:t>
         </x:is>
       </x:c>
       <x:c r="B197" t="inlineStr">
         <x:is>
-          <x:t>IMAR0208</x:t>
+          <x:t>IMSV0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C197" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>CÁMARA DE CINE, VÍDEO Y TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D197" s="1" t="n">
         <x:v>46076.9583333333</x:v>
       </x:c>
       <x:c r="E197" s="2" t="n">
-        <x:v>46308.9166666667</x:v>
+        <x:v>46202.9166666667</x:v>
       </x:c>
       <x:c r="F197" t="inlineStr">
         <x:is>
@@ -6628,31 +6623,36 @@
       </x:c>
       <x:c r="G197" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H197" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="198">
       <x:c r="A198" t="inlineStr">
         <x:is>
-          <x:t>25/5503</x:t>
+          <x:t>25/5502</x:t>
         </x:is>
       </x:c>
       <x:c r="B198" t="inlineStr">
         <x:is>
-          <x:t>IMAR0408</x:t>
+          <x:t>IMAR0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C198" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D198" s="1" t="n">
         <x:v>46076.9583333333</x:v>
       </x:c>
       <x:c r="E198" s="2" t="n">
-        <x:v>46307.9166666667</x:v>
+        <x:v>46308.9166666667</x:v>
       </x:c>
       <x:c r="F198" t="inlineStr">
         <x:is>
@@ -6668,24 +6668,24 @@
     <x:row r="199">
       <x:c r="A199" t="inlineStr">
         <x:is>
-          <x:t>25/5561</x:t>
+          <x:t>25/5503</x:t>
         </x:is>
       </x:c>
       <x:c r="B199" t="inlineStr">
         <x:is>
-          <x:t>HOTR0509</x:t>
+          <x:t>IMAR0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C199" t="inlineStr">
         <x:is>
-          <x:t>REPOSTERÍA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D199" s="1" t="n">
         <x:v>46076.9583333333</x:v>
       </x:c>
       <x:c r="E199" s="2" t="n">
-        <x:v>46187.9166666667</x:v>
+        <x:v>46307.9166666667</x:v>
       </x:c>
       <x:c r="F199" t="inlineStr">
         <x:is>
@@ -6694,36 +6694,31 @@
       </x:c>
       <x:c r="G199" t="inlineStr">
         <x:is>
-          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H199" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="200">
       <x:c r="A200" t="inlineStr">
         <x:is>
-          <x:t>25/5633</x:t>
+          <x:t>25/5561</x:t>
         </x:is>
       </x:c>
       <x:c r="B200" t="inlineStr">
         <x:is>
-          <x:t>IMSV0308</x:t>
+          <x:t>HOTR0509</x:t>
         </x:is>
       </x:c>
       <x:c r="C200" t="inlineStr">
         <x:is>
-          <x:t>CÁMARA DE CINE, VÍDEO Y TELEVISIÓN</x:t>
+          <x:t>REPOSTERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D200" s="1" t="n">
         <x:v>46076.9583333333</x:v>
       </x:c>
       <x:c r="E200" s="2" t="n">
-        <x:v>46194.9166666667</x:v>
+        <x:v>46187.9166666667</x:v>
       </x:c>
       <x:c r="F200" t="inlineStr">
         <x:is>
@@ -6732,31 +6727,36 @@
       </x:c>
       <x:c r="G200" t="inlineStr">
         <x:is>
-          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
+          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H200" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="201">
       <x:c r="A201" t="inlineStr">
         <x:is>
-          <x:t>25/5642</x:t>
+          <x:t>25/5633</x:t>
         </x:is>
       </x:c>
       <x:c r="B201" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>IMSV0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C201" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>CÁMARA DE CINE, VÍDEO Y TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D201" s="1" t="n">
         <x:v>46076.9583333333</x:v>
       </x:c>
       <x:c r="E201" s="2" t="n">
-        <x:v>46232.9166666667</x:v>
+        <x:v>46194.9166666667</x:v>
       </x:c>
       <x:c r="F201" t="inlineStr">
         <x:is>
@@ -6765,31 +6765,31 @@
       </x:c>
       <x:c r="G201" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN ZARZAQUEMADA S.L.</x:t>
+          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="202">
       <x:c r="A202" t="inlineStr">
         <x:is>
-          <x:t>25/5722</x:t>
+          <x:t>25/5642</x:t>
         </x:is>
       </x:c>
       <x:c r="B202" t="inlineStr">
         <x:is>
-          <x:t>SSCG0112</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C202" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN Y PARTICIPACIÓN DE LA COMUNIDAD SORDA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D202" s="1" t="n">
         <x:v>46076.9583333333</x:v>
       </x:c>
       <x:c r="E202" s="2" t="n">
-        <x:v>46222.9583333333</x:v>
+        <x:v>46232.9166666667</x:v>
       </x:c>
       <x:c r="F202" t="inlineStr">
         <x:is>
@@ -6798,31 +6798,31 @@
       </x:c>
       <x:c r="G202" t="inlineStr">
         <x:is>
-          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
+          <x:t>CENTRO DE FORMACIÓN ZARZAQUEMADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="203">
       <x:c r="A203" t="inlineStr">
         <x:is>
-          <x:t>25/5820</x:t>
+          <x:t>25/5722</x:t>
         </x:is>
       </x:c>
       <x:c r="B203" t="inlineStr">
         <x:is>
-          <x:t>IMAI0108</x:t>
+          <x:t>SSCG0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C203" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA</x:t>
+          <x:t>PROMOCIÓN Y PARTICIPACIÓN DE LA COMUNIDAD SORDA</x:t>
         </x:is>
       </x:c>
       <x:c r="D203" s="1" t="n">
         <x:v>46076.9583333333</x:v>
       </x:c>
       <x:c r="E203" s="2" t="n">
-        <x:v>46177.9166666667</x:v>
+        <x:v>46222.9583333333</x:v>
       </x:c>
       <x:c r="F203" t="inlineStr">
         <x:is>
@@ -6831,31 +6831,31 @@
       </x:c>
       <x:c r="G203" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
+          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="204">
       <x:c r="A204" t="inlineStr">
         <x:is>
-          <x:t>25/5875</x:t>
+          <x:t>25/5820</x:t>
         </x:is>
       </x:c>
       <x:c r="B204" t="inlineStr">
         <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>IMAI0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C204" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>OPERACIONES DE FONTANERÍA Y CALEFACCIÓN-CLIMATIZACIÓN DOMÉSTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D204" s="1" t="n">
         <x:v>46076.9583333333</x:v>
       </x:c>
       <x:c r="E204" s="2" t="n">
-        <x:v>46173.9166666667</x:v>
+        <x:v>46177.9166666667</x:v>
       </x:c>
       <x:c r="F204" t="inlineStr">
         <x:is>
@@ -6864,26 +6864,31 @@
       </x:c>
       <x:c r="G204" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="205">
       <x:c r="A205" t="inlineStr">
         <x:is>
-          <x:t>25/2139</x:t>
+          <x:t>25/5875</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B205" t="inlineStr">
+        <x:is>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C205" t="inlineStr">
         <x:is>
-          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D205" s="1" t="n">
-        <x:v>46075.9583333333</x:v>
+        <x:v>46076.9583333333</x:v>
       </x:c>
       <x:c r="E205" s="2" t="n">
-        <x:v>46288.9166666667</x:v>
+        <x:v>46173.9166666667</x:v>
       </x:c>
       <x:c r="F205" t="inlineStr">
         <x:is>
@@ -6892,36 +6897,26 @@
       </x:c>
       <x:c r="G205" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H205" t="inlineStr">
-        <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="206">
       <x:c r="A206" t="inlineStr">
         <x:is>
-          <x:t>25/5106</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B206" t="inlineStr">
-        <x:is>
-          <x:t>IMPP0208</x:t>
+          <x:t>25/2139</x:t>
         </x:is>
       </x:c>
       <x:c r="C206" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D206" s="1" t="n">
         <x:v>46075.9583333333</x:v>
       </x:c>
       <x:c r="E206" s="2" t="n">
-        <x:v>46212.9166666667</x:v>
+        <x:v>46288.9166666667</x:v>
       </x:c>
       <x:c r="F206" t="inlineStr">
         <x:is>
@@ -6930,31 +6925,36 @@
       </x:c>
       <x:c r="G206" t="inlineStr">
         <x:is>
-          <x:t>MONTIGUELDO S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H206" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="207">
       <x:c r="A207" t="inlineStr">
         <x:is>
-          <x:t>25/5107</x:t>
+          <x:t>25/5106</x:t>
         </x:is>
       </x:c>
       <x:c r="B207" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0109</x:t>
+          <x:t>IMPP0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C207" t="inlineStr">
         <x:is>
-          <x:t>PELUQUERÍA TÉCNICO-ARTÍSTICA</x:t>
+          <x:t>SERVICIOS ESTÉTICOS DE HIGIENE, DEPILACIÓN Y MAQUILLAJE</x:t>
         </x:is>
       </x:c>
       <x:c r="D207" s="1" t="n">
         <x:v>46075.9583333333</x:v>
       </x:c>
       <x:c r="E207" s="2" t="n">
-        <x:v>46211.9166666667</x:v>
+        <x:v>46212.9166666667</x:v>
       </x:c>
       <x:c r="F207" t="inlineStr">
         <x:is>
@@ -6970,22 +6970,25 @@
     <x:row r="208">
       <x:c r="A208" t="inlineStr">
         <x:is>
-          <x:t>25/5360</x:t>
+          <x:t>25/5107</x:t>
         </x:is>
       </x:c>
       <x:c r="B208" t="inlineStr">
         <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>IMPQ0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C208" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>PELUQUERÍA TÉCNICO-ARTÍSTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D208" s="1" t="n">
         <x:v>46075.9583333333</x:v>
       </x:c>
+      <x:c r="E208" s="2" t="n">
+        <x:v>46211.9166666667</x:v>
+      </x:c>
       <x:c r="F208" t="inlineStr">
         <x:is>
           <x:t>Presencial</x:t>
@@ -6993,24 +6996,24 @@
       </x:c>
       <x:c r="G208" t="inlineStr">
         <x:is>
-          <x:t>SERPROFES SL</x:t>
+          <x:t>MONTIGUELDO S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="209">
       <x:c r="A209" t="inlineStr">
         <x:is>
-          <x:t>25/5362</x:t>
+          <x:t>25/5360</x:t>
         </x:is>
       </x:c>
       <x:c r="B209" t="inlineStr">
         <x:is>
-          <x:t>FMEC0209</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C209" t="inlineStr">
         <x:is>
-          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D209" s="1" t="n">
@@ -7030,25 +7033,22 @@
     <x:row r="210">
       <x:c r="A210" t="inlineStr">
         <x:is>
-          <x:t>25/5881</x:t>
+          <x:t>25/5362</x:t>
         </x:is>
       </x:c>
       <x:c r="B210" t="inlineStr">
         <x:is>
-          <x:t>SSCS0208</x:t>
+          <x:t>FMEC0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C210" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>DISEÑO DE TUBERÍA INDUSTRIAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D210" s="1" t="n">
         <x:v>46075.9583333333</x:v>
       </x:c>
-      <x:c r="E210" s="2" t="n">
-        <x:v>46202.9166666667</x:v>
-      </x:c>
       <x:c r="F210" t="inlineStr">
         <x:is>
           <x:t>Presencial</x:t>
@@ -7056,31 +7056,31 @@
       </x:c>
       <x:c r="G210" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>SERPROFES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="211">
       <x:c r="A211" t="inlineStr">
         <x:is>
-          <x:t>25/8052</x:t>
+          <x:t>25/5881</x:t>
         </x:is>
       </x:c>
       <x:c r="B211" t="inlineStr">
         <x:is>
-          <x:t>ADGG0408</x:t>
+          <x:t>SSCS0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C211" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D211" s="1" t="n">
         <x:v>46075.9583333333</x:v>
       </x:c>
       <x:c r="E211" s="2" t="n">
-        <x:v>46166.9166666667</x:v>
+        <x:v>46202.9166666667</x:v>
       </x:c>
       <x:c r="F211" t="inlineStr">
         <x:is>
@@ -7089,31 +7089,31 @@
       </x:c>
       <x:c r="G211" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="212">
       <x:c r="A212" t="inlineStr">
         <x:is>
-          <x:t>25/5284</x:t>
+          <x:t>25/8052</x:t>
         </x:is>
       </x:c>
       <x:c r="B212" t="inlineStr">
         <x:is>
-          <x:t>COMM0111</x:t>
+          <x:t>ADGG0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C212" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
+          <x:t>OPERACIONES AUXILIARES DE SERVICIOS ADMINISTRATIVOS Y GENERALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D212" s="1" t="n">
-        <x:v>46071.9583333333</x:v>
+        <x:v>46075.9583333333</x:v>
       </x:c>
       <x:c r="E212" s="2" t="n">
-        <x:v>46187.9166666667</x:v>
+        <x:v>46166.9166666667</x:v>
       </x:c>
       <x:c r="F212" t="inlineStr">
         <x:is>
@@ -7122,36 +7122,31 @@
       </x:c>
       <x:c r="G212" t="inlineStr">
         <x:is>
-          <x:t>DOCENCIA Y MULTIMEDIA MADRID</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H212" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="213">
       <x:c r="A213" t="inlineStr">
         <x:is>
-          <x:t>25/5341</x:t>
+          <x:t>25/5284</x:t>
         </x:is>
       </x:c>
       <x:c r="B213" t="inlineStr">
         <x:is>
-          <x:t>IMSV0308</x:t>
+          <x:t>COMM0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C213" t="inlineStr">
         <x:is>
-          <x:t>CÁMARA DE CINE, VÍDEO Y TELEVISIÓN</x:t>
+          <x:t>ASISTENCIA A LA INVESTIGACIÓN DE MERCADOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D213" s="1" t="n">
         <x:v>46071.9583333333</x:v>
       </x:c>
       <x:c r="E213" s="2" t="n">
-        <x:v>46274.9166666667</x:v>
+        <x:v>46187.9166666667</x:v>
       </x:c>
       <x:c r="F213" t="inlineStr">
         <x:is>
@@ -7160,36 +7155,36 @@
       </x:c>
       <x:c r="G213" t="inlineStr">
         <x:is>
-          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
+          <x:t>DOCENCIA Y MULTIMEDIA MADRID</x:t>
         </x:is>
       </x:c>
       <x:c r="H213" t="inlineStr">
         <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="214">
       <x:c r="A214" t="inlineStr">
         <x:is>
-          <x:t>25/5513</x:t>
+          <x:t>25/5341</x:t>
         </x:is>
       </x:c>
       <x:c r="B214" t="inlineStr">
         <x:is>
-          <x:t>AGAO0108</x:t>
+          <x:t>IMSV0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C214" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
+          <x:t>CÁMARA DE CINE, VÍDEO Y TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D214" s="1" t="n">
         <x:v>46071.9583333333</x:v>
       </x:c>
       <x:c r="E214" s="2" t="n">
-        <x:v>46126.9166666667</x:v>
+        <x:v>46274.9166666667</x:v>
       </x:c>
       <x:c r="F214" t="inlineStr">
         <x:is>
@@ -7198,31 +7193,36 @@
       </x:c>
       <x:c r="G214" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H214" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="215">
       <x:c r="A215" t="inlineStr">
         <x:is>
-          <x:t>25/5520</x:t>
+          <x:t>25/5513</x:t>
         </x:is>
       </x:c>
       <x:c r="B215" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>AGAO0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C215" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>ACTIVIDADES AUXILIARES EN VIVEROS, JARDINES Y CENTROS DE JARDINERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D215" s="1" t="n">
         <x:v>46071.9583333333</x:v>
       </x:c>
       <x:c r="E215" s="2" t="n">
-        <x:v>46100.9583333333</x:v>
+        <x:v>46126.9166666667</x:v>
       </x:c>
       <x:c r="F215" t="inlineStr">
         <x:is>
@@ -7238,24 +7238,24 @@
     <x:row r="216">
       <x:c r="A216" t="inlineStr">
         <x:is>
-          <x:t>25/5654</x:t>
+          <x:t>25/5520</x:t>
         </x:is>
       </x:c>
       <x:c r="B216" t="inlineStr">
         <x:is>
-          <x:t>ELEQ0111</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C216" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE EQUIPOS ELÉCTRICOS Y ELECTRÓNICOS</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D216" s="1" t="n">
         <x:v>46071.9583333333</x:v>
       </x:c>
       <x:c r="E216" s="2" t="n">
-        <x:v>46126.9166666667</x:v>
+        <x:v>46100.9583333333</x:v>
       </x:c>
       <x:c r="F216" t="inlineStr">
         <x:is>
@@ -7264,31 +7264,31 @@
       </x:c>
       <x:c r="G216" t="inlineStr">
         <x:is>
-          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H216" t="inlineStr">
-        <x:is>
-          <x:t>Alcala de Henares</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="217">
       <x:c r="A217" t="inlineStr">
         <x:is>
-          <x:t>25/2318</x:t>
+          <x:t>25/5654</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B217" t="inlineStr">
+        <x:is>
+          <x:t>ELEQ0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C217" t="inlineStr">
         <x:is>
-          <x:t>OFIMÁTICA</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE EQUIPOS ELÉCTRICOS Y ELECTRÓNICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D217" s="1" t="n">
         <x:v>46071.9583333333</x:v>
       </x:c>
       <x:c r="E217" s="2" t="n">
-        <x:v>46131.9166666667</x:v>
+        <x:v>46126.9166666667</x:v>
       </x:c>
       <x:c r="F217" t="inlineStr">
         <x:is>
@@ -7297,36 +7297,31 @@
       </x:c>
       <x:c r="G217" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
+          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H217" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>Alcala de Henares</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="218">
       <x:c r="A218" t="inlineStr">
         <x:is>
-          <x:t>25/5029</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B218" t="inlineStr">
-        <x:is>
-          <x:t>HOTG0108</x:t>
+          <x:t>25/2318</x:t>
         </x:is>
       </x:c>
       <x:c r="C218" t="inlineStr">
         <x:is>
-          <x:t>CREACIÓN Y GESTIÓN DE VIAJES COMBINADOS Y EVENTOS</x:t>
+          <x:t>OFIMÁTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D218" s="1" t="n">
-        <x:v>46070.9583333333</x:v>
+        <x:v>46071.9583333333</x:v>
       </x:c>
       <x:c r="E218" s="2" t="n">
-        <x:v>46218.9166666667</x:v>
+        <x:v>46131.9166666667</x:v>
       </x:c>
       <x:c r="F218" t="inlineStr">
         <x:is>
@@ -7335,95 +7330,100 @@
       </x:c>
       <x:c r="G218" t="inlineStr">
         <x:is>
-          <x:t>MASERCISA S.A.UNIPERSONAL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H218" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="219">
       <x:c r="A219" t="inlineStr">
         <x:is>
-          <x:t>25/5285</x:t>
+          <x:t>25/5029</x:t>
         </x:is>
       </x:c>
       <x:c r="B219" t="inlineStr">
         <x:is>
-          <x:t>IFCD0112</x:t>
+          <x:t>HOTG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C219" t="inlineStr">
         <x:is>
-          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+          <x:t>CREACIÓN Y GESTIÓN DE VIAJES COMBINADOS Y EVENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D219" s="1" t="n">
         <x:v>46070.9583333333</x:v>
       </x:c>
       <x:c r="E219" s="2" t="n">
-        <x:v>46261.9166666667</x:v>
+        <x:v>46218.9166666667</x:v>
       </x:c>
       <x:c r="F219" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G219" t="inlineStr">
         <x:is>
-          <x:t>DOCENCIA Y MULTIMEDIA MADRID</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H219" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MASERCISA S.A.UNIPERSONAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="220">
       <x:c r="A220" t="inlineStr">
         <x:is>
-          <x:t>25/5547</x:t>
+          <x:t>25/5285</x:t>
         </x:is>
       </x:c>
       <x:c r="B220" t="inlineStr">
         <x:is>
-          <x:t>COMV0108</x:t>
+          <x:t>IFCD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C220" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE VENTA</x:t>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D220" s="1" t="n">
         <x:v>46070.9583333333</x:v>
       </x:c>
       <x:c r="E220" s="2" t="n">
-        <x:v>46202.9166666667</x:v>
+        <x:v>46261.9166666667</x:v>
       </x:c>
       <x:c r="F220" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G220" t="inlineStr">
         <x:is>
-          <x:t>CONECTANDO LOCAL, S.L.</x:t>
+          <x:t>DOCENCIA Y MULTIMEDIA MADRID</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H220" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="221">
       <x:c r="A221" t="inlineStr">
         <x:is>
-          <x:t>25/5582</x:t>
+          <x:t>25/5547</x:t>
         </x:is>
       </x:c>
       <x:c r="B221" t="inlineStr">
         <x:is>
-          <x:t>COMT0112</x:t>
+          <x:t>COMV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C221" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE GESTIÓN DEL PEQUEÑO COMERCIO</x:t>
+          <x:t>ACTIVIDADES DE VENTA</x:t>
         </x:is>
       </x:c>
       <x:c r="D221" s="1" t="n">
@@ -7439,31 +7439,31 @@
       </x:c>
       <x:c r="G221" t="inlineStr">
         <x:is>
-          <x:t>KNOWLEDGE INNOVATION WORKS, S.L.</x:t>
+          <x:t>CONECTANDO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="222">
       <x:c r="A222" t="inlineStr">
         <x:is>
-          <x:t>25/5595</x:t>
+          <x:t>25/5582</x:t>
         </x:is>
       </x:c>
       <x:c r="B222" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>COMT0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C222" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ACTIVIDADES DE GESTIÓN DEL PEQUEÑO COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D222" s="1" t="n">
         <x:v>46070.9583333333</x:v>
       </x:c>
       <x:c r="E222" s="2" t="n">
-        <x:v>46161.9166666667</x:v>
+        <x:v>46202.9166666667</x:v>
       </x:c>
       <x:c r="F222" t="inlineStr">
         <x:is>
@@ -7472,36 +7472,31 @@
       </x:c>
       <x:c r="G222" t="inlineStr">
         <x:is>
-          <x:t>Centro de Estudios Froebel, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H222" t="inlineStr">
-        <x:is>
-          <x:t>Torrejón de Ardoz</x:t>
+          <x:t>KNOWLEDGE INNOVATION WORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="223">
       <x:c r="A223" t="inlineStr">
         <x:is>
-          <x:t>23/8325</x:t>
+          <x:t>25/5595</x:t>
         </x:is>
       </x:c>
       <x:c r="B223" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C223" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="D223" s="1" t="n">
-        <x:v>46069.9583333333</x:v>
+        <x:v>46070.9583333333</x:v>
       </x:c>
       <x:c r="E223" s="2" t="n">
-        <x:v>46210.9166666667</x:v>
+        <x:v>46161.9166666667</x:v>
       </x:c>
       <x:c r="F223" t="inlineStr">
         <x:is>
@@ -7510,31 +7505,36 @@
       </x:c>
       <x:c r="G223" t="inlineStr">
         <x:is>
-          <x:t>CONECTANDO LOCAL, S.L.</x:t>
+          <x:t>Centro de Estudios Froebel, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H223" t="inlineStr">
+        <x:is>
+          <x:t>Torrejón de Ardoz</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="224">
       <x:c r="A224" t="inlineStr">
         <x:is>
-          <x:t>25/5028</x:t>
+          <x:t>23/8325</x:t>
         </x:is>
       </x:c>
       <x:c r="B224" t="inlineStr">
         <x:is>
-          <x:t>ARGN0210</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C224" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D224" s="1" t="n">
         <x:v>46069.9583333333</x:v>
       </x:c>
       <x:c r="E224" s="2" t="n">
-        <x:v>46196.9166666667</x:v>
+        <x:v>46210.9166666667</x:v>
       </x:c>
       <x:c r="F224" t="inlineStr">
         <x:is>
@@ -7543,31 +7543,31 @@
       </x:c>
       <x:c r="G224" t="inlineStr">
         <x:is>
-          <x:t>MASERCISA S.A.UNIPERSONAL</x:t>
+          <x:t>CONECTANDO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="225">
       <x:c r="A225" t="inlineStr">
         <x:is>
-          <x:t>25/5356</x:t>
+          <x:t>25/5028</x:t>
         </x:is>
       </x:c>
       <x:c r="B225" t="inlineStr">
         <x:is>
-          <x:t>IMAR0109</x:t>
+          <x:t>ARGN0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C225" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
+          <x:t>ASISTENCIA A LA EDICIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D225" s="1" t="n">
         <x:v>46069.9583333333</x:v>
       </x:c>
       <x:c r="E225" s="2" t="n">
-        <x:v>46201.9166666667</x:v>
+        <x:v>46196.9166666667</x:v>
       </x:c>
       <x:c r="F225" t="inlineStr">
         <x:is>
@@ -7576,36 +7576,31 @@
       </x:c>
       <x:c r="G225" t="inlineStr">
         <x:is>
-          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H225" t="inlineStr">
-        <x:is>
-          <x:t>Fuenlabrada</x:t>
+          <x:t>MASERCISA S.A.UNIPERSONAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="226">
       <x:c r="A226" t="inlineStr">
         <x:is>
-          <x:t>25/5421</x:t>
+          <x:t>25/5356</x:t>
         </x:is>
       </x:c>
       <x:c r="B226" t="inlineStr">
         <x:is>
-          <x:t>HOTR0209</x:t>
+          <x:t>IMAR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C226" t="inlineStr">
         <x:is>
-          <x:t>SUMILLERÍA</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES DE CLIMATIZACIÓN Y VENTILACIÓN-EXTRACCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D226" s="1" t="n">
         <x:v>46069.9583333333</x:v>
       </x:c>
       <x:c r="E226" s="2" t="n">
-        <x:v>46204.9166666667</x:v>
+        <x:v>46201.9166666667</x:v>
       </x:c>
       <x:c r="F226" t="inlineStr">
         <x:is>
@@ -7614,31 +7609,36 @@
       </x:c>
       <x:c r="G226" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
+          <x:t>LONDON EDUCATION CENTER S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H226" t="inlineStr">
         <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>Fuenlabrada</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="227">
       <x:c r="A227" t="inlineStr">
         <x:is>
-          <x:t>25/5656</x:t>
+          <x:t>25/5421</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B227" t="inlineStr">
+        <x:is>
+          <x:t>HOTR0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C227" t="inlineStr">
         <x:is>
-          <x:t>ARREGLOS Y ADAPTACIONES DE PRENDAS Y ARTÍCULOS EN TEXTIL Y PIEL</x:t>
+          <x:t>SUMILLERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D227" s="1" t="n">
         <x:v>46069.9583333333</x:v>
       </x:c>
       <x:c r="E227" s="2" t="n">
-        <x:v>46148.9166666667</x:v>
+        <x:v>46204.9166666667</x:v>
       </x:c>
       <x:c r="F227" t="inlineStr">
         <x:is>
@@ -7647,36 +7647,31 @@
       </x:c>
       <x:c r="G227" t="inlineStr">
         <x:is>
-          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H227" t="inlineStr">
         <x:is>
-          <x:t>Alcala de Henares</x:t>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="228">
       <x:c r="A228" t="inlineStr">
         <x:is>
-          <x:t>23/8313</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B228" t="inlineStr">
-        <x:is>
-          <x:t>EOCB0208</x:t>
+          <x:t>25/5656</x:t>
         </x:is>
       </x:c>
       <x:c r="C228" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
+          <x:t>ARREGLOS Y ADAPTACIONES DE PRENDAS Y ARTÍCULOS EN TEXTIL Y PIEL</x:t>
         </x:is>
       </x:c>
       <x:c r="D228" s="1" t="n">
-        <x:v>46068.9583333333</x:v>
+        <x:v>46069.9583333333</x:v>
       </x:c>
       <x:c r="E228" s="2" t="n">
-        <x:v>46149.9166666667</x:v>
+        <x:v>46148.9166666667</x:v>
       </x:c>
       <x:c r="F228" t="inlineStr">
         <x:is>
@@ -7685,26 +7680,36 @@
       </x:c>
       <x:c r="G228" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H228" t="inlineStr">
+        <x:is>
+          <x:t>Alcala de Henares</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="229">
       <x:c r="A229" t="inlineStr">
         <x:is>
-          <x:t>25/9530</x:t>
+          <x:t>23/8313</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B229" t="inlineStr">
+        <x:is>
+          <x:t>EOCB0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C229" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+          <x:t>OPERACIONES AUXILIARES DE ALBAÑILERÍA DE FÁBRICAS Y CUBIERTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D229" s="1" t="n">
         <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E229" s="2" t="n">
-        <x:v>46203.9166666667</x:v>
+        <x:v>46149.9166666667</x:v>
       </x:c>
       <x:c r="F229" t="inlineStr">
         <x:is>
@@ -7713,36 +7718,26 @@
       </x:c>
       <x:c r="G229" t="inlineStr">
         <x:is>
-          <x:t>DETUATUFORMACION S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H229" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="230">
       <x:c r="A230" t="inlineStr">
         <x:is>
-          <x:t>25/4949</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B230" t="inlineStr">
-        <x:is>
-          <x:t>ADGD0110</x:t>
+          <x:t>25/9530</x:t>
         </x:is>
       </x:c>
       <x:c r="C230" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA EN LA GESTIÓN DE LOS PROCEDIMIENTOS TRIBUTARIOS</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D230" s="1" t="n">
         <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E230" s="2" t="n">
-        <x:v>46231.9166666667</x:v>
+        <x:v>46203.9166666667</x:v>
       </x:c>
       <x:c r="F230" t="inlineStr">
         <x:is>
@@ -7751,14 +7746,19 @@
       </x:c>
       <x:c r="G230" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>DETUATUFORMACION S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H230" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="231">
       <x:c r="A231" t="inlineStr">
         <x:is>
-          <x:t>25/5026</x:t>
+          <x:t>25/4949</x:t>
         </x:is>
       </x:c>
       <x:c r="B231" t="inlineStr">
@@ -7775,7 +7775,7 @@
         <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E231" s="2" t="n">
-        <x:v>46232.9166666667</x:v>
+        <x:v>46231.9166666667</x:v>
       </x:c>
       <x:c r="F231" t="inlineStr">
         <x:is>
@@ -7784,31 +7784,31 @@
       </x:c>
       <x:c r="G231" t="inlineStr">
         <x:is>
-          <x:t>MASERCISA S.A.UNIPERSONAL</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="232">
       <x:c r="A232" t="inlineStr">
         <x:is>
-          <x:t>25/5027</x:t>
+          <x:t>25/5026</x:t>
         </x:is>
       </x:c>
       <x:c r="B232" t="inlineStr">
         <x:is>
-          <x:t>ADGN0108</x:t>
+          <x:t>ADGD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C232" t="inlineStr">
         <x:is>
-          <x:t>FINANCIACIÓN DE EMPRESAS</x:t>
+          <x:t>ASISTENCIA EN LA GESTIÓN DE LOS PROCEDIMIENTOS TRIBUTARIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D232" s="1" t="n">
         <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E232" s="2" t="n">
-        <x:v>46209.9166666667</x:v>
+        <x:v>46232.9166666667</x:v>
       </x:c>
       <x:c r="F232" t="inlineStr">
         <x:is>
@@ -7824,24 +7824,24 @@
     <x:row r="233">
       <x:c r="A233" t="inlineStr">
         <x:is>
-          <x:t>25/5093</x:t>
+          <x:t>25/5027</x:t>
         </x:is>
       </x:c>
       <x:c r="B233" t="inlineStr">
         <x:is>
-          <x:t>IFCD0210</x:t>
+          <x:t>ADGN0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C233" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍAS WEB</x:t>
+          <x:t>FINANCIACIÓN DE EMPRESAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D233" s="1" t="n">
         <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E233" s="2" t="n">
-        <x:v>46190.9166666667</x:v>
+        <x:v>46209.9166666667</x:v>
       </x:c>
       <x:c r="F233" t="inlineStr">
         <x:is>
@@ -7850,36 +7850,31 @@
       </x:c>
       <x:c r="G233" t="inlineStr">
         <x:is>
-          <x:t>MARSDIGITAL, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H233" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>MASERCISA S.A.UNIPERSONAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="234">
       <x:c r="A234" t="inlineStr">
         <x:is>
-          <x:t>25/5290</x:t>
+          <x:t>25/5093</x:t>
         </x:is>
       </x:c>
       <x:c r="B234" t="inlineStr">
         <x:is>
-          <x:t>ENAE0508</x:t>
+          <x:t>IFCD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C234" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D234" s="1" t="n">
         <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E234" s="2" t="n">
-        <x:v>46210.9166666667</x:v>
+        <x:v>46190.9166666667</x:v>
       </x:c>
       <x:c r="F234" t="inlineStr">
         <x:is>
@@ -7888,31 +7883,36 @@
       </x:c>
       <x:c r="G234" t="inlineStr">
         <x:is>
-          <x:t>ELWE SISTEMAS DE ENSEÑANZA S.L.</x:t>
+          <x:t>MARSDIGITAL, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H234" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="235">
       <x:c r="A235" t="inlineStr">
         <x:is>
-          <x:t>25/5342</x:t>
+          <x:t>25/5290</x:t>
         </x:is>
       </x:c>
       <x:c r="B235" t="inlineStr">
         <x:is>
-          <x:t>IMSV0408</x:t>
+          <x:t>ENAE0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C235" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA DIRECCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D235" s="1" t="n">
         <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E235" s="2" t="n">
-        <x:v>46191.9166666667</x:v>
+        <x:v>46210.9166666667</x:v>
       </x:c>
       <x:c r="F235" t="inlineStr">
         <x:is>
@@ -7921,31 +7921,31 @@
       </x:c>
       <x:c r="G235" t="inlineStr">
         <x:is>
-          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H235" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ELWE SISTEMAS DE ENSEÑANZA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="236">
       <x:c r="A236" t="inlineStr">
         <x:is>
-          <x:t>25/5376</x:t>
+          <x:t>25/5342</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B236" t="inlineStr">
+        <x:is>
+          <x:t>IMSV0408</x:t>
         </x:is>
       </x:c>
       <x:c r="C236" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
+          <x:t>ASISTENCIA A LA DIRECCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D236" s="1" t="n">
         <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E236" s="2" t="n">
-        <x:v>46209.9166666667</x:v>
+        <x:v>46191.9166666667</x:v>
       </x:c>
       <x:c r="F236" t="inlineStr">
         <x:is>
@@ -7954,31 +7954,31 @@
       </x:c>
       <x:c r="G236" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H236" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="237">
       <x:c r="A237" t="inlineStr">
         <x:is>
-          <x:t>25/5902</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B237" t="inlineStr">
-        <x:is>
-          <x:t>ENAE0108</x:t>
+          <x:t>25/5376</x:t>
         </x:is>
       </x:c>
       <x:c r="C237" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
+          <x:t>ASISTENCIA DOCUMENTAL Y DE GESTIÓN EN DESPACHOS Y OFICINAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D237" s="1" t="n">
         <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E237" s="2" t="n">
-        <x:v>46194.9166666667</x:v>
+        <x:v>46209.9166666667</x:v>
       </x:c>
       <x:c r="F237" t="inlineStr">
         <x:is>
@@ -7987,31 +7987,31 @@
       </x:c>
       <x:c r="G237" t="inlineStr">
         <x:is>
-          <x:t>INSTITUCION PROFESIONAL SALESIANA SALESIANOS INSPECTORIA DE SAN JUAN BOSCO</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="238">
       <x:c r="A238" t="inlineStr">
         <x:is>
-          <x:t>25/8085</x:t>
+          <x:t>25/5902</x:t>
         </x:is>
       </x:c>
       <x:c r="B238" t="inlineStr">
         <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>ENAE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C238" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES SOLARES FOTOVOLTAICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D238" s="1" t="n">
         <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E238" s="2" t="n">
-        <x:v>46170.9166666667</x:v>
+        <x:v>46194.9166666667</x:v>
       </x:c>
       <x:c r="F238" t="inlineStr">
         <x:is>
@@ -8020,31 +8020,31 @@
       </x:c>
       <x:c r="G238" t="inlineStr">
         <x:is>
-          <x:t>ENTE PUBLICO EMPRESARIAL ALCALA DESARROLLO</x:t>
+          <x:t>INSTITUCION PROFESIONAL SALESIANA SALESIANOS INSPECTORIA DE SAN JUAN BOSCO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="239">
       <x:c r="A239" t="inlineStr">
         <x:is>
-          <x:t>23/8205</x:t>
+          <x:t>25/8085</x:t>
         </x:is>
       </x:c>
       <x:c r="B239" t="inlineStr">
         <x:is>
-          <x:t>SSCE0110</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C239" t="inlineStr">
         <x:is>
-          <x:t>HABILITACIÓN PARA LA DOCENCIA EN GRADOS A, B Y C DEL SISTEMA DE FORMACIÓN PROFESIONAL</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D239" s="1" t="n">
-        <x:v>46065.9583333333</x:v>
+        <x:v>46068.9583333333</x:v>
       </x:c>
       <x:c r="E239" s="2" t="n">
-        <x:v>46152.9166666667</x:v>
+        <x:v>46170.9166666667</x:v>
       </x:c>
       <x:c r="F239" t="inlineStr">
         <x:is>
@@ -8053,31 +8053,25 @@
       </x:c>
       <x:c r="G239" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>ENTE PUBLICO EMPRESARIAL ALCALA DESARROLLO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="240">
       <x:c r="A240" t="inlineStr">
         <x:is>
-          <x:t>25/5340</x:t>
+          <x:t>22/2139</x:t>
         </x:is>
       </x:c>
       <x:c r="B240" t="inlineStr">
         <x:is>
-          <x:t>IMSV0208</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C240" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN EN TELEVISIÓN</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D240" s="1" t="n">
-        <x:v>46065.9583333333</x:v>
-      </x:c>
-      <x:c r="E240" s="2" t="n">
-        <x:v>46182.9166666667</x:v>
+          <x:t>ATENCION SOCIOSANITARIA A PERSONAS EN DOMICILIO</x:t>
+        </x:is>
       </x:c>
       <x:c r="F240" t="inlineStr">
         <x:is>
@@ -8086,19 +8080,19 @@
       </x:c>
       <x:c r="G240" t="inlineStr">
         <x:is>
-          <x:t>ONDAS ESCOLARES Y UNIVERSITARIAS .S.L.</x:t>
+          <x:t>AYUNTAMIENTO DE VALDEMORO</x:t>
         </x:is>
       </x:c>
       <x:c r="H240" t="inlineStr">
         <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>VALDEMORO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="241">
       <x:c r="A241" t="inlineStr">
         <x:is>
-          <x:t>25/5880</x:t>
+          <x:t>22/2140</x:t>
         </x:is>
       </x:c>
       <x:c r="B241" t="inlineStr">
@@ -8108,14 +8102,8 @@
       </x:c>
       <x:c r="C241" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D241" s="1" t="n">
-        <x:v>46065.9583333333</x:v>
-      </x:c>
-      <x:c r="E241" s="2" t="n">
-        <x:v>46202.9166666667</x:v>
+          <x:t>ATENCIO SOCIOSANITARIA A PERSONAS DEPENDIENTES EN INSTITUCIONES SOCIALES</x:t>
+        </x:is>
       </x:c>
       <x:c r="F241" t="inlineStr">
         <x:is>
@@ -8124,7 +8112,12 @@
       </x:c>
       <x:c r="G241" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>AYUNTAMIENTO DE VALDEMORO</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H241" t="inlineStr">
+        <x:is>
+          <x:t>VALDEMORO</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -69258,7 +69251,12 @@
       </x:c>
       <x:c r="G2418" t="inlineStr">
         <x:is>
-          <x:t>GREDOS SAN DIEGO S COOP MAD.</x:t>
+          <x:t>GREDOS SAN DIEGO BUITRAGO</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H2418" t="inlineStr">
+        <x:is>
+          <x:t>BUITRAGO DEL LOZOYA</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -77811,12 +77809,12 @@
     <x:row r="2732">
       <x:c r="A2732" t="inlineStr">
         <x:is>
-          <x:t>25/9012</x:t>
+          <x:t>25/9014</x:t>
         </x:is>
       </x:c>
       <x:c r="C2732" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
+          <x:t>GESTIÓN DE MARKETING Y COMUNICACIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="F2732" t="inlineStr">
@@ -77826,24 +77824,24 @@
       </x:c>
       <x:c r="G2732" t="inlineStr">
         <x:is>
-          <x:t>AUTOESCUELA GALA</x:t>
+          <x:t>PLATO SUR</x:t>
         </x:is>
       </x:c>
       <x:c r="H2732" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="2733">
       <x:c r="A2733" t="inlineStr">
         <x:is>
-          <x:t>25/9014</x:t>
+          <x:t>25/9017</x:t>
         </x:is>
       </x:c>
       <x:c r="C2733" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE MARKETING Y COMUNICACIÓN</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F2733" t="inlineStr">
@@ -77853,24 +77851,24 @@
       </x:c>
       <x:c r="G2733" t="inlineStr">
         <x:is>
-          <x:t>PLATO SUR</x:t>
+          <x:t>KIWORKS-CAMPUS FP MÓSTOLES</x:t>
         </x:is>
       </x:c>
       <x:c r="H2733" t="inlineStr">
         <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="2734">
       <x:c r="A2734" t="inlineStr">
         <x:is>
-          <x:t>25/9017</x:t>
+          <x:t>25/9018</x:t>
         </x:is>
       </x:c>
       <x:c r="C2734" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>DESARROLLO DE APLICACIONES WEB BACK-END</x:t>
         </x:is>
       </x:c>
       <x:c r="F2734" t="inlineStr">
@@ -77892,12 +77890,12 @@
     <x:row r="2735">
       <x:c r="A2735" t="inlineStr">
         <x:is>
-          <x:t>25/9018</x:t>
+          <x:t>25/9019</x:t>
         </x:is>
       </x:c>
       <x:c r="C2735" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE APLICACIONES WEB BACK-END</x:t>
+          <x:t>GESTIÓN COMERCIAL DE VENTAS</x:t>
         </x:is>
       </x:c>
       <x:c r="F2735" t="inlineStr">
@@ -77907,24 +77905,24 @@
       </x:c>
       <x:c r="G2735" t="inlineStr">
         <x:is>
-          <x:t>KIWORKS-CAMPUS FP MÓSTOLES</x:t>
+          <x:t>CES-CENTRO GARCÍA LORCA</x:t>
         </x:is>
       </x:c>
       <x:c r="H2735" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="2736">
       <x:c r="A2736" t="inlineStr">
         <x:is>
-          <x:t>25/9019</x:t>
+          <x:t>25/9020</x:t>
         </x:is>
       </x:c>
       <x:c r="C2736" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN COMERCIAL DE VENTAS</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="F2736" t="inlineStr">
@@ -77934,7 +77932,7 @@
       </x:c>
       <x:c r="G2736" t="inlineStr">
         <x:is>
-          <x:t>CES-CENTRO GARCÍA LORCA</x:t>
+          <x:t>CAMPUS FP VISTA ALEGRE</x:t>
         </x:is>
       </x:c>
       <x:c r="H2736" t="inlineStr">
@@ -77946,12 +77944,12 @@
     <x:row r="2737">
       <x:c r="A2737" t="inlineStr">
         <x:is>
-          <x:t>25/9020</x:t>
+          <x:t>25/9021</x:t>
         </x:is>
       </x:c>
       <x:c r="C2737" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>GESTIÓN CONTABLE, FINANCIERA Y FISCAL</x:t>
         </x:is>
       </x:c>
       <x:c r="F2737" t="inlineStr">
@@ -77961,19 +77959,19 @@
       </x:c>
       <x:c r="G2737" t="inlineStr">
         <x:is>
-          <x:t>CAMPUS FP VISTA ALEGRE</x:t>
+          <x:t>CENES</x:t>
         </x:is>
       </x:c>
       <x:c r="H2737" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>GETAFE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="2738">
       <x:c r="A2738" t="inlineStr">
         <x:is>
-          <x:t>25/9021</x:t>
+          <x:t>25/9022</x:t>
         </x:is>
       </x:c>
       <x:c r="C2738" t="inlineStr">
@@ -78000,12 +77998,12 @@
     <x:row r="2739">
       <x:c r="A2739" t="inlineStr">
         <x:is>
-          <x:t>25/9022</x:t>
+          <x:t>25/9029</x:t>
         </x:is>
       </x:c>
       <x:c r="C2739" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN CONTABLE, FINANCIERA Y FISCAL</x:t>
+          <x:t>COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="F2739" t="inlineStr">
@@ -78015,19 +78013,19 @@
       </x:c>
       <x:c r="G2739" t="inlineStr">
         <x:is>
-          <x:t>CENES</x:t>
+          <x:t>ESPACIO MUJER. FORMACIÓN Y EMPLEO</x:t>
         </x:is>
       </x:c>
       <x:c r="H2739" t="inlineStr">
         <x:is>
-          <x:t>GETAFE</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="2740">
       <x:c r="A2740" t="inlineStr">
         <x:is>
-          <x:t>25/9029</x:t>
+          <x:t>25/9030</x:t>
         </x:is>
       </x:c>
       <x:c r="C2740" t="inlineStr">
@@ -78054,12 +78052,12 @@
     <x:row r="2741">
       <x:c r="A2741" t="inlineStr">
         <x:is>
-          <x:t>25/9030</x:t>
+          <x:t>25/9032</x:t>
         </x:is>
       </x:c>
       <x:c r="C2741" t="inlineStr">
         <x:is>
-          <x:t>COCINA</x:t>
+          <x:t>ATENCIÓN AL CLIENTE, CONSUMIDOR O USUARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="F2741" t="inlineStr">
@@ -78068,33 +78066,6 @@
         </x:is>
       </x:c>
       <x:c r="G2741" t="inlineStr">
-        <x:is>
-          <x:t>ESPACIO MUJER. FORMACIÓN Y EMPLEO</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H2741" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row r="2742">
-      <x:c r="A2742" t="inlineStr">
-        <x:is>
-          <x:t>25/9032</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C2742" t="inlineStr">
-        <x:is>
-          <x:t>ATENCIÓN AL CLIENTE, CONSUMIDOR O USUARIO</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F2742" t="inlineStr">
-        <x:is>
-          <x:t>Presencial</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="G2742" t="inlineStr">
         <x:is>
           <x:t>NASCOR FORMACION SLU</x:t>
         </x:is>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rf9d5af70b52b4d3f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R5fc9e7c826e54037"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1870,19 +1870,24 @@
     <x:row r="56">
       <x:c r="A56" t="inlineStr">
         <x:is>
-          <x:t>25/5655</x:t>
+          <x:t>25/5686</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B56" t="inlineStr">
+        <x:is>
+          <x:t>SANP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C56" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE EQUIPOS ELECTRÓNICOS</x:t>
+          <x:t>TANATOPRAXIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D56" s="1" t="n">
-        <x:v>46174.9166666667</x:v>
+        <x:v>46176.9166666667</x:v>
       </x:c>
       <x:c r="E56" s="2" t="n">
-        <x:v>46329.9583333333</x:v>
+        <x:v>46350.9583333333</x:v>
       </x:c>
       <x:c r="F56" t="inlineStr">
         <x:is>
@@ -1891,36 +1896,26 @@
       </x:c>
       <x:c r="G56" t="inlineStr">
         <x:is>
-          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H56" t="inlineStr">
-        <x:is>
-          <x:t>Alcala de Henares</x:t>
+          <x:t>UNION FUNERAL SERVICIOS INTEGRALES, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="57">
       <x:c r="A57" t="inlineStr">
         <x:is>
-          <x:t>25/5686</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B57" t="inlineStr">
-        <x:is>
-          <x:t>SANP0108</x:t>
+          <x:t>25/5655</x:t>
         </x:is>
       </x:c>
       <x:c r="C57" t="inlineStr">
         <x:is>
-          <x:t>TANATOPRAXIA</x:t>
+          <x:t>MANTENIMIENTO DE EQUIPOS ELECTRÓNICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D57" s="1" t="n">
         <x:v>46174.9166666667</x:v>
       </x:c>
       <x:c r="E57" s="2" t="n">
-        <x:v>46321.9583333333</x:v>
+        <x:v>46329.9583333333</x:v>
       </x:c>
       <x:c r="F57" t="inlineStr">
         <x:is>
@@ -1929,7 +1924,12 @@
       </x:c>
       <x:c r="G57" t="inlineStr">
         <x:is>
-          <x:t>UNION FUNERAL SERVICIOS INTEGRALES, S.L.</x:t>
+          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H57" t="inlineStr">
+        <x:is>
+          <x:t>Alcala de Henares</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -2261,24 +2261,24 @@
     <x:row r="68">
       <x:c r="A68" t="inlineStr">
         <x:is>
-          <x:t>25/5977</x:t>
+          <x:t>25/5685</x:t>
         </x:is>
       </x:c>
       <x:c r="B68" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>SANP0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C68" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>TANATOPRAXIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D68" s="1" t="n">
         <x:v>46160.9166666667</x:v>
       </x:c>
       <x:c r="E68" s="2" t="n">
-        <x:v>46322.9583333333</x:v>
+        <x:v>46301.9166666667</x:v>
       </x:c>
       <x:c r="F68" t="inlineStr">
         <x:is>
@@ -2287,28 +2287,31 @@
       </x:c>
       <x:c r="G68" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>UNION FUNERAL SERVICIOS INTEGRALES, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="69">
       <x:c r="A69" t="inlineStr">
         <x:is>
-          <x:t>25/8084</x:t>
+          <x:t>25/5977</x:t>
         </x:is>
       </x:c>
       <x:c r="B69" t="inlineStr">
         <x:is>
-          <x:t>EOCB0109</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C69" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE REVESTIMIENTOS CONTINUOS EN CONSTRUCCIÓN</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D69" s="1" t="n">
-        <x:v>46159.9166666667</x:v>
+        <x:v>46160.9166666667</x:v>
+      </x:c>
+      <x:c r="E69" s="2" t="n">
+        <x:v>46322.9583333333</x:v>
       </x:c>
       <x:c r="F69" t="inlineStr">
         <x:is>
@@ -2317,31 +2320,28 @@
       </x:c>
       <x:c r="G69" t="inlineStr">
         <x:is>
-          <x:t>ENTE PUBLICO EMPRESARIAL ALCALA DESARROLLO</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="70">
       <x:c r="A70" t="inlineStr">
         <x:is>
-          <x:t>23/8009</x:t>
+          <x:t>25/8084</x:t>
         </x:is>
       </x:c>
       <x:c r="B70" t="inlineStr">
         <x:is>
-          <x:t>HOTT0112</x:t>
+          <x:t>EOCB0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C70" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN A PASAJEROS EN TRANSPORTE FERROVIARIO</x:t>
+          <x:t>OPERACIONES AUXILIARES DE REVESTIMIENTOS CONTINUOS EN CONSTRUCCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D70" s="1" t="n">
-        <x:v>46155.9166666667</x:v>
-      </x:c>
-      <x:c r="E70" s="2" t="n">
-        <x:v>46295.9166666667</x:v>
+        <x:v>46159.9166666667</x:v>
       </x:c>
       <x:c r="F70" t="inlineStr">
         <x:is>
@@ -2350,31 +2350,31 @@
       </x:c>
       <x:c r="G70" t="inlineStr">
         <x:is>
-          <x:t>BAI FORMACIÓN SA</x:t>
+          <x:t>ENTE PUBLICO EMPRESARIAL ALCALA DESARROLLO</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="71">
       <x:c r="A71" t="inlineStr">
         <x:is>
-          <x:t>25/5685</x:t>
+          <x:t>23/8009</x:t>
         </x:is>
       </x:c>
       <x:c r="B71" t="inlineStr">
         <x:is>
-          <x:t>SANP0108</x:t>
+          <x:t>HOTT0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C71" t="inlineStr">
         <x:is>
-          <x:t>TANATOPRAXIA</x:t>
+          <x:t>ATENCIÓN A PASAJEROS EN TRANSPORTE FERROVIARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D71" s="1" t="n">
-        <x:v>46154.9166666667</x:v>
+        <x:v>46155.9166666667</x:v>
       </x:c>
       <x:c r="E71" s="2" t="n">
-        <x:v>46289.9166666667</x:v>
+        <x:v>46295.9166666667</x:v>
       </x:c>
       <x:c r="F71" t="inlineStr">
         <x:is>
@@ -2383,7 +2383,7 @@
       </x:c>
       <x:c r="G71" t="inlineStr">
         <x:is>
-          <x:t>UNION FUNERAL SERVICIOS INTEGRALES, S.L.</x:t>
+          <x:t>BAI FORMACIÓN SA</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R8bc2d208988446a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R921e70ad1b8f43c2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Rbfe854dbceb64c92"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="Re820224f03454946"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -5576,24 +5576,24 @@
     <x:row r="165">
       <x:c r="A165" t="inlineStr">
         <x:is>
-          <x:t>25/5639</x:t>
+          <x:t>25/5629</x:t>
         </x:is>
       </x:c>
       <x:c r="B165" t="inlineStr">
         <x:is>
-          <x:t>COML0111</x:t>
+          <x:t>ENAS0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C165" t="inlineStr">
         <x:is>
-          <x:t>TRÁFICO DE VIAJEROS POR CARRETERA</x:t>
+          <x:t>MONTAJE, PUESTA EN SERVICIO, MANTENIMIENTO, INSPECCIÓN Y REVISIÓN DE INSTALACIONES RECEPTORAS Y APARATOS DE GAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D165" s="1" t="n">
         <x:v>46098.9583333333</x:v>
       </x:c>
       <x:c r="E165" s="2" t="n">
-        <x:v>46198.9166666667</x:v>
+        <x:v>46156.9166666667</x:v>
       </x:c>
       <x:c r="F165" t="inlineStr">
         <x:is>
@@ -5602,31 +5602,31 @@
       </x:c>
       <x:c r="G165" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN ZARZAQUEMADA S.L.</x:t>
+          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="166">
       <x:c r="A166" t="inlineStr">
         <x:is>
-          <x:t>25/5833</x:t>
+          <x:t>25/5639</x:t>
         </x:is>
       </x:c>
       <x:c r="B166" t="inlineStr">
         <x:is>
-          <x:t>AGAJ0109</x:t>
+          <x:t>COML0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C166" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y MANTENIMIENTO DE ÁRBOLES Y PALMERAS ORNAMENTALES</x:t>
+          <x:t>TRÁFICO DE VIAJEROS POR CARRETERA</x:t>
         </x:is>
       </x:c>
       <x:c r="D166" s="1" t="n">
         <x:v>46098.9583333333</x:v>
       </x:c>
       <x:c r="E166" s="2" t="n">
-        <x:v>46195.9166666667</x:v>
+        <x:v>46198.9166666667</x:v>
       </x:c>
       <x:c r="F166" t="inlineStr">
         <x:is>
@@ -5635,31 +5635,31 @@
       </x:c>
       <x:c r="G166" t="inlineStr">
         <x:is>
-          <x:t>ARACOVE</x:t>
+          <x:t>CENTRO DE FORMACIÓN ZARZAQUEMADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="167">
       <x:c r="A167" t="inlineStr">
         <x:is>
-          <x:t>23/8315</x:t>
+          <x:t>25/5833</x:t>
         </x:is>
       </x:c>
       <x:c r="B167" t="inlineStr">
         <x:is>
-          <x:t>SSCI0109</x:t>
+          <x:t>AGAJ0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C167" t="inlineStr">
         <x:is>
-          <x:t>EMPLEO DOMÉSTICO</x:t>
+          <x:t>GESTIÓN Y MANTENIMIENTO DE ÁRBOLES Y PALMERAS ORNAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D167" s="1" t="n">
-        <x:v>46097.9583333333</x:v>
+        <x:v>46098.9583333333</x:v>
       </x:c>
       <x:c r="E167" s="2" t="n">
-        <x:v>46132.9166666667</x:v>
+        <x:v>46195.9166666667</x:v>
       </x:c>
       <x:c r="F167" t="inlineStr">
         <x:is>
@@ -5668,31 +5668,31 @@
       </x:c>
       <x:c r="G167" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>ARACOVE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="168">
       <x:c r="A168" t="inlineStr">
         <x:is>
-          <x:t>23/8387</x:t>
+          <x:t>23/8315</x:t>
         </x:is>
       </x:c>
       <x:c r="B168" t="inlineStr">
         <x:is>
-          <x:t>SSCE0111</x:t>
+          <x:t>SSCI0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C168" t="inlineStr">
         <x:is>
-          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
+          <x:t>EMPLEO DOMÉSTICO</x:t>
         </x:is>
       </x:c>
       <x:c r="D168" s="1" t="n">
         <x:v>46097.9583333333</x:v>
       </x:c>
       <x:c r="E168" s="2" t="n">
-        <x:v>46233.9583333333</x:v>
+        <x:v>46132.9166666667</x:v>
       </x:c>
       <x:c r="F168" t="inlineStr">
         <x:is>
@@ -5701,31 +5701,31 @@
       </x:c>
       <x:c r="G168" t="inlineStr">
         <x:is>
-          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="169">
       <x:c r="A169" t="inlineStr">
         <x:is>
-          <x:t>25/5093</x:t>
+          <x:t>23/8387</x:t>
         </x:is>
       </x:c>
       <x:c r="B169" t="inlineStr">
         <x:is>
-          <x:t>IFCD0210</x:t>
+          <x:t>SSCE0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C169" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍAS WEB</x:t>
+          <x:t>PROMOCIÓN E INTERVENCIÓN SOCIOEDUCATIVA CON PERSONAS CON DISCAPACIDAD</x:t>
         </x:is>
       </x:c>
       <x:c r="D169" s="1" t="n">
         <x:v>46097.9583333333</x:v>
       </x:c>
       <x:c r="E169" s="2" t="n">
-        <x:v>46201.9166666667</x:v>
+        <x:v>46233.9583333333</x:v>
       </x:c>
       <x:c r="F169" t="inlineStr">
         <x:is>
@@ -5734,36 +5734,31 @@
       </x:c>
       <x:c r="G169" t="inlineStr">
         <x:is>
-          <x:t>MARSDIGITAL, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H169" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="170">
       <x:c r="A170" t="inlineStr">
         <x:is>
-          <x:t>25/5491</x:t>
+          <x:t>25/5093</x:t>
         </x:is>
       </x:c>
       <x:c r="B170" t="inlineStr">
         <x:is>
-          <x:t>IMPE0108</x:t>
+          <x:t>IFCD0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C170" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D170" s="1" t="n">
         <x:v>46097.9583333333</x:v>
       </x:c>
       <x:c r="E170" s="2" t="n">
-        <x:v>46184.9166666667</x:v>
+        <x:v>46201.9166666667</x:v>
       </x:c>
       <x:c r="F170" t="inlineStr">
         <x:is>
@@ -5772,36 +5767,36 @@
       </x:c>
       <x:c r="G170" t="inlineStr">
         <x:is>
-          <x:t>FORMAJOBS S.L.</x:t>
+          <x:t>MARSDIGITAL, S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H170" t="inlineStr">
         <x:is>
-          <x:t>Leganés</x:t>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="171">
       <x:c r="A171" t="inlineStr">
         <x:is>
-          <x:t>25/5720</x:t>
+          <x:t>25/5491</x:t>
         </x:is>
       </x:c>
       <x:c r="B171" t="inlineStr">
         <x:is>
-          <x:t>ELEE0110</x:t>
+          <x:t>IMPE0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C171" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
+          <x:t>SERVICIOS AUXILIARES DE ESTÉTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D171" s="1" t="n">
         <x:v>46097.9583333333</x:v>
       </x:c>
       <x:c r="E171" s="2" t="n">
-        <x:v>46212.9583333333</x:v>
+        <x:v>46184.9166666667</x:v>
       </x:c>
       <x:c r="F171" t="inlineStr">
         <x:is>
@@ -5810,26 +5805,36 @@
       </x:c>
       <x:c r="G171" t="inlineStr">
         <x:is>
-          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
+          <x:t>FORMAJOBS S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H171" t="inlineStr">
+        <x:is>
+          <x:t>Leganés</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="172">
       <x:c r="A172" t="inlineStr">
         <x:is>
-          <x:t>25/9012</x:t>
+          <x:t>25/5720</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B172" t="inlineStr">
+        <x:is>
+          <x:t>ELEE0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C172" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES ELÉCTRICAS EN EL ENTORNO DE EDIFICIOS Y CON FINES ESPECIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D172" s="1" t="n">
         <x:v>46097.9583333333</x:v>
       </x:c>
       <x:c r="E172" s="2" t="n">
-        <x:v>46163.9166666667</x:v>
+        <x:v>46212.9583333333</x:v>
       </x:c>
       <x:c r="F172" t="inlineStr">
         <x:is>
@@ -5838,36 +5843,26 @@
       </x:c>
       <x:c r="G172" t="inlineStr">
         <x:is>
-          <x:t>Gala Formación CTM1</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H172" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="173">
       <x:c r="A173" t="inlineStr">
         <x:is>
-          <x:t>25/4950</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B173" t="inlineStr">
-        <x:is>
-          <x:t>AFDA0110</x:t>
+          <x:t>25/9012</x:t>
         </x:is>
       </x:c>
       <x:c r="C173" t="inlineStr">
         <x:is>
-          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MANTENIMIENTO EN ELECTROMECÁNICA DE VEHÍCULOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D173" s="1" t="n">
-        <x:v>46096.9583333333</x:v>
+        <x:v>46097.9583333333</x:v>
       </x:c>
       <x:c r="E173" s="2" t="n">
-        <x:v>46217.9166666667</x:v>
+        <x:v>46163.9166666667</x:v>
       </x:c>
       <x:c r="F173" t="inlineStr">
         <x:is>
@@ -5876,31 +5871,36 @@
       </x:c>
       <x:c r="G173" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>Gala Formación CTM1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H173" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="174">
       <x:c r="A174" t="inlineStr">
         <x:is>
-          <x:t>25/4965</x:t>
+          <x:t>25/4950</x:t>
         </x:is>
       </x:c>
       <x:c r="B174" t="inlineStr">
         <x:is>
-          <x:t>TMVO0111</x:t>
+          <x:t>AFDA0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C174" t="inlineStr">
         <x:is>
-          <x:t>TRIPULACIÓN DE CABINA DE PASAJEROS</x:t>
+          <x:t>ACONDICIONAMIENTO FÍSICO EN GRUPO CON SOPORTE MUSICAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D174" s="1" t="n">
         <x:v>46096.9583333333</x:v>
       </x:c>
       <x:c r="E174" s="2" t="n">
-        <x:v>46216.9166666667</x:v>
+        <x:v>46217.9166666667</x:v>
       </x:c>
       <x:c r="F174" t="inlineStr">
         <x:is>
@@ -5909,7 +5909,7 @@
       </x:c>
       <x:c r="G174" t="inlineStr">
         <x:is>
-          <x:t>BAI FORMACIÓN SA</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6015,82 +6015,87 @@
     <x:row r="178">
       <x:c r="A178" t="inlineStr">
         <x:is>
-          <x:t>25/4995</x:t>
+          <x:t>25/4965</x:t>
         </x:is>
       </x:c>
       <x:c r="B178" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>TMVO0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C178" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>TRIPULACIÓN DE CABINA DE PASAJEROS</x:t>
         </x:is>
       </x:c>
       <x:c r="D178" s="1" t="n">
         <x:v>46092.9583333333</x:v>
       </x:c>
+      <x:c r="E178" s="2" t="n">
+        <x:v>46216.9166666667</x:v>
+      </x:c>
       <x:c r="F178" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G178" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
+          <x:t>BAI FORMACIÓN SA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="179">
       <x:c r="A179" t="inlineStr">
         <x:is>
-          <x:t>25/5416</x:t>
+          <x:t>25/4995</x:t>
         </x:is>
       </x:c>
       <x:c r="B179" t="inlineStr">
         <x:is>
-          <x:t>IMPE0210</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C179" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D179" s="1" t="n">
         <x:v>46092.9583333333</x:v>
       </x:c>
-      <x:c r="E179" s="2" t="n">
-        <x:v>46231.9166666667</x:v>
-      </x:c>
       <x:c r="F179" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G179" t="inlineStr">
         <x:is>
-          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
+          <x:t>CENTRO DE ESTUDIOS ADAMS EDICIONES VALBUENA, S.A.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="180">
       <x:c r="A180" t="inlineStr">
         <x:is>
-          <x:t>25/2395</x:t>
+          <x:t>25/5416</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B180" t="inlineStr">
+        <x:is>
+          <x:t>IMPE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C180" t="inlineStr">
         <x:is>
-          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
+          <x:t>TRATAMIENTOS ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D180" s="1" t="n">
         <x:v>46092.9583333333</x:v>
       </x:c>
       <x:c r="E180" s="2" t="n">
-        <x:v>46212.9166666667</x:v>
+        <x:v>46231.9166666667</x:v>
       </x:c>
       <x:c r="F180" t="inlineStr">
         <x:is>
@@ -6099,31 +6104,31 @@
       </x:c>
       <x:c r="G180" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H180" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="181">
       <x:c r="A181" t="inlineStr">
         <x:is>
-          <x:t>25/2151</x:t>
+          <x:t>25/5549</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B181" t="inlineStr">
+        <x:is>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C181" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
+          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D181" s="1" t="n">
-        <x:v>46091.9583333333</x:v>
+        <x:v>46092.9583333333</x:v>
       </x:c>
       <x:c r="E181" s="2" t="n">
-        <x:v>46197.9166666667</x:v>
+        <x:v>46177.9166666667</x:v>
       </x:c>
       <x:c r="F181" t="inlineStr">
         <x:is>
@@ -6132,31 +6137,26 @@
       </x:c>
       <x:c r="G181" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H181" t="inlineStr">
-        <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>ADARA FORMACION, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="182">
       <x:c r="A182" t="inlineStr">
         <x:is>
-          <x:t>25/2152</x:t>
+          <x:t>25/2395</x:t>
         </x:is>
       </x:c>
       <x:c r="C182" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
+          <x:t>OPERACIÓN DE REDES DEPARTAMENTALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D182" s="1" t="n">
-        <x:v>46091.9583333333</x:v>
+        <x:v>46092.9583333333</x:v>
       </x:c>
       <x:c r="E182" s="2" t="n">
-        <x:v>46139.9166666667</x:v>
+        <x:v>46212.9166666667</x:v>
       </x:c>
       <x:c r="F182" t="inlineStr">
         <x:is>
@@ -6165,34 +6165,32 @@
       </x:c>
       <x:c r="G182" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
         </x:is>
       </x:c>
       <x:c r="H182" t="inlineStr">
         <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="183">
       <x:c r="A183" t="inlineStr">
         <x:is>
-          <x:t>25/4974</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B183" t="inlineStr">
-        <x:is>
-          <x:t>ADGG0108</x:t>
+          <x:t>25/2151</x:t>
         </x:is>
       </x:c>
       <x:c r="C183" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA DIRECCIÓN</x:t>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D183" s="1" t="n">
         <x:v>46091.9583333333</x:v>
       </x:c>
+      <x:c r="E183" s="2" t="n">
+        <x:v>46197.9166666667</x:v>
+      </x:c>
       <x:c r="F183" t="inlineStr">
         <x:is>
           <x:t>Presencial</x:t>
@@ -6200,31 +6198,31 @@
       </x:c>
       <x:c r="G183" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
         </x:is>
       </x:c>
       <x:c r="H183" t="inlineStr">
         <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="184">
       <x:c r="A184" t="inlineStr">
         <x:is>
-          <x:t>25/2361</x:t>
+          <x:t>25/2152</x:t>
         </x:is>
       </x:c>
       <x:c r="C184" t="inlineStr">
         <x:is>
-          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS - SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D184" s="1" t="n">
         <x:v>46091.9583333333</x:v>
       </x:c>
       <x:c r="E184" s="2" t="n">
-        <x:v>46215.9166666667</x:v>
+        <x:v>46139.9166666667</x:v>
       </x:c>
       <x:c r="F184" t="inlineStr">
         <x:is>
@@ -6233,31 +6231,33 @@
       </x:c>
       <x:c r="G184" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
         </x:is>
       </x:c>
       <x:c r="H184" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="185">
       <x:c r="A185" t="inlineStr">
         <x:is>
-          <x:t>25/2149</x:t>
+          <x:t>25/4974</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B185" t="inlineStr">
+        <x:is>
+          <x:t>ADGG0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C185" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>ASISTENCIA A LA DIRECCIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D185" s="1" t="n">
-        <x:v>46090.9583333333</x:v>
-      </x:c>
-      <x:c r="E185" s="2" t="n">
-        <x:v>46124.9166666667</x:v>
+        <x:v>46091.9583333333</x:v>
       </x:c>
       <x:c r="F185" t="inlineStr">
         <x:is>
@@ -6266,31 +6266,31 @@
       </x:c>
       <x:c r="G185" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
         </x:is>
       </x:c>
       <x:c r="H185" t="inlineStr">
         <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="186">
       <x:c r="A186" t="inlineStr">
         <x:is>
-          <x:t>25/2150</x:t>
+          <x:t>25/2361</x:t>
         </x:is>
       </x:c>
       <x:c r="C186" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>IMPLANTACIÓN Y GESTIÓN DE ELEMENTOS INFORMÁTICOS - SISTEMAS DOMÓTICOS E INMÓTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D186" s="1" t="n">
-        <x:v>46090.9583333333</x:v>
+        <x:v>46091.9583333333</x:v>
       </x:c>
       <x:c r="E186" s="2" t="n">
-        <x:v>46140.9166666667</x:v>
+        <x:v>46215.9166666667</x:v>
       </x:c>
       <x:c r="F186" t="inlineStr">
         <x:is>
@@ -6299,74 +6299,64 @@
       </x:c>
       <x:c r="G186" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
         </x:is>
       </x:c>
       <x:c r="H186" t="inlineStr">
         <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="187">
       <x:c r="A187" t="inlineStr">
         <x:is>
-          <x:t>25/5560</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B187" t="inlineStr">
-        <x:is>
-          <x:t>HOTR0109</x:t>
+          <x:t>25/2149</x:t>
         </x:is>
       </x:c>
       <x:c r="C187" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D187" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E187" s="2" t="n">
-        <x:v>46190.9166666667</x:v>
+        <x:v>46124.9166666667</x:v>
       </x:c>
       <x:c r="F187" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G187" t="inlineStr">
         <x:is>
-          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
         </x:is>
       </x:c>
       <x:c r="H187" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="188">
       <x:c r="A188" t="inlineStr">
         <x:is>
-          <x:t>25/5631</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B188" t="inlineStr">
-        <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>25/2150</x:t>
         </x:is>
       </x:c>
       <x:c r="C188" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D188" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E188" s="2" t="n">
-        <x:v>46201.9166666667</x:v>
+        <x:v>46140.9166666667</x:v>
       </x:c>
       <x:c r="F188" t="inlineStr">
         <x:is>
@@ -6375,64 +6365,74 @@
       </x:c>
       <x:c r="G188" t="inlineStr">
         <x:is>
-          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H188" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="189">
       <x:c r="A189" t="inlineStr">
         <x:is>
-          <x:t>25/5876</x:t>
+          <x:t>25/5560</x:t>
         </x:is>
       </x:c>
       <x:c r="B189" t="inlineStr">
         <x:is>
-          <x:t>SANT0208</x:t>
+          <x:t>HOTR0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C189" t="inlineStr">
         <x:is>
-          <x:t>TRANSPORTE SANITARIO</x:t>
+          <x:t>OPERACIONES BÁSICAS DE PASTELERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D189" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E189" s="2" t="n">
-        <x:v>46294.9166666667</x:v>
+        <x:v>46190.9166666667</x:v>
       </x:c>
       <x:c r="F189" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G189" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H189" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="190">
       <x:c r="A190" t="inlineStr">
         <x:is>
-          <x:t>25/8144</x:t>
+          <x:t>25/5631</x:t>
         </x:is>
       </x:c>
       <x:c r="B190" t="inlineStr">
         <x:is>
-          <x:t>ADGD0108</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C190" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN CONTABLE Y GESTIÓN ADMINISTRATIVA PARA AUDITORÍA</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D190" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E190" s="2" t="n">
-        <x:v>46210.9166666667</x:v>
+        <x:v>46201.9166666667</x:v>
       </x:c>
       <x:c r="F190" t="inlineStr">
         <x:is>
@@ -6441,26 +6441,31 @@
       </x:c>
       <x:c r="G190" t="inlineStr">
         <x:is>
-          <x:t>AYUNTAMIENTO DE SAN FERNANDO DE HENARES</x:t>
+          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="191">
       <x:c r="A191" t="inlineStr">
         <x:is>
-          <x:t>25/9016</x:t>
+          <x:t>25/5876</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B191" t="inlineStr">
+        <x:is>
+          <x:t>SANT0208</x:t>
         </x:is>
       </x:c>
       <x:c r="C191" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>TRANSPORTE SANITARIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D191" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E191" s="2" t="n">
-        <x:v>46287.9166666667</x:v>
+        <x:v>46294.9166666667</x:v>
       </x:c>
       <x:c r="F191" t="inlineStr">
         <x:is>
@@ -6469,31 +6474,31 @@
       </x:c>
       <x:c r="G191" t="inlineStr">
         <x:is>
-          <x:t>CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H191" t="inlineStr">
-        <x:is>
-          <x:t>MOSTOLES</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="192">
       <x:c r="A192" t="inlineStr">
         <x:is>
-          <x:t>25/9022</x:t>
+          <x:t>25/8144</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B192" t="inlineStr">
+        <x:is>
+          <x:t>ADGD0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C192" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN CONTABLE, FINANCIERA Y FISCAL</x:t>
+          <x:t>GESTIÓN CONTABLE Y GESTIÓN ADMINISTRATIVA PARA AUDITORÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D192" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E192" s="2" t="n">
-        <x:v>46231.9166666667</x:v>
+        <x:v>46210.9166666667</x:v>
       </x:c>
       <x:c r="F192" t="inlineStr">
         <x:is>
@@ -6502,31 +6507,26 @@
       </x:c>
       <x:c r="G192" t="inlineStr">
         <x:is>
-          <x:t>CENES</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H192" t="inlineStr">
-        <x:is>
-          <x:t>GETAFE</x:t>
+          <x:t>AYUNTAMIENTO DE SAN FERNANDO DE HENARES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="193">
       <x:c r="A193" t="inlineStr">
         <x:is>
-          <x:t>25/2331</x:t>
+          <x:t>25/9016</x:t>
         </x:is>
       </x:c>
       <x:c r="C193" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D193" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E193" s="2" t="n">
-        <x:v>46216.9166666667</x:v>
+        <x:v>46287.9166666667</x:v>
       </x:c>
       <x:c r="F193" t="inlineStr">
         <x:is>
@@ -6535,31 +6535,31 @@
       </x:c>
       <x:c r="G193" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
+          <x:t>CEFORA S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H193" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>MOSTOLES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="194">
       <x:c r="A194" t="inlineStr">
         <x:is>
-          <x:t>25/2334</x:t>
+          <x:t>25/9022</x:t>
         </x:is>
       </x:c>
       <x:c r="C194" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
+          <x:t>GESTIÓN CONTABLE, FINANCIERA Y FISCAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D194" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E194" s="2" t="n">
-        <x:v>46223.9166666667</x:v>
+        <x:v>46232.9166666667</x:v>
       </x:c>
       <x:c r="F194" t="inlineStr">
         <x:is>
@@ -6568,31 +6568,31 @@
       </x:c>
       <x:c r="G194" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
+          <x:t>CENES</x:t>
         </x:is>
       </x:c>
       <x:c r="H194" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>GETAFE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="195">
       <x:c r="A195" t="inlineStr">
         <x:is>
-          <x:t>25/2388</x:t>
+          <x:t>25/2331</x:t>
         </x:is>
       </x:c>
       <x:c r="C195" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INFRAESTRUCTURAS DE TELECOMUNICACIONES EN EDIFICIOS</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D195" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E195" s="2" t="n">
-        <x:v>46194.9166666667</x:v>
+        <x:v>46216.9166666667</x:v>
       </x:c>
       <x:c r="F195" t="inlineStr">
         <x:is>
@@ -6613,19 +6613,19 @@
     <x:row r="196">
       <x:c r="A196" t="inlineStr">
         <x:is>
-          <x:t>25/2422</x:t>
+          <x:t>25/2334</x:t>
         </x:is>
       </x:c>
       <x:c r="C196" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE EQUIPOS ELÉCTRICOS Y ELECTRÓNICOS *</x:t>
+          <x:t>DESARROLLO DE APLICACIONES CON TECNOLOGÍA WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D196" s="1" t="n">
         <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E196" s="2" t="n">
-        <x:v>46187.9166666667</x:v>
+        <x:v>46223.9166666667</x:v>
       </x:c>
       <x:c r="F196" t="inlineStr">
         <x:is>
@@ -6646,24 +6646,19 @@
     <x:row r="197">
       <x:c r="A197" t="inlineStr">
         <x:is>
-          <x:t>23/8204</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B197" t="inlineStr">
-        <x:is>
-          <x:t>IFCT0510</x:t>
+          <x:t>25/2388</x:t>
         </x:is>
       </x:c>
       <x:c r="C197" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INFRAESTRUCTURAS DE TELECOMUNICACIONES EN EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D197" s="1" t="n">
-        <x:v>46089.9583333333</x:v>
+        <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E197" s="2" t="n">
-        <x:v>46183.9166666667</x:v>
+        <x:v>46194.9166666667</x:v>
       </x:c>
       <x:c r="F197" t="inlineStr">
         <x:is>
@@ -6672,26 +6667,31 @@
       </x:c>
       <x:c r="G197" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H197" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="198">
       <x:c r="A198" t="inlineStr">
         <x:is>
-          <x:t>25/2148</x:t>
+          <x:t>25/2422</x:t>
         </x:is>
       </x:c>
       <x:c r="C198" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>OPERACIONES AUXILIARES DE MONTAJE Y MANTENIMIENTO DE EQUIPOS ELÉCTRICOS Y ELECTRÓNICOS *</x:t>
         </x:is>
       </x:c>
       <x:c r="D198" s="1" t="n">
-        <x:v>46089.9583333333</x:v>
+        <x:v>46090.9583333333</x:v>
       </x:c>
       <x:c r="E198" s="2" t="n">
-        <x:v>46181.9166666667</x:v>
+        <x:v>46187.9166666667</x:v>
       </x:c>
       <x:c r="F198" t="inlineStr">
         <x:is>
@@ -6700,36 +6700,36 @@
       </x:c>
       <x:c r="G198" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
         </x:is>
       </x:c>
       <x:c r="H198" t="inlineStr">
         <x:is>
-          <x:t>ALCOBENDAS</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="199">
       <x:c r="A199" t="inlineStr">
         <x:is>
-          <x:t>25/5419</x:t>
+          <x:t>23/8204</x:t>
         </x:is>
       </x:c>
       <x:c r="B199" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0109</x:t>
+          <x:t>IFCT0510</x:t>
         </x:is>
       </x:c>
       <x:c r="C199" t="inlineStr">
         <x:is>
-          <x:t>PELUQUERÍA TÉCNICO-ARTÍSTICA</x:t>
+          <x:t>GESTIÓN DE SISTEMAS INFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D199" s="1" t="n">
         <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E199" s="2" t="n">
-        <x:v>46232.9166666667</x:v>
+        <x:v>46183.9166666667</x:v>
       </x:c>
       <x:c r="F199" t="inlineStr">
         <x:is>
@@ -6738,31 +6738,26 @@
       </x:c>
       <x:c r="G199" t="inlineStr">
         <x:is>
-          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="200">
       <x:c r="A200" t="inlineStr">
         <x:is>
-          <x:t>25/5539</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B200" t="inlineStr">
-        <x:is>
-          <x:t>IMPE0209</x:t>
+          <x:t>25/2148</x:t>
         </x:is>
       </x:c>
       <x:c r="C200" t="inlineStr">
         <x:is>
-          <x:t>MAQUILLAJE INTEGRAL</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D200" s="1" t="n">
         <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E200" s="2" t="n">
-        <x:v>46225.9166666667</x:v>
+        <x:v>46181.9166666667</x:v>
       </x:c>
       <x:c r="F200" t="inlineStr">
         <x:is>
@@ -6771,26 +6766,36 @@
       </x:c>
       <x:c r="G200" t="inlineStr">
         <x:is>
-          <x:t>ECOLE DIMAGE TRIUNFO, S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL ALCOBENDAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H200" t="inlineStr">
+        <x:is>
+          <x:t>ALCOBENDAS</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="201">
       <x:c r="A201" t="inlineStr">
         <x:is>
-          <x:t>25/5656</x:t>
+          <x:t>25/5419</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B201" t="inlineStr">
+        <x:is>
+          <x:t>IMPQ0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C201" t="inlineStr">
         <x:is>
-          <x:t>ARREGLOS Y ADAPTACIONES DE PRENDAS Y ARTÍCULOS EN TEXTIL Y PIEL</x:t>
+          <x:t>PELUQUERÍA TÉCNICO-ARTÍSTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D201" s="1" t="n">
         <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E201" s="2" t="n">
-        <x:v>46148.9166666667</x:v>
+        <x:v>46232.9166666667</x:v>
       </x:c>
       <x:c r="F201" t="inlineStr">
         <x:is>
@@ -6799,19 +6804,14 @@
       </x:c>
       <x:c r="G201" t="inlineStr">
         <x:is>
-          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H201" t="inlineStr">
-        <x:is>
-          <x:t>Alcala de Henares</x:t>
+          <x:t>ENSEÑANZA CREATIVA DE IMAGEN PERSONALIZADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="202">
       <x:c r="A202" t="inlineStr">
         <x:is>
-          <x:t>25/5830</x:t>
+          <x:t>25/5539</x:t>
         </x:is>
       </x:c>
       <x:c r="B202" t="inlineStr">
@@ -6828,7 +6828,7 @@
         <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E202" s="2" t="n">
-        <x:v>46231.9166666667</x:v>
+        <x:v>46225.9166666667</x:v>
       </x:c>
       <x:c r="F202" t="inlineStr">
         <x:is>
@@ -6837,31 +6837,26 @@
       </x:c>
       <x:c r="G202" t="inlineStr">
         <x:is>
-          <x:t>ASOCIACION AREA DE FORMACION</x:t>
+          <x:t>ECOLE DIMAGE TRIUNFO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="203">
       <x:c r="A203" t="inlineStr">
         <x:is>
-          <x:t>25/5875</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B203" t="inlineStr">
-        <x:is>
-          <x:t>AFDP0109</x:t>
+          <x:t>25/5656</x:t>
         </x:is>
       </x:c>
       <x:c r="C203" t="inlineStr">
         <x:is>
-          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
+          <x:t>ARREGLOS Y ADAPTACIONES DE PRENDAS Y ARTÍCULOS EN TEXTIL Y PIEL</x:t>
         </x:is>
       </x:c>
       <x:c r="D203" s="1" t="n">
         <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E203" s="2" t="n">
-        <x:v>46187.9166666667</x:v>
+        <x:v>46148.9166666667</x:v>
       </x:c>
       <x:c r="F203" t="inlineStr">
         <x:is>
@@ -6870,31 +6865,36 @@
       </x:c>
       <x:c r="G203" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H203" t="inlineStr">
+        <x:is>
+          <x:t>Alcala de Henares</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="204">
       <x:c r="A204" t="inlineStr">
         <x:is>
-          <x:t>25/5877</x:t>
+          <x:t>25/5830</x:t>
         </x:is>
       </x:c>
       <x:c r="B204" t="inlineStr">
         <x:is>
-          <x:t>SSCB0209</x:t>
+          <x:t>IMPE0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C204" t="inlineStr">
         <x:is>
-          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
+          <x:t>MAQUILLAJE INTEGRAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D204" s="1" t="n">
         <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E204" s="2" t="n">
-        <x:v>46233.9166666667</x:v>
+        <x:v>46231.9166666667</x:v>
       </x:c>
       <x:c r="F204" t="inlineStr">
         <x:is>
@@ -6903,31 +6903,31 @@
       </x:c>
       <x:c r="G204" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>ASOCIACION AREA DE FORMACION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="205">
       <x:c r="A205" t="inlineStr">
         <x:is>
-          <x:t>25/5981</x:t>
+          <x:t>25/5875</x:t>
         </x:is>
       </x:c>
       <x:c r="B205" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>AFDP0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C205" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>SOCORRISMO EN INSTALACIONES ACUÁTICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D205" s="1" t="n">
         <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E205" s="2" t="n">
-        <x:v>46223.9166666667</x:v>
+        <x:v>46187.9166666667</x:v>
       </x:c>
       <x:c r="F205" t="inlineStr">
         <x:is>
@@ -6936,31 +6936,31 @@
       </x:c>
       <x:c r="G205" t="inlineStr">
         <x:is>
-          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="206">
       <x:c r="A206" t="inlineStr">
         <x:is>
-          <x:t>23/8438</x:t>
+          <x:t>25/5877</x:t>
         </x:is>
       </x:c>
       <x:c r="B206" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>SSCB0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C206" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>DINAMIZACIÓN DE ACTIVIDADES DE TIEMPO LIBRE EDUCATIVO INFANTIL Y JUVENIL</x:t>
         </x:is>
       </x:c>
       <x:c r="D206" s="1" t="n">
-        <x:v>46086.9583333333</x:v>
+        <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E206" s="2" t="n">
-        <x:v>46128.9166666667</x:v>
+        <x:v>46233.9166666667</x:v>
       </x:c>
       <x:c r="F206" t="inlineStr">
         <x:is>
@@ -6969,31 +6969,31 @@
       </x:c>
       <x:c r="G206" t="inlineStr">
         <x:is>
-          <x:t>ARACOVE</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="207">
       <x:c r="A207" t="inlineStr">
         <x:is>
-          <x:t>25/4949</x:t>
+          <x:t>25/5981</x:t>
         </x:is>
       </x:c>
       <x:c r="B207" t="inlineStr">
         <x:is>
-          <x:t>ADGD0110</x:t>
+          <x:t>COMT0211</x:t>
         </x:is>
       </x:c>
       <x:c r="C207" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA EN LA GESTIÓN DE LOS PROCEDIMIENTOS TRIBUTARIOS</x:t>
+          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D207" s="1" t="n">
-        <x:v>46086.9583333333</x:v>
+        <x:v>46089.9583333333</x:v>
       </x:c>
       <x:c r="E207" s="2" t="n">
-        <x:v>46231.9166666667</x:v>
+        <x:v>46223.9166666667</x:v>
       </x:c>
       <x:c r="F207" t="inlineStr">
         <x:is>
@@ -7002,61 +7002,61 @@
       </x:c>
       <x:c r="G207" t="inlineStr">
         <x:is>
-          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
+          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="208">
       <x:c r="A208" t="inlineStr">
         <x:is>
-          <x:t>25/5604</x:t>
+          <x:t>23/8438</x:t>
         </x:is>
       </x:c>
       <x:c r="B208" t="inlineStr">
         <x:is>
-          <x:t>ADGD0110</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C208" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA EN LA GESTIÓN DE LOS PROCEDIMIENTOS TRIBUTARIOS</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D208" s="1" t="n">
-        <x:v>46085.9583333333</x:v>
+        <x:v>46086.9583333333</x:v>
       </x:c>
       <x:c r="E208" s="2" t="n">
-        <x:v>46280.9166666667</x:v>
+        <x:v>46128.9166666667</x:v>
       </x:c>
       <x:c r="F208" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G208" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>ARACOVE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="209">
       <x:c r="A209" t="inlineStr">
         <x:is>
-          <x:t>23/8325</x:t>
+          <x:t>25/4949</x:t>
         </x:is>
       </x:c>
       <x:c r="B209" t="inlineStr">
         <x:is>
-          <x:t>IMAR0508</x:t>
+          <x:t>ADGD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C209" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
+          <x:t>ASISTENCIA EN LA GESTIÓN DE LOS PROCEDIMIENTOS TRIBUTARIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D209" s="1" t="n">
-        <x:v>46084.9583333333</x:v>
+        <x:v>46086.9583333333</x:v>
       </x:c>
       <x:c r="E209" s="2" t="n">
         <x:v>46231.9166666667</x:v>
@@ -7068,64 +7068,64 @@
       </x:c>
       <x:c r="G209" t="inlineStr">
         <x:is>
-          <x:t>CONECTANDO LOCAL, S.L.</x:t>
+          <x:t>ANGEL FERNANDEZ-ROLDAN GONZALEZ</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="210">
       <x:c r="A210" t="inlineStr">
         <x:is>
-          <x:t>25/5289</x:t>
+          <x:t>25/5604</x:t>
         </x:is>
       </x:c>
       <x:c r="B210" t="inlineStr">
         <x:is>
-          <x:t>ELEQ0311</x:t>
+          <x:t>ADGD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C210" t="inlineStr">
         <x:is>
-          <x:t>MANTENIMIENTO DE EQUIPOS ELECTRÓNICOS</x:t>
+          <x:t>ASISTENCIA EN LA GESTIÓN DE LOS PROCEDIMIENTOS TRIBUTARIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D210" s="1" t="n">
-        <x:v>46084.9583333333</x:v>
+        <x:v>46085.9583333333</x:v>
       </x:c>
       <x:c r="E210" s="2" t="n">
-        <x:v>46289.9166666667</x:v>
+        <x:v>46280.9166666667</x:v>
       </x:c>
       <x:c r="F210" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G210" t="inlineStr">
         <x:is>
-          <x:t>ELWE SISTEMAS DE ENSEÑANZA S.L.</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="211">
       <x:c r="A211" t="inlineStr">
         <x:is>
-          <x:t>25/5444</x:t>
+          <x:t>23/8325</x:t>
         </x:is>
       </x:c>
       <x:c r="B211" t="inlineStr">
         <x:is>
-          <x:t>IFCD0112</x:t>
+          <x:t>IMAR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C211" t="inlineStr">
         <x:is>
-          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INSTALACIONES CALORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D211" s="1" t="n">
         <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E211" s="2" t="n">
-        <x:v>46281.9166666667</x:v>
+        <x:v>46231.9166666667</x:v>
       </x:c>
       <x:c r="F211" t="inlineStr">
         <x:is>
@@ -7134,31 +7134,31 @@
       </x:c>
       <x:c r="G211" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>CONECTANDO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="212">
       <x:c r="A212" t="inlineStr">
         <x:is>
-          <x:t>25/5510</x:t>
+          <x:t>25/5289</x:t>
         </x:is>
       </x:c>
       <x:c r="B212" t="inlineStr">
         <x:is>
-          <x:t>SSCS0108</x:t>
+          <x:t>ELEQ0311</x:t>
         </x:is>
       </x:c>
       <x:c r="C212" t="inlineStr">
         <x:is>
-          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
+          <x:t>MANTENIMIENTO DE EQUIPOS ELECTRÓNICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D212" s="1" t="n">
         <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E212" s="2" t="n">
-        <x:v>46224.9166666667</x:v>
+        <x:v>46289.9166666667</x:v>
       </x:c>
       <x:c r="F212" t="inlineStr">
         <x:is>
@@ -7167,59 +7167,64 @@
       </x:c>
       <x:c r="G212" t="inlineStr">
         <x:is>
-          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
+          <x:t>ELWE SISTEMAS DE ENSEÑANZA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="213">
       <x:c r="A213" t="inlineStr">
         <x:is>
-          <x:t>25/5545</x:t>
+          <x:t>25/5444</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B213" t="inlineStr">
+        <x:is>
+          <x:t>IFCD0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C213" t="inlineStr">
         <x:is>
-          <x:t>IMPLANTACIÓN Y ANIMACIÓN DE ESPACIOS COMERCIALES</x:t>
+          <x:t>PROGRAMACIÓN CON LENGUAJES ORIENTADOS A OBJETOS Y BASES DE DATOS RELACIONALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D213" s="1" t="n">
         <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E213" s="2" t="n">
-        <x:v>46155.9166666667</x:v>
+        <x:v>46281.9166666667</x:v>
       </x:c>
       <x:c r="F213" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G213" t="inlineStr">
         <x:is>
-          <x:t>CONECTANDO LOCAL, S.L.</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="214">
       <x:c r="A214" t="inlineStr">
         <x:is>
-          <x:t>25/5605</x:t>
+          <x:t>25/5510</x:t>
         </x:is>
       </x:c>
       <x:c r="B214" t="inlineStr">
         <x:is>
-          <x:t>ELEE0210</x:t>
+          <x:t>SSCS0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C214" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE REDES ELÉCTRICAS DE BAJA Y ALTA TENSIÓN</x:t>
+          <x:t>ATENCIÓN SOCIOSANITARIA A PERSONAS EN EL DOMICILIO</x:t>
         </x:is>
       </x:c>
       <x:c r="D214" s="1" t="n">
         <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E214" s="2" t="n">
-        <x:v>46215.9166666667</x:v>
+        <x:v>46224.9166666667</x:v>
       </x:c>
       <x:c r="F214" t="inlineStr">
         <x:is>
@@ -7228,59 +7233,59 @@
       </x:c>
       <x:c r="G214" t="inlineStr">
         <x:is>
-          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
+          <x:t>GRUPO CDM ESCUELAS PROFESIONALES S.L</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="215">
       <x:c r="A215" t="inlineStr">
         <x:is>
-          <x:t>25/5640</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B215" t="inlineStr">
-        <x:is>
-          <x:t>ELES0110</x:t>
+          <x:t>25/5545</x:t>
         </x:is>
       </x:c>
       <x:c r="C215" t="inlineStr">
         <x:is>
-          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
+          <x:t>IMPLANTACIÓN Y ANIMACIÓN DE ESPACIOS COMERCIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D215" s="1" t="n">
         <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E215" s="2" t="n">
-        <x:v>46222.9166666667</x:v>
+        <x:v>46155.9166666667</x:v>
       </x:c>
       <x:c r="F215" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G215" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN ZARZAQUEMADA S.L.</x:t>
+          <x:t>CONECTANDO LOCAL, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="216">
       <x:c r="A216" t="inlineStr">
         <x:is>
-          <x:t>25/9013</x:t>
+          <x:t>25/5605</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B216" t="inlineStr">
+        <x:is>
+          <x:t>ELEE0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C216" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE REDES ELÉCTRICAS DE BAJA Y ALTA TENSIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D216" s="1" t="n">
         <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E216" s="2" t="n">
-        <x:v>46279.9166666667</x:v>
+        <x:v>46215.9166666667</x:v>
       </x:c>
       <x:c r="F216" t="inlineStr">
         <x:is>
@@ -7289,36 +7294,31 @@
       </x:c>
       <x:c r="G216" t="inlineStr">
         <x:is>
-          <x:t>PLATO SUR</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H216" t="inlineStr">
-        <x:is>
-          <x:t>LEGANES</x:t>
+          <x:t>INSTITUTO DE FORMACION Y ESTUDIOS CAM, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="217">
       <x:c r="A217" t="inlineStr">
         <x:is>
-          <x:t>23/8023</x:t>
+          <x:t>25/5640</x:t>
         </x:is>
       </x:c>
       <x:c r="B217" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>ELES0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C217" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>DESARROLLO DE PROYECTOS DE INFRAESTRUCTURAS DE TELECOMUNICACIÓN Y DE REDES DE VOZ Y DATOS EN EL ENTORNO DE EDIFICIOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D217" s="1" t="n">
-        <x:v>46083.9583333333</x:v>
+        <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E217" s="2" t="n">
-        <x:v>46202.9166666667</x:v>
+        <x:v>46222.9166666667</x:v>
       </x:c>
       <x:c r="F217" t="inlineStr">
         <x:is>
@@ -7327,36 +7327,26 @@
       </x:c>
       <x:c r="G217" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H217" t="inlineStr">
-        <x:is>
-          <x:t>Madrid</x:t>
+          <x:t>CENTRO DE FORMACIÓN ZARZAQUEMADA S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="218">
       <x:c r="A218" t="inlineStr">
         <x:is>
-          <x:t>23/8298</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B218" t="inlineStr">
-        <x:is>
-          <x:t>ENAE0308</x:t>
+          <x:t>25/9013</x:t>
         </x:is>
       </x:c>
       <x:c r="C218" t="inlineStr">
         <x:is>
-          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES TÉRMICAS</x:t>
+          <x:t>ACTIVIDADES ADMINISTRATIVAS EN LA RELACIÓN CON EL CLIENTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D218" s="1" t="n">
-        <x:v>46083.9583333333</x:v>
+        <x:v>46084.9583333333</x:v>
       </x:c>
       <x:c r="E218" s="2" t="n">
-        <x:v>46289.9166666667</x:v>
+        <x:v>46279.9166666667</x:v>
       </x:c>
       <x:c r="F218" t="inlineStr">
         <x:is>
@@ -7365,31 +7355,36 @@
       </x:c>
       <x:c r="G218" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>PLATO SUR</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H218" t="inlineStr">
+        <x:is>
+          <x:t>LEGANES</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="219">
       <x:c r="A219" t="inlineStr">
         <x:is>
-          <x:t>23/8388</x:t>
+          <x:t>23/8023</x:t>
         </x:is>
       </x:c>
       <x:c r="B219" t="inlineStr">
         <x:is>
-          <x:t>SSCG0209</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C219" t="inlineStr">
         <x:is>
-          <x:t>MEDIACIÓN COMUNITARIA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="D219" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E219" s="2" t="n">
-        <x:v>46210.9583333333</x:v>
+        <x:v>46202.9166666667</x:v>
       </x:c>
       <x:c r="F219" t="inlineStr">
         <x:is>
@@ -7398,31 +7393,36 @@
       </x:c>
       <x:c r="G219" t="inlineStr">
         <x:is>
-          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
+          <x:t>CENTRO DE ESTUDIOS VELAZQUEZ S.A.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H219" t="inlineStr">
+        <x:is>
+          <x:t>Madrid</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="220">
       <x:c r="A220" t="inlineStr">
         <x:is>
-          <x:t>25/5037</x:t>
+          <x:t>23/8298</x:t>
         </x:is>
       </x:c>
       <x:c r="B220" t="inlineStr">
         <x:is>
-          <x:t>ARTU0212</x:t>
+          <x:t>ENAE0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C220" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA DIRECCIÓN TÉCNICA DE ESPECTÁCULOS EN VIVO Y EVENTOS</x:t>
+          <x:t>ORGANIZACIÓN Y PROYECTOS DE INSTALACIONES SOLARES TÉRMICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D220" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E220" s="2" t="n">
-        <x:v>46198.9166666667</x:v>
+        <x:v>46289.9166666667</x:v>
       </x:c>
       <x:c r="F220" t="inlineStr">
         <x:is>
@@ -7431,36 +7431,31 @@
       </x:c>
       <x:c r="G220" t="inlineStr">
         <x:is>
-          <x:t>JANA PRODUCCIONES, S.A.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H220" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="221">
       <x:c r="A221" t="inlineStr">
         <x:is>
-          <x:t>25/5119</x:t>
+          <x:t>23/8388</x:t>
         </x:is>
       </x:c>
       <x:c r="B221" t="inlineStr">
         <x:is>
-          <x:t>SEAG0209</x:t>
+          <x:t>SSCG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C221" t="inlineStr">
         <x:is>
-          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
+          <x:t>MEDIACIÓN COMUNITARIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D221" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E221" s="2" t="n">
-        <x:v>46160.9166666667</x:v>
+        <x:v>46210.9583333333</x:v>
       </x:c>
       <x:c r="F221" t="inlineStr">
         <x:is>
@@ -7469,26 +7464,31 @@
       </x:c>
       <x:c r="G221" t="inlineStr">
         <x:is>
-          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
+          <x:t>SOLUCIONES CONSULTORAS FORMATIVAS C.C.R. SL UNIPERSONAL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="222">
       <x:c r="A222" t="inlineStr">
         <x:is>
-          <x:t>25/5378</x:t>
+          <x:t>25/5037</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B222" t="inlineStr">
+        <x:is>
+          <x:t>ARTU0212</x:t>
         </x:is>
       </x:c>
       <x:c r="C222" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>ASISTENCIA A LA DIRECCIÓN TÉCNICA DE ESPECTÁCULOS EN VIVO Y EVENTOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D222" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E222" s="2" t="n">
-        <x:v>46161.9166666667</x:v>
+        <x:v>46198.9166666667</x:v>
       </x:c>
       <x:c r="F222" t="inlineStr">
         <x:is>
@@ -7497,31 +7497,36 @@
       </x:c>
       <x:c r="G222" t="inlineStr">
         <x:is>
-          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
+          <x:t>JANA PRODUCCIONES, S.A.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H222" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="223">
       <x:c r="A223" t="inlineStr">
         <x:is>
-          <x:t>25/5423</x:t>
+          <x:t>25/5119</x:t>
         </x:is>
       </x:c>
       <x:c r="B223" t="inlineStr">
         <x:is>
-          <x:t>IMSV0108</x:t>
+          <x:t>SEAG0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C223" t="inlineStr">
         <x:is>
-          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
+          <x:t>LIMPIEZA EN ESPACIOS ABIERTOS E INSTALACIONES INDUSTRIALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D223" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E223" s="2" t="n">
-        <x:v>46194.9166666667</x:v>
+        <x:v>46160.9166666667</x:v>
       </x:c>
       <x:c r="F223" t="inlineStr">
         <x:is>
@@ -7530,36 +7535,26 @@
       </x:c>
       <x:c r="G223" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H223" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>COLEGIO SAN ISIDRO, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="224">
       <x:c r="A224" t="inlineStr">
         <x:is>
-          <x:t>25/5518</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B224" t="inlineStr">
-        <x:is>
-          <x:t>HOTR0508</x:t>
+          <x:t>25/5378</x:t>
         </x:is>
       </x:c>
       <x:c r="C224" t="inlineStr">
         <x:is>
-          <x:t>SERVICIOS DE BAR Y CAFETERÍA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="D224" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E224" s="2" t="n">
-        <x:v>46223.9166666667</x:v>
+        <x:v>46161.9166666667</x:v>
       </x:c>
       <x:c r="F224" t="inlineStr">
         <x:is>
@@ -7568,69 +7563,69 @@
       </x:c>
       <x:c r="G224" t="inlineStr">
         <x:is>
-          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
+          <x:t>FORMACIÓN Y EDUCACIÓN INTEGRAL S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="225">
       <x:c r="A225" t="inlineStr">
         <x:is>
-          <x:t>25/5557</x:t>
+          <x:t>25/5423</x:t>
         </x:is>
       </x:c>
       <x:c r="B225" t="inlineStr">
         <x:is>
-          <x:t>HOTR0108</x:t>
+          <x:t>IMSV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C225" t="inlineStr">
         <x:is>
-          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
+          <x:t>ASISTENCIA A LA PRODUCCIÓN CINEMATOGRÁFICA Y DE OBRAS AUDIOVISUALES</x:t>
         </x:is>
       </x:c>
       <x:c r="D225" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E225" s="2" t="n">
-        <x:v>46169.9166666667</x:v>
+        <x:v>46194.9166666667</x:v>
       </x:c>
       <x:c r="F225" t="inlineStr">
         <x:is>
-          <x:t>Teleformación</x:t>
+          <x:t>Presencial</x:t>
         </x:is>
       </x:c>
       <x:c r="G225" t="inlineStr">
         <x:is>
-          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
         </x:is>
       </x:c>
       <x:c r="H225" t="inlineStr">
         <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="226">
       <x:c r="A226" t="inlineStr">
         <x:is>
-          <x:t>25/5630</x:t>
+          <x:t>25/5518</x:t>
         </x:is>
       </x:c>
       <x:c r="B226" t="inlineStr">
         <x:is>
-          <x:t>IMAQ0110</x:t>
+          <x:t>HOTR0508</x:t>
         </x:is>
       </x:c>
       <x:c r="C226" t="inlineStr">
         <x:is>
-          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
+          <x:t>SERVICIOS DE BAR Y CAFETERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D226" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E226" s="2" t="n">
-        <x:v>46188.9166666667</x:v>
+        <x:v>46223.9166666667</x:v>
       </x:c>
       <x:c r="F226" t="inlineStr">
         <x:is>
@@ -7639,69 +7634,69 @@
       </x:c>
       <x:c r="G226" t="inlineStr">
         <x:is>
-          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
+          <x:t>LOPEZ DE SANTIAGO CONSULTORES SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="227">
       <x:c r="A227" t="inlineStr">
         <x:is>
-          <x:t>25/5653</x:t>
+          <x:t>25/5557</x:t>
         </x:is>
       </x:c>
       <x:c r="B227" t="inlineStr">
         <x:is>
-          <x:t>COML0210</x:t>
+          <x:t>HOTR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C227" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
+          <x:t>OPERACIONES BÁSICAS DE COCINA</x:t>
         </x:is>
       </x:c>
       <x:c r="D227" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E227" s="2" t="n">
-        <x:v>46195.9166666667</x:v>
+        <x:v>46169.9166666667</x:v>
       </x:c>
       <x:c r="F227" t="inlineStr">
         <x:is>
-          <x:t>Presencial</x:t>
+          <x:t>Teleformación</x:t>
         </x:is>
       </x:c>
       <x:c r="G227" t="inlineStr">
         <x:is>
-          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
+          <x:t>CENTRO ARANDA SCHOLA SL</x:t>
         </x:is>
       </x:c>
       <x:c r="H227" t="inlineStr">
         <x:is>
-          <x:t>Alcala de Henares</x:t>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="228">
       <x:c r="A228" t="inlineStr">
         <x:is>
-          <x:t>25/5816</x:t>
+          <x:t>25/5630</x:t>
         </x:is>
       </x:c>
       <x:c r="B228" t="inlineStr">
         <x:is>
-          <x:t>EOCB0108</x:t>
+          <x:t>IMAQ0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C228" t="inlineStr">
         <x:is>
-          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
+          <x:t>INSTALACIÓN Y MANTENIMIENTO DE ASCENSORES Y OTROS EQUIPOS FIJOS DE ELEVACIÓN Y TRANSPORTE</x:t>
         </x:is>
       </x:c>
       <x:c r="D228" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E228" s="2" t="n">
-        <x:v>46233.9166666667</x:v>
+        <x:v>46188.9166666667</x:v>
       </x:c>
       <x:c r="F228" t="inlineStr">
         <x:is>
@@ -7710,31 +7705,31 @@
       </x:c>
       <x:c r="G228" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
+          <x:t>EMPRENDE Y GESTIONA 2015, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="229">
       <x:c r="A229" t="inlineStr">
         <x:is>
-          <x:t>25/5878</x:t>
+          <x:t>25/5653</x:t>
         </x:is>
       </x:c>
       <x:c r="B229" t="inlineStr">
         <x:is>
-          <x:t>SSCG0111</x:t>
+          <x:t>COML0210</x:t>
         </x:is>
       </x:c>
       <x:c r="C229" t="inlineStr">
         <x:is>
-          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
+          <x:t>GESTIÓN Y CONTROL DEL APROVISIONAMIENTO</x:t>
         </x:is>
       </x:c>
       <x:c r="D229" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E229" s="2" t="n">
-        <x:v>46171.9166666667</x:v>
+        <x:v>46195.9166666667</x:v>
       </x:c>
       <x:c r="F229" t="inlineStr">
         <x:is>
@@ -7743,26 +7738,36 @@
       </x:c>
       <x:c r="G229" t="inlineStr">
         <x:is>
-          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
+          <x:t>FORMACION INTERNACIONAL VOCACIONAL Y EMPRENDIMIENTO, S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H229" t="inlineStr">
+        <x:is>
+          <x:t>Alcala de Henares</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="230">
       <x:c r="A230" t="inlineStr">
         <x:is>
-          <x:t>25/2391</x:t>
+          <x:t>25/5816</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B230" t="inlineStr">
+        <x:is>
+          <x:t>EOCB0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C230" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
+          <x:t>FÁBRICAS DE ALBAÑILERÍA</x:t>
         </x:is>
       </x:c>
       <x:c r="D230" s="1" t="n">
         <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E230" s="2" t="n">
-        <x:v>46198.9166666667</x:v>
+        <x:v>46233.9166666667</x:v>
       </x:c>
       <x:c r="F230" t="inlineStr">
         <x:is>
@@ -7771,36 +7776,31 @@
       </x:c>
       <x:c r="G230" t="inlineStr">
         <x:is>
-          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H230" t="inlineStr">
-        <x:is>
-          <x:t>MADRID</x:t>
+          <x:t>FUNDACION LABORAL DE LA CONSTRUCCION</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="231">
       <x:c r="A231" t="inlineStr">
         <x:is>
-          <x:t>25/5424</x:t>
+          <x:t>25/5878</x:t>
         </x:is>
       </x:c>
       <x:c r="B231" t="inlineStr">
         <x:is>
-          <x:t>IMSV0308</x:t>
+          <x:t>SSCG0111</x:t>
         </x:is>
       </x:c>
       <x:c r="C231" t="inlineStr">
         <x:is>
-          <x:t>CÁMARA DE CINE, VÍDEO Y TELEVISIÓN</x:t>
+          <x:t>GESTIÓN DE LLAMADAS DE TELEASISTENCIA</x:t>
         </x:is>
       </x:c>
       <x:c r="D231" s="1" t="n">
-        <x:v>46082.9583333333</x:v>
+        <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E231" s="2" t="n">
-        <x:v>46208.9166666667</x:v>
+        <x:v>46171.9166666667</x:v>
       </x:c>
       <x:c r="F231" t="inlineStr">
         <x:is>
@@ -7809,36 +7809,26 @@
       </x:c>
       <x:c r="G231" t="inlineStr">
         <x:is>
-          <x:t>TALLER CEFORA S.L.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H231" t="inlineStr">
-        <x:is>
-          <x:t>Móstoles</x:t>
+          <x:t>CRUZ ROJA ESPAÑOLA</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="232">
       <x:c r="A232" t="inlineStr">
         <x:is>
-          <x:t>25/5442</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B232" t="inlineStr">
-        <x:is>
-          <x:t>IFCD0110</x:t>
+          <x:t>25/2391</x:t>
         </x:is>
       </x:c>
       <x:c r="C232" t="inlineStr">
         <x:is>
-          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
+          <x:t>MONTAJE Y REPARACIÓN DE SISTEMAS MICROINFORMÁTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D232" s="1" t="n">
-        <x:v>46082.9583333333</x:v>
+        <x:v>46083.9583333333</x:v>
       </x:c>
       <x:c r="E232" s="2" t="n">
-        <x:v>46209.9166666667</x:v>
+        <x:v>46198.9166666667</x:v>
       </x:c>
       <x:c r="F232" t="inlineStr">
         <x:is>
@@ -7847,31 +7837,36 @@
       </x:c>
       <x:c r="G232" t="inlineStr">
         <x:is>
-          <x:t>CORE NETWORKS, S.L.</x:t>
+          <x:t>CENTRO DE FORMACIÓN DIGITAL SAN BLAS</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H232" t="inlineStr">
+        <x:is>
+          <x:t>MADRID</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="233">
       <x:c r="A233" t="inlineStr">
         <x:is>
-          <x:t>25/5501</x:t>
+          <x:t>25/5424</x:t>
         </x:is>
       </x:c>
       <x:c r="B233" t="inlineStr">
         <x:is>
-          <x:t>IMAR0108</x:t>
+          <x:t>IMSV0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C233" t="inlineStr">
         <x:is>
-          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
+          <x:t>CÁMARA DE CINE, VÍDEO Y TELEVISIÓN</x:t>
         </x:is>
       </x:c>
       <x:c r="D233" s="1" t="n">
         <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E233" s="2" t="n">
-        <x:v>46230.9166666667</x:v>
+        <x:v>46208.9166666667</x:v>
       </x:c>
       <x:c r="F233" t="inlineStr">
         <x:is>
@@ -7880,31 +7875,36 @@
       </x:c>
       <x:c r="G233" t="inlineStr">
         <x:is>
-          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
+          <x:t>TALLER CEFORA S.L.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H233" t="inlineStr">
+        <x:is>
+          <x:t>Móstoles</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="234">
       <x:c r="A234" t="inlineStr">
         <x:is>
-          <x:t>25/5585</x:t>
+          <x:t>25/5442</x:t>
         </x:is>
       </x:c>
       <x:c r="B234" t="inlineStr">
         <x:is>
-          <x:t>COMV0108</x:t>
+          <x:t>IFCD0110</x:t>
         </x:is>
       </x:c>
       <x:c r="C234" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES DE VENTA</x:t>
+          <x:t>CONFECCIÓN Y PUBLICACIÓN DE PÁGINAS WEB</x:t>
         </x:is>
       </x:c>
       <x:c r="D234" s="1" t="n">
         <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E234" s="2" t="n">
-        <x:v>46174.9166666667</x:v>
+        <x:v>46209.9166666667</x:v>
       </x:c>
       <x:c r="F234" t="inlineStr">
         <x:is>
@@ -7913,31 +7913,31 @@
       </x:c>
       <x:c r="G234" t="inlineStr">
         <x:is>
-          <x:t>KNOWLEDGE INNOVATION WORKS, S.L.</x:t>
+          <x:t>CORE NETWORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="235">
       <x:c r="A235" t="inlineStr">
         <x:is>
-          <x:t>25/5661</x:t>
+          <x:t>25/5501</x:t>
         </x:is>
       </x:c>
       <x:c r="B235" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0109</x:t>
+          <x:t>IMAR0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C235" t="inlineStr">
         <x:is>
-          <x:t>PELUQUERÍA TÉCNICO-ARTÍSTICA</x:t>
+          <x:t>MONTAJE Y MANTENIMIENTO DE INSTALACIONES FRIGORÍFICAS</x:t>
         </x:is>
       </x:c>
       <x:c r="D235" s="1" t="n">
         <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E235" s="2" t="n">
-        <x:v>46210.9166666667</x:v>
+        <x:v>46230.9166666667</x:v>
       </x:c>
       <x:c r="F235" t="inlineStr">
         <x:is>
@@ -7946,31 +7946,31 @@
       </x:c>
       <x:c r="G235" t="inlineStr">
         <x:is>
-          <x:t>MONTE BATRES EVENTOS SL</x:t>
+          <x:t>CDM DESARROLLO INTEGRAL DE PROYECTOS FORMATIVOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="236">
       <x:c r="A236" t="inlineStr">
         <x:is>
-          <x:t>25/5663</x:t>
+          <x:t>25/5585</x:t>
         </x:is>
       </x:c>
       <x:c r="B236" t="inlineStr">
         <x:is>
-          <x:t>IMPQ0308</x:t>
+          <x:t>COMV0108</x:t>
         </x:is>
       </x:c>
       <x:c r="C236" t="inlineStr">
         <x:is>
-          <x:t>TRATAMIENTOS CAPILARES ESTÉTICOS</x:t>
+          <x:t>ACTIVIDADES DE VENTA</x:t>
         </x:is>
       </x:c>
       <x:c r="D236" s="1" t="n">
         <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E236" s="2" t="n">
-        <x:v>46176.9166666667</x:v>
+        <x:v>46174.9166666667</x:v>
       </x:c>
       <x:c r="F236" t="inlineStr">
         <x:is>
@@ -7979,31 +7979,31 @@
       </x:c>
       <x:c r="G236" t="inlineStr">
         <x:is>
-          <x:t>MONTE BATRES EVENTOS SL</x:t>
+          <x:t>KNOWLEDGE INNOVATION WORKS, S.L.</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="237">
       <x:c r="A237" t="inlineStr">
         <x:is>
-          <x:t>25/5761</x:t>
+          <x:t>25/5661</x:t>
         </x:is>
       </x:c>
       <x:c r="B237" t="inlineStr">
         <x:is>
-          <x:t>ARGI0209</x:t>
+          <x:t>IMPQ0109</x:t>
         </x:is>
       </x:c>
       <x:c r="C237" t="inlineStr">
         <x:is>
-          <x:t>IMPRESIÓN DIGITAL</x:t>
+          <x:t>PELUQUERÍA TÉCNICO-ARTÍSTICA</x:t>
         </x:is>
       </x:c>
       <x:c r="D237" s="1" t="n">
         <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E237" s="2" t="n">
-        <x:v>46184.9166666667</x:v>
+        <x:v>46210.9166666667</x:v>
       </x:c>
       <x:c r="F237" t="inlineStr">
         <x:is>
@@ -8012,31 +8012,31 @@
       </x:c>
       <x:c r="G237" t="inlineStr">
         <x:is>
-          <x:t>FUNDACION VILLENA LA SALLE</x:t>
+          <x:t>MONTE BATRES EVENTOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="238">
       <x:c r="A238" t="inlineStr">
         <x:is>
-          <x:t>25/5765</x:t>
+          <x:t>25/5663</x:t>
         </x:is>
       </x:c>
       <x:c r="B238" t="inlineStr">
         <x:is>
-          <x:t>ARTB0112</x:t>
+          <x:t>IMPQ0308</x:t>
         </x:is>
       </x:c>
       <x:c r="C238" t="inlineStr">
         <x:is>
-          <x:t>REPOSICIÓN, MONTAJE Y MANTENIMIENTO DE ELEMENTOS DE RELOJERÍA FINA</x:t>
+          <x:t>TRATAMIENTOS CAPILARES ESTÉTICOS</x:t>
         </x:is>
       </x:c>
       <x:c r="D238" s="1" t="n">
         <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E238" s="2" t="n">
-        <x:v>46170.9166666667</x:v>
+        <x:v>46176.9166666667</x:v>
       </x:c>
       <x:c r="F238" t="inlineStr">
         <x:is>
@@ -8045,31 +8045,31 @@
       </x:c>
       <x:c r="G238" t="inlineStr">
         <x:is>
-          <x:t>I.C.C. S.ELOY ARTIF. PLAT. MADRID. GREMIO JOY.PLATEROS Y RELOJEROS DE MADRID.</x:t>
+          <x:t>MONTE BATRES EVENTOS SL</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="239">
       <x:c r="A239" t="inlineStr">
         <x:is>
-          <x:t>25/4964</x:t>
+          <x:t>25/5761</x:t>
         </x:is>
       </x:c>
       <x:c r="B239" t="inlineStr">
         <x:is>
-          <x:t>TMVO0111</x:t>
+          <x:t>ARGI0209</x:t>
         </x:is>
       </x:c>
       <x:c r="C239" t="inlineStr">
         <x:is>
-          <x:t>TRIPULACIÓN DE CABINA DE PASAJEROS</x:t>
+          <x:t>IMPRESIÓN DIGITAL</x:t>
         </x:is>
       </x:c>
       <x:c r="D239" s="1" t="n">
-        <x:v>46079.9583333333</x:v>
+        <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E239" s="2" t="n">
-        <x:v>46201.9166666667</x:v>
+        <x:v>46184.9166666667</x:v>
       </x:c>
       <x:c r="F239" t="inlineStr">
         <x:is>
@@ -8078,31 +8078,31 @@
       </x:c>
       <x:c r="G239" t="inlineStr">
         <x:is>
-          <x:t>BAI FORMACIÓN SA</x:t>
+          <x:t>FUNDACION VILLENA LA SALLE</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row r="240">
       <x:c r="A240" t="inlineStr">
         <x:is>
-          <x:t>25/8058</x:t>
+          <x:t>25/5765</x:t>
         </x:is>
       </x:c>
       <x:c r="B240" t="inlineStr">
         <x:is>
-          <x:t>COMT0211</x:t>
+          <x:t>ARTB0112</x:t>
         </x:is>
       </x:c>
       <x:c r="C240" t="inlineStr">
         <x:is>
-          <x:t>ACTIVIDADES AUXILIARES DE COMERCIO</x:t>
+          <x:t>REPOSICIÓN, MONTAJE Y MANTENIMIENTO DE ELEMENTOS DE RELOJERÍA FINA</x:t>
         </x:is>
       </x:c>
       <x:c r="D240" s="1" t="n">
-        <x:v>46079.9583333333</x:v>
+        <x:v>46082.9583333333</x:v>
       </x:c>
       <x:c r="E240" s="2" t="n">
-        <x:v>46139.9166666667</x:v>
+        <x:v>46170.9166666667</x:v>
       </x:c>
       <x:c r="F240" t="inlineStr">
         <x:is>
@@ -8111,7 +8111,7 @@
       </x:c>
       <x:c r="G240" t="inlineStr">
         <x:is>
-          <x:t>MOSTOLES DESARROLLO PROMOCION ECONOMICA S.A.</x:t>
+          <x:t>I.C.C. S.ELOY ARTIF. PLAT. MADRID. GREMIO JOY.PLATEROS Y RELOJEROS DE MADRID.</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/public/madrid_cursos.xlsx
+++ b/public/madrid_cursos.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R2168d2f32d9a427b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Buscador de Cursos - Público " sheetId="1" r:id="R5164b741ae43458f"/>
   </x:sheets>
 </x:workbook>
 </file>
